--- a/Portfolio/ETF计划 XIRR 已投入收益率计算.xlsx
+++ b/Portfolio/ETF计划 XIRR 已投入收益率计算.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="21600" windowHeight="37120"/>
+    <workbookView xWindow="28800" yWindow="-8860" windowWidth="21600" windowHeight="37940"/>
   </bookViews>
   <sheets>
     <sheet name="已投部分年化收益率" sheetId="1" r:id="rId1"/>
@@ -213,7 +213,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15291" uniqueCount="7422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15299" uniqueCount="7422">
   <si>
     <t>日期</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -23250,7 +23250,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -23396,8 +23396,86 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -23659,6 +23737,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -23666,7 +23747,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="75">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
@@ -23692,6 +23773,19 @@
     <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="73" builtinId="8" hidden="1"/>
     <cellStyle name="货币" xfId="2" builtinId="4"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -23716,8 +23810,31 @@
     <cellStyle name="已访问的超链接" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="74" builtinId="9" hidden="1"/>
   </cellStyles>
-  <dxfs count="41">
+  <dxfs count="43">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -24100,10 +24217,10 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.3188692375</c:v>
+                  <c:v>0.3027668625</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.6586845</c:v>
+                  <c:v>0.674786875</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.0224462625</c:v>
@@ -24241,7 +24358,7 @@
                   <c:v>0.039857</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2110085125</c:v>
+                  <c:v>0.2191108875</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.0496231625</c:v>
@@ -24250,7 +24367,7 @@
                   <c:v>0.0160856125</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.045076225</c:v>
+                  <c:v>0.053076225</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.05675</c:v>
@@ -24311,31 +24428,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>10.75488798955648</c:v>
+                  <c:v>10.43208290621563</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.59069078906364</c:v>
+                  <c:v>11.616671273409</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22.62910208550715</c:v>
+                  <c:v>22.51015788919532</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>27.96782740726237</c:v>
+                  <c:v>28.0034867064368</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32.95587469161178</c:v>
+                  <c:v>32.93009244895304</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>29.33975102718727</c:v>
+                  <c:v>28.8059169465404</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>24.53581465781016</c:v>
+                  <c:v>24.08706948983941</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>26.10761526763671</c:v>
+                  <c:v>25.93405044277866</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>29.50423587378749</c:v>
+                  <c:v>29.47566473371001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -24830,34 +24947,34 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.01116349237625</c:v>
+                  <c:v>0.01136524151375</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.05204295894</c:v>
+                  <c:v>0.0533466310775</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.11201189505375</c:v>
+                  <c:v>0.11376686947875</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.07561670313125</c:v>
+                  <c:v>0.07656792195625</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.03090111471375</c:v>
+                  <c:v>0.03145693763875</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1069209044575</c:v>
+                  <c:v>0.107861590195</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.12907113587375</c:v>
+                  <c:v>0.13773958181125</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.07395253363875</c:v>
+                  <c:v>0.07530644050125</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.00572226210625</c:v>
+                  <c:v>0.00584136701875</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0250682440125</c:v>
+                  <c:v>0.02532184835</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -25562,7 +25679,7 @@
   <dimension ref="A1:Z136"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="W42" sqref="W42"/>
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -25684,14 +25801,14 @@
       </c>
       <c r="S2" s="18">
         <f>(SUM(S4:S7) - SUM(Q4:Q7))/$Q$2</f>
-        <v>-5.8125119744791592E-2</v>
+        <v>-9.2899432244791677E-2</v>
       </c>
       <c r="T2" s="18" t="s">
         <v>214</v>
       </c>
       <c r="U2" s="18">
         <f>(SUM(S4:S6) - SUM(Q4:Q6))/SUM(Q4:Q6)</f>
-        <v>-0.10881583797981656</v>
+        <v>-0.15529088582097098</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
@@ -25718,19 +25835,19 @@
       </c>
       <c r="H3" s="21">
         <f>$F3*$T$20</f>
-        <v>29.029876224156695</v>
+        <v>28.96804721030043</v>
       </c>
       <c r="I3" s="21">
         <f>$F3*$V$20</f>
-        <v>3.550340043525571</v>
+        <v>3.5441416309012874</v>
       </c>
       <c r="J3" s="21">
         <f t="shared" ref="J3:J66" si="0">H3*(-$M3)</f>
-        <v>214821.08405875953</v>
+        <v>214363.54935622317</v>
       </c>
       <c r="K3" s="21">
         <f t="shared" ref="K3:K66" si="1">I3*(-$M3)</f>
-        <v>26272.516322089225</v>
+        <v>26226.648068669529</v>
       </c>
       <c r="L3" s="7" t="s">
         <v>10</v>
@@ -25783,19 +25900,19 @@
       </c>
       <c r="H4" s="21">
         <f>F4*$T$13</f>
-        <v>10.219891975308643</v>
+        <v>9.9131446540880486</v>
       </c>
       <c r="I4" s="21">
         <f>F4*$V$13</f>
-        <v>1.2113888888888888</v>
+        <v>1.1754716981132074</v>
       </c>
       <c r="J4" s="21">
         <f t="shared" si="0"/>
-        <v>40470.772222222229</v>
+        <v>39256.052830188673</v>
       </c>
       <c r="K4" s="21">
         <f t="shared" si="1"/>
-        <v>4797.0999999999995</v>
+        <v>4654.867924528301</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>10</v>
@@ -25812,18 +25929,18 @@
       </c>
       <c r="Q4" s="52">
         <f>SUMIF(L:L,"=天天基金",M:M)*-1</f>
-        <v>187035.11000000002</v>
+        <v>193435.11000000002</v>
       </c>
       <c r="R4" s="52">
-        <v>-4576.83</v>
+        <v>-11050.26</v>
       </c>
       <c r="S4" s="69">
         <f>Q4+R4</f>
-        <v>182458.28000000003</v>
+        <v>182384.85</v>
       </c>
       <c r="T4" s="26">
         <f>S4/Q4-1</f>
-        <v>-2.4470432316157087E-2</v>
+        <v>-5.7126444108311136E-2</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
@@ -25850,19 +25967,19 @@
       </c>
       <c r="H5" s="21">
         <f>E5*$T$21</f>
-        <v>23.965432382704691</v>
+        <v>23.876958525345621</v>
       </c>
       <c r="I5" s="21">
         <f>E5*$V$21</f>
-        <v>3.0453311867525299</v>
+        <v>3.0369815668202764</v>
       </c>
       <c r="J5" s="21">
         <f t="shared" si="0"/>
-        <v>94903.112235510576</v>
+        <v>94552.755760368658</v>
       </c>
       <c r="K5" s="21">
         <f t="shared" si="1"/>
-        <v>12059.511499540018</v>
+        <v>12026.447004608295</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>10</v>
@@ -25882,15 +25999,15 @@
         <v>12000</v>
       </c>
       <c r="R5" s="52">
-        <v>-3254.25</v>
+        <v>-3789.67</v>
       </c>
       <c r="S5" s="69">
         <f>Q5+R5</f>
-        <v>8745.75</v>
+        <v>8210.33</v>
       </c>
       <c r="T5" s="26">
         <f>S5/Q5-1</f>
-        <v>-0.27118750000000003</v>
+        <v>-0.31580583333333334</v>
       </c>
       <c r="W5" t="s">
         <v>201</v>
@@ -25943,23 +26060,23 @@
       </c>
       <c r="Q6" s="52">
         <f>SUMIF(L:L,"=股票账户",M:M)*-1</f>
-        <v>356510.49</v>
+        <v>362992.39</v>
       </c>
       <c r="R6" s="52">
-        <f>-52621.08</f>
-        <v>-52621.08</v>
+        <f>-73431.68</f>
+        <v>-73431.679999999993</v>
       </c>
       <c r="S6" s="69">
         <f>Q6+R6</f>
-        <v>303889.40999999997</v>
+        <v>289560.71000000002</v>
       </c>
       <c r="T6" s="26">
         <f>S6/Q6-1</f>
-        <v>-0.14760036934677578</v>
+        <v>-0.20229537043462531</v>
       </c>
       <c r="W6" s="72">
         <f>296653.78-Q7+19200</f>
-        <v>71399.38</v>
+        <v>84281.280000000028</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
@@ -25986,19 +26103,19 @@
       </c>
       <c r="H7" s="21">
         <f>F7*$T$20</f>
-        <v>30.285423014145813</v>
+        <v>30.220919885550789</v>
       </c>
       <c r="I7" s="21">
         <f>F7*$V$20</f>
-        <v>3.7038928182807398</v>
+        <v>3.6974263233190272</v>
       </c>
       <c r="J7" s="21">
         <f t="shared" si="0"/>
-        <v>119930.27513601742</v>
+        <v>119674.84274678113</v>
       </c>
       <c r="K7" s="21">
         <f t="shared" si="1"/>
-        <v>14667.41556039173</v>
+        <v>14641.808240343347</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>10</v>
@@ -26015,7 +26132,7 @@
       </c>
       <c r="Q7" s="11">
         <f>Q2-SUM(Q4:Q6)</f>
-        <v>244454.40000000002</v>
+        <v>231572.5</v>
       </c>
       <c r="R7" s="11">
         <f>W57</f>
@@ -26023,11 +26140,11 @@
       </c>
       <c r="S7" s="11">
         <f>Q7+R7</f>
-        <v>258406.4642041667</v>
+        <v>245524.56420416667</v>
       </c>
       <c r="T7" s="26">
         <f>S7/Q7-1</f>
-        <v>5.7074301809117323E-2</v>
+        <v>6.024922736579974E-2</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
@@ -26054,19 +26171,19 @@
       </c>
       <c r="H8" s="21">
         <f>F8*$T$21</f>
-        <v>24.919553817847284</v>
+        <v>24.827557603686635</v>
       </c>
       <c r="I8" s="21">
         <f>E8*$V$21</f>
-        <v>3.1665731370745167</v>
+        <v>3.1578910987145283</v>
       </c>
       <c r="J8" s="21">
         <f t="shared" si="0"/>
-        <v>98681.433118675239</v>
+        <v>98317.128110599078</v>
       </c>
       <c r="K8" s="21">
         <f t="shared" si="1"/>
-        <v>12539.629622815086</v>
+        <v>12505.248750909532</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>10</v>
@@ -26149,19 +26266,19 @@
       </c>
       <c r="H10" s="21">
         <f>F10*$T$21</f>
-        <v>24.809655013799446</v>
+        <v>24.718064516129029</v>
       </c>
       <c r="I10" s="21">
         <f>E10*$V$21</f>
-        <v>3.1526080956761726</v>
+        <v>3.1439643463497453</v>
       </c>
       <c r="J10" s="21">
         <f t="shared" si="0"/>
-        <v>98246.233854645805</v>
+        <v>97883.535483870961</v>
       </c>
       <c r="K10" s="21">
         <f t="shared" si="1"/>
-        <v>12484.328058877643</v>
+        <v>12450.098811544991</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>10</v>
@@ -26198,19 +26315,19 @@
       </c>
       <c r="H11" s="21">
         <f>F11*$T$19</f>
-        <v>29.764156371636485</v>
+        <v>29.785862192074259</v>
       </c>
       <c r="I11" s="21">
         <f>F11*$V$19</f>
-        <v>3.6401421560331699</v>
+        <v>3.6441985005355231</v>
       </c>
       <c r="J11" s="21">
         <f t="shared" si="0"/>
-        <v>118866.13488576746</v>
+        <v>118952.81925026776</v>
       </c>
       <c r="K11" s="21">
         <f t="shared" si="1"/>
-        <v>14537.271714334067</v>
+        <v>14553.471131738665</v>
       </c>
       <c r="L11" s="5" t="s">
         <v>24</v>
@@ -26259,19 +26376,19 @@
       </c>
       <c r="H12" s="21">
         <f>F12*$T$16</f>
-        <v>25.131248858679115</v>
+        <v>25.191437295528896</v>
       </c>
       <c r="I12" s="21">
         <f>F12*$V$16</f>
-        <v>2.2739048392005681</v>
+        <v>2.2747175572519085</v>
       </c>
       <c r="J12" s="21">
         <f t="shared" si="0"/>
-        <v>97699.740438023757</v>
+        <v>97933.72780135223</v>
       </c>
       <c r="K12" s="21">
         <f t="shared" si="1"/>
-        <v>8839.9869747793437</v>
+        <v>8843.1464812213744</v>
       </c>
       <c r="L12" s="5" t="s">
         <v>24</v>
@@ -26339,19 +26456,19 @@
       </c>
       <c r="H13" s="21">
         <f>F13*$T$19</f>
-        <v>29.787265188695208</v>
+        <v>29.808987861478041</v>
       </c>
       <c r="I13" s="21">
         <f>F13*$V$19</f>
-        <v>3.642968353359282</v>
+        <v>3.6470278471974291</v>
       </c>
       <c r="J13" s="21">
         <f t="shared" si="0"/>
-        <v>119050.76277965814</v>
+        <v>119137.58178596928</v>
       </c>
       <c r="K13" s="21">
         <f t="shared" si="1"/>
-        <v>14559.851617871042</v>
+        <v>14576.076196893964</v>
       </c>
       <c r="L13" s="5" t="s">
         <v>24</v>
@@ -26370,29 +26487,29 @@
         <v>100032</v>
       </c>
       <c r="R13" s="64">
-        <v>2.5920000000000001</v>
+        <v>2.544</v>
       </c>
       <c r="S13" s="57">
-        <v>10.63</v>
+        <v>10.119999999999999</v>
       </c>
       <c r="T13" s="58">
         <f t="shared" ref="T13:T25" si="2">S13/R13</f>
-        <v>4.1010802469135808</v>
+        <v>3.9779874213836472</v>
       </c>
       <c r="U13" s="57">
-        <v>1.26</v>
+        <v>1.2</v>
       </c>
       <c r="V13" s="58">
         <f>U13/R13</f>
-        <v>0.4861111111111111</v>
+        <v>0.47169811320754712</v>
       </c>
       <c r="W13" s="75">
         <f>SUMIF(C:C,"=红利",J:J)/SUMIF(C:C,"=红利",M:M)*-1</f>
-        <v>10.754887989556478</v>
+        <v>10.432082906215628</v>
       </c>
       <c r="X13" s="75">
         <f>SUMIF(C:C,"=红利",K:K)/SUMIF(C:C,"=红利",M:M)*-1</f>
-        <v>1.2748032800415015</v>
+        <v>1.2370058782073867</v>
       </c>
       <c r="Y13" s="59">
         <f>(SUMIF(C:C,"=红利",M:M)*-1)/$Q$2</f>
@@ -26424,19 +26541,19 @@
       </c>
       <c r="H14" s="21">
         <f>F14*$T$16</f>
-        <v>23.579458253018164</v>
+        <v>23.635930207197383</v>
       </c>
       <c r="I14" s="21">
         <f>F14*$V$16</f>
-        <v>2.1334970072030033</v>
+        <v>2.1342595419847332</v>
       </c>
       <c r="J14" s="21">
         <f t="shared" si="0"/>
-        <v>85989.568357106647</v>
+        <v>86195.510279607421</v>
       </c>
       <c r="K14" s="21">
         <f t="shared" si="1"/>
-        <v>7780.4368858679127</v>
+        <v>7783.2176977099252</v>
       </c>
       <c r="L14" s="5" t="s">
         <v>24</v>
@@ -26455,29 +26572,29 @@
         <v>510050</v>
       </c>
       <c r="R14" s="64">
-        <v>2.5470000000000002</v>
+        <v>2.4409999999999998</v>
       </c>
       <c r="S14" s="57">
-        <v>9.86</v>
+        <v>9.4600000000000009</v>
       </c>
       <c r="T14" s="58">
         <f t="shared" si="2"/>
-        <v>3.8712210443659201</v>
+        <v>3.8754608766898819</v>
       </c>
       <c r="U14" s="57">
-        <v>1.23</v>
+        <v>1.18</v>
       </c>
       <c r="V14" s="58">
         <f t="shared" ref="V14:V34" si="3">U14/R14</f>
-        <v>0.4829210836277974</v>
+        <v>0.48340843916427695</v>
       </c>
       <c r="W14" s="75">
         <f>SUMIF(C:C,"=50ETF",J:J)/SUMIF(C:C,"=50ETF",M:M)*-1</f>
-        <v>9.2367334118570863</v>
+        <v>9.2468496517820586</v>
       </c>
       <c r="X14" s="75">
         <f>SUMIF(C:C,"=50ETF",K:K)/SUMIF(C:C,"=50ETF",M:M)*-1</f>
-        <v>1.1522497055359247</v>
+        <v>1.1534125358459648</v>
       </c>
       <c r="Y14" s="59">
         <f>(SUMIF(C:C,"=50ETF",M:M)*-1)/$Q$2</f>
@@ -26509,19 +26626,19 @@
       </c>
       <c r="H15" s="21">
         <f>F15*$T$21</f>
-        <v>24.874595216191349</v>
+        <v>24.782764976958525</v>
       </c>
       <c r="I15" s="21">
         <f>E15*$V$21</f>
-        <v>3.1608601655933759</v>
+        <v>3.1521937909289353</v>
       </c>
       <c r="J15" s="21">
         <f t="shared" si="0"/>
-        <v>197006.79411223548</v>
+        <v>196279.4986175115</v>
       </c>
       <c r="K15" s="21">
         <f t="shared" si="1"/>
-        <v>25034.012511499539</v>
+        <v>24965.374824157167</v>
       </c>
       <c r="L15" s="7" t="s">
         <v>10</v>
@@ -26540,29 +26657,29 @@
         <v>510300</v>
       </c>
       <c r="R15" s="64">
-        <v>3.3460999999999999</v>
+        <v>3.1859000000000002</v>
       </c>
       <c r="S15" s="57">
-        <v>11.22</v>
+        <v>10.72</v>
       </c>
       <c r="T15" s="58">
         <f t="shared" si="2"/>
-        <v>3.35315740713069</v>
+        <v>3.3648262657333876</v>
       </c>
       <c r="U15" s="57">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="V15" s="58">
         <f t="shared" si="3"/>
-        <v>0.41839753743163682</v>
+        <v>0.41746445274490723</v>
       </c>
       <c r="W15" s="75">
         <f>SUMIF(C:C,"=300ETF",J:J)/SUMIF(C:C,"=300ETF",M:M)*-1</f>
-        <v>11.590690789063636</v>
+        <v>11.616671273408995</v>
       </c>
       <c r="X15" s="75">
         <f>SUMIF(C:C,"=300ETF",K:K)/SUMIF(C:C,"=300ETF",M:M)*-1</f>
-        <v>1.4462537526460861</v>
+        <v>1.4412474620927203</v>
       </c>
       <c r="Y15" s="59">
         <f>(SUMIF(C:C,"=300ETF",M:M)*-1)/$Q$2</f>
@@ -26594,19 +26711,19 @@
       </c>
       <c r="H16" s="21">
         <f>F16*$T$19</f>
-        <v>29.024674225757316</v>
+        <v>29.045840771153156</v>
       </c>
       <c r="I16" s="21">
         <f>F16*$V$19</f>
-        <v>3.5497038415975628</v>
+        <v>3.553659407354516</v>
       </c>
       <c r="J16" s="21">
         <f t="shared" si="0"/>
-        <v>113010.47156540868</v>
+        <v>113092.88562656193</v>
       </c>
       <c r="K16" s="21">
         <f t="shared" si="1"/>
-        <v>13821.12687764427</v>
+        <v>13836.528268475544</v>
       </c>
       <c r="L16" s="5" t="s">
         <v>24</v>
@@ -26625,33 +26742,33 @@
         <v>510500</v>
       </c>
       <c r="R16" s="64">
-        <v>4.9284999999999997</v>
+        <v>4.585</v>
       </c>
       <c r="S16" s="57">
-        <v>19.12</v>
+        <v>17.829999999999998</v>
       </c>
       <c r="T16" s="58">
         <f t="shared" si="2"/>
-        <v>3.8794765141523797</v>
+        <v>3.8887677208287892</v>
       </c>
       <c r="U16" s="57">
-        <v>1.73</v>
+        <v>1.61</v>
       </c>
       <c r="V16" s="58">
         <f t="shared" si="3"/>
-        <v>0.35101957999391298</v>
+        <v>0.35114503816793896</v>
       </c>
       <c r="W16" s="75">
         <f>SUMIF(C:C,"=500ETF",J:J)/SUMIF(C:C,"=500ETF",M:M)*-1</f>
-        <v>22.629102085507153</v>
+        <v>22.510157889195316</v>
       </c>
       <c r="X16" s="75">
         <f>SUMIF(C:C,"=500ETF",K:K)/SUMIF(C:C,"=500ETF",M:M)*-1</f>
-        <v>2.0475076677786288</v>
+        <v>2.0326053954909962</v>
       </c>
       <c r="Y16" s="59">
         <f>(SUMIF(C:C,"=500ETF",M:M)*-1)/$Q$2</f>
-        <v>0.2110085125</v>
+        <v>0.21911088749999999</v>
       </c>
       <c r="Z16" s="2"/>
     </row>
@@ -26704,29 +26821,29 @@
         <v>512100</v>
       </c>
       <c r="R17" s="64">
-        <v>0.57620000000000005</v>
+        <v>0.53380000000000005</v>
       </c>
       <c r="S17" s="57">
-        <v>21.96</v>
+        <v>20.37</v>
       </c>
       <c r="T17" s="58">
         <f t="shared" si="2"/>
-        <v>38.111766747657065</v>
+        <v>38.160359685275381</v>
       </c>
       <c r="U17" s="57">
-        <v>1.97</v>
+        <v>1.83</v>
       </c>
       <c r="V17" s="58">
         <f t="shared" si="3"/>
-        <v>3.4189517528635887</v>
+        <v>3.4282502810041211</v>
       </c>
       <c r="W17" s="75">
         <f>SUMIF(C:C,"=1000ETF",J:J)/SUMIF(C:C,"=1000ETF",M:M)*-1</f>
-        <v>27.967827407262366</v>
+        <v>28.003486706436799</v>
       </c>
       <c r="X17" s="75">
         <f>SUMIF(C:C,"=1000ETF",K:K)/SUMIF(C:C,"=1000ETF",M:M)*-1</f>
-        <v>2.5089535515622425</v>
+        <v>2.5157771562483724</v>
       </c>
       <c r="Y17" s="59">
         <f>(SUMIF(C:C,"=1000ETF",M:M)*-1)/$Q$2</f>
@@ -26758,19 +26875,19 @@
       </c>
       <c r="H18" s="21">
         <f>F18*$T$13</f>
-        <v>10.412642746913582</v>
+        <v>10.100110062893082</v>
       </c>
       <c r="I18" s="21">
         <f>F18*$V$13</f>
-        <v>1.2342361111111111</v>
+        <v>1.1976415094339623</v>
       </c>
       <c r="J18" s="21">
         <f t="shared" si="0"/>
-        <v>41234.06527777778</v>
+        <v>39996.435849056601</v>
       </c>
       <c r="K18" s="21">
         <f t="shared" si="1"/>
-        <v>4887.5749999999998</v>
+        <v>4742.6603773584911</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>10</v>
@@ -26789,29 +26906,29 @@
         <v>159915</v>
       </c>
       <c r="R18" s="64">
-        <v>1.2837000000000001</v>
+        <v>1.2034</v>
       </c>
       <c r="S18" s="57">
-        <v>30.18</v>
+        <v>28.27</v>
       </c>
       <c r="T18" s="58">
         <f t="shared" si="2"/>
-        <v>23.510165926618367</v>
+        <v>23.491773308957953</v>
       </c>
       <c r="U18" s="57">
-        <v>3.56</v>
+        <v>3.34</v>
       </c>
       <c r="V18" s="58">
         <f t="shared" si="3"/>
-        <v>2.7732336215626705</v>
+        <v>2.7754695030746217</v>
       </c>
       <c r="W18" s="75">
         <f>SUMIF(C:C,"=创业板",J:J)/SUMIF(C:C,"=创业板",M:M)*-1</f>
-        <v>32.955874691611783</v>
+        <v>32.93009244895304</v>
       </c>
       <c r="X18" s="75">
         <f>SUMIF(C:C,"=创业板",K:K)/SUMIF(C:C,"=创业板",M:M)*-1</f>
-        <v>3.8874391617673281</v>
+        <v>3.8905733561904197</v>
       </c>
       <c r="Y18" s="59">
         <f>(SUMIF(C:C,"=创业板",M:M)*-1)/$Q$2</f>
@@ -26868,33 +26985,33 @@
         <v>159938</v>
       </c>
       <c r="R19" s="64">
-        <v>1.1818</v>
+        <v>1.1204000000000001</v>
       </c>
       <c r="S19" s="57">
-        <v>27.31</v>
+        <v>25.91</v>
       </c>
       <c r="T19" s="58">
         <f t="shared" si="2"/>
-        <v>23.108817058723979</v>
+        <v>23.125669403784361</v>
       </c>
       <c r="U19" s="57">
-        <v>3.34</v>
+        <v>3.17</v>
       </c>
       <c r="V19" s="58">
         <f t="shared" si="3"/>
-        <v>2.8261973261127094</v>
+        <v>2.8293466619064618</v>
       </c>
       <c r="W19" s="75">
         <f>SUMIF(C:C,"=医药",J:J)/SUMIF(C:C,"=医药",M:M)*-1</f>
-        <v>29.339751027187265</v>
+        <v>28.805916946540396</v>
       </c>
       <c r="X19" s="75">
         <f>SUMIF(C:C,"=医药",K:K)/SUMIF(C:C,"=医药",M:M)*-1</f>
-        <v>3.5882375844308112</v>
-      </c>
-      <c r="Y19" s="87">
+        <v>3.5243055469136655</v>
+      </c>
+      <c r="Y19" s="88">
         <f>(SUMIF(C:C,"=医药",M:M)*-1)/$Q$2</f>
-        <v>4.5076224999999998E-2</v>
+        <v>5.3076224999999998E-2</v>
       </c>
       <c r="Z19" s="2"/>
     </row>
@@ -26922,19 +27039,19 @@
       </c>
       <c r="H20" s="21">
         <f>F20*$T$16</f>
-        <v>25.54635284569342</v>
+        <v>25.607535441657575</v>
       </c>
       <c r="I20" s="21">
         <f>F20*$V$16</f>
-        <v>2.3114639342599168</v>
+        <v>2.312290076335878</v>
       </c>
       <c r="J20" s="21">
         <f t="shared" si="0"/>
-        <v>201907.64342416561</v>
+        <v>202391.20496597598</v>
       </c>
       <c r="K20" s="21">
         <f t="shared" si="1"/>
-        <v>18268.840121537993</v>
+        <v>18275.36960152672</v>
       </c>
       <c r="L20" s="5" t="s">
         <v>24</v>
@@ -26953,31 +27070,31 @@
         <v>189</v>
       </c>
       <c r="R20" s="64">
-        <v>0.73519999999999996</v>
+        <v>0.69899999999999995</v>
       </c>
       <c r="S20" s="57">
-        <v>27.31</v>
+        <v>25.91</v>
       </c>
       <c r="T20" s="58">
         <f t="shared" si="2"/>
-        <v>37.146354733405879</v>
+        <v>37.067238912732478</v>
       </c>
       <c r="U20" s="57">
-        <v>3.34</v>
+        <v>3.17</v>
       </c>
       <c r="V20" s="58">
         <f t="shared" si="3"/>
-        <v>4.5429815016322088</v>
+        <v>4.5350500715307582</v>
       </c>
       <c r="W20" s="75">
         <f>SUMIF(C:C,"=医药",J:J)/SUMIF(C:C,"=医药",M:M)*-1</f>
-        <v>29.339751027187265</v>
+        <v>28.805916946540396</v>
       </c>
       <c r="X20" s="75">
         <f>SUMIF(C:C,"=医药",K:K)/SUMIF(C:C,"=医药",M:M)*-1</f>
-        <v>3.5882375844308112</v>
-      </c>
-      <c r="Y20" s="88"/>
+        <v>3.5243055469136655</v>
+      </c>
+      <c r="Y20" s="89"/>
       <c r="Z20" s="2"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.2">
@@ -27004,19 +27121,19 @@
       </c>
       <c r="H21" s="21">
         <f>F21*$T$24</f>
-        <v>29.279770422804667</v>
+        <v>28.965865090686769</v>
       </c>
       <c r="I21" s="21">
         <f>F21*$V$24</f>
-        <v>2.5134742682226894</v>
+        <v>2.4894986753617281</v>
       </c>
       <c r="J21" s="21">
         <f t="shared" si="0"/>
-        <v>117119.08169121867</v>
+        <v>115863.46036274708</v>
       </c>
       <c r="K21" s="21">
         <f t="shared" si="1"/>
-        <v>10053.897072890757</v>
+        <v>9957.9947014469126</v>
       </c>
       <c r="L21" s="6" t="s">
         <v>16</v>
@@ -27035,29 +27152,29 @@
         <v>105</v>
       </c>
       <c r="R21" s="64">
-        <v>0.86960000000000004</v>
+        <v>0.8246</v>
       </c>
       <c r="S21" s="57">
-        <v>21.72</v>
+        <v>20.52</v>
       </c>
       <c r="T21" s="58">
         <f t="shared" si="2"/>
-        <v>24.977000919963199</v>
+        <v>24.88479262672811</v>
       </c>
       <c r="U21" s="57">
-        <v>2.76</v>
+        <v>2.61</v>
       </c>
       <c r="V21" s="58">
         <f t="shared" si="3"/>
-        <v>3.1738730450781967</v>
+        <v>3.1651709919961193</v>
       </c>
       <c r="W21" s="75">
         <f>SUMIF(C:C,"=养老",J:J)/SUMIF(C:C,"=养老",M:M)*-1</f>
-        <v>24.53581465781016</v>
+        <v>24.087069489839415</v>
       </c>
       <c r="X21" s="75">
         <f>SUMIF(C:C,"=养老",K:K)/SUMIF(C:C,"=养老",M:M)*-1</f>
-        <v>3.0260899659167819</v>
+        <v>3.0177931011271246</v>
       </c>
       <c r="Y21" s="59">
         <f>(SUMIF(C:C,"=养老",M:M)*-1)/$Q$2</f>
@@ -27089,19 +27206,19 @@
       </c>
       <c r="H22" s="21">
         <f>F22*$T$16</f>
-        <v>24.983828751141328</v>
+        <v>25.043664122137404</v>
       </c>
       <c r="I22" s="21">
         <f t="shared" ref="I22:I23" si="4">F22*$V$16</f>
-        <v>2.2605660951607995</v>
+        <v>2.261374045801527</v>
       </c>
       <c r="J22" s="21">
         <f t="shared" si="0"/>
-        <v>96556.751842548474</v>
+        <v>96788.00178931297</v>
       </c>
       <c r="K22" s="21">
         <f t="shared" si="1"/>
-        <v>8736.5680275946033</v>
+        <v>8739.6905709923667</v>
       </c>
       <c r="L22" s="5" t="s">
         <v>24</v>
@@ -27120,29 +27237,29 @@
         <v>512880</v>
       </c>
       <c r="R22" s="64">
-        <v>0.70240000000000002</v>
+        <v>0.65149999999999997</v>
       </c>
       <c r="S22" s="57">
-        <v>18.66</v>
+        <v>17.29</v>
       </c>
       <c r="T22" s="58">
         <f t="shared" si="2"/>
-        <v>26.566059225512529</v>
+        <v>26.538756715272449</v>
       </c>
       <c r="U22" s="57">
-        <v>1.17</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="V22" s="58">
         <f t="shared" si="3"/>
-        <v>1.6657175398633255</v>
+        <v>1.6730621642363779</v>
       </c>
       <c r="W22" s="75">
         <f>SUMIF(C:C,"=证券",J:J)/SUMIF(C:C,"=证券",M:M)*-1</f>
-        <v>22.556589044451581</v>
+        <v>22.533407152920756</v>
       </c>
       <c r="X22" s="75">
         <f>SUMIF(C:C,"=证券",K:K)/SUMIF(C:C,"=证券",M:M)*-1</f>
-        <v>1.4143198918546811</v>
+        <v>1.4205560321968551</v>
       </c>
       <c r="Y22" s="59">
         <f>(SUMIF(C:C,"=证券",M:M)*-1)/$Q$2</f>
@@ -27174,19 +27291,19 @@
       </c>
       <c r="H23" s="21">
         <f>F23*$T$16</f>
-        <v>25.503678604037745</v>
+        <v>25.564758996728461</v>
       </c>
       <c r="I23" s="21">
         <f t="shared" si="4"/>
-        <v>2.3076027188799837</v>
+        <v>2.3084274809160306</v>
       </c>
       <c r="J23" s="21">
         <f t="shared" si="0"/>
-        <v>100616.85779186367</v>
+        <v>100857.83154630316</v>
       </c>
       <c r="K23" s="21">
         <f t="shared" si="1"/>
-        <v>9103.9311704981228</v>
+        <v>9107.1850134351153</v>
       </c>
       <c r="L23" s="5" t="s">
         <v>24</v>
@@ -27205,31 +27322,31 @@
         <v>512580</v>
       </c>
       <c r="R23" s="64">
-        <v>0.68640000000000001</v>
+        <v>0.64059999999999995</v>
       </c>
       <c r="S23" s="57">
-        <v>19.920000000000002</v>
+        <v>18.5</v>
       </c>
       <c r="T23" s="58">
         <f t="shared" si="2"/>
-        <v>29.020979020979023</v>
+        <v>28.879175772713083</v>
       </c>
       <c r="U23" s="57">
-        <v>1.71</v>
+        <v>1.59</v>
       </c>
       <c r="V23" s="58">
         <f t="shared" si="3"/>
-        <v>2.4912587412587412</v>
+        <v>2.4820480799250704</v>
       </c>
       <c r="W23" s="75">
         <f>SUMIF(C:C,"=环保",J:J)/SUMIF(C:C,"=环保",M:M)*-1</f>
-        <v>26.107615267636714</v>
+        <v>25.934050442778659</v>
       </c>
       <c r="X23" s="75">
         <f>SUMIF(C:C,"=环保",K:K)/SUMIF(C:C,"=环保",M:M)*-1</f>
-        <v>2.2411657684567663</v>
-      </c>
-      <c r="Y23" s="87">
+        <v>2.22892649751449</v>
+      </c>
+      <c r="Y23" s="88">
         <f>(SUMIF(C:C,"=环保",M:M)*-1)/$Q$2</f>
         <v>5.2069037499999998E-2</v>
       </c>
@@ -27259,11 +27376,11 @@
       </c>
       <c r="H24" s="21">
         <f>F24*$T$13</f>
-        <v>11.585551697530866</v>
+        <v>11.237814465408805</v>
       </c>
       <c r="I24" s="21">
         <f>F24*$V$13</f>
-        <v>1.3732638888888891</v>
+        <v>1.3325471698113207</v>
       </c>
       <c r="J24" s="21">
         <f t="shared" si="0"/>
@@ -27290,31 +27407,31 @@
         <v>106</v>
       </c>
       <c r="R24" s="64">
-        <v>0.52270000000000005</v>
+        <v>0.49070000000000003</v>
       </c>
       <c r="S24" s="57">
-        <v>19.920000000000002</v>
+        <v>18.5</v>
       </c>
       <c r="T24" s="58">
         <f t="shared" si="2"/>
-        <v>38.109814425100438</v>
+        <v>37.701243122070508</v>
       </c>
       <c r="U24" s="57">
-        <v>1.71</v>
+        <v>1.59</v>
       </c>
       <c r="V24" s="58">
         <f t="shared" si="3"/>
-        <v>3.2714750334800073</v>
+        <v>3.2402690034644386</v>
       </c>
       <c r="W24" s="75">
         <f>SUMIF(C:C,"=环保",J:J)/SUMIF(C:C,"=环保",M:M)*-1</f>
-        <v>26.107615267636714</v>
+        <v>25.934050442778659</v>
       </c>
       <c r="X24" s="75">
         <f>SUMIF(C:C,"=环保",K:K)/SUMIF(C:C,"=环保",M:M)*-1</f>
-        <v>2.2411657684567663</v>
-      </c>
-      <c r="Y24" s="88"/>
+        <v>2.22892649751449</v>
+      </c>
+      <c r="Y24" s="89"/>
       <c r="Z24" s="2"/>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.2">
@@ -27341,19 +27458,19 @@
       </c>
       <c r="H25" s="21">
         <f>F25*$T$25</f>
-        <v>33.539094650205762</v>
+        <v>33.506616257088844</v>
       </c>
       <c r="I25" s="21">
         <f>F25*$V$25</f>
-        <v>3.8800705467372136</v>
+        <v>3.8752362948960299</v>
       </c>
       <c r="J25" s="21">
         <f t="shared" si="0"/>
-        <v>134183.20987654323</v>
+        <v>134053.27032136105</v>
       </c>
       <c r="K25" s="21">
         <f t="shared" si="1"/>
-        <v>15523.386243386245</v>
+        <v>15504.045368620038</v>
       </c>
       <c r="L25" s="5" t="s">
         <v>24</v>
@@ -27372,29 +27489,29 @@
         <v>512980</v>
       </c>
       <c r="R25" s="64">
-        <v>0.6804</v>
+        <v>0.63480000000000003</v>
       </c>
       <c r="S25" s="57">
-        <v>22.82</v>
+        <v>21.27</v>
       </c>
       <c r="T25" s="58">
         <f t="shared" si="2"/>
-        <v>33.539094650205762</v>
+        <v>33.506616257088844</v>
       </c>
       <c r="U25" s="57">
-        <v>2.64</v>
+        <v>2.46</v>
       </c>
       <c r="V25" s="58">
         <f t="shared" si="3"/>
-        <v>3.8800705467372136</v>
+        <v>3.8752362948960299</v>
       </c>
       <c r="W25" s="75">
         <f>SUMIF(C:C,"=传媒",J:J)/SUMIF(C:C,"=传媒",M:M)*-1</f>
-        <v>29.504235873787493</v>
+        <v>29.475664733710008</v>
       </c>
       <c r="X25" s="75">
         <f>SUMIF(C:C,"=传媒",K:K)/SUMIF(C:C,"=传媒",M:M)*-1</f>
-        <v>3.4132858329009195</v>
+        <v>3.4090331567901559</v>
       </c>
       <c r="Y25" s="59">
         <f>(SUMIF(C:C,"=传媒",M:M)*-1)/$Q$2</f>
@@ -27426,19 +27543,19 @@
       </c>
       <c r="H26" s="21">
         <f>F26*$T$16</f>
-        <v>25.022623516282849</v>
+        <v>25.082551799345691</v>
       </c>
       <c r="I26" s="21">
         <f>F26*$V$16</f>
-        <v>2.2640762909607388</v>
+        <v>2.2648854961832066</v>
       </c>
       <c r="J26" s="21">
         <f t="shared" si="0"/>
-        <v>96856.820428122155</v>
+        <v>97088.78902835332</v>
       </c>
       <c r="K26" s="21">
         <f t="shared" si="1"/>
-        <v>8763.7185847620985</v>
+        <v>8766.8508320610708</v>
       </c>
       <c r="L26" s="5" t="s">
         <v>24</v>
@@ -27457,21 +27574,21 @@
         <v>190</v>
       </c>
       <c r="R26" s="64">
-        <v>0.86099999999999999</v>
+        <v>0.82899999999999996</v>
       </c>
       <c r="S26" s="57">
-        <v>9.86</v>
+        <v>9.4600000000000009</v>
       </c>
       <c r="T26" s="58">
         <f t="shared" ref="T26:T34" si="5">S26/R26</f>
-        <v>11.451800232288036</v>
+        <v>11.41133896260555</v>
       </c>
       <c r="U26" s="57">
-        <v>1.23</v>
+        <v>1.18</v>
       </c>
       <c r="V26" s="58">
         <f t="shared" si="3"/>
-        <v>1.4285714285714286</v>
+        <v>1.4234016887816647</v>
       </c>
       <c r="W26" s="61"/>
       <c r="X26" s="61"/>
@@ -27502,19 +27619,19 @@
       </c>
       <c r="H27" s="21">
         <f>F27*$T$24</f>
-        <v>26.627327338817675</v>
+        <v>26.341858569390663</v>
       </c>
       <c r="I27" s="21">
         <f>F27*$V$24</f>
-        <v>2.2857796058924813</v>
+        <v>2.2639759527206031</v>
       </c>
       <c r="J27" s="21">
         <f t="shared" si="0"/>
-        <v>106509.3093552707</v>
+        <v>105367.43427756266</v>
       </c>
       <c r="K27" s="21">
         <f t="shared" si="1"/>
-        <v>9143.1184235699257</v>
+        <v>9055.9038108824134</v>
       </c>
       <c r="L27" s="6" t="s">
         <v>16</v>
@@ -27533,21 +27650,21 @@
         <v>191</v>
       </c>
       <c r="R27" s="64">
-        <v>1.7765</v>
+        <v>1.6609</v>
       </c>
       <c r="S27" s="57">
-        <v>19.12</v>
+        <v>17.829999999999998</v>
       </c>
       <c r="T27" s="58">
         <f t="shared" si="5"/>
-        <v>10.762735716296088</v>
+        <v>10.735143596845083</v>
       </c>
       <c r="U27" s="57">
-        <v>1.73</v>
+        <v>1.61</v>
       </c>
       <c r="V27" s="58">
         <f t="shared" si="3"/>
-        <v>0.97382493667323389</v>
+        <v>0.96935396471792401</v>
       </c>
       <c r="W27" s="61"/>
       <c r="X27" s="61"/>
@@ -27578,19 +27695,19 @@
       </c>
       <c r="H28" s="21">
         <f>F28*$T$16</f>
-        <v>23.443676575022831</v>
+        <v>23.499823336968372</v>
       </c>
       <c r="I28" s="21">
         <f t="shared" ref="I28:I29" si="6">F28*$V$16</f>
-        <v>2.1212113219032163</v>
+        <v>2.121969465648855</v>
       </c>
       <c r="J28" s="21">
         <f t="shared" si="0"/>
-        <v>184207.98537794466</v>
+        <v>184649.15687552889</v>
       </c>
       <c r="K28" s="21">
         <f t="shared" si="1"/>
-        <v>16667.354325514865</v>
+        <v>16673.311417251909</v>
       </c>
       <c r="L28" s="5" t="s">
         <v>24</v>
@@ -27609,21 +27726,21 @@
         <v>192</v>
       </c>
       <c r="R28" s="64">
-        <v>0.50900000000000001</v>
+        <v>0.47599999999999998</v>
       </c>
       <c r="S28" s="57">
-        <v>19.12</v>
+        <v>17.829999999999998</v>
       </c>
       <c r="T28" s="58">
         <f t="shared" si="5"/>
-        <v>37.563850687622789</v>
+        <v>37.457983193277308</v>
       </c>
       <c r="U28" s="57">
-        <v>1.73</v>
+        <v>1.61</v>
       </c>
       <c r="V28" s="58">
         <f t="shared" si="3"/>
-        <v>3.398821218074656</v>
+        <v>3.382352941176471</v>
       </c>
       <c r="W28" s="61"/>
       <c r="X28" s="61"/>
@@ -27654,19 +27771,19 @@
       </c>
       <c r="H29" s="21">
         <f>F29*$T$16</f>
-        <v>23.335051232626562</v>
+        <v>23.390937840785167</v>
       </c>
       <c r="I29" s="21">
         <f t="shared" si="6"/>
-        <v>2.1113827736633866</v>
+        <v>2.1121374045801526</v>
       </c>
       <c r="J29" s="21">
         <f t="shared" si="0"/>
-        <v>1165223.6490745666</v>
+        <v>1168014.3177919302</v>
       </c>
       <c r="K29" s="21">
         <f t="shared" si="1"/>
-        <v>105430.80088383891</v>
+        <v>105468.48298625955</v>
       </c>
       <c r="L29" s="5" t="s">
         <v>24</v>
@@ -27685,21 +27802,21 @@
         <v>161017</v>
       </c>
       <c r="R29" s="64">
-        <v>1.7849999999999999</v>
+        <v>1.673</v>
       </c>
       <c r="S29" s="57">
-        <v>19.12</v>
+        <v>17.829999999999998</v>
       </c>
       <c r="T29" s="58">
         <f t="shared" si="5"/>
-        <v>10.711484593837536</v>
+        <v>10.657501494321577</v>
       </c>
       <c r="U29" s="57">
-        <v>1.73</v>
+        <v>1.61</v>
       </c>
       <c r="V29" s="58">
         <f t="shared" si="3"/>
-        <v>0.96918767507002801</v>
+        <v>0.96234309623430969</v>
       </c>
       <c r="W29" s="61"/>
       <c r="X29" s="61"/>
@@ -27730,19 +27847,19 @@
       </c>
       <c r="H30" s="21">
         <f>F30*$T$13</f>
-        <v>11.019602623456791</v>
+        <v>10.688852201257859</v>
       </c>
       <c r="I30" s="21">
         <f>F30*$V$13</f>
-        <v>1.3061805555555555</v>
+        <v>1.2674528301886789</v>
       </c>
       <c r="J30" s="21">
         <f t="shared" si="0"/>
-        <v>220392.05246913582</v>
+        <v>213777.04402515717</v>
       </c>
       <c r="K30" s="21">
         <f t="shared" si="1"/>
-        <v>26123.611111111109</v>
+        <v>25349.056603773577</v>
       </c>
       <c r="L30" s="7" t="s">
         <v>10</v>
@@ -27761,21 +27878,21 @@
         <v>193</v>
       </c>
       <c r="R30" s="64">
-        <v>0.81279999999999997</v>
+        <v>0.76019999999999999</v>
       </c>
       <c r="S30" s="57">
-        <v>19.12</v>
+        <v>17.829999999999998</v>
       </c>
       <c r="T30" s="58">
         <f t="shared" si="5"/>
-        <v>23.523622047244096</v>
+        <v>23.454354117337541</v>
       </c>
       <c r="U30" s="57">
-        <v>1.73</v>
+        <v>1.61</v>
       </c>
       <c r="V30" s="58">
         <f t="shared" si="3"/>
-        <v>2.1284448818897639</v>
+        <v>2.117863720073665</v>
       </c>
       <c r="W30" s="61"/>
       <c r="X30" s="61"/>
@@ -27806,19 +27923,19 @@
       </c>
       <c r="H31" s="21">
         <f>F31*$T$17</f>
-        <v>29.574730996181884</v>
+        <v>29.612439115773697</v>
       </c>
       <c r="I31" s="21">
         <f>F31*$V$17</f>
-        <v>2.6531065602221449</v>
+        <v>2.6603222180591981</v>
       </c>
       <c r="J31" s="21">
         <f t="shared" si="0"/>
-        <v>592228.07325234299</v>
+        <v>592983.17080554506</v>
       </c>
       <c r="K31" s="21">
         <f t="shared" si="1"/>
-        <v>53127.928247136406</v>
+        <v>53272.420352191832</v>
       </c>
       <c r="L31" s="5" t="s">
         <v>24</v>
@@ -27837,21 +27954,21 @@
         <v>100038</v>
       </c>
       <c r="R31" s="64">
-        <v>1.641</v>
+        <v>1.5720000000000001</v>
       </c>
       <c r="S31" s="57">
-        <v>11.22</v>
+        <v>10.72</v>
       </c>
       <c r="T31" s="58">
         <f t="shared" si="5"/>
-        <v>6.8372943327239488</v>
+        <v>6.8193384223918576</v>
       </c>
       <c r="U31" s="57">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="V31" s="58">
         <f t="shared" si="3"/>
-        <v>0.85313833028641062</v>
+        <v>0.84605597964376589</v>
       </c>
       <c r="W31" s="61"/>
       <c r="X31" s="61"/>
@@ -27882,19 +27999,19 @@
       </c>
       <c r="H32" s="21">
         <f>F32*$T$17</f>
-        <v>28.96494272821937</v>
+        <v>29.001873360809292</v>
       </c>
       <c r="I32" s="21">
         <f>F32*$V$17</f>
-        <v>2.5984033321763276</v>
+        <v>2.605470213563132</v>
       </c>
       <c r="J32" s="21">
         <f t="shared" si="0"/>
-        <v>290634.52498438046</v>
+        <v>291005.08732109406</v>
       </c>
       <c r="K32" s="21">
         <f t="shared" si="1"/>
-        <v>26072.405019090595</v>
+        <v>26143.314177594602</v>
       </c>
       <c r="L32" s="5" t="s">
         <v>24</v>
@@ -27913,21 +28030,21 @@
         <v>194</v>
       </c>
       <c r="R32" s="64">
-        <v>1.0920000000000001</v>
+        <v>1.0429999999999999</v>
       </c>
       <c r="S32" s="57">
-        <v>11.22</v>
+        <v>10.72</v>
       </c>
       <c r="T32" s="58">
         <f t="shared" si="5"/>
-        <v>10.274725274725274</v>
+        <v>10.27804410354746</v>
       </c>
       <c r="U32" s="57">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="V32" s="58">
         <f t="shared" si="3"/>
-        <v>1.2820512820512819</v>
+        <v>1.2751677852348995</v>
       </c>
       <c r="W32" s="61"/>
       <c r="X32" s="61"/>
@@ -27983,21 +28100,21 @@
         <v>113</v>
       </c>
       <c r="R33" s="64">
-        <v>0.6784</v>
+        <v>0.6361</v>
       </c>
       <c r="S33" s="57">
-        <v>22.82</v>
+        <v>21.27</v>
       </c>
       <c r="T33" s="58">
         <f t="shared" si="5"/>
-        <v>33.637971698113205</v>
+        <v>33.438138657443794</v>
       </c>
       <c r="U33" s="57">
-        <v>2.64</v>
+        <v>2.46</v>
       </c>
       <c r="V33" s="58">
         <f t="shared" si="3"/>
-        <v>3.8915094339622645</v>
+        <v>3.8673164596761516</v>
       </c>
       <c r="W33" s="61"/>
       <c r="X33" s="61"/>
@@ -28028,19 +28145,19 @@
       </c>
       <c r="H34" s="21">
         <f>F34*$T$24</f>
-        <v>26.189064472929022</v>
+        <v>25.908294273486856</v>
       </c>
       <c r="I34" s="21">
         <f>F34*$V$24</f>
-        <v>2.248157643007461</v>
+        <v>2.2267128591807621</v>
       </c>
       <c r="J34" s="21">
         <f t="shared" si="0"/>
-        <v>104756.25789171609</v>
+        <v>103633.17709394742</v>
       </c>
       <c r="K34" s="21">
         <f t="shared" si="1"/>
-        <v>8992.6305720298442</v>
+        <v>8906.8514367230491</v>
       </c>
       <c r="L34" s="6" t="s">
         <v>16</v>
@@ -28059,29 +28176,29 @@
         <v>195</v>
       </c>
       <c r="R34" s="64">
-        <v>0.89559999999999995</v>
+        <v>0.85509999999999997</v>
       </c>
       <c r="S34" s="57">
-        <v>10.53</v>
+        <v>7.65</v>
       </c>
       <c r="T34" s="58">
         <f t="shared" si="5"/>
-        <v>11.757481018311747</v>
+        <v>8.9463220675944335</v>
       </c>
       <c r="U34" s="57">
-        <v>1.1399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="V34" s="58">
         <f t="shared" si="3"/>
-        <v>1.2728896828941492</v>
+        <v>1.2396210969477255</v>
       </c>
       <c r="W34" s="75">
         <f>SUMIF(C:C,"=金融地产",J:J)/SUMIF(C:C,"=金融地产",M:M)*-1</f>
-        <v>10.676576596694952</v>
+        <v>8.1238568588469171</v>
       </c>
       <c r="X34" s="75">
         <f>SUMIF(C:C,"=金融地产",K:K)/SUMIF(C:C,"=金融地产",M:M)*-1</f>
-        <v>1.1558686913800804</v>
+        <v>1.125658597434998</v>
       </c>
       <c r="Y34" s="59">
         <f>(SUMIF(C:C,"=金融地产",M:M)*-1)/$Q$2</f>
@@ -28113,19 +28230,19 @@
       </c>
       <c r="H35" s="21">
         <f>F35*$T$23</f>
-        <v>26.089860139860143</v>
+        <v>25.962379019669061</v>
       </c>
       <c r="I35" s="21">
         <f>F35*$V$23</f>
-        <v>2.2396416083916084</v>
+        <v>2.2313612238526384</v>
       </c>
       <c r="J35" s="21">
         <f t="shared" si="0"/>
-        <v>105567.6619825175</v>
+        <v>105051.83385107711</v>
       </c>
       <c r="K35" s="21">
         <f t="shared" si="1"/>
-        <v>9062.2842364510489</v>
+        <v>9028.7792336871698</v>
       </c>
       <c r="L35" s="5" t="s">
         <v>24</v>
@@ -28144,7 +28261,7 @@
         <v>196</v>
       </c>
       <c r="R35" s="65">
-        <v>1.149</v>
+        <v>1.127</v>
       </c>
       <c r="S35" s="2"/>
       <c r="T35" s="2"/>
@@ -28207,21 +28324,21 @@
         <v>107</v>
       </c>
       <c r="R36" s="64">
-        <v>1.4258</v>
+        <v>1.3788</v>
       </c>
       <c r="S36" s="57">
-        <v>9.6999999999999993</v>
+        <v>9.36</v>
       </c>
       <c r="T36" s="58">
         <f>S36/R36</f>
-        <v>6.8031982045167618</v>
+        <v>6.7885117493472578</v>
       </c>
       <c r="U36" s="57">
-        <v>1.1100000000000001</v>
+        <v>1.07</v>
       </c>
       <c r="V36" s="58">
         <f>U36/R36</f>
-        <v>0.77851031000140281</v>
+        <v>0.77603713373948369</v>
       </c>
       <c r="W36" s="2"/>
       <c r="X36" s="74"/>
@@ -28253,19 +28370,19 @@
       </c>
       <c r="H37" s="21">
         <f>F37*$T$25</f>
-        <v>31.727983539094648</v>
+        <v>31.697258979206044</v>
       </c>
       <c r="I37" s="21">
         <f>F37*$V$25</f>
-        <v>3.670546737213404</v>
+        <v>3.665973534971644</v>
       </c>
       <c r="J37" s="21">
         <f t="shared" si="0"/>
-        <v>204140.70160905347</v>
+        <v>203943.01702551983</v>
       </c>
       <c r="K37" s="21">
         <f t="shared" si="1"/>
-        <v>23616.628056437392</v>
+        <v>23587.203661625706</v>
       </c>
       <c r="L37" s="5" t="s">
         <v>24</v>
@@ -28284,7 +28401,7 @@
         <v>197</v>
       </c>
       <c r="R37" s="64">
-        <v>1.0011000000000001</v>
+        <v>1.0032000000000001</v>
       </c>
       <c r="S37" s="2"/>
       <c r="T37" s="2"/>
@@ -28321,19 +28438,19 @@
       </c>
       <c r="H38" s="21">
         <f>F38*$T$23</f>
-        <v>26.641258741258746</v>
+        <v>26.511083359350611</v>
       </c>
       <c r="I38" s="21">
         <f>F38*$V$23</f>
-        <v>2.2869755244755248</v>
+        <v>2.2785201373712147</v>
       </c>
       <c r="J38" s="21">
         <f t="shared" si="0"/>
-        <v>511246.82089510502</v>
+        <v>508748.7501092726</v>
       </c>
       <c r="K38" s="21">
         <f t="shared" si="1"/>
-        <v>43887.151793706304</v>
+        <v>43724.892576959108</v>
       </c>
       <c r="L38" s="5" t="s">
         <v>24</v>
@@ -28352,7 +28469,7 @@
         <v>198</v>
       </c>
       <c r="R38" s="64">
-        <v>1.427</v>
+        <v>1.4279999999999999</v>
       </c>
       <c r="S38" s="2"/>
       <c r="T38" s="2"/>
@@ -28414,7 +28531,7 @@
         <v>340001</v>
       </c>
       <c r="R39" s="64">
-        <v>3.6181000000000001</v>
+        <v>3.6032999999999999</v>
       </c>
       <c r="S39" s="2"/>
       <c r="T39" s="2"/>
@@ -28451,19 +28568,19 @@
       </c>
       <c r="H40" s="21">
         <f>F40*$T$22</f>
-        <v>23.617226651480639</v>
+        <v>23.592954719877206</v>
       </c>
       <c r="I40" s="21">
         <f>F40*$V$22</f>
-        <v>1.4808228929384963</v>
+        <v>1.4873522640061398</v>
       </c>
       <c r="J40" s="21">
         <f t="shared" si="0"/>
-        <v>302398.74880182231</v>
+        <v>302087.96710606292</v>
       </c>
       <c r="K40" s="21">
         <f t="shared" si="1"/>
-        <v>18960.693252847377</v>
+        <v>19044.296364696856</v>
       </c>
       <c r="L40" s="5" t="s">
         <v>24</v>
@@ -28482,7 +28599,7 @@
         <v>518880</v>
       </c>
       <c r="R40" s="64">
-        <v>1.0002</v>
+        <v>1.0069999999999999</v>
       </c>
       <c r="S40" s="2"/>
       <c r="T40" s="2"/>
@@ -28519,19 +28636,19 @@
       </c>
       <c r="H41" s="21">
         <f>F41*$T$25</f>
-        <v>31.727983539094648</v>
+        <v>31.697258979206044</v>
       </c>
       <c r="I41" s="21">
         <f>F41*$V$25</f>
-        <v>3.670546737213404</v>
+        <v>3.665973534971644</v>
       </c>
       <c r="J41" s="21">
         <f t="shared" si="0"/>
-        <v>204140.70160905347</v>
+        <v>203943.01702551983</v>
       </c>
       <c r="K41" s="21">
         <f t="shared" si="1"/>
-        <v>23616.628056437392</v>
+        <v>23587.203661625706</v>
       </c>
       <c r="L41" s="5" t="s">
         <v>24</v>
@@ -28583,19 +28700,19 @@
       </c>
       <c r="H42" s="21">
         <f>F42*$T$16</f>
-        <v>23.292376990970887</v>
+        <v>23.348161395856049</v>
       </c>
       <c r="I42" s="21">
         <f>F42*$V$16</f>
-        <v>2.1075215582834534</v>
+        <v>2.1082748091603052</v>
       </c>
       <c r="J42" s="21">
         <f t="shared" si="0"/>
-        <v>153862.92053679621</v>
+        <v>154231.41669583422</v>
       </c>
       <c r="K42" s="21">
         <f t="shared" si="1"/>
-        <v>13921.697307984175</v>
+        <v>13926.673072366411</v>
       </c>
       <c r="L42" s="5" t="s">
         <v>24</v>
@@ -28620,7 +28737,7 @@
       <c r="X42" s="74"/>
       <c r="Y42" s="59">
         <f>1-SUM(Y13:Y41)</f>
-        <v>0.29117534999999983</v>
+        <v>0.27507297499999994</v>
       </c>
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.2">
@@ -28698,19 +28815,19 @@
       </c>
       <c r="H44" s="21">
         <f>F44*$T$16</f>
-        <v>22.91994724561226</v>
+        <v>22.974839694656488</v>
       </c>
       <c r="I44" s="21">
         <f>F44*$V$16</f>
-        <v>2.0738236786040378</v>
+        <v>2.0745648854961836</v>
       </c>
       <c r="J44" s="21">
         <f t="shared" si="0"/>
-        <v>148981.94909120427</v>
+        <v>149338.75549923663</v>
       </c>
       <c r="K44" s="21">
         <f t="shared" si="1"/>
-        <v>13480.061293294108</v>
+        <v>13484.879212213744</v>
       </c>
       <c r="L44" s="5" t="s">
         <v>24</v>
@@ -28757,19 +28874,19 @@
       </c>
       <c r="H45" s="21">
         <f>F45*$T$34</f>
-        <v>11.099062081286288</v>
+        <v>8.4453280318091455</v>
       </c>
       <c r="I45" s="21">
         <f>F45*$V$34</f>
-        <v>1.2016078606520768</v>
+        <v>1.1702023155186527</v>
       </c>
       <c r="J45" s="21">
         <f t="shared" si="0"/>
-        <v>71033.997320232244</v>
+        <v>54050.099403578533</v>
       </c>
       <c r="K45" s="21">
         <f t="shared" si="1"/>
-        <v>7690.2903081732911</v>
+        <v>7489.294819319377</v>
       </c>
       <c r="L45" s="7" t="s">
         <v>10</v>
@@ -28824,19 +28941,19 @@
       </c>
       <c r="H46" s="21">
         <f>F46*$T$16</f>
-        <v>22.504843258597955</v>
+        <v>22.558741548527806</v>
       </c>
       <c r="I46" s="21">
         <f>F46*$V$16</f>
-        <v>2.0362645835446891</v>
+        <v>2.036992366412214</v>
       </c>
       <c r="J46" s="21">
         <f t="shared" si="0"/>
-        <v>430903.15950199869</v>
+        <v>431935.15706606326</v>
       </c>
       <c r="K46" s="21">
         <f t="shared" si="1"/>
-        <v>38988.622695526028</v>
+        <v>39002.557648702299</v>
       </c>
       <c r="L46" s="5" t="s">
         <v>24</v>
@@ -28894,19 +29011,19 @@
       </c>
       <c r="H47" s="21">
         <f>F47*$T$15</f>
-        <v>12.215552434177104</v>
+        <v>12.25806208606673</v>
       </c>
       <c r="I47" s="21">
         <f>F47*$V$15</f>
-        <v>1.5242222288634528</v>
+        <v>1.5208230013496971</v>
       </c>
       <c r="J47" s="21">
         <f t="shared" si="0"/>
-        <v>80118.265905561711</v>
+        <v>80397.074384506719</v>
       </c>
       <c r="K47" s="21">
         <f t="shared" si="1"/>
-        <v>9996.9315746690172</v>
+        <v>9974.6370271822725</v>
       </c>
       <c r="L47" s="5" t="s">
         <v>24</v>
@@ -28964,19 +29081,19 @@
       </c>
       <c r="H48" s="21">
         <f>F48*$T$16</f>
-        <v>21.4341077406919</v>
+        <v>21.485441657579063</v>
       </c>
       <c r="I48" s="21">
         <f t="shared" ref="I48:I49" si="7">F48*$V$16</f>
-        <v>1.9393831794663694</v>
+        <v>1.940076335877863</v>
       </c>
       <c r="J48" s="21">
         <f t="shared" si="0"/>
-        <v>272428.3667485037</v>
+        <v>273080.82288549619</v>
       </c>
       <c r="K48" s="21">
         <f t="shared" si="1"/>
-        <v>24649.637786344734</v>
+        <v>24658.447832061076</v>
       </c>
       <c r="L48" s="5" t="s">
         <v>24</v>
@@ -29034,19 +29151,19 @@
       </c>
       <c r="H49" s="21">
         <f>F49*$T$16</f>
-        <v>20.999606371106832</v>
+        <v>21.049899672846237</v>
       </c>
       <c r="I49" s="21">
         <f t="shared" si="7"/>
-        <v>1.900068986507051</v>
+        <v>1.9007480916030537</v>
       </c>
       <c r="J49" s="21">
         <f t="shared" si="0"/>
-        <v>136432.34263244396</v>
+        <v>136759.0931845147</v>
       </c>
       <c r="K49" s="21">
         <f t="shared" si="1"/>
-        <v>12344.558198437659</v>
+        <v>12348.970276335878</v>
       </c>
       <c r="L49" s="5" t="s">
         <v>24</v>
@@ -29168,19 +29285,19 @@
       </c>
       <c r="H51" s="21">
         <f>F51*$T$22</f>
-        <v>20.429299544419134</v>
+        <v>20.408303914044513</v>
       </c>
       <c r="I51" s="21">
         <f>F51*$V$22</f>
-        <v>1.2809367881548974</v>
+        <v>1.2865848042977746</v>
       </c>
       <c r="J51" s="21">
         <f t="shared" si="0"/>
-        <v>130420.23970558085</v>
+        <v>130286.20402118188</v>
       </c>
       <c r="K51" s="21">
         <f t="shared" si="1"/>
-        <v>8177.4748368451019</v>
+        <v>8213.5316589409067</v>
       </c>
       <c r="L51" s="5" t="s">
         <v>24</v>
@@ -29238,19 +29355,19 @@
       </c>
       <c r="H52" s="21">
         <f>F52*$T$18</f>
-        <v>34.512923580275761</v>
+        <v>34.485923217550273</v>
       </c>
       <c r="I52" s="21">
         <f>F52*$V$18</f>
-        <v>4.0711069564539999</v>
+        <v>4.0743892305135443</v>
       </c>
       <c r="J52" s="21">
         <f t="shared" si="0"/>
-        <v>222970.39766113574</v>
+        <v>222795.96208775137</v>
       </c>
       <c r="K52" s="21">
         <f t="shared" si="1"/>
-        <v>26301.3457811015</v>
+        <v>26322.550879840448</v>
       </c>
       <c r="L52" s="5" t="s">
         <v>24</v>
@@ -29308,19 +29425,19 @@
       </c>
       <c r="H53" s="21">
         <f>F53*$T$15</f>
-        <v>11.561686739786619</v>
+        <v>11.60192096424872</v>
       </c>
       <c r="I53" s="21">
         <f>F53*$V$15</f>
-        <v>1.4426347090642837</v>
+        <v>1.43941743306444</v>
       </c>
       <c r="J53" s="21">
         <f t="shared" si="0"/>
-        <v>71770.789073369015</v>
+        <v>72020.548654508922</v>
       </c>
       <c r="K53" s="21">
         <f t="shared" si="1"/>
-        <v>8955.3569253758105</v>
+        <v>8935.3852341881411</v>
       </c>
       <c r="L53" s="5" t="s">
         <v>24</v>
@@ -29378,19 +29495,19 @@
       </c>
       <c r="H54" s="21">
         <f>F54*$T$23</f>
-        <v>22.172027972027973</v>
+        <v>22.063690290352795</v>
       </c>
       <c r="I54" s="21">
         <f>F54*$V$23</f>
-        <v>1.9033216783216784</v>
+        <v>1.8962847330627537</v>
       </c>
       <c r="J54" s="21">
         <f t="shared" si="0"/>
-        <v>142319.58690909093</v>
+        <v>141624.18033093977</v>
       </c>
       <c r="K54" s="21">
         <f t="shared" si="1"/>
-        <v>12217.193454545455</v>
+        <v>12172.024147361848</v>
       </c>
       <c r="L54" s="5" t="s">
         <v>24</v>
@@ -29448,19 +29565,19 @@
       </c>
       <c r="H55" s="21">
         <f>F55*$T$34</f>
-        <v>9.9938588655649845</v>
+        <v>7.6043737574552681</v>
       </c>
       <c r="I55" s="21">
         <f>F55*$V$34</f>
-        <v>1.0819562304600268</v>
+        <v>1.0536779324055667</v>
       </c>
       <c r="J55" s="21">
         <f t="shared" ref="J55" si="11">H55*(-$M55)</f>
-        <v>63960.696739615902</v>
+        <v>48667.992047713713</v>
       </c>
       <c r="K55" s="21">
         <f t="shared" ref="K55" si="12">I55*(-$M55)</f>
-        <v>6924.5198749441715</v>
+        <v>6743.5387673956275</v>
       </c>
       <c r="L55" s="7" t="s">
         <v>10</v>
@@ -29518,19 +29635,19 @@
       </c>
       <c r="H56" s="21">
         <f>F56*$T$13</f>
-        <v>10.712021604938274</v>
+        <v>10.390503144654087</v>
       </c>
       <c r="I56" s="21">
         <f>F56*$V$13</f>
-        <v>1.2697222222222222</v>
+        <v>1.232075471698113</v>
       </c>
       <c r="J56" s="21">
         <f t="shared" si="0"/>
-        <v>68556.938271604959</v>
+        <v>66499.22012578616</v>
       </c>
       <c r="K56" s="21">
         <f t="shared" si="1"/>
-        <v>8126.2222222222217</v>
+        <v>7885.2830188679236</v>
       </c>
       <c r="L56" s="7" t="s">
         <v>10</v>
@@ -29581,19 +29698,19 @@
       </c>
       <c r="H57" s="21">
         <f>F57*$T$21</f>
-        <v>24.969507819687212</v>
+        <v>24.877327188940093</v>
       </c>
       <c r="I57" s="21">
         <f>E57*$V$21</f>
-        <v>3.1729208831646734</v>
+        <v>3.1642214406985207</v>
       </c>
       <c r="J57" s="21">
         <f t="shared" si="0"/>
-        <v>159804.85004599817</v>
+        <v>159214.8940092166</v>
       </c>
       <c r="K57" s="21">
         <f t="shared" si="1"/>
-        <v>20306.693652253911</v>
+        <v>20251.017220470534</v>
       </c>
       <c r="L57" s="7" t="s">
         <v>10</v>
@@ -29645,19 +29762,19 @@
       </c>
       <c r="H58" s="21">
         <f>F58*$T$13</f>
-        <v>10.638202160493828</v>
+        <v>10.318899371069181</v>
       </c>
       <c r="I58" s="21">
         <f>F58*$V$13</f>
-        <v>1.2609722222222222</v>
+        <v>1.2235849056603771</v>
       </c>
       <c r="J58" s="21">
         <f t="shared" si="0"/>
-        <v>68084.493827160491</v>
+        <v>66040.955974842756</v>
       </c>
       <c r="K58" s="21">
         <f t="shared" si="1"/>
-        <v>8070.2222222222217</v>
+        <v>7830.9433962264138</v>
       </c>
       <c r="L58" s="7" t="s">
         <v>10</v>
@@ -29737,19 +29854,19 @@
       </c>
       <c r="H60" s="21">
         <f>F60*$T$14</f>
-        <v>9.2367334118570863</v>
+        <v>9.2468496517820586</v>
       </c>
       <c r="I60" s="21">
         <f>F60*$V$14</f>
-        <v>1.1522497055359247</v>
+        <v>1.1534125358459648</v>
       </c>
       <c r="J60" s="21">
         <f t="shared" si="0"/>
-        <v>59516.799371967012</v>
+        <v>59581.983262761176</v>
       </c>
       <c r="K60" s="21">
         <f t="shared" si="1"/>
-        <v>7424.5094551236753</v>
+        <v>7432.0021405981151</v>
       </c>
       <c r="L60" s="5" t="s">
         <v>24</v>
@@ -29829,19 +29946,19 @@
       </c>
       <c r="H62" s="21">
         <f>F62*$T$25</f>
-        <v>27.43497942386831</v>
+        <v>27.408412098298673</v>
       </c>
       <c r="I62" s="21">
         <f>F62*$V$25</f>
-        <v>3.1738977072310406</v>
+        <v>3.1699432892249524</v>
       </c>
       <c r="J62" s="21">
         <f t="shared" si="0"/>
-        <v>175081.25948971193</v>
+        <v>174911.71531947068</v>
       </c>
       <c r="K62" s="21">
         <f t="shared" si="1"/>
-        <v>20254.799520282188</v>
+        <v>20229.563689981096</v>
       </c>
       <c r="L62" s="5" t="s">
         <v>24</v>
@@ -29922,19 +30039,19 @@
       </c>
       <c r="H64" s="21">
         <f>F64*$T$17</f>
-        <v>24.848871919472408</v>
+        <v>24.880554514799549</v>
       </c>
       <c r="I64" s="21">
         <f>F64*$V$17</f>
-        <v>2.2291565428670599</v>
+        <v>2.2352191832146868</v>
       </c>
       <c r="J64" s="21">
         <f t="shared" si="0"/>
-        <v>81023.474224227713</v>
+        <v>81126.780078681157</v>
       </c>
       <c r="K64" s="21">
         <f t="shared" si="1"/>
-        <v>7268.4992814994794</v>
+        <v>7288.2674297489684</v>
       </c>
       <c r="L64" s="5" t="s">
         <v>24</v>
@@ -29972,19 +30089,19 @@
       </c>
       <c r="H65" s="21">
         <f>F65*$T$16</f>
-        <v>21.030642183220053</v>
+        <v>21.081009814612866</v>
       </c>
       <c r="I65" s="21">
         <f>F65*$V$16</f>
-        <v>1.9028771431470024</v>
+        <v>1.9035572519083972</v>
       </c>
       <c r="J65" s="21">
         <f t="shared" si="0"/>
-        <v>136835.87336512128</v>
+        <v>137163.5903587786</v>
       </c>
       <c r="K65" s="21">
         <f t="shared" si="1"/>
-        <v>12381.070131885972</v>
+        <v>12385.495259541987</v>
       </c>
       <c r="L65" s="5" t="s">
         <v>24</v>
@@ -30023,19 +30140,19 @@
       </c>
       <c r="H66" s="21">
         <f>F66*$T$17</f>
-        <v>23.591183616799722</v>
+        <v>23.62126264518546</v>
       </c>
       <c r="I66" s="21">
         <f>F66*$V$17</f>
-        <v>2.1163311350225613</v>
+        <v>2.1220869239415507</v>
       </c>
       <c r="J66" s="21">
         <f t="shared" si="0"/>
-        <v>75950.400183269696</v>
+        <v>76047.237810415885</v>
       </c>
       <c r="K66" s="21">
         <f t="shared" si="1"/>
-        <v>6813.4011093370345</v>
+        <v>6831.9315264143861</v>
       </c>
       <c r="L66" s="5" t="s">
         <v>24</v>
@@ -30075,19 +30192,19 @@
       </c>
       <c r="H67" s="21">
         <f>F67*$T$16</f>
-        <v>19.95602718879984</v>
+        <v>20.003821155943292</v>
       </c>
       <c r="I67" s="21">
         <f>F67*$V$16</f>
-        <v>1.8056447194886884</v>
+        <v>1.806290076335878</v>
       </c>
       <c r="J67" s="21">
         <f t="shared" ref="J67:J82" si="15">H67*(-$M67)</f>
-        <v>123209.11054446588</v>
+        <v>123504.19193142856</v>
       </c>
       <c r="K67" s="21">
         <f t="shared" ref="K67:K82" si="16">I67*(-$M67)</f>
-        <v>11148.104667464746</v>
+        <v>11152.089120000001</v>
       </c>
       <c r="L67" s="5" t="s">
         <v>24</v>
@@ -30127,19 +30244,19 @@
       </c>
       <c r="H68" s="21">
         <f>F68*$T$15</f>
-        <v>11.186133110187981</v>
+        <v>11.22506042248658</v>
       </c>
       <c r="I68" s="21">
         <f>F68*$V$15</f>
-        <v>1.3957741848719403</v>
+        <v>1.3926614143570104</v>
       </c>
       <c r="J68" s="21">
         <f t="shared" si="15"/>
-        <v>70916.392494665444</v>
+        <v>71163.178808625496</v>
       </c>
       <c r="K68" s="21">
         <f t="shared" si="16"/>
-        <v>8848.7477266070928</v>
+        <v>8829.0137887567089</v>
       </c>
       <c r="L68" s="5" t="s">
         <v>24</v>
@@ -30179,19 +30296,19 @@
       </c>
       <c r="H69" s="21">
         <f>F69*$T$19</f>
-        <v>29.070891859874767</v>
+        <v>29.092092109960728</v>
       </c>
       <c r="I69" s="21">
         <f>F69*$V$19</f>
-        <v>3.5553562362497884</v>
+        <v>3.559318100678329</v>
       </c>
       <c r="J69" s="21">
         <f t="shared" si="15"/>
-        <v>186550.23873616516</v>
+        <v>186686.28243698677</v>
       </c>
       <c r="K69" s="21">
         <f t="shared" si="16"/>
-        <v>22815.005396513792</v>
+        <v>22840.428997500891</v>
       </c>
       <c r="L69" s="5" t="s">
         <v>24</v>
@@ -30277,19 +30394,19 @@
       </c>
       <c r="H71" s="21">
         <f>F71*$T$13</f>
-        <v>10.63</v>
+        <v>10.310943396226413</v>
       </c>
       <c r="I71" s="21">
         <f>F71*$V$13</f>
-        <v>1.26</v>
+        <v>1.2226415094339622</v>
       </c>
       <c r="J71" s="21">
         <f t="shared" si="15"/>
-        <v>68032</v>
+        <v>65990.037735849051</v>
       </c>
       <c r="K71" s="21">
         <f t="shared" si="16"/>
-        <v>8064</v>
+        <v>7824.9056603773579</v>
       </c>
       <c r="L71" s="7" t="s">
         <v>10</v>
@@ -30368,26 +30485,26 @@
         <v>0.89759999999999995</v>
       </c>
       <c r="F73" s="21">
-        <v>0.99970000000000003</v>
+        <v>0.89759999999999995</v>
       </c>
       <c r="G73" s="20">
-        <v>6394.25</v>
+        <v>7121.58</v>
       </c>
       <c r="H73" s="21">
         <f>F73*$T$21</f>
-        <v>24.969507819687212</v>
+        <v>22.33658986175115</v>
       </c>
       <c r="I73" s="21">
         <f>E73*$V$21</f>
-        <v>2.8488684452621893</v>
+        <v>2.8410574824157164</v>
       </c>
       <c r="J73" s="21">
         <f t="shared" si="15"/>
-        <v>159804.85004599817</v>
+        <v>142954.17511520736</v>
       </c>
       <c r="K73" s="21">
         <f t="shared" si="16"/>
-        <v>18232.75804967801</v>
+        <v>18182.767887460584</v>
       </c>
       <c r="L73" s="7" t="s">
         <v>10</v>
@@ -30423,23 +30540,23 @@
         <v>0.78149999999999997</v>
       </c>
       <c r="G74" s="20">
-        <v>9457.64</v>
+        <v>8364.73</v>
       </c>
       <c r="H74" s="21">
         <f>F74*$T$20</f>
-        <v>29.029876224156695</v>
+        <v>28.96804721030043</v>
       </c>
       <c r="I74" s="21">
         <f>F74*$V$20</f>
-        <v>3.550340043525571</v>
+        <v>3.5441416309012874</v>
       </c>
       <c r="J74" s="21">
         <f t="shared" si="15"/>
-        <v>185791.20783460286</v>
+        <v>185395.50214592274</v>
       </c>
       <c r="K74" s="21">
         <f t="shared" si="16"/>
-        <v>22722.176278563653</v>
+        <v>22682.506437768239</v>
       </c>
       <c r="L74" s="7" t="s">
         <v>10</v>
@@ -30448,8 +30565,7 @@
         <v>-6400</v>
       </c>
       <c r="N74" s="4">
-        <f>4.43*2</f>
-        <v>8.86</v>
+        <v>7.67</v>
       </c>
       <c r="O74" s="4"/>
       <c r="P74" s="15"/>
@@ -30476,23 +30592,23 @@
         <v>0.99970000000000003</v>
       </c>
       <c r="G75" s="20">
-        <v>6394.25</v>
+        <v>7127.93</v>
       </c>
       <c r="H75" s="21">
         <f>F75*$T$21</f>
-        <v>24.969507819687212</v>
+        <v>24.877327188940093</v>
       </c>
       <c r="I75" s="21">
         <f>E75*$V$21</f>
-        <v>2.8463293468261268</v>
+        <v>2.83852534562212</v>
       </c>
       <c r="J75" s="21">
         <f t="shared" si="15"/>
-        <v>159804.85004599817</v>
+        <v>159214.8940092166</v>
       </c>
       <c r="K75" s="21">
         <f t="shared" si="16"/>
-        <v>18216.507819687213</v>
+        <v>18166.562211981567</v>
       </c>
       <c r="L75" s="7" t="s">
         <v>10</v>
@@ -30532,19 +30648,19 @@
       </c>
       <c r="H76" s="21">
         <f>F76*$T$25</f>
-        <v>24.550617283950618</v>
+        <v>24.526843100189033</v>
       </c>
       <c r="I76" s="21">
         <f>F76*$V$25</f>
-        <v>2.8402116402116402</v>
+        <v>2.836672967863894</v>
       </c>
       <c r="J76" s="21">
         <f t="shared" si="15"/>
-        <v>156379.33039506173</v>
+        <v>156227.89668998108</v>
       </c>
       <c r="K76" s="21">
         <f t="shared" si="16"/>
-        <v>18091.21087830688</v>
+        <v>18068.670703213611</v>
       </c>
       <c r="L76" s="5" t="s">
         <v>24</v>
@@ -30584,19 +30700,19 @@
       </c>
       <c r="H77" s="21">
         <f>F77*$T$16</f>
-        <v>19.975424571370603</v>
+        <v>20.023264994547436</v>
       </c>
       <c r="I77" s="21">
         <f t="shared" ref="I77:I79" si="17">F77*$V$16</f>
-        <v>1.8073998173886578</v>
+        <v>1.8080458015267178</v>
       </c>
       <c r="J77" s="21">
         <f t="shared" si="15"/>
-        <v>123448.92286805318</v>
+        <v>123744.57859690294</v>
       </c>
       <c r="K77" s="21">
         <f t="shared" si="16"/>
-        <v>11169.803167454602</v>
+        <v>11173.795375267176</v>
       </c>
       <c r="L77" s="5" t="s">
         <v>24</v>
@@ -30636,19 +30752,19 @@
       </c>
       <c r="H78" s="21">
         <f>F78*$T$16</f>
-        <v>19.909473470630012</v>
+        <v>19.957155943293344</v>
       </c>
       <c r="I78" s="21">
         <f t="shared" si="17"/>
-        <v>1.8014324845287613</v>
+        <v>1.8020763358778626</v>
       </c>
       <c r="J78" s="21">
         <f t="shared" si="15"/>
-        <v>10219.532732474385</v>
+        <v>10244.008145692473</v>
       </c>
       <c r="K78" s="21">
         <f t="shared" si="16"/>
-        <v>924.67529430861305</v>
+        <v>925.0057832061068</v>
       </c>
       <c r="L78" s="5" t="s">
         <v>24</v>
@@ -30688,19 +30804,19 @@
       </c>
       <c r="H79" s="21">
         <f>F79*$T$16</f>
-        <v>19.672825403266717</v>
+        <v>19.71994111232279</v>
       </c>
       <c r="I79" s="21">
         <f t="shared" si="17"/>
-        <v>1.7800202901491327</v>
+        <v>1.7806564885496183</v>
       </c>
       <c r="J79" s="21">
         <f t="shared" si="15"/>
-        <v>129715.13503548749</v>
+        <v>130025.79811703379</v>
       </c>
       <c r="K79" s="21">
         <f t="shared" si="16"/>
-        <v>11736.777385533123</v>
+        <v>11740.972236030535</v>
       </c>
       <c r="L79" s="5" t="s">
         <v>24</v>
@@ -30740,19 +30856,19 @@
       </c>
       <c r="H80" s="21">
         <f>F80*$T$15</f>
-        <v>11.256549415737727</v>
+        <v>11.295721774066983</v>
       </c>
       <c r="I80" s="21">
         <f>F80*$V$15</f>
-        <v>1.4045605331580049</v>
+        <v>1.4014281678646536</v>
       </c>
       <c r="J80" s="21">
         <f t="shared" si="15"/>
-        <v>71812.057521652081</v>
+        <v>72061.960715402238</v>
       </c>
       <c r="K80" s="21">
         <f t="shared" si="16"/>
-        <v>8960.506286124144</v>
+        <v>8940.5231111459871</v>
       </c>
       <c r="L80" s="5" t="s">
         <v>24</v>
@@ -30792,19 +30908,19 @@
       </c>
       <c r="H81" s="21">
         <f>F81*$T$17</f>
-        <v>22.29538354737938</v>
+        <v>22.323810415886097</v>
       </c>
       <c r="I81" s="21">
         <f>F81*$V$17</f>
-        <v>2.0000867754251992</v>
+        <v>2.0055264143874107</v>
       </c>
       <c r="J81" s="21">
         <f t="shared" si="15"/>
-        <v>70445.162717806306</v>
+        <v>70534.981104346196</v>
       </c>
       <c r="K81" s="21">
         <f t="shared" si="16"/>
-        <v>6319.5341782367223</v>
+        <v>6336.7214246908952</v>
       </c>
       <c r="L81" s="5" t="s">
         <v>24</v>
@@ -30844,19 +30960,19 @@
       </c>
       <c r="H82" s="21">
         <f>F82*$T$16</f>
-        <v>19.300395657908087</v>
+        <v>19.346619411123225</v>
       </c>
       <c r="I82" s="21">
         <f>F82*$V$16</f>
-        <v>1.746322410469717</v>
+        <v>1.7469465648854963</v>
       </c>
       <c r="J82" s="21">
         <f t="shared" si="15"/>
-        <v>124850.20642791926</v>
+        <v>125149.2181804798</v>
       </c>
       <c r="K82" s="21">
         <f t="shared" si="16"/>
-        <v>11296.5929456224</v>
+        <v>11300.63046946565</v>
       </c>
       <c r="L82" s="5" t="s">
         <v>24</v>
@@ -30896,19 +31012,19 @@
       </c>
       <c r="H83" s="21">
         <f>F83*$T$31</f>
-        <v>11.712285191956125</v>
+        <v>11.681526717557253</v>
       </c>
       <c r="I83" s="21">
         <f>F83*$V$31</f>
-        <v>1.4614259597806214</v>
+        <v>1.449293893129771</v>
       </c>
       <c r="J83" s="21">
         <f>H83*(-$M83)</f>
-        <v>74958.625228519202</v>
+        <v>74761.770992366422</v>
       </c>
       <c r="K83" s="21">
         <f t="shared" ref="K83:K86" si="18">I83*(-$M83)</f>
-        <v>9353.1261425959765</v>
+        <v>9275.480916030534</v>
       </c>
       <c r="L83" s="7" t="s">
         <v>10</v>
@@ -30994,19 +31110,19 @@
       </c>
       <c r="H85" s="21">
         <f>F85*$T$21</f>
-        <v>22.761540938362465</v>
+        <v>22.677511520737326</v>
       </c>
       <c r="I85" s="21">
         <f>E85*$V$21</f>
-        <v>2.8923505059797607</v>
+        <v>2.8844203250060634</v>
       </c>
       <c r="J85" s="21">
         <f t="shared" si="19"/>
-        <v>145673.86200551977</v>
+        <v>145136.07373271888</v>
       </c>
       <c r="K85" s="21">
         <f t="shared" si="18"/>
-        <v>18511.043238270468</v>
+        <v>18460.290080038805</v>
       </c>
       <c r="L85" s="7" t="s">
         <v>10</v>
@@ -31046,19 +31162,19 @@
       </c>
       <c r="H86" s="21">
         <f>F86*$T$34</f>
-        <v>10.936808843233587</v>
+        <v>8.3218687872763422</v>
       </c>
       <c r="I86" s="21">
         <f>F86*$V$34</f>
-        <v>1.1840419830281377</v>
+        <v>1.1530955443807742</v>
       </c>
       <c r="J86" s="21">
         <f t="shared" si="19"/>
-        <v>69995.576596694955</v>
+        <v>53259.960238568587</v>
       </c>
       <c r="K86" s="21">
         <f t="shared" si="18"/>
-        <v>7577.8686913800811</v>
+        <v>7379.8114840369553</v>
       </c>
       <c r="L86" s="7" t="s">
         <v>10</v>
@@ -31098,19 +31214,19 @@
       </c>
       <c r="H87" s="21">
         <f>F87*$T$18</f>
-        <v>31.386071512035517</v>
+        <v>31.361517367458866</v>
       </c>
       <c r="I87" s="21">
         <f>F87*$V$18</f>
-        <v>3.7022668847861651</v>
+        <v>3.7052517866046197</v>
       </c>
       <c r="J87" s="21">
-        <f t="shared" ref="J87" si="20">H87*(-$M87)</f>
-        <v>201121.9462491236</v>
+        <f t="shared" ref="J87:J89" si="20">H87*(-$M87)</f>
+        <v>200964.6032906764</v>
       </c>
       <c r="K87" s="21">
-        <f t="shared" ref="K87" si="21">I87*(-$M87)</f>
-        <v>23724.126197709746</v>
+        <f t="shared" ref="K87:K89" si="21">I87*(-$M87)</f>
+        <v>23743.253448562402</v>
       </c>
       <c r="L87" s="5" t="s">
         <v>24</v>
@@ -31127,43 +31243,104 @@
       <c r="R87" s="15"/>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A88" s="3"/>
-      <c r="B88" s="71"/>
-      <c r="C88" s="71"/>
-      <c r="D88" s="3"/>
-      <c r="E88" s="21"/>
-      <c r="F88" s="21"/>
-      <c r="G88" s="20"/>
-      <c r="H88" s="21"/>
-      <c r="I88" s="21"/>
+      <c r="A88" s="3">
+        <v>43384</v>
+      </c>
+      <c r="B88" s="87" t="s">
+        <v>18</v>
+      </c>
+      <c r="C88" s="87" t="s">
+        <v>128</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E88" s="21">
+        <v>4.6289999999999996</v>
+      </c>
+      <c r="F88" s="21">
+        <v>4.6289999999999996</v>
+      </c>
+      <c r="G88" s="20">
+        <v>1400</v>
+      </c>
+      <c r="H88" s="21">
+        <f>F88*$T$16</f>
+        <v>18.001105779716465</v>
+      </c>
+      <c r="I88" s="21">
+        <f t="shared" ref="I88" si="22">F88*$V$16</f>
+        <v>1.6254503816793893</v>
+      </c>
       <c r="J88" s="21">
-        <f t="shared" ref="J88" si="22">H88*(-M88)</f>
-        <v>0</v>
-      </c>
-      <c r="K88" s="21"/>
-      <c r="L88" s="5"/>
-      <c r="M88" s="1"/>
-      <c r="N88" s="4"/>
+        <f t="shared" si="20"/>
+        <v>116681.36755354414</v>
+      </c>
+      <c r="K88" s="21">
+        <f t="shared" si="21"/>
+        <v>10536.006829007632</v>
+      </c>
+      <c r="L88" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M88" s="1">
+        <v>-6481.9</v>
+      </c>
+      <c r="N88" s="4">
+        <v>1.3</v>
+      </c>
       <c r="O88" s="4"/>
       <c r="P88" s="15"/>
       <c r="Q88" s="15"/>
       <c r="R88" s="15"/>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A89" s="3"/>
-      <c r="B89" s="71"/>
-      <c r="C89" s="71"/>
-      <c r="D89" s="3"/>
-      <c r="E89" s="21"/>
-      <c r="F89" s="21"/>
-      <c r="G89" s="20"/>
-      <c r="H89" s="21"/>
-      <c r="I89" s="21"/>
-      <c r="J89" s="21"/>
-      <c r="K89" s="21"/>
-      <c r="L89" s="5"/>
-      <c r="M89" s="1"/>
-      <c r="N89" s="4"/>
+      <c r="A89" s="3">
+        <v>43384</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E89" s="21">
+        <v>0.69899999999999995</v>
+      </c>
+      <c r="F89" s="21">
+        <v>0.69899999999999995</v>
+      </c>
+      <c r="G89" s="20">
+        <v>9144.9599999999991</v>
+      </c>
+      <c r="H89" s="21">
+        <f>F89*$T$20</f>
+        <v>25.91</v>
+      </c>
+      <c r="I89" s="21">
+        <f>F89*$V$20</f>
+        <v>3.17</v>
+      </c>
+      <c r="J89" s="21">
+        <f t="shared" si="20"/>
+        <v>165824</v>
+      </c>
+      <c r="K89" s="21">
+        <f t="shared" si="21"/>
+        <v>20288</v>
+      </c>
+      <c r="L89" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M89" s="4">
+        <v>-6400</v>
+      </c>
+      <c r="N89" s="4">
+        <v>7.67</v>
+      </c>
       <c r="O89" s="4"/>
       <c r="P89" s="15"/>
       <c r="Q89" s="15"/>
@@ -31439,7 +31616,7 @@
       </c>
       <c r="M102" s="1">
         <f>SUM(S4:S6)</f>
-        <v>495093.44</v>
+        <v>480155.89</v>
       </c>
       <c r="N102" s="1"/>
       <c r="O102" s="4"/>
@@ -31624,7 +31801,7 @@
     <row r="126" spans="14:16" x14ac:dyDescent="0.2">
       <c r="N126">
         <f>SUMIF(C:C,"=医药",J:J)/SUMIF(C:C,"=医药",M:M)*-1</f>
-        <v>29.339751027187265</v>
+        <v>28.805916946540396</v>
       </c>
       <c r="P126" s="63"/>
     </row>
@@ -31669,206 +31846,216 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="N2:N16 N26:N42 N19:N24">
-    <cfRule type="cellIs" dxfId="40" priority="53" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="42" priority="58" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N43:N47 N102:N104">
-    <cfRule type="cellIs" dxfId="39" priority="52" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="41" priority="57" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N48">
-    <cfRule type="cellIs" dxfId="38" priority="50" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="40" priority="55" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N49">
-    <cfRule type="cellIs" dxfId="37" priority="49" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="39" priority="54" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N50">
-    <cfRule type="cellIs" dxfId="36" priority="48" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="38" priority="53" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N52">
-    <cfRule type="cellIs" dxfId="35" priority="47" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="37" priority="52" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N53">
-    <cfRule type="cellIs" dxfId="34" priority="46" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="36" priority="51" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N54 N60 N77">
-    <cfRule type="cellIs" dxfId="33" priority="45" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="35" priority="50" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N51">
-    <cfRule type="cellIs" dxfId="32" priority="44" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="34" priority="49" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N25">
-    <cfRule type="cellIs" dxfId="31" priority="42" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="33" priority="47" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N55">
-    <cfRule type="cellIs" dxfId="30" priority="40" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="32" priority="45" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N56">
-    <cfRule type="cellIs" dxfId="29" priority="39" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="31" priority="44" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N57">
-    <cfRule type="cellIs" dxfId="28" priority="37" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="30" priority="42" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N58">
-    <cfRule type="cellIs" dxfId="27" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="29" priority="41" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N59">
-    <cfRule type="cellIs" dxfId="26" priority="35" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="28" priority="40" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N70">
-    <cfRule type="cellIs" dxfId="25" priority="34" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="27" priority="39" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N61">
+    <cfRule type="cellIs" dxfId="26" priority="37" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N62:N63 N69">
+    <cfRule type="cellIs" dxfId="25" priority="36" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N66">
     <cfRule type="cellIs" dxfId="24" priority="32" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N62:N63 N69">
-    <cfRule type="cellIs" dxfId="23" priority="31" operator="greaterThan">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N66">
-    <cfRule type="cellIs" dxfId="22" priority="27" operator="greaterThan">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="N65">
-    <cfRule type="cellIs" dxfId="21" priority="28" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="23" priority="33" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N64">
-    <cfRule type="cellIs" dxfId="20" priority="29" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="22" priority="34" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N68">
-    <cfRule type="cellIs" dxfId="19" priority="25" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="21" priority="30" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N67">
-    <cfRule type="cellIs" dxfId="18" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="31" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N17:N18">
-    <cfRule type="cellIs" dxfId="17" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="29" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N76">
-    <cfRule type="cellIs" dxfId="16" priority="23" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="18" priority="28" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N71">
-    <cfRule type="cellIs" dxfId="15" priority="22" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="27" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N73">
-    <cfRule type="cellIs" dxfId="14" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="26" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N75">
-    <cfRule type="cellIs" dxfId="13" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="25" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N72">
+    <cfRule type="cellIs" dxfId="14" priority="22" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N78">
+    <cfRule type="cellIs" dxfId="13" priority="21" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N79">
+    <cfRule type="cellIs" dxfId="12" priority="20" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N80">
+    <cfRule type="cellIs" dxfId="11" priority="19" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N81">
+    <cfRule type="cellIs" dxfId="10" priority="18" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N90:N101">
+    <cfRule type="cellIs" dxfId="9" priority="13" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N82">
+    <cfRule type="cellIs" dxfId="8" priority="12" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N83">
+    <cfRule type="cellIs" dxfId="7" priority="11" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N84">
+    <cfRule type="cellIs" dxfId="6" priority="10" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N85">
+    <cfRule type="cellIs" dxfId="5" priority="9" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N86">
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N87">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N74">
-    <cfRule type="cellIs" dxfId="12" priority="19" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N72">
-    <cfRule type="cellIs" dxfId="11" priority="17" operator="greaterThan">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N78">
-    <cfRule type="cellIs" dxfId="10" priority="16" operator="greaterThan">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N79">
-    <cfRule type="cellIs" dxfId="9" priority="15" operator="greaterThan">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N80">
-    <cfRule type="cellIs" dxfId="8" priority="14" operator="greaterThan">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N81">
-    <cfRule type="cellIs" dxfId="7" priority="13" operator="greaterThan">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N88:N101">
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="greaterThan">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N82">
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="greaterThan">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N83">
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="greaterThan">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N84">
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="greaterThan">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N85">
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N86">
+  <conditionalFormatting sqref="N89">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N87">
+  <conditionalFormatting sqref="N88">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
@@ -31884,7 +32071,7 @@
   <dimension ref="B1:S74"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="L69" sqref="L69"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -31959,7 +32146,7 @@
       </c>
       <c r="D3" s="21">
         <f>已投部分年化收益率!T13</f>
-        <v>4.1010802469135808</v>
+        <v>3.9779874213836472</v>
       </c>
       <c r="E3" s="21">
         <f>AVERAGE($F3:AA3)</f>
@@ -32048,7 +32235,7 @@
     <row r="5" spans="2:19" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D5" s="31">
         <f>E3*D3</f>
-        <v>10.764652134773662</v>
+        <v>10.441553983228509</v>
       </c>
       <c r="R5" s="47"/>
     </row>
@@ -32107,7 +32294,7 @@
       </c>
       <c r="D8" s="37">
         <f>已投部分年化收益率!T27</f>
-        <v>10.762735716296088</v>
+        <v>10.735143596845083</v>
       </c>
       <c r="E8" s="37">
         <v>2.3376000000000001</v>
@@ -32221,7 +32408,7 @@
     <row r="11" spans="2:19" x14ac:dyDescent="0.2">
       <c r="D11" s="37">
         <f>已投部分年化收益率!T28</f>
-        <v>37.563850687622789</v>
+        <v>37.457983193277308</v>
       </c>
       <c r="E11" s="37">
         <v>0.58919999999999995</v>
@@ -32316,7 +32503,7 @@
       <c r="C14" s="39"/>
       <c r="D14" s="37">
         <f>已投部分年化收益率!T29</f>
-        <v>10.711484593837536</v>
+        <v>10.657501494321577</v>
       </c>
       <c r="E14" s="37">
         <v>1.9490000000000001</v>
@@ -32368,9 +32555,11 @@
         <v>89</v>
       </c>
       <c r="F16" s="40">
+        <v>43384</v>
+      </c>
+      <c r="G16" s="40">
         <v>43318</v>
       </c>
-      <c r="G16" s="37"/>
       <c r="H16" s="37"/>
       <c r="I16" s="37"/>
       <c r="J16" s="37"/>
@@ -32385,15 +32574,17 @@
       <c r="C17" s="39"/>
       <c r="D17" s="37">
         <f>已投部分年化收益率!T30</f>
-        <v>23.523622047244096</v>
+        <v>23.454354117337541</v>
       </c>
       <c r="E17" s="37">
+        <v>0.7984</v>
+      </c>
+      <c r="F17" s="37">
+        <v>0.76019999999999999</v>
+      </c>
+      <c r="G17" s="37">
         <v>0.8407</v>
       </c>
-      <c r="F17" s="37">
-        <v>0.8407</v>
-      </c>
-      <c r="G17" s="37"/>
       <c r="H17" s="37"/>
       <c r="I17" s="37"/>
       <c r="J17" s="37"/>
@@ -32411,7 +32602,9 @@
       <c r="F18" s="37">
         <v>1</v>
       </c>
-      <c r="G18" s="37"/>
+      <c r="G18" s="37">
+        <v>1</v>
+      </c>
       <c r="H18" s="37"/>
       <c r="I18" s="37"/>
       <c r="J18" s="37"/>
@@ -32444,7 +32637,7 @@
       <c r="C20" s="42"/>
       <c r="D20" s="43">
         <f>(E8*D8*SUM(F9:Z9)+E11*D11*SUM(F12:AA12)+E14*D14*SUM(F15:AA15)+E17*D17*SUM(F18:Z18))/(SUM(F9:Z9)+SUM(F12:AA12)+SUM(F15:AA15)+SUM(F18:Z18))</f>
-        <v>23.424514714437578</v>
+        <v>23.112869193525988</v>
       </c>
       <c r="E20" s="44"/>
       <c r="F20" s="44"/>
@@ -32531,7 +32724,7 @@
       </c>
       <c r="D23" s="21">
         <f>已投部分年化收益率!T26</f>
-        <v>11.451800232288036</v>
+        <v>11.41133896260555</v>
       </c>
       <c r="E23" s="21">
         <f>0.7248</f>
@@ -32612,7 +32805,7 @@
     <row r="25" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D25" s="31">
         <f>E23*D23</f>
-        <v>8.3002648083623694</v>
+        <v>8.2709384800965022</v>
       </c>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.2">
@@ -32665,7 +32858,7 @@
       </c>
       <c r="D28" s="21">
         <f>已投部分年化收益率!T20</f>
-        <v>37.146354733405879</v>
+        <v>37.067238912732478</v>
       </c>
       <c r="E28">
         <v>0.79069999999999996</v>
@@ -32733,7 +32926,7 @@
     <row r="30" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D30" s="31">
         <f>E28*D28</f>
-        <v>29.371622687704026</v>
+        <v>29.309065808297568</v>
       </c>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.2">
@@ -32783,7 +32976,7 @@
       </c>
       <c r="D33" s="21">
         <f>已投部分年化收益率!T21</f>
-        <v>24.977000919963199</v>
+        <v>24.88479262672811</v>
       </c>
       <c r="E33">
         <v>0.9577</v>
@@ -32845,7 +33038,7 @@
     <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D35" s="31">
         <f>E33*D33</f>
-        <v>23.920473781048756</v>
+        <v>23.832165898617511</v>
       </c>
     </row>
     <row r="37" spans="2:17" x14ac:dyDescent="0.2">
@@ -32895,7 +33088,7 @@
       </c>
       <c r="D38" s="21">
         <f>已投部分年化收益率!T24</f>
-        <v>38.109814425100438</v>
+        <v>37.701243122070508</v>
       </c>
       <c r="E38">
         <v>0.71379999999999999</v>
@@ -32957,7 +33150,7 @@
     <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D40" s="31">
         <f>D38*E38</f>
-        <v>27.202785536636693</v>
+        <v>26.91114734053393</v>
       </c>
     </row>
     <row r="42" spans="2:17" x14ac:dyDescent="0.2">
@@ -33013,7 +33206,7 @@
       </c>
       <c r="D43" s="21">
         <f>已投部分年化收益率!T36</f>
-        <v>6.8031982045167618</v>
+        <v>6.7885117493472578</v>
       </c>
       <c r="E43">
         <v>1.0154000000000001</v>
@@ -33087,7 +33280,7 @@
     <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D45" s="31">
         <f>E43*D43</f>
-        <v>6.9079674568663201</v>
+        <v>6.8930548302872063</v>
       </c>
     </row>
     <row r="47" spans="2:17" x14ac:dyDescent="0.2">
@@ -33135,7 +33328,7 @@
       </c>
       <c r="D48" s="48">
         <f>已投部分年化收益率!T31</f>
-        <v>6.8372943327239488</v>
+        <v>6.8193384223918576</v>
       </c>
       <c r="E48">
         <v>1.6929000000000001</v>
@@ -33219,7 +33412,7 @@
       <c r="C51" s="39"/>
       <c r="D51" s="37">
         <f>已投部分年化收益率!T32</f>
-        <v>10.274725274725274</v>
+        <v>10.27804410354746</v>
       </c>
       <c r="E51" s="37">
         <v>0.97399999999999998</v>
@@ -33264,7 +33457,7 @@
       <c r="C53" s="42"/>
       <c r="D53" s="43">
         <f>(E48*D48*SUM(G49:AB49)+E51*D51*SUM(F52:AA52))/(SUM(G49:AB49)+SUM(F52:AA52))</f>
-        <v>11.26140094421118</v>
+        <v>11.237729403584787</v>
       </c>
       <c r="E53" s="44"/>
       <c r="F53" s="44"/>
@@ -33315,7 +33508,7 @@
       </c>
       <c r="D56" s="21">
         <f>已投部分年化收益率!T33</f>
-        <v>33.637971698113205</v>
+        <v>33.438138657443794</v>
       </c>
       <c r="E56">
         <v>0.87860000000000005</v>
@@ -33353,7 +33546,7 @@
     <row r="58" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D58" s="31">
         <f>E56*D56</f>
-        <v>29.554321933962264</v>
+        <v>29.37874862443012</v>
       </c>
     </row>
     <row r="60" spans="2:17" x14ac:dyDescent="0.2">
@@ -33389,7 +33582,7 @@
       </c>
       <c r="D61" s="21">
         <f>已投部分年化收益率!V34</f>
-        <v>1.2728896828941492</v>
+        <v>1.2396210969477255</v>
       </c>
       <c r="E61">
         <v>0.91320000000000001</v>
@@ -33421,7 +33614,7 @@
     <row r="63" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D63" s="31">
         <f>E61*D61</f>
-        <v>1.162402858418937</v>
+        <v>1.132021985732663</v>
       </c>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.2">
@@ -33475,6 +33668,7 @@
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -33483,7 +33677,7 @@
   <dimension ref="A2:AB38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="H61" sqref="H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -33542,7 +33736,7 @@
       </c>
       <c r="G3" s="19">
         <f>C26+C16+C17+C18+C19</f>
-        <v>0.31886923749999979</v>
+        <v>0.3027668624999999</v>
       </c>
       <c r="H3" s="19">
         <f>D26+D16+D17+D18+D19</f>
@@ -33571,7 +33765,7 @@
       </c>
       <c r="G4" s="19">
         <f>1-G3-G5</f>
-        <v>0.65868450000000023</v>
+        <v>0.67478687500000001</v>
       </c>
       <c r="H4" s="19">
         <f>1-H3-H5</f>
@@ -33612,7 +33806,7 @@
       </c>
       <c r="C6" s="28">
         <f>已投部分年化收益率!Y16</f>
-        <v>0.2110085125</v>
+        <v>0.21911088749999999</v>
       </c>
       <c r="D6" s="18">
         <f>(11+8+1+2)*0.0067</f>
@@ -33662,7 +33856,7 @@
       </c>
       <c r="C9" s="28">
         <f>已投部分年化收益率!Y19</f>
-        <v>4.5076224999999998E-2</v>
+        <v>5.3076224999999998E-2</v>
       </c>
       <c r="D9" s="18">
         <f>9*0.0067</f>
@@ -33670,7 +33864,7 @@
       </c>
       <c r="E9" s="54">
         <f t="shared" si="0"/>
-        <v>1.8794783950617286</v>
+        <v>0.89182407407407438</v>
       </c>
       <c r="M9" s="3"/>
     </row>
@@ -33948,7 +34142,7 @@
       </c>
       <c r="C26" s="19">
         <f>已投部分年化收益率!Y42</f>
-        <v>0.29117534999999983</v>
+        <v>0.27507297499999994</v>
       </c>
       <c r="D26" s="18">
         <f>36*0.0067</f>
@@ -33980,15 +34174,15 @@
       </c>
       <c r="H28" s="1">
         <f>已投部分年化收益率!W13</f>
-        <v>10.754887989556478</v>
+        <v>10.432082906215628</v>
       </c>
       <c r="I28" s="1">
         <f>ETF计划成本计算!D5</f>
-        <v>10.764652134773662</v>
+        <v>10.441553983228509</v>
       </c>
       <c r="J28" s="18">
         <f>已投部分年化收益率!S13/H28-1</f>
-        <v>-1.1612207368198457E-2</v>
+        <v>-2.9915685009528126E-2</v>
       </c>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.2">
@@ -34001,15 +34195,15 @@
       </c>
       <c r="H29" s="1">
         <f>已投部分年化收益率!W15</f>
-        <v>11.590690789063636</v>
+        <v>11.616671273408995</v>
       </c>
       <c r="I29" s="1">
         <f>ETF计划成本计算!D53</f>
-        <v>11.26140094421118</v>
+        <v>11.237729403584787</v>
       </c>
       <c r="J29" s="18">
         <f>已投部分年化收益率!S15/H29-1</f>
-        <v>-3.1981768456233794E-2</v>
+        <v>-7.7188314303212602E-2</v>
       </c>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.2">
@@ -34018,19 +34212,19 @@
       </c>
       <c r="G30" s="19">
         <f>C6</f>
-        <v>0.2110085125</v>
+        <v>0.21911088749999999</v>
       </c>
       <c r="H30" s="55">
         <f>已投部分年化收益率!W16</f>
-        <v>22.629102085507153</v>
+        <v>22.510157889195316</v>
       </c>
       <c r="I30" s="4">
         <f>ETF计划成本计算!D20</f>
-        <v>23.424514714437578</v>
+        <v>23.112869193525988</v>
       </c>
       <c r="J30" s="18">
         <f>已投部分年化收益率!S16/H30-1</f>
-        <v>-0.15507031928388193</v>
+        <v>-0.20791315246357089</v>
       </c>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.2">
@@ -34043,14 +34237,14 @@
       </c>
       <c r="H31" s="1">
         <f>已投部分年化收益率!W17</f>
-        <v>27.967827407262366</v>
+        <v>28.003486706436799</v>
       </c>
       <c r="I31" s="27" t="s">
         <v>115</v>
       </c>
       <c r="J31" s="18">
         <f>已投部分年化收益率!S17/H31-1</f>
-        <v>-0.21481208818180564</v>
+        <v>-0.27259058082514376</v>
       </c>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.2">
@@ -34063,12 +34257,12 @@
       </c>
       <c r="H32" s="1">
         <f>已投部分年化收益率!W18</f>
-        <v>32.955874691611783</v>
+        <v>32.93009244895304</v>
       </c>
       <c r="I32" s="27"/>
       <c r="J32" s="18">
         <f>已投部分年化收益率!S18/H32-1</f>
-        <v>-8.4230041459598226E-2</v>
+        <v>-0.14151470896041174</v>
       </c>
     </row>
     <row r="33" spans="6:10" x14ac:dyDescent="0.2">
@@ -34077,19 +34271,19 @@
       </c>
       <c r="G33" s="19">
         <f>C9</f>
-        <v>4.5076224999999998E-2</v>
+        <v>5.3076224999999998E-2</v>
       </c>
       <c r="H33" s="1">
         <f>已投部分年化收益率!W19</f>
-        <v>29.339751027187265</v>
+        <v>28.805916946540396</v>
       </c>
       <c r="I33" s="1">
         <f>ETF计划成本计算!D30</f>
-        <v>29.371622687704026</v>
+        <v>29.309065808297568</v>
       </c>
       <c r="J33" s="18">
         <f>已投部分年化收益率!S19/H33-1</f>
-        <v>-6.9180921995773859E-2</v>
+        <v>-0.10053201749886309</v>
       </c>
     </row>
     <row r="34" spans="6:10" x14ac:dyDescent="0.2">
@@ -34102,15 +34296,15 @@
       </c>
       <c r="H34" s="1">
         <f>已投部分年化收益率!W21</f>
-        <v>24.53581465781016</v>
+        <v>24.087069489839415</v>
       </c>
       <c r="I34" s="1">
         <f>ETF计划成本计算!D35</f>
-        <v>23.920473781048756</v>
+        <v>23.832165898617511</v>
       </c>
       <c r="J34" s="18">
         <f>已投部分年化收益率!S21/H34-1</f>
-        <v>-0.11476344670356564</v>
+        <v>-0.14809063806388334</v>
       </c>
     </row>
     <row r="35" spans="6:10" x14ac:dyDescent="0.2">
@@ -34123,15 +34317,15 @@
       </c>
       <c r="H35" s="56">
         <f>已投部分年化收益率!W23</f>
-        <v>26.107615267636714</v>
+        <v>25.934050442778659</v>
       </c>
       <c r="I35" s="1">
         <f>ETF计划成本计算!D40</f>
-        <v>27.202785536636693</v>
+        <v>26.91114734053393</v>
       </c>
       <c r="J35" s="18">
         <f>已投部分年化收益率!S24/H35-1</f>
-        <v>-0.23700423053602093</v>
+        <v>-0.28665211626626841</v>
       </c>
     </row>
     <row r="36" spans="6:10" x14ac:dyDescent="0.2">
@@ -34144,15 +34338,15 @@
       </c>
       <c r="H36" s="1">
         <f>已投部分年化收益率!W25</f>
-        <v>29.504235873787493</v>
+        <v>29.475664733710008</v>
       </c>
       <c r="I36" s="1">
         <f>ETF计划成本计算!D58</f>
-        <v>29.554321933962264</v>
+        <v>29.37874862443012</v>
       </c>
       <c r="J36" s="18">
         <f>已投部分年化收益率!S25/H36-1</f>
-        <v>-0.22655173658389782</v>
+        <v>-0.27838777540190818</v>
       </c>
     </row>
     <row r="37" spans="6:10" x14ac:dyDescent="0.2">
@@ -34165,15 +34359,15 @@
       </c>
       <c r="H37" s="1">
         <f>已投部分年化收益率!X34</f>
-        <v>1.1558686913800804</v>
+        <v>1.125658597434998</v>
       </c>
       <c r="I37" s="1">
         <f>ETF计划成本计算!D63</f>
-        <v>1.162402858418937</v>
+        <v>1.132021985732663</v>
       </c>
       <c r="J37" s="18">
         <f>已投部分年化收益率!U34/H37-1</f>
-        <v>-1.3728801115924005E-2</v>
+        <v>-5.8329050730489773E-2</v>
       </c>
     </row>
     <row r="38" spans="6:10" x14ac:dyDescent="0.2">
@@ -34186,11 +34380,11 @@
       </c>
       <c r="H38" s="1">
         <f>已投部分年化收益率!X22</f>
-        <v>1.4143198918546811</v>
+        <v>1.4205560321968551</v>
       </c>
       <c r="J38" s="18">
         <f>已投部分年化收益率!U22/资产配置表!H38-1</f>
-        <v>-0.17274726408202468</v>
+        <v>-0.23269482139726527</v>
       </c>
     </row>
   </sheetData>
@@ -34248,15 +34442,15 @@
       </c>
       <c r="C2" s="21">
         <f>$B2^(1/$C$1)/(0.97*$P$2^(1/$C$1))</f>
-        <v>0.87247561081901337</v>
+        <v>0.88138350024898116</v>
       </c>
       <c r="D2" s="21">
         <f>$B2^(1/$D$1)/(0.97*$P$2^(1/$D$1))</f>
-        <v>0.93270280662521354</v>
+        <v>0.93840487652637916</v>
       </c>
       <c r="E2" s="21">
         <f>$B2^(1/$E$1)/(0.97*$P$2^(1/$E$1))</f>
-        <v>0.959770869320271</v>
+        <v>0.96395832587053953</v>
       </c>
       <c r="I2" s="77" t="s">
         <v>241</v>
@@ -34276,7 +34470,7 @@
       </c>
       <c r="P2" s="1">
         <f>资产配置表!H28</f>
-        <v>10.754887989556478</v>
+        <v>10.432082906215628</v>
       </c>
       <c r="Q2">
         <v>21.73</v>
@@ -34293,15 +34487,15 @@
       </c>
       <c r="C3" s="21">
         <f t="shared" ref="C3:C4" si="0">$B3^(1/$C$1)/(0.97*$P$2^(1/$C$1))</f>
-        <v>1.0344342194843423</v>
+        <v>1.0449956902412056</v>
       </c>
       <c r="D3" s="21">
         <f t="shared" ref="D3:D4" si="1">$B3^(1/$D$1)/(0.97*$P$2^(1/$D$1))</f>
-        <v>1.0330302368713047</v>
+        <v>1.0393456575806848</v>
       </c>
       <c r="E3" s="21">
         <f t="shared" ref="E3:E4" si="2">$B3^(1/$E$1)/(0.97*$P$2^(1/$E$1))</f>
-        <v>1.0324291135199748</v>
+        <v>1.0369335761915279</v>
       </c>
       <c r="G3" t="s">
         <v>235</v>
@@ -34311,15 +34505,15 @@
       </c>
       <c r="I3" s="18">
         <f>C2*$A$3+C6*$A$7+C10*$A$11+C14*$A$15+C18*$A$19+C22*$A$23+C26*$A$27+C30*$A$31+C34*$A$35+C38*$A$39+C42*$A$43+C46*$A$47+C50*$A$51+C54*$A$55+C58*$A$59-1</f>
-        <v>2.3034922850952322E-2</v>
+        <v>2.4258738745702502E-2</v>
       </c>
       <c r="J3" s="18">
         <f t="shared" ref="J3:K3" si="3">D2*$A$3+D6*$A$7+D10*$A$11+D14*$A$15+D18*$A$19+D22*$A$23+D26*$A$27+D30*$A$31+D34*$A$35+D38*$A$39+D42*$A$43+D46*$A$47+D50*$A$51+D54*$A$55+D58*$A$59-1</f>
-        <v>2.7935538493526257E-2</v>
+        <v>2.8640481641560189E-2</v>
       </c>
       <c r="K3" s="18">
         <f t="shared" si="3"/>
-        <v>3.0379312025094585E-2</v>
+        <v>3.0850452035448672E-2</v>
       </c>
       <c r="N3" t="s">
         <v>217</v>
@@ -34330,7 +34524,7 @@
       </c>
       <c r="P3" s="1">
         <f>资产配置表!H29</f>
-        <v>11.590690789063636</v>
+        <v>11.616671273408995</v>
       </c>
       <c r="Q3">
         <v>19</v>
@@ -34343,41 +34537,41 @@
       </c>
       <c r="C4" s="21">
         <f t="shared" si="0"/>
-        <v>1.1572101226477343</v>
+        <v>1.1690251231955531</v>
       </c>
       <c r="D4" s="21">
         <f t="shared" si="1"/>
-        <v>1.1049398597952731</v>
+        <v>1.1116948993130951</v>
       </c>
       <c r="E4" s="21">
         <f t="shared" si="2"/>
-        <v>1.0832674069342472</v>
+        <v>1.0879936758218118</v>
       </c>
       <c r="H4" s="79" t="s">
         <v>237</v>
       </c>
       <c r="I4" s="18">
         <f t="shared" ref="I4" si="4">C3*$A$3+C7*$A$7+C11*$A$11+C15*$A$15+C19*$A$19+C23*$A$23+C27*$A$27+C31*$A$31+C35*$A$35+C39*$A$39+C43*$A$43+C47*$A$47+C51*$A$51+C55*$A$55+C59*$A$59-1</f>
-        <v>0.13793932524800367</v>
+        <v>0.14249898510760683</v>
       </c>
       <c r="J4" s="18">
         <f t="shared" ref="J4" si="5">D3*$A$3+D7*$A$7+D11*$A$11+D15*$A$15+D19*$A$19+D23*$A$23+D27*$A$27+D31*$A$31+D35*$A$35+D39*$A$39+D43*$A$43+D47*$A$47+D51*$A$51+D55*$A$55+D59*$A$59-1</f>
-        <v>9.5045522270525984E-2</v>
+        <v>9.7627650115409192E-2</v>
       </c>
       <c r="K4" s="18">
         <f t="shared" ref="K4:K5" si="6">E3*$A$3+E7*$A$7+E11*$A$11+E15*$A$15+E19*$A$19+E23*$A$23+E27*$A$27+E31*$A$31+E35*$A$35+E39*$A$39+E43*$A$43+E47*$A$47+E51*$A$51+E55*$A$55+E59*$A$59-1</f>
-        <v>7.7795415175085036E-2</v>
+        <v>7.9569992654377364E-2</v>
       </c>
       <c r="N4" t="s">
         <v>218</v>
       </c>
       <c r="O4" s="18">
         <f>资产配置表!G30</f>
-        <v>0.2110085125</v>
+        <v>0.21911088749999999</v>
       </c>
       <c r="P4" s="1">
         <f>资产配置表!H30</f>
-        <v>22.629102085507153</v>
+        <v>22.510157889195316</v>
       </c>
       <c r="Q4">
         <v>83.24</v>
@@ -34390,15 +34584,15 @@
       </c>
       <c r="I5" s="18">
         <f>C4*$A$3+C8*$A$7+C12*$A$11+C16*$A$15+C20*$A$19+C24*$A$23+C28*$A$27+C32*$A$31+C36*$A$35+C40*$A$39+C44*$A$43+C48*$A$47+C52*$A$51+C56*$A$55+C60*$A$59-1</f>
-        <v>0.22504486349635622</v>
+        <v>0.23213332536884468</v>
       </c>
       <c r="J5" s="18">
         <f>D4*$A$3+D8*$A$7+D12*$A$11+D16*$A$15+D20*$A$19+D24*$A$23+D28*$A$27+D32*$A$31+D36*$A$35+D40*$A$39+D44*$A$43+D48*$A$47+D52*$A$51+D56*$A$55+D60*$A$59-1</f>
-        <v>0.14314656119876812</v>
+        <v>0.14707416000187212</v>
       </c>
       <c r="K5" s="18">
         <f t="shared" si="6"/>
-        <v>0.11097201875327123</v>
+        <v>0.1136585992299235</v>
       </c>
       <c r="N5" t="s">
         <v>219</v>
@@ -34409,7 +34603,7 @@
       </c>
       <c r="P5" s="1">
         <f>资产配置表!H31</f>
-        <v>27.967827407262366</v>
+        <v>28.003486706436799</v>
       </c>
       <c r="Q5">
         <v>144.82</v>
@@ -34425,15 +34619,15 @@
       </c>
       <c r="C6" s="21">
         <f>$B6^(1/$C$1)/(0.97*$P$3^(1/$C$1))</f>
-        <v>0.81373583977048025</v>
+        <v>0.813128751588301</v>
       </c>
       <c r="D6" s="21">
         <f>$B6^(1/$D$1)/(0.97*$P$3^(1/$D$1))</f>
-        <v>0.89450211722905093</v>
+        <v>0.89410165111218309</v>
       </c>
       <c r="E6" s="21">
         <f>$B6^(1/$E$1)/(0.97*$P$3^(1/$E$1))</f>
-        <v>0.93152554901058093</v>
+        <v>0.93122764323749696</v>
       </c>
       <c r="N6" t="s">
         <v>178</v>
@@ -34444,7 +34638,7 @@
       </c>
       <c r="P6" s="1">
         <f>资产配置表!H32</f>
-        <v>32.955874691611783</v>
+        <v>32.93009244895304</v>
       </c>
       <c r="Q6">
         <v>137.86000000000001</v>
@@ -34461,26 +34655,26 @@
       </c>
       <c r="C7" s="21">
         <f>$B7^(1/$C$1)/(0.97*$P$3^(1/$C$1))</f>
-        <v>0.96479052003440668</v>
+        <v>0.96407073740426374</v>
       </c>
       <c r="D7" s="21">
         <f>$B7^(1/$D$1)/(0.97*$P$3^(1/$D$1))</f>
-        <v>0.99072043900723306</v>
+        <v>0.99027689621457904</v>
       </c>
       <c r="E7" s="21">
         <f>$B7^(1/$E$1)/(0.97*$P$3^(1/$E$1))</f>
-        <v>1.0020455168297839</v>
+        <v>1.0017250584755568</v>
       </c>
       <c r="N7" t="s">
         <v>220</v>
       </c>
       <c r="O7" s="18">
         <f>资产配置表!G33</f>
-        <v>4.5076224999999998E-2</v>
+        <v>5.3076224999999998E-2</v>
       </c>
       <c r="P7" s="1">
         <f>资产配置表!H33</f>
-        <v>29.339751027187265</v>
+        <v>28.805916946540396</v>
       </c>
       <c r="Q7">
         <v>74.42</v>
@@ -34493,15 +34687,15 @@
       </c>
       <c r="C8" s="21">
         <f>$B8^(1/$C$1)/(0.97*$P$3^(1/$C$1))</f>
-        <v>1.0793004861874509</v>
+        <v>1.0784952733184077</v>
       </c>
       <c r="D8" s="21">
         <f>$B8^(1/$D$1)/(0.97*$P$3^(1/$D$1))</f>
-        <v>1.0596848610050318</v>
+        <v>1.0592104430319309</v>
       </c>
       <c r="E8" s="21">
         <f>$B8^(1/$E$1)/(0.97*$P$3^(1/$E$1))</f>
-        <v>1.0513876782740361</v>
+        <v>1.0510514400898663</v>
       </c>
       <c r="N8" t="s">
         <v>221</v>
@@ -34512,7 +34706,7 @@
       </c>
       <c r="P8" s="1">
         <f>资产配置表!H34</f>
-        <v>24.53581465781016</v>
+        <v>24.087069489839415</v>
       </c>
       <c r="Q8">
         <v>52.47</v>
@@ -34529,7 +34723,7 @@
       </c>
       <c r="P9" s="1">
         <f>资产配置表!H35</f>
-        <v>26.107615267636714</v>
+        <v>25.934050442778659</v>
       </c>
       <c r="Q9">
         <v>71.13</v>
@@ -34545,15 +34739,15 @@
       </c>
       <c r="C10" s="21">
         <f>$B10^(1/$C$1)/(0.97*$P$4^(1/$C$1))</f>
-        <v>1.0653449885512096</v>
+        <v>1.0672181290509699</v>
       </c>
       <c r="D10" s="21">
         <f>$B10^(1/$D$1)/(0.97*$P$4^(1/$D$1))</f>
-        <v>1.0514423526767012</v>
+        <v>1.0525511806728354</v>
       </c>
       <c r="E10" s="21">
         <f>$B10^(1/$E$1)/(0.97*$P$4^(1/$E$1))</f>
-        <v>1.0455397580722783</v>
+        <v>1.0463272132244437</v>
       </c>
       <c r="N10" t="s">
         <v>223</v>
@@ -34564,7 +34758,7 @@
       </c>
       <c r="P10" s="1">
         <f>资产配置表!H36</f>
-        <v>29.504235873787493</v>
+        <v>29.475664733710008</v>
       </c>
       <c r="Q10">
         <v>121.16</v>
@@ -34573,7 +34767,7 @@
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="19">
         <f>O4</f>
-        <v>0.2110085125</v>
+        <v>0.21911088749999999</v>
       </c>
       <c r="B11" s="1">
         <f>Q4*0.5</f>
@@ -34581,15 +34775,15 @@
       </c>
       <c r="C11" s="21">
         <f>$B11^(1/$C$1)/(0.97*$P$4^(1/$C$1))</f>
-        <v>1.2631061522499469</v>
+        <v>1.2653270058839359</v>
       </c>
       <c r="D11" s="21">
         <f>$B11^(1/$D$1)/(0.97*$P$4^(1/$D$1))</f>
-        <v>1.1645421616905127</v>
+        <v>1.1657702622594823</v>
       </c>
       <c r="E11" s="21">
         <f>$B11^(1/$E$1)/(0.97*$P$4^(1/$E$1))</f>
-        <v>1.1246910279126687</v>
+        <v>1.1255380963648114</v>
       </c>
       <c r="N11" t="s">
         <v>224</v>
@@ -34600,7 +34794,7 @@
       </c>
       <c r="P11" s="1">
         <f>资产配置表!H37</f>
-        <v>1.1558686913800804</v>
+        <v>1.125658597434998</v>
       </c>
       <c r="Q11">
         <v>3.5</v>
@@ -34613,15 +34807,15 @@
       </c>
       <c r="C12" s="21">
         <f>$B12^(1/$C$1)/(0.97*$P$4^(1/$C$1))</f>
-        <v>1.413022885196997</v>
+        <v>1.4155073295993217</v>
       </c>
       <c r="D12" s="21">
         <f>$B12^(1/$D$1)/(0.97*$P$4^(1/$D$1))</f>
-        <v>1.2456063791134735</v>
+        <v>1.2469199682244771</v>
       </c>
       <c r="E12" s="21">
         <f>$B12^(1/$E$1)/(0.97*$P$4^(1/$E$1))</f>
-        <v>1.1800724305955927</v>
+        <v>1.1809612099157729</v>
       </c>
       <c r="N12" t="s">
         <v>240</v>
@@ -34632,7 +34826,7 @@
       </c>
       <c r="P12" s="1">
         <f>资产配置表!H38</f>
-        <v>1.4143198918546811</v>
+        <v>1.4205560321968551</v>
       </c>
       <c r="Q12">
         <v>5.04</v>
@@ -34662,15 +34856,15 @@
       </c>
       <c r="C14" s="21">
         <f>$B14^(1/$C$1)/(0.97*$P$5^(1/$C$1))</f>
-        <v>1.1939659861319081</v>
+        <v>1.1934589769457347</v>
       </c>
       <c r="D14" s="21">
         <f>$B14^(1/$D$1)/(0.97*$P$5^(1/$D$1))</f>
-        <v>1.1258654168347026</v>
+        <v>1.1255785380102208</v>
       </c>
       <c r="E14" s="21">
         <f>$B14^(1/$E$1)/(0.97*$P$5^(1/$E$1))</f>
-        <v>1.0978817376586287</v>
+        <v>1.0976819101153621</v>
       </c>
       <c r="I14" s="21"/>
       <c r="J14" s="21"/>
@@ -34695,15 +34889,15 @@
       </c>
       <c r="C15" s="21">
         <f>$B15^(1/$C$1)/(0.97*$P$5^(1/$C$1))</f>
-        <v>1.4156032072871536</v>
+        <v>1.4150020814272817</v>
       </c>
       <c r="D15" s="21">
         <f>$B15^(1/$D$1)/(0.97*$P$5^(1/$D$1))</f>
-        <v>1.2469706427133236</v>
+        <v>1.2466529053827367</v>
       </c>
       <c r="E15" s="21">
         <f>$B15^(1/$E$1)/(0.97*$P$5^(1/$E$1))</f>
-        <v>1.1809954911044807</v>
+        <v>1.1807805358688652</v>
       </c>
       <c r="I15" s="21"/>
       <c r="J15" s="21"/>
@@ -34723,22 +34917,22 @@
       </c>
       <c r="C16" s="21">
         <f>$B16^(1/$C$1)/(0.97*$P$5^(1/$C$1))</f>
-        <v>1.5836196543670982</v>
+        <v>1.5829471815148601</v>
       </c>
       <c r="D16" s="21">
         <f>$B16^(1/$D$1)/(0.97*$P$5^(1/$D$1))</f>
-        <v>1.3337727376707287</v>
+        <v>1.3334328825251778</v>
       </c>
       <c r="E16" s="21">
         <f>$B16^(1/$E$1)/(0.97*$P$5^(1/$E$1))</f>
-        <v>1.2391494064788755</v>
+        <v>1.2389238665385129</v>
       </c>
       <c r="N16" t="s">
         <v>234</v>
       </c>
       <c r="O16" s="19">
         <f>1-SUM(O2:O15)</f>
-        <v>0.32589500000000005</v>
+        <v>0.30979262500000004</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
@@ -34754,15 +34948,15 @@
       </c>
       <c r="C18" s="21">
         <f>$B18^(1/$C$1)/(0.97*$P$6^(1/$C$1))</f>
-        <v>1.1119975432047795</v>
+        <v>1.1122876761236076</v>
       </c>
       <c r="D18" s="21">
         <f>$B18^(1/$D$1)/(0.97*$P$6^(1/$D$1))</f>
-        <v>1.0788314610684748</v>
+        <v>1.079000339961057</v>
       </c>
       <c r="E18" s="21">
         <f>$B18^(1/$E$1)/(0.97*$P$6^(1/$E$1))</f>
-        <v>1.0649219832767105</v>
+        <v>1.06504105312895</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
@@ -34776,15 +34970,15 @@
       </c>
       <c r="C19" s="21">
         <f>$B19^(1/$C$1)/(0.97*$P$6^(1/$C$1))</f>
-        <v>1.3184188720114929</v>
+        <v>1.3187628626236234</v>
       </c>
       <c r="D19" s="21">
         <f>$B19^(1/$D$1)/(0.97*$P$6^(1/$D$1))</f>
-        <v>1.1948774163168208</v>
+        <v>1.1950644608943299</v>
       </c>
       <c r="E19" s="21">
         <f>$B19^(1/$E$1)/(0.97*$P$6^(1/$E$1))</f>
-        <v>1.1455405600515518</v>
+        <v>1.1456686439369081</v>
       </c>
       <c r="N19" t="s">
         <v>228</v>
@@ -34797,15 +34991,15 @@
       </c>
       <c r="C20" s="21">
         <f>$B20^(1/$C$1)/(0.97*$P$6^(1/$C$1))</f>
-        <v>1.4749006131506854</v>
+        <v>1.4752854316446558</v>
       </c>
       <c r="D20" s="21">
         <f>$B20^(1/$D$1)/(0.97*$P$6^(1/$D$1))</f>
-        <v>1.2780532822120338</v>
+        <v>1.2782533470328608</v>
       </c>
       <c r="E20" s="21">
         <f>$B20^(1/$E$1)/(0.97*$P$6^(1/$E$1))</f>
-        <v>1.2019486236631014</v>
+        <v>1.2020830145830621</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
@@ -34821,21 +35015,21 @@
       </c>
       <c r="C22" s="21">
         <f>$B22^(1/$C$1)/(0.97*$P$7^(1/$C$1))</f>
-        <v>0.94119533182760051</v>
+        <v>0.94697388931678872</v>
       </c>
       <c r="D22" s="21">
         <f>$B22^(1/$D$1)/(0.97*$P$7^(1/$D$1))</f>
-        <v>0.9761109056600441</v>
+        <v>0.97970225793700116</v>
       </c>
       <c r="E22" s="21">
         <f>$B22^(1/$E$1)/(0.97*$P$7^(1/$E$1))</f>
-        <v>0.99146847097746016</v>
+        <v>0.99407271541982378</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="19">
         <f>O7</f>
-        <v>4.5076224999999998E-2</v>
+        <v>5.3076224999999998E-2</v>
       </c>
       <c r="B23" s="1">
         <f>Q7*0.5</f>
@@ -34843,15 +35037,15 @@
       </c>
       <c r="C23" s="21">
         <f>$B23^(1/$C$1)/(0.97*$P$7^(1/$C$1))</f>
-        <v>1.1159104579982984</v>
+        <v>1.1227616954792667</v>
       </c>
       <c r="D23" s="21">
         <f>$B23^(1/$D$1)/(0.97*$P$7^(1/$D$1))</f>
-        <v>1.0811075863866715</v>
+        <v>1.0850852472953771</v>
       </c>
       <c r="E23" s="21">
         <f>$B23^(1/$E$1)/(0.97*$P$7^(1/$E$1))</f>
-        <v>1.0665263421666602</v>
+        <v>1.0693277376527754</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
@@ -34861,15 +35055,15 @@
       </c>
       <c r="C24" s="21">
         <f>$B24^(1/$C$1)/(0.97*$P$7^(1/$C$1))</f>
-        <v>1.2483566897156835</v>
+        <v>1.2560210933252163</v>
       </c>
       <c r="D24" s="21">
         <f>$B24^(1/$D$1)/(0.97*$P$7^(1/$D$1))</f>
-        <v>1.15636389167427</v>
+        <v>1.1606184390533378</v>
       </c>
       <c r="E24" s="21">
         <f>$B24^(1/$E$1)/(0.97*$P$7^(1/$E$1))</f>
-        <v>1.1190436321259289</v>
+        <v>1.1219829723521022</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
@@ -34885,15 +35079,15 @@
       </c>
       <c r="C26" s="21">
         <f>$B26^(1/$C$1)/(0.97*$P$8^(1/$C$1))</f>
-        <v>0.88914422330266218</v>
+        <v>0.89463190765842315</v>
       </c>
       <c r="D26" s="21">
         <f>$B26^(1/$D$1)/(0.97*$P$8^(1/$D$1))</f>
-        <v>0.94335386482289629</v>
+        <v>0.94684292068349474</v>
       </c>
       <c r="E26" s="21">
         <f>$B26^(1/$E$1)/(0.97*$P$8^(1/$E$1))</f>
-        <v>0.96758684827580754</v>
+        <v>0.97014170203778782</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
@@ -34907,15 +35101,15 @@
       </c>
       <c r="C27" s="21">
         <f>$B27^(1/$C$1)/(0.97*$P$8^(1/$C$1))</f>
-        <v>1.0541970448637521</v>
+        <v>1.0607034141111391</v>
       </c>
       <c r="D27" s="21">
         <f>$B27^(1/$D$1)/(0.97*$P$8^(1/$D$1))</f>
-        <v>1.044826990451037</v>
+        <v>1.0486913512919489</v>
       </c>
       <c r="E27" s="21">
         <f>$B27^(1/$E$1)/(0.97*$P$8^(1/$E$1))</f>
-        <v>1.0408367913129779</v>
+        <v>1.0435850570594916</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
@@ -34925,15 +35119,15 @@
       </c>
       <c r="C28" s="21">
         <f>$B28^(1/$C$1)/(0.97*$P$8^(1/$C$1))</f>
-        <v>1.1793185768639658</v>
+        <v>1.186597180194116</v>
       </c>
       <c r="D28" s="21">
         <f>$B28^(1/$D$1)/(0.97*$P$8^(1/$D$1))</f>
-        <v>1.1175577898240265</v>
+        <v>1.1216911502750115</v>
       </c>
       <c r="E28" s="21">
         <f>$B28^(1/$E$1)/(0.97*$P$8^(1/$E$1))</f>
-        <v>1.0920890908657601</v>
+        <v>1.0949726851675923</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
@@ -34946,15 +35140,15 @@
       </c>
       <c r="C30" s="21">
         <f>$B30^(1/$C$1)/(0.97*$P$9^(1/$C$1))</f>
-        <v>0.96389683037190788</v>
+        <v>0.96604235906700231</v>
       </c>
       <c r="D30" s="21">
         <f>$B30^(1/$D$1)/(0.97*$P$9^(1/$D$1))</f>
-        <v>0.99016971175815371</v>
+        <v>0.99149152921252381</v>
       </c>
       <c r="E30" s="21">
         <f>$B30^(1/$E$1)/(0.97*$P$9^(1/$E$1))</f>
-        <v>1.0016476118712234</v>
+        <v>1.0026025296650407</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
@@ -34968,15 +35162,15 @@
       </c>
       <c r="C31" s="21">
         <f>$B31^(1/$C$1)/(0.97*$P$9^(1/$C$1))</f>
-        <v>1.1428260607230112</v>
+        <v>1.1453698662730687</v>
       </c>
       <c r="D31" s="21">
         <f>$B31^(1/$D$1)/(0.97*$P$9^(1/$D$1))</f>
-        <v>1.0966786468471916</v>
+        <v>1.0981426473715701</v>
       </c>
       <c r="E31" s="21">
         <f>$B31^(1/$E$1)/(0.97*$P$9^(1/$E$1))</f>
-        <v>1.077476082094468</v>
+        <v>1.0785032907365195</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
@@ -34986,15 +35180,15 @@
       </c>
       <c r="C32" s="21">
         <f>$B32^(1/$C$1)/(0.97*$P$9^(1/$C$1))</f>
-        <v>1.2784668768532754</v>
+        <v>1.2813126039929301</v>
       </c>
       <c r="D32" s="21">
         <f>$B32^(1/$D$1)/(0.97*$P$9^(1/$D$1))</f>
-        <v>1.1730188595038848</v>
+        <v>1.1745847696548271</v>
       </c>
       <c r="E32" s="21">
         <f>$B32^(1/$E$1)/(0.97*$P$9^(1/$E$1))</f>
-        <v>1.1305325529853574</v>
+        <v>1.131610342857305</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -35007,15 +35201,15 @@
       </c>
       <c r="C34" s="21">
         <f>$B34^(1/$C$1)/(0.97*$P$10^(1/$C$1))</f>
-        <v>1.1051646415726826</v>
+        <v>1.105521609682683</v>
       </c>
       <c r="D34" s="21">
         <f>$B34^(1/$D$1)/(0.97*$P$10^(1/$D$1))</f>
-        <v>1.0748490955091157</v>
+        <v>1.0750573877689096</v>
       </c>
       <c r="E34" s="21">
         <f>$B34^(1/$E$1)/(0.97*$P$10^(1/$E$1))</f>
-        <v>1.0621126284180913</v>
+        <v>1.0622596415572596</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -35029,15 +35223,15 @@
       </c>
       <c r="C35" s="21">
         <f>$B35^(1/$C$1)/(0.97*$P$10^(1/$C$1))</f>
-        <v>1.3103175713230117</v>
+        <v>1.3107408038164707</v>
       </c>
       <c r="D35" s="21">
         <f>$B35^(1/$D$1)/(0.97*$P$10^(1/$D$1))</f>
-        <v>1.1904666822567631</v>
+        <v>1.1906973797532701</v>
       </c>
       <c r="E35" s="21">
         <f>$B35^(1/$E$1)/(0.97*$P$10^(1/$E$1))</f>
-        <v>1.1425185265235895</v>
+        <v>1.1426766691071988</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -35047,15 +35241,15 @@
       </c>
       <c r="C36" s="21">
         <f>$B36^(1/$C$1)/(0.97*$P$10^(1/$C$1))</f>
-        <v>1.465837777654005</v>
+        <v>1.466311243164367</v>
       </c>
       <c r="D36" s="21">
         <f>$B36^(1/$D$1)/(0.97*$P$10^(1/$D$1))</f>
-        <v>1.2733355152968326</v>
+        <v>1.2735822717327503</v>
       </c>
       <c r="E36" s="21">
         <f>$B36^(1/$E$1)/(0.97*$P$10^(1/$E$1))</f>
-        <v>1.1987777808607878</v>
+        <v>1.1989437106125052</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -35068,15 +35262,15 @@
       </c>
       <c r="C38" s="21">
         <f>$B38^(1/$C$1)/(0.97*$P$11^(1/$C$1))</f>
-        <v>0.99843975564764353</v>
+        <v>1.0072929658528631</v>
       </c>
       <c r="D38" s="21">
         <f>$B38^(1/$D$1)/(0.97*$P$11^(1/$D$1))</f>
-        <v>1.0113102883988296</v>
+        <v>1.0166811863013914</v>
       </c>
       <c r="E38" s="21">
         <f>$B38^(1/$E$1)/(0.97*$P$11^(1/$E$1))</f>
-        <v>1.016876895543535</v>
+        <v>1.0207314478524951</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -35090,15 +35284,15 @@
       </c>
       <c r="C39" s="21">
         <f>$B39^(1/$C$1)/(0.97*$P$11^(1/$C$1))</f>
-        <v>1.1837812272665993</v>
+        <v>1.1942778686339954</v>
       </c>
       <c r="D39" s="21">
         <f>$B39^(1/$D$1)/(0.97*$P$11^(1/$D$1))</f>
-        <v>1.1200932380112651</v>
+        <v>1.1260418637611653</v>
       </c>
       <c r="E39" s="21">
         <f>$B39^(1/$E$1)/(0.97*$P$11^(1/$E$1))</f>
-        <v>1.0938582794959002</v>
+        <v>1.0980046358300684</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -35108,15 +35302,15 @@
       </c>
       <c r="C40" s="21">
         <f>$B40^(1/$C$1)/(0.97*$P$11^(1/$C$1))</f>
-        <v>1.3242829687866891</v>
+        <v>1.3360254454133895</v>
       </c>
       <c r="D40" s="21">
         <f>$B40^(1/$D$1)/(0.97*$P$11^(1/$D$1))</f>
-        <v>1.1980633491563382</v>
+        <v>1.2044260609797368</v>
       </c>
       <c r="E40" s="21">
         <f>$B40^(1/$E$1)/(0.97*$P$11^(1/$E$1))</f>
-        <v>1.1477214333322414</v>
+        <v>1.152071962211678</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -35129,15 +35323,15 @@
       </c>
       <c r="C42" s="21">
         <f>$B42^(1/$C$1)/(0.97*$P$12^(1/$C$1))</f>
-        <v>1.054135193340481</v>
+        <v>1.0525904043527938</v>
       </c>
       <c r="D42" s="21">
         <f>$B42^(1/$D$1)/(0.97*$P$12^(1/$D$1))</f>
-        <v>1.0447902089596233</v>
+        <v>1.0438712829318635</v>
       </c>
       <c r="E42" s="21">
         <f>$B42^(1/$E$1)/(0.97*$P$12^(1/$E$1))</f>
-        <v>1.0408106190222641</v>
+        <v>1.0401566612245516</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -35151,15 +35345,15 @@
       </c>
       <c r="C43" s="21">
         <f>$B43^(1/$C$1)/(0.97*$P$12^(1/$C$1))</f>
-        <v>1.2498154704066984</v>
+        <v>1.2479839205376468</v>
       </c>
       <c r="D43" s="21">
         <f>$B43^(1/$D$1)/(0.97*$P$12^(1/$D$1))</f>
-        <v>1.1571744711990268</v>
+        <v>1.1561566996587451</v>
       </c>
       <c r="E43" s="21">
         <f>$B43^(1/$E$1)/(0.97*$P$12^(1/$E$1))</f>
-        <v>1.1196038753503321</v>
+        <v>1.1189004105016334</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -35169,15 +35363,15 @@
       </c>
       <c r="C44" s="21">
         <f>$B44^(1/$C$1)/(0.97*$P$12^(1/$C$1))</f>
-        <v>1.3981547463862325</v>
+        <v>1.396105811800854</v>
       </c>
       <c r="D44" s="21">
         <f>$B44^(1/$D$1)/(0.97*$P$12^(1/$D$1))</f>
-        <v>1.2377258209186488</v>
+        <v>1.2366372019190459</v>
       </c>
       <c r="E44" s="21">
         <f>$B44^(1/$E$1)/(0.97*$P$12^(1/$E$1))</f>
-        <v>1.1747347793295477</v>
+        <v>1.1739966748606403</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -35353,7 +35547,7 @@
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="19">
         <f>O16</f>
-        <v>0.32589500000000005</v>
+        <v>0.30979262500000004</v>
       </c>
       <c r="B59">
         <v>1.04</v>
@@ -35483,7 +35677,7 @@
       </c>
       <c r="F2" s="82">
         <f>$B$2*K$2+$B$3*K$3+$B$4*K$4+$B$5*K$5+$B$6*K$6+$B$7*K$7+$B$8*K$8+$B$9*K$9+$B$10*K$10+$B$11*K$11+$B$12*K$12+$B13*$K$13</f>
-        <v>1.116349237625E-2</v>
+        <v>1.1365241513750001E-2</v>
       </c>
       <c r="G2" s="82">
         <f>$B$16*K$2+$B$17*K$3+$B$18*K$4+$B$19*K$5+$B$20*K$6+$B$21*K$7+$B$22*K$8+$B$23*K$9+$B$24*K$10+$B$25*K$11+$B$26*K$12+$B$27*K$13</f>
@@ -35491,7 +35685,7 @@
       </c>
       <c r="H2" s="80">
         <f>F2-G2</f>
-        <v>1.285923762500002E-4</v>
+        <v>3.303415137500005E-4</v>
       </c>
       <c r="J2" s="83" t="s">
         <v>257</v>
@@ -35544,7 +35738,7 @@
       </c>
       <c r="F3" s="82">
         <f>$B$2*L$2+$B$3*L$3+$B$4*L$4+$B$5*L$5+$B$6*L$6+$B$7*L$7+$B$8*L$8+$B$9*L$9+$B$10*L$10+$B$11*L$11+$B$12*L$12+$B13*$L$13</f>
-        <v>5.2042958940000002E-2</v>
+        <v>5.3346631077499998E-2</v>
       </c>
       <c r="G3" s="82">
         <f>$B$16*L$2+$B$17*L$3+$B$18*L$4+$B$19*L$5+$B$20*L$6+$B$21*L$7+$B$22*L$8+$B$23*L$9+$B$24*L$10+$B$25*L$11+$B$26*L$12+$B$27*L$13</f>
@@ -35552,7 +35746,7 @@
       </c>
       <c r="H3" s="80">
         <f t="shared" ref="H3:H11" si="0">F3-G3</f>
-        <v>1.4384268940000007E-2</v>
+        <v>1.5687941077500003E-2</v>
       </c>
       <c r="J3" s="83" t="s">
         <v>259</v>
@@ -35605,7 +35799,7 @@
       </c>
       <c r="F4" s="82">
         <f>$B$2*M$2+$B$3*M$3+$B$4*M$4+$B$5*M$5+$B$6*M$6+$B$7*M$7+$B$8*M$8+$B$9*M$9+$B$10*M$10+$B$11*M$11+$B$12*M$12+$B13*$M$13</f>
-        <v>0.11201189505375</v>
+        <v>0.11376686947875</v>
       </c>
       <c r="G4" s="82">
         <f>$B$16*M$2+$B$17*M$3+$B$18*M$4+$B$19*M$5+$B$20*M$6+$B$21*M$7+$B$22*M$8+$B$23*M$9+$B$24*M$10+$B$25*M$11+$B$26*M$12+$B$27*M$13</f>
@@ -35613,7 +35807,7 @@
       </c>
       <c r="H4" s="80">
         <f t="shared" si="0"/>
-        <v>1.5281985053749989E-2</v>
+        <v>1.7036959478749988E-2</v>
       </c>
       <c r="J4" s="83" t="s">
         <v>260</v>
@@ -35655,7 +35849,7 @@
       </c>
       <c r="B5" s="84">
         <f>已投部分年化收益率!Y16</f>
-        <v>0.2110085125</v>
+        <v>0.21911088749999999</v>
       </c>
       <c r="C5" s="85" t="s">
         <v>248</v>
@@ -35666,7 +35860,7 @@
       </c>
       <c r="F5" s="82">
         <f>$B$2*N$2+$B$3*N$3+$B$4*N$4+$B$5*N$5+$B$6*N$6+$B$7*N$7+$B$8*N$8+$B$9*N$9+$B$10*N$10+$B$11*N$11+$B$12*N$12+$B13*$N$13</f>
-        <v>7.561670313124999E-2</v>
+        <v>7.6567921956249993E-2</v>
       </c>
       <c r="G5" s="82">
         <f>$B$16*N$2+$B$17*N$3+$B$18*N$4+$B$19*N$5+$B$20*N$6+$B$21*N$7+$B$22*N$8+$B$23*N$9+$B$24*N$10+$B$25*N$11+$B$26*N$12+$B$27*N$13</f>
@@ -35674,7 +35868,7 @@
       </c>
       <c r="H5" s="80">
         <f t="shared" si="0"/>
-        <v>1.0780803131249989E-2</v>
+        <v>1.1732021956249991E-2</v>
       </c>
       <c r="J5" s="83" t="s">
         <v>261</v>
@@ -35727,7 +35921,7 @@
       </c>
       <c r="F6" s="82">
         <f>$B$2*O$2+$B$3*O$3+$B$4*O$4+$B$5*O$5+$B$6*O$6+$B$7*O$7+$B$8*O$8+$B$9*O$9+$B$10*O$10+$B$11*O$11+$B$12*O$12+$B13*$O$13</f>
-        <v>3.0901114713750004E-2</v>
+        <v>3.1456937638750002E-2</v>
       </c>
       <c r="G6" s="82">
         <f>$B$16*O$2+$B$17*O$3+$B$18*O$4+$B$19*O$5+$B$20*O$6+$B$21*O$7+$B$22*O$8+$B$23*O$9+$B$24*O$10+$B$25*O$11+$B$26*O$12+$B$27*O$13</f>
@@ -35735,7 +35929,7 @@
       </c>
       <c r="H6" s="80">
         <f t="shared" si="0"/>
-        <v>-6.2774528624999493E-4</v>
+        <v>-7.1922361249997235E-5</v>
       </c>
       <c r="J6" s="83" t="s">
         <v>263</v>
@@ -35777,7 +35971,7 @@
       </c>
       <c r="B7" s="84">
         <f>已投部分年化收益率!Y19</f>
-        <v>4.5076224999999998E-2</v>
+        <v>5.3076224999999998E-2</v>
       </c>
       <c r="C7" s="85" t="s">
         <v>264</v>
@@ -35788,7 +35982,7 @@
       </c>
       <c r="F7" s="82">
         <f>$B$2*P$2+$B$3*P$3+$B$4*P$4+$B$5*P$5+$B$6*P$6+$B$7*P$7+$B$8*P$8+$B$9*P$9+$B$10*P$10+$B$11*P$11+$B$12*P$12+$B13*$P$13</f>
-        <v>0.10692090445750001</v>
+        <v>0.107861590195</v>
       </c>
       <c r="G7" s="82">
         <f>$B$16*P$2+$B$17*P$3+$B$18*P$4+$B$19*P$5+$B$20*P$6+$B$21*P$7+$B$22*P$8+$B$23*P$9+$B$24*P$10+$B$25*P$11+$B$26*P$12+$B$27*P$13</f>
@@ -35796,7 +35990,7 @@
       </c>
       <c r="H7" s="80">
         <f t="shared" si="0"/>
-        <v>8.0329244575000069E-3</v>
+        <v>8.9736101949999952E-3</v>
       </c>
       <c r="J7" s="83" t="s">
         <v>268</v>
@@ -35849,7 +36043,7 @@
       </c>
       <c r="F8" s="82">
         <f>$B$2*Q$2+$B$3*Q$3+$B$4*Q$4+$B$5*Q$5+$B$6*Q$6+$B$7*Q$7+$B$8*Q$8+$B$9*Q$9+$B$10*Q$10+$B$11*Q$11+$B$12*Q$12+$B13*$Q$13</f>
-        <v>0.12907113587375002</v>
+        <v>0.13773958181125001</v>
       </c>
       <c r="G8" s="82">
         <f>$B$16*Q$2+$B$17*Q$3+$B$18*Q$4+$B$19*Q$5+$B$20*Q$6+$B$21*Q$7+$B$22*Q$8+$B$23*Q$9+$B$24*Q$10+$B$25*Q$11+$B$26*Q$12+$B$27*Q$13</f>
@@ -35857,7 +36051,7 @@
       </c>
       <c r="H8" s="80">
         <f t="shared" si="0"/>
-        <v>-4.2349034126250018E-2</v>
+        <v>-3.3680588188750027E-2</v>
       </c>
       <c r="J8" s="83" t="s">
         <v>267</v>
@@ -35910,7 +36104,7 @@
       </c>
       <c r="F9" s="82">
         <f>$B$2*R$2+$B$3*R$3+$B$4*R$4+$B$5*R$5+$B$6*R$6+$B$7*R$7+$B$8*R$8+$B$9*R$9+$B$10*R$10+$B$11*R$11+$B$12*R$12+$B13*$R$13</f>
-        <v>7.3952533638750012E-2</v>
+        <v>7.5306440501250016E-2</v>
       </c>
       <c r="G9" s="82">
         <f>$B$16*R$2+$B$17*R$3+$B$18*R$4+$B$19*R$5+$B$20*R$6+$B$21*R$7+$B$22*R$8+$B$23*R$9+$B$24*R$10+$B$25*R$11+$B$26*R$12+$B$27*R$13</f>
@@ -35918,7 +36112,7 @@
       </c>
       <c r="H9" s="80">
         <f t="shared" si="0"/>
-        <v>1.8920073638750014E-2</v>
+        <v>2.0273980501250018E-2</v>
       </c>
       <c r="J9" s="83" t="s">
         <v>272</v>
@@ -35971,7 +36165,7 @@
       </c>
       <c r="F10" s="82">
         <f>$B$2*S$2+$B$3*S$3+$B$4*S$4+$B$5*S$5+$B$6*S$6+$B$7*S$7+$B$8*S$8+$B$9*S$9+$B$10*S$10+$B$11*S$11+$B$12*S$12+$B13*$S$13</f>
-        <v>5.7222621062499989E-3</v>
+        <v>5.841367018749999E-3</v>
       </c>
       <c r="G10" s="82">
         <f>$B$16*S$2+$B$17*S$3+$B$18*S$4+$B$19*S$5+$B$20*S$6+$B$21*S$7+$B$22*S$8+$B$23*S$9+$B$24*S$10+$B$25*S$11+$B$26*S$12+$B$27*S$13</f>
@@ -35979,7 +36173,7 @@
       </c>
       <c r="H10" s="80">
         <f t="shared" si="0"/>
-        <v>2.1203421062499991E-3</v>
+        <v>2.2394470187499993E-3</v>
       </c>
       <c r="J10" s="83" t="s">
         <v>265</v>
@@ -36032,7 +36226,7 @@
       </c>
       <c r="F11" s="82">
         <f>$B$2*T$2+$B$3*T$3+$B$4*T$4+$B$5*T$5+$B$6*T$6+$B$7*T$7+$B$8*T$8+$B$9*T$9+$B$10*T$10+$B$11*T$11+$B$12*T$12+$B13*$T$13</f>
-        <v>2.5068244012500001E-2</v>
+        <v>2.5321848349999999E-2</v>
       </c>
       <c r="G11" s="82">
         <f>$B$16*T$2+$B$17*T$3+$B$18*T$4+$B$19*T$5+$B$20*T$6+$B$21*T$7+$B$22*T$8+$B$23*T$9+$B$24*T$10+$B$25*T$11+$B$26*T$12+$B$27*T$13</f>
@@ -36040,7 +36234,7 @@
       </c>
       <c r="H11" s="80">
         <f t="shared" si="0"/>
-        <v>-5.3379598749999854E-4</v>
+        <v>-2.8019165000000082E-4</v>
       </c>
       <c r="J11" s="83" t="s">
         <v>270</v>

--- a/Portfolio/ETF计划 XIRR 已投入收益率计算.xlsx
+++ b/Portfolio/ETF计划 XIRR 已投入收益率计算.xlsx
@@ -4,15 +4,16 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="21600" windowHeight="13740" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="21600" windowHeight="13740" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="已投部分年化收益率" sheetId="1" r:id="rId1"/>
     <sheet name="ETF计划成本计算" sheetId="5" r:id="rId2"/>
     <sheet name="资产配置表" sheetId="4" r:id="rId3"/>
-    <sheet name="压力测试" sheetId="7" r:id="rId4"/>
-    <sheet name="组合权益类行业占比" sheetId="8" r:id="rId5"/>
-    <sheet name="聚宽行业分类" sheetId="9" r:id="rId6"/>
+    <sheet name="空间压力测试" sheetId="10" r:id="rId4"/>
+    <sheet name="时间压力测试" sheetId="7" r:id="rId5"/>
+    <sheet name="组合权益类行业占比" sheetId="8" r:id="rId6"/>
+    <sheet name="聚宽行业分类" sheetId="9" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">已投部分年化收益率!$A$1:$W$108</definedName>
@@ -223,7 +224,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15336" uniqueCount="7442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15371" uniqueCount="7453">
   <si>
     <t>日期</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -23075,6 +23076,50 @@
   </si>
   <si>
     <t>(($P$5+1)*((1+$K$5*$G$2))^C$1)</t>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>能源</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>金融地产</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>对标08跌幅</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>预计最大跌幅</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>对标08</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前点数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>极限值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>持仓占比</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>到达08大底</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -23599,7 +23644,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -23881,6 +23926,15 @@
     </xf>
     <xf numFmtId="10" fontId="0" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="75">
@@ -27168,7 +27222,7 @@
         <f>SUMIF(C:C,"=医药",K:K)/SUMIF(C:C,"=医药",M:M)*-1</f>
         <v>3.4856919952624472</v>
       </c>
-      <c r="Z19" s="89">
+      <c r="Z19" s="94">
         <f>(SUMIF(C:C,"=医药",M:M)*-1)/$Q$2</f>
         <v>6.1076224999999998E-2</v>
       </c>
@@ -27256,7 +27310,7 @@
         <f>SUMIF(C:C,"=医药",K:K)/SUMIF(C:C,"=医药",M:M)*-1</f>
         <v>3.4856919952624472</v>
       </c>
-      <c r="Z20" s="90"/>
+      <c r="Z20" s="95"/>
       <c r="AA20" s="2"/>
     </row>
     <row r="21" spans="1:27">
@@ -27517,7 +27571,7 @@
         <f>SUMIF(C:C,"=环保",K:K)/SUMIF(C:C,"=环保",M:M)*-1</f>
         <v>2.1290222875017069</v>
       </c>
-      <c r="Z23" s="89">
+      <c r="Z23" s="94">
         <f>(SUMIF(C:C,"=环保",M:M)*-1)/$Q$2</f>
         <v>6.0069037499999992E-2</v>
       </c>
@@ -27605,7 +27659,7 @@
         <f>SUMIF(C:C,"=环保",K:K)/SUMIF(C:C,"=环保",M:M)*-1</f>
         <v>2.1290222875017069</v>
       </c>
-      <c r="Z24" s="90"/>
+      <c r="Z24" s="95"/>
       <c r="AA24" s="2"/>
     </row>
     <row r="25" spans="1:27">
@@ -32385,7 +32439,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S74"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <selection activeCell="I68" sqref="I68"/>
     </sheetView>
   </sheetViews>
@@ -32398,7 +32452,7 @@
     <col min="9" max="18" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="15">
+    <row r="1" spans="2:19">
       <c r="R1" s="15"/>
     </row>
     <row r="2" spans="2:19">
@@ -32547,14 +32601,14 @@
       </c>
       <c r="S4" s="15"/>
     </row>
-    <row r="5" spans="2:19" s="29" customFormat="1" ht="15">
+    <row r="5" spans="2:19" s="29" customFormat="1">
       <c r="D5" s="31">
         <f>E3*D3</f>
         <v>10.399892133649038</v>
       </c>
       <c r="R5" s="47"/>
     </row>
-    <row r="6" spans="2:19" s="29" customFormat="1" ht="15">
+    <row r="6" spans="2:19" s="29" customFormat="1">
       <c r="D6" s="31"/>
       <c r="R6" s="47"/>
     </row>
@@ -32603,7 +32657,7 @@
       </c>
       <c r="P7" s="35"/>
     </row>
-    <row r="8" spans="2:19" ht="15">
+    <row r="8" spans="2:19">
       <c r="C8" s="36" t="s">
         <v>92</v>
       </c>
@@ -32646,7 +32700,7 @@
       </c>
       <c r="P8" s="38"/>
     </row>
-    <row r="9" spans="2:19" ht="15">
+    <row r="9" spans="2:19">
       <c r="C9" s="39"/>
       <c r="D9" s="37"/>
       <c r="E9" s="37"/>
@@ -32720,7 +32774,7 @@
       <c r="O10" s="37"/>
       <c r="P10" s="38"/>
     </row>
-    <row r="11" spans="2:19" ht="15">
+    <row r="11" spans="2:19">
       <c r="D11" s="37">
         <f>已投部分年化收益率!T28</f>
         <v>37.526881720430104</v>
@@ -32756,7 +32810,7 @@
       <c r="O11" s="37"/>
       <c r="P11" s="38"/>
     </row>
-    <row r="12" spans="2:19" ht="15">
+    <row r="12" spans="2:19">
       <c r="C12" s="39"/>
       <c r="D12" s="37"/>
       <c r="E12" s="37"/>
@@ -32814,7 +32868,7 @@
       <c r="O13" s="37"/>
       <c r="P13" s="38"/>
     </row>
-    <row r="14" spans="2:19" ht="15">
+    <row r="14" spans="2:19">
       <c r="C14" s="39"/>
       <c r="D14" s="37">
         <f>已投部分年化收益率!T29</f>
@@ -32839,7 +32893,7 @@
       <c r="O14" s="37"/>
       <c r="P14" s="38"/>
     </row>
-    <row r="15" spans="2:19" ht="15">
+    <row r="15" spans="2:19">
       <c r="C15" s="39"/>
       <c r="D15" s="37"/>
       <c r="E15" s="37"/>
@@ -32885,7 +32939,7 @@
       <c r="O16" s="37"/>
       <c r="P16" s="38"/>
     </row>
-    <row r="17" spans="2:16" ht="15">
+    <row r="17" spans="2:16">
       <c r="C17" s="39"/>
       <c r="D17" s="37">
         <f>已投部分年化收益率!T30</f>
@@ -32910,7 +32964,7 @@
       <c r="O17" s="37"/>
       <c r="P17" s="38"/>
     </row>
-    <row r="18" spans="2:16" ht="15">
+    <row r="18" spans="2:16">
       <c r="C18" s="39"/>
       <c r="D18" s="37"/>
       <c r="E18" s="37"/>
@@ -32948,7 +33002,7 @@
       <c r="O19" s="37"/>
       <c r="P19" s="38"/>
     </row>
-    <row r="20" spans="2:16" ht="15">
+    <row r="20" spans="2:16">
       <c r="C20" s="42"/>
       <c r="D20" s="43">
         <f>(E8*D8*SUM(F9:Z9)+E11*D11*SUM(F12:AA12)+E14*D14*SUM(F15:AA15)+E17*D17*SUM(F18:Z18))/(SUM(F9:Z9)+SUM(F12:AA12)+SUM(F15:AA15)+SUM(F18:Z18))</f>
@@ -32967,7 +33021,7 @@
       <c r="O20" s="44"/>
       <c r="P20" s="45"/>
     </row>
-    <row r="21" spans="2:16" ht="15">
+    <row r="21" spans="2:16">
       <c r="C21" s="37"/>
       <c r="D21" s="41"/>
       <c r="E21" s="37"/>
@@ -33117,7 +33171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:16" ht="15">
+    <row r="25" spans="2:16">
       <c r="D25" s="31">
         <f>E23*D23</f>
         <v>8.2537033492822971</v>
@@ -33247,7 +33301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:16" ht="15">
+    <row r="30" spans="2:16">
       <c r="D30" s="31">
         <f>E28*D28</f>
         <v>28.954941735002155</v>
@@ -33359,7 +33413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:17" ht="15">
+    <row r="35" spans="2:17">
       <c r="D35" s="31">
         <f>E33*D33</f>
         <v>23.804240078633743</v>
@@ -33480,7 +33534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:17" ht="15">
+    <row r="40" spans="2:17">
       <c r="D40" s="31">
         <f>D38*E38</f>
         <v>25.480679387712311</v>
@@ -34009,8 +34063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AB38"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -34132,7 +34186,7 @@
       </c>
       <c r="M5" s="3"/>
     </row>
-    <row r="6" spans="1:18" ht="15">
+    <row r="6" spans="1:18">
       <c r="A6" s="25"/>
       <c r="B6" s="2" t="s">
         <v>18</v>
@@ -34148,7 +34202,7 @@
       <c r="E6" s="50"/>
       <c r="M6" s="3"/>
     </row>
-    <row r="7" spans="1:18" ht="15">
+    <row r="7" spans="1:18">
       <c r="A7" s="25"/>
       <c r="B7" s="2" t="s">
         <v>19</v>
@@ -34729,10 +34783,2211 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:AB51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="7" width="9.125" customWidth="1"/>
+    <col min="8" max="9" width="9.5" customWidth="1"/>
+    <col min="10" max="11" width="9.125" customWidth="1"/>
+    <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:28">
+      <c r="A2" s="90"/>
+      <c r="B2" s="90" t="str">
+        <f>组合权益类行业占比!K1</f>
+        <v>能源</v>
+      </c>
+      <c r="C2" s="90" t="str">
+        <f>组合权益类行业占比!L1</f>
+        <v>原材料</v>
+      </c>
+      <c r="D2" s="90" t="str">
+        <f>组合权益类行业占比!M1</f>
+        <v>工业</v>
+      </c>
+      <c r="E2" s="90" t="str">
+        <f>组合权益类行业占比!N1</f>
+        <v>可选消费</v>
+      </c>
+      <c r="F2" s="90" t="str">
+        <f>组合权益类行业占比!O1</f>
+        <v>主要消费</v>
+      </c>
+      <c r="G2" s="90" t="str">
+        <f>组合权益类行业占比!P1</f>
+        <v>医药卫生</v>
+      </c>
+      <c r="H2" s="90" t="str">
+        <f>组合权益类行业占比!Q1</f>
+        <v>金融地产</v>
+      </c>
+      <c r="I2" s="90" t="str">
+        <f>组合权益类行业占比!R1</f>
+        <v>信息技术</v>
+      </c>
+      <c r="J2" s="90" t="str">
+        <f>组合权益类行业占比!S1</f>
+        <v>电信业务</v>
+      </c>
+      <c r="K2" s="90" t="str">
+        <f>组合权益类行业占比!T1</f>
+        <v>公用事业</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28">
+      <c r="A3" s="90" t="str">
+        <f>组合权益类行业占比!J2</f>
+        <v>中证红利</v>
+      </c>
+      <c r="B3" s="18">
+        <f>组合权益类行业占比!K2</f>
+        <v>4.9800000000000004E-2</v>
+      </c>
+      <c r="C3" s="18">
+        <f>组合权益类行业占比!L2</f>
+        <v>4.6900000000000004E-2</v>
+      </c>
+      <c r="D3" s="18">
+        <f>组合权益类行业占比!M2</f>
+        <v>0.18129999999999999</v>
+      </c>
+      <c r="E3" s="18">
+        <f>组合权益类行业占比!N2</f>
+        <v>0.18390000000000001</v>
+      </c>
+      <c r="F3" s="18">
+        <f>组合权益类行业占比!O2</f>
+        <v>7.8399999999999997E-2</v>
+      </c>
+      <c r="G3" s="18">
+        <f>组合权益类行业占比!P2</f>
+        <v>4.5999999999999999E-3</v>
+      </c>
+      <c r="H3" s="18">
+        <f>组合权益类行业占比!Q2</f>
+        <v>0.26960000000000001</v>
+      </c>
+      <c r="I3" s="18">
+        <f>组合权益类行业占比!R2</f>
+        <v>2.5499999999999998E-2</v>
+      </c>
+      <c r="J3" s="18">
+        <f>组合权益类行业占比!S2</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="18">
+        <f>组合权益类行业占比!T2</f>
+        <v>0.16010000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28">
+      <c r="A4" s="90" t="str">
+        <f>组合权益类行业占比!J3</f>
+        <v>上证50</v>
+      </c>
+      <c r="B4" s="18">
+        <f>组合权益类行业占比!K3</f>
+        <v>3.7000000000000005E-2</v>
+      </c>
+      <c r="C4" s="18">
+        <f>组合权益类行业占比!L3</f>
+        <v>5.5800000000000002E-2</v>
+      </c>
+      <c r="D4" s="18">
+        <f>组合权益类行业占比!M3</f>
+        <v>8.5600000000000009E-2</v>
+      </c>
+      <c r="E4" s="18">
+        <f>组合权益类行业占比!N3</f>
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="F4" s="18">
+        <f>组合权益类行业占比!O3</f>
+        <v>0.11070000000000001</v>
+      </c>
+      <c r="G4" s="18">
+        <f>组合权益类行业占比!P3</f>
+        <v>2.9700000000000001E-2</v>
+      </c>
+      <c r="H4" s="18">
+        <f>组合权益类行业占比!Q3</f>
+        <v>0.622</v>
+      </c>
+      <c r="I4" s="18">
+        <f>组合权益类行业占比!R3</f>
+        <v>1.0800000000000001E-2</v>
+      </c>
+      <c r="J4" s="18">
+        <f>组合权益类行业占比!S3</f>
+        <v>1.1000000000000001E-2</v>
+      </c>
+      <c r="K4" s="18">
+        <f>组合权益类行业占比!T3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28">
+      <c r="A5" s="90" t="str">
+        <f>组合权益类行业占比!J4</f>
+        <v>沪深300</v>
+      </c>
+      <c r="B5" s="18">
+        <f>组合权益类行业占比!K4</f>
+        <v>2.81E-2</v>
+      </c>
+      <c r="C5" s="18">
+        <f>组合权益类行业占比!L4</f>
+        <v>7.3899999999999993E-2</v>
+      </c>
+      <c r="D5" s="18">
+        <f>组合权益类行业占比!M4</f>
+        <v>0.124</v>
+      </c>
+      <c r="E5" s="18">
+        <f>组合权益类行业占比!N4</f>
+        <v>0.1125</v>
+      </c>
+      <c r="F5" s="18">
+        <f>组合权益类行业占比!O4</f>
+        <v>9.0800000000000006E-2</v>
+      </c>
+      <c r="G5" s="18">
+        <f>组合权益类行业占比!P4</f>
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="H5" s="18">
+        <f>组合权益类行业占比!Q4</f>
+        <v>0.39069999999999999</v>
+      </c>
+      <c r="I5" s="18">
+        <f>组合权益类行业占比!R4</f>
+        <v>6.8600000000000008E-2</v>
+      </c>
+      <c r="J5" s="18">
+        <f>组合权益类行业占比!S4</f>
+        <v>1.9199999999999998E-2</v>
+      </c>
+      <c r="K5" s="18">
+        <f>组合权益类行业占比!T4</f>
+        <v>2.8300000000000002E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28">
+      <c r="A6" s="90" t="str">
+        <f>组合权益类行业占比!J5</f>
+        <v>中证500</v>
+      </c>
+      <c r="B6" s="18">
+        <f>组合权益类行业占比!K5</f>
+        <v>2.4900000000000002E-2</v>
+      </c>
+      <c r="C6" s="18">
+        <f>组合权益类行业占比!L5</f>
+        <v>0.16089999999999999</v>
+      </c>
+      <c r="D6" s="18">
+        <f>组合权益类行业占比!M5</f>
+        <v>0.21660000000000001</v>
+      </c>
+      <c r="E6" s="18">
+        <f>组合权益类行业占比!N5</f>
+        <v>0.1174</v>
+      </c>
+      <c r="F6" s="18">
+        <f>组合权益类行业占比!O5</f>
+        <v>6.8600000000000008E-2</v>
+      </c>
+      <c r="G6" s="18">
+        <f>组合权益类行业占比!P5</f>
+        <v>0.11609999999999999</v>
+      </c>
+      <c r="H6" s="18">
+        <f>组合权益类行业占比!Q5</f>
+        <v>8.2500000000000004E-2</v>
+      </c>
+      <c r="I6" s="18">
+        <f>组合权益类行业占比!R5</f>
+        <v>0.1671</v>
+      </c>
+      <c r="J6" s="18">
+        <f>组合权益类行业占比!S5</f>
+        <v>1.47E-2</v>
+      </c>
+      <c r="K6" s="18">
+        <f>组合权益类行业占比!T5</f>
+        <v>3.1300000000000001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28">
+      <c r="A7" s="90" t="str">
+        <f>组合权益类行业占比!J6</f>
+        <v>中证1000</v>
+      </c>
+      <c r="B7" s="18">
+        <f>组合权益类行业占比!K6</f>
+        <v>3.1400000000000004E-2</v>
+      </c>
+      <c r="C7" s="18">
+        <f>组合权益类行业占比!L6</f>
+        <v>0.16789999999999999</v>
+      </c>
+      <c r="D7" s="18">
+        <f>组合权益类行业占比!M6</f>
+        <v>0.23600000000000002</v>
+      </c>
+      <c r="E7" s="18">
+        <f>组合权益类行业占比!N6</f>
+        <v>0.1278</v>
+      </c>
+      <c r="F7" s="18">
+        <f>组合权益类行业占比!O6</f>
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="G7" s="18">
+        <f>组合权益类行业占比!P6</f>
+        <v>0.1057</v>
+      </c>
+      <c r="H7" s="18">
+        <f>组合权益类行业占比!Q6</f>
+        <v>4.1700000000000001E-2</v>
+      </c>
+      <c r="I7" s="18">
+        <f>组合权益类行业占比!R6</f>
+        <v>0.17879999999999999</v>
+      </c>
+      <c r="J7" s="18">
+        <f>组合权益类行业占比!S6</f>
+        <v>3.56E-2</v>
+      </c>
+      <c r="K7" s="18">
+        <f>组合权益类行业占比!T6</f>
+        <v>2.2700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28">
+      <c r="A8" s="90" t="str">
+        <f>组合权益类行业占比!J7</f>
+        <v>金融地产</v>
+      </c>
+      <c r="B8" s="18">
+        <f>组合权益类行业占比!K7</f>
+        <v>0</v>
+      </c>
+      <c r="C8" s="18">
+        <f>组合权益类行业占比!L7</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="18">
+        <f>组合权益类行业占比!M7</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="18">
+        <f>组合权益类行业占比!N7</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="18">
+        <f>组合权益类行业占比!O7</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="18">
+        <f>组合权益类行业占比!P7</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="18">
+        <f>组合权益类行业占比!Q7</f>
+        <v>1</v>
+      </c>
+      <c r="I8" s="18">
+        <f>组合权益类行业占比!R7</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="18">
+        <f>组合权益类行业占比!S7</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="18">
+        <f>组合权益类行业占比!T7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28">
+      <c r="A9" s="90" t="str">
+        <f>组合权益类行业占比!J8</f>
+        <v>证券公司</v>
+      </c>
+      <c r="B9" s="18">
+        <f>组合权益类行业占比!K8</f>
+        <v>0</v>
+      </c>
+      <c r="C9" s="18">
+        <f>组合权益类行业占比!L8</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="18">
+        <f>组合权益类行业占比!M8</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="18">
+        <f>组合权益类行业占比!N8</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="18">
+        <f>组合权益类行业占比!O8</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="18">
+        <f>组合权益类行业占比!P8</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="18">
+        <f>组合权益类行业占比!Q8</f>
+        <v>1</v>
+      </c>
+      <c r="I9" s="18">
+        <f>组合权益类行业占比!R8</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="18">
+        <f>组合权益类行业占比!S8</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="18">
+        <f>组合权益类行业占比!T8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28">
+      <c r="A10" s="90" t="str">
+        <f>组合权益类行业占比!J9</f>
+        <v>中证传媒</v>
+      </c>
+      <c r="B10" s="18">
+        <f>组合权益类行业占比!K9</f>
+        <v>0</v>
+      </c>
+      <c r="C10" s="18">
+        <f>组合权益类行业占比!L9</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="18">
+        <f>组合权益类行业占比!M9</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="18">
+        <f>组合权益类行业占比!N9</f>
+        <v>0.52739999999999998</v>
+      </c>
+      <c r="F10" s="18">
+        <f>组合权益类行业占比!O9</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="18">
+        <f>组合权益类行业占比!P9</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="18">
+        <f>组合权益类行业占比!Q9</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="18">
+        <f>组合权益类行业占比!R9</f>
+        <v>0.47259999999999996</v>
+      </c>
+      <c r="J10" s="18">
+        <f>组合权益类行业占比!S9</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="18">
+        <f>组合权益类行业占比!T9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28">
+      <c r="A11" s="90" t="str">
+        <f>组合权益类行业占比!J10</f>
+        <v>全指医药</v>
+      </c>
+      <c r="B11" s="18">
+        <f>组合权益类行业占比!K10</f>
+        <v>0</v>
+      </c>
+      <c r="C11" s="18">
+        <f>组合权益类行业占比!L10</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="18">
+        <f>组合权益类行业占比!M10</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="18">
+        <f>组合权益类行业占比!N10</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="18">
+        <f>组合权益类行业占比!O10</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="18">
+        <f>组合权益类行业占比!P10</f>
+        <v>1</v>
+      </c>
+      <c r="H11" s="18">
+        <f>组合权益类行业占比!Q10</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="18">
+        <f>组合权益类行业占比!R10</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="18">
+        <f>组合权益类行业占比!S10</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="18">
+        <f>组合权益类行业占比!T10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28">
+      <c r="A12" s="90" t="str">
+        <f>组合权益类行业占比!J11</f>
+        <v>养老产业</v>
+      </c>
+      <c r="B12" s="18">
+        <f>组合权益类行业占比!K11</f>
+        <v>0</v>
+      </c>
+      <c r="C12" s="18">
+        <f>组合权益类行业占比!L11</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="18">
+        <f>组合权益类行业占比!M11</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="18">
+        <f>组合权益类行业占比!N11</f>
+        <v>0.33740000000000003</v>
+      </c>
+      <c r="F12" s="18">
+        <f>组合权益类行业占比!O11</f>
+        <v>8.4199999999999997E-2</v>
+      </c>
+      <c r="G12" s="18">
+        <f>组合权益类行业占比!P11</f>
+        <v>0.38850000000000001</v>
+      </c>
+      <c r="H12" s="18">
+        <f>组合权益类行业占比!Q11</f>
+        <v>8.7400000000000005E-2</v>
+      </c>
+      <c r="I12" s="18">
+        <f>组合权益类行业占比!R11</f>
+        <v>0.10249999999999999</v>
+      </c>
+      <c r="J12" s="18">
+        <f>组合权益类行业占比!S11</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="18">
+        <f>组合权益类行业占比!T11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28">
+      <c r="A13" s="90" t="str">
+        <f>组合权益类行业占比!J12</f>
+        <v>中证环保</v>
+      </c>
+      <c r="B13" s="18">
+        <f>组合权益类行业占比!K12</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="18">
+        <f>组合权益类行业占比!L12</f>
+        <v>5.8099999999999999E-2</v>
+      </c>
+      <c r="D13" s="18">
+        <f>组合权益类行业占比!M12</f>
+        <v>0.67700000000000005</v>
+      </c>
+      <c r="E13" s="18">
+        <f>组合权益类行业占比!N12</f>
+        <v>5.3099999999999994E-2</v>
+      </c>
+      <c r="F13" s="18">
+        <f>组合权益类行业占比!O12</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="18">
+        <f>组合权益类行业占比!P12</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="18">
+        <f>组合权益类行业占比!Q12</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="18">
+        <f>组合权益类行业占比!R12</f>
+        <v>8.1600000000000006E-2</v>
+      </c>
+      <c r="J13" s="18">
+        <f>组合权益类行业占比!S12</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="18">
+        <f>组合权益类行业占比!T12</f>
+        <v>0.13019999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28">
+      <c r="A14" s="90" t="str">
+        <f>组合权益类行业占比!J13</f>
+        <v>创业板指</v>
+      </c>
+      <c r="B14" s="18">
+        <f>组合权益类行业占比!K13</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="18">
+        <f>组合权益类行业占比!L13</f>
+        <v>3.5900000000000001E-2</v>
+      </c>
+      <c r="D14" s="18">
+        <f>组合权益类行业占比!M13</f>
+        <v>0.18870000000000001</v>
+      </c>
+      <c r="E14" s="18">
+        <f>组合权益类行业占比!N13</f>
+        <v>6.0299999999999999E-2</v>
+      </c>
+      <c r="F14" s="18">
+        <f>组合权益类行业占比!O13</f>
+        <v>9.7900000000000001E-2</v>
+      </c>
+      <c r="G14" s="18">
+        <f>组合权益类行业占比!P13</f>
+        <v>0.18540000000000001</v>
+      </c>
+      <c r="H14" s="18">
+        <f>组合权益类行业占比!Q13</f>
+        <v>5.1900000000000002E-2</v>
+      </c>
+      <c r="I14" s="18">
+        <f>组合权益类行业占比!R13</f>
+        <v>0.37990000000000002</v>
+      </c>
+      <c r="J14" s="18">
+        <f>组合权益类行业占比!S13</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="18">
+        <f>组合权益类行业占比!T13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28">
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+    </row>
+    <row r="16" spans="1:28" s="90" customFormat="1">
+      <c r="A16" s="90" t="s">
+        <v>7442</v>
+      </c>
+      <c r="B16" s="90" t="s">
+        <v>7443</v>
+      </c>
+      <c r="C16" s="90" t="s">
+        <v>7443</v>
+      </c>
+      <c r="D16" s="90" t="s">
+        <v>7443</v>
+      </c>
+      <c r="E16" s="90" t="s">
+        <v>7444</v>
+      </c>
+      <c r="F16" s="90" t="s">
+        <v>7444</v>
+      </c>
+      <c r="G16" s="90" t="s">
+        <v>7444</v>
+      </c>
+      <c r="H16" s="90" t="s">
+        <v>250</v>
+      </c>
+      <c r="I16" s="90" t="s">
+        <v>250</v>
+      </c>
+      <c r="J16" s="90" t="s">
+        <v>250</v>
+      </c>
+      <c r="K16" s="90" t="s">
+        <v>251</v>
+      </c>
+      <c r="L16" s="90" t="s">
+        <v>251</v>
+      </c>
+      <c r="M16" s="90" t="s">
+        <v>251</v>
+      </c>
+      <c r="N16" s="90" t="s">
+        <v>3851</v>
+      </c>
+      <c r="O16" s="90" t="s">
+        <v>3851</v>
+      </c>
+      <c r="P16" s="90" t="s">
+        <v>3851</v>
+      </c>
+      <c r="Q16" s="90" t="s">
+        <v>253</v>
+      </c>
+      <c r="R16" s="90" t="s">
+        <v>253</v>
+      </c>
+      <c r="S16" s="90" t="s">
+        <v>253</v>
+      </c>
+      <c r="T16" s="90" t="s">
+        <v>7445</v>
+      </c>
+      <c r="U16" s="90" t="s">
+        <v>7445</v>
+      </c>
+      <c r="V16" s="90" t="s">
+        <v>7445</v>
+      </c>
+      <c r="W16" s="90" t="s">
+        <v>254</v>
+      </c>
+      <c r="X16" s="90" t="s">
+        <v>254</v>
+      </c>
+      <c r="Y16" s="90" t="s">
+        <v>254</v>
+      </c>
+      <c r="Z16" s="90" t="s">
+        <v>255</v>
+      </c>
+      <c r="AA16" s="90" t="s">
+        <v>255</v>
+      </c>
+      <c r="AB16" s="90" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28">
+      <c r="A17" s="3">
+        <v>38544</v>
+      </c>
+      <c r="B17" s="90">
+        <v>35</v>
+      </c>
+      <c r="C17" s="90">
+        <v>11.93</v>
+      </c>
+      <c r="D17" s="90">
+        <v>1.4</v>
+      </c>
+      <c r="E17" s="90">
+        <v>271</v>
+      </c>
+      <c r="F17" s="90">
+        <v>14.65</v>
+      </c>
+      <c r="G17" s="90">
+        <v>1.2</v>
+      </c>
+      <c r="H17" s="90">
+        <v>308</v>
+      </c>
+      <c r="I17" s="90">
+        <v>21.23</v>
+      </c>
+      <c r="J17" s="90">
+        <v>1.42</v>
+      </c>
+      <c r="K17" s="90">
+        <v>262</v>
+      </c>
+      <c r="L17" s="90">
+        <v>22.67</v>
+      </c>
+      <c r="M17" s="90">
+        <v>1.34</v>
+      </c>
+      <c r="N17" s="90">
+        <v>118</v>
+      </c>
+      <c r="O17" s="90">
+        <v>26.35</v>
+      </c>
+      <c r="P17" s="90">
+        <v>1.36</v>
+      </c>
+      <c r="Q17" s="90">
+        <v>107</v>
+      </c>
+      <c r="R17" s="90">
+        <v>24.93</v>
+      </c>
+      <c r="S17" s="90">
+        <v>1.49</v>
+      </c>
+      <c r="T17" s="90">
+        <v>100</v>
+      </c>
+      <c r="U17" s="90">
+        <v>18.829999999999998</v>
+      </c>
+      <c r="V17" s="90">
+        <v>1.38</v>
+      </c>
+      <c r="W17" s="90">
+        <v>122</v>
+      </c>
+      <c r="X17" s="90">
+        <v>25.95</v>
+      </c>
+      <c r="Y17" s="90">
+        <v>1.47</v>
+      </c>
+      <c r="Z17" s="90">
+        <v>63</v>
+      </c>
+      <c r="AA17" s="90">
+        <v>19.89</v>
+      </c>
+      <c r="AB17" s="90">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28">
+      <c r="A18" s="3">
+        <v>39748</v>
+      </c>
+      <c r="B18" s="90">
+        <v>42</v>
+      </c>
+      <c r="C18" s="90">
+        <v>10.64</v>
+      </c>
+      <c r="D18" s="90">
+        <v>1.92</v>
+      </c>
+      <c r="E18" s="90">
+        <v>320</v>
+      </c>
+      <c r="F18" s="90">
+        <v>9.81</v>
+      </c>
+      <c r="G18" s="90">
+        <v>1.34</v>
+      </c>
+      <c r="H18" s="90">
+        <v>388</v>
+      </c>
+      <c r="I18" s="90">
+        <v>15.36</v>
+      </c>
+      <c r="J18" s="90">
+        <v>1.65</v>
+      </c>
+      <c r="K18" s="90">
+        <v>278</v>
+      </c>
+      <c r="L18" s="90">
+        <v>12.86</v>
+      </c>
+      <c r="M18" s="90">
+        <v>1.54</v>
+      </c>
+      <c r="N18" s="90">
+        <v>117</v>
+      </c>
+      <c r="O18" s="90">
+        <v>23.61</v>
+      </c>
+      <c r="P18" s="90">
+        <v>1.95</v>
+      </c>
+      <c r="Q18" s="90">
+        <v>118</v>
+      </c>
+      <c r="R18" s="90">
+        <v>19.39</v>
+      </c>
+      <c r="S18" s="90">
+        <v>2.09</v>
+      </c>
+      <c r="T18" s="90">
+        <v>142</v>
+      </c>
+      <c r="U18" s="90">
+        <v>13.4</v>
+      </c>
+      <c r="V18" s="90">
+        <v>1.68</v>
+      </c>
+      <c r="W18" s="90">
+        <v>155</v>
+      </c>
+      <c r="X18" s="90">
+        <v>12.48</v>
+      </c>
+      <c r="Y18" s="90">
+        <v>1.56</v>
+      </c>
+      <c r="Z18" s="90">
+        <v>67</v>
+      </c>
+      <c r="AA18" s="90">
+        <v>20.48</v>
+      </c>
+      <c r="AB18" s="90">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28">
+      <c r="A19" s="3">
+        <v>41240</v>
+      </c>
+      <c r="B19" s="90">
+        <v>65</v>
+      </c>
+      <c r="C19" s="90">
+        <v>20.45</v>
+      </c>
+      <c r="D19" s="90">
+        <v>2</v>
+      </c>
+      <c r="E19" s="90">
+        <v>454</v>
+      </c>
+      <c r="F19" s="90">
+        <v>23.49</v>
+      </c>
+      <c r="G19" s="90">
+        <v>1.76</v>
+      </c>
+      <c r="H19" s="90">
+        <v>637</v>
+      </c>
+      <c r="I19" s="90">
+        <v>22.35</v>
+      </c>
+      <c r="J19" s="90">
+        <v>1.78</v>
+      </c>
+      <c r="K19" s="90">
+        <v>407</v>
+      </c>
+      <c r="L19" s="90">
+        <v>21.28</v>
+      </c>
+      <c r="M19" s="90">
+        <v>1.87</v>
+      </c>
+      <c r="N19" s="90">
+        <v>166</v>
+      </c>
+      <c r="O19" s="90">
+        <v>26.39</v>
+      </c>
+      <c r="P19" s="90">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="Q19" s="90">
+        <v>181</v>
+      </c>
+      <c r="R19" s="90">
+        <v>30.04</v>
+      </c>
+      <c r="S19" s="90">
+        <v>2.78</v>
+      </c>
+      <c r="T19" s="90">
+        <v>198</v>
+      </c>
+      <c r="U19" s="90">
+        <v>15.54</v>
+      </c>
+      <c r="V19" s="90">
+        <v>1.86</v>
+      </c>
+      <c r="W19" s="90">
+        <v>334</v>
+      </c>
+      <c r="X19" s="90">
+        <v>28.21</v>
+      </c>
+      <c r="Y19" s="90">
+        <v>2.12</v>
+      </c>
+      <c r="Z19" s="90">
+        <v>74</v>
+      </c>
+      <c r="AA19" s="90">
+        <v>21.37</v>
+      </c>
+      <c r="AB19" s="90">
+        <v>1.76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" s="90" customFormat="1">
+      <c r="A20" s="14">
+        <v>43390</v>
+      </c>
+      <c r="B20" s="96">
+        <v>75</v>
+      </c>
+      <c r="C20" s="96">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="D20" s="96">
+        <v>1.32</v>
+      </c>
+      <c r="E20" s="96">
+        <v>565</v>
+      </c>
+      <c r="F20" s="96">
+        <v>18.350000000000001</v>
+      </c>
+      <c r="G20" s="96">
+        <v>1.73</v>
+      </c>
+      <c r="H20" s="96">
+        <v>961</v>
+      </c>
+      <c r="I20" s="96">
+        <v>21.84</v>
+      </c>
+      <c r="J20" s="96">
+        <v>1.7</v>
+      </c>
+      <c r="K20" s="96">
+        <v>595</v>
+      </c>
+      <c r="L20" s="96">
+        <v>18.420000000000002</v>
+      </c>
+      <c r="M20" s="96">
+        <v>1.57</v>
+      </c>
+      <c r="N20" s="96">
+        <v>222</v>
+      </c>
+      <c r="O20" s="96">
+        <v>25.45</v>
+      </c>
+      <c r="P20" s="96">
+        <v>1.99</v>
+      </c>
+      <c r="Q20" s="96">
+        <v>291</v>
+      </c>
+      <c r="R20" s="96">
+        <v>23.27</v>
+      </c>
+      <c r="S20" s="96">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="T20" s="96">
+        <v>233</v>
+      </c>
+      <c r="U20" s="96">
+        <v>10.92</v>
+      </c>
+      <c r="V20" s="96">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="W20" s="96">
+        <v>589</v>
+      </c>
+      <c r="X20" s="96">
+        <v>29.44</v>
+      </c>
+      <c r="Y20" s="96">
+        <v>2.21</v>
+      </c>
+      <c r="Z20" s="96">
+        <v>109</v>
+      </c>
+      <c r="AA20" s="96">
+        <v>20.059999999999999</v>
+      </c>
+      <c r="AB20" s="96">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28">
+      <c r="A21" s="90" t="s">
+        <v>7446</v>
+      </c>
+      <c r="B21" s="90"/>
+      <c r="C21" s="60">
+        <f>IF(C18/C20-1&gt;0,0,C18/C20-1)</f>
+        <v>-0.33913043478260874</v>
+      </c>
+      <c r="D21" s="60">
+        <f>IF(D18/D20-1&gt;0,0,D18/D20-1)</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="90"/>
+      <c r="F21" s="60">
+        <f>IF(F18/F20-1&gt;0,0,F18/F20-1)</f>
+        <v>-0.4653950953678474</v>
+      </c>
+      <c r="G21" s="60">
+        <f>IF(G18/G20-1&gt;0,0,G18/G20-1)</f>
+        <v>-0.22543352601156064</v>
+      </c>
+      <c r="H21" s="90"/>
+      <c r="I21" s="60">
+        <f t="shared" ref="I21:J21" si="0">IF(I18/I20-1&gt;0,0,I18/I20-1)</f>
+        <v>-0.29670329670329676</v>
+      </c>
+      <c r="J21" s="60">
+        <f t="shared" si="0"/>
+        <v>-2.9411764705882359E-2</v>
+      </c>
+      <c r="K21" s="90"/>
+      <c r="L21" s="60">
+        <f t="shared" ref="L21:M21" si="1">IF(L18/L20-1&gt;0,0,L18/L20-1)</f>
+        <v>-0.30184581976112934</v>
+      </c>
+      <c r="M21" s="60">
+        <f t="shared" si="1"/>
+        <v>-1.9108280254777066E-2</v>
+      </c>
+      <c r="N21" s="90"/>
+      <c r="O21" s="60">
+        <f t="shared" ref="O21:P21" si="2">IF(O18/O20-1&gt;0,0,O18/O20-1)</f>
+        <v>-7.2298624754420393E-2</v>
+      </c>
+      <c r="P21" s="60">
+        <f t="shared" si="2"/>
+        <v>-2.010050251256279E-2</v>
+      </c>
+      <c r="Q21" s="90"/>
+      <c r="R21" s="60">
+        <f t="shared" ref="R21:S21" si="3">IF(R18/R20-1&gt;0,0,R18/R20-1)</f>
+        <v>-0.16673828964331749</v>
+      </c>
+      <c r="S21" s="60">
+        <f t="shared" si="3"/>
+        <v>-5.8558558558558738E-2</v>
+      </c>
+      <c r="T21" s="90"/>
+      <c r="U21" s="60">
+        <f t="shared" ref="U21:V21" si="4">IF(U18/U20-1&gt;0,0,U18/U20-1)</f>
+        <v>0</v>
+      </c>
+      <c r="V21" s="60">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W21" s="90"/>
+      <c r="X21" s="60">
+        <f t="shared" ref="X21:Y21" si="5">IF(X18/X20-1&gt;0,0,X18/X20-1)</f>
+        <v>-0.57608695652173914</v>
+      </c>
+      <c r="Y21" s="60">
+        <f t="shared" si="5"/>
+        <v>-0.29411764705882348</v>
+      </c>
+      <c r="Z21" s="90"/>
+      <c r="AA21" s="60">
+        <f t="shared" ref="AA21:AB21" si="6">IF(AA18/AA20-1&gt;0,0,AA18/AA20-1)</f>
+        <v>0</v>
+      </c>
+      <c r="AB21" s="60">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28">
+      <c r="A24" s="90" t="s">
+        <v>7448</v>
+      </c>
+      <c r="B24" s="90" t="str">
+        <f>组合权益类行业占比!K1</f>
+        <v>能源</v>
+      </c>
+      <c r="C24" s="90" t="str">
+        <f>组合权益类行业占比!L1</f>
+        <v>原材料</v>
+      </c>
+      <c r="D24" s="90" t="str">
+        <f>组合权益类行业占比!M1</f>
+        <v>工业</v>
+      </c>
+      <c r="E24" s="90" t="str">
+        <f>组合权益类行业占比!N1</f>
+        <v>可选消费</v>
+      </c>
+      <c r="F24" s="90" t="str">
+        <f>组合权益类行业占比!O1</f>
+        <v>主要消费</v>
+      </c>
+      <c r="G24" s="90" t="str">
+        <f>组合权益类行业占比!P1</f>
+        <v>医药卫生</v>
+      </c>
+      <c r="H24" s="90" t="str">
+        <f>组合权益类行业占比!Q1</f>
+        <v>金融地产</v>
+      </c>
+      <c r="I24" s="90" t="str">
+        <f>组合权益类行业占比!R1</f>
+        <v>信息技术</v>
+      </c>
+      <c r="J24" s="90" t="str">
+        <f>组合权益类行业占比!S1</f>
+        <v>电信业务</v>
+      </c>
+      <c r="K24" s="90" t="str">
+        <f>组合权益类行业占比!T1</f>
+        <v>公用事业</v>
+      </c>
+      <c r="L24" t="s">
+        <v>7447</v>
+      </c>
+      <c r="M24" s="90" t="s">
+        <v>7449</v>
+      </c>
+      <c r="N24" s="90" t="s">
+        <v>7450</v>
+      </c>
+      <c r="O24" s="90" t="s">
+        <v>7451</v>
+      </c>
+      <c r="P24" s="90" t="s">
+        <v>7452</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28">
+      <c r="A25" s="90" t="str">
+        <f>组合权益类行业占比!J2</f>
+        <v>中证红利</v>
+      </c>
+      <c r="B25" s="58">
+        <f>(1+$D$21)*B3</f>
+        <v>4.9800000000000004E-2</v>
+      </c>
+      <c r="C25" s="58">
+        <f>(1+$G$21)*C3</f>
+        <v>3.6327167630057812E-2</v>
+      </c>
+      <c r="D25" s="58">
+        <f>(1+$J$21)*D3</f>
+        <v>0.17596764705882351</v>
+      </c>
+      <c r="E25" s="58">
+        <f>(1+$M$21)*E3</f>
+        <v>0.18038598726114652</v>
+      </c>
+      <c r="F25" s="58">
+        <f>(1+$P$21)*F3</f>
+        <v>7.6824120603015078E-2</v>
+      </c>
+      <c r="G25" s="58">
+        <f>(1+$S$21)*G3</f>
+        <v>4.3306306306306296E-3</v>
+      </c>
+      <c r="H25" s="58">
+        <f>(1+$V$21)*H3</f>
+        <v>0.26960000000000001</v>
+      </c>
+      <c r="I25" s="58">
+        <f>(1+$Y$21)*I3</f>
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="J25" s="58">
+        <f t="shared" ref="J25:K25" si="7">(1+$D$21)*J3</f>
+        <v>0</v>
+      </c>
+      <c r="K25" s="58">
+        <f>(1+$AB$21)*K3</f>
+        <v>0.16010000000000002</v>
+      </c>
+      <c r="L25" s="60">
+        <f>SUM(B25:K25)-1</f>
+        <v>-2.8664446816326516E-2</v>
+      </c>
+      <c r="M25" s="61">
+        <v>3728.17</v>
+      </c>
+      <c r="N25" s="61">
+        <f>M25*(1+L25)</f>
+        <v>3621.3040693127759</v>
+      </c>
+      <c r="O25" s="89">
+        <f>资产配置表!C3</f>
+        <v>5.8900000000000001E-2</v>
+      </c>
+      <c r="P25" s="60">
+        <f>O25*(1+L25)</f>
+        <v>5.7211664082518369E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28">
+      <c r="A26" s="90" t="str">
+        <f>组合权益类行业占比!J3</f>
+        <v>上证50</v>
+      </c>
+      <c r="B26" s="58">
+        <f t="shared" ref="B26:J36" si="8">(1+$D$21)*B4</f>
+        <v>3.7000000000000005E-2</v>
+      </c>
+      <c r="C26" s="58">
+        <f t="shared" ref="C26:K36" si="9">(1+$G$21)*C4</f>
+        <v>4.3220809248554919E-2</v>
+      </c>
+      <c r="D26" s="58">
+        <f t="shared" ref="D26:D36" si="10">(1+$J$21)*D4</f>
+        <v>8.3082352941176482E-2</v>
+      </c>
+      <c r="E26" s="58">
+        <f t="shared" ref="E26:E36" si="11">(1+$M$21)*E4</f>
+        <v>3.6783439490445859E-2</v>
+      </c>
+      <c r="F26" s="58">
+        <f t="shared" ref="F26:F36" si="12">(1+$P$21)*F4</f>
+        <v>0.10847487437185931</v>
+      </c>
+      <c r="G26" s="58">
+        <f t="shared" ref="G26:G36" si="13">(1+$S$21)*G4</f>
+        <v>2.7960810810810807E-2</v>
+      </c>
+      <c r="H26" s="58">
+        <f t="shared" ref="H26:H36" si="14">(1+$V$21)*H4</f>
+        <v>0.622</v>
+      </c>
+      <c r="I26" s="58">
+        <f t="shared" ref="I26:I36" si="15">(1+$Y$21)*I4</f>
+        <v>7.6235294117647069E-3</v>
+      </c>
+      <c r="J26" s="58">
+        <f>(1)*J4</f>
+        <v>1.1000000000000001E-2</v>
+      </c>
+      <c r="K26" s="58">
+        <f t="shared" ref="K26:K36" si="16">(1+$AB$21)*K4</f>
+        <v>0</v>
+      </c>
+      <c r="L26" s="60">
+        <f t="shared" ref="L26:L36" si="17">SUM(B26:K26)-1</f>
+        <v>-2.2854183725387944E-2</v>
+      </c>
+      <c r="M26" s="61">
+        <v>2429.21</v>
+      </c>
+      <c r="N26" s="61">
+        <f t="shared" ref="N26:N36" si="18">M26*(1+L26)</f>
+        <v>2373.6923883524505</v>
+      </c>
+      <c r="O26" s="89">
+        <f>资产配置表!C4</f>
+        <v>8.0543625000000004E-3</v>
+      </c>
+      <c r="P26" s="60">
+        <f t="shared" ref="P26:P36" si="19">O26*(1+L26)</f>
+        <v>7.8702866196341259E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28">
+      <c r="A27" s="90" t="str">
+        <f>组合权益类行业占比!J4</f>
+        <v>沪深300</v>
+      </c>
+      <c r="B27" s="58">
+        <f t="shared" si="8"/>
+        <v>2.81E-2</v>
+      </c>
+      <c r="C27" s="58">
+        <f t="shared" si="9"/>
+        <v>5.7240462427745664E-2</v>
+      </c>
+      <c r="D27" s="58">
+        <f t="shared" si="10"/>
+        <v>0.12035294117647059</v>
+      </c>
+      <c r="E27" s="58">
+        <f t="shared" si="11"/>
+        <v>0.11035031847133758</v>
+      </c>
+      <c r="F27" s="58">
+        <f t="shared" si="12"/>
+        <v>8.8974874371859303E-2</v>
+      </c>
+      <c r="G27" s="58">
+        <f t="shared" si="13"/>
+        <v>6.0252252252252239E-2</v>
+      </c>
+      <c r="H27" s="58">
+        <f t="shared" si="14"/>
+        <v>0.39069999999999999</v>
+      </c>
+      <c r="I27" s="58">
+        <f t="shared" si="15"/>
+        <v>4.8423529411764712E-2</v>
+      </c>
+      <c r="J27" s="58">
+        <f t="shared" ref="J27:J36" si="20">(1)*J5</f>
+        <v>1.9199999999999998E-2</v>
+      </c>
+      <c r="K27" s="58">
+        <f t="shared" si="16"/>
+        <v>2.8300000000000002E-2</v>
+      </c>
+      <c r="L27" s="60">
+        <f t="shared" si="17"/>
+        <v>-4.8105621888569927E-2</v>
+      </c>
+      <c r="M27" s="61">
+        <v>3118.25</v>
+      </c>
+      <c r="N27" s="61">
+        <f t="shared" si="18"/>
+        <v>2968.2446445459668</v>
+      </c>
+      <c r="O27" s="89">
+        <f>资产配置表!C5</f>
+        <v>3.9856999999999997E-2</v>
+      </c>
+      <c r="P27" s="60">
+        <f t="shared" si="19"/>
+        <v>3.7939654228387264E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28">
+      <c r="A28" s="90" t="str">
+        <f>组合权益类行业占比!J5</f>
+        <v>中证500</v>
+      </c>
+      <c r="B28" s="58">
+        <f t="shared" si="8"/>
+        <v>2.4900000000000002E-2</v>
+      </c>
+      <c r="C28" s="58">
+        <f t="shared" si="9"/>
+        <v>0.12462774566473989</v>
+      </c>
+      <c r="D28" s="58">
+        <f t="shared" si="10"/>
+        <v>0.21022941176470589</v>
+      </c>
+      <c r="E28" s="58">
+        <f t="shared" si="11"/>
+        <v>0.11515668789808918</v>
+      </c>
+      <c r="F28" s="58">
+        <f t="shared" si="12"/>
+        <v>6.72211055276382E-2</v>
+      </c>
+      <c r="G28" s="58">
+        <f t="shared" si="13"/>
+        <v>0.10930135135135133</v>
+      </c>
+      <c r="H28" s="58">
+        <f t="shared" si="14"/>
+        <v>8.2500000000000004E-2</v>
+      </c>
+      <c r="I28" s="58">
+        <f t="shared" si="15"/>
+        <v>0.11795294117647059</v>
+      </c>
+      <c r="J28" s="58">
+        <f t="shared" si="20"/>
+        <v>1.47E-2</v>
+      </c>
+      <c r="K28" s="58">
+        <f t="shared" si="16"/>
+        <v>3.1300000000000001E-2</v>
+      </c>
+      <c r="L28" s="60">
+        <f t="shared" si="17"/>
+        <v>-0.10211075661700486</v>
+      </c>
+      <c r="M28" s="61">
+        <v>4133.38</v>
+      </c>
+      <c r="N28" s="61">
+        <f t="shared" si="18"/>
+        <v>3711.3174408144046</v>
+      </c>
+      <c r="O28" s="89">
+        <f>资产配置表!C6</f>
+        <v>0.21911088749999999</v>
+      </c>
+      <c r="P28" s="60">
+        <f t="shared" si="19"/>
+        <v>0.19673730899435155</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28">
+      <c r="A29" s="90" t="str">
+        <f>组合权益类行业占比!J6</f>
+        <v>中证1000</v>
+      </c>
+      <c r="B29" s="58">
+        <f t="shared" si="8"/>
+        <v>3.1400000000000004E-2</v>
+      </c>
+      <c r="C29" s="58">
+        <f t="shared" si="9"/>
+        <v>0.13004971098265897</v>
+      </c>
+      <c r="D29" s="58">
+        <f t="shared" si="10"/>
+        <v>0.22905882352941179</v>
+      </c>
+      <c r="E29" s="58">
+        <f t="shared" si="11"/>
+        <v>0.1253579617834395</v>
+      </c>
+      <c r="F29" s="58">
+        <f t="shared" si="12"/>
+        <v>5.1444723618090452E-2</v>
+      </c>
+      <c r="G29" s="58">
+        <f t="shared" si="13"/>
+        <v>9.9510360360360345E-2</v>
+      </c>
+      <c r="H29" s="58">
+        <f t="shared" si="14"/>
+        <v>4.1700000000000001E-2</v>
+      </c>
+      <c r="I29" s="58">
+        <f t="shared" si="15"/>
+        <v>0.12621176470588236</v>
+      </c>
+      <c r="J29" s="58">
+        <f t="shared" si="20"/>
+        <v>3.56E-2</v>
+      </c>
+      <c r="K29" s="58">
+        <f t="shared" si="16"/>
+        <v>2.2700000000000001E-2</v>
+      </c>
+      <c r="L29" s="60">
+        <f t="shared" si="17"/>
+        <v>-0.10696665502015656</v>
+      </c>
+      <c r="M29" s="61">
+        <v>4292.2</v>
+      </c>
+      <c r="N29" s="61">
+        <f t="shared" si="18"/>
+        <v>3833.077723322484</v>
+      </c>
+      <c r="O29" s="89">
+        <f>资产配置表!C7</f>
+        <v>4.9623162499999998E-2</v>
+      </c>
+      <c r="P29" s="60">
+        <f t="shared" si="19"/>
+        <v>4.4315138795853332E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28">
+      <c r="A30" s="90" t="str">
+        <f>组合权益类行业占比!J7</f>
+        <v>金融地产</v>
+      </c>
+      <c r="B30" s="58">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C30" s="58">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="D30" s="58">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E30" s="58">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F30" s="58">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G30" s="58">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H30" s="58">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="I30" s="58">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="J30" s="58">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K30" s="58">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="L30" s="60">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M30" s="61">
+        <v>4788.3900000000003</v>
+      </c>
+      <c r="N30" s="61">
+        <f t="shared" si="18"/>
+        <v>4788.3900000000003</v>
+      </c>
+      <c r="O30" s="89">
+        <f>资产配置表!C11</f>
+        <v>2.4E-2</v>
+      </c>
+      <c r="P30" s="60">
+        <f t="shared" si="19"/>
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28">
+      <c r="A31" s="90" t="str">
+        <f>组合权益类行业占比!J8</f>
+        <v>证券公司</v>
+      </c>
+      <c r="B31" s="58">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C31" s="58">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="D31" s="58">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E31" s="58">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F31" s="58">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G31" s="58">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H31" s="58">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="I31" s="58">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="J31" s="58">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K31" s="58">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="L31" s="60">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M31" s="61">
+        <v>481.27</v>
+      </c>
+      <c r="N31" s="61">
+        <f t="shared" si="18"/>
+        <v>481.27</v>
+      </c>
+      <c r="O31" s="89">
+        <f>资产配置表!C10</f>
+        <v>3.1965149999999998E-2</v>
+      </c>
+      <c r="P31" s="60">
+        <f t="shared" si="19"/>
+        <v>3.1965149999999998E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28">
+      <c r="A32" s="90" t="str">
+        <f>组合权益类行业占比!J9</f>
+        <v>中证传媒</v>
+      </c>
+      <c r="B32" s="58">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C32" s="58">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="D32" s="58">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E32" s="58">
+        <f t="shared" si="11"/>
+        <v>0.51732229299363053</v>
+      </c>
+      <c r="F32" s="58">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G32" s="58">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H32" s="58">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I32" s="58">
+        <f t="shared" si="15"/>
+        <v>0.33360000000000001</v>
+      </c>
+      <c r="J32" s="58">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K32" s="58">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="L32" s="60">
+        <f t="shared" si="17"/>
+        <v>-0.14907770700636946</v>
+      </c>
+      <c r="M32" s="61">
+        <v>1057.18</v>
+      </c>
+      <c r="N32" s="61">
+        <f t="shared" si="18"/>
+        <v>899.57802970700641</v>
+      </c>
+      <c r="O32" s="89">
+        <f>资产配置表!C13</f>
+        <v>3.70254125E-2</v>
+      </c>
+      <c r="P32" s="60">
+        <f t="shared" si="19"/>
+        <v>3.1505748903535032E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33" s="90" t="str">
+        <f>组合权益类行业占比!J10</f>
+        <v>全指医药</v>
+      </c>
+      <c r="B33" s="58">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C33" s="58">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="D33" s="58">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E33" s="58">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F33" s="58">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G33" s="58">
+        <f t="shared" si="13"/>
+        <v>0.94144144144144126</v>
+      </c>
+      <c r="H33" s="58">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I33" s="58">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="J33" s="58">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K33" s="58">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="L33" s="60">
+        <f t="shared" si="17"/>
+        <v>-5.8558558558558738E-2</v>
+      </c>
+      <c r="M33" s="61">
+        <v>7863.88</v>
+      </c>
+      <c r="N33" s="61">
+        <f t="shared" si="18"/>
+        <v>7403.382522522521</v>
+      </c>
+      <c r="O33" s="89">
+        <f>资产配置表!C9</f>
+        <v>6.1076224999999998E-2</v>
+      </c>
+      <c r="P33" s="60">
+        <f t="shared" si="19"/>
+        <v>5.7499689301801792E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34" s="90" t="str">
+        <f>组合权益类行业占比!J11</f>
+        <v>养老产业</v>
+      </c>
+      <c r="B34" s="58">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C34" s="58">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="D34" s="58">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E34" s="58">
+        <f t="shared" si="11"/>
+        <v>0.33095286624203824</v>
+      </c>
+      <c r="F34" s="58">
+        <f t="shared" si="12"/>
+        <v>8.2507537688442212E-2</v>
+      </c>
+      <c r="G34" s="58">
+        <f t="shared" si="13"/>
+        <v>0.36574999999999996</v>
+      </c>
+      <c r="H34" s="58">
+        <f t="shared" si="14"/>
+        <v>8.7400000000000005E-2</v>
+      </c>
+      <c r="I34" s="58">
+        <f t="shared" si="15"/>
+        <v>7.2352941176470592E-2</v>
+      </c>
+      <c r="J34" s="58">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K34" s="58">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="L34" s="60">
+        <f t="shared" si="17"/>
+        <v>-6.1036654893048992E-2</v>
+      </c>
+      <c r="M34" s="61">
+        <v>6057.22</v>
+      </c>
+      <c r="N34" s="61">
+        <f t="shared" si="18"/>
+        <v>5687.5075532487263</v>
+      </c>
+      <c r="O34" s="89">
+        <f>资产配置表!C12</f>
+        <v>5.6750000000000002E-2</v>
+      </c>
+      <c r="P34" s="60">
+        <f t="shared" si="19"/>
+        <v>5.3286169834819472E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35" s="90" t="str">
+        <f>组合权益类行业占比!J12</f>
+        <v>中证环保</v>
+      </c>
+      <c r="B35" s="58">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C35" s="58">
+        <f t="shared" si="9"/>
+        <v>4.5002312138728323E-2</v>
+      </c>
+      <c r="D35" s="58">
+        <f t="shared" si="10"/>
+        <v>0.65708823529411764</v>
+      </c>
+      <c r="E35" s="58">
+        <f t="shared" si="11"/>
+        <v>5.2085350318471335E-2</v>
+      </c>
+      <c r="F35" s="58">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G35" s="58">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H35" s="58">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I35" s="58">
+        <f t="shared" si="15"/>
+        <v>5.7600000000000005E-2</v>
+      </c>
+      <c r="J35" s="58">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K35" s="58">
+        <f t="shared" si="16"/>
+        <v>0.13019999999999998</v>
+      </c>
+      <c r="L35" s="60">
+        <f t="shared" si="17"/>
+        <v>-5.8024102248682707E-2</v>
+      </c>
+      <c r="M35" s="61">
+        <v>1011.74</v>
+      </c>
+      <c r="N35" s="61">
+        <f t="shared" si="18"/>
+        <v>953.0346947909178</v>
+      </c>
+      <c r="O35" s="89">
+        <f>资产配置表!C14</f>
+        <v>6.0069037499999992E-2</v>
+      </c>
+      <c r="P35" s="60">
+        <f t="shared" si="19"/>
+        <v>5.6583585526120035E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36" s="90" t="str">
+        <f>组合权益类行业占比!J13</f>
+        <v>创业板指</v>
+      </c>
+      <c r="B36" s="58">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C36" s="58">
+        <f t="shared" si="9"/>
+        <v>2.7806936416184973E-2</v>
+      </c>
+      <c r="D36" s="58">
+        <f t="shared" si="10"/>
+        <v>0.18315000000000001</v>
+      </c>
+      <c r="E36" s="58">
+        <f t="shared" si="11"/>
+        <v>5.914777070063694E-2</v>
+      </c>
+      <c r="F36" s="58">
+        <f t="shared" si="12"/>
+        <v>9.5932160804020103E-2</v>
+      </c>
+      <c r="G36" s="58">
+        <f t="shared" si="13"/>
+        <v>0.17454324324324322</v>
+      </c>
+      <c r="H36" s="58">
+        <f t="shared" si="14"/>
+        <v>5.1900000000000002E-2</v>
+      </c>
+      <c r="I36" s="58">
+        <f t="shared" si="15"/>
+        <v>0.26816470588235297</v>
+      </c>
+      <c r="J36" s="58">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K36" s="58">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="L36" s="60">
+        <f t="shared" si="17"/>
+        <v>-0.13935518295356164</v>
+      </c>
+      <c r="M36" s="61">
+        <v>1231.8599999999999</v>
+      </c>
+      <c r="N36" s="61">
+        <f t="shared" si="18"/>
+        <v>1060.1939243268255</v>
+      </c>
+      <c r="O36" s="89">
+        <f>资产配置表!C8</f>
+        <v>1.6085612499999999E-2</v>
+      </c>
+      <c r="P36" s="60">
+        <f t="shared" si="19"/>
+        <v>1.38439990271424E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="O37" s="89">
+        <f>1-SUM(O25:O36)</f>
+        <v>0.33748315000000007</v>
+      </c>
+      <c r="P37" s="60">
+        <f>O37</f>
+        <v>0.33748315000000007</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="O38" s="89">
+        <f>SUM(O25:O37)</f>
+        <v>1</v>
+      </c>
+      <c r="P38" s="89">
+        <f>SUM(P25:P37)</f>
+        <v>0.95024154531416349</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="B39" s="90"/>
+      <c r="C39" s="90"/>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="B40" s="60"/>
+      <c r="C40" s="60"/>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="B41" s="60"/>
+      <c r="C41" s="60"/>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="B42" s="60"/>
+      <c r="C42" s="60"/>
+    </row>
+    <row r="43" spans="1:16">
+      <c r="B43" s="60"/>
+      <c r="C43" s="60"/>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="B44" s="60"/>
+      <c r="C44" s="60"/>
+    </row>
+    <row r="45" spans="1:16">
+      <c r="B45" s="60"/>
+      <c r="C45" s="60"/>
+    </row>
+    <row r="46" spans="1:16">
+      <c r="B46" s="60"/>
+      <c r="C46" s="60"/>
+    </row>
+    <row r="47" spans="1:16">
+      <c r="B47" s="60"/>
+      <c r="C47" s="60"/>
+    </row>
+    <row r="48" spans="1:16">
+      <c r="B48" s="60"/>
+      <c r="C48" s="60"/>
+    </row>
+    <row r="49" spans="2:3">
+      <c r="B49" s="60"/>
+      <c r="C49" s="60"/>
+    </row>
+    <row r="50" spans="2:3">
+      <c r="B50" s="60"/>
+      <c r="C50" s="60"/>
+    </row>
+    <row r="51" spans="2:3">
+      <c r="B51" s="60"/>
+      <c r="C51" s="60"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="B3:K13">
+    <cfRule type="dataBar" priority="6">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF9933"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{3A7A2D17-FC94-4114-9F74-4AD61B0305C2}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14:I14">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF9933"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{C92F1452-4F30-4F6A-8CBA-AA4AFF4D0D5D}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF9933"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{90638C5C-32C0-48A5-AE4D-21587F641582}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J14">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF9933"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{610EC479-E81E-4CD9-BC94-B9FDD85C84E2}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K14">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF9933"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{424A9F78-9254-4FF1-B814-CF7CFCD7A2D5}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21:AB21">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{3A7A2D17-FC94-4114-9F74-4AD61B0305C2}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B3:K13</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{C92F1452-4F30-4F6A-8CBA-AA4AFF4D0D5D}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C14:I14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{90638C5C-32C0-48A5-AE4D-21587F641582}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{610EC479-E81E-4CD9-BC94-B9FDD85C84E2}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>J14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{424A9F78-9254-4FF1-B814-CF7CFCD7A2D5}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>K14</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G70" sqref="G70"/>
     </sheetView>
   </sheetViews>
@@ -35450,7 +37705,7 @@
       </c>
       <c r="K16" s="19"/>
     </row>
-    <row r="17" spans="1:14" ht="15">
+    <row r="17" spans="1:14">
       <c r="B17" s="1"/>
     </row>
     <row r="18" spans="1:14">
@@ -35499,7 +37754,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="15">
+    <row r="20" spans="1:14">
       <c r="B20" s="1">
         <f>M6*0.7</f>
         <v>96.50200000000001</v>
@@ -35517,7 +37772,7 @@
         <v>5.4640616190761886</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="15">
+    <row r="21" spans="1:14">
       <c r="B21" s="1"/>
     </row>
     <row r="22" spans="1:14">
@@ -35541,7 +37796,7 @@
         <v>1.5086349429303594</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="15">
+    <row r="23" spans="1:14">
       <c r="A23" s="19">
         <f>J7</f>
         <v>6.1076224999999998E-2</v>
@@ -35563,7 +37818,7 @@
         <v>2.5143915715505991</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="15">
+    <row r="24" spans="1:14">
       <c r="B24" s="1">
         <f>M7*0.7</f>
         <v>52.094000000000001</v>
@@ -35581,7 +37836,7 @@
         <v>3.5201482001708388</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="15">
+    <row r="25" spans="1:14">
       <c r="B25" s="1"/>
     </row>
     <row r="26" spans="1:14">
@@ -35608,7 +37863,7 @@
         <v>7436</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="15">
+    <row r="27" spans="1:14">
       <c r="A27" s="19">
         <f>J8</f>
         <v>5.6750000000000002E-2</v>
@@ -35639,7 +37894,7 @@
         <v>7430</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="15">
+    <row r="28" spans="1:14">
       <c r="B28" s="1">
         <f>M8*0.7</f>
         <v>36.728999999999999</v>
@@ -35666,7 +37921,7 @@
         <v>7433</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="15">
+    <row r="29" spans="1:14">
       <c r="L29" t="s">
         <v>7434</v>
       </c>
@@ -35698,7 +37953,7 @@
         <v>1.367101106579004</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="15">
+    <row r="31" spans="1:14">
       <c r="A31" s="19">
         <f>J9</f>
         <v>6.0069037499999992E-2</v>
@@ -35720,7 +37975,7 @@
         <v>2.2785018442983405</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="15">
+    <row r="32" spans="1:14">
       <c r="B32" s="1">
         <f>M9*0.7</f>
         <v>49.790999999999997</v>
@@ -35768,7 +38023,7 @@
         <v>7439</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="15">
+    <row r="35" spans="1:14">
       <c r="A35" s="19">
         <f>J10</f>
         <v>3.70254125E-2</v>
@@ -36250,12 +38505,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -37046,7 +39301,7 @@
         <v>8.0399999999999999E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="15">
+    <row r="17" spans="1:22">
       <c r="A17" s="80" t="s">
         <v>44</v>
       </c>
@@ -37055,7 +39310,7 @@
         <v>6.0299999999999999E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:22" ht="15">
+    <row r="18" spans="1:22">
       <c r="A18" s="80" t="s">
         <v>40</v>
       </c>
@@ -37064,7 +39319,7 @@
         <v>4.02E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="15">
+    <row r="19" spans="1:22">
       <c r="A19" s="80" t="s">
         <v>18</v>
       </c>
@@ -37073,7 +39328,7 @@
         <v>0.15410000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:22" ht="15">
+    <row r="20" spans="1:22">
       <c r="A20" s="80" t="s">
         <v>19</v>
       </c>
@@ -37204,35 +39459,35 @@
       <c r="K27" s="18"/>
       <c r="N27" s="18"/>
     </row>
-    <row r="28" spans="1:22" ht="15">
+    <row r="28" spans="1:22">
       <c r="K28" s="18"/>
       <c r="N28" s="18"/>
     </row>
-    <row r="29" spans="1:22" ht="15">
+    <row r="29" spans="1:22">
       <c r="K29" s="18"/>
       <c r="N29" s="18"/>
     </row>
-    <row r="30" spans="1:22" ht="15">
+    <row r="30" spans="1:22">
       <c r="K30" s="18"/>
       <c r="N30" s="18"/>
     </row>
-    <row r="31" spans="1:22" ht="15">
+    <row r="31" spans="1:22">
       <c r="K31" s="18"/>
       <c r="N31" s="18"/>
     </row>
-    <row r="32" spans="1:22" ht="15">
+    <row r="32" spans="1:22">
       <c r="K32" s="18"/>
       <c r="N32" s="18"/>
     </row>
-    <row r="33" spans="11:14" ht="15">
+    <row r="33" spans="11:14">
       <c r="K33" s="18"/>
       <c r="N33" s="18"/>
     </row>
-    <row r="34" spans="11:14" ht="15">
+    <row r="34" spans="11:14">
       <c r="K34" s="18"/>
       <c r="N34" s="18"/>
     </row>
-    <row r="35" spans="11:14" ht="15">
+    <row r="35" spans="11:14">
       <c r="K35" s="18"/>
       <c r="N35" s="18"/>
     </row>
@@ -37571,12 +39826,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3645"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView topLeftCell="A2773" workbookViewId="0">
+      <selection activeCell="C2790" sqref="C2790"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>

--- a/Portfolio/ETF计划 XIRR 已投入收益率计算.xlsx
+++ b/Portfolio/ETF计划 XIRR 已投入收益率计算.xlsx
@@ -224,7 +224,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15371" uniqueCount="7453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15373" uniqueCount="7455">
   <si>
     <t>日期</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -23121,17 +23121,26 @@
     <t>到达08大底</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>上证指数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>上证指数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="176" formatCode="_(&quot;¥&quot;* #,##0.00_);_(&quot;¥&quot;* \(#,##0.00\);_(&quot;¥&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="0.000"/>
     <numFmt numFmtId="178" formatCode="0.0000"/>
     <numFmt numFmtId="179" formatCode="0.0000_);[Red]\(0.0000\)"/>
     <numFmt numFmtId="180" formatCode="0.00_ "/>
+    <numFmt numFmtId="181" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="15">
     <font>
@@ -23644,7 +23653,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -23927,14 +23936,23 @@
     <xf numFmtId="10" fontId="0" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="75">
@@ -24629,31 +24647,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>10.390458846278054</c:v>
+                  <c:v>10.41328718072657</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.631060512648</c:v>
+                  <c:v>11.628648828610331</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22.593146950757973</c:v>
+                  <c:v>22.391071645233747</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>28.026644822712921</c:v>
+                  <c:v>27.950198227095974</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>33.20881023470217</c:v>
+                  <c:v>32.904822169783024</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>28.459130847395937</c:v>
+                  <c:v>28.384263006234843</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>24.058844981443023</c:v>
+                  <c:v>24.000578924314926</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>24.829376807487442</c:v>
+                  <c:v>24.735709242879665</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>29.530659488658774</c:v>
+                  <c:v>29.374032435889841</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -25872,8 +25890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA136"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="W14" sqref="W14"/>
+    <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -25996,14 +26014,14 @@
       </c>
       <c r="S2" s="18">
         <f>(SUM(S4:S7) - SUM(Q4:Q7))/$Q$2</f>
-        <v>-0.10034046974479163</v>
+        <v>-0.10563766974479163</v>
       </c>
       <c r="T2" s="18" t="s">
         <v>213</v>
       </c>
       <c r="U2" s="18">
         <f>(SUM(S4:S6) - SUM(Q4:Q6))/SUM(Q4:Q6)</f>
-        <v>-0.16035159830437623</v>
+        <v>-0.16756343834535015</v>
       </c>
     </row>
     <row r="3" spans="1:27">
@@ -26030,19 +26048,19 @@
       </c>
       <c r="H3" s="21">
         <f>$F3*$T$20</f>
-        <v>29.006905481225719</v>
+        <v>28.887860020892401</v>
       </c>
       <c r="I3" s="21">
         <f>$F3*$V$20</f>
-        <v>3.5527837721191191</v>
+        <v>3.5453812863751679</v>
       </c>
       <c r="J3" s="21">
         <f t="shared" ref="J3:J66" si="0">H3*(-$M3)</f>
-        <v>214651.10056107031</v>
+        <v>213770.16415460376</v>
       </c>
       <c r="K3" s="21">
         <f t="shared" ref="K3:K66" si="1">I3*(-$M3)</f>
-        <v>26290.599913681483</v>
+        <v>26235.821519176243</v>
       </c>
       <c r="L3" s="7" t="s">
         <v>10</v>
@@ -26095,19 +26113,19 @@
       </c>
       <c r="H4" s="21">
         <f>F4*$T$13</f>
-        <v>9.8735911602209949</v>
+        <v>9.8952839116719247</v>
       </c>
       <c r="I4" s="21">
         <f>F4*$V$13</f>
-        <v>1.1702762430939226</v>
+        <v>1.169353312302839</v>
       </c>
       <c r="J4" s="21">
         <f t="shared" si="0"/>
-        <v>39099.420994475142</v>
+        <v>39185.324290220822</v>
       </c>
       <c r="K4" s="21">
         <f t="shared" si="1"/>
-        <v>4634.2939226519338</v>
+        <v>4630.6391167192423</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>10</v>
@@ -26127,15 +26145,15 @@
         <v>206235.11000000002</v>
       </c>
       <c r="R4" s="52">
-        <v>-12186.71</v>
+        <v>-13034.88</v>
       </c>
       <c r="S4" s="69">
         <f>Q4+R4</f>
-        <v>194048.40000000002</v>
+        <v>193200.23</v>
       </c>
       <c r="T4" s="26">
         <f>S4/Q4-1</f>
-        <v>-5.9091344824845682E-2</v>
+        <v>-6.320398112620107E-2</v>
       </c>
     </row>
     <row r="5" spans="1:27">
@@ -26162,19 +26180,19 @@
       </c>
       <c r="H5" s="21">
         <f>E5*$T$21</f>
-        <v>23.848980218700088</v>
+        <v>23.791222415075627</v>
       </c>
       <c r="I5" s="21">
         <f>E5*$V$21</f>
-        <v>3.0297518122619489</v>
+        <v>3.0333808579221424</v>
       </c>
       <c r="J5" s="21">
         <f t="shared" si="0"/>
-        <v>94441.961666052346</v>
+        <v>94213.240763699476</v>
       </c>
       <c r="K5" s="21">
         <f t="shared" si="1"/>
-        <v>11997.817176557317</v>
+        <v>12012.188197371685</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>10</v>
@@ -26194,15 +26212,15 @@
         <v>12000</v>
       </c>
       <c r="R5" s="52">
-        <v>-4020.57</v>
+        <v>-4139.3599999999997</v>
       </c>
       <c r="S5" s="69">
         <f>Q5+R5</f>
-        <v>7979.43</v>
+        <v>7860.64</v>
       </c>
       <c r="T5" s="26">
         <f>S5/Q5-1</f>
-        <v>-0.33504749999999994</v>
+        <v>-0.34494666666666662</v>
       </c>
     </row>
     <row r="6" spans="1:27">
@@ -26255,16 +26273,16 @@
         <v>369376.37</v>
       </c>
       <c r="R6" s="52">
-        <f>-78017.16</f>
-        <v>-78017.16</v>
+        <f>-81287.96</f>
+        <v>-81287.960000000006</v>
       </c>
       <c r="S6" s="69">
         <f>Q6+R6</f>
-        <v>291359.20999999996</v>
+        <v>288088.40999999997</v>
       </c>
       <c r="T6" s="26">
         <f>S6/Q6-1</f>
-        <v>-0.2112131861602301</v>
+        <v>-0.22006811101641399</v>
       </c>
       <c r="W6" s="72"/>
     </row>
@@ -26292,19 +26310,19 @@
       </c>
       <c r="H7" s="21">
         <f>F7*$T$20</f>
-        <v>30.261458782908932</v>
+        <v>30.137264587375014</v>
       </c>
       <c r="I7" s="21">
         <f>F7*$V$20</f>
-        <v>3.7064422385268307</v>
+        <v>3.6987195940904343</v>
       </c>
       <c r="J7" s="21">
         <f t="shared" si="0"/>
-        <v>119835.37678031936</v>
+        <v>119343.56776600506</v>
       </c>
       <c r="K7" s="21">
         <f t="shared" si="1"/>
-        <v>14677.51126456625</v>
+        <v>14646.929592598121</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>10</v>
@@ -26360,19 +26378,19 @@
       </c>
       <c r="H8" s="21">
         <f>F8*$T$21</f>
-        <v>24.798465413441459</v>
+        <v>24.738408132903547</v>
       </c>
       <c r="I8" s="21">
         <f>E8*$V$21</f>
-        <v>3.1503735102592456</v>
+        <v>3.154147036945202</v>
       </c>
       <c r="J8" s="21">
         <f t="shared" si="0"/>
-        <v>98201.923037228175</v>
+        <v>97964.096206298054</v>
       </c>
       <c r="K8" s="21">
         <f t="shared" si="1"/>
-        <v>12475.479100626613</v>
+        <v>12490.422266303</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>10</v>
@@ -26455,19 +26473,19 @@
       </c>
       <c r="H10" s="21">
         <f>F10*$T$21</f>
-        <v>24.689100626612607</v>
+        <v>24.629308207289856</v>
       </c>
       <c r="I10" s="21">
         <f>E10*$V$21</f>
-        <v>3.1364799115370436</v>
+        <v>3.1402367964294569</v>
       </c>
       <c r="J10" s="21">
         <f t="shared" si="0"/>
-        <v>97768.83848138593</v>
+        <v>97532.060500867825</v>
       </c>
       <c r="K10" s="21">
         <f t="shared" si="1"/>
-        <v>12420.460449686692</v>
+        <v>12435.337713860648</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>10</v>
@@ -26504,19 +26522,19 @@
       </c>
       <c r="H11" s="21">
         <f>F11*$T$19</f>
-        <v>29.861969805895043</v>
+        <v>29.852867970431365</v>
       </c>
       <c r="I11" s="21">
         <f>F11*$V$19</f>
-        <v>3.657512580877067</v>
+        <v>3.6638158510339665</v>
       </c>
       <c r="J11" s="21">
         <f t="shared" si="0"/>
-        <v>119256.76261682244</v>
+        <v>119220.41352671469</v>
       </c>
       <c r="K11" s="21">
         <f t="shared" si="1"/>
-        <v>14606.642242990654</v>
+        <v>14631.814982689248</v>
       </c>
       <c r="L11" s="5" t="s">
         <v>24</v>
@@ -26565,19 +26583,19 @@
       </c>
       <c r="H12" s="21">
         <f>F12*$T$16</f>
-        <v>25.284311532611614</v>
+        <v>25.058166189111748</v>
       </c>
       <c r="I12" s="21">
         <f>F12*$V$16</f>
-        <v>2.2893531359040891</v>
+        <v>2.2833719925410469</v>
       </c>
       <c r="J12" s="21">
         <f t="shared" si="0"/>
-        <v>98294.783827950261</v>
+        <v>97415.625713467045</v>
       </c>
       <c r="K12" s="21">
         <f t="shared" si="1"/>
-        <v>8900.0434640780186</v>
+        <v>8876.7912907627233</v>
       </c>
       <c r="L12" s="5" t="s">
         <v>24</v>
@@ -26648,19 +26666,19 @@
       </c>
       <c r="H13" s="21">
         <f>F13*$T$19</f>
-        <v>29.885154565061107</v>
+        <v>29.87604566295499</v>
       </c>
       <c r="I13" s="21">
         <f>F13*$V$19</f>
-        <v>3.6603522645578721</v>
+        <v>3.6666604285580608</v>
       </c>
       <c r="J13" s="21">
         <f t="shared" si="0"/>
-        <v>119441.99725017972</v>
+        <v>119405.5917011322</v>
       </c>
       <c r="K13" s="21">
         <f t="shared" si="1"/>
-        <v>14629.329895758447</v>
+        <v>14654.541734818002</v>
       </c>
       <c r="L13" s="5" t="s">
         <v>24</v>
@@ -26679,32 +26697,32 @@
         <v>100032</v>
       </c>
       <c r="R13" s="64">
-        <v>2.5339999999999998</v>
+        <v>2.536</v>
       </c>
       <c r="S13" s="57">
-        <v>10.039999999999999</v>
+        <v>10.07</v>
       </c>
       <c r="T13" s="58">
         <f t="shared" ref="T13:T25" si="2">S13/R13</f>
-        <v>3.9621152328334648</v>
+        <v>3.9708201892744479</v>
       </c>
       <c r="U13" s="57">
         <v>1.19</v>
       </c>
       <c r="V13" s="58">
         <f>U13/R13</f>
-        <v>0.46961325966850831</v>
+        <v>0.46924290220820186</v>
       </c>
       <c r="W13" s="87">
-        <v>0.1181</v>
+        <v>0.1182</v>
       </c>
       <c r="X13" s="75">
         <f>SUMIF(C:C,"=红利",J:J)/SUMIF(C:C,"=红利",M:M)*-1</f>
-        <v>10.390458846278054</v>
+        <v>10.41328718072657</v>
       </c>
       <c r="Y13" s="75">
         <f>SUMIF(C:C,"=红利",K:K)/SUMIF(C:C,"=红利",M:M)*-1</f>
-        <v>1.2315384489114429</v>
+        <v>1.2305672040779163</v>
       </c>
       <c r="Z13" s="59">
         <f>(SUMIF(C:C,"=红利",M:M)*-1)/$Q$2</f>
@@ -26736,19 +26754,19 @@
       </c>
       <c r="H14" s="21">
         <f>F14*$T$16</f>
-        <v>23.72306969669858</v>
+        <v>23.510888252148998</v>
       </c>
       <c r="I14" s="21">
         <f>F14*$V$16</f>
-        <v>2.1479914109331668</v>
+        <v>2.1423795879383269</v>
       </c>
       <c r="J14" s="21">
         <f t="shared" si="0"/>
-        <v>86513.290569920384</v>
+        <v>85739.507277936966</v>
       </c>
       <c r="K14" s="21">
         <f t="shared" si="1"/>
-        <v>7833.2950773910734</v>
+        <v>7812.8298812934909</v>
       </c>
       <c r="L14" s="5" t="s">
         <v>24</v>
@@ -26767,32 +26785,32 @@
         <v>510050</v>
       </c>
       <c r="R14" s="64">
-        <v>2.464</v>
+        <v>2.4980000000000002</v>
       </c>
       <c r="S14" s="57">
-        <v>9.52</v>
+        <v>9.6</v>
       </c>
       <c r="T14" s="58">
         <f t="shared" si="2"/>
-        <v>3.8636363636363633</v>
+        <v>3.8430744595676538</v>
       </c>
       <c r="U14" s="57">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="V14" s="58">
         <f t="shared" ref="V14:V34" si="3">U14/R14</f>
-        <v>0.48295454545454541</v>
+        <v>0.48038430744595673</v>
       </c>
       <c r="W14" s="87">
-        <v>0.12520000000000001</v>
+        <v>0.12509999999999999</v>
       </c>
       <c r="X14" s="75">
         <f>SUMIF(C:C,"=50ETF",J:J)/SUMIF(C:C,"=50ETF",M:M)*-1</f>
-        <v>9.2186363636363637</v>
+        <v>9.1695756605284231</v>
       </c>
       <c r="Y14" s="75">
         <f>SUMIF(C:C,"=50ETF",K:K)/SUMIF(C:C,"=50ETF",M:M)*-1</f>
-        <v>1.1523295454545455</v>
+        <v>1.1461969575660529</v>
       </c>
       <c r="Z14" s="59">
         <f>(SUMIF(C:C,"=50ETF",M:M)*-1)/$Q$2</f>
@@ -26824,19 +26842,19 @@
       </c>
       <c r="H15" s="21">
         <f>F15*$T$21</f>
-        <v>24.75372527337511</v>
+        <v>24.693776345152493</v>
       </c>
       <c r="I15" s="21">
         <f>E15*$V$21</f>
-        <v>3.1446897653274362</v>
+        <v>3.1484564840069424</v>
       </c>
       <c r="J15" s="21">
         <f t="shared" si="0"/>
-        <v>196049.50416513087</v>
+        <v>195574.70865360775</v>
       </c>
       <c r="K15" s="21">
         <f t="shared" si="1"/>
-        <v>24905.942941393296</v>
+        <v>24935.775353334982</v>
       </c>
       <c r="L15" s="7" t="s">
         <v>10</v>
@@ -26855,32 +26873,32 @@
         <v>510300</v>
       </c>
       <c r="R15" s="64">
-        <v>3.1884000000000001</v>
+        <v>3.1968000000000001</v>
       </c>
       <c r="S15" s="57">
-        <v>10.74</v>
+        <v>10.77</v>
       </c>
       <c r="T15" s="58">
         <f t="shared" si="2"/>
-        <v>3.3684606699284907</v>
+        <v>3.3689939939939939</v>
       </c>
       <c r="U15" s="57">
         <v>1.34</v>
       </c>
       <c r="V15" s="58">
         <f t="shared" si="3"/>
-        <v>0.42027349140634801</v>
+        <v>0.41916916916916919</v>
       </c>
       <c r="W15" s="87">
         <v>0.1244</v>
       </c>
       <c r="X15" s="75">
         <f>SUMIF(C:C,"=300ETF",J:J)/SUMIF(C:C,"=300ETF",M:M)*-1</f>
-        <v>11.631060512648</v>
+        <v>11.628648828610331</v>
       </c>
       <c r="Y15" s="75">
         <f>SUMIF(C:C,"=300ETF",K:K)/SUMIF(C:C,"=300ETF",M:M)*-1</f>
-        <v>1.4511751477605512</v>
+        <v>1.446832816187358</v>
       </c>
       <c r="Z15" s="59">
         <f>(SUMIF(C:C,"=300ETF",M:M)*-1)/$Q$2</f>
@@ -26912,19 +26930,19 @@
       </c>
       <c r="H16" s="21">
         <f>F16*$T$19</f>
-        <v>29.120057512580878</v>
+        <v>29.111181809675305</v>
       </c>
       <c r="I16" s="21">
         <f>F16*$V$19</f>
-        <v>3.5666427030913015</v>
+        <v>3.5727893702629361</v>
       </c>
       <c r="J16" s="21">
         <f t="shared" si="0"/>
-        <v>113381.85593098491</v>
+        <v>113347.29749415176</v>
       </c>
       <c r="K16" s="21">
         <f t="shared" si="1"/>
-        <v>13887.080028756291</v>
+        <v>13911.012692055767</v>
       </c>
       <c r="L16" s="5" t="s">
         <v>24</v>
@@ -26943,32 +26961,32 @@
         <v>510500</v>
       </c>
       <c r="R16" s="64">
-        <v>4.4707999999999997</v>
+        <v>4.3974000000000002</v>
       </c>
       <c r="S16" s="57">
-        <v>17.45</v>
+        <v>17.010000000000002</v>
       </c>
       <c r="T16" s="58">
         <f t="shared" si="2"/>
-        <v>3.9031045897825893</v>
+        <v>3.8681948424068771</v>
       </c>
       <c r="U16" s="57">
-        <v>1.58</v>
+        <v>1.55</v>
       </c>
       <c r="V16" s="58">
         <f t="shared" si="3"/>
-        <v>0.35340431242730613</v>
+        <v>0.35248101150679945</v>
       </c>
       <c r="W16" s="87">
-        <v>9.0300000000000005E-2</v>
+        <v>9.0899999999999995E-2</v>
       </c>
       <c r="X16" s="75">
         <f>SUMIF(C:C,"=500ETF",J:J)/SUMIF(C:C,"=500ETF",M:M)*-1</f>
-        <v>22.593146950757973</v>
+        <v>22.391071645233747</v>
       </c>
       <c r="Y16" s="75">
         <f>SUMIF(C:C,"=500ETF",K:K)/SUMIF(C:C,"=500ETF",M:M)*-1</f>
-        <v>2.045683219610178</v>
+        <v>2.0403386860736221</v>
       </c>
       <c r="Z16" s="59">
         <f>(SUMIF(C:C,"=500ETF",M:M)*-1)/$Q$2</f>
@@ -27025,32 +27043,32 @@
         <v>512100</v>
       </c>
       <c r="R17" s="64">
-        <v>0.52210000000000001</v>
+        <v>0.50829999999999997</v>
       </c>
       <c r="S17" s="57">
-        <v>19.940000000000001</v>
+        <v>19.36</v>
       </c>
       <c r="T17" s="58">
         <f t="shared" si="2"/>
-        <v>38.191917257230415</v>
+        <v>38.087743458587447</v>
       </c>
       <c r="U17" s="57">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="V17" s="58">
         <f t="shared" si="3"/>
-        <v>3.4284619804635126</v>
+        <v>3.4428487113909112</v>
       </c>
       <c r="W17" s="87">
-        <v>8.9899999999999994E-2</v>
+        <v>9.01E-2</v>
       </c>
       <c r="X17" s="75">
         <f>SUMIF(C:C,"=1000ETF",J:J)/SUMIF(C:C,"=1000ETF",M:M)*-1</f>
-        <v>28.026644822712921</v>
+        <v>27.950198227095974</v>
       </c>
       <c r="Y17" s="75">
         <f>SUMIF(C:C,"=1000ETF",K:K)/SUMIF(C:C,"=1000ETF",M:M)*-1</f>
-        <v>2.5159325091602875</v>
+        <v>2.5264900256930765</v>
       </c>
       <c r="Z17" s="59">
         <f>(SUMIF(C:C,"=1000ETF",M:M)*-1)/$Q$2</f>
@@ -27082,19 +27100,19 @@
       </c>
       <c r="H18" s="21">
         <f>F18*$T$13</f>
-        <v>10.059810576164168</v>
+        <v>10.081912460567823</v>
       </c>
       <c r="I18" s="21">
         <f>F18*$V$13</f>
-        <v>1.1923480662983426</v>
+        <v>1.1914077287066247</v>
       </c>
       <c r="J18" s="21">
         <f t="shared" si="0"/>
-        <v>39836.849881610106</v>
+        <v>39924.37334384858</v>
       </c>
       <c r="K18" s="21">
         <f t="shared" si="1"/>
-        <v>4721.6983425414364</v>
+        <v>4717.9746056782342</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>10</v>
@@ -27113,32 +27131,32 @@
         <v>159915</v>
       </c>
       <c r="R18" s="64">
-        <v>1.1933</v>
+        <v>1.1940999999999999</v>
       </c>
       <c r="S18" s="57">
-        <v>28.27</v>
+        <v>28.03</v>
       </c>
       <c r="T18" s="58">
         <f t="shared" si="2"/>
-        <v>23.69060588284589</v>
+        <v>23.473745917427355</v>
       </c>
       <c r="U18" s="57">
         <v>3.33</v>
       </c>
       <c r="V18" s="58">
         <f t="shared" si="3"/>
-        <v>2.79058074247884</v>
+        <v>2.788711163219161</v>
       </c>
       <c r="W18" s="87">
-        <v>0.11799999999999999</v>
+        <v>0.11890000000000001</v>
       </c>
       <c r="X18" s="75">
         <f>SUMIF(C:C,"=创业板",J:J)/SUMIF(C:C,"=创业板",M:M)*-1</f>
-        <v>33.20881023470217</v>
+        <v>32.904822169783024</v>
       </c>
       <c r="Y18" s="75">
         <f>SUMIF(C:C,"=创业板",K:K)/SUMIF(C:C,"=创业板",M:M)*-1</f>
-        <v>3.9117558571474427</v>
+        <v>3.9091351346905983</v>
       </c>
       <c r="Z18" s="59">
         <f>(SUMIF(C:C,"=创业板",M:M)*-1)/$Q$2</f>
@@ -27195,34 +27213,34 @@
         <v>159938</v>
       </c>
       <c r="R19" s="64">
-        <v>1.1128</v>
+        <v>1.0687</v>
       </c>
       <c r="S19" s="57">
-        <v>25.8</v>
+        <v>24.77</v>
       </c>
       <c r="T19" s="58">
         <f t="shared" si="2"/>
-        <v>23.184759166067579</v>
+        <v>23.177692523626835</v>
       </c>
       <c r="U19" s="57">
-        <v>3.16</v>
+        <v>3.04</v>
       </c>
       <c r="V19" s="58">
         <f t="shared" si="3"/>
-        <v>2.8396836808051762</v>
+        <v>2.8445775240946944</v>
       </c>
       <c r="W19" s="87">
-        <v>0.12239999999999999</v>
+        <v>0.1229</v>
       </c>
       <c r="X19" s="75">
         <f>SUMIF(C:C,"=医药",J:J)/SUMIF(C:C,"=医药",M:M)*-1</f>
-        <v>28.459130847395937</v>
+        <v>28.384263006234843</v>
       </c>
       <c r="Y19" s="75">
         <f>SUMIF(C:C,"=医药",K:K)/SUMIF(C:C,"=医药",M:M)*-1</f>
-        <v>3.4856919952624472</v>
-      </c>
-      <c r="Z19" s="94">
+        <v>3.483575274079691</v>
+      </c>
+      <c r="Z19" s="97">
         <f>(SUMIF(C:C,"=医药",M:M)*-1)/$Q$2</f>
         <v>6.1076224999999998E-2</v>
       </c>
@@ -27252,19 +27270,19 @@
       </c>
       <c r="H20" s="21">
         <f>F20*$T$16</f>
-        <v>25.701943723718351</v>
+        <v>25.472063037249285</v>
       </c>
       <c r="I20" s="21">
         <f>F20*$V$16</f>
-        <v>2.3271673973338109</v>
+        <v>2.3210874607722745</v>
       </c>
       <c r="J20" s="21">
         <f t="shared" si="0"/>
-        <v>203137.36837590588</v>
+        <v>201320.4879799427</v>
       </c>
       <c r="K20" s="21">
         <f t="shared" si="1"/>
-        <v>18392.95369821956</v>
+        <v>18344.900433210532</v>
       </c>
       <c r="L20" s="5" t="s">
         <v>24</v>
@@ -27283,34 +27301,34 @@
         <v>189</v>
       </c>
       <c r="R20" s="64">
-        <v>0.69510000000000005</v>
+        <v>0.67010000000000003</v>
       </c>
       <c r="S20" s="57">
-        <v>25.8</v>
+        <v>24.77</v>
       </c>
       <c r="T20" s="58">
         <f t="shared" si="2"/>
-        <v>37.116961588260679</v>
+        <v>36.964632144456047</v>
       </c>
       <c r="U20" s="57">
-        <v>3.16</v>
+        <v>3.04</v>
       </c>
       <c r="V20" s="58">
         <f t="shared" si="3"/>
-        <v>4.5461084736009205</v>
+        <v>4.5366363229368751</v>
       </c>
       <c r="W20" s="87">
-        <v>0.12239999999999999</v>
+        <v>0.1229</v>
       </c>
       <c r="X20" s="75">
         <f>SUMIF(C:C,"=医药",J:J)/SUMIF(C:C,"=医药",M:M)*-1</f>
-        <v>28.459130847395937</v>
+        <v>28.384263006234843</v>
       </c>
       <c r="Y20" s="75">
         <f>SUMIF(C:C,"=医药",K:K)/SUMIF(C:C,"=医药",M:M)*-1</f>
-        <v>3.4856919952624472</v>
-      </c>
-      <c r="Z20" s="95"/>
+        <v>3.483575274079691</v>
+      </c>
+      <c r="Z20" s="98"/>
       <c r="AA20" s="2"/>
     </row>
     <row r="21" spans="1:27">
@@ -27337,19 +27355,19 @@
       </c>
       <c r="H21" s="21">
         <f>F21*$T$24</f>
-        <v>28.934091004403442</v>
+        <v>28.848045977011495</v>
       </c>
       <c r="I21" s="21">
         <f>F21*$V$24</f>
-        <v>2.4809855315579785</v>
+        <v>2.4694189016602808</v>
       </c>
       <c r="J21" s="21">
         <f t="shared" si="0"/>
-        <v>115736.36401761377</v>
+        <v>115392.18390804598</v>
       </c>
       <c r="K21" s="21">
         <f t="shared" si="1"/>
-        <v>9923.9421262319138</v>
+        <v>9877.6756066411235</v>
       </c>
       <c r="L21" s="6" t="s">
         <v>16</v>
@@ -27368,32 +27386,32 @@
         <v>105</v>
       </c>
       <c r="R21" s="64">
-        <v>0.81389999999999996</v>
+        <v>0.80659999999999998</v>
       </c>
       <c r="S21" s="57">
-        <v>20.23</v>
+        <v>20</v>
       </c>
       <c r="T21" s="58">
         <f t="shared" si="2"/>
-        <v>24.855633370192901</v>
+        <v>24.795437639474336</v>
       </c>
       <c r="U21" s="57">
-        <v>2.57</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="V21" s="58">
         <f t="shared" si="3"/>
-        <v>3.1576360732276694</v>
+        <v>3.1614182990329778</v>
       </c>
       <c r="W21" s="87">
-        <v>0.12720000000000001</v>
+        <v>0.12740000000000001</v>
       </c>
       <c r="X21" s="75">
         <f>SUMIF(C:C,"=养老",J:J)/SUMIF(C:C,"=养老",M:M)*-1</f>
-        <v>24.058844981443023</v>
+        <v>24.000578924314926</v>
       </c>
       <c r="Y21" s="75">
         <f>SUMIF(C:C,"=养老",K:K)/SUMIF(C:C,"=养老",M:M)*-1</f>
-        <v>3.0106090261010103</v>
+        <v>3.0142151424754582</v>
       </c>
       <c r="Z21" s="59">
         <f>(SUMIF(C:C,"=养老",M:M)*-1)/$Q$2</f>
@@ -27425,19 +27443,19 @@
       </c>
       <c r="H22" s="21">
         <f>F22*$T$16</f>
-        <v>25.135993558199878</v>
+        <v>24.91117478510029</v>
       </c>
       <c r="I22" s="21">
         <f t="shared" ref="I22:I23" si="4">F22*$V$16</f>
-        <v>2.2759237720318515</v>
+        <v>2.2699777141037885</v>
       </c>
       <c r="J22" s="21">
         <f t="shared" si="0"/>
-        <v>97144.833823924142</v>
+        <v>96275.960974212052</v>
       </c>
       <c r="K22" s="21">
         <f t="shared" si="1"/>
-        <v>8795.9219164355382</v>
+        <v>8772.9417701368984</v>
       </c>
       <c r="L22" s="5" t="s">
         <v>24</v>
@@ -27456,32 +27474,32 @@
         <v>512880</v>
       </c>
       <c r="R22" s="64">
-        <v>0.63009999999999999</v>
+        <v>0.64249999999999996</v>
       </c>
       <c r="S22" s="57">
-        <v>16.940000000000001</v>
+        <v>17.22</v>
       </c>
       <c r="T22" s="58">
         <f t="shared" si="2"/>
-        <v>26.884621488652598</v>
+        <v>26.801556420233464</v>
       </c>
       <c r="U22" s="57">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="V22" s="58">
         <f t="shared" si="3"/>
-        <v>1.6664021583875577</v>
+        <v>1.6653696498054478</v>
       </c>
       <c r="W22" s="87">
         <v>6.1899999999999997E-2</v>
       </c>
       <c r="X22" s="75">
         <f>SUMIF(C:C,"=证券",J:J)/SUMIF(C:C,"=证券",M:M)*-1</f>
-        <v>21.423833019978389</v>
+        <v>21.357640079290874</v>
       </c>
       <c r="Y22" s="75">
         <f>SUMIF(C:C,"=证券",K:K)/SUMIF(C:C,"=证券",M:M)*-1</f>
-        <v>1.3279235342961813</v>
+        <v>1.3271007482486203</v>
       </c>
       <c r="Z22" s="59">
         <f>(SUMIF(C:C,"=证券",M:M)*-1)/$Q$2</f>
@@ -27513,19 +27531,19 @@
       </c>
       <c r="H23" s="21">
         <f>F23*$T$16</f>
-        <v>25.65900957323074</v>
+        <v>25.42951289398281</v>
       </c>
       <c r="I23" s="21">
         <f t="shared" si="4"/>
-        <v>2.3232799498971106</v>
+        <v>2.3172101696456995</v>
       </c>
       <c r="J23" s="21">
         <f t="shared" si="0"/>
-        <v>101229.66797821419</v>
+        <v>100324.25997421205</v>
       </c>
       <c r="K23" s="21">
         <f t="shared" si="1"/>
-        <v>9165.7808255345826</v>
+        <v>9141.8343891845179</v>
       </c>
       <c r="L23" s="5" t="s">
         <v>24</v>
@@ -27544,34 +27562,34 @@
         <v>512580</v>
       </c>
       <c r="R23" s="64">
-        <v>0.62329999999999997</v>
+        <v>0.61480000000000001</v>
       </c>
       <c r="S23" s="57">
-        <v>17.96</v>
+        <v>17.64</v>
       </c>
       <c r="T23" s="58">
         <f t="shared" si="2"/>
-        <v>28.814375100272745</v>
+        <v>28.692257644762524</v>
       </c>
       <c r="U23" s="57">
-        <v>1.54</v>
+        <v>1.51</v>
       </c>
       <c r="V23" s="58">
         <f t="shared" si="3"/>
-        <v>2.4707203593775069</v>
+        <v>2.4560832791151594</v>
       </c>
       <c r="W23" s="87">
-        <v>8.5699999999999998E-2</v>
+        <v>8.5800000000000001E-2</v>
       </c>
       <c r="X23" s="75">
         <f>SUMIF(C:C,"=环保",J:J)/SUMIF(C:C,"=环保",M:M)*-1</f>
-        <v>24.829376807487442</v>
+        <v>24.735709242879665</v>
       </c>
       <c r="Y23" s="75">
         <f>SUMIF(C:C,"=环保",K:K)/SUMIF(C:C,"=环保",M:M)*-1</f>
-        <v>2.1290222875017069</v>
-      </c>
-      <c r="Z23" s="94">
+        <v>2.1173991472079532</v>
+      </c>
+      <c r="Z23" s="97">
         <f>(SUMIF(C:C,"=环保",M:M)*-1)/$Q$2</f>
         <v>6.0069037499999992E-2</v>
       </c>
@@ -27601,11 +27619,11 @@
       </c>
       <c r="H24" s="21">
         <f>F24*$T$13</f>
-        <v>11.192975532754538</v>
+        <v>11.217567034700316</v>
       </c>
       <c r="I24" s="21">
         <f>F24*$V$13</f>
-        <v>1.326657458563536</v>
+        <v>1.3256111987381702</v>
       </c>
       <c r="J24" s="21">
         <f t="shared" si="0"/>
@@ -27632,34 +27650,34 @@
         <v>106</v>
       </c>
       <c r="R24" s="64">
-        <v>0.47689999999999999</v>
+        <v>0.4698</v>
       </c>
       <c r="S24" s="57">
-        <v>17.96</v>
+        <v>17.64</v>
       </c>
       <c r="T24" s="58">
         <f t="shared" si="2"/>
-        <v>37.659886768714621</v>
+        <v>37.547892720306514</v>
       </c>
       <c r="U24" s="57">
-        <v>1.54</v>
+        <v>1.51</v>
       </c>
       <c r="V24" s="58">
         <f t="shared" si="3"/>
-        <v>3.2291885091214092</v>
+        <v>3.2141336739037887</v>
       </c>
       <c r="W24" s="87">
-        <v>8.5699999999999998E-2</v>
+        <v>8.5800000000000001E-2</v>
       </c>
       <c r="X24" s="75">
         <f>SUMIF(C:C,"=环保",J:J)/SUMIF(C:C,"=环保",M:M)*-1</f>
-        <v>24.829376807487442</v>
+        <v>24.735709242879665</v>
       </c>
       <c r="Y24" s="75">
         <f>SUMIF(C:C,"=环保",K:K)/SUMIF(C:C,"=环保",M:M)*-1</f>
-        <v>2.1290222875017069</v>
-      </c>
-      <c r="Z24" s="95"/>
+        <v>2.1173991472079532</v>
+      </c>
+      <c r="Z24" s="98"/>
       <c r="AA24" s="2"/>
     </row>
     <row r="25" spans="1:27">
@@ -27686,19 +27704,19 @@
       </c>
       <c r="H25" s="21">
         <f>F25*$T$25</f>
-        <v>33.569131832797424</v>
+        <v>33.391085210269331</v>
       </c>
       <c r="I25" s="21">
         <f>F25*$V$25</f>
-        <v>3.87459807073955</v>
+        <v>3.8588754134509373</v>
       </c>
       <c r="J25" s="21">
         <f t="shared" si="0"/>
-        <v>134303.38263665594</v>
+        <v>133591.05370924555</v>
       </c>
       <c r="K25" s="21">
         <f t="shared" si="1"/>
-        <v>15501.491961414793</v>
+        <v>15438.588754134511</v>
       </c>
       <c r="L25" s="5" t="s">
         <v>24</v>
@@ -27717,32 +27735,32 @@
         <v>512980</v>
       </c>
       <c r="R25" s="64">
-        <v>0.622</v>
+        <v>0.63490000000000002</v>
       </c>
       <c r="S25" s="57">
-        <v>20.88</v>
+        <v>21.2</v>
       </c>
       <c r="T25" s="58">
         <f t="shared" si="2"/>
-        <v>33.569131832797424</v>
+        <v>33.391085210269331</v>
       </c>
       <c r="U25" s="57">
-        <v>2.41</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="V25" s="58">
         <f t="shared" si="3"/>
-        <v>3.87459807073955</v>
+        <v>3.8588754134509373</v>
       </c>
       <c r="W25" s="87">
         <v>0.11559999999999999</v>
       </c>
       <c r="X25" s="75">
         <f>SUMIF(C:C,"=传媒",J:J)/SUMIF(C:C,"=传媒",M:M)*-1</f>
-        <v>29.530659488658774</v>
+        <v>29.374032435889841</v>
       </c>
       <c r="Y25" s="75">
         <f>SUMIF(C:C,"=传媒",K:K)/SUMIF(C:C,"=传媒",M:M)*-1</f>
-        <v>3.4084717130109023</v>
+        <v>3.3946405409400997</v>
       </c>
       <c r="Z25" s="59">
         <f>(SUMIF(C:C,"=传媒",M:M)*-1)/$Q$2</f>
@@ -27774,19 +27792,19 @@
       </c>
       <c r="H26" s="21">
         <f>F26*$T$16</f>
-        <v>25.1750246040977</v>
+        <v>24.949856733524356</v>
       </c>
       <c r="I26" s="21">
         <f>F26*$V$16</f>
-        <v>2.2794578151561247</v>
+        <v>2.2735025242188565</v>
       </c>
       <c r="J26" s="21">
         <f t="shared" si="0"/>
-        <v>97446.729986803257</v>
+        <v>96575.156948424075</v>
       </c>
       <c r="K26" s="21">
         <f t="shared" si="1"/>
-        <v>8823.256927171873</v>
+        <v>8800.205365670623</v>
       </c>
       <c r="L26" s="5" t="s">
         <v>24</v>
@@ -27805,24 +27823,24 @@
         <v>190</v>
       </c>
       <c r="R26" s="64">
-        <v>0.83599999999999997</v>
+        <v>0.84599999999999997</v>
       </c>
       <c r="S26" s="57">
-        <v>9.52</v>
+        <v>9.6</v>
       </c>
       <c r="T26" s="58">
         <f t="shared" ref="T26:T34" si="5">S26/R26</f>
-        <v>11.387559808612441</v>
+        <v>11.347517730496454</v>
       </c>
       <c r="U26" s="57">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="V26" s="58">
         <f t="shared" si="3"/>
-        <v>1.4234449760765551</v>
+        <v>1.4184397163120568</v>
       </c>
       <c r="W26" s="87">
-        <v>0.12520000000000001</v>
+        <v>0.12509999999999999</v>
       </c>
       <c r="X26" s="61"/>
       <c r="Y26" s="61"/>
@@ -27853,19 +27871,19 @@
       </c>
       <c r="H27" s="21">
         <f>F27*$T$24</f>
-        <v>26.312962885300905</v>
+        <v>26.234712643678161</v>
       </c>
       <c r="I27" s="21">
         <f>F27*$V$24</f>
-        <v>2.2562340113231287</v>
+        <v>2.245715197956577</v>
       </c>
       <c r="J27" s="21">
         <f t="shared" si="0"/>
-        <v>105251.85154120362</v>
+        <v>104938.85057471265</v>
       </c>
       <c r="K27" s="21">
         <f t="shared" si="1"/>
-        <v>9024.9360452925157</v>
+        <v>8982.8607918263078</v>
       </c>
       <c r="L27" s="6" t="s">
         <v>16</v>
@@ -27884,24 +27902,24 @@
         <v>191</v>
       </c>
       <c r="R27" s="64">
-        <v>1.6286</v>
+        <v>1.6052</v>
       </c>
       <c r="S27" s="57">
-        <v>17.45</v>
+        <v>17.010000000000002</v>
       </c>
       <c r="T27" s="58">
         <f t="shared" si="5"/>
-        <v>10.714724303082402</v>
+        <v>10.596810366309496</v>
       </c>
       <c r="U27" s="57">
-        <v>1.58</v>
+        <v>1.55</v>
       </c>
       <c r="V27" s="58">
         <f t="shared" si="3"/>
-        <v>0.97015841827336369</v>
+        <v>0.9656117617742338</v>
       </c>
       <c r="W27" s="87">
-        <v>9.0300000000000005E-2</v>
+        <v>9.0899999999999995E-2</v>
       </c>
       <c r="X27" s="61"/>
       <c r="Y27" s="61"/>
@@ -27932,19 +27950,19 @@
       </c>
       <c r="H28" s="21">
         <f>F28*$T$16</f>
-        <v>23.586461036056189</v>
+        <v>23.375501432664759</v>
       </c>
       <c r="I28" s="21">
         <f t="shared" ref="I28:I29" si="6">F28*$V$16</f>
-        <v>2.1356222599982111</v>
+        <v>2.1300427525355889</v>
       </c>
       <c r="J28" s="21">
         <f t="shared" si="0"/>
-        <v>185329.90999698042</v>
+        <v>183672.30124212036</v>
       </c>
       <c r="K28" s="21">
         <f t="shared" si="1"/>
-        <v>16780.587839268144</v>
+        <v>16736.747026765814</v>
       </c>
       <c r="L28" s="5" t="s">
         <v>24</v>
@@ -27963,24 +27981,24 @@
         <v>192</v>
       </c>
       <c r="R28" s="64">
-        <v>0.46500000000000002</v>
+        <v>0.45800000000000002</v>
       </c>
       <c r="S28" s="57">
-        <v>17.45</v>
+        <v>17.010000000000002</v>
       </c>
       <c r="T28" s="58">
         <f t="shared" si="5"/>
-        <v>37.526881720430104</v>
+        <v>37.139737991266379</v>
       </c>
       <c r="U28" s="57">
-        <v>1.58</v>
+        <v>1.55</v>
       </c>
       <c r="V28" s="58">
         <f t="shared" si="3"/>
-        <v>3.3978494623655915</v>
+        <v>3.3842794759825328</v>
       </c>
       <c r="W28" s="87">
-        <v>9.0300000000000005E-2</v>
+        <v>9.0899999999999995E-2</v>
       </c>
       <c r="X28" s="61"/>
       <c r="Y28" s="61"/>
@@ -28011,19 +28029,19 @@
       </c>
       <c r="H29" s="21">
         <f>F29*$T$16</f>
-        <v>23.477174107542275</v>
+        <v>23.267191977077363</v>
       </c>
       <c r="I29" s="21">
         <f t="shared" si="6"/>
-        <v>2.1257269392502463</v>
+        <v>2.1201732842133985</v>
       </c>
       <c r="J29" s="21">
         <f t="shared" si="0"/>
-        <v>1172320.4809295877</v>
+        <v>1161835.1324355302</v>
       </c>
       <c r="K29" s="21">
         <f t="shared" si="1"/>
-        <v>106147.06933345264</v>
+        <v>105869.75045708827</v>
       </c>
       <c r="L29" s="5" t="s">
         <v>24</v>
@@ -28042,24 +28060,24 @@
         <v>161017</v>
       </c>
       <c r="R29" s="64">
-        <v>1.64</v>
+        <v>1.6180000000000001</v>
       </c>
       <c r="S29" s="57">
-        <v>17.45</v>
+        <v>17.010000000000002</v>
       </c>
       <c r="T29" s="58">
         <f t="shared" si="5"/>
-        <v>10.640243902439025</v>
+        <v>10.512978986402967</v>
       </c>
       <c r="U29" s="57">
-        <v>1.58</v>
+        <v>1.55</v>
       </c>
       <c r="V29" s="58">
         <f t="shared" si="3"/>
-        <v>0.96341463414634154</v>
+        <v>0.95797280593325085</v>
       </c>
       <c r="W29" s="87">
-        <v>9.0300000000000005E-2</v>
+        <v>9.0899999999999995E-2</v>
       </c>
       <c r="X29" s="61"/>
       <c r="Y29" s="61"/>
@@ -28090,19 +28108,19 @@
       </c>
       <c r="H30" s="21">
         <f>F30*$T$13</f>
-        <v>10.646203630623519</v>
+        <v>10.66959384858044</v>
       </c>
       <c r="I30" s="21">
         <f>F30*$V$13</f>
-        <v>1.2618508287292818</v>
+        <v>1.2608556782334384</v>
       </c>
       <c r="J30" s="21">
         <f t="shared" si="0"/>
-        <v>212924.07261247039</v>
+        <v>213391.87697160881</v>
       </c>
       <c r="K30" s="21">
         <f t="shared" si="1"/>
-        <v>25237.016574585636</v>
+        <v>25217.113564668769</v>
       </c>
       <c r="L30" s="7" t="s">
         <v>10</v>
@@ -28121,24 +28139,24 @@
         <v>193</v>
       </c>
       <c r="R30" s="64">
-        <v>0.74299999999999999</v>
+        <v>0.73160000000000003</v>
       </c>
       <c r="S30" s="57">
-        <v>17.45</v>
+        <v>17.010000000000002</v>
       </c>
       <c r="T30" s="58">
         <f t="shared" si="5"/>
-        <v>23.48586810228802</v>
+        <v>23.250410060142155</v>
       </c>
       <c r="U30" s="57">
-        <v>1.58</v>
+        <v>1.55</v>
       </c>
       <c r="V30" s="58">
         <f t="shared" si="3"/>
-        <v>2.1265141318977121</v>
+        <v>2.1186440677966103</v>
       </c>
       <c r="W30" s="87">
-        <v>9.0300000000000005E-2</v>
+        <v>9.0899999999999995E-2</v>
       </c>
       <c r="X30" s="61"/>
       <c r="Y30" s="61"/>
@@ -28169,19 +28187,19 @@
       </c>
       <c r="H31" s="21">
         <f>F31*$T$17</f>
-        <v>29.636927791610802</v>
+        <v>29.556088923863861</v>
       </c>
       <c r="I31" s="21">
         <f>F31*$V$17</f>
-        <v>2.660486496839686</v>
+        <v>2.6716506000393472</v>
       </c>
       <c r="J31" s="21">
         <f t="shared" si="0"/>
-        <v>593473.55164144794</v>
+        <v>591854.76948258898</v>
       </c>
       <c r="K31" s="21">
         <f t="shared" si="1"/>
-        <v>53275.710001915344</v>
+        <v>53499.268935667918</v>
       </c>
       <c r="L31" s="5" t="s">
         <v>24</v>
@@ -28200,21 +28218,21 @@
         <v>100038</v>
       </c>
       <c r="R31" s="64">
-        <v>1.5720000000000001</v>
+        <v>1.579</v>
       </c>
       <c r="S31" s="57">
-        <v>10.74</v>
+        <v>10.77</v>
       </c>
       <c r="T31" s="58">
         <f t="shared" si="5"/>
-        <v>6.8320610687022896</v>
+        <v>6.8207726409119696</v>
       </c>
       <c r="U31" s="57">
         <v>1.34</v>
       </c>
       <c r="V31" s="58">
         <f t="shared" si="3"/>
-        <v>0.8524173027989822</v>
+        <v>0.84863837872070935</v>
       </c>
       <c r="W31" s="87">
         <v>0.1244</v>
@@ -28248,19 +28266,19 @@
       </c>
       <c r="H32" s="21">
         <f>F32*$T$17</f>
-        <v>29.025857115495114</v>
+        <v>28.94668502852646</v>
       </c>
       <c r="I32" s="21">
         <f>F32*$V$17</f>
-        <v>2.6056311051522698</v>
+        <v>2.6165650206570925</v>
       </c>
       <c r="J32" s="21">
         <f t="shared" si="0"/>
-        <v>291245.74055544916</v>
+        <v>290451.32704308478</v>
       </c>
       <c r="K32" s="21">
         <f t="shared" si="1"/>
-        <v>26144.928565408929</v>
+        <v>26254.639582923472</v>
       </c>
       <c r="L32" s="5" t="s">
         <v>24</v>
@@ -28279,21 +28297,21 @@
         <v>194</v>
       </c>
       <c r="R32" s="64">
-        <v>1.044</v>
+        <v>1.046</v>
       </c>
       <c r="S32" s="57">
-        <v>10.74</v>
+        <v>10.77</v>
       </c>
       <c r="T32" s="58">
         <f t="shared" si="5"/>
-        <v>10.287356321839081</v>
+        <v>10.296367112810707</v>
       </c>
       <c r="U32" s="57">
         <v>1.34</v>
       </c>
       <c r="V32" s="58">
         <f t="shared" si="3"/>
-        <v>1.2835249042145593</v>
+        <v>1.2810707456978967</v>
       </c>
       <c r="W32" s="87">
         <v>0.1244</v>
@@ -28352,21 +28370,21 @@
         <v>113</v>
       </c>
       <c r="R33" s="64">
-        <v>0.62380000000000002</v>
+        <v>0.63580000000000003</v>
       </c>
       <c r="S33" s="57">
-        <v>20.88</v>
+        <v>21.2</v>
       </c>
       <c r="T33" s="58">
         <f t="shared" si="5"/>
-        <v>33.472266752164153</v>
+        <v>33.343818810946836</v>
       </c>
       <c r="U33" s="57">
-        <v>2.41</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="V33" s="58">
         <f t="shared" si="3"/>
-        <v>3.8634177621032384</v>
+        <v>3.853413022963196</v>
       </c>
       <c r="W33" s="87">
         <v>0.11559999999999999</v>
@@ -28400,19 +28418,19 @@
       </c>
       <c r="H34" s="21">
         <f>F34*$T$24</f>
-        <v>25.87987418746069</v>
+        <v>25.802911877394639</v>
       </c>
       <c r="I34" s="21">
         <f>F34*$V$24</f>
-        <v>2.2190983434682323</v>
+        <v>2.2087526607066836</v>
       </c>
       <c r="J34" s="21">
         <f t="shared" si="0"/>
-        <v>103519.49674984276</v>
+        <v>103211.64750957856</v>
       </c>
       <c r="K34" s="21">
         <f t="shared" si="1"/>
-        <v>8876.3933738729284</v>
+        <v>8835.0106428267354</v>
       </c>
       <c r="L34" s="6" t="s">
         <v>16</v>
@@ -28431,30 +28449,30 @@
         <v>195</v>
       </c>
       <c r="R34" s="64">
-        <v>0.85429999999999995</v>
+        <v>0.87139999999999995</v>
       </c>
       <c r="S34" s="57">
-        <v>7.69</v>
+        <v>7.83</v>
       </c>
       <c r="T34" s="58">
         <f t="shared" si="5"/>
-        <v>9.0015217136837187</v>
+        <v>8.9855405095249026</v>
       </c>
       <c r="U34" s="57">
-        <v>1.06</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="V34" s="58">
         <f t="shared" si="3"/>
-        <v>1.2407819267236335</v>
+        <v>1.2508606839568512</v>
       </c>
       <c r="W34" s="87"/>
       <c r="X34" s="75">
         <f>SUMIF(C:C,"=金融地产",J:J)/SUMIF(C:C,"=金融地产",M:M)*-1</f>
-        <v>8.1739818174723951</v>
+        <v>8.1594698186825791</v>
       </c>
       <c r="Y34" s="75">
         <f>SUMIF(C:C,"=金融地产",K:K)/SUMIF(C:C,"=金融地产",M:M)*-1</f>
-        <v>1.1267127082601742</v>
+        <v>1.1358648917450846</v>
       </c>
       <c r="Z34" s="59">
         <f>(SUMIF(C:C,"=金融地产",M:M)*-1)/$Q$2</f>
@@ -28486,19 +28504,19 @@
       </c>
       <c r="H35" s="21">
         <f>F35*$T$23</f>
-        <v>25.904123215145198</v>
+        <v>25.794339622641509</v>
       </c>
       <c r="I35" s="21">
         <f>F35*$V$23</f>
-        <v>2.2211776030803789</v>
+        <v>2.2080188679245283</v>
       </c>
       <c r="J35" s="21">
         <f t="shared" si="0"/>
-        <v>104816.11280667417</v>
+        <v>104371.89435849056</v>
       </c>
       <c r="K35" s="21">
         <f t="shared" si="1"/>
-        <v>8987.5731471201671</v>
+        <v>8934.3288254716972</v>
       </c>
       <c r="L35" s="5" t="s">
         <v>24</v>
@@ -28517,7 +28535,7 @@
         <v>196</v>
       </c>
       <c r="R35" s="65">
-        <v>1.119</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="S35" s="2"/>
       <c r="T35" s="2"/>
@@ -28581,21 +28599,21 @@
         <v>107</v>
       </c>
       <c r="R36" s="64">
-        <v>1.3891</v>
+        <v>1.3987000000000001</v>
       </c>
       <c r="S36" s="57">
         <v>9.42</v>
       </c>
       <c r="T36" s="58">
         <f>S36/R36</f>
-        <v>6.7813692318767549</v>
+        <v>6.734825194823765</v>
       </c>
       <c r="U36" s="57">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="V36" s="58">
         <f>U36/R36</f>
-        <v>0.77748182276294009</v>
+        <v>0.76499606777722173</v>
       </c>
       <c r="W36" s="58"/>
       <c r="X36" s="2"/>
@@ -28628,19 +28646,19 @@
       </c>
       <c r="H37" s="21">
         <f>F37*$T$25</f>
-        <v>31.756398713826361</v>
+        <v>31.587966608914787</v>
       </c>
       <c r="I37" s="21">
         <f>F37*$V$25</f>
-        <v>3.6653697749196139</v>
+        <v>3.6504961411245866</v>
       </c>
       <c r="J37" s="21">
         <f t="shared" si="0"/>
-        <v>204323.52740064304</v>
+        <v>203239.82007875256</v>
       </c>
       <c r="K37" s="21">
         <f t="shared" si="1"/>
-        <v>23583.319015112538</v>
+        <v>23487.620716648293</v>
       </c>
       <c r="L37" s="5" t="s">
         <v>24</v>
@@ -28659,7 +28677,7 @@
         <v>197</v>
       </c>
       <c r="R37" s="64">
-        <v>1.0031000000000001</v>
+        <v>1.0061</v>
       </c>
       <c r="S37" s="2"/>
       <c r="T37" s="2"/>
@@ -28697,19 +28715,19 @@
       </c>
       <c r="H38" s="21">
         <f>F38*$T$23</f>
-        <v>26.451596342050379</v>
+        <v>26.339492517891998</v>
       </c>
       <c r="I38" s="21">
         <f>F38*$V$23</f>
-        <v>2.2681212899085512</v>
+        <v>2.2546844502277166</v>
       </c>
       <c r="J38" s="21">
         <f t="shared" si="0"/>
-        <v>507607.19186780049</v>
+        <v>505455.91499804816</v>
       </c>
       <c r="K38" s="21">
         <f t="shared" si="1"/>
-        <v>43525.338278196694</v>
+        <v>43267.484787247893</v>
       </c>
       <c r="L38" s="5" t="s">
         <v>24</v>
@@ -28728,7 +28746,7 @@
         <v>198</v>
       </c>
       <c r="R38" s="64">
-        <v>1.4279999999999999</v>
+        <v>1.429</v>
       </c>
       <c r="S38" s="2"/>
       <c r="T38" s="2"/>
@@ -28791,7 +28809,7 @@
         <v>340001</v>
       </c>
       <c r="R39" s="64">
-        <v>3.6032999999999999</v>
+        <v>3.6027</v>
       </c>
       <c r="S39" s="2"/>
       <c r="T39" s="2"/>
@@ -28829,19 +28847,19 @@
       </c>
       <c r="H40" s="21">
         <f>F40*$T$22</f>
-        <v>23.900428503412162</v>
+        <v>23.826583657587548</v>
       </c>
       <c r="I40" s="21">
         <f>F40*$V$22</f>
-        <v>1.4814315188065388</v>
+        <v>1.4805136186770431</v>
       </c>
       <c r="J40" s="21">
         <f t="shared" si="0"/>
-        <v>306024.91062624985</v>
+        <v>305079.38940513617</v>
       </c>
       <c r="K40" s="21">
         <f t="shared" si="1"/>
-        <v>18968.486195841931</v>
+        <v>18956.73325571985</v>
       </c>
       <c r="L40" s="5" t="s">
         <v>24</v>
@@ -28860,7 +28878,7 @@
         <v>518880</v>
       </c>
       <c r="R40" s="64">
-        <v>1.0301</v>
+        <v>1.0291999999999999</v>
       </c>
       <c r="S40" s="2"/>
       <c r="T40" s="2"/>
@@ -28898,19 +28916,19 @@
       </c>
       <c r="H41" s="21">
         <f>F41*$T$25</f>
-        <v>31.756398713826361</v>
+        <v>31.587966608914787</v>
       </c>
       <c r="I41" s="21">
         <f>F41*$V$25</f>
-        <v>3.6653697749196139</v>
+        <v>3.6504961411245866</v>
       </c>
       <c r="J41" s="21">
         <f t="shared" si="0"/>
-        <v>204323.52740064304</v>
+        <v>203239.82007875256</v>
       </c>
       <c r="K41" s="21">
         <f t="shared" si="1"/>
-        <v>23583.319015112538</v>
+        <v>23487.620716648293</v>
       </c>
       <c r="L41" s="5" t="s">
         <v>24</v>
@@ -28963,19 +28981,19 @@
       </c>
       <c r="H42" s="21">
         <f>F42*$T$16</f>
-        <v>23.434239957054665</v>
+        <v>23.224641833810889</v>
       </c>
       <c r="I42" s="21">
         <f>F42*$V$16</f>
-        <v>2.1218394918135459</v>
+        <v>2.1162959930868239</v>
       </c>
       <c r="J42" s="21">
         <f t="shared" si="0"/>
-        <v>154800.02756911513</v>
+        <v>153415.48105444128</v>
       </c>
       <c r="K42" s="21">
         <f t="shared" si="1"/>
-        <v>14016.277567862577</v>
+        <v>13979.658767453495</v>
       </c>
       <c r="L42" s="5" t="s">
         <v>24</v>
@@ -29079,19 +29097,19 @@
       </c>
       <c r="H44" s="21">
         <f>F44*$T$16</f>
-        <v>23.059541916435538</v>
+        <v>22.853295128939831</v>
       </c>
       <c r="I44" s="21">
         <f>F44*$V$16</f>
-        <v>2.0879126778205248</v>
+        <v>2.0824578159821714</v>
       </c>
       <c r="J44" s="21">
         <f t="shared" si="0"/>
-        <v>149889.32841102264</v>
+        <v>148548.7036676218</v>
       </c>
       <c r="K44" s="21">
         <f t="shared" si="1"/>
-        <v>13571.641197101195</v>
+        <v>13536.184049665713</v>
       </c>
       <c r="L44" s="5" t="s">
         <v>24</v>
@@ -29138,19 +29156,19 @@
       </c>
       <c r="H45" s="21">
         <f>F45*$T$34</f>
-        <v>8.4974364977174304</v>
+        <v>8.4823502409915079</v>
       </c>
       <c r="I45" s="21">
         <f>F45*$V$34</f>
-        <v>1.17129813882711</v>
+        <v>1.1808124856552675</v>
       </c>
       <c r="J45" s="21">
         <f t="shared" si="0"/>
-        <v>54383.593585391558</v>
+        <v>54287.041542345651</v>
       </c>
       <c r="K45" s="21">
         <f t="shared" si="1"/>
-        <v>7496.3080884935043</v>
+        <v>7557.199908193712</v>
       </c>
       <c r="L45" s="7" t="s">
         <v>10</v>
@@ -29205,19 +29223,19 @@
       </c>
       <c r="H46" s="21">
         <f>F46*$T$16</f>
-        <v>22.641909725328802</v>
+        <v>22.439398280802294</v>
       </c>
       <c r="I46" s="21">
         <f>F46*$V$16</f>
-        <v>2.0500984163908029</v>
+        <v>2.0447423477509434</v>
       </c>
       <c r="J46" s="21">
         <f t="shared" si="0"/>
-        <v>433527.58895913488</v>
+        <v>429650.07600429805</v>
       </c>
       <c r="K46" s="21">
         <f t="shared" si="1"/>
-        <v>39253.500891428834</v>
+        <v>39150.947548892524</v>
       </c>
       <c r="L46" s="5" t="s">
         <v>24</v>
@@ -29275,19 +29293,19 @@
       </c>
       <c r="H47" s="21">
         <f>F47*$T$15</f>
-        <v>12.27130222054949</v>
+        <v>12.273245120120119</v>
       </c>
       <c r="I47" s="21">
         <f>F47*$V$15</f>
-        <v>1.5310563291933257</v>
+        <v>1.5270332832832834</v>
       </c>
       <c r="J47" s="21">
         <f t="shared" si="0"/>
-        <v>80483.912586940147</v>
+        <v>80496.655501783025</v>
       </c>
       <c r="K47" s="21">
         <f t="shared" si="1"/>
-        <v>10041.754456843557</v>
+        <v>10015.368465402904</v>
       </c>
       <c r="L47" s="5" t="s">
         <v>24</v>
@@ -29345,19 +29363,19 @@
       </c>
       <c r="H48" s="21">
         <f>F48*$T$16</f>
-        <v>21.564652858548808</v>
+        <v>21.371776504297998</v>
       </c>
       <c r="I48" s="21">
         <f t="shared" ref="I48:I49" si="7">F48*$V$16</f>
-        <v>1.9525588261608664</v>
+        <v>1.9474575885750671</v>
       </c>
       <c r="J48" s="21">
         <f t="shared" si="0"/>
-        <v>274087.60041826969</v>
+        <v>271636.13424068777</v>
       </c>
       <c r="K48" s="21">
         <f t="shared" si="1"/>
-        <v>24817.100782857658</v>
+        <v>24752.263849092647</v>
       </c>
       <c r="L48" s="5" t="s">
         <v>24</v>
@@ -29415,19 +29433,19 @@
       </c>
       <c r="H49" s="21">
         <f>F49*$T$16</f>
-        <v>21.127505144493156</v>
+        <v>20.938538681948426</v>
       </c>
       <c r="I49" s="21">
         <f t="shared" si="7"/>
-        <v>1.9129775431690081</v>
+        <v>1.9079797152863054</v>
       </c>
       <c r="J49" s="21">
         <f t="shared" si="0"/>
-        <v>137263.28817325758</v>
+        <v>136035.59196275071</v>
       </c>
       <c r="K49" s="21">
         <f t="shared" si="1"/>
-        <v>12428.423800214729</v>
+        <v>12395.953412243596</v>
       </c>
       <c r="L49" s="5" t="s">
         <v>24</v>
@@ -29549,19 +29567,19 @@
       </c>
       <c r="H51" s="21">
         <f>F51*$T$22</f>
-        <v>20.67427392477385</v>
+        <v>20.610396887159535</v>
       </c>
       <c r="I51" s="21">
         <f>F51*$V$22</f>
-        <v>1.281463259800032</v>
+        <v>1.2806692607003893</v>
       </c>
       <c r="J51" s="21">
         <f t="shared" si="0"/>
-        <v>131984.15125027776</v>
+        <v>131576.36151968871</v>
       </c>
       <c r="K51" s="21">
         <f t="shared" si="1"/>
-        <v>8180.8358212982075</v>
+        <v>8175.7669469260709</v>
       </c>
       <c r="L51" s="5" t="s">
         <v>24</v>
@@ -29619,19 +29637,19 @@
       </c>
       <c r="H52" s="21">
         <f>F52*$T$18</f>
-        <v>34.777809436017769</v>
+        <v>34.459459006783355</v>
       </c>
       <c r="I52" s="21">
         <f>F52*$V$18</f>
-        <v>4.0965725299589373</v>
+        <v>4.093827987605728</v>
       </c>
       <c r="J52" s="21">
         <f t="shared" si="0"/>
-        <v>224681.69008329842</v>
+        <v>222624.99031873379</v>
       </c>
       <c r="K52" s="21">
         <f t="shared" si="1"/>
-        <v>26465.865864074414</v>
+        <v>26448.134775646929</v>
       </c>
       <c r="L52" s="5" t="s">
         <v>24</v>
@@ -29689,19 +29707,19 @@
       </c>
       <c r="H53" s="21">
         <f>F53*$T$15</f>
-        <v>11.614452389913435</v>
+        <v>11.61629129129129</v>
       </c>
       <c r="I53" s="21">
         <f>F53*$V$15</f>
-        <v>1.449102998369088</v>
+        <v>1.4452952952952953</v>
       </c>
       <c r="J53" s="21">
         <f t="shared" si="0"/>
-        <v>72098.339233722232</v>
+        <v>72109.754471471475</v>
       </c>
       <c r="K53" s="21">
         <f t="shared" si="1"/>
-        <v>8995.5097367958861</v>
+        <v>8971.8728868868875</v>
       </c>
       <c r="L53" s="5" t="s">
         <v>24</v>
@@ -29759,19 +29777,19 @@
       </c>
       <c r="H54" s="21">
         <f>F54*$T$23</f>
-        <v>22.014182576608377</v>
+        <v>21.920884840598568</v>
       </c>
       <c r="I54" s="21">
         <f>F54*$V$23</f>
-        <v>1.8876303545644153</v>
+        <v>1.8764476252439819</v>
       </c>
       <c r="J54" s="21">
         <f t="shared" si="0"/>
-        <v>141306.39625733998</v>
+        <v>140707.52928562133</v>
       </c>
       <c r="K54" s="21">
         <f t="shared" si="1"/>
-        <v>12116.472730306434</v>
+        <v>12044.692132726092</v>
       </c>
       <c r="L54" s="5" t="s">
         <v>24</v>
@@ -29829,19 +29847,19 @@
       </c>
       <c r="H55" s="21">
         <f>F55*$T$34</f>
-        <v>7.6512934566311603</v>
+        <v>7.637709433096167</v>
       </c>
       <c r="I55" s="21">
         <f>F55*$V$34</f>
-        <v>1.0546646377150886</v>
+        <v>1.0632315813633235</v>
       </c>
       <c r="J55" s="21">
         <f t="shared" ref="J55" si="11">H55*(-$M55)</f>
-        <v>48968.278122439428</v>
+        <v>48881.340371815466</v>
       </c>
       <c r="K55" s="21">
         <f t="shared" ref="K55" si="12">I55*(-$M55)</f>
-        <v>6749.8536813765668</v>
+        <v>6804.6821207252706</v>
       </c>
       <c r="L55" s="7" t="s">
         <v>10</v>
@@ -29899,19 +29917,19 @@
       </c>
       <c r="H56" s="21">
         <f>F56*$T$13</f>
-        <v>10.34904498816101</v>
+        <v>10.371782334384859</v>
       </c>
       <c r="I56" s="21">
         <f>F56*$V$13</f>
-        <v>1.2266298342541437</v>
+        <v>1.2256624605678232</v>
       </c>
       <c r="J56" s="21">
         <f t="shared" si="0"/>
-        <v>66233.887924230468</v>
+        <v>66379.406940063098</v>
       </c>
       <c r="K56" s="21">
         <f t="shared" si="1"/>
-        <v>7850.4309392265195</v>
+        <v>7844.2397476340684</v>
       </c>
       <c r="L56" s="7" t="s">
         <v>10</v>
@@ -29962,19 +29980,19 @@
       </c>
       <c r="H57" s="21">
         <f>F57*$T$21</f>
-        <v>24.848176680181844</v>
+        <v>24.787999008182496</v>
       </c>
       <c r="I57" s="21">
         <f>E57*$V$21</f>
-        <v>3.1566887824057011</v>
+        <v>3.1604698735432679</v>
       </c>
       <c r="J57" s="21">
         <f t="shared" si="0"/>
-        <v>159028.33075316381</v>
+        <v>158643.19365236798</v>
       </c>
       <c r="K57" s="21">
         <f t="shared" si="1"/>
-        <v>20202.808207396487</v>
+        <v>20227.007190676915</v>
       </c>
       <c r="L57" s="7" t="s">
         <v>10</v>
@@ -30026,19 +30044,19 @@
       </c>
       <c r="H58" s="21">
         <f>F58*$T$13</f>
-        <v>10.277726913970007</v>
+        <v>10.300307570977917</v>
       </c>
       <c r="I58" s="21">
         <f>F58*$V$13</f>
-        <v>1.2181767955801104</v>
+        <v>1.2172160883280756</v>
       </c>
       <c r="J58" s="21">
         <f t="shared" si="0"/>
-        <v>65777.452249408045</v>
+        <v>65921.968454258677</v>
       </c>
       <c r="K58" s="21">
         <f t="shared" si="1"/>
-        <v>7796.3314917127063</v>
+        <v>7790.1829652996839</v>
       </c>
       <c r="L58" s="7" t="s">
         <v>10</v>
@@ -30118,19 +30136,19 @@
       </c>
       <c r="H60" s="21">
         <f>F60*$T$14</f>
-        <v>9.2186363636363637</v>
+        <v>9.1695756605284231</v>
       </c>
       <c r="I60" s="21">
         <f>F60*$V$14</f>
-        <v>1.1523295454545455</v>
+        <v>1.1461969575660529</v>
       </c>
       <c r="J60" s="21">
         <f t="shared" si="0"/>
-        <v>59400.19122272727</v>
+        <v>59084.069072858285</v>
       </c>
       <c r="K60" s="21">
         <f t="shared" si="1"/>
-        <v>7425.0239028409087</v>
+        <v>7385.5086341072856</v>
       </c>
       <c r="L60" s="5" t="s">
         <v>24</v>
@@ -30210,19 +30228,19 @@
       </c>
       <c r="H62" s="21">
         <f>F62*$T$25</f>
-        <v>27.459549839228291</v>
+        <v>27.313907702000311</v>
       </c>
       <c r="I62" s="21">
         <f>F62*$V$25</f>
-        <v>3.1694212218649516</v>
+        <v>3.1565600882028666</v>
       </c>
       <c r="J62" s="21">
         <f t="shared" si="0"/>
-        <v>175238.06001800642</v>
+        <v>174308.61850370135</v>
       </c>
       <c r="K62" s="21">
         <f t="shared" si="1"/>
-        <v>20226.232023151126</v>
+        <v>20144.156383682472</v>
       </c>
       <c r="L62" s="5" t="s">
         <v>24</v>
@@ -30303,19 +30321,19 @@
       </c>
       <c r="H64" s="21">
         <f>F64*$T$17</f>
-        <v>24.901130051714233</v>
+        <v>24.833208734999015</v>
       </c>
       <c r="I64" s="21">
         <f>F64*$V$17</f>
-        <v>2.2353572112622104</v>
+        <v>2.2447373598268743</v>
       </c>
       <c r="J64" s="21">
         <f t="shared" si="0"/>
-        <v>81193.869703122022</v>
+        <v>80972.402061774541</v>
       </c>
       <c r="K64" s="21">
         <f t="shared" si="1"/>
-        <v>7288.7174909021269</v>
+        <v>7319.3028723194975</v>
       </c>
       <c r="L64" s="5" t="s">
         <v>24</v>
@@ -30353,19 +30371,19 @@
       </c>
       <c r="H65" s="21">
         <f>F65*$T$16</f>
-        <v>21.158729981211419</v>
+        <v>20.969484240687681</v>
       </c>
       <c r="I65" s="21">
         <f>F65*$V$16</f>
-        <v>1.9158047776684266</v>
+        <v>1.9107995633783599</v>
       </c>
       <c r="J65" s="21">
         <f t="shared" si="0"/>
-        <v>137669.27662275211</v>
+        <v>136437.94921203441</v>
       </c>
       <c r="K65" s="21">
         <f t="shared" si="1"/>
-        <v>12465.183785899617</v>
+        <v>12432.617359121299</v>
       </c>
       <c r="L65" s="5" t="s">
         <v>24</v>
@@ -30404,19 +30422,19 @@
       </c>
       <c r="H66" s="21">
         <f>F66*$T$17</f>
-        <v>23.640796782225628</v>
+        <v>23.576313200865631</v>
       </c>
       <c r="I66" s="21">
         <f>F66*$V$17</f>
-        <v>2.1222179659069145</v>
+        <v>2.1311233523509738</v>
       </c>
       <c r="J66" s="21">
         <f t="shared" si="0"/>
-        <v>76110.126792568481</v>
+        <v>75902.525771394852</v>
       </c>
       <c r="K66" s="21">
         <f t="shared" si="1"/>
-        <v>6832.3534081593571</v>
+        <v>6861.0237654928196</v>
       </c>
       <c r="L66" s="5" t="s">
         <v>24</v>
@@ -30456,19 +30474,19 @@
       </c>
       <c r="H67" s="21">
         <f>F67*$T$16</f>
-        <v>20.07757000984164</v>
+        <v>19.897994269340977</v>
       </c>
       <c r="I67" s="21">
         <f>F67*$V$16</f>
-        <v>1.8179117831260627</v>
+        <v>1.8131623231909764</v>
       </c>
       <c r="J67" s="21">
         <f t="shared" ref="J67:J82" si="15">H67*(-$M67)</f>
-        <v>123959.51956786258</v>
+        <v>122850.81355873926</v>
       </c>
       <c r="K67" s="21">
         <f t="shared" ref="K67:K82" si="16">I67*(-$M67)</f>
-        <v>11223.841886373804</v>
+        <v>11194.518578250783</v>
       </c>
       <c r="L67" s="5" t="s">
         <v>24</v>
@@ -30482,7 +30500,7 @@
       <c r="O67" s="4"/>
       <c r="P67" s="15"/>
       <c r="Q67" s="15"/>
-      <c r="R67" s="15"/>
+      <c r="R67" s="99"/>
     </row>
     <row r="68" spans="1:18">
       <c r="A68" s="3">
@@ -30508,19 +30526,19 @@
       </c>
       <c r="H68" s="21">
         <f>F68*$T$15</f>
-        <v>11.237184794881445</v>
+        <v>11.238963963963963</v>
       </c>
       <c r="I68" s="21">
         <f>F68*$V$15</f>
-        <v>1.4020323673315769</v>
+        <v>1.3983483483483483</v>
       </c>
       <c r="J68" s="21">
         <f t="shared" si="15"/>
-        <v>71240.043328566055</v>
+        <v>71251.322673423419</v>
       </c>
       <c r="K68" s="21">
         <f t="shared" si="16"/>
-        <v>8888.4225382009772</v>
+        <v>8865.067073573573</v>
       </c>
       <c r="L68" s="5" t="s">
         <v>24</v>
@@ -30534,7 +30552,7 @@
       <c r="O68" s="4"/>
       <c r="P68" s="15"/>
       <c r="Q68" s="15"/>
-      <c r="R68" s="15"/>
+      <c r="R68" s="99"/>
     </row>
     <row r="69" spans="1:18">
       <c r="A69" s="3">
@@ -30560,19 +30578,19 @@
       </c>
       <c r="H69" s="21">
         <f>F69*$T$19</f>
-        <v>29.166427030913013</v>
+        <v>29.157537194722558</v>
       </c>
       <c r="I69" s="21">
         <f>F69*$V$19</f>
-        <v>3.5723220704529117</v>
+        <v>3.5784785253111258</v>
       </c>
       <c r="J69" s="21">
         <f t="shared" si="15"/>
-        <v>187163.29557153129</v>
+        <v>187106.24878151022</v>
       </c>
       <c r="K69" s="21">
         <f t="shared" si="16"/>
-        <v>22923.87651186197</v>
+        <v>22963.38297520352</v>
       </c>
       <c r="L69" s="5" t="s">
         <v>24</v>
@@ -30586,7 +30604,7 @@
       <c r="O69" s="4"/>
       <c r="P69" s="15"/>
       <c r="Q69" s="15"/>
-      <c r="R69" s="15"/>
+      <c r="R69" s="99"/>
     </row>
     <row r="70" spans="1:18">
       <c r="A70" s="3">
@@ -30632,7 +30650,7 @@
       <c r="O70" s="4"/>
       <c r="P70" s="15"/>
       <c r="Q70" s="15"/>
-      <c r="R70" s="15"/>
+      <c r="R70" s="99"/>
     </row>
     <row r="71" spans="1:18">
       <c r="A71" s="3">
@@ -30658,19 +30676,19 @@
       </c>
       <c r="H71" s="21">
         <f>F71*$T$13</f>
-        <v>10.269802683504341</v>
+        <v>10.292365930599368</v>
       </c>
       <c r="I71" s="21">
         <f>F71*$V$13</f>
-        <v>1.2172375690607735</v>
+        <v>1.2162776025236592</v>
       </c>
       <c r="J71" s="21">
         <f t="shared" si="15"/>
-        <v>65726.737174427792</v>
+        <v>65871.141955835963</v>
       </c>
       <c r="K71" s="21">
         <f t="shared" si="16"/>
-        <v>7790.3204419889507</v>
+        <v>7784.1766561514196</v>
       </c>
       <c r="L71" s="7" t="s">
         <v>10</v>
@@ -30684,7 +30702,7 @@
       <c r="O71" s="4"/>
       <c r="P71" s="15"/>
       <c r="Q71" s="15"/>
-      <c r="R71" s="15"/>
+      <c r="R71" s="99"/>
     </row>
     <row r="72" spans="1:18">
       <c r="A72" s="3">
@@ -30730,7 +30748,7 @@
       <c r="O72" s="4"/>
       <c r="P72" s="15"/>
       <c r="Q72" s="15"/>
-      <c r="R72" s="15"/>
+      <c r="R72" s="99"/>
     </row>
     <row r="73" spans="1:18">
       <c r="A73" s="3">
@@ -30756,19 +30774,19 @@
       </c>
       <c r="H73" s="21">
         <f>F73*$T$21</f>
-        <v>22.310416513085148</v>
+        <v>22.256384825192164</v>
       </c>
       <c r="I73" s="21">
         <f>E73*$V$21</f>
-        <v>2.8342941393291561</v>
+        <v>2.8376890652120008</v>
       </c>
       <c r="J73" s="21">
         <f t="shared" si="15"/>
-        <v>142786.66568374494</v>
+        <v>142440.86288122984</v>
       </c>
       <c r="K73" s="21">
         <f t="shared" si="16"/>
-        <v>18139.4824917066</v>
+        <v>18161.210017356807</v>
       </c>
       <c r="L73" s="7" t="s">
         <v>10</v>
@@ -30782,7 +30800,7 @@
       <c r="O73" s="4"/>
       <c r="P73" s="15"/>
       <c r="Q73" s="15"/>
-      <c r="R73" s="15"/>
+      <c r="R73" s="99"/>
     </row>
     <row r="74" spans="1:18">
       <c r="A74" s="3">
@@ -30808,19 +30826,19 @@
       </c>
       <c r="H74" s="21">
         <f>F74*$T$20</f>
-        <v>29.006905481225719</v>
+        <v>28.887860020892401</v>
       </c>
       <c r="I74" s="21">
         <f>F74*$V$20</f>
-        <v>3.5527837721191191</v>
+        <v>3.5453812863751679</v>
       </c>
       <c r="J74" s="21">
         <f t="shared" si="15"/>
-        <v>185644.19507984459</v>
+        <v>184882.30413371135</v>
       </c>
       <c r="K74" s="21">
         <f t="shared" si="16"/>
-        <v>22737.816141562362</v>
+        <v>22690.440232801076</v>
       </c>
       <c r="L74" s="7" t="s">
         <v>10</v>
@@ -30834,7 +30852,7 @@
       <c r="O74" s="4"/>
       <c r="P74" s="15"/>
       <c r="Q74" s="15"/>
-      <c r="R74" s="15"/>
+      <c r="R74" s="99"/>
     </row>
     <row r="75" spans="1:18">
       <c r="A75" s="3">
@@ -30860,19 +30878,19 @@
       </c>
       <c r="H75" s="21">
         <f>F75*$T$21</f>
-        <v>24.848176680181844</v>
+        <v>24.787999008182496</v>
       </c>
       <c r="I75" s="21">
         <f>E75*$V$21</f>
-        <v>2.8317680304705739</v>
+        <v>2.8351599305727744</v>
       </c>
       <c r="J75" s="21">
         <f t="shared" si="15"/>
-        <v>159028.33075316381</v>
+        <v>158643.19365236798</v>
       </c>
       <c r="K75" s="21">
         <f t="shared" si="16"/>
-        <v>18123.315395011672</v>
+        <v>18145.023555665757</v>
       </c>
       <c r="L75" s="7" t="s">
         <v>10</v>
@@ -30886,7 +30904,7 @@
       <c r="O75" s="4"/>
       <c r="P75" s="15"/>
       <c r="Q75" s="15"/>
-      <c r="R75" s="15"/>
+      <c r="R75" s="99"/>
     </row>
     <row r="76" spans="1:18">
       <c r="A76" s="3">
@@ -30912,19 +30930,19 @@
       </c>
       <c r="H76" s="21">
         <f>F76*$T$25</f>
-        <v>24.572604501607714</v>
+        <v>24.442274373917151</v>
       </c>
       <c r="I76" s="21">
         <f>F76*$V$25</f>
-        <v>2.8362057877813505</v>
+        <v>2.8246968026460859</v>
       </c>
       <c r="J76" s="21">
         <f t="shared" si="15"/>
-        <v>156519.38171575562</v>
+        <v>155689.22181130885</v>
       </c>
       <c r="K76" s="21">
         <f t="shared" si="16"/>
-        <v>18065.694920257236</v>
+        <v>17992.386482910693</v>
       </c>
       <c r="L76" s="5" t="s">
         <v>24</v>
@@ -30938,7 +30956,7 @@
       <c r="O76" s="4"/>
       <c r="P76" s="15"/>
       <c r="Q76" s="15"/>
-      <c r="R76" s="15"/>
+      <c r="R76" s="99"/>
     </row>
     <row r="77" spans="1:18">
       <c r="A77" s="3">
@@ -30964,19 +30982,19 @@
       </c>
       <c r="H77" s="21">
         <f>F77*$T$16</f>
-        <v>20.097085532790551</v>
+        <v>19.917335243553008</v>
       </c>
       <c r="I77" s="21">
         <f t="shared" ref="I77:I79" si="17">F77*$V$16</f>
-        <v>1.8196788046881993</v>
+        <v>1.8149247282485104</v>
       </c>
       <c r="J77" s="21">
         <f t="shared" si="15"/>
-        <v>124200.79247606691</v>
+        <v>123089.92849856733</v>
       </c>
       <c r="K77" s="21">
         <f t="shared" si="16"/>
-        <v>11245.687800125259</v>
+        <v>11216.307417564924</v>
       </c>
       <c r="L77" s="5" t="s">
         <v>24</v>
@@ -30990,7 +31008,7 @@
       <c r="O77" s="4"/>
       <c r="P77" s="15"/>
       <c r="Q77" s="15"/>
-      <c r="R77" s="15"/>
+      <c r="R77" s="99"/>
     </row>
     <row r="78" spans="1:18">
       <c r="A78" s="3">
@@ -31016,19 +31034,19 @@
       </c>
       <c r="H78" s="21">
         <f>F78*$T$16</f>
-        <v>20.030732754764248</v>
+        <v>19.851575931232091</v>
       </c>
       <c r="I78" s="21">
         <f t="shared" si="17"/>
-        <v>1.813670931376935</v>
+        <v>1.8089325510528946</v>
       </c>
       <c r="J78" s="21">
         <f t="shared" si="15"/>
-        <v>10281.775123020487</v>
+        <v>10189.813925501432</v>
       </c>
       <c r="K78" s="21">
         <f t="shared" si="16"/>
-        <v>930.95728907578064</v>
+        <v>928.52507845545074</v>
       </c>
       <c r="L78" s="5" t="s">
         <v>24</v>
@@ -31042,7 +31060,7 @@
       <c r="O78" s="4"/>
       <c r="P78" s="15"/>
       <c r="Q78" s="15"/>
-      <c r="R78" s="15"/>
+      <c r="R78" s="99"/>
     </row>
     <row r="79" spans="1:18">
       <c r="A79" s="3">
@@ -31068,19 +31086,19 @@
       </c>
       <c r="H79" s="21">
         <f>F79*$T$16</f>
-        <v>19.792643374787509</v>
+        <v>19.615616045845272</v>
       </c>
       <c r="I79" s="21">
         <f t="shared" si="17"/>
-        <v>1.7921132683188694</v>
+        <v>1.7874312093509799</v>
       </c>
       <c r="J79" s="21">
         <f t="shared" si="15"/>
-        <v>130505.16920886641</v>
+        <v>129337.9182722063</v>
       </c>
       <c r="K79" s="21">
         <f t="shared" si="16"/>
-        <v>11816.513888252664</v>
+        <v>11785.642170600808</v>
       </c>
       <c r="L79" s="5" t="s">
         <v>24</v>
@@ -31094,7 +31112,7 @@
       <c r="O79" s="4"/>
       <c r="P79" s="15"/>
       <c r="Q79" s="15"/>
-      <c r="R79" s="15"/>
+      <c r="R79" s="99"/>
     </row>
     <row r="80" spans="1:18">
       <c r="A80" s="3">
@@ -31120,19 +31138,19 @@
       </c>
       <c r="H80" s="21">
         <f>F80*$T$15</f>
-        <v>11.307922468949943</v>
+        <v>11.309712837837838</v>
       </c>
       <c r="I80" s="21">
         <f>F80*$V$15</f>
-        <v>1.4108581106511104</v>
+        <v>1.4071509009009011</v>
       </c>
       <c r="J80" s="21">
         <f t="shared" si="15"/>
-        <v>72139.796024463678</v>
+        <v>72151.217826013512</v>
       </c>
       <c r="K80" s="21">
         <f t="shared" si="16"/>
-        <v>9000.6821855476119</v>
+        <v>8977.0317443693712</v>
       </c>
       <c r="L80" s="5" t="s">
         <v>24</v>
@@ -31146,7 +31164,7 @@
       <c r="O80" s="4"/>
       <c r="P80" s="15"/>
       <c r="Q80" s="15"/>
-      <c r="R80" s="15"/>
+      <c r="R80" s="99"/>
     </row>
     <row r="81" spans="1:18">
       <c r="A81" s="3">
@@ -31172,19 +31190,19 @@
       </c>
       <c r="H81" s="21">
         <f>F81*$T$17</f>
-        <v>22.34227159547979</v>
+        <v>22.281329923273656</v>
       </c>
       <c r="I81" s="21">
         <f>F81*$V$17</f>
-        <v>2.0056502585711549</v>
+        <v>2.0140664961636827</v>
       </c>
       <c r="J81" s="21">
         <f t="shared" si="15"/>
-        <v>70593.311601225811</v>
+        <v>70400.758465473147</v>
       </c>
       <c r="K81" s="21">
         <f t="shared" si="16"/>
-        <v>6337.1127264891784</v>
+        <v>6363.7049232736572</v>
       </c>
       <c r="L81" s="5" t="s">
         <v>24</v>
@@ -31198,7 +31216,7 @@
       <c r="O81" s="4"/>
       <c r="P81" s="15"/>
       <c r="Q81" s="15"/>
-      <c r="R81" s="15"/>
+      <c r="R81" s="99"/>
     </row>
     <row r="82" spans="1:18">
       <c r="A82" s="3">
@@ -31224,19 +31242,19 @@
       </c>
       <c r="H82" s="21">
         <f>F82*$T$16</f>
-        <v>19.41794533416838</v>
+        <v>19.244269340974213</v>
       </c>
       <c r="I82" s="21">
         <f>F82*$V$16</f>
-        <v>1.7581864543258479</v>
+        <v>1.7535930322463271</v>
       </c>
       <c r="J82" s="21">
         <f t="shared" si="15"/>
-        <v>125610.61059821508</v>
+        <v>124487.13707020058</v>
       </c>
       <c r="K82" s="21">
         <f t="shared" si="16"/>
-        <v>11373.338953878501</v>
+        <v>11343.625071064718</v>
       </c>
       <c r="L82" s="5" t="s">
         <v>24</v>
@@ -31250,7 +31268,7 @@
       <c r="O82" s="4"/>
       <c r="P82" s="15"/>
       <c r="Q82" s="15"/>
-      <c r="R82" s="15"/>
+      <c r="R82" s="99"/>
     </row>
     <row r="83" spans="1:18">
       <c r="A83" s="3">
@@ -31276,19 +31294,19 @@
       </c>
       <c r="H83" s="21">
         <f>F83*$T$31</f>
-        <v>11.703320610687022</v>
+        <v>11.683983533882204</v>
       </c>
       <c r="I83" s="21">
         <f>F83*$V$31</f>
-        <v>1.4601908396946566</v>
+        <v>1.4537175427485751</v>
       </c>
       <c r="J83" s="21">
         <f>H83*(-$M83)</f>
-        <v>74901.251908396938</v>
+        <v>74777.494616846103</v>
       </c>
       <c r="K83" s="21">
         <f t="shared" ref="K83:K86" si="18">I83*(-$M83)</f>
-        <v>9345.2213740458028</v>
+        <v>9303.7922735908815</v>
       </c>
       <c r="L83" s="7" t="s">
         <v>10</v>
@@ -31302,7 +31320,7 @@
       <c r="O83" s="4"/>
       <c r="P83" s="15"/>
       <c r="Q83" s="15"/>
-      <c r="R83" s="15"/>
+      <c r="R83" s="99"/>
     </row>
     <row r="84" spans="1:18">
       <c r="A84" s="3">
@@ -31348,7 +31366,7 @@
       <c r="O84" s="4"/>
       <c r="P84" s="15"/>
       <c r="Q84" s="15"/>
-      <c r="R84" s="15"/>
+      <c r="R84" s="99"/>
     </row>
     <row r="85" spans="1:18">
       <c r="A85" s="3">
@@ -31374,19 +31392,19 @@
       </c>
       <c r="H85" s="21">
         <f>F85*$T$21</f>
-        <v>22.65093869025679</v>
+        <v>22.596082320852961</v>
       </c>
       <c r="I85" s="21">
         <f>E85*$V$21</f>
-        <v>2.877553753532375</v>
+        <v>2.8810004959087525</v>
       </c>
       <c r="J85" s="21">
         <f t="shared" si="19"/>
-        <v>144966.00761764345</v>
+        <v>144614.92685345895</v>
       </c>
       <c r="K85" s="21">
         <f t="shared" si="18"/>
-        <v>18416.344022607198</v>
+        <v>18438.403173816016</v>
       </c>
       <c r="L85" s="7" t="s">
         <v>10</v>
@@ -31400,7 +31418,7 @@
       <c r="O85" s="4"/>
       <c r="P85" s="15"/>
       <c r="Q85" s="15"/>
-      <c r="R85" s="15"/>
+      <c r="R85" s="99"/>
     </row>
     <row r="86" spans="1:18">
       <c r="A86" s="3">
@@ -31426,19 +31444,19 @@
       </c>
       <c r="H86" s="21">
         <f>F86*$T$34</f>
-        <v>8.3732154980685962</v>
+        <v>8.3583497819600652</v>
       </c>
       <c r="I86" s="21">
         <f>F86*$V$34</f>
-        <v>1.1541753482383239</v>
+        <v>1.1635506082166631</v>
       </c>
       <c r="J86" s="21">
         <f t="shared" si="19"/>
-        <v>53588.579187639014</v>
+        <v>53493.438604544419</v>
       </c>
       <c r="K86" s="21">
         <f t="shared" si="18"/>
-        <v>7386.7222287252735</v>
+        <v>7446.7238925866441</v>
       </c>
       <c r="L86" s="7" t="s">
         <v>10</v>
@@ -31452,7 +31470,7 @@
       <c r="O86" s="4"/>
       <c r="P86" s="15"/>
       <c r="Q86" s="15"/>
-      <c r="R86" s="15"/>
+      <c r="R86" s="99"/>
     </row>
     <row r="87" spans="1:18">
       <c r="A87" s="3">
@@ -31478,19 +31496,19 @@
       </c>
       <c r="H87" s="21">
         <f>F87*$T$18</f>
-        <v>31.626958853599263</v>
+        <v>31.337450799765517</v>
       </c>
       <c r="I87" s="21">
         <f>F87*$V$18</f>
-        <v>3.7254252912092514</v>
+        <v>3.7229294028975799</v>
       </c>
       <c r="J87" s="21">
         <f t="shared" ref="J87:J91" si="20">H87*(-$M87)</f>
-        <v>202665.55233386406</v>
+        <v>200810.38472489742</v>
       </c>
       <c r="K87" s="21">
         <f t="shared" ref="K87:K91" si="21">I87*(-$M87)</f>
-        <v>23872.525266068882</v>
+        <v>23856.531613767693</v>
       </c>
       <c r="L87" s="5" t="s">
         <v>24</v>
@@ -31504,7 +31522,7 @@
       <c r="O87" s="4"/>
       <c r="P87" s="15"/>
       <c r="Q87" s="15"/>
-      <c r="R87" s="15"/>
+      <c r="R87" s="99"/>
     </row>
     <row r="88" spans="1:18">
       <c r="A88" s="3">
@@ -31530,19 +31548,19 @@
       </c>
       <c r="H88" s="21">
         <f>F88*$T$16</f>
-        <v>18.067471146103603</v>
+        <v>17.905873925501432</v>
       </c>
       <c r="I88" s="21">
         <f t="shared" ref="I88" si="22">F88*$V$16</f>
-        <v>1.6359085622259999</v>
+        <v>1.6316346022649746</v>
       </c>
       <c r="J88" s="21">
         <f t="shared" si="20"/>
-        <v>117111.54122192894</v>
+        <v>116064.08419770772</v>
       </c>
       <c r="K88" s="21">
         <f t="shared" si="21"/>
-        <v>10603.795709492708</v>
+        <v>10576.092328421339</v>
       </c>
       <c r="L88" s="5" t="s">
         <v>24</v>
@@ -31582,19 +31600,19 @@
       </c>
       <c r="H89" s="21">
         <f>F89*$T$20</f>
-        <v>25.944756150194213</v>
+        <v>25.838277868974775</v>
       </c>
       <c r="I89" s="21">
         <f>F89*$V$20</f>
-        <v>3.1777298230470432</v>
+        <v>3.1711087897328754</v>
       </c>
       <c r="J89" s="21">
         <f t="shared" si="20"/>
-        <v>166046.43936124296</v>
+        <v>165364.97836143855</v>
       </c>
       <c r="K89" s="21">
         <f t="shared" si="21"/>
-        <v>20337.470867501077</v>
+        <v>20295.096254290402</v>
       </c>
       <c r="L89" s="7" t="s">
         <v>10</v>
@@ -31634,19 +31652,19 @@
       </c>
       <c r="H90" s="21">
         <f>F90*$T$22</f>
-        <v>17.206157752737663</v>
+        <v>17.152996108949417</v>
       </c>
       <c r="I90" s="21">
         <f>F90*$V$22</f>
-        <v>1.066497381368037</v>
+        <v>1.0658365758754866</v>
       </c>
       <c r="J90" s="21">
         <f t="shared" si="20"/>
-        <v>109843.76697032218</v>
+        <v>109504.38409961089</v>
       </c>
       <c r="K90" s="21">
         <f t="shared" si="21"/>
-        <v>6808.4979527059204</v>
+        <v>6804.2793836575884</v>
       </c>
       <c r="L90" s="5" t="s">
         <v>24</v>
@@ -31686,19 +31704,19 @@
       </c>
       <c r="H91" s="21">
         <f>F91*$T$24</f>
-        <v>17.96</v>
+        <v>17.906590038314175</v>
       </c>
       <c r="I91" s="21">
         <f>F91*$V$24</f>
-        <v>1.54</v>
+        <v>1.5328203490847168</v>
       </c>
       <c r="J91" s="21">
         <f t="shared" si="20"/>
-        <v>114944</v>
+        <v>114602.17624521072</v>
       </c>
       <c r="K91" s="21">
         <f t="shared" si="21"/>
-        <v>9856</v>
+        <v>9810.050234142187</v>
       </c>
       <c r="L91" s="7" t="s">
         <v>10</v>
@@ -31737,19 +31755,19 @@
       </c>
       <c r="H92" s="21">
         <f>F92*$T$20</f>
-        <v>25.8</v>
+        <v>25.6941158036114</v>
       </c>
       <c r="I92" s="21">
         <f>F92*$V$20</f>
-        <v>3.16</v>
+        <v>3.1534159080734221</v>
       </c>
       <c r="J92" s="21">
         <f t="shared" ref="J92" si="23">H92*(-$M92)</f>
-        <v>165120</v>
+        <v>164442.34114311295</v>
       </c>
       <c r="K92" s="21">
         <f t="shared" ref="K92" si="24">I92*(-$M92)</f>
-        <v>20224</v>
+        <v>20181.8618116699</v>
       </c>
       <c r="L92" s="7" t="s">
         <v>10</v>
@@ -31970,7 +31988,7 @@
       </c>
       <c r="M102" s="1">
         <f>SUM(S4:S6)</f>
-        <v>493387.04</v>
+        <v>489149.28</v>
       </c>
       <c r="N102" s="1"/>
       <c r="O102" s="4"/>
@@ -32155,7 +32173,7 @@
     <row r="126" spans="14:16">
       <c r="N126">
         <f>SUMIF(C:C,"=医药",J:J)/SUMIF(C:C,"=医药",M:M)*-1</f>
-        <v>28.459130847395937</v>
+        <v>28.384263006234843</v>
       </c>
       <c r="P126" s="63"/>
     </row>
@@ -32515,7 +32533,7 @@
       </c>
       <c r="D3" s="21">
         <f>已投部分年化收益率!T13</f>
-        <v>3.9621152328334648</v>
+        <v>3.9708201892744479</v>
       </c>
       <c r="E3" s="21">
         <f>AVERAGE($F3:AA3)</f>
@@ -32604,7 +32622,7 @@
     <row r="5" spans="2:19" s="29" customFormat="1">
       <c r="D5" s="31">
         <f>E3*D3</f>
-        <v>10.399892133649038</v>
+        <v>10.422741193480546</v>
       </c>
       <c r="R5" s="47"/>
     </row>
@@ -32663,7 +32681,7 @@
       </c>
       <c r="D8" s="37">
         <f>已投部分年化收益率!T27</f>
-        <v>10.714724303082402</v>
+        <v>10.596810366309496</v>
       </c>
       <c r="E8" s="37">
         <v>2.3376000000000001</v>
@@ -32777,7 +32795,7 @@
     <row r="11" spans="2:19">
       <c r="D11" s="37">
         <f>已投部分年化收益率!T28</f>
-        <v>37.526881720430104</v>
+        <v>37.139737991266379</v>
       </c>
       <c r="E11" s="37">
         <v>0.58919999999999995</v>
@@ -32872,7 +32890,7 @@
       <c r="C14" s="39"/>
       <c r="D14" s="37">
         <f>已投部分年化收益率!T29</f>
-        <v>10.640243902439025</v>
+        <v>10.512978986402967</v>
       </c>
       <c r="E14" s="37">
         <v>1.9490000000000001</v>
@@ -32943,7 +32961,7 @@
       <c r="C17" s="39"/>
       <c r="D17" s="37">
         <f>已投部分年化收益率!T30</f>
-        <v>23.48586810228802</v>
+        <v>23.250410060142155</v>
       </c>
       <c r="E17" s="37">
         <v>0.7984</v>
@@ -33006,7 +33024,7 @@
       <c r="C20" s="42"/>
       <c r="D20" s="43">
         <f>(E8*D8*SUM(F9:Z9)+E11*D11*SUM(F12:AA12)+E14*D14*SUM(F15:AA15)+E17*D17*SUM(F18:Z18))/(SUM(F9:Z9)+SUM(F12:AA12)+SUM(F15:AA15)+SUM(F18:Z18))</f>
-        <v>23.103423888460863</v>
+        <v>22.854341691469685</v>
       </c>
       <c r="E20" s="44"/>
       <c r="F20" s="44"/>
@@ -33093,7 +33111,7 @@
       </c>
       <c r="D23" s="21">
         <f>已投部分年化收益率!T26</f>
-        <v>11.387559808612441</v>
+        <v>11.347517730496454</v>
       </c>
       <c r="E23" s="21">
         <f>0.7248</f>
@@ -33174,7 +33192,7 @@
     <row r="25" spans="2:16">
       <c r="D25" s="31">
         <f>E23*D23</f>
-        <v>8.2537033492822971</v>
+        <v>8.2246808510638303</v>
       </c>
     </row>
     <row r="27" spans="2:16">
@@ -33230,7 +33248,7 @@
       </c>
       <c r="D28" s="21">
         <f>已投部分年化收益率!T20</f>
-        <v>37.116961588260679</v>
+        <v>36.964632144456047</v>
       </c>
       <c r="E28">
         <v>0.78010000000000002</v>
@@ -33304,7 +33322,7 @@
     <row r="30" spans="2:16">
       <c r="D30" s="31">
         <f>E28*D28</f>
-        <v>28.954941735002155</v>
+        <v>28.836109535890163</v>
       </c>
     </row>
     <row r="32" spans="2:16">
@@ -33354,7 +33372,7 @@
       </c>
       <c r="D33" s="21">
         <f>已投部分年化收益率!T21</f>
-        <v>24.855633370192901</v>
+        <v>24.795437639474336</v>
       </c>
       <c r="E33">
         <v>0.9577</v>
@@ -33416,7 +33434,7 @@
     <row r="35" spans="2:17">
       <c r="D35" s="31">
         <f>E33*D33</f>
-        <v>23.804240078633743</v>
+        <v>23.746590627324572</v>
       </c>
     </row>
     <row r="37" spans="2:17">
@@ -33469,7 +33487,7 @@
       </c>
       <c r="D38" s="21">
         <f>已投部分年化收益率!T24</f>
-        <v>37.659886768714621</v>
+        <v>37.547892720306514</v>
       </c>
       <c r="E38">
         <v>0.67659999999999998</v>
@@ -33537,7 +33555,7 @@
     <row r="40" spans="2:17">
       <c r="D40" s="31">
         <f>D38*E38</f>
-        <v>25.480679387712311</v>
+        <v>25.404904214559387</v>
       </c>
     </row>
     <row r="42" spans="2:17">
@@ -33593,7 +33611,7 @@
       </c>
       <c r="D43" s="21">
         <f>已投部分年化收益率!T36</f>
-        <v>6.7813692318767549</v>
+        <v>6.734825194823765</v>
       </c>
       <c r="E43">
         <v>1.0154000000000001</v>
@@ -33667,7 +33685,7 @@
     <row r="45" spans="2:17">
       <c r="D45" s="31">
         <f>E43*D43</f>
-        <v>6.8858023180476575</v>
+        <v>6.838541502824051</v>
       </c>
     </row>
     <row r="47" spans="2:17">
@@ -33715,7 +33733,7 @@
       </c>
       <c r="D48" s="48">
         <f>已投部分年化收益率!T31</f>
-        <v>6.8320610687022896</v>
+        <v>6.8207726409119696</v>
       </c>
       <c r="E48">
         <v>1.6929000000000001</v>
@@ -33799,7 +33817,7 @@
       <c r="C51" s="39"/>
       <c r="D51" s="37">
         <f>已投部分年化收益率!T32</f>
-        <v>10.287356321839081</v>
+        <v>10.296367112810707</v>
       </c>
       <c r="E51" s="37">
         <v>0.97399999999999998</v>
@@ -33844,7 +33862,7 @@
       <c r="C53" s="42"/>
       <c r="D53" s="43">
         <f>(E48*D48*SUM(G49:AB49)+E51*D51*SUM(F52:AA52))/(SUM(G49:AB49)+SUM(F52:AA52))</f>
-        <v>11.256773958059139</v>
+        <v>11.243241116615424</v>
       </c>
       <c r="E53" s="44"/>
       <c r="F53" s="44"/>
@@ -33895,7 +33913,7 @@
       </c>
       <c r="D56" s="21">
         <f>已投部分年化收益率!T33</f>
-        <v>33.472266752164153</v>
+        <v>33.343818810946836</v>
       </c>
       <c r="E56">
         <v>0.87860000000000005</v>
@@ -33933,7 +33951,7 @@
     <row r="58" spans="2:17">
       <c r="D58" s="31">
         <f>E56*D56</f>
-        <v>29.408733568451424</v>
+        <v>29.29587920729789</v>
       </c>
     </row>
     <row r="60" spans="2:17">
@@ -33969,7 +33987,7 @@
       </c>
       <c r="D61" s="21">
         <f>已投部分年化收益率!V34</f>
-        <v>1.2407819267236335</v>
+        <v>1.2508606839568512</v>
       </c>
       <c r="E61">
         <v>0.91320000000000001</v>
@@ -34001,7 +34019,7 @@
     <row r="63" spans="2:17">
       <c r="D63" s="31">
         <f>E61*D61</f>
-        <v>1.1330820554840222</v>
+        <v>1.1422859765893965</v>
       </c>
     </row>
     <row r="66" spans="2:7">
@@ -34064,7 +34082,7 @@
   <dimension ref="A2:AB38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -34561,15 +34579,15 @@
       </c>
       <c r="H28" s="1">
         <f>已投部分年化收益率!X13</f>
-        <v>10.390458846278054</v>
+        <v>10.41328718072657</v>
       </c>
       <c r="I28" s="1">
         <f>ETF计划成本计算!D5</f>
-        <v>10.399892133649038</v>
+        <v>10.422741193480546</v>
       </c>
       <c r="J28" s="18">
         <f>已投部分年化收益率!S13/H28-1</f>
-        <v>-3.3728909518138561E-2</v>
+        <v>-3.2966264616416496E-2</v>
       </c>
     </row>
     <row r="29" spans="1:28">
@@ -34582,15 +34600,15 @@
       </c>
       <c r="H29" s="1">
         <f>已投部分年化收益率!X15</f>
-        <v>11.631060512648</v>
+        <v>11.628648828610331</v>
       </c>
       <c r="I29" s="1">
         <f>ETF计划成本计算!D53</f>
-        <v>11.256773958059139</v>
+        <v>11.243241116615424</v>
       </c>
       <c r="J29" s="18">
         <f>已投部分年化收益率!S15/H29-1</f>
-        <v>-7.6610427026755801E-2</v>
+        <v>-7.3839088381254636E-2</v>
       </c>
     </row>
     <row r="30" spans="1:28">
@@ -34603,15 +34621,15 @@
       </c>
       <c r="H30" s="55">
         <f>已投部分年化收益率!X16</f>
-        <v>22.593146950757973</v>
+        <v>22.391071645233747</v>
       </c>
       <c r="I30" s="4">
         <f>ETF计划成本计算!D20</f>
-        <v>23.103423888460863</v>
+        <v>22.854341691469685</v>
       </c>
       <c r="J30" s="18">
         <f>已投部分年化收益率!S16/H30-1</f>
-        <v>-0.22764190229752068</v>
+        <v>-0.24032220210322908</v>
       </c>
     </row>
     <row r="31" spans="1:28">
@@ -34624,14 +34642,14 @@
       </c>
       <c r="H31" s="1">
         <f>已投部分年化收益率!X17</f>
-        <v>28.026644822712921</v>
+        <v>27.950198227095974</v>
       </c>
       <c r="I31" s="27" t="s">
         <v>115</v>
       </c>
       <c r="J31" s="18">
         <f>已投部分年化收益率!S17/H31-1</f>
-        <v>-0.28853417431398942</v>
+        <v>-0.30733943842903821</v>
       </c>
     </row>
     <row r="32" spans="1:28">
@@ -34644,12 +34662,12 @@
       </c>
       <c r="H32" s="1">
         <f>已投部分年化收益率!X18</f>
-        <v>33.20881023470217</v>
+        <v>32.904822169783024</v>
       </c>
       <c r="I32" s="27"/>
       <c r="J32" s="18">
         <f>已投部分年化收益率!S18/H32-1</f>
-        <v>-0.14871987884532123</v>
+        <v>-0.14814917231978364</v>
       </c>
     </row>
     <row r="33" spans="6:10">
@@ -34662,15 +34680,15 @@
       </c>
       <c r="H33" s="1">
         <f>已投部分年化收益率!X19</f>
-        <v>28.459130847395937</v>
+        <v>28.384263006234843</v>
       </c>
       <c r="I33" s="1">
         <f>ETF计划成本计算!D30</f>
-        <v>28.954941735002155</v>
+        <v>28.836109535890163</v>
       </c>
       <c r="J33" s="18">
         <f>已投部分年化收益率!S19/H33-1</f>
-        <v>-9.3436825659039768E-2</v>
+        <v>-0.12733333979610251</v>
       </c>
     </row>
     <row r="34" spans="6:10">
@@ -34683,15 +34701,15 @@
       </c>
       <c r="H34" s="1">
         <f>已投部分年化收益率!X21</f>
-        <v>24.058844981443023</v>
+        <v>24.000578924314926</v>
       </c>
       <c r="I34" s="1">
         <f>ETF计划成本计算!D35</f>
-        <v>23.804240078633743</v>
+        <v>23.746590627324572</v>
       </c>
       <c r="J34" s="18">
         <f>已投部分年化收益率!S21/H34-1</f>
-        <v>-0.15914500402643073</v>
+        <v>-0.16668676772050484</v>
       </c>
     </row>
     <row r="35" spans="6:10">
@@ -34704,15 +34722,15 @@
       </c>
       <c r="H35" s="56">
         <f>已投部分年化收益率!X23</f>
-        <v>24.829376807487442</v>
+        <v>24.735709242879665</v>
       </c>
       <c r="I35" s="1">
         <f>ETF计划成本计算!D40</f>
-        <v>25.480679387712311</v>
+        <v>25.404904214559387</v>
       </c>
       <c r="J35" s="18">
         <f>已投部分年化收益率!S24/H35-1</f>
-        <v>-0.27666327917726641</v>
+        <v>-0.28686095770317199</v>
       </c>
     </row>
     <row r="36" spans="6:10">
@@ -34725,15 +34743,15 @@
       </c>
       <c r="H36" s="1">
         <f>已投部分年化收益率!X25</f>
-        <v>29.530659488658774</v>
+        <v>29.374032435889841</v>
       </c>
       <c r="I36" s="1">
         <f>ETF计划成本计算!D58</f>
-        <v>29.408733568451424</v>
+        <v>29.29587920729789</v>
       </c>
       <c r="J36" s="18">
         <f>已投部分年化收益率!S25/H36-1</f>
-        <v>-0.29293824243854272</v>
+        <v>-0.27827409987818452</v>
       </c>
     </row>
     <row r="37" spans="6:10">
@@ -34746,15 +34764,15 @@
       </c>
       <c r="H37" s="1">
         <f>已投部分年化收益率!Y34</f>
-        <v>1.1267127082601742</v>
+        <v>1.1358648917450846</v>
       </c>
       <c r="I37" s="1">
         <f>ETF计划成本计算!D63</f>
-        <v>1.1330820554840222</v>
+        <v>1.1422859765893965</v>
       </c>
       <c r="J37" s="18">
         <f>已投部分年化收益率!U34/H37-1</f>
-        <v>-5.9210043315468863E-2</v>
+        <v>-4.0378826811541035E-2</v>
       </c>
     </row>
     <row r="38" spans="6:10">
@@ -34767,11 +34785,11 @@
       </c>
       <c r="H38" s="1">
         <f>已投部分年化收益率!Y22</f>
-        <v>1.3279235342961813</v>
+        <v>1.3271007482486203</v>
       </c>
       <c r="J38" s="18">
         <f>已投部分年化收益率!U22/资产配置表!H38-1</f>
-        <v>-0.20929182073987773</v>
+        <v>-0.19373114557272086</v>
       </c>
     </row>
   </sheetData>
@@ -34784,10 +34802,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AB51"/>
+  <dimension ref="A2:AB53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -34801,7 +34819,7 @@
     <col min="16" max="16" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:28">
+    <row r="2" spans="1:12">
       <c r="A2" s="90"/>
       <c r="B2" s="90" t="str">
         <f>组合权益类行业占比!K1</f>
@@ -34844,7 +34862,7 @@
         <v>公用事业</v>
       </c>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:12">
       <c r="A3" s="90" t="str">
         <f>组合权益类行业占比!J2</f>
         <v>中证红利</v>
@@ -34890,240 +34908,240 @@
         <v>0.16010000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:28">
-      <c r="A4" s="90" t="str">
+    <row r="4" spans="1:12">
+      <c r="A4" s="94" t="str">
         <f>组合权益类行业占比!J3</f>
-        <v>上证50</v>
+        <v>上证指数</v>
       </c>
       <c r="B4" s="18">
         <f>组合权益类行业占比!K3</f>
-        <v>3.7000000000000005E-2</v>
+        <v>9.9699999999999997E-2</v>
       </c>
       <c r="C4" s="18">
         <f>组合权益类行业占比!L3</f>
-        <v>5.5800000000000002E-2</v>
+        <v>8.8700000000000001E-2</v>
       </c>
       <c r="D4" s="18">
         <f>组合权益类行业占比!M3</f>
-        <v>8.5600000000000009E-2</v>
+        <v>0.15679999999999999</v>
       </c>
       <c r="E4" s="18">
         <f>组合权益类行业占比!N3</f>
-        <v>3.7499999999999999E-2</v>
+        <v>8.9899999999999994E-2</v>
       </c>
       <c r="F4" s="18">
         <f>组合权益类行业占比!O3</f>
-        <v>0.11070000000000001</v>
+        <v>7.46E-2</v>
       </c>
       <c r="G4" s="18">
         <f>组合权益类行业占比!P3</f>
-        <v>2.9700000000000001E-2</v>
+        <v>4.6600000000000003E-2</v>
       </c>
       <c r="H4" s="18">
         <f>组合权益类行业占比!Q3</f>
-        <v>0.622</v>
+        <v>0.33500000000000002</v>
       </c>
       <c r="I4" s="18">
         <f>组合权益类行业占比!R3</f>
-        <v>1.0800000000000001E-2</v>
+        <v>5.8200000000000002E-2</v>
       </c>
       <c r="J4" s="18">
         <f>组合权益类行业占比!S3</f>
-        <v>1.1000000000000001E-2</v>
+        <v>6.6E-3</v>
       </c>
       <c r="K4" s="18">
         <f>组合权益类行业占比!T3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28">
+        <v>4.3900000000000002E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="90" t="str">
         <f>组合权益类行业占比!J4</f>
-        <v>沪深300</v>
+        <v>上证50</v>
       </c>
       <c r="B5" s="18">
         <f>组合权益类行业占比!K4</f>
-        <v>2.81E-2</v>
+        <v>3.7000000000000005E-2</v>
       </c>
       <c r="C5" s="18">
         <f>组合权益类行业占比!L4</f>
-        <v>7.3899999999999993E-2</v>
+        <v>5.5800000000000002E-2</v>
       </c>
       <c r="D5" s="18">
         <f>组合权益类行业占比!M4</f>
-        <v>0.124</v>
+        <v>8.5600000000000009E-2</v>
       </c>
       <c r="E5" s="18">
         <f>组合权益类行业占比!N4</f>
-        <v>0.1125</v>
+        <v>3.7499999999999999E-2</v>
       </c>
       <c r="F5" s="18">
         <f>组合权益类行业占比!O4</f>
-        <v>9.0800000000000006E-2</v>
+        <v>0.11070000000000001</v>
       </c>
       <c r="G5" s="18">
         <f>组合权益类行业占比!P4</f>
-        <v>6.4000000000000001E-2</v>
+        <v>2.9700000000000001E-2</v>
       </c>
       <c r="H5" s="18">
         <f>组合权益类行业占比!Q4</f>
-        <v>0.39069999999999999</v>
+        <v>0.622</v>
       </c>
       <c r="I5" s="18">
         <f>组合权益类行业占比!R4</f>
-        <v>6.8600000000000008E-2</v>
+        <v>1.0800000000000001E-2</v>
       </c>
       <c r="J5" s="18">
         <f>组合权益类行业占比!S4</f>
-        <v>1.9199999999999998E-2</v>
+        <v>1.1000000000000001E-2</v>
       </c>
       <c r="K5" s="18">
         <f>组合权益类行业占比!T4</f>
-        <v>2.8300000000000002E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="90" t="str">
         <f>组合权益类行业占比!J5</f>
-        <v>中证500</v>
+        <v>沪深300</v>
       </c>
       <c r="B6" s="18">
         <f>组合权益类行业占比!K5</f>
-        <v>2.4900000000000002E-2</v>
+        <v>2.81E-2</v>
       </c>
       <c r="C6" s="18">
         <f>组合权益类行业占比!L5</f>
-        <v>0.16089999999999999</v>
+        <v>7.3899999999999993E-2</v>
       </c>
       <c r="D6" s="18">
         <f>组合权益类行业占比!M5</f>
-        <v>0.21660000000000001</v>
+        <v>0.124</v>
       </c>
       <c r="E6" s="18">
         <f>组合权益类行业占比!N5</f>
-        <v>0.1174</v>
+        <v>0.1125</v>
       </c>
       <c r="F6" s="18">
         <f>组合权益类行业占比!O5</f>
-        <v>6.8600000000000008E-2</v>
+        <v>9.0800000000000006E-2</v>
       </c>
       <c r="G6" s="18">
         <f>组合权益类行业占比!P5</f>
-        <v>0.11609999999999999</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="H6" s="18">
         <f>组合权益类行业占比!Q5</f>
-        <v>8.2500000000000004E-2</v>
+        <v>0.39069999999999999</v>
       </c>
       <c r="I6" s="18">
         <f>组合权益类行业占比!R5</f>
-        <v>0.1671</v>
+        <v>6.8600000000000008E-2</v>
       </c>
       <c r="J6" s="18">
         <f>组合权益类行业占比!S5</f>
-        <v>1.47E-2</v>
+        <v>1.9199999999999998E-2</v>
       </c>
       <c r="K6" s="18">
         <f>组合权益类行业占比!T5</f>
-        <v>3.1300000000000001E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28">
+        <v>2.8300000000000002E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="90" t="str">
         <f>组合权益类行业占比!J6</f>
-        <v>中证1000</v>
+        <v>中证500</v>
       </c>
       <c r="B7" s="18">
         <f>组合权益类行业占比!K6</f>
-        <v>3.1400000000000004E-2</v>
+        <v>2.4900000000000002E-2</v>
       </c>
       <c r="C7" s="18">
         <f>组合权益类行业占比!L6</f>
-        <v>0.16789999999999999</v>
+        <v>0.16089999999999999</v>
       </c>
       <c r="D7" s="18">
         <f>组合权益类行业占比!M6</f>
-        <v>0.23600000000000002</v>
+        <v>0.21660000000000001</v>
       </c>
       <c r="E7" s="18">
         <f>组合权益类行业占比!N6</f>
-        <v>0.1278</v>
+        <v>0.1174</v>
       </c>
       <c r="F7" s="18">
         <f>组合权益类行业占比!O6</f>
-        <v>5.2499999999999998E-2</v>
+        <v>6.8600000000000008E-2</v>
       </c>
       <c r="G7" s="18">
         <f>组合权益类行业占比!P6</f>
-        <v>0.1057</v>
+        <v>0.11609999999999999</v>
       </c>
       <c r="H7" s="18">
         <f>组合权益类行业占比!Q6</f>
-        <v>4.1700000000000001E-2</v>
+        <v>8.2500000000000004E-2</v>
       </c>
       <c r="I7" s="18">
         <f>组合权益类行业占比!R6</f>
-        <v>0.17879999999999999</v>
+        <v>0.1671</v>
       </c>
       <c r="J7" s="18">
         <f>组合权益类行业占比!S6</f>
-        <v>3.56E-2</v>
+        <v>1.47E-2</v>
       </c>
       <c r="K7" s="18">
         <f>组合权益类行业占比!T6</f>
-        <v>2.2700000000000001E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28">
+        <v>3.1300000000000001E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="90" t="str">
         <f>组合权益类行业占比!J7</f>
-        <v>金融地产</v>
+        <v>中证1000</v>
       </c>
       <c r="B8" s="18">
         <f>组合权益类行业占比!K7</f>
-        <v>0</v>
+        <v>3.1400000000000004E-2</v>
       </c>
       <c r="C8" s="18">
         <f>组合权益类行业占比!L7</f>
-        <v>0</v>
+        <v>0.16789999999999999</v>
       </c>
       <c r="D8" s="18">
         <f>组合权益类行业占比!M7</f>
-        <v>0</v>
+        <v>0.23600000000000002</v>
       </c>
       <c r="E8" s="18">
         <f>组合权益类行业占比!N7</f>
-        <v>0</v>
+        <v>0.1278</v>
       </c>
       <c r="F8" s="18">
         <f>组合权益类行业占比!O7</f>
-        <v>0</v>
+        <v>5.2499999999999998E-2</v>
       </c>
       <c r="G8" s="18">
         <f>组合权益类行业占比!P7</f>
-        <v>0</v>
+        <v>0.1057</v>
       </c>
       <c r="H8" s="18">
         <f>组合权益类行业占比!Q7</f>
-        <v>1</v>
+        <v>4.1700000000000001E-2</v>
       </c>
       <c r="I8" s="18">
         <f>组合权益类行业占比!R7</f>
-        <v>0</v>
+        <v>0.17879999999999999</v>
       </c>
       <c r="J8" s="18">
         <f>组合权益类行业占比!S7</f>
-        <v>0</v>
+        <v>3.56E-2</v>
       </c>
       <c r="K8" s="18">
         <f>组合权益类行业占比!T7</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28">
+        <v>2.2700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="90" t="str">
         <f>组合权益类行业占比!J8</f>
-        <v>证券公司</v>
+        <v>金融地产</v>
       </c>
       <c r="B9" s="18">
         <f>组合权益类行业占比!K8</f>
@@ -35166,10 +35184,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:28">
+    <row r="10" spans="1:12">
       <c r="A10" s="90" t="str">
         <f>组合权益类行业占比!J9</f>
-        <v>中证传媒</v>
+        <v>证券公司</v>
       </c>
       <c r="B10" s="18">
         <f>组合权益类行业占比!K9</f>
@@ -35185,7 +35203,7 @@
       </c>
       <c r="E10" s="18">
         <f>组合权益类行业占比!N9</f>
-        <v>0.52739999999999998</v>
+        <v>0</v>
       </c>
       <c r="F10" s="18">
         <f>组合权益类行业占比!O9</f>
@@ -35197,11 +35215,11 @@
       </c>
       <c r="H10" s="18">
         <f>组合权益类行业占比!Q9</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="18">
         <f>组合权益类行业占比!R9</f>
-        <v>0.47259999999999996</v>
+        <v>0</v>
       </c>
       <c r="J10" s="18">
         <f>组合权益类行业占比!S9</f>
@@ -35212,10 +35230,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:28">
+    <row r="11" spans="1:12">
       <c r="A11" s="90" t="str">
         <f>组合权益类行业占比!J10</f>
-        <v>全指医药</v>
+        <v>中证传媒</v>
       </c>
       <c r="B11" s="18">
         <f>组合权益类行业占比!K10</f>
@@ -35231,7 +35249,7 @@
       </c>
       <c r="E11" s="18">
         <f>组合权益类行业占比!N10</f>
-        <v>0</v>
+        <v>0.52739999999999998</v>
       </c>
       <c r="F11" s="18">
         <f>组合权益类行业占比!O10</f>
@@ -35239,7 +35257,7 @@
       </c>
       <c r="G11" s="18">
         <f>组合权益类行业占比!P10</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" s="18">
         <f>组合权益类行业占比!Q10</f>
@@ -35247,7 +35265,7 @@
       </c>
       <c r="I11" s="18">
         <f>组合权益类行业占比!R10</f>
-        <v>0</v>
+        <v>0.47259999999999996</v>
       </c>
       <c r="J11" s="18">
         <f>组合权益类行业占比!S10</f>
@@ -35258,10 +35276,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:28">
+    <row r="12" spans="1:12">
       <c r="A12" s="90" t="str">
         <f>组合权益类行业占比!J11</f>
-        <v>养老产业</v>
+        <v>全指医药</v>
       </c>
       <c r="B12" s="18">
         <f>组合权益类行业占比!K11</f>
@@ -35277,23 +35295,23 @@
       </c>
       <c r="E12" s="18">
         <f>组合权益类行业占比!N11</f>
-        <v>0.33740000000000003</v>
+        <v>0</v>
       </c>
       <c r="F12" s="18">
         <f>组合权益类行业占比!O11</f>
-        <v>8.4199999999999997E-2</v>
+        <v>0</v>
       </c>
       <c r="G12" s="18">
         <f>组合权益类行业占比!P11</f>
-        <v>0.38850000000000001</v>
+        <v>1</v>
       </c>
       <c r="H12" s="18">
         <f>组合权益类行业占比!Q11</f>
-        <v>8.7400000000000005E-2</v>
+        <v>0</v>
       </c>
       <c r="I12" s="18">
         <f>组合权益类行业占比!R11</f>
-        <v>0.10249999999999999</v>
+        <v>0</v>
       </c>
       <c r="J12" s="18">
         <f>组合权益类行业占比!S11</f>
@@ -35304,10 +35322,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:28">
+    <row r="13" spans="1:12">
       <c r="A13" s="90" t="str">
         <f>组合权益类行业占比!J12</f>
-        <v>中证环保</v>
+        <v>养老产业</v>
       </c>
       <c r="B13" s="18">
         <f>组合权益类行业占比!K12</f>
@@ -35315,31 +35333,31 @@
       </c>
       <c r="C13" s="18">
         <f>组合权益类行业占比!L12</f>
-        <v>5.8099999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="D13" s="18">
         <f>组合权益类行业占比!M12</f>
-        <v>0.67700000000000005</v>
+        <v>0</v>
       </c>
       <c r="E13" s="18">
         <f>组合权益类行业占比!N12</f>
-        <v>5.3099999999999994E-2</v>
+        <v>0.33740000000000003</v>
       </c>
       <c r="F13" s="18">
         <f>组合权益类行业占比!O12</f>
-        <v>0</v>
+        <v>8.4199999999999997E-2</v>
       </c>
       <c r="G13" s="18">
         <f>组合权益类行业占比!P12</f>
-        <v>0</v>
+        <v>0.38850000000000001</v>
       </c>
       <c r="H13" s="18">
         <f>组合权益类行业占比!Q12</f>
-        <v>0</v>
+        <v>8.7400000000000005E-2</v>
       </c>
       <c r="I13" s="18">
         <f>组合权益类行业占比!R12</f>
-        <v>8.1600000000000006E-2</v>
+        <v>0.10249999999999999</v>
       </c>
       <c r="J13" s="18">
         <f>组合权益类行业占比!S12</f>
@@ -35347,13 +35365,13 @@
       </c>
       <c r="K13" s="18">
         <f>组合权益类行业占比!T12</f>
-        <v>0.13019999999999998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="90" t="str">
         <f>组合权益类行业占比!J13</f>
-        <v>创业板指</v>
+        <v>中证环保</v>
       </c>
       <c r="B14" s="18">
         <f>组合权益类行业占比!K13</f>
@@ -35361,31 +35379,31 @@
       </c>
       <c r="C14" s="18">
         <f>组合权益类行业占比!L13</f>
-        <v>3.5900000000000001E-2</v>
+        <v>5.8099999999999999E-2</v>
       </c>
       <c r="D14" s="18">
         <f>组合权益类行业占比!M13</f>
-        <v>0.18870000000000001</v>
+        <v>0.67700000000000005</v>
       </c>
       <c r="E14" s="18">
         <f>组合权益类行业占比!N13</f>
-        <v>6.0299999999999999E-2</v>
+        <v>5.3099999999999994E-2</v>
       </c>
       <c r="F14" s="18">
         <f>组合权益类行业占比!O13</f>
-        <v>9.7900000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="G14" s="18">
         <f>组合权益类行业占比!P13</f>
-        <v>0.18540000000000001</v>
+        <v>0</v>
       </c>
       <c r="H14" s="18">
         <f>组合权益类行业占比!Q13</f>
-        <v>5.1900000000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="I14" s="18">
         <f>组合权益类行业占比!R13</f>
-        <v>0.37990000000000002</v>
+        <v>8.1600000000000006E-2</v>
       </c>
       <c r="J14" s="18">
         <f>组合权益类行业占比!S13</f>
@@ -35393,1056 +35411,1036 @@
       </c>
       <c r="K14" s="18">
         <f>组合权益类行业占比!T13</f>
+        <v>0.13019999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="90" t="str">
+        <f>组合权益类行业占比!J14</f>
+        <v>创业板指</v>
+      </c>
+      <c r="B15" s="18">
+        <f>组合权益类行业占比!K14</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28">
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-    </row>
-    <row r="16" spans="1:28" s="90" customFormat="1">
-      <c r="A16" s="90" t="s">
+      <c r="C15" s="18">
+        <f>组合权益类行业占比!L14</f>
+        <v>3.5900000000000001E-2</v>
+      </c>
+      <c r="D15" s="18">
+        <f>组合权益类行业占比!M14</f>
+        <v>0.18870000000000001</v>
+      </c>
+      <c r="E15" s="18">
+        <f>组合权益类行业占比!N14</f>
+        <v>6.0299999999999999E-2</v>
+      </c>
+      <c r="F15" s="18">
+        <f>组合权益类行业占比!O14</f>
+        <v>9.7900000000000001E-2</v>
+      </c>
+      <c r="G15" s="18">
+        <f>组合权益类行业占比!P14</f>
+        <v>0.18540000000000001</v>
+      </c>
+      <c r="H15" s="18">
+        <f>组合权益类行业占比!Q14</f>
+        <v>5.1900000000000002E-2</v>
+      </c>
+      <c r="I15" s="18">
+        <f>组合权益类行业占比!R14</f>
+        <v>0.37990000000000002</v>
+      </c>
+      <c r="J15" s="18">
+        <f>组合权益类行业占比!S14</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="18">
+        <f>组合权益类行业占比!T14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+    </row>
+    <row r="17" spans="1:28" s="90" customFormat="1">
+      <c r="A17" s="90" t="s">
         <v>7442</v>
       </c>
-      <c r="B16" s="90" t="s">
+      <c r="B17" s="90" t="s">
         <v>7443</v>
       </c>
-      <c r="C16" s="90" t="s">
+      <c r="C17" s="90" t="s">
         <v>7443</v>
       </c>
-      <c r="D16" s="90" t="s">
+      <c r="D17" s="90" t="s">
         <v>7443</v>
       </c>
-      <c r="E16" s="90" t="s">
+      <c r="E17" s="90" t="s">
         <v>7444</v>
       </c>
-      <c r="F16" s="90" t="s">
+      <c r="F17" s="90" t="s">
         <v>7444</v>
       </c>
-      <c r="G16" s="90" t="s">
+      <c r="G17" s="90" t="s">
         <v>7444</v>
       </c>
-      <c r="H16" s="90" t="s">
+      <c r="H17" s="90" t="s">
         <v>250</v>
       </c>
-      <c r="I16" s="90" t="s">
+      <c r="I17" s="90" t="s">
         <v>250</v>
       </c>
-      <c r="J16" s="90" t="s">
+      <c r="J17" s="90" t="s">
         <v>250</v>
       </c>
-      <c r="K16" s="90" t="s">
+      <c r="K17" s="90" t="s">
         <v>251</v>
       </c>
-      <c r="L16" s="90" t="s">
+      <c r="L17" s="90" t="s">
         <v>251</v>
       </c>
-      <c r="M16" s="90" t="s">
+      <c r="M17" s="90" t="s">
         <v>251</v>
       </c>
-      <c r="N16" s="90" t="s">
+      <c r="N17" s="90" t="s">
         <v>3851</v>
       </c>
-      <c r="O16" s="90" t="s">
+      <c r="O17" s="90" t="s">
         <v>3851</v>
       </c>
-      <c r="P16" s="90" t="s">
+      <c r="P17" s="90" t="s">
         <v>3851</v>
       </c>
-      <c r="Q16" s="90" t="s">
+      <c r="Q17" s="90" t="s">
         <v>253</v>
       </c>
-      <c r="R16" s="90" t="s">
+      <c r="R17" s="90" t="s">
         <v>253</v>
       </c>
-      <c r="S16" s="90" t="s">
+      <c r="S17" s="90" t="s">
         <v>253</v>
       </c>
-      <c r="T16" s="90" t="s">
+      <c r="T17" s="90" t="s">
         <v>7445</v>
       </c>
-      <c r="U16" s="90" t="s">
+      <c r="U17" s="90" t="s">
         <v>7445</v>
       </c>
-      <c r="V16" s="90" t="s">
+      <c r="V17" s="90" t="s">
         <v>7445</v>
       </c>
-      <c r="W16" s="90" t="s">
+      <c r="W17" s="90" t="s">
         <v>254</v>
       </c>
-      <c r="X16" s="90" t="s">
+      <c r="X17" s="90" t="s">
         <v>254</v>
       </c>
-      <c r="Y16" s="90" t="s">
+      <c r="Y17" s="90" t="s">
         <v>254</v>
       </c>
-      <c r="Z16" s="90" t="s">
+      <c r="Z17" s="90" t="s">
         <v>255</v>
       </c>
-      <c r="AA16" s="90" t="s">
+      <c r="AA17" s="90" t="s">
         <v>255</v>
       </c>
-      <c r="AB16" s="90" t="s">
+      <c r="AB17" s="90" t="s">
         <v>255</v>
-      </c>
-    </row>
-    <row r="17" spans="1:28">
-      <c r="A17" s="3">
-        <v>38544</v>
-      </c>
-      <c r="B17" s="90">
-        <v>35</v>
-      </c>
-      <c r="C17" s="90">
-        <v>11.93</v>
-      </c>
-      <c r="D17" s="90">
-        <v>1.4</v>
-      </c>
-      <c r="E17" s="90">
-        <v>271</v>
-      </c>
-      <c r="F17" s="90">
-        <v>14.65</v>
-      </c>
-      <c r="G17" s="90">
-        <v>1.2</v>
-      </c>
-      <c r="H17" s="90">
-        <v>308</v>
-      </c>
-      <c r="I17" s="90">
-        <v>21.23</v>
-      </c>
-      <c r="J17" s="90">
-        <v>1.42</v>
-      </c>
-      <c r="K17" s="90">
-        <v>262</v>
-      </c>
-      <c r="L17" s="90">
-        <v>22.67</v>
-      </c>
-      <c r="M17" s="90">
-        <v>1.34</v>
-      </c>
-      <c r="N17" s="90">
-        <v>118</v>
-      </c>
-      <c r="O17" s="90">
-        <v>26.35</v>
-      </c>
-      <c r="P17" s="90">
-        <v>1.36</v>
-      </c>
-      <c r="Q17" s="90">
-        <v>107</v>
-      </c>
-      <c r="R17" s="90">
-        <v>24.93</v>
-      </c>
-      <c r="S17" s="90">
-        <v>1.49</v>
-      </c>
-      <c r="T17" s="90">
-        <v>100</v>
-      </c>
-      <c r="U17" s="90">
-        <v>18.829999999999998</v>
-      </c>
-      <c r="V17" s="90">
-        <v>1.38</v>
-      </c>
-      <c r="W17" s="90">
-        <v>122</v>
-      </c>
-      <c r="X17" s="90">
-        <v>25.95</v>
-      </c>
-      <c r="Y17" s="90">
-        <v>1.47</v>
-      </c>
-      <c r="Z17" s="90">
-        <v>63</v>
-      </c>
-      <c r="AA17" s="90">
-        <v>19.89</v>
-      </c>
-      <c r="AB17" s="90">
-        <v>1.33</v>
       </c>
     </row>
     <row r="18" spans="1:28">
       <c r="A18" s="3">
-        <v>39748</v>
+        <v>38544</v>
       </c>
       <c r="B18" s="90">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C18" s="90">
-        <v>10.64</v>
+        <v>11.93</v>
       </c>
       <c r="D18" s="90">
-        <v>1.92</v>
+        <v>1.4</v>
       </c>
       <c r="E18" s="90">
-        <v>320</v>
+        <v>271</v>
       </c>
       <c r="F18" s="90">
-        <v>9.81</v>
+        <v>14.65</v>
       </c>
       <c r="G18" s="90">
+        <v>1.2</v>
+      </c>
+      <c r="H18" s="90">
+        <v>308</v>
+      </c>
+      <c r="I18" s="90">
+        <v>21.23</v>
+      </c>
+      <c r="J18" s="90">
+        <v>1.42</v>
+      </c>
+      <c r="K18" s="90">
+        <v>262</v>
+      </c>
+      <c r="L18" s="90">
+        <v>22.67</v>
+      </c>
+      <c r="M18" s="90">
         <v>1.34</v>
       </c>
-      <c r="H18" s="90">
-        <v>388</v>
-      </c>
-      <c r="I18" s="90">
-        <v>15.36</v>
-      </c>
-      <c r="J18" s="90">
-        <v>1.65</v>
-      </c>
-      <c r="K18" s="90">
-        <v>278</v>
-      </c>
-      <c r="L18" s="90">
-        <v>12.86</v>
-      </c>
-      <c r="M18" s="90">
-        <v>1.54</v>
-      </c>
       <c r="N18" s="90">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O18" s="90">
-        <v>23.61</v>
+        <v>26.35</v>
       </c>
       <c r="P18" s="90">
-        <v>1.95</v>
+        <v>1.36</v>
       </c>
       <c r="Q18" s="90">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="R18" s="90">
-        <v>19.39</v>
+        <v>24.93</v>
       </c>
       <c r="S18" s="90">
-        <v>2.09</v>
+        <v>1.49</v>
       </c>
       <c r="T18" s="90">
-        <v>142</v>
+        <v>100</v>
       </c>
       <c r="U18" s="90">
-        <v>13.4</v>
+        <v>18.829999999999998</v>
       </c>
       <c r="V18" s="90">
-        <v>1.68</v>
+        <v>1.38</v>
       </c>
       <c r="W18" s="90">
-        <v>155</v>
+        <v>122</v>
       </c>
       <c r="X18" s="90">
-        <v>12.48</v>
+        <v>25.95</v>
       </c>
       <c r="Y18" s="90">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="Z18" s="90">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="AA18" s="90">
-        <v>20.48</v>
+        <v>19.89</v>
       </c>
       <c r="AB18" s="90">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="19" spans="1:28">
       <c r="A19" s="3">
+        <v>39748</v>
+      </c>
+      <c r="B19" s="90">
+        <v>42</v>
+      </c>
+      <c r="C19" s="90">
+        <v>10.64</v>
+      </c>
+      <c r="D19" s="90">
+        <v>1.92</v>
+      </c>
+      <c r="E19" s="90">
+        <v>320</v>
+      </c>
+      <c r="F19" s="90">
+        <v>9.81</v>
+      </c>
+      <c r="G19" s="90">
+        <v>1.34</v>
+      </c>
+      <c r="H19" s="90">
+        <v>388</v>
+      </c>
+      <c r="I19" s="90">
+        <v>15.36</v>
+      </c>
+      <c r="J19" s="90">
+        <v>1.65</v>
+      </c>
+      <c r="K19" s="90">
+        <v>278</v>
+      </c>
+      <c r="L19" s="90">
+        <v>12.86</v>
+      </c>
+      <c r="M19" s="90">
+        <v>1.54</v>
+      </c>
+      <c r="N19" s="90">
+        <v>117</v>
+      </c>
+      <c r="O19" s="90">
+        <v>23.61</v>
+      </c>
+      <c r="P19" s="90">
+        <v>1.95</v>
+      </c>
+      <c r="Q19" s="90">
+        <v>118</v>
+      </c>
+      <c r="R19" s="90">
+        <v>19.39</v>
+      </c>
+      <c r="S19" s="90">
+        <v>2.09</v>
+      </c>
+      <c r="T19" s="90">
+        <v>142</v>
+      </c>
+      <c r="U19" s="90">
+        <v>13.4</v>
+      </c>
+      <c r="V19" s="90">
+        <v>1.68</v>
+      </c>
+      <c r="W19" s="90">
+        <v>155</v>
+      </c>
+      <c r="X19" s="90">
+        <v>12.48</v>
+      </c>
+      <c r="Y19" s="90">
+        <v>1.56</v>
+      </c>
+      <c r="Z19" s="90">
+        <v>67</v>
+      </c>
+      <c r="AA19" s="90">
+        <v>20.48</v>
+      </c>
+      <c r="AB19" s="90">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28">
+      <c r="A20" s="3">
         <v>41240</v>
       </c>
-      <c r="B19" s="90">
+      <c r="B20" s="90">
         <v>65</v>
       </c>
-      <c r="C19" s="90">
+      <c r="C20" s="90">
         <v>20.45</v>
       </c>
-      <c r="D19" s="90">
+      <c r="D20" s="90">
         <v>2</v>
       </c>
-      <c r="E19" s="90">
+      <c r="E20" s="90">
         <v>454</v>
       </c>
-      <c r="F19" s="90">
+      <c r="F20" s="90">
         <v>23.49</v>
       </c>
-      <c r="G19" s="90">
+      <c r="G20" s="90">
         <v>1.76</v>
       </c>
-      <c r="H19" s="90">
+      <c r="H20" s="90">
         <v>637</v>
       </c>
-      <c r="I19" s="90">
+      <c r="I20" s="90">
         <v>22.35</v>
       </c>
-      <c r="J19" s="90">
+      <c r="J20" s="90">
         <v>1.78</v>
       </c>
-      <c r="K19" s="90">
+      <c r="K20" s="90">
         <v>407</v>
       </c>
-      <c r="L19" s="90">
+      <c r="L20" s="90">
         <v>21.28</v>
       </c>
-      <c r="M19" s="90">
+      <c r="M20" s="90">
         <v>1.87</v>
       </c>
-      <c r="N19" s="90">
+      <c r="N20" s="90">
         <v>166</v>
       </c>
-      <c r="O19" s="90">
+      <c r="O20" s="90">
         <v>26.39</v>
       </c>
-      <c r="P19" s="90">
+      <c r="P20" s="90">
         <v>2.4700000000000002</v>
       </c>
-      <c r="Q19" s="90">
+      <c r="Q20" s="90">
         <v>181</v>
       </c>
-      <c r="R19" s="90">
+      <c r="R20" s="90">
         <v>30.04</v>
       </c>
-      <c r="S19" s="90">
+      <c r="S20" s="90">
         <v>2.78</v>
       </c>
-      <c r="T19" s="90">
+      <c r="T20" s="90">
         <v>198</v>
       </c>
-      <c r="U19" s="90">
+      <c r="U20" s="90">
         <v>15.54</v>
       </c>
-      <c r="V19" s="90">
+      <c r="V20" s="90">
         <v>1.86</v>
       </c>
-      <c r="W19" s="90">
+      <c r="W20" s="90">
         <v>334</v>
       </c>
-      <c r="X19" s="90">
+      <c r="X20" s="90">
         <v>28.21</v>
       </c>
-      <c r="Y19" s="90">
+      <c r="Y20" s="90">
         <v>2.12</v>
       </c>
-      <c r="Z19" s="90">
+      <c r="Z20" s="90">
         <v>74</v>
       </c>
-      <c r="AA19" s="90">
+      <c r="AA20" s="90">
         <v>21.37</v>
       </c>
-      <c r="AB19" s="90">
+      <c r="AB20" s="90">
         <v>1.76</v>
       </c>
     </row>
-    <row r="20" spans="1:28" s="90" customFormat="1">
-      <c r="A20" s="14">
+    <row r="21" spans="1:28" s="90" customFormat="1">
+      <c r="A21" s="14">
         <v>43390</v>
       </c>
-      <c r="B20" s="96">
+      <c r="B21" s="95">
         <v>75</v>
       </c>
-      <c r="C20" s="96">
+      <c r="C21" s="95">
         <v>16.100000000000001</v>
       </c>
-      <c r="D20" s="96">
+      <c r="D21" s="95">
         <v>1.32</v>
       </c>
-      <c r="E20" s="96">
+      <c r="E21" s="95">
         <v>565</v>
       </c>
-      <c r="F20" s="96">
+      <c r="F21" s="95">
         <v>18.350000000000001</v>
       </c>
-      <c r="G20" s="96">
+      <c r="G21" s="95">
         <v>1.73</v>
       </c>
-      <c r="H20" s="96">
+      <c r="H21" s="95">
         <v>961</v>
       </c>
-      <c r="I20" s="96">
+      <c r="I21" s="95">
         <v>21.84</v>
       </c>
-      <c r="J20" s="96">
+      <c r="J21" s="95">
         <v>1.7</v>
       </c>
-      <c r="K20" s="96">
+      <c r="K21" s="95">
         <v>595</v>
       </c>
-      <c r="L20" s="96">
+      <c r="L21" s="95">
         <v>18.420000000000002</v>
       </c>
-      <c r="M20" s="96">
+      <c r="M21" s="95">
         <v>1.57</v>
       </c>
-      <c r="N20" s="96">
+      <c r="N21" s="95">
         <v>222</v>
       </c>
-      <c r="O20" s="96">
+      <c r="O21" s="95">
         <v>25.45</v>
       </c>
-      <c r="P20" s="96">
+      <c r="P21" s="95">
         <v>1.99</v>
       </c>
-      <c r="Q20" s="96">
+      <c r="Q21" s="95">
         <v>291</v>
       </c>
-      <c r="R20" s="96">
+      <c r="R21" s="95">
         <v>23.27</v>
       </c>
-      <c r="S20" s="96">
+      <c r="S21" s="95">
         <v>2.2200000000000002</v>
       </c>
-      <c r="T20" s="96">
+      <c r="T21" s="95">
         <v>233</v>
       </c>
-      <c r="U20" s="96">
+      <c r="U21" s="95">
         <v>10.92</v>
       </c>
-      <c r="V20" s="96">
+      <c r="V21" s="95">
         <v>1.1200000000000001</v>
       </c>
-      <c r="W20" s="96">
+      <c r="W21" s="95">
         <v>589</v>
       </c>
-      <c r="X20" s="96">
+      <c r="X21" s="95">
         <v>29.44</v>
       </c>
-      <c r="Y20" s="96">
+      <c r="Y21" s="95">
         <v>2.21</v>
       </c>
-      <c r="Z20" s="96">
+      <c r="Z21" s="95">
         <v>109</v>
       </c>
-      <c r="AA20" s="96">
+      <c r="AA21" s="95">
         <v>20.059999999999999</v>
       </c>
-      <c r="AB20" s="96">
+      <c r="AB21" s="95">
         <v>1.22</v>
       </c>
     </row>
-    <row r="21" spans="1:28">
-      <c r="A21" s="90" t="s">
+    <row r="22" spans="1:28">
+      <c r="A22" s="90" t="s">
         <v>7446</v>
       </c>
-      <c r="B21" s="90"/>
-      <c r="C21" s="60">
-        <f>IF(C18/C20-1&gt;0,0,C18/C20-1)</f>
+      <c r="B22" s="90"/>
+      <c r="C22" s="60">
+        <f>IF(C19/C21-1&gt;0,0,C19/C21-1)</f>
         <v>-0.33913043478260874</v>
       </c>
-      <c r="D21" s="60">
-        <f>IF(D18/D20-1&gt;0,0,D18/D20-1)</f>
+      <c r="D22" s="60">
+        <f>IF(D19/D21-1&gt;0,0,D19/D21-1)</f>
         <v>0</v>
       </c>
-      <c r="E21" s="90"/>
-      <c r="F21" s="60">
-        <f>IF(F18/F20-1&gt;0,0,F18/F20-1)</f>
+      <c r="E22" s="90"/>
+      <c r="F22" s="60">
+        <f>IF(F19/F21-1&gt;0,0,F19/F21-1)</f>
         <v>-0.4653950953678474</v>
       </c>
-      <c r="G21" s="60">
-        <f>IF(G18/G20-1&gt;0,0,G18/G20-1)</f>
+      <c r="G22" s="60">
+        <f>IF(G19/G21-1&gt;0,0,G19/G21-1)</f>
         <v>-0.22543352601156064</v>
       </c>
-      <c r="H21" s="90"/>
-      <c r="I21" s="60">
-        <f t="shared" ref="I21:J21" si="0">IF(I18/I20-1&gt;0,0,I18/I20-1)</f>
+      <c r="H22" s="90"/>
+      <c r="I22" s="60">
+        <f t="shared" ref="I22:J22" si="0">IF(I19/I21-1&gt;0,0,I19/I21-1)</f>
         <v>-0.29670329670329676</v>
       </c>
-      <c r="J21" s="60">
+      <c r="J22" s="60">
         <f t="shared" si="0"/>
         <v>-2.9411764705882359E-2</v>
       </c>
-      <c r="K21" s="90"/>
-      <c r="L21" s="60">
-        <f t="shared" ref="L21:M21" si="1">IF(L18/L20-1&gt;0,0,L18/L20-1)</f>
+      <c r="K22" s="90"/>
+      <c r="L22" s="60">
+        <f t="shared" ref="L22:M22" si="1">IF(L19/L21-1&gt;0,0,L19/L21-1)</f>
         <v>-0.30184581976112934</v>
       </c>
-      <c r="M21" s="60">
+      <c r="M22" s="60">
         <f t="shared" si="1"/>
         <v>-1.9108280254777066E-2</v>
       </c>
-      <c r="N21" s="90"/>
-      <c r="O21" s="60">
-        <f t="shared" ref="O21:P21" si="2">IF(O18/O20-1&gt;0,0,O18/O20-1)</f>
+      <c r="N22" s="90"/>
+      <c r="O22" s="60">
+        <f t="shared" ref="O22:P22" si="2">IF(O19/O21-1&gt;0,0,O19/O21-1)</f>
         <v>-7.2298624754420393E-2</v>
       </c>
-      <c r="P21" s="60">
+      <c r="P22" s="60">
         <f t="shared" si="2"/>
         <v>-2.010050251256279E-2</v>
       </c>
-      <c r="Q21" s="90"/>
-      <c r="R21" s="60">
-        <f t="shared" ref="R21:S21" si="3">IF(R18/R20-1&gt;0,0,R18/R20-1)</f>
+      <c r="Q22" s="90"/>
+      <c r="R22" s="60">
+        <f t="shared" ref="R22:S22" si="3">IF(R19/R21-1&gt;0,0,R19/R21-1)</f>
         <v>-0.16673828964331749</v>
       </c>
-      <c r="S21" s="60">
+      <c r="S22" s="60">
         <f t="shared" si="3"/>
         <v>-5.8558558558558738E-2</v>
       </c>
-      <c r="T21" s="90"/>
-      <c r="U21" s="60">
-        <f t="shared" ref="U21:V21" si="4">IF(U18/U20-1&gt;0,0,U18/U20-1)</f>
+      <c r="T22" s="90"/>
+      <c r="U22" s="60">
+        <f t="shared" ref="U22:V22" si="4">IF(U19/U21-1&gt;0,0,U19/U21-1)</f>
         <v>0</v>
       </c>
-      <c r="V21" s="60">
+      <c r="V22" s="60">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W21" s="90"/>
-      <c r="X21" s="60">
-        <f t="shared" ref="X21:Y21" si="5">IF(X18/X20-1&gt;0,0,X18/X20-1)</f>
+      <c r="W22" s="90"/>
+      <c r="X22" s="60">
+        <f t="shared" ref="X22:Y22" si="5">IF(X19/X21-1&gt;0,0,X19/X21-1)</f>
         <v>-0.57608695652173914</v>
       </c>
-      <c r="Y21" s="60">
+      <c r="Y22" s="60">
         <f t="shared" si="5"/>
         <v>-0.29411764705882348</v>
       </c>
-      <c r="Z21" s="90"/>
-      <c r="AA21" s="60">
-        <f t="shared" ref="AA21:AB21" si="6">IF(AA18/AA20-1&gt;0,0,AA18/AA20-1)</f>
+      <c r="Z22" s="90"/>
+      <c r="AA22" s="60">
+        <f t="shared" ref="AA22:AB22" si="6">IF(AA19/AA21-1&gt;0,0,AA19/AA21-1)</f>
         <v>0</v>
       </c>
-      <c r="AB21" s="60">
+      <c r="AB22" s="60">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:28">
-      <c r="A24" s="90" t="s">
+    <row r="25" spans="1:28">
+      <c r="A25" s="90" t="s">
         <v>7448</v>
       </c>
-      <c r="B24" s="90" t="str">
+      <c r="B25" s="90" t="str">
         <f>组合权益类行业占比!K1</f>
         <v>能源</v>
       </c>
-      <c r="C24" s="90" t="str">
+      <c r="C25" s="90" t="str">
         <f>组合权益类行业占比!L1</f>
         <v>原材料</v>
       </c>
-      <c r="D24" s="90" t="str">
+      <c r="D25" s="90" t="str">
         <f>组合权益类行业占比!M1</f>
         <v>工业</v>
       </c>
-      <c r="E24" s="90" t="str">
+      <c r="E25" s="90" t="str">
         <f>组合权益类行业占比!N1</f>
         <v>可选消费</v>
       </c>
-      <c r="F24" s="90" t="str">
+      <c r="F25" s="90" t="str">
         <f>组合权益类行业占比!O1</f>
         <v>主要消费</v>
       </c>
-      <c r="G24" s="90" t="str">
+      <c r="G25" s="90" t="str">
         <f>组合权益类行业占比!P1</f>
         <v>医药卫生</v>
       </c>
-      <c r="H24" s="90" t="str">
+      <c r="H25" s="90" t="str">
         <f>组合权益类行业占比!Q1</f>
         <v>金融地产</v>
       </c>
-      <c r="I24" s="90" t="str">
+      <c r="I25" s="90" t="str">
         <f>组合权益类行业占比!R1</f>
         <v>信息技术</v>
       </c>
-      <c r="J24" s="90" t="str">
+      <c r="J25" s="90" t="str">
         <f>组合权益类行业占比!S1</f>
         <v>电信业务</v>
       </c>
-      <c r="K24" s="90" t="str">
+      <c r="K25" s="90" t="str">
         <f>组合权益类行业占比!T1</f>
         <v>公用事业</v>
       </c>
-      <c r="L24" t="s">
+      <c r="L25" t="s">
         <v>7447</v>
       </c>
-      <c r="M24" s="90" t="s">
+      <c r="M25" s="90" t="s">
         <v>7449</v>
       </c>
-      <c r="N24" s="90" t="s">
+      <c r="N25" s="90" t="s">
         <v>7450</v>
       </c>
-      <c r="O24" s="90" t="s">
+      <c r="O25" s="90" t="s">
         <v>7451</v>
       </c>
-      <c r="P24" s="90" t="s">
+      <c r="P25" s="90" t="s">
         <v>7452</v>
       </c>
     </row>
-    <row r="25" spans="1:28">
-      <c r="A25" s="90" t="str">
+    <row r="26" spans="1:28" ht="12.75" customHeight="1">
+      <c r="A26" s="90" t="str">
         <f>组合权益类行业占比!J2</f>
         <v>中证红利</v>
       </c>
-      <c r="B25" s="58">
-        <f>(1+$D$21)*B3</f>
+      <c r="B26" s="58">
+        <f>(1+$D$22)*B3</f>
         <v>4.9800000000000004E-2</v>
       </c>
-      <c r="C25" s="58">
-        <f>(1+$G$21)*C3</f>
+      <c r="C26" s="58">
+        <f>(1+$G$22)*C3</f>
         <v>3.6327167630057812E-2</v>
       </c>
-      <c r="D25" s="58">
-        <f>(1+$J$21)*D3</f>
+      <c r="D26" s="58">
+        <f>(1+$J$22)*D3</f>
         <v>0.17596764705882351</v>
       </c>
-      <c r="E25" s="58">
-        <f>(1+$M$21)*E3</f>
+      <c r="E26" s="58">
+        <f>(1+$M$22)*E3</f>
         <v>0.18038598726114652</v>
       </c>
-      <c r="F25" s="58">
-        <f>(1+$P$21)*F3</f>
+      <c r="F26" s="58">
+        <f>(1+$P$22)*F3</f>
         <v>7.6824120603015078E-2</v>
       </c>
-      <c r="G25" s="58">
-        <f>(1+$S$21)*G3</f>
+      <c r="G26" s="58">
+        <f>(1+$S$22)*G3</f>
         <v>4.3306306306306296E-3</v>
       </c>
-      <c r="H25" s="58">
-        <f>(1+$V$21)*H3</f>
+      <c r="H26" s="58">
+        <f>(1+$V$22)*H3</f>
         <v>0.26960000000000001</v>
       </c>
-      <c r="I25" s="58">
-        <f>(1+$Y$21)*I3</f>
+      <c r="I26" s="58">
+        <f>(1+$Y$22)*I3</f>
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="J25" s="58">
-        <f t="shared" ref="J25:K25" si="7">(1+$D$21)*J3</f>
+      <c r="J26" s="58">
+        <f t="shared" ref="J26:J27" si="7">(1+$D$22)*J3</f>
         <v>0</v>
       </c>
-      <c r="K25" s="58">
-        <f>(1+$AB$21)*K3</f>
+      <c r="K26" s="58">
+        <f>(1+$AB$22)*K3</f>
         <v>0.16010000000000002</v>
       </c>
-      <c r="L25" s="60">
-        <f>SUM(B25:K25)-1</f>
+      <c r="L26" s="60">
+        <f>SUM(B26:K26)-1</f>
         <v>-2.8664446816326516E-2</v>
       </c>
-      <c r="M25" s="61">
+      <c r="M26" s="61">
         <v>3728.17</v>
       </c>
-      <c r="N25" s="61">
-        <f>M25*(1+L25)</f>
+      <c r="N26" s="61">
+        <f>M26*(1+L26)</f>
         <v>3621.3040693127759</v>
       </c>
-      <c r="O25" s="89">
+      <c r="O26" s="89">
         <f>资产配置表!C3</f>
         <v>5.8900000000000001E-2</v>
       </c>
-      <c r="P25" s="60">
-        <f>O25*(1+L25)</f>
+      <c r="P26" s="60">
+        <f>O26*(1+L26)</f>
         <v>5.7211664082518369E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:28">
-      <c r="A26" s="90" t="str">
-        <f>组合权益类行业占比!J3</f>
-        <v>上证50</v>
-      </c>
-      <c r="B26" s="58">
-        <f t="shared" ref="B26:J36" si="8">(1+$D$21)*B4</f>
-        <v>3.7000000000000005E-2</v>
-      </c>
-      <c r="C26" s="58">
-        <f t="shared" ref="C26:K36" si="9">(1+$G$21)*C4</f>
-        <v>4.3220809248554919E-2</v>
-      </c>
-      <c r="D26" s="58">
-        <f t="shared" ref="D26:D36" si="10">(1+$J$21)*D4</f>
-        <v>8.3082352941176482E-2</v>
-      </c>
-      <c r="E26" s="58">
-        <f t="shared" ref="E26:E36" si="11">(1+$M$21)*E4</f>
-        <v>3.6783439490445859E-2</v>
-      </c>
-      <c r="F26" s="58">
-        <f t="shared" ref="F26:F36" si="12">(1+$P$21)*F4</f>
-        <v>0.10847487437185931</v>
-      </c>
-      <c r="G26" s="58">
-        <f t="shared" ref="G26:G36" si="13">(1+$S$21)*G4</f>
-        <v>2.7960810810810807E-2</v>
-      </c>
-      <c r="H26" s="58">
-        <f t="shared" ref="H26:H36" si="14">(1+$V$21)*H4</f>
-        <v>0.622</v>
-      </c>
-      <c r="I26" s="58">
-        <f t="shared" ref="I26:I36" si="15">(1+$Y$21)*I4</f>
-        <v>7.6235294117647069E-3</v>
-      </c>
-      <c r="J26" s="58">
-        <f>(1)*J4</f>
-        <v>1.1000000000000001E-2</v>
-      </c>
-      <c r="K26" s="58">
-        <f t="shared" ref="K26:K36" si="16">(1+$AB$21)*K4</f>
-        <v>0</v>
-      </c>
-      <c r="L26" s="60">
-        <f t="shared" ref="L26:L36" si="17">SUM(B26:K26)-1</f>
-        <v>-2.2854183725387944E-2</v>
-      </c>
-      <c r="M26" s="61">
-        <v>2429.21</v>
-      </c>
-      <c r="N26" s="61">
-        <f t="shared" ref="N26:N36" si="18">M26*(1+L26)</f>
-        <v>2373.6923883524505</v>
-      </c>
-      <c r="O26" s="89">
+    <row r="27" spans="1:28" ht="12.75" customHeight="1">
+      <c r="A27" s="94" t="s">
+        <v>7454</v>
+      </c>
+      <c r="B27" s="58">
+        <f>(1+$D$22)*B4</f>
+        <v>9.9699999999999997E-2</v>
+      </c>
+      <c r="C27" s="58">
+        <f>(1+$G$22)*C4</f>
+        <v>6.8704046242774569E-2</v>
+      </c>
+      <c r="D27" s="58">
+        <f>(1+$J$22)*D4</f>
+        <v>0.15218823529411765</v>
+      </c>
+      <c r="E27" s="58">
+        <f>(1+$M$22)*E4</f>
+        <v>8.8182165605095536E-2</v>
+      </c>
+      <c r="F27" s="58">
+        <f>(1+$P$22)*F4</f>
+        <v>7.3100502512562809E-2</v>
+      </c>
+      <c r="G27" s="58">
+        <f>(1+$S$22)*G4</f>
+        <v>4.3871171171171168E-2</v>
+      </c>
+      <c r="H27" s="58">
+        <f>(1+$V$22)*H4</f>
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="I27" s="58">
+        <f>(1+$Y$22)*I4</f>
+        <v>4.1082352941176473E-2</v>
+      </c>
+      <c r="J27" s="58">
+        <f t="shared" si="7"/>
+        <v>6.6E-3</v>
+      </c>
+      <c r="K27" s="58">
+        <f>(1+$AB$22)*K4</f>
+        <v>4.3900000000000002E-2</v>
+      </c>
+      <c r="L27" s="60">
+        <f>SUM(B27:K27)-1</f>
+        <v>-4.767152623310178E-2</v>
+      </c>
+      <c r="M27" s="61">
+        <v>2561.61</v>
+      </c>
+      <c r="N27" s="61">
+        <f>M27*(1+L27)</f>
+        <v>2439.4941416860242</v>
+      </c>
+      <c r="O27" s="96">
         <f>资产配置表!C4</f>
         <v>8.0543625000000004E-3</v>
       </c>
-      <c r="P26" s="60">
-        <f t="shared" ref="P26:P36" si="19">O26*(1+L26)</f>
+      <c r="P27" s="60">
+        <f>O27*(1+L27)</f>
+        <v>7.6703987467903389E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28">
+      <c r="A28" s="90" t="str">
+        <f>组合权益类行业占比!J4</f>
+        <v>上证50</v>
+      </c>
+      <c r="B28" s="58">
+        <f t="shared" ref="B28:B38" si="8">(1+$D$22)*B5</f>
+        <v>3.7000000000000005E-2</v>
+      </c>
+      <c r="C28" s="58">
+        <f t="shared" ref="C28:C38" si="9">(1+$G$22)*C5</f>
+        <v>4.3220809248554919E-2</v>
+      </c>
+      <c r="D28" s="58">
+        <f t="shared" ref="D28:D38" si="10">(1+$J$22)*D5</f>
+        <v>8.3082352941176482E-2</v>
+      </c>
+      <c r="E28" s="58">
+        <f t="shared" ref="E28:E38" si="11">(1+$M$22)*E5</f>
+        <v>3.6783439490445859E-2</v>
+      </c>
+      <c r="F28" s="58">
+        <f t="shared" ref="F28:F38" si="12">(1+$P$22)*F5</f>
+        <v>0.10847487437185931</v>
+      </c>
+      <c r="G28" s="58">
+        <f t="shared" ref="G28:G38" si="13">(1+$S$22)*G5</f>
+        <v>2.7960810810810807E-2</v>
+      </c>
+      <c r="H28" s="58">
+        <f t="shared" ref="H28:H38" si="14">(1+$V$22)*H5</f>
+        <v>0.622</v>
+      </c>
+      <c r="I28" s="58">
+        <f t="shared" ref="I28:I38" si="15">(1+$Y$22)*I5</f>
+        <v>7.6235294117647069E-3</v>
+      </c>
+      <c r="J28" s="58">
+        <f>(1)*J5</f>
+        <v>1.1000000000000001E-2</v>
+      </c>
+      <c r="K28" s="58">
+        <f t="shared" ref="K28:K38" si="16">(1+$AB$22)*K5</f>
+        <v>0</v>
+      </c>
+      <c r="L28" s="60">
+        <f t="shared" ref="L28:L38" si="17">SUM(B28:K28)-1</f>
+        <v>-2.2854183725387944E-2</v>
+      </c>
+      <c r="M28" s="61">
+        <v>2429.21</v>
+      </c>
+      <c r="N28" s="61">
+        <f t="shared" ref="N28:N38" si="18">M28*(1+L28)</f>
+        <v>2373.6923883524505</v>
+      </c>
+      <c r="O28" s="89">
+        <f>资产配置表!C4</f>
+        <v>8.0543625000000004E-3</v>
+      </c>
+      <c r="P28" s="60">
+        <f t="shared" ref="P28:P38" si="19">O28*(1+L28)</f>
         <v>7.8702866196341259E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:28">
-      <c r="A27" s="90" t="str">
-        <f>组合权益类行业占比!J4</f>
+    <row r="29" spans="1:28">
+      <c r="A29" s="90" t="str">
+        <f>组合权益类行业占比!J5</f>
         <v>沪深300</v>
       </c>
-      <c r="B27" s="58">
+      <c r="B29" s="58">
         <f t="shared" si="8"/>
         <v>2.81E-2</v>
       </c>
-      <c r="C27" s="58">
+      <c r="C29" s="58">
         <f t="shared" si="9"/>
         <v>5.7240462427745664E-2</v>
       </c>
-      <c r="D27" s="58">
+      <c r="D29" s="58">
         <f t="shared" si="10"/>
         <v>0.12035294117647059</v>
       </c>
-      <c r="E27" s="58">
+      <c r="E29" s="58">
         <f t="shared" si="11"/>
         <v>0.11035031847133758</v>
       </c>
-      <c r="F27" s="58">
+      <c r="F29" s="58">
         <f t="shared" si="12"/>
         <v>8.8974874371859303E-2</v>
       </c>
-      <c r="G27" s="58">
+      <c r="G29" s="58">
         <f t="shared" si="13"/>
         <v>6.0252252252252239E-2</v>
       </c>
-      <c r="H27" s="58">
+      <c r="H29" s="58">
         <f t="shared" si="14"/>
         <v>0.39069999999999999</v>
       </c>
-      <c r="I27" s="58">
+      <c r="I29" s="58">
         <f t="shared" si="15"/>
         <v>4.8423529411764712E-2</v>
       </c>
-      <c r="J27" s="58">
-        <f t="shared" ref="J27:J36" si="20">(1)*J5</f>
+      <c r="J29" s="58">
+        <f t="shared" ref="J29:J38" si="20">(1)*J6</f>
         <v>1.9199999999999998E-2</v>
       </c>
-      <c r="K27" s="58">
+      <c r="K29" s="58">
         <f t="shared" si="16"/>
         <v>2.8300000000000002E-2</v>
       </c>
-      <c r="L27" s="60">
+      <c r="L29" s="60">
         <f t="shared" si="17"/>
         <v>-4.8105621888569927E-2</v>
       </c>
-      <c r="M27" s="61">
+      <c r="M29" s="61">
         <v>3118.25</v>
       </c>
-      <c r="N27" s="61">
+      <c r="N29" s="61">
         <f t="shared" si="18"/>
         <v>2968.2446445459668</v>
       </c>
-      <c r="O27" s="89">
+      <c r="O29" s="89">
         <f>资产配置表!C5</f>
         <v>3.9856999999999997E-2</v>
       </c>
-      <c r="P27" s="60">
+      <c r="P29" s="60">
         <f t="shared" si="19"/>
         <v>3.7939654228387264E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:28">
-      <c r="A28" s="90" t="str">
-        <f>组合权益类行业占比!J5</f>
+    <row r="30" spans="1:28">
+      <c r="A30" s="90" t="str">
+        <f>组合权益类行业占比!J6</f>
         <v>中证500</v>
       </c>
-      <c r="B28" s="58">
+      <c r="B30" s="58">
         <f t="shared" si="8"/>
         <v>2.4900000000000002E-2</v>
       </c>
-      <c r="C28" s="58">
+      <c r="C30" s="58">
         <f t="shared" si="9"/>
         <v>0.12462774566473989</v>
       </c>
-      <c r="D28" s="58">
+      <c r="D30" s="58">
         <f t="shared" si="10"/>
         <v>0.21022941176470589</v>
       </c>
-      <c r="E28" s="58">
+      <c r="E30" s="58">
         <f t="shared" si="11"/>
         <v>0.11515668789808918</v>
       </c>
-      <c r="F28" s="58">
+      <c r="F30" s="58">
         <f t="shared" si="12"/>
         <v>6.72211055276382E-2</v>
       </c>
-      <c r="G28" s="58">
+      <c r="G30" s="58">
         <f t="shared" si="13"/>
         <v>0.10930135135135133</v>
       </c>
-      <c r="H28" s="58">
+      <c r="H30" s="58">
         <f t="shared" si="14"/>
         <v>8.2500000000000004E-2</v>
       </c>
-      <c r="I28" s="58">
+      <c r="I30" s="58">
         <f t="shared" si="15"/>
         <v>0.11795294117647059</v>
       </c>
-      <c r="J28" s="58">
+      <c r="J30" s="58">
         <f t="shared" si="20"/>
         <v>1.47E-2</v>
       </c>
-      <c r="K28" s="58">
+      <c r="K30" s="58">
         <f t="shared" si="16"/>
         <v>3.1300000000000001E-2</v>
       </c>
-      <c r="L28" s="60">
+      <c r="L30" s="60">
         <f t="shared" si="17"/>
         <v>-0.10211075661700486</v>
       </c>
-      <c r="M28" s="61">
+      <c r="M30" s="61">
         <v>4133.38</v>
       </c>
-      <c r="N28" s="61">
+      <c r="N30" s="61">
         <f t="shared" si="18"/>
         <v>3711.3174408144046</v>
       </c>
-      <c r="O28" s="89">
+      <c r="O30" s="89">
         <f>资产配置表!C6</f>
         <v>0.21911088749999999</v>
       </c>
-      <c r="P28" s="60">
+      <c r="P30" s="60">
         <f t="shared" si="19"/>
         <v>0.19673730899435155</v>
       </c>
     </row>
-    <row r="29" spans="1:28">
-      <c r="A29" s="90" t="str">
-        <f>组合权益类行业占比!J6</f>
+    <row r="31" spans="1:28">
+      <c r="A31" s="90" t="str">
+        <f>组合权益类行业占比!J7</f>
         <v>中证1000</v>
       </c>
-      <c r="B29" s="58">
+      <c r="B31" s="58">
         <f t="shared" si="8"/>
         <v>3.1400000000000004E-2</v>
       </c>
-      <c r="C29" s="58">
+      <c r="C31" s="58">
         <f t="shared" si="9"/>
         <v>0.13004971098265897</v>
       </c>
-      <c r="D29" s="58">
+      <c r="D31" s="58">
         <f t="shared" si="10"/>
         <v>0.22905882352941179</v>
       </c>
-      <c r="E29" s="58">
+      <c r="E31" s="58">
         <f t="shared" si="11"/>
         <v>0.1253579617834395</v>
       </c>
-      <c r="F29" s="58">
+      <c r="F31" s="58">
         <f t="shared" si="12"/>
         <v>5.1444723618090452E-2</v>
       </c>
-      <c r="G29" s="58">
+      <c r="G31" s="58">
         <f t="shared" si="13"/>
         <v>9.9510360360360345E-2</v>
       </c>
-      <c r="H29" s="58">
+      <c r="H31" s="58">
         <f t="shared" si="14"/>
         <v>4.1700000000000001E-2</v>
       </c>
-      <c r="I29" s="58">
+      <c r="I31" s="58">
         <f t="shared" si="15"/>
         <v>0.12621176470588236</v>
       </c>
-      <c r="J29" s="58">
+      <c r="J31" s="58">
         <f t="shared" si="20"/>
         <v>3.56E-2</v>
       </c>
-      <c r="K29" s="58">
+      <c r="K31" s="58">
         <f t="shared" si="16"/>
         <v>2.2700000000000001E-2</v>
       </c>
-      <c r="L29" s="60">
+      <c r="L31" s="60">
         <f t="shared" si="17"/>
         <v>-0.10696665502015656</v>
       </c>
-      <c r="M29" s="61">
+      <c r="M31" s="61">
         <v>4292.2</v>
       </c>
-      <c r="N29" s="61">
+      <c r="N31" s="61">
         <f t="shared" si="18"/>
         <v>3833.077723322484</v>
       </c>
-      <c r="O29" s="89">
+      <c r="O31" s="89">
         <f>资产配置表!C7</f>
         <v>4.9623162499999998E-2</v>
       </c>
-      <c r="P29" s="60">
+      <c r="P31" s="60">
         <f t="shared" si="19"/>
         <v>4.4315138795853332E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:28">
-      <c r="A30" s="90" t="str">
-        <f>组合权益类行业占比!J7</f>
-        <v>金融地产</v>
-      </c>
-      <c r="B30" s="58">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="C30" s="58">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="D30" s="58">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E30" s="58">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="F30" s="58">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G30" s="58">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="H30" s="58">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="I30" s="58">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="J30" s="58">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="K30" s="58">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="L30" s="60">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="M30" s="61">
-        <v>4788.3900000000003</v>
-      </c>
-      <c r="N30" s="61">
-        <f t="shared" si="18"/>
-        <v>4788.3900000000003</v>
-      </c>
-      <c r="O30" s="89">
-        <f>资产配置表!C11</f>
-        <v>2.4E-2</v>
-      </c>
-      <c r="P30" s="60">
-        <f t="shared" si="19"/>
-        <v>2.4E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:28">
-      <c r="A31" s="90" t="str">
-        <f>组合权益类行业占比!J8</f>
-        <v>证券公司</v>
-      </c>
-      <c r="B31" s="58">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="C31" s="58">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="D31" s="58">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E31" s="58">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="F31" s="58">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G31" s="58">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="H31" s="58">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="I31" s="58">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="J31" s="58">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="K31" s="58">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="L31" s="60">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="M31" s="61">
-        <v>481.27</v>
-      </c>
-      <c r="N31" s="61">
-        <f t="shared" si="18"/>
-        <v>481.27</v>
-      </c>
-      <c r="O31" s="89">
-        <f>资产配置表!C10</f>
-        <v>3.1965149999999998E-2</v>
-      </c>
-      <c r="P31" s="60">
-        <f t="shared" si="19"/>
-        <v>3.1965149999999998E-2</v>
-      </c>
-    </row>
     <row r="32" spans="1:28">
       <c r="A32" s="90" t="str">
-        <f>组合权益类行业占比!J9</f>
-        <v>中证传媒</v>
+        <f>组合权益类行业占比!J8</f>
+        <v>金融地产</v>
       </c>
       <c r="B32" s="58">
         <f t="shared" si="8"/>
@@ -36458,7 +36456,7 @@
       </c>
       <c r="E32" s="58">
         <f t="shared" si="11"/>
-        <v>0.51732229299363053</v>
+        <v>0</v>
       </c>
       <c r="F32" s="58">
         <f t="shared" si="12"/>
@@ -36470,11 +36468,11 @@
       </c>
       <c r="H32" s="58">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" s="58">
         <f t="shared" si="15"/>
-        <v>0.33360000000000001</v>
+        <v>0</v>
       </c>
       <c r="J32" s="58">
         <f t="shared" si="20"/>
@@ -36486,28 +36484,28 @@
       </c>
       <c r="L32" s="60">
         <f t="shared" si="17"/>
-        <v>-0.14907770700636946</v>
+        <v>0</v>
       </c>
       <c r="M32" s="61">
-        <v>1057.18</v>
+        <v>4788.3900000000003</v>
       </c>
       <c r="N32" s="61">
         <f t="shared" si="18"/>
-        <v>899.57802970700641</v>
+        <v>4788.3900000000003</v>
       </c>
       <c r="O32" s="89">
-        <f>资产配置表!C13</f>
-        <v>3.70254125E-2</v>
+        <f>资产配置表!C11</f>
+        <v>2.4E-2</v>
       </c>
       <c r="P32" s="60">
         <f t="shared" si="19"/>
-        <v>3.1505748903535032E-2</v>
+        <v>2.4E-2</v>
       </c>
     </row>
     <row r="33" spans="1:16">
       <c r="A33" s="90" t="str">
-        <f>组合权益类行业占比!J10</f>
-        <v>全指医药</v>
+        <f>组合权益类行业占比!J9</f>
+        <v>证券公司</v>
       </c>
       <c r="B33" s="58">
         <f t="shared" si="8"/>
@@ -36531,11 +36529,11 @@
       </c>
       <c r="G33" s="58">
         <f t="shared" si="13"/>
-        <v>0.94144144144144126</v>
+        <v>0</v>
       </c>
       <c r="H33" s="58">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" s="58">
         <f t="shared" si="15"/>
@@ -36551,28 +36549,28 @@
       </c>
       <c r="L33" s="60">
         <f t="shared" si="17"/>
-        <v>-5.8558558558558738E-2</v>
+        <v>0</v>
       </c>
       <c r="M33" s="61">
-        <v>7863.88</v>
+        <v>481.27</v>
       </c>
       <c r="N33" s="61">
         <f t="shared" si="18"/>
-        <v>7403.382522522521</v>
+        <v>481.27</v>
       </c>
       <c r="O33" s="89">
-        <f>资产配置表!C9</f>
-        <v>6.1076224999999998E-2</v>
+        <f>资产配置表!C10</f>
+        <v>3.1965149999999998E-2</v>
       </c>
       <c r="P33" s="60">
         <f t="shared" si="19"/>
-        <v>5.7499689301801792E-2</v>
+        <v>3.1965149999999998E-2</v>
       </c>
     </row>
     <row r="34" spans="1:16">
       <c r="A34" s="90" t="str">
-        <f>组合权益类行业占比!J11</f>
-        <v>养老产业</v>
+        <f>组合权益类行业占比!J10</f>
+        <v>中证传媒</v>
       </c>
       <c r="B34" s="58">
         <f t="shared" si="8"/>
@@ -36588,23 +36586,23 @@
       </c>
       <c r="E34" s="58">
         <f t="shared" si="11"/>
-        <v>0.33095286624203824</v>
+        <v>0.51732229299363053</v>
       </c>
       <c r="F34" s="58">
         <f t="shared" si="12"/>
-        <v>8.2507537688442212E-2</v>
+        <v>0</v>
       </c>
       <c r="G34" s="58">
         <f t="shared" si="13"/>
-        <v>0.36574999999999996</v>
+        <v>0</v>
       </c>
       <c r="H34" s="58">
         <f t="shared" si="14"/>
-        <v>8.7400000000000005E-2</v>
+        <v>0</v>
       </c>
       <c r="I34" s="58">
         <f t="shared" si="15"/>
-        <v>7.2352941176470592E-2</v>
+        <v>0.33360000000000001</v>
       </c>
       <c r="J34" s="58">
         <f t="shared" si="20"/>
@@ -36616,28 +36614,28 @@
       </c>
       <c r="L34" s="60">
         <f t="shared" si="17"/>
-        <v>-6.1036654893048992E-2</v>
+        <v>-0.14907770700636946</v>
       </c>
       <c r="M34" s="61">
-        <v>6057.22</v>
+        <v>1057.18</v>
       </c>
       <c r="N34" s="61">
         <f t="shared" si="18"/>
-        <v>5687.5075532487263</v>
+        <v>899.57802970700641</v>
       </c>
       <c r="O34" s="89">
-        <f>资产配置表!C12</f>
-        <v>5.6750000000000002E-2</v>
+        <f>资产配置表!C13</f>
+        <v>3.70254125E-2</v>
       </c>
       <c r="P34" s="60">
         <f t="shared" si="19"/>
-        <v>5.3286169834819472E-2</v>
+        <v>3.1505748903535032E-2</v>
       </c>
     </row>
     <row r="35" spans="1:16">
       <c r="A35" s="90" t="str">
-        <f>组合权益类行业占比!J12</f>
-        <v>中证环保</v>
+        <f>组合权益类行业占比!J11</f>
+        <v>全指医药</v>
       </c>
       <c r="B35" s="58">
         <f t="shared" si="8"/>
@@ -36645,15 +36643,15 @@
       </c>
       <c r="C35" s="58">
         <f t="shared" si="9"/>
-        <v>4.5002312138728323E-2</v>
+        <v>0</v>
       </c>
       <c r="D35" s="58">
         <f t="shared" si="10"/>
-        <v>0.65708823529411764</v>
+        <v>0</v>
       </c>
       <c r="E35" s="58">
         <f t="shared" si="11"/>
-        <v>5.2085350318471335E-2</v>
+        <v>0</v>
       </c>
       <c r="F35" s="58">
         <f t="shared" si="12"/>
@@ -36661,7 +36659,7 @@
       </c>
       <c r="G35" s="58">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>0.94144144144144126</v>
       </c>
       <c r="H35" s="58">
         <f t="shared" si="14"/>
@@ -36669,7 +36667,7 @@
       </c>
       <c r="I35" s="58">
         <f t="shared" si="15"/>
-        <v>5.7600000000000005E-2</v>
+        <v>0</v>
       </c>
       <c r="J35" s="58">
         <f t="shared" si="20"/>
@@ -36677,32 +36675,32 @@
       </c>
       <c r="K35" s="58">
         <f t="shared" si="16"/>
-        <v>0.13019999999999998</v>
+        <v>0</v>
       </c>
       <c r="L35" s="60">
         <f t="shared" si="17"/>
-        <v>-5.8024102248682707E-2</v>
+        <v>-5.8558558558558738E-2</v>
       </c>
       <c r="M35" s="61">
-        <v>1011.74</v>
+        <v>7863.88</v>
       </c>
       <c r="N35" s="61">
         <f t="shared" si="18"/>
-        <v>953.0346947909178</v>
+        <v>7403.382522522521</v>
       </c>
       <c r="O35" s="89">
-        <f>资产配置表!C14</f>
-        <v>6.0069037499999992E-2</v>
+        <f>资产配置表!C9</f>
+        <v>6.1076224999999998E-2</v>
       </c>
       <c r="P35" s="60">
         <f t="shared" si="19"/>
-        <v>5.6583585526120035E-2</v>
+        <v>5.7499689301801792E-2</v>
       </c>
     </row>
     <row r="36" spans="1:16">
       <c r="A36" s="90" t="str">
-        <f>组合权益类行业占比!J13</f>
-        <v>创业板指</v>
+        <f>组合权益类行业占比!J12</f>
+        <v>养老产业</v>
       </c>
       <c r="B36" s="58">
         <f t="shared" si="8"/>
@@ -36710,31 +36708,31 @@
       </c>
       <c r="C36" s="58">
         <f t="shared" si="9"/>
-        <v>2.7806936416184973E-2</v>
+        <v>0</v>
       </c>
       <c r="D36" s="58">
         <f t="shared" si="10"/>
-        <v>0.18315000000000001</v>
+        <v>0</v>
       </c>
       <c r="E36" s="58">
         <f t="shared" si="11"/>
-        <v>5.914777070063694E-2</v>
+        <v>0.33095286624203824</v>
       </c>
       <c r="F36" s="58">
         <f t="shared" si="12"/>
-        <v>9.5932160804020103E-2</v>
+        <v>8.2507537688442212E-2</v>
       </c>
       <c r="G36" s="58">
         <f t="shared" si="13"/>
-        <v>0.17454324324324322</v>
+        <v>0.36574999999999996</v>
       </c>
       <c r="H36" s="58">
         <f t="shared" si="14"/>
-        <v>5.1900000000000002E-2</v>
+        <v>8.7400000000000005E-2</v>
       </c>
       <c r="I36" s="58">
         <f t="shared" si="15"/>
-        <v>0.26816470588235297</v>
+        <v>7.2352941176470592E-2</v>
       </c>
       <c r="J36" s="58">
         <f t="shared" si="20"/>
@@ -36746,55 +36744,177 @@
       </c>
       <c r="L36" s="60">
         <f t="shared" si="17"/>
-        <v>-0.13935518295356164</v>
+        <v>-6.1036654893048992E-2</v>
       </c>
       <c r="M36" s="61">
-        <v>1231.8599999999999</v>
+        <v>6057.22</v>
       </c>
       <c r="N36" s="61">
         <f t="shared" si="18"/>
+        <v>5687.5075532487263</v>
+      </c>
+      <c r="O36" s="89">
+        <f>资产配置表!C12</f>
+        <v>5.6750000000000002E-2</v>
+      </c>
+      <c r="P36" s="60">
+        <f t="shared" si="19"/>
+        <v>5.3286169834819472E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="A37" s="90" t="str">
+        <f>组合权益类行业占比!J13</f>
+        <v>中证环保</v>
+      </c>
+      <c r="B37" s="58">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C37" s="58">
+        <f t="shared" si="9"/>
+        <v>4.5002312138728323E-2</v>
+      </c>
+      <c r="D37" s="58">
+        <f t="shared" si="10"/>
+        <v>0.65708823529411764</v>
+      </c>
+      <c r="E37" s="58">
+        <f t="shared" si="11"/>
+        <v>5.2085350318471335E-2</v>
+      </c>
+      <c r="F37" s="58">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G37" s="58">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H37" s="58">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I37" s="58">
+        <f t="shared" si="15"/>
+        <v>5.7600000000000005E-2</v>
+      </c>
+      <c r="J37" s="58">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K37" s="58">
+        <f t="shared" si="16"/>
+        <v>0.13019999999999998</v>
+      </c>
+      <c r="L37" s="60">
+        <f t="shared" si="17"/>
+        <v>-5.8024102248682707E-2</v>
+      </c>
+      <c r="M37" s="61">
+        <v>1011.74</v>
+      </c>
+      <c r="N37" s="61">
+        <f t="shared" si="18"/>
+        <v>953.0346947909178</v>
+      </c>
+      <c r="O37" s="89">
+        <f>资产配置表!C14</f>
+        <v>6.0069037499999992E-2</v>
+      </c>
+      <c r="P37" s="60">
+        <f t="shared" si="19"/>
+        <v>5.6583585526120035E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="A38" s="90" t="str">
+        <f>组合权益类行业占比!J14</f>
+        <v>创业板指</v>
+      </c>
+      <c r="B38" s="58">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C38" s="58">
+        <f t="shared" si="9"/>
+        <v>2.7806936416184973E-2</v>
+      </c>
+      <c r="D38" s="58">
+        <f t="shared" si="10"/>
+        <v>0.18315000000000001</v>
+      </c>
+      <c r="E38" s="58">
+        <f t="shared" si="11"/>
+        <v>5.914777070063694E-2</v>
+      </c>
+      <c r="F38" s="58">
+        <f t="shared" si="12"/>
+        <v>9.5932160804020103E-2</v>
+      </c>
+      <c r="G38" s="58">
+        <f t="shared" si="13"/>
+        <v>0.17454324324324322</v>
+      </c>
+      <c r="H38" s="58">
+        <f t="shared" si="14"/>
+        <v>5.1900000000000002E-2</v>
+      </c>
+      <c r="I38" s="58">
+        <f t="shared" si="15"/>
+        <v>0.26816470588235297</v>
+      </c>
+      <c r="J38" s="58">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K38" s="58">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="L38" s="60">
+        <f t="shared" si="17"/>
+        <v>-0.13935518295356164</v>
+      </c>
+      <c r="M38" s="61">
+        <v>1231.8599999999999</v>
+      </c>
+      <c r="N38" s="61">
+        <f t="shared" si="18"/>
         <v>1060.1939243268255</v>
       </c>
-      <c r="O36" s="89">
+      <c r="O38" s="89">
         <f>资产配置表!C8</f>
         <v>1.6085612499999999E-2</v>
       </c>
-      <c r="P36" s="60">
+      <c r="P38" s="60">
         <f t="shared" si="19"/>
         <v>1.38439990271424E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:16">
-      <c r="O37" s="89">
-        <f>1-SUM(O25:O36)</f>
-        <v>0.33748315000000007</v>
-      </c>
-      <c r="P37" s="60">
-        <f>O37</f>
-        <v>0.33748315000000007</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16">
-      <c r="O38" s="89">
-        <f>SUM(O25:O37)</f>
+    <row r="39" spans="1:16">
+      <c r="O39" s="89">
+        <f>1-SUM(O26:O38)</f>
+        <v>0.32942878750000004</v>
+      </c>
+      <c r="P39" s="60">
+        <f>O39</f>
+        <v>0.32942878750000004</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="O40" s="89">
+        <f>SUM(O26:O39)</f>
         <v>1</v>
       </c>
-      <c r="P38" s="89">
-        <f>SUM(P25:P37)</f>
-        <v>0.95024154531416349</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16">
-      <c r="B39" s="90"/>
-      <c r="C39" s="90"/>
-    </row>
-    <row r="40" spans="1:16">
-      <c r="B40" s="60"/>
-      <c r="C40" s="60"/>
+      <c r="P40" s="89">
+        <f>SUM(P26:P39)</f>
+        <v>0.94985758156095379</v>
+      </c>
     </row>
     <row r="41" spans="1:16">
-      <c r="B41" s="60"/>
-      <c r="C41" s="60"/>
+      <c r="B41" s="90"/>
+      <c r="C41" s="90"/>
     </row>
     <row r="42" spans="1:16">
       <c r="B42" s="60"/>
@@ -36836,10 +36956,18 @@
       <c r="B51" s="60"/>
       <c r="C51" s="60"/>
     </row>
+    <row r="52" spans="2:3">
+      <c r="B52" s="60"/>
+      <c r="C52" s="60"/>
+    </row>
+    <row r="53" spans="2:3">
+      <c r="B53" s="60"/>
+      <c r="C53" s="60"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="B3:K13">
-    <cfRule type="dataBar" priority="6">
+  <conditionalFormatting sqref="B3:K3 B5:K14">
+    <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -36852,8 +36980,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C14:I14">
-    <cfRule type="dataBar" priority="5">
+  <conditionalFormatting sqref="C15:I15">
+    <cfRule type="dataBar" priority="6">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -36866,8 +36994,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B14">
-    <cfRule type="dataBar" priority="4">
+  <conditionalFormatting sqref="B15">
+    <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -36880,8 +37008,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J14">
-    <cfRule type="dataBar" priority="3">
+  <conditionalFormatting sqref="J15">
+    <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -36894,8 +37022,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K14">
-    <cfRule type="dataBar" priority="2">
+  <conditionalFormatting sqref="K15">
+    <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -36908,14 +37036,28 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C21:AB21">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="C22:AB22">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
         <color rgb="FF00B050"/>
         <color theme="0"/>
       </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:K4">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF9933"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{ECA4DD25-993C-4942-9C75-5B69649F5011}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -36931,7 +37073,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>B3:K13</xm:sqref>
+          <xm:sqref>B3:K3 B5:K14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{C92F1452-4F30-4F6A-8CBA-AA4AFF4D0D5D}">
@@ -36942,7 +37084,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C14:I14</xm:sqref>
+          <xm:sqref>C15:I15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{90638C5C-32C0-48A5-AE4D-21587F641582}">
@@ -36953,7 +37095,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>B14</xm:sqref>
+          <xm:sqref>B15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{610EC479-E81E-4CD9-BC94-B9FDD85C84E2}">
@@ -36964,7 +37106,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>J14</xm:sqref>
+          <xm:sqref>J15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{424A9F78-9254-4FF1-B814-CF7CFCD7A2D5}">
@@ -36975,7 +37117,18 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>K14</xm:sqref>
+          <xm:sqref>K15</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{ECA4DD25-993C-4942-9C75-5B69649F5011}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B4:K4</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -37050,15 +37203,15 @@
       </c>
       <c r="C2" s="21">
         <f>(($N$2+1)*((1+$K$2*$G$2))^C$1)</f>
-        <v>0.82256408654772062</v>
+        <v>0.82094082719360451</v>
       </c>
       <c r="D2" s="21">
         <f>(($N$2+1)*((1+$K$2*$G$2))^D$1)</f>
-        <v>0.98533839031244896</v>
+        <v>0.98353767567887196</v>
       </c>
       <c r="E2" s="21">
         <f>(($N$2+1)*((1+$K$2*$G$2))^E$1)</f>
-        <v>1.1803235265209968</v>
+        <v>1.1783387150894691</v>
       </c>
       <c r="G2" s="88">
         <v>0.8</v>
@@ -37072,30 +37225,30 @@
       </c>
       <c r="K2" s="18">
         <f>已投部分年化收益率!W13</f>
-        <v>0.1181</v>
+        <v>0.1182</v>
       </c>
       <c r="L2" s="1">
         <f>资产配置表!H28</f>
-        <v>10.390458846278054</v>
+        <v>10.41328718072657</v>
       </c>
       <c r="M2" s="1">
         <v>21.73</v>
       </c>
       <c r="N2" s="18">
         <f t="shared" ref="N2:N12" si="0">$M2*0.3/$L2-1</f>
-        <v>-0.37259748617019373</v>
+        <v>-0.37397289762010122</v>
       </c>
       <c r="O2" s="18">
         <f t="shared" ref="O2:O12" si="1">$M2*0.5/$L2-1</f>
-        <v>4.5670856383010383E-2</v>
+        <v>4.3378503966498005E-2</v>
       </c>
       <c r="P2" s="18">
         <f t="shared" ref="P2:P12" si="2">$M2*0.7/$L2-1</f>
-        <v>0.46393919893621449</v>
+        <v>0.4607299055530969</v>
       </c>
       <c r="Q2" s="18">
         <f t="shared" ref="Q2:Q12" si="3">$M2/$L2-1</f>
-        <v>1.0913417127660208</v>
+        <v>1.086757007932996</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -37109,15 +37262,15 @@
       </c>
       <c r="C3" s="21">
         <f>(($O$2+1)*((1+$K$2*$G$2))^C$1)</f>
-        <v>1.3709401442462008</v>
+        <v>1.368234711989341</v>
       </c>
       <c r="D3" s="21">
         <f>(($O$2+1)*((1+$K$2*$G$2))^D$1)</f>
-        <v>1.6422306505207482</v>
+        <v>1.6392294594647867</v>
       </c>
       <c r="E3" s="21">
         <f>(($O$2+1)*((1+$K$2*$G$2))^E$1)</f>
-        <v>1.9672058775349948</v>
+        <v>1.9638978584824487</v>
       </c>
       <c r="I3" t="s">
         <v>216</v>
@@ -37132,26 +37285,26 @@
       </c>
       <c r="L3" s="1">
         <f>资产配置表!H29</f>
-        <v>11.631060512648</v>
+        <v>11.628648828610331</v>
       </c>
       <c r="M3" s="1">
         <v>19</v>
       </c>
       <c r="N3" s="18">
         <f t="shared" si="0"/>
-        <v>-0.50993290819855752</v>
+        <v>-0.50983127240233528</v>
       </c>
       <c r="O3" s="18">
         <f t="shared" si="1"/>
-        <v>-0.18322151366426254</v>
+        <v>-0.18305212067055887</v>
       </c>
       <c r="P3" s="18">
         <f t="shared" si="2"/>
-        <v>0.14348988087003223</v>
+        <v>0.14372703106121754</v>
       </c>
       <c r="Q3" s="18">
         <f t="shared" si="3"/>
-        <v>0.63355697267147493</v>
+        <v>0.63389575865888226</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -37161,15 +37314,15 @@
       </c>
       <c r="C4" s="21">
         <f>(($P$2+1)*((1+$K$2*$G$2))^C$1)</f>
-        <v>1.9193162019446812</v>
+        <v>1.9155285967850768</v>
       </c>
       <c r="D4" s="21">
         <f>(($P$2+1)*((1+$K$2*$G$2))^D$1)</f>
-        <v>2.2991229107290474</v>
+        <v>2.2949212432507009</v>
       </c>
       <c r="E4" s="21">
         <f>(($P$2+1)*((1+$K$2*$G$2))^E$1)</f>
-        <v>2.7540882285489925</v>
+        <v>2.7494570018754274</v>
       </c>
       <c r="I4" t="s">
         <v>217</v>
@@ -37180,30 +37333,30 @@
       </c>
       <c r="K4" s="18">
         <f>已投部分年化收益率!W16</f>
-        <v>9.0300000000000005E-2</v>
+        <v>9.0899999999999995E-2</v>
       </c>
       <c r="L4" s="1">
         <f>资产配置表!H30</f>
-        <v>22.593146950757973</v>
+        <v>22.391071645233747</v>
       </c>
       <c r="M4" s="1">
         <v>83.24</v>
       </c>
       <c r="N4" s="18">
         <f t="shared" si="0"/>
-        <v>0.10529091208173713</v>
+        <v>0.11526595938143225</v>
       </c>
       <c r="O4" s="18">
         <f t="shared" si="1"/>
-        <v>0.84215152013622863</v>
+        <v>0.85877659896905367</v>
       </c>
       <c r="P4" s="18">
         <f t="shared" si="2"/>
-        <v>1.5790121281907199</v>
+        <v>1.6022872385566749</v>
       </c>
       <c r="Q4" s="18">
         <f t="shared" si="3"/>
-        <v>2.6843030402724573</v>
+        <v>2.7175531979381073</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -37217,30 +37370,30 @@
       </c>
       <c r="K5" s="18">
         <f>已投部分年化收益率!W17</f>
-        <v>8.9899999999999994E-2</v>
+        <v>9.01E-2</v>
       </c>
       <c r="L5" s="1">
         <f>资产配置表!H31</f>
-        <v>28.026644822712921</v>
+        <v>27.950198227095974</v>
       </c>
       <c r="M5" s="1">
         <v>144.82</v>
       </c>
       <c r="N5" s="18">
         <f t="shared" si="0"/>
-        <v>0.55016771628658034</v>
+        <v>0.55440758047582683</v>
       </c>
       <c r="O5" s="18">
         <f t="shared" si="1"/>
-        <v>1.5836128604776336</v>
+        <v>1.5906793007930449</v>
       </c>
       <c r="P5" s="18">
         <f t="shared" si="2"/>
-        <v>2.6170580046686873</v>
+        <v>2.6269510211102625</v>
       </c>
       <c r="Q5" s="18">
         <f t="shared" si="3"/>
-        <v>4.1672257209552672</v>
+        <v>4.1813586015860897</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -37253,15 +37406,15 @@
       </c>
       <c r="C6" s="21">
         <f>(($N$3+1)*((1+$K$3*$G$2))^C$1)</f>
-        <v>0.65142577884057906</v>
+        <v>0.65156087907240401</v>
       </c>
       <c r="D6" s="21">
         <f>(($N$3+1)*((1+$K$3*$G$2))^D$1)</f>
-        <v>0.78753743686314448</v>
+        <v>0.78770076550893497</v>
       </c>
       <c r="E6" s="21">
         <f>(($N$3+1)*((1+$K$3*$G$2))^E$1)</f>
-        <v>0.95208884051970311</v>
+        <v>0.95228629574369061</v>
       </c>
       <c r="I6" t="s">
         <v>178</v>
@@ -37272,30 +37425,30 @@
       </c>
       <c r="K6" s="18">
         <f>已投部分年化收益率!W18</f>
-        <v>0.11799999999999999</v>
+        <v>0.11890000000000001</v>
       </c>
       <c r="L6" s="1">
         <f>资产配置表!H32</f>
-        <v>33.20881023470217</v>
+        <v>32.904822169783024</v>
       </c>
       <c r="M6" s="1">
         <v>137.86000000000001</v>
       </c>
       <c r="N6" s="18">
         <f t="shared" si="0"/>
-        <v>0.24539240363336434</v>
+        <v>0.2568978427113231</v>
       </c>
       <c r="O6" s="18">
         <f t="shared" si="1"/>
-        <v>1.0756540060556072</v>
+        <v>1.0948297378522054</v>
       </c>
       <c r="P6" s="18">
         <f t="shared" si="2"/>
-        <v>1.9059156084778501</v>
+        <v>1.9327616329930875</v>
       </c>
       <c r="Q6" s="18">
         <f t="shared" si="3"/>
-        <v>3.1513080121112145</v>
+        <v>3.1896594757044108</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -37309,15 +37462,15 @@
       </c>
       <c r="C7" s="21">
         <f>(($O$3+1)*((1+$K$3*$G$2))^C$1)</f>
-        <v>1.0857096314009651</v>
+        <v>1.0859347984540064</v>
       </c>
       <c r="D7" s="21">
         <f>(($O$3+1)*((1+$K$2*$G$2))^D$1)</f>
-        <v>1.2827541828852329</v>
+        <v>1.2834891897361755</v>
       </c>
       <c r="E7" s="21">
         <f>(($O$3+1)*((1+$K$3*$G$2))^E$1)</f>
-        <v>1.5868147341995051</v>
+        <v>1.5871438262394841</v>
       </c>
       <c r="I7" t="s">
         <v>219</v>
@@ -37328,30 +37481,30 @@
       </c>
       <c r="K7" s="18">
         <f>已投部分年化收益率!W19</f>
-        <v>0.12239999999999999</v>
+        <v>0.1229</v>
       </c>
       <c r="L7" s="1">
         <f>资产配置表!H33</f>
-        <v>28.459130847395937</v>
+        <v>28.384263006234843</v>
       </c>
       <c r="M7" s="1">
         <v>74.42</v>
       </c>
       <c r="N7" s="18">
         <f t="shared" si="0"/>
-        <v>-0.2155066112272761</v>
+        <v>-0.21343738975727833</v>
       </c>
       <c r="O7" s="18">
         <f t="shared" si="1"/>
-        <v>0.30748898128787316</v>
+        <v>0.31093768373786945</v>
       </c>
       <c r="P7" s="18">
         <f t="shared" si="2"/>
-        <v>0.83048457380302243</v>
+        <v>0.83531275723301723</v>
       </c>
       <c r="Q7" s="18">
         <f t="shared" si="3"/>
-        <v>1.6149779625757463</v>
+        <v>1.6218753674757389</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -37361,15 +37514,15 @@
       </c>
       <c r="C8" s="21">
         <f>(($P$3+1)*((1+$K$3*$G$2))^C$1)</f>
-        <v>1.5199934839613507</v>
+        <v>1.5203087178356092</v>
       </c>
       <c r="D8" s="21">
         <f>(($P$3+1)*((1+$K$3*$G$2))^D$1)</f>
-        <v>1.8375873526806701</v>
+        <v>1.8379684528541813</v>
       </c>
       <c r="E8" s="21">
         <f>(($P$3+1)*((1+$K$3*$G$2))^E$1)</f>
-        <v>2.2215406278793068</v>
+        <v>2.2220013567352779</v>
       </c>
       <c r="I8" t="s">
         <v>220</v>
@@ -37380,30 +37533,30 @@
       </c>
       <c r="K8" s="18">
         <f>已投部分年化收益率!W21</f>
-        <v>0.12720000000000001</v>
+        <v>0.12740000000000001</v>
       </c>
       <c r="L8" s="1">
         <f>资产配置表!H34</f>
-        <v>24.058844981443023</v>
+        <v>24.000578924314926</v>
       </c>
       <c r="M8" s="1">
         <v>52.47</v>
       </c>
       <c r="N8" s="18">
         <f t="shared" si="0"/>
-        <v>-0.34572918973702649</v>
+        <v>-0.3441408205344233</v>
       </c>
       <c r="O8" s="18">
         <f t="shared" si="1"/>
-        <v>9.0451350438289113E-2</v>
+        <v>9.3098632442627727E-2</v>
       </c>
       <c r="P8" s="18">
         <f t="shared" si="2"/>
-        <v>0.52663189061360471</v>
+        <v>0.53033808541967886</v>
       </c>
       <c r="Q8" s="18">
         <f t="shared" si="3"/>
-        <v>1.1809027008765782</v>
+        <v>1.1861972648852555</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -37417,30 +37570,30 @@
       </c>
       <c r="K9" s="18">
         <f>已投部分年化收益率!W23</f>
-        <v>8.5699999999999998E-2</v>
+        <v>8.5800000000000001E-2</v>
       </c>
       <c r="L9" s="1">
         <f>资产配置表!H35</f>
-        <v>24.829376807487442</v>
+        <v>24.735709242879665</v>
       </c>
       <c r="M9" s="1">
         <v>71.13</v>
       </c>
       <c r="N9" s="18">
         <f t="shared" si="0"/>
-        <v>-0.14057448298238806</v>
+        <v>-0.13732006669092911</v>
       </c>
       <c r="O9" s="18">
         <f t="shared" si="1"/>
-        <v>0.43237586169602005</v>
+        <v>0.43779988884845156</v>
       </c>
       <c r="P9" s="18">
         <f t="shared" si="2"/>
-        <v>1.0053262063744279</v>
+        <v>1.0129198443878322</v>
       </c>
       <c r="Q9" s="18">
         <f t="shared" si="3"/>
-        <v>1.8647517233920401</v>
+        <v>1.8755997776969031</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -37453,15 +37606,15 @@
       </c>
       <c r="C10" s="21">
         <f>(($N$4+1)*((1+$K$4*$G$2))^C$1)</f>
-        <v>1.362550517234264</v>
+        <v>1.3766945082759898</v>
       </c>
       <c r="D10" s="21">
         <f>(($N$4+1)*((1+$K$4*$G$2))^D$1)</f>
-        <v>1.5665224460743985</v>
+        <v>1.5842011912556035</v>
       </c>
       <c r="E10" s="21">
         <f>(($N$4+1)*((1+$K$4*$G$2))^E$1)</f>
-        <v>1.8010286906911066</v>
+        <v>1.8229849827166937</v>
       </c>
       <c r="I10" t="s">
         <v>222</v>
@@ -37476,26 +37629,26 @@
       </c>
       <c r="L10" s="1">
         <f>资产配置表!H36</f>
-        <v>29.530659488658774</v>
+        <v>29.374032435889841</v>
       </c>
       <c r="M10" s="1">
         <v>121.16</v>
       </c>
       <c r="N10" s="18">
         <f t="shared" si="0"/>
-        <v>0.23085635842164032</v>
+        <v>0.2374194819635731</v>
       </c>
       <c r="O10" s="18">
         <f t="shared" si="1"/>
-        <v>1.0514272640360671</v>
+        <v>1.0623658032726215</v>
       </c>
       <c r="P10" s="18">
         <f t="shared" si="2"/>
-        <v>1.8719981696504941</v>
+        <v>1.8873121245816704</v>
       </c>
       <c r="Q10" s="18">
         <f t="shared" si="3"/>
-        <v>3.1028545280721342</v>
+        <v>3.1247316065452431</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -37509,15 +37662,15 @@
       </c>
       <c r="C11" s="21">
         <f>(($O$4+1)*((1+$K$4*$G$2))^C$1)</f>
-        <v>2.2709175287237735</v>
+        <v>2.2944908471266499</v>
       </c>
       <c r="D11" s="21">
         <f>(($O$4+1)*((1+$K$4*$G$2))^D$1)</f>
-        <v>2.6108707434573311</v>
+        <v>2.6403353187593392</v>
       </c>
       <c r="E11" s="21">
         <f>(($O$4+1)*((1+$K$4*$G$2))^E$1)</f>
-        <v>3.001714484485178</v>
+        <v>3.0383083045278227</v>
       </c>
       <c r="I11" t="s">
         <v>223</v>
@@ -37528,30 +37681,30 @@
       </c>
       <c r="K11" s="18">
         <f>已投部分年化收益率!W14</f>
-        <v>0.12520000000000001</v>
+        <v>0.12509999999999999</v>
       </c>
       <c r="L11" s="1">
         <f>资产配置表!H37</f>
-        <v>1.1267127082601742</v>
+        <v>1.1358648917450846</v>
       </c>
       <c r="M11" s="1">
         <v>3.5</v>
       </c>
       <c r="N11" s="18">
         <f t="shared" si="0"/>
-        <v>-6.8085420265322938E-2</v>
+        <v>-7.5594282708365212E-2</v>
       </c>
       <c r="O11" s="18">
         <f t="shared" si="1"/>
-        <v>0.55319096622446162</v>
+        <v>0.54067619548605794</v>
       </c>
       <c r="P11" s="18">
         <f t="shared" si="2"/>
-        <v>1.1744673527142462</v>
+        <v>1.1569466736804808</v>
       </c>
       <c r="Q11" s="18">
         <f t="shared" si="3"/>
-        <v>2.1063819324489232</v>
+        <v>2.0813523909721159</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -37561,15 +37714,15 @@
       </c>
       <c r="C12" s="21">
         <f>(($P$4+1)*((1+$K$4*$G$2))^C$1)</f>
-        <v>3.1792845402132826</v>
+        <v>3.2122871859773094</v>
       </c>
       <c r="D12" s="21">
         <f>(($P$4+1)*((1+$K$4*$G$2))^D$1)</f>
-        <v>3.6552190408402629</v>
+        <v>3.6964694462630745</v>
       </c>
       <c r="E12" s="21">
         <f>(($P$4+1)*((1+$K$4*$G$2))^E$1)</f>
-        <v>4.2024002782792484</v>
+        <v>4.2536316263389518</v>
       </c>
       <c r="I12" t="s">
         <v>239</v>
@@ -37584,26 +37737,26 @@
       </c>
       <c r="L12" s="1">
         <f>资产配置表!H38</f>
-        <v>1.3279235342961813</v>
+        <v>1.3271007482486203</v>
       </c>
       <c r="M12">
         <v>5.04</v>
       </c>
       <c r="N12" s="18">
         <f t="shared" si="0"/>
-        <v>0.13861977813457615</v>
+        <v>0.13932570831219238</v>
       </c>
       <c r="O12" s="18">
         <f t="shared" si="1"/>
-        <v>0.89769963022429344</v>
+        <v>0.8988761805203207</v>
       </c>
       <c r="P12" s="18">
         <f t="shared" si="2"/>
-        <v>1.6567794823140103</v>
+        <v>1.6584266527284486</v>
       </c>
       <c r="Q12" s="18">
         <f t="shared" si="3"/>
-        <v>2.7953992604485869</v>
+        <v>2.7977523610406414</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -37629,15 +37782,15 @@
       </c>
       <c r="C14" s="21">
         <f>(($N$5+1)*((1+$K$5*$G$2))^C$1)</f>
-        <v>1.9092632375284679</v>
+        <v>1.9153426881420279</v>
       </c>
       <c r="D14" s="21">
         <f>(($N$5+1)*((1+$K$5*$G$2))^D$1)</f>
-        <v>2.1937672997446986</v>
+        <v>2.2014097035658717</v>
       </c>
       <c r="E14" s="21">
         <f>(($N$5+1)*((1+$K$5*$G$2))^E$1)</f>
-        <v>2.5206660196626705</v>
+        <v>2.53020240866402</v>
       </c>
       <c r="I14" t="s">
         <v>282</v>
@@ -37660,15 +37813,15 @@
       </c>
       <c r="C15" s="21">
         <f>(($O$5+1)*((1+$K$5*$G$2))^C$1)</f>
-        <v>3.1821053958807797</v>
+        <v>3.1922378135700464</v>
       </c>
       <c r="D15" s="21">
         <f>(($O$5+1)*((1+$K$5*$G$2))^D$1)</f>
-        <v>3.6562788329078306</v>
+        <v>3.6690161726097861</v>
       </c>
       <c r="E15" s="21">
         <f>(($O$5+1)*((1+$K$5*$G$2))^E$1)</f>
-        <v>4.2011100327711164</v>
+        <v>4.2170040144400334</v>
       </c>
       <c r="I15" t="s">
         <v>283</v>
@@ -37686,15 +37839,15 @@
       </c>
       <c r="C16" s="21">
         <f>(($P$5+1)*((1+$K$5*$G$2))^C$1)</f>
-        <v>4.4549475542330921</v>
+        <v>4.4691329389980643</v>
       </c>
       <c r="D16" s="21">
         <f>(($P$5+1)*((1+$K$5*$G$2))^D$1)</f>
-        <v>5.1187903660709635</v>
+        <v>5.1366226416537</v>
       </c>
       <c r="E16" s="21">
         <f>(($P$5+1)*((1+$K$5*$G$2))^E$1)</f>
-        <v>5.8815540458795637</v>
+        <v>5.9038056202160458</v>
       </c>
       <c r="I16" t="s">
         <v>233</v>
@@ -37718,15 +37871,15 @@
       </c>
       <c r="C18" s="21">
         <f>(($N$6+1)*((1+$K$6*$G$2))^C$1)</f>
-        <v>1.6324296169131838</v>
+        <v>1.6507644679187301</v>
       </c>
       <c r="D18" s="21">
         <f>(($N$6+1)*((1+$K$6*$G$2))^D$1)</f>
-        <v>1.9551794965773683</v>
+        <v>1.9797417108194328</v>
       </c>
       <c r="E18" s="21">
         <f>(($N$6+1)*((1+$K$6*$G$2))^E$1)</f>
-        <v>2.3417406938897951</v>
+        <v>2.3742801094451544</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -37740,15 +37893,15 @@
       </c>
       <c r="C19" s="21">
         <f>(($O$6+1)*((1+$K$6*$G$2))^C$1)</f>
-        <v>2.7207160281886398</v>
+        <v>2.751274113197884</v>
       </c>
       <c r="D19" s="21">
         <f>(($O$6+1)*((1+$K$6*$G$2))^D$1)</f>
-        <v>3.2586324942956137</v>
+        <v>3.2995695180323885</v>
       </c>
       <c r="E19" s="21">
         <f>(($O$6+1)*((1+$K$6*$G$2))^E$1)</f>
-        <v>3.9029011564829923</v>
+        <v>3.9571335157419245</v>
       </c>
       <c r="I19" t="s">
         <v>227</v>
@@ -37761,15 +37914,15 @@
       </c>
       <c r="C20" s="21">
         <f>(($P$6+1)*((1+$K$6*$G$2))^C$1)</f>
-        <v>3.8090024394640953</v>
+        <v>3.8517837584770374</v>
       </c>
       <c r="D20" s="21">
         <f>(($P$6+1)*((1+$K$6*$G$2))^D$1)</f>
-        <v>4.5620854920138596</v>
+        <v>4.6193973252453437</v>
       </c>
       <c r="E20" s="21">
         <f>(($P$6+1)*((1+$K$6*$G$2))^E$1)</f>
-        <v>5.4640616190761886</v>
+        <v>5.5399869220386941</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -37785,15 +37938,15 @@
       </c>
       <c r="C22" s="21">
         <f>(($N$7+1)*((1+$K$7*$G$2))^C$1)</f>
-        <v>1.0382486548205698</v>
+        <v>1.0421253830623947</v>
       </c>
       <c r="D22" s="21">
         <f>(($N$7+1)*((1+$K$7*$G$2))^D$1)</f>
-        <v>1.2515343383674107</v>
+        <v>1.25712295938438</v>
       </c>
       <c r="E22" s="21">
         <f>(($N$7+1)*((1+$K$7*$G$2))^E$1)</f>
-        <v>1.5086349429303594</v>
+        <v>1.5164760025010557</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -37807,15 +37960,15 @@
       </c>
       <c r="C23" s="21">
         <f>(($O$7+1)*((1+$K$7*$G$2))^C$1)</f>
-        <v>1.7304144247009496</v>
+        <v>1.7368756384373245</v>
       </c>
       <c r="D23" s="21">
         <f>(($O$7+1)*((1+$K$7*$G$2))^D$1)</f>
-        <v>2.0858905639456844</v>
+        <v>2.0952049323073001</v>
       </c>
       <c r="E23" s="21">
         <f>(($O$7+1)*((1+$K$7*$G$2))^E$1)</f>
-        <v>2.5143915715505991</v>
+        <v>2.5274600041684261</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -37825,15 +37978,15 @@
       </c>
       <c r="C24" s="21">
         <f>(($P$7+1)*((1+$K$7*$G$2))^C$1)</f>
-        <v>2.4225801945813297</v>
+        <v>2.4316258938122544</v>
       </c>
       <c r="D24" s="21">
         <f>(($P$7+1)*((1+$K$7*$G$2))^D$1)</f>
-        <v>2.9202467895239583</v>
+        <v>2.93328690523022</v>
       </c>
       <c r="E24" s="21">
         <f>(($P$7+1)*((1+$K$7*$G$2))^E$1)</f>
-        <v>3.5201482001708388</v>
+        <v>3.5384440058357969</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -37849,15 +38002,15 @@
       </c>
       <c r="C26" s="21">
         <f>(($N$8+1)*((1+$K$8*$G$2))^C$1)</f>
-        <v>0.87502114538812803</v>
+        <v>0.87752762725360511</v>
       </c>
       <c r="D26" s="21">
         <f>(($N$8+1)*((1+$K$8*$G$2))^D$1)</f>
-        <v>1.0621663782600779</v>
+        <v>1.0655183405922266</v>
       </c>
       <c r="E26" s="21">
         <f>(($N$8+1)*((1+$K$8*$G$2))^E$1)</f>
-        <v>1.2893373160778907</v>
+        <v>1.2937818695140666</v>
       </c>
       <c r="L26" t="s">
         <v>7436</v>
@@ -37874,15 +38027,15 @@
       </c>
       <c r="C27" s="21">
         <f>(($O$8+1)*((1+$K$8*$G$2))^C$1)</f>
-        <v>1.45836857564688</v>
+        <v>1.4625460454226751</v>
       </c>
       <c r="D27" s="21">
         <f>(($O$8+1)*((1+$K$8*$G$2))^D$1)</f>
-        <v>1.7702772971001297</v>
+        <v>1.7758639009870443</v>
       </c>
       <c r="E27" s="21">
         <f>(($O$8+1)*((1+$K$8*$G$2))^E$1)</f>
-        <v>2.1488955267964842</v>
+        <v>2.1563031158567774</v>
       </c>
       <c r="L27" t="s">
         <v>7428</v>
@@ -37901,15 +38054,15 @@
       </c>
       <c r="C28" s="21">
         <f>(($P$8+1)*((1+$K$8*$G$2))^C$1)</f>
-        <v>2.0417160059056321</v>
+        <v>2.0475644635917449</v>
       </c>
       <c r="D28" s="21">
         <f>(($P$8+1)*((1+$K$8*$G$2))^D$1)</f>
-        <v>2.4783882159401815</v>
+        <v>2.4862094613818622</v>
       </c>
       <c r="E28" s="21">
         <f>(($P$8+1)*((1+$K$8*$G$2))^E$1)</f>
-        <v>3.0084537375150777</v>
+        <v>3.0188243621994886</v>
       </c>
       <c r="L28" t="s">
         <v>7431</v>
@@ -37942,15 +38095,15 @@
       </c>
       <c r="C30" s="21">
         <f>(($N$9+1)*((1+$K$9*$G$2))^C$1)</f>
-        <v>1.0485882405282769</v>
+        <v>1.0527953896847799</v>
       </c>
       <c r="D30" s="21">
         <f>(($N$9+1)*((1+$K$9*$G$2))^D$1)</f>
-        <v>1.197299521411388</v>
+        <v>1.2022833331983187</v>
       </c>
       <c r="E30" s="21">
         <f>(($N$9+1)*((1+$K$9*$G$2))^E$1)</f>
-        <v>1.367101106579004</v>
+        <v>1.372997286509068</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -37964,15 +38117,15 @@
       </c>
       <c r="C31" s="21">
         <f>(($O$9+1)*((1+$K$9*$G$2))^C$1)</f>
-        <v>1.7476470675471285</v>
+        <v>1.7546589828079666</v>
       </c>
       <c r="D31" s="21">
         <f>(($O$9+1)*((1+$K$9*$G$2))^D$1)</f>
-        <v>1.9954992023523135</v>
+        <v>2.0038055553305312</v>
       </c>
       <c r="E31" s="21">
         <f>(($O$9+1)*((1+$K$9*$G$2))^E$1)</f>
-        <v>2.2785018442983405</v>
+        <v>2.288328810848447</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -37982,15 +38135,15 @@
       </c>
       <c r="C32" s="21">
         <f>(($P$9+1)*((1+$K$9*$G$2))^C$1)</f>
-        <v>2.4467058945659796</v>
+        <v>2.4565225759311535</v>
       </c>
       <c r="D32" s="21">
         <f>(($P$9+1)*((1+$K$9*$G$2))^D$1)</f>
-        <v>2.7936988832932386</v>
+        <v>2.8053277774627441</v>
       </c>
       <c r="E32" s="21">
         <f>(($P$9+1)*((1+$K$9*$G$2))^E$1)</f>
-        <v>3.1899025820176763</v>
+        <v>3.2036603351878257</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -38003,15 +38156,15 @@
       </c>
       <c r="C34" s="21">
         <f>(($N$10+1)*((1+$K$10*$G$2))^C$1)</f>
-        <v>1.6048995629808565</v>
+        <v>1.6134571448889063</v>
       </c>
       <c r="D34" s="21">
         <f>(($N$10+1)*((1+$K$10*$G$2))^D$1)</f>
-        <v>1.9154677705491274</v>
+        <v>1.9256813519574612</v>
       </c>
       <c r="E34" s="21">
         <f>(($N$10+1)*((1+$K$10*$G$2))^E$1)</f>
-        <v>2.2861348240370916</v>
+        <v>2.2983248616324699</v>
       </c>
       <c r="L34" t="s">
         <v>7439</v>
@@ -38034,15 +38187,15 @@
       </c>
       <c r="C35" s="21">
         <f>(($O$10+1)*((1+$K$10*$G$2))^C$1)</f>
-        <v>2.6748326049680937</v>
+        <v>2.6890952414815099</v>
       </c>
       <c r="D35" s="21">
         <f>(($O$10+1)*((1+$K$10*$G$2))^D$1)</f>
-        <v>3.1924462842485459</v>
+        <v>3.2094689199291015</v>
       </c>
       <c r="E35" s="21">
         <f>(($O$10+1)*((1+$K$10*$G$2))^E$1)</f>
-        <v>3.8102247067284858</v>
+        <v>3.8305414360541157</v>
       </c>
       <c r="L35" t="s">
         <v>7440</v>
@@ -38061,15 +38214,15 @@
       </c>
       <c r="C36" s="21">
         <f>(($P$10+1)*((1+$K$10*$G$2))^C$1)</f>
-        <v>3.7447656469553317</v>
+        <v>3.7647333380741146</v>
       </c>
       <c r="D36" s="21">
         <f>(($P$10+1)*((1+$K$10*$G$2))^D$1)</f>
-        <v>4.4694247979479647</v>
+        <v>4.4932564879007426</v>
       </c>
       <c r="E36" s="21">
         <f>(($P$10+1)*((1+$K$10*$G$2))^E$1)</f>
-        <v>5.33431458941988</v>
+        <v>5.3627580104757628</v>
       </c>
       <c r="L36" t="s">
         <v>7441</v>
@@ -38091,15 +38244,15 @@
       </c>
       <c r="C38" s="21">
         <f>(($N$11+1)*((1+$K$11*$G$2))^C$1)</f>
-        <v>1.2409196403467257</v>
+        <v>1.2306524766593891</v>
       </c>
       <c r="D38" s="21">
         <f>(($N$11+1)*((1+$K$11*$G$2))^D$1)</f>
-        <v>1.5019496003004831</v>
+        <v>1.4893060994699285</v>
       </c>
       <c r="E38" s="21">
         <f>(($N$11+1)*((1+$K$11*$G$2))^E$1)</f>
-        <v>1.8178877410728</v>
+        <v>1.8023225077636786</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -38113,15 +38266,15 @@
       </c>
       <c r="C39" s="21">
         <f>(($O$11+1)*((1+$K$11*$G$2))^C$1)</f>
-        <v>2.0681994005778761</v>
+        <v>2.051087461098982</v>
       </c>
       <c r="D39" s="21">
         <f>(($O$11+1)*((1+$K$11*$G$2))^D$1)</f>
-        <v>2.5032493338341384</v>
+        <v>2.4821768324498805</v>
       </c>
       <c r="E39" s="21">
         <f>(($O$11+1)*((1+$K$11*$G$2))^E$1)</f>
-        <v>3.0298129017879996</v>
+        <v>3.0038708462727977</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -38131,15 +38284,15 @@
       </c>
       <c r="C40" s="21">
         <f>(($P$11+1)*((1+$K$11*$G$2))^C$1)</f>
-        <v>2.8954791608090265</v>
+        <v>2.8715224455385742</v>
       </c>
       <c r="D40" s="21">
         <f>(($P$11+1)*((1+$K$11*$G$2))^D$1)</f>
-        <v>3.5045490673677935</v>
+        <v>3.4750475654298323</v>
       </c>
       <c r="E40" s="21">
         <f>(($P$11+1)*((1+$K$11*$G$2))^E$1)</f>
-        <v>4.2417380625031997</v>
+        <v>4.205419184781916</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -38152,15 +38305,15 @@
       </c>
       <c r="C42" s="21">
         <f>(($N$12+1)*((1+$K$12*$G$2))^C$1)</f>
-        <v>1.3162878741420403</v>
+        <v>1.3171039563414111</v>
       </c>
       <c r="D42" s="21">
         <f>(($N$12+1)*((1+$K$12*$G$2))^D$1)</f>
-        <v>1.4498808663371905</v>
+        <v>1.4507797745391653</v>
       </c>
       <c r="E42" s="21">
         <f>(($N$12+1)*((1+$K$12*$G$2))^E$1)</f>
-        <v>1.5970325092760365</v>
+        <v>1.5980226496763543</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -38174,15 +38327,15 @@
       </c>
       <c r="C43" s="21">
         <f>(($O$12+1)*((1+$K$12*$G$2))^C$1)</f>
-        <v>2.1938131235700671</v>
+        <v>2.1951732605690188</v>
       </c>
       <c r="D43" s="21">
         <f>(($O$12+1)*((1+$K$12*$G$2))^D$1)</f>
-        <v>2.4164681105619841</v>
+        <v>2.417966290898609</v>
       </c>
       <c r="E43" s="21">
         <f>(($O$12+1)*((1+$K$12*$G$2))^E$1)</f>
-        <v>2.6617208487933937</v>
+        <v>2.6633710827939243</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -38192,15 +38345,15 @@
       </c>
       <c r="C44" s="21">
         <f>(($P$12+1)*((1+$K$12*$G$2))^C$1)</f>
-        <v>3.0713383729980932</v>
+        <v>3.0732425647966255</v>
       </c>
       <c r="D44" s="21">
         <f>(($P$12+1)*((1+$K$12*$G$2))^D$1)</f>
-        <v>3.383055354786777</v>
+        <v>3.3851528072580517</v>
       </c>
       <c r="E44" s="21">
         <f>(($P$12+1)*((1+$K$12*$G$2))^E$1)</f>
-        <v>3.7264091883107509</v>
+        <v>3.728719515911493</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -38452,15 +38605,15 @@
       </c>
       <c r="C64" s="92">
         <f>(C2*$A$3+C6*$A$7+C10*$A$11+C14*$A$15+C18*$A$19+C22*$A$23+C26*$A$27+C30*$A$31+C34*$A$35+C38*$A$39+C42*$A$43+C46*$A$47+C50*$A$51+C54*$A$55+C58*$A$59)^(1/$C$1)-1</f>
-        <v>5.991324575659851E-2</v>
+        <v>6.1197572319183324E-2</v>
       </c>
       <c r="D64" s="92">
         <f>(D2*$A$3+D6*$A$7+D10*$A$11+D14*$A$15+D18*$A$19+D22*$A$23+D26*$A$27+D30*$A$31+D34*$A$35+D38*$A$39+D42*$A$43+D46*$A$47+D50*$A$51+D54*$A$55+D58*$A$59)^(1/$D$1)-1</f>
-        <v>6.2081728123531299E-2</v>
+        <v>6.2942117016006938E-2</v>
       </c>
       <c r="E64" s="92">
         <f>(E2*$A$3+E6*$A$7+E10*$A$11+E14*$A$15+E18*$A$19+E22*$A$23+E26*$A$27+E30*$A$31+E34*$A$35+E38*$A$39+E42*$A$43+E46*$A$47+E50*$A$51+E54*$A$55+E58*$A$59)^(1/$E$1)-1</f>
-        <v>6.3146596938278066E-2</v>
+        <v>6.3827256434435764E-2</v>
       </c>
     </row>
     <row r="65" spans="2:5">
@@ -38469,15 +38622,15 @@
       </c>
       <c r="C65" s="91">
         <f>(C3*$A$3+C7*$A$7+C11*$A$11+C15*$A$15+C19*$A$19+C23*$A$23+C27*$A$27+C31*$A$31+C35*$A$35+C39*$A$39+C43*$A$43+C47*$A$47+C51*$A$51+C55*$A$55+C59*$A$59)^(1/$C$1)-1</f>
-        <v>0.19928772207448997</v>
+        <v>0.20095934769493784</v>
       </c>
       <c r="D65" s="93">
         <f>(D3*$A$3+D7*$A$7+D11*$A$11+D15*$A$15+D19*$A$19+D23*$A$23+D27*$A$27+D31*$A$31+D35*$A$35+D39*$A$39+D43*$A$43+D47*$A$47+D51*$A$51+D55*$A$55+D59*$A$59)^(1/$D$1)-1</f>
-        <v>0.14563999254161208</v>
+        <v>0.14670109554282895</v>
       </c>
       <c r="E65" s="92">
         <f>(E3*$A$3+E7*$A$7+E11*$A$11+E15*$A$15+E19*$A$19+E23*$A$23+E27*$A$27+E31*$A$31+E35*$A$35+E39*$A$39+E43*$A$43+E47*$A$47+E51*$A$51+E55*$A$55+E59*$A$59)^(1/$E$1)-1</f>
-        <v>0.12374083926000945</v>
+        <v>0.12455410373374942</v>
       </c>
     </row>
     <row r="66" spans="2:5">
@@ -38486,15 +38639,15 @@
       </c>
       <c r="C66" s="91">
         <f>(C4*$A$3+C8*$A$7+C12*$A$11+C16*$A$15+C20*$A$19+C24*$A$23+C28*$A$27+C32*$A$31+C36*$A$35+C40*$A$39+C44*$A$43+C48*$A$47+C52*$A$51+C56*$A$55+C60*$A$59)^(1/$C$1)-1</f>
-        <v>0.31213992420139625</v>
+        <v>0.31409476715471585</v>
       </c>
       <c r="D66" s="91">
         <f>(D4*$A$3+D8*$A$7+D12*$A$11+D16*$A$15+D20*$A$19+D24*$A$23+D28*$A$27+D32*$A$31+D36*$A$35+D40*$A$39+D44*$A$43+D48*$A$47+D52*$A$51+D56*$A$55+D60*$A$59)^(1/$D$1)-1</f>
-        <v>0.21039620830356109</v>
+        <v>0.21158592348829686</v>
       </c>
       <c r="E66" s="91">
         <f>(E4*$A$3+E8*$A$7+E12*$A$11+E16*$A$15+E20*$A$19+E24*$A$23+E28*$A$27+E32*$A$31+E36*$A$35+E40*$A$39+E44*$A$43+E48*$A$47+E52*$A$51+E56*$A$55+E60*$A$59)^(1/$E$1)-1</f>
-        <v>0.16940768222902491</v>
+        <v>0.1703040894440242</v>
       </c>
     </row>
   </sheetData>
@@ -38507,10 +38660,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V65"/>
+  <dimension ref="A1:V66"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:T13"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -38597,11 +38750,11 @@
         <v>249</v>
       </c>
       <c r="F2" s="81">
-        <f>$B$2*K$2+$B$3*K$3+$B$4*K$4+$B$5*K$5+$B$6*K$6+$B$7*K$7+$B$8*K$8+$B$9*K$9+$B$10*K$10+$B$11*K$11+$B$12*K$12+$B13*$K$13</f>
+        <f>$B$2*K$2+$B$3*K$4+$B$4*K$5+$B$5*K$6+$B$6*K$7+$B$7*K$8+$B$8*K$9+$B$9*K$10+$B$10*K$11+$B$11*K$12+$B$12*K$13+$B13*$K$14</f>
         <v>1.1365241513750001E-2</v>
       </c>
       <c r="G2" s="81">
-        <f>$B$16*K$2+$B$17*K$3+$B$18*K$4+$B$19*K$5+$B$20*K$6+$B$21*K$7+$B$22*K$8+$B$23*K$9+$B$24*K$10+$B$25*K$11+$B$26*K$12+$B$27*K$13</f>
+        <f>$B$16*K$2+$B$17*K$4+$B$18*K$5+$B$19*K$6+$B$20*K$7+$B$21*K$8+$B$22*K$9+$B$23*K$10+$B$24*K$11+$B$25*K$12+$B$26*K$13+$B$27*K$14</f>
         <v>1.120173E-2</v>
       </c>
       <c r="H2" s="79">
@@ -38658,49 +38811,49 @@
         <v>248</v>
       </c>
       <c r="F3" s="81">
-        <f>$B$2*L$2+$B$3*L$3+$B$4*L$4+$B$5*L$5+$B$6*L$6+$B$7*L$7+$B$8*L$8+$B$9*L$9+$B$10*L$10+$B$11*L$11+$B$12*L$12+$B13*$L$13</f>
+        <f>$B$2*L$2+$B$3*L$4+$B$4*L$5+$B$5*L$6+$B$6*L$7+$B$7*L$8+$B$8*L$9+$B$9*L$10+$B$10*L$11+$B$11*L$12+$B$12*L$13+$B13*$L$14</f>
         <v>5.3811431077499999E-2</v>
       </c>
       <c r="G3" s="81">
-        <f>$B$16*L$2+$B$17*L$3+$B$18*L$4+$B$19*L$5+$B$20*L$6+$B$21*L$7+$B$22*L$8+$B$23*L$9+$B$24*L$10+$B$25*L$11+$B$26*L$12+$B$27*L$13</f>
+        <f>$B$16*L$2+$B$17*L$4+$B$18*L$5+$B$19*L$6+$B$20*L$7+$B$21*L$8+$B$22*L$9+$B$23*L$10+$B$24*L$11+$B$25*L$12+$B$26*L$13+$B$27*L$14</f>
         <v>3.9125990000000006E-2</v>
       </c>
       <c r="H3" s="79">
         <f t="shared" ref="H3:H11" si="0">F3-G3</f>
         <v>1.4685441077499993E-2</v>
       </c>
-      <c r="J3" s="82" t="s">
-        <v>258</v>
+      <c r="J3" s="94" t="s">
+        <v>7453</v>
       </c>
       <c r="K3" s="18">
-        <v>3.7000000000000005E-2</v>
+        <v>9.9699999999999997E-2</v>
       </c>
       <c r="L3" s="18">
-        <v>5.5800000000000002E-2</v>
+        <v>8.8700000000000001E-2</v>
       </c>
       <c r="M3" s="18">
-        <v>8.5600000000000009E-2</v>
+        <v>0.15679999999999999</v>
       </c>
       <c r="N3" s="18">
-        <v>3.7499999999999999E-2</v>
+        <v>8.9899999999999994E-2</v>
       </c>
       <c r="O3" s="18">
-        <v>0.11070000000000001</v>
+        <v>7.46E-2</v>
       </c>
       <c r="P3" s="18">
-        <v>2.9700000000000001E-2</v>
+        <v>4.6600000000000003E-2</v>
       </c>
       <c r="Q3" s="18">
-        <v>0.622</v>
+        <v>0.33500000000000002</v>
       </c>
       <c r="R3" s="18">
-        <v>1.0800000000000001E-2</v>
+        <v>5.8200000000000002E-2</v>
       </c>
       <c r="S3" s="18">
-        <v>1.1000000000000001E-2</v>
+        <v>6.6E-3</v>
       </c>
       <c r="T3" s="18">
-        <v>0</v>
+        <v>4.3900000000000002E-2</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -38719,11 +38872,11 @@
         <v>250</v>
       </c>
       <c r="F4" s="81">
-        <f>$B$2*M$2+$B$3*M$3+$B$4*M$4+$B$5*M$5+$B$6*M$6+$B$7*M$7+$B$8*M$8+$B$9*M$9+$B$10*M$10+$B$11*M$11+$B$12*M$12+$B13*$M$13</f>
+        <f>$B$2*M$2+$B$3*M$4+$B$4*M$5+$B$5*M$6+$B$6*M$7+$B$7*M$8+$B$8*M$9+$B$9*M$10+$B$10*M$11+$B$11*M$12+$B$12*M$13+$B13*$M$14</f>
         <v>0.11918286947874999</v>
       </c>
       <c r="G4" s="81">
-        <f>$B$16*M$2+$B$17*M$3+$B$18*M$4+$B$19*M$5+$B$20*M$6+$B$21*M$7+$B$22*M$8+$B$23*M$9+$B$24*M$10+$B$25*M$11+$B$26*M$12+$B$27*M$13</f>
+        <f>$B$16*M$2+$B$17*M$4+$B$18*M$5+$B$19*M$6+$B$20*M$7+$B$21*M$8+$B$22*M$9+$B$23*M$10+$B$24*M$11+$B$25*M$12+$B$26*M$13+$B$27*M$14</f>
         <v>0.10271703000000001</v>
       </c>
       <c r="H4" s="79">
@@ -38731,37 +38884,37 @@
         <v>1.646583947874998E-2</v>
       </c>
       <c r="J4" s="82" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K4" s="18">
-        <v>2.81E-2</v>
+        <v>3.7000000000000005E-2</v>
       </c>
       <c r="L4" s="18">
-        <v>7.3899999999999993E-2</v>
+        <v>5.5800000000000002E-2</v>
       </c>
       <c r="M4" s="18">
-        <v>0.124</v>
+        <v>8.5600000000000009E-2</v>
       </c>
       <c r="N4" s="18">
-        <v>0.1125</v>
+        <v>3.7499999999999999E-2</v>
       </c>
       <c r="O4" s="18">
-        <v>9.0800000000000006E-2</v>
+        <v>0.11070000000000001</v>
       </c>
       <c r="P4" s="18">
-        <v>6.4000000000000001E-2</v>
+        <v>2.9700000000000001E-2</v>
       </c>
       <c r="Q4" s="18">
-        <v>0.39069999999999999</v>
+        <v>0.622</v>
       </c>
       <c r="R4" s="18">
-        <v>6.8600000000000008E-2</v>
+        <v>1.0800000000000001E-2</v>
       </c>
       <c r="S4" s="18">
-        <v>1.9199999999999998E-2</v>
+        <v>1.1000000000000001E-2</v>
       </c>
       <c r="T4" s="18">
-        <v>2.8300000000000002E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -38780,11 +38933,11 @@
         <v>251</v>
       </c>
       <c r="F5" s="81">
-        <f>$B$2*N$2+$B$3*N$3+$B$4*N$4+$B$5*N$5+$B$6*N$6+$B$7*N$7+$B$8*N$8+$B$9*N$9+$B$10*N$10+$B$11*N$11+$B$12*N$12+$B13*$N$13</f>
+        <f>$B$2*N$2+$B$3*N$4+$B$4*N$5+$B$5*N$6+$B$6*N$7+$B$7*N$8+$B$8*N$9+$B$9*N$10+$B$10*N$11+$B$11*N$12+$B$12*N$13+$B13*$N$14</f>
         <v>7.6992721956249996E-2</v>
       </c>
       <c r="G5" s="81">
-        <f>$B$16*N$2+$B$17*N$3+$B$18*N$4+$B$19*N$5+$B$20*N$6+$B$21*N$7+$B$22*N$8+$B$23*N$9+$B$24*N$10+$B$25*N$11+$B$26*N$12+$B$27*N$13</f>
+        <f>$B$16*N$2+$B$17*N$4+$B$18*N$5+$B$19*N$6+$B$20*N$7+$B$21*N$8+$B$22*N$9+$B$23*N$10+$B$24*N$11+$B$25*N$12+$B$26*N$13+$B$27*N$14</f>
         <v>6.5978250000000016E-2</v>
       </c>
       <c r="H5" s="79">
@@ -38792,37 +38945,37 @@
         <v>1.101447195624998E-2</v>
       </c>
       <c r="J5" s="82" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K5" s="18">
-        <v>2.4900000000000002E-2</v>
+        <v>2.81E-2</v>
       </c>
       <c r="L5" s="18">
-        <v>0.16089999999999999</v>
+        <v>7.3899999999999993E-2</v>
       </c>
       <c r="M5" s="18">
-        <v>0.21660000000000001</v>
+        <v>0.124</v>
       </c>
       <c r="N5" s="18">
-        <v>0.1174</v>
+        <v>0.1125</v>
       </c>
       <c r="O5" s="18">
+        <v>9.0800000000000006E-2</v>
+      </c>
+      <c r="P5" s="18">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="Q5" s="18">
+        <v>0.39069999999999999</v>
+      </c>
+      <c r="R5" s="18">
         <v>6.8600000000000008E-2</v>
       </c>
-      <c r="P5" s="18">
-        <v>0.11609999999999999</v>
-      </c>
-      <c r="Q5" s="18">
-        <v>8.2500000000000004E-2</v>
-      </c>
-      <c r="R5" s="18">
-        <v>0.1671</v>
-      </c>
       <c r="S5" s="18">
-        <v>1.47E-2</v>
+        <v>1.9199999999999998E-2</v>
       </c>
       <c r="T5" s="18">
-        <v>3.1300000000000001E-2</v>
+        <v>2.8300000000000002E-2</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -38841,11 +38994,11 @@
         <v>252</v>
       </c>
       <c r="F6" s="81">
-        <f>$B$2*O$2+$B$3*O$3+$B$4*O$4+$B$5*O$5+$B$6*O$6+$B$7*O$7+$B$8*O$8+$B$9*O$9+$B$10*O$10+$B$11*O$11+$B$12*O$12+$B13*$O$13</f>
+        <f>$B$2*O$2+$B$3*O$4+$B$4*O$5+$B$5*O$6+$B$6*O$7+$B$7*O$8+$B$8*O$9+$B$9*O$10+$B$10*O$11+$B$11*O$12+$B$12*O$13+$B13*$O$14</f>
         <v>3.1456937638750002E-2</v>
       </c>
       <c r="G6" s="81">
-        <f>$B$16*O$2+$B$17*O$3+$B$18*O$4+$B$19*O$5+$B$20*O$6+$B$21*O$7+$B$22*O$8+$B$23*O$9+$B$24*O$10+$B$25*O$11+$B$26*O$12+$B$27*O$13</f>
+        <f>$B$16*O$2+$B$17*O$4+$B$18*O$5+$B$19*O$6+$B$20*O$7+$B$21*O$8+$B$22*O$9+$B$23*O$10+$B$24*O$11+$B$25*O$12+$B$26*O$13+$B$27*O$14</f>
         <v>3.198848E-2</v>
       </c>
       <c r="H6" s="79">
@@ -38853,37 +39006,37 @@
         <v>-5.315423612499981E-4</v>
       </c>
       <c r="J6" s="82" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K6" s="18">
-        <v>3.1400000000000004E-2</v>
+        <v>2.4900000000000002E-2</v>
       </c>
       <c r="L6" s="18">
-        <v>0.16789999999999999</v>
+        <v>0.16089999999999999</v>
       </c>
       <c r="M6" s="18">
-        <v>0.23600000000000002</v>
+        <v>0.21660000000000001</v>
       </c>
       <c r="N6" s="18">
-        <v>0.1278</v>
+        <v>0.1174</v>
       </c>
       <c r="O6" s="18">
-        <v>5.2499999999999998E-2</v>
+        <v>6.8600000000000008E-2</v>
       </c>
       <c r="P6" s="18">
-        <v>0.1057</v>
+        <v>0.11609999999999999</v>
       </c>
       <c r="Q6" s="18">
-        <v>4.1700000000000001E-2</v>
+        <v>8.2500000000000004E-2</v>
       </c>
       <c r="R6" s="18">
-        <v>0.17879999999999999</v>
+        <v>0.1671</v>
       </c>
       <c r="S6" s="18">
-        <v>3.56E-2</v>
+        <v>1.47E-2</v>
       </c>
       <c r="T6" s="18">
-        <v>2.2700000000000001E-2</v>
+        <v>3.1300000000000001E-2</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -38902,11 +39055,11 @@
         <v>253</v>
       </c>
       <c r="F7" s="81">
-        <f>$B$2*P$2+$B$3*P$3+$B$4*P$4+$B$5*P$5+$B$6*P$6+$B$7*P$7+$B$8*P$8+$B$9*P$9+$B$10*P$10+$B$11*P$11+$B$12*P$12+$B13*$P$13</f>
+        <f>$B$2*P$2+$B$3*P$4+$B$4*P$5+$B$5*P$6+$B$6*P$7+$B$7*P$8+$B$8*P$9+$B$9*P$10+$B$10*P$11+$B$11*P$12+$B$12*P$13+$B13*$P$14</f>
         <v>0.107861590195</v>
       </c>
       <c r="G7" s="81">
-        <f>$B$16*P$2+$B$17*P$3+$B$18*P$4+$B$19*P$5+$B$20*P$6+$B$21*P$7+$B$22*P$8+$B$23*P$9+$B$24*P$10+$B$25*P$11+$B$26*P$12+$B$27*P$13</f>
+        <f>$B$16*P$2+$B$17*P$4+$B$18*P$5+$B$19*P$6+$B$20*P$7+$B$21*P$8+$B$22*P$9+$B$23*P$10+$B$24*P$11+$B$25*P$12+$B$26*P$13+$B$27*P$14</f>
         <v>9.9665850000000014E-2</v>
       </c>
       <c r="H7" s="79">
@@ -38914,37 +39067,37 @@
         <v>8.1957401949999814E-3</v>
       </c>
       <c r="J7" s="82" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="K7" s="18">
-        <v>0</v>
+        <v>3.1400000000000004E-2</v>
       </c>
       <c r="L7" s="18">
-        <v>0</v>
+        <v>0.16789999999999999</v>
       </c>
       <c r="M7" s="18">
-        <v>0</v>
+        <v>0.23600000000000002</v>
       </c>
       <c r="N7" s="18">
-        <v>0</v>
+        <v>0.1278</v>
       </c>
       <c r="O7" s="18">
-        <v>0</v>
+        <v>5.2499999999999998E-2</v>
       </c>
       <c r="P7" s="18">
-        <v>0</v>
+        <v>0.1057</v>
       </c>
       <c r="Q7" s="18">
-        <v>1</v>
+        <v>4.1700000000000001E-2</v>
       </c>
       <c r="R7" s="18">
-        <v>0</v>
+        <v>0.17879999999999999</v>
       </c>
       <c r="S7" s="18">
-        <v>0</v>
+        <v>3.56E-2</v>
       </c>
       <c r="T7" s="18">
-        <v>0</v>
+        <v>2.2700000000000001E-2</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -38963,11 +39116,11 @@
         <v>223</v>
       </c>
       <c r="F8" s="81">
-        <f>$B$2*Q$2+$B$3*Q$3+$B$4*Q$4+$B$5*Q$5+$B$6*Q$6+$B$7*Q$7+$B$8*Q$8+$B$9*Q$9+$B$10*Q$10+$B$11*Q$11+$B$12*Q$12+$B13*$Q$13</f>
+        <f>$B$2*Q$2+$B$3*Q$4+$B$4*Q$5+$B$5*Q$6+$B$6*Q$7+$B$7*Q$8+$B$8*Q$9+$B$9*Q$10+$B$10*Q$11+$B$11*Q$12+$B$12*Q$13+$B13*$Q$14</f>
         <v>0.15371955681125002</v>
       </c>
       <c r="G8" s="81">
-        <f>$B$16*Q$2+$B$17*Q$3+$B$18*Q$4+$B$19*Q$5+$B$20*Q$6+$B$21*Q$7+$B$22*Q$8+$B$23*Q$9+$B$24*Q$10+$B$25*Q$11+$B$26*Q$12+$B$27*Q$13</f>
+        <f>$B$16*Q$2+$B$17*Q$4+$B$18*Q$5+$B$19*Q$6+$B$20*Q$7+$B$21*Q$8+$B$22*Q$9+$B$23*Q$10+$B$24*Q$11+$B$25*Q$12+$B$26*Q$13+$B$27*Q$14</f>
         <v>0.18537292000000002</v>
       </c>
       <c r="H8" s="79">
@@ -38975,7 +39128,7 @@
         <v>-3.1653363188750006E-2</v>
       </c>
       <c r="J8" s="82" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K8" s="18">
         <v>0</v>
@@ -39024,11 +39177,11 @@
         <v>254</v>
       </c>
       <c r="F9" s="81">
-        <f>$B$2*R$2+$B$3*R$3+$B$4*R$4+$B$5*R$5+$B$6*R$6+$B$7*R$7+$B$8*R$8+$B$9*R$9+$B$10*R$10+$B$11*R$11+$B$12*R$12+$B13*$R$13</f>
+        <f>$B$2*R$2+$B$3*R$4+$B$4*R$5+$B$5*R$6+$B$6*R$7+$B$7*R$8+$B$8*R$9+$B$9*R$10+$B$10*R$11+$B$11*R$12+$B$12*R$13+$B13*$R$14</f>
         <v>7.5959240501250011E-2</v>
       </c>
       <c r="G9" s="81">
-        <f>$B$16*R$2+$B$17*R$3+$B$18*R$4+$B$19*R$5+$B$20*R$6+$B$21*R$7+$B$22*R$8+$B$23*R$9+$B$24*R$10+$B$25*R$11+$B$26*R$12+$B$27*R$13</f>
+        <f>$B$16*R$2+$B$17*R$4+$B$18*R$5+$B$19*R$6+$B$20*R$7+$B$21*R$8+$B$22*R$9+$B$23*R$10+$B$24*R$11+$B$25*R$12+$B$26*R$13+$B$27*R$14</f>
         <v>5.6698750000000006E-2</v>
       </c>
       <c r="H9" s="79">
@@ -39036,7 +39189,7 @@
         <v>1.9260490501250005E-2</v>
       </c>
       <c r="J9" s="82" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="K9" s="18">
         <v>0</v>
@@ -39048,7 +39201,7 @@
         <v>0</v>
       </c>
       <c r="N9" s="18">
-        <v>0.52739999999999998</v>
+        <v>0</v>
       </c>
       <c r="O9" s="18">
         <v>0</v>
@@ -39057,10 +39210,10 @@
         <v>0</v>
       </c>
       <c r="Q9" s="18">
+        <v>1</v>
+      </c>
+      <c r="R9" s="18">
         <v>0</v>
-      </c>
-      <c r="R9" s="18">
-        <v>0.47259999999999996</v>
       </c>
       <c r="S9" s="18">
         <v>0</v>
@@ -39085,11 +39238,11 @@
         <v>257</v>
       </c>
       <c r="F10" s="81">
-        <f>$B$2*S$2+$B$3*S$3+$B$4*S$4+$B$5*S$5+$B$6*S$6+$B$7*S$7+$B$8*S$8+$B$9*S$9+$B$10*S$10+$B$11*S$11+$B$12*S$12+$B13*$S$13</f>
+        <f>$B$2*S$2+$B$3*S$4+$B$4*S$5+$B$5*S$6+$B$6*S$7+$B$7*S$8+$B$8*S$9+$B$9*S$10+$B$10*S$11+$B$11*S$12+$B$12*S$13+$B13*$S$14</f>
         <v>5.841367018749999E-3</v>
       </c>
       <c r="G10" s="81">
-        <f>$B$16*S$2+$B$17*S$3+$B$18*S$4+$B$19*S$5+$B$20*S$6+$B$21*S$7+$B$22*S$8+$B$23*S$9+$B$24*S$10+$B$25*S$11+$B$26*S$12+$B$27*S$13</f>
+        <f>$B$16*S$2+$B$17*S$4+$B$18*S$5+$B$19*S$6+$B$20*S$7+$B$21*S$8+$B$22*S$9+$B$23*S$10+$B$24*S$11+$B$25*S$12+$B$26*S$13+$B$27*S$14</f>
         <v>3.7004100000000003E-3</v>
       </c>
       <c r="H10" s="79">
@@ -39097,7 +39250,7 @@
         <v>2.1409570187499987E-3</v>
       </c>
       <c r="J10" s="82" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="K10" s="18">
         <v>0</v>
@@ -39109,19 +39262,19 @@
         <v>0</v>
       </c>
       <c r="N10" s="18">
-        <v>0</v>
+        <v>0.52739999999999998</v>
       </c>
       <c r="O10" s="18">
         <v>0</v>
       </c>
       <c r="P10" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="18">
         <v>0</v>
       </c>
       <c r="R10" s="18">
-        <v>0</v>
+        <v>0.47259999999999996</v>
       </c>
       <c r="S10" s="18">
         <v>0</v>
@@ -39146,11 +39299,11 @@
         <v>255</v>
       </c>
       <c r="F11" s="81">
-        <f>$B$2*T$2+$B$3*T$3+$B$4*T$4+$B$5*T$5+$B$6*T$6+$B$7*T$7+$B$8*T$8+$B$9*T$9+$B$10*T$10+$B$11*T$11+$B$12*T$12+$B13*$T$13</f>
+        <f>$B$2*T$2+$B$3*T$4+$B$4*T$5+$B$5*T$6+$B$6*T$7+$B$7*T$8+$B$8*T$9+$B$9*T$10+$B$10*T$11+$B$11*T$12+$B$12*T$13+$B13*$T$14</f>
         <v>2.6363448349999999E-2</v>
       </c>
       <c r="G11" s="81">
-        <f>$B$16*T$2+$B$17*T$3+$B$18*T$4+$B$19*T$5+$B$20*T$6+$B$21*T$7+$B$22*T$8+$B$23*T$9+$B$24*T$10+$B$25*T$11+$B$26*T$12+$B$27*T$13</f>
+        <f>$B$16*T$2+$B$17*T$4+$B$18*T$5+$B$19*T$6+$B$20*T$7+$B$21*T$8+$B$22*T$9+$B$23*T$10+$B$24*T$11+$B$25*T$12+$B$26*T$13+$B$27*T$14</f>
         <v>2.6684090000000001E-2</v>
       </c>
       <c r="H11" s="79">
@@ -39158,7 +39311,7 @@
         <v>-3.2064165000000172E-4</v>
       </c>
       <c r="J11" s="82" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="K11" s="18">
         <v>0</v>
@@ -39170,19 +39323,19 @@
         <v>0</v>
       </c>
       <c r="N11" s="18">
-        <v>0.33740000000000003</v>
+        <v>0</v>
       </c>
       <c r="O11" s="18">
-        <v>8.4199999999999997E-2</v>
+        <v>0</v>
       </c>
       <c r="P11" s="18">
-        <v>0.38850000000000001</v>
+        <v>1</v>
       </c>
       <c r="Q11" s="18">
-        <v>8.7400000000000005E-2</v>
+        <v>0</v>
       </c>
       <c r="R11" s="18">
-        <v>0.10249999999999999</v>
+        <v>0</v>
       </c>
       <c r="S11" s="18">
         <v>0</v>
@@ -39204,37 +39357,37 @@
       </c>
       <c r="D12" s="84"/>
       <c r="J12" s="82" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="K12" s="18">
         <v>0</v>
       </c>
       <c r="L12" s="18">
-        <v>5.8099999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="M12" s="18">
-        <v>0.67700000000000005</v>
+        <v>0</v>
       </c>
       <c r="N12" s="18">
-        <v>5.3099999999999994E-2</v>
+        <v>0.33740000000000003</v>
       </c>
       <c r="O12" s="18">
-        <v>0</v>
+        <v>8.4199999999999997E-2</v>
       </c>
       <c r="P12" s="18">
-        <v>0</v>
+        <v>0.38850000000000001</v>
       </c>
       <c r="Q12" s="18">
-        <v>0</v>
+        <v>8.7400000000000005E-2</v>
       </c>
       <c r="R12" s="18">
-        <v>8.1600000000000006E-2</v>
+        <v>0.10249999999999999</v>
       </c>
       <c r="S12" s="18">
         <v>0</v>
       </c>
       <c r="T12" s="18">
-        <v>0.13019999999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -39249,36 +39402,71 @@
         <v>3856</v>
       </c>
       <c r="J13" s="82" t="s">
-        <v>3857</v>
+        <v>273</v>
       </c>
       <c r="K13" s="18">
         <v>0</v>
       </c>
       <c r="L13" s="18">
-        <v>3.5900000000000001E-2</v>
+        <v>5.8099999999999999E-2</v>
       </c>
       <c r="M13" s="18">
-        <v>0.18870000000000001</v>
+        <v>0.67700000000000005</v>
       </c>
       <c r="N13" s="18">
-        <v>6.0299999999999999E-2</v>
+        <v>5.3099999999999994E-2</v>
       </c>
       <c r="O13" s="18">
-        <v>9.7900000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="P13" s="18">
-        <v>0.18540000000000001</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="18">
-        <v>5.1900000000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="R13" s="18">
-        <v>0.37990000000000002</v>
+        <v>8.1600000000000006E-2</v>
       </c>
       <c r="S13" s="18">
         <v>0</v>
       </c>
       <c r="T13" s="18">
+        <v>0.13019999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="J14" s="82" t="s">
+        <v>3857</v>
+      </c>
+      <c r="K14" s="18">
+        <v>0</v>
+      </c>
+      <c r="L14" s="18">
+        <v>3.5900000000000001E-2</v>
+      </c>
+      <c r="M14" s="18">
+        <v>0.18870000000000001</v>
+      </c>
+      <c r="N14" s="18">
+        <v>6.0299999999999999E-2</v>
+      </c>
+      <c r="O14" s="18">
+        <v>9.7900000000000001E-2</v>
+      </c>
+      <c r="P14" s="18">
+        <v>0.18540000000000001</v>
+      </c>
+      <c r="Q14" s="18">
+        <v>5.1900000000000002E-2</v>
+      </c>
+      <c r="R14" s="18">
+        <v>0.37990000000000002</v>
+      </c>
+      <c r="S14" s="18">
+        <v>0</v>
+      </c>
+      <c r="T14" s="18">
         <v>0</v>
       </c>
     </row>
@@ -39336,15 +39524,6 @@
         <f>资产配置表!D7</f>
         <v>0</v>
       </c>
-      <c r="L20" s="85"/>
-      <c r="M20" s="85"/>
-      <c r="N20" s="85"/>
-      <c r="O20" s="85"/>
-      <c r="P20" s="85"/>
-      <c r="Q20" s="85"/>
-      <c r="R20" s="85"/>
-      <c r="S20" s="85"/>
-      <c r="T20" s="85"/>
       <c r="U20" s="85"/>
     </row>
     <row r="21" spans="1:22">
@@ -39355,15 +39534,15 @@
         <f>资产配置表!D9</f>
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="L21" s="18"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="18"/>
-      <c r="O21" s="18"/>
-      <c r="P21" s="18"/>
-      <c r="Q21" s="18"/>
-      <c r="R21" s="18"/>
-      <c r="S21" s="18"/>
-      <c r="T21" s="18"/>
+      <c r="L21" s="85"/>
+      <c r="M21" s="85"/>
+      <c r="N21" s="85"/>
+      <c r="O21" s="85"/>
+      <c r="P21" s="85"/>
+      <c r="Q21" s="85"/>
+      <c r="R21" s="85"/>
+      <c r="S21" s="85"/>
+      <c r="T21" s="85"/>
       <c r="U21" s="18"/>
     </row>
     <row r="22" spans="1:22">
@@ -39374,6 +39553,11 @@
         <f>资产配置表!D10</f>
         <v>2.6800000000000001E-2</v>
       </c>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="18"/>
     </row>
     <row r="23" spans="1:22">
       <c r="A23" s="25" t="s">
@@ -39383,16 +39567,6 @@
         <f>资产配置表!D11</f>
         <v>2.01E-2</v>
       </c>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="18"/>
-      <c r="N23" s="18"/>
-      <c r="O23" s="18"/>
-      <c r="P23" s="18"/>
-      <c r="Q23" s="18"/>
-      <c r="R23" s="18"/>
-      <c r="S23" s="18"/>
-      <c r="T23" s="18"/>
       <c r="U23" s="18"/>
       <c r="V23" s="18"/>
     </row>
@@ -39446,7 +39620,15 @@
         <v>6.0299999999999999E-2</v>
       </c>
       <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="18"/>
       <c r="N26" s="18"/>
+      <c r="O26" s="18"/>
+      <c r="P26" s="18"/>
+      <c r="Q26" s="18"/>
+      <c r="R26" s="18"/>
+      <c r="S26" s="18"/>
+      <c r="T26" s="18"/>
     </row>
     <row r="27" spans="1:22">
       <c r="A27" s="25" t="s">
@@ -39611,10 +39793,112 @@
       <c r="K65" s="18"/>
       <c r="N65" s="18"/>
     </row>
+    <row r="66" spans="11:14">
+      <c r="K66" s="18"/>
+      <c r="N66" s="18"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="K2:T12">
+  <conditionalFormatting sqref="H2:H11">
+    <cfRule type="dataBar" priority="10">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{BC1EC98E-AD63-4E78-B04F-B0327E471751}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L14:R14">
+    <cfRule type="dataBar" priority="9">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF9933"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{C7B739D8-6224-4339-A69B-56DF89B93C7D}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K14">
     <cfRule type="dataBar" priority="8">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF9933"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{6716BFB0-182C-4C8A-9350-EF8834A69F7B}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S14">
+    <cfRule type="dataBar" priority="7">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF9933"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5D84EA6C-8763-41C9-9CAE-ABF89001A919}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T14">
+    <cfRule type="dataBar" priority="6">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF9933"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{34686704-C87C-4C61-8DBB-B396C56470CA}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L22:P22 U21">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF9933"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{3B0759F2-380E-43A7-9936-AF856656EFC5}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L25:T25 U24">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF9933"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{52B82DF8-703B-4988-94F8-4F1424C6D765}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:T2 K4:T13">
+    <cfRule type="dataBar" priority="66">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -39627,91 +39911,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H11">
-    <cfRule type="dataBar" priority="7">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{BC1EC98E-AD63-4E78-B04F-B0327E471751}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L13:R13">
-    <cfRule type="dataBar" priority="6">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF9933"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{C7B739D8-6224-4339-A69B-56DF89B93C7D}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K13">
-    <cfRule type="dataBar" priority="5">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF9933"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6716BFB0-182C-4C8A-9350-EF8834A69F7B}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S13">
-    <cfRule type="dataBar" priority="4">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF9933"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5D84EA6C-8763-41C9-9CAE-ABF89001A919}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T13">
-    <cfRule type="dataBar" priority="3">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF9933"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{34686704-C87C-4C61-8DBB-B396C56470CA}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L21:U21">
-    <cfRule type="dataBar" priority="2">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF9933"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3B0759F2-380E-43A7-9936-AF856656EFC5}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L24:U24">
+  <conditionalFormatting sqref="K3:T3">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -39720,7 +39920,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{52B82DF8-703B-4988-94F8-4F1424C6D765}</x14:id>
+          <x14:id>{F4412CD8-DD8C-4409-8434-8E54BD33C5CB}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -39732,17 +39932,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{C26CD3D2-BC0C-49B2-95B6-8E330978462C}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>K2:T12</xm:sqref>
-        </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{BC1EC98E-AD63-4E78-B04F-B0327E471751}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
@@ -39763,7 +39952,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>L13:R13</xm:sqref>
+          <xm:sqref>L14:R14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{6716BFB0-182C-4C8A-9350-EF8834A69F7B}">
@@ -39774,7 +39963,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>K13</xm:sqref>
+          <xm:sqref>K14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{5D84EA6C-8763-41C9-9CAE-ABF89001A919}">
@@ -39785,7 +39974,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>S13</xm:sqref>
+          <xm:sqref>S14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{34686704-C87C-4C61-8DBB-B396C56470CA}">
@@ -39796,7 +39985,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>T13</xm:sqref>
+          <xm:sqref>T14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{3B0759F2-380E-43A7-9936-AF856656EFC5}">
@@ -39807,7 +39996,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>L21:U21</xm:sqref>
+          <xm:sqref>L22:P22 U21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{52B82DF8-703B-4988-94F8-4F1424C6D765}">
@@ -39818,7 +40007,29 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>L24:U24</xm:sqref>
+          <xm:sqref>L25:T25 U24</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{C26CD3D2-BC0C-49B2-95B6-8E330978462C}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>K2:T2 K4:T13</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{F4412CD8-DD8C-4409-8434-8E54BD33C5CB}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>K3:T3</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -39830,7 +40041,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3645"/>
   <sheetViews>
-    <sheetView topLeftCell="A2773" workbookViewId="0">
+    <sheetView topLeftCell="A2764" workbookViewId="0">
       <selection activeCell="C2790" sqref="C2790"/>
     </sheetView>
   </sheetViews>

--- a/Portfolio/ETF计划 XIRR 已投入收益率计算.xlsx
+++ b/Portfolio/ETF计划 XIRR 已投入收益率计算.xlsx
@@ -229,7 +229,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15389" uniqueCount="7461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15390" uniqueCount="7462">
   <si>
     <t>日期</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -23173,6 +23173,13 @@
     </rPh>
     <rPh sb="4" eb="5">
       <t>zhang'fu</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>全指金融</t>
+    <rPh sb="0" eb="1">
+      <t>quan'zhi'j'r</t>
     </rPh>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -23475,7 +23482,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="85">
+  <cellStyleXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -23483,6 +23490,60 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -24025,17 +24086,17 @@
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="85">
+  <cellStyles count="103">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
@@ -24079,6 +24140,15 @@
     <cellStyle name="超链接" xfId="79" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="81" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="101" builtinId="8" hidden="1"/>
     <cellStyle name="货币" xfId="2" builtinId="4"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -24121,6 +24191,15 @@
     <cellStyle name="已访问的超链接" xfId="80" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="82" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="102" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="46">
     <dxf>
@@ -24400,6 +24479,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -24438,6 +24518,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="2"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -24465,7 +24546,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -24497,7 +24580,9 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -24612,7 +24697,9 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -24733,31 +24820,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>10.67727342644151</c:v>
+                  <c:v>10.5247895975718</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.5802898671311</c:v>
+                  <c:v>11.57531434497505</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22.28084813970768</c:v>
+                  <c:v>22.2305639424284</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>27.92294772013791</c:v>
+                  <c:v>27.87909434082199</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>33.00386950719282</c:v>
+                  <c:v>32.86786489859583</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>28.26569815241686</c:v>
+                  <c:v>28.21573851565122</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>24.04899664000034</c:v>
+                  <c:v>23.96119902322899</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>24.73236831686119</c:v>
+                  <c:v>24.75272771565771</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>29.31441325242159</c:v>
+                  <c:v>29.30067196228453</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -24776,6 +24863,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -24805,6 +24893,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -25004,7 +25093,9 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -25063,6 +25154,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -25966,8 +26058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="R70" sqref="R70"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="T82" sqref="T82:W127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -26090,14 +26182,14 @@
       </c>
       <c r="S2" s="18">
         <f>(SUM(S4:S7) - SUM(Q4:Q7))/$Q$2</f>
-        <v>-7.7396257244791627E-2</v>
+        <v>-8.9349544744791634E-2</v>
       </c>
       <c r="T2" s="18" t="s">
         <v>213</v>
       </c>
       <c r="U2" s="18">
         <f>(SUM(S4:S6) - SUM(Q4:Q6))/SUM(Q4:Q6)</f>
-        <v>-0.12911434269459807</v>
+        <v>-0.14538807172385393</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
@@ -26124,19 +26216,19 @@
       </c>
       <c r="H3" s="21">
         <f>$F3*$T$20</f>
-        <v>28.798547629218277</v>
+        <v>28.734787342139644</v>
       </c>
       <c r="I3" s="21">
         <f>$F3*$V$20</f>
-        <v>3.5497436992738143</v>
+        <v>3.5393816228770505</v>
       </c>
       <c r="J3" s="21">
         <f t="shared" ref="J3:J66" si="0">H3*(-$M3)</f>
-        <v>213109.25245621524</v>
+        <v>212637.42633183335</v>
       </c>
       <c r="K3" s="21">
         <f t="shared" ref="K3:K66" si="1">I3*(-$M3)</f>
-        <v>26268.103374626226</v>
+        <v>26191.424009290175</v>
       </c>
       <c r="L3" s="7" t="s">
         <v>10</v>
@@ -26189,19 +26281,19 @@
       </c>
       <c r="H4" s="21">
         <f>F4*$T$13</f>
-        <v>10.146138306138306</v>
+        <v>10.001239701843859</v>
       </c>
       <c r="I4" s="21">
         <f>F4*$V$13</f>
-        <v>1.2004972804972807</v>
+        <v>1.1829423303256179</v>
       </c>
       <c r="J4" s="21">
         <f t="shared" si="0"/>
-        <v>40178.707692307697</v>
+        <v>39604.909219301684</v>
       </c>
       <c r="K4" s="21">
         <f t="shared" si="1"/>
-        <v>4753.9692307692312</v>
+        <v>4684.4516280894468</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>10</v>
@@ -26221,15 +26313,15 @@
         <v>206235.11000000002</v>
       </c>
       <c r="R4" s="52">
-        <v>-7192.57</v>
+        <v>-10246.49</v>
       </c>
       <c r="S4" s="69">
         <f>Q4+R4</f>
-        <v>199042.54</v>
+        <v>195988.62000000002</v>
       </c>
       <c r="T4" s="26">
         <f>S4/Q4-1</f>
-        <v>-3.4875584472498389E-2</v>
+        <v>-4.9683538365509095E-2</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.2">
@@ -26256,19 +26348,19 @@
       </c>
       <c r="H5" s="21">
         <f>E5*$T$21</f>
-        <v>23.839217784117928</v>
+        <v>23.752186023979654</v>
       </c>
       <c r="I5" s="21">
         <f>E5*$V$21</f>
-        <v>3.0454885877318119</v>
+        <v>3.0329356909289089</v>
       </c>
       <c r="J5" s="21">
         <f t="shared" si="0"/>
-        <v>94403.302425106987</v>
+        <v>94058.656654959428</v>
       </c>
       <c r="K5" s="21">
         <f t="shared" si="1"/>
-        <v>12060.134807417975</v>
+        <v>12010.425336078479</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>10</v>
@@ -26288,15 +26380,15 @@
         <v>12000</v>
       </c>
       <c r="R5" s="52">
-        <v>-3816.44</v>
+        <v>-3896.75</v>
       </c>
       <c r="S5" s="69">
         <f>Q5+R5</f>
-        <v>8183.5599999999995</v>
+        <v>8103.25</v>
       </c>
       <c r="T5" s="26">
         <f>S5/Q5-1</f>
-        <v>-0.31803666666666675</v>
+        <v>-0.32472916666666662</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
@@ -26349,16 +26441,16 @@
         <v>369376.37</v>
       </c>
       <c r="R6" s="52">
-        <f>-64860.06</f>
-        <v>-64860.06</v>
+        <f>-71288.46</f>
+        <v>-71288.460000000006</v>
       </c>
       <c r="S6" s="69">
         <f>Q6+R6</f>
-        <v>304516.31</v>
+        <v>298087.90999999997</v>
       </c>
       <c r="T6" s="26">
         <f>S6/Q6-1</f>
-        <v>-0.17559341979564091</v>
+        <v>-0.19299680702368704</v>
       </c>
       <c r="W6" s="72"/>
     </row>
@@ -26386,19 +26478,19 @@
       </c>
       <c r="H7" s="21">
         <f>F7*$T$20</f>
-        <v>30.044089420475576</v>
+        <v>29.97757149078241</v>
       </c>
       <c r="I7" s="21">
         <f>F7*$V$20</f>
-        <v>3.7032706820447099</v>
+        <v>3.6924604441863846</v>
       </c>
       <c r="J7" s="21">
         <f t="shared" si="0"/>
-        <v>118974.59410508328</v>
+        <v>118711.18310349835</v>
       </c>
       <c r="K7" s="21">
         <f t="shared" si="1"/>
-        <v>14664.951900897051</v>
+        <v>14622.143358978083</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>10</v>
@@ -26454,19 +26546,19 @@
       </c>
       <c r="H8" s="21">
         <f>F8*$T$21</f>
-        <v>24.788314312886353</v>
+        <v>24.6978176093012</v>
       </c>
       <c r="I8" s="21">
         <f>E8*$V$21</f>
-        <v>3.1667368045649074</v>
+        <v>3.1536841467845464</v>
       </c>
       <c r="J8" s="21">
         <f t="shared" si="0"/>
-        <v>98161.724679029954</v>
+        <v>97803.357732832752</v>
       </c>
       <c r="K8" s="21">
         <f t="shared" si="1"/>
-        <v>12540.277746077034</v>
+        <v>12488.589221266804</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>10</v>
@@ -26549,19 +26641,19 @@
       </c>
       <c r="H10" s="21">
         <f>F10*$T$21</f>
-        <v>24.678994293865905</v>
+        <v>24.588896693714425</v>
       </c>
       <c r="I10" s="21">
         <f>E10*$V$21</f>
-        <v>3.1527710413694723</v>
+        <v>3.1397759476807554</v>
       </c>
       <c r="J10" s="21">
         <f t="shared" si="0"/>
-        <v>97728.817403708992</v>
+        <v>97372.030907109118</v>
       </c>
       <c r="K10" s="21">
         <f t="shared" si="1"/>
-        <v>12484.973323823111</v>
+        <v>12433.512752815792</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>10</v>
@@ -26598,19 +26690,19 @@
       </c>
       <c r="H11" s="21">
         <f>F11*$T$19</f>
-        <v>29.677207977207978</v>
+        <v>29.645651976374374</v>
       </c>
       <c r="I11" s="21">
         <f>F11*$V$19</f>
-        <v>3.6580484330484331</v>
+        <v>3.6515765561108586</v>
       </c>
       <c r="J11" s="21">
         <f t="shared" si="0"/>
-        <v>118518.89777777778</v>
+        <v>118392.8757328487</v>
       </c>
       <c r="K11" s="21">
         <f t="shared" si="1"/>
-        <v>14608.782222222222</v>
+        <v>14582.936134484326</v>
       </c>
       <c r="L11" s="5" t="s">
         <v>24</v>
@@ -26628,7 +26720,7 @@
         <v>55</v>
       </c>
       <c r="S11" s="15">
-        <v>43395</v>
+        <v>43397</v>
       </c>
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
@@ -26659,19 +26751,19 @@
       </c>
       <c r="H12" s="21">
         <f>F12*$T$16</f>
-        <v>24.9348134991119</v>
+        <v>24.878539739996022</v>
       </c>
       <c r="I12" s="21">
         <f>F12*$V$16</f>
-        <v>2.2731793960923627</v>
+        <v>2.2733838038272229</v>
       </c>
       <c r="J12" s="21">
         <f t="shared" si="0"/>
-        <v>96936.082262877433</v>
+        <v>96717.313522413737</v>
       </c>
       <c r="K12" s="21">
         <f t="shared" si="1"/>
-        <v>8837.1667566607466</v>
+        <v>8837.9614080826359</v>
       </c>
       <c r="L12" s="5" t="s">
         <v>24</v>
@@ -26742,19 +26834,19 @@
       </c>
       <c r="H13" s="21">
         <f>F13*$T$19</f>
-        <v>29.700249287749283</v>
+        <v>29.668668786915035</v>
       </c>
       <c r="I13" s="21">
         <f>F13*$V$19</f>
-        <v>3.6608885327635323</v>
+        <v>3.6544116310767829</v>
       </c>
       <c r="J13" s="21">
         <f t="shared" si="0"/>
-        <v>118702.98632834756</v>
+        <v>118576.76854066331</v>
       </c>
       <c r="K13" s="21">
         <f t="shared" si="1"/>
-        <v>14631.473198896008</v>
+        <v>14605.586965924578</v>
       </c>
       <c r="L13" s="5" t="s">
         <v>24</v>
@@ -26773,32 +26865,32 @@
         <v>100032</v>
       </c>
       <c r="R13" s="64">
-        <v>2.5739999999999998</v>
+        <v>2.5489999999999999</v>
       </c>
       <c r="S13" s="57">
-        <v>10.48</v>
+        <v>10.23</v>
       </c>
       <c r="T13" s="58">
         <f t="shared" ref="T13:T25" si="2">S13/R13</f>
-        <v>4.0714840714840719</v>
+        <v>4.013338564142801</v>
       </c>
       <c r="U13" s="57">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
       <c r="V13" s="58">
         <f>U13/R13</f>
-        <v>0.48174048174048179</v>
+        <v>0.47469595919968616</v>
       </c>
       <c r="W13" s="87">
         <v>0.1182</v>
       </c>
       <c r="X13" s="75">
         <f>SUMIF(C:C,"=红利",J:J)/SUMIF(C:C,"=红利",M:M)*-1</f>
-        <v>10.677273426441509</v>
+        <v>10.524789597571802</v>
       </c>
       <c r="Y13" s="75">
         <f>SUMIF(C:C,"=红利",K:K)/SUMIF(C:C,"=红利",M:M)*-1</f>
-        <v>1.2633415122888809</v>
+        <v>1.2448675868095682</v>
       </c>
       <c r="Z13" s="59">
         <f>(SUMIF(C:C,"=红利",M:M)*-1)/$Q$2</f>
@@ -26830,19 +26922,19 @@
       </c>
       <c r="H14" s="21">
         <f>F14*$T$16</f>
-        <v>23.395152276567174</v>
+        <v>23.342353278742799</v>
       </c>
       <c r="I14" s="21">
         <f>F14*$V$16</f>
-        <v>2.1328163583589657</v>
+        <v>2.1330081444368418</v>
       </c>
       <c r="J14" s="21">
         <f t="shared" si="0"/>
-        <v>85317.441322185172</v>
+        <v>85124.893936919238</v>
       </c>
       <c r="K14" s="21">
         <f t="shared" si="1"/>
-        <v>7777.9546956634767</v>
+        <v>7778.6541011322752</v>
       </c>
       <c r="L14" s="5" t="s">
         <v>24</v>
@@ -26861,32 +26953,32 @@
         <v>510050</v>
       </c>
       <c r="R14" s="64">
-        <v>2.593</v>
+        <v>2.516</v>
       </c>
       <c r="S14" s="57">
-        <v>9.93</v>
+        <v>9.66</v>
       </c>
       <c r="T14" s="58">
         <f t="shared" si="2"/>
-        <v>3.8295410721172387</v>
+        <v>3.8394276629570747</v>
       </c>
       <c r="U14" s="57">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
       <c r="V14" s="58">
         <f t="shared" ref="V14:V34" si="3">U14/R14</f>
-        <v>0.47821056691091401</v>
+        <v>0.48092209856915735</v>
       </c>
       <c r="W14" s="87">
         <v>0.125</v>
       </c>
       <c r="X14" s="75">
         <f>SUMIF(C:C,"=50ETF",J:J)/SUMIF(C:C,"=50ETF",M:M)*-1</f>
-        <v>9.1372849980717312</v>
+        <v>9.1608744038155816</v>
       </c>
       <c r="Y14" s="75">
         <f>SUMIF(C:C,"=50ETF",K:K)/SUMIF(C:C,"=50ETF",M:M)*-1</f>
-        <v>1.1410104126494409</v>
+        <v>1.1474801271860096</v>
       </c>
       <c r="Z14" s="59">
         <f>(SUMIF(C:C,"=50ETF",M:M)*-1)/$Q$2</f>
@@ -26918,19 +27010,19 @@
       </c>
       <c r="H15" s="21">
         <f>F15*$T$21</f>
-        <v>24.743592486923443</v>
+        <v>24.653259052924792</v>
       </c>
       <c r="I15" s="21">
         <f>E15*$V$21</f>
-        <v>3.1610235378031386</v>
+        <v>3.1479944289693593</v>
       </c>
       <c r="J15" s="21">
         <f t="shared" si="0"/>
-        <v>195969.25249643368</v>
+        <v>195253.81169916436</v>
       </c>
       <c r="K15" s="21">
         <f t="shared" si="1"/>
-        <v>25035.306419400858</v>
+        <v>24932.115877437325</v>
       </c>
       <c r="L15" s="7" t="s">
         <v>10</v>
@@ -26949,32 +27041,32 @@
         <v>510300</v>
       </c>
       <c r="R15" s="64">
-        <v>3.3349000000000002</v>
+        <v>3.2456</v>
       </c>
       <c r="S15" s="57">
-        <v>11.18</v>
+        <v>10.88</v>
       </c>
       <c r="T15" s="58">
         <f t="shared" si="2"/>
-        <v>3.352424360550541</v>
+        <v>3.3522307123490265</v>
       </c>
       <c r="U15" s="57">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
       <c r="V15" s="58">
         <f t="shared" si="3"/>
-        <v>0.41680410207202612</v>
+        <v>0.41594774463889578</v>
       </c>
       <c r="W15" s="87">
         <v>0.1244</v>
       </c>
       <c r="X15" s="75">
         <f>SUMIF(C:C,"=300ETF",J:J)/SUMIF(C:C,"=300ETF",M:M)*-1</f>
-        <v>11.580289867131096</v>
+        <v>11.575314344975054</v>
       </c>
       <c r="Y15" s="75">
         <f>SUMIF(C:C,"=300ETF",K:K)/SUMIF(C:C,"=300ETF",M:M)*-1</f>
-        <v>1.4397677026218447</v>
+        <v>1.436275217437162</v>
       </c>
       <c r="Z15" s="59">
         <f>(SUMIF(C:C,"=300ETF",M:M)*-1)/$Q$2</f>
@@ -27006,19 +27098,19 @@
       </c>
       <c r="H16" s="21">
         <f>F16*$T$19</f>
-        <v>28.939886039886041</v>
+        <v>28.909114039073145</v>
       </c>
       <c r="I16" s="21">
         <f>F16*$V$19</f>
-        <v>3.5671652421652418</v>
+        <v>3.560854157201272</v>
       </c>
       <c r="J16" s="21">
         <f t="shared" si="0"/>
-        <v>112680.34028490029</v>
+        <v>112560.5264225352</v>
       </c>
       <c r="K16" s="21">
         <f t="shared" si="1"/>
-        <v>13889.114586894586</v>
+        <v>13864.541746478872</v>
       </c>
       <c r="L16" s="5" t="s">
         <v>24</v>
@@ -27037,32 +27129,32 @@
         <v>510500</v>
       </c>
       <c r="R16" s="64">
-        <v>4.6166</v>
+        <v>4.5307000000000004</v>
       </c>
       <c r="S16" s="57">
-        <v>17.77</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="T16" s="58">
         <f t="shared" si="2"/>
-        <v>3.8491530563618248</v>
+        <v>3.8404661531330695</v>
       </c>
       <c r="U16" s="57">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
       <c r="V16" s="58">
         <f t="shared" si="3"/>
-        <v>0.35090759433349222</v>
+        <v>0.35093914847595292</v>
       </c>
       <c r="W16" s="87">
-        <v>9.1200000000000003E-2</v>
+        <v>9.1300000000000006E-2</v>
       </c>
       <c r="X16" s="75">
         <f>SUMIF(C:C,"=500ETF",J:J)/SUMIF(C:C,"=500ETF",M:M)*-1</f>
-        <v>22.280848139707675</v>
+        <v>22.230563942428397</v>
       </c>
       <c r="Y16" s="75">
         <f>SUMIF(C:C,"=500ETF",K:K)/SUMIF(C:C,"=500ETF",M:M)*-1</f>
-        <v>2.0312309502716057</v>
+        <v>2.0314136016356987</v>
       </c>
       <c r="Z16" s="59">
         <f>(SUMIF(C:C,"=500ETF",M:M)*-1)/$Q$2</f>
@@ -27119,32 +27211,32 @@
         <v>512100</v>
       </c>
       <c r="R17" s="64">
-        <v>0.53349999999999997</v>
+        <v>0.52459999999999996</v>
       </c>
       <c r="S17" s="57">
-        <v>20.3</v>
+        <v>19.93</v>
       </c>
       <c r="T17" s="58">
         <f t="shared" si="2"/>
-        <v>38.050609184629806</v>
+        <v>37.990850171559288</v>
       </c>
       <c r="U17" s="57">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V17" s="58">
         <f t="shared" si="3"/>
-        <v>3.4301780693533273</v>
+        <v>3.4311856652687767</v>
       </c>
       <c r="W17" s="87">
-        <v>9.0200000000000002E-2</v>
+        <v>9.01E-2</v>
       </c>
       <c r="X17" s="75">
         <f>SUMIF(C:C,"=1000ETF",J:J)/SUMIF(C:C,"=1000ETF",M:M)*-1</f>
-        <v>27.922947720137909</v>
+        <v>27.879094340821993</v>
       </c>
       <c r="Y17" s="75">
         <f>SUMIF(C:C,"=1000ETF",K:K)/SUMIF(C:C,"=1000ETF",M:M)*-1</f>
-        <v>2.517191838810461</v>
+        <v>2.5179312500491515</v>
       </c>
       <c r="Z17" s="59">
         <f>(SUMIF(C:C,"=1000ETF",M:M)*-1)/$Q$2</f>
@@ -27176,19 +27268,19 @@
       </c>
       <c r="H18" s="21">
         <f>F18*$T$13</f>
-        <v>10.33749805749806</v>
+        <v>10.189866614358571</v>
       </c>
       <c r="I18" s="21">
         <f>F18*$V$13</f>
-        <v>1.2231390831390834</v>
+        <v>1.2052530404080033</v>
       </c>
       <c r="J18" s="21">
         <f t="shared" si="0"/>
-        <v>40936.492307692315</v>
+        <v>40351.871792859944</v>
       </c>
       <c r="K18" s="21">
         <f t="shared" si="1"/>
-        <v>4843.6307692307701</v>
+        <v>4772.8020400156929</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>10</v>
@@ -27207,32 +27299,32 @@
         <v>159915</v>
       </c>
       <c r="R18" s="64">
-        <v>1.2555000000000001</v>
+        <v>1.2334000000000001</v>
       </c>
       <c r="S18" s="57">
-        <v>29.56</v>
+        <v>28.92</v>
       </c>
       <c r="T18" s="58">
         <f t="shared" si="2"/>
-        <v>23.544404619673436</v>
+        <v>23.447381222636615</v>
       </c>
       <c r="U18" s="57">
-        <v>3.51</v>
+        <v>3.44</v>
       </c>
       <c r="V18" s="58">
         <f t="shared" si="3"/>
-        <v>2.7956989247311825</v>
+        <v>2.7890384303551157</v>
       </c>
       <c r="W18" s="87">
         <v>0.11890000000000001</v>
       </c>
       <c r="X18" s="75">
         <f>SUMIF(C:C,"=创业板",J:J)/SUMIF(C:C,"=创业板",M:M)*-1</f>
-        <v>33.003869507192817</v>
+        <v>32.867864898595826</v>
       </c>
       <c r="Y18" s="75">
         <f>SUMIF(C:C,"=创业板",K:K)/SUMIF(C:C,"=创业板",M:M)*-1</f>
-        <v>3.9189303778838558</v>
+        <v>3.9095938883530295</v>
       </c>
       <c r="Z18" s="59">
         <f>(SUMIF(C:C,"=创业板",M:M)*-1)/$Q$2</f>
@@ -27289,34 +27381,34 @@
         <v>159938</v>
       </c>
       <c r="R19" s="64">
-        <v>1.1232</v>
+        <v>1.1005</v>
       </c>
       <c r="S19" s="57">
-        <v>25.88</v>
+        <v>25.33</v>
       </c>
       <c r="T19" s="58">
         <f t="shared" si="2"/>
-        <v>23.041310541310541</v>
+        <v>23.016810540663332</v>
       </c>
       <c r="U19" s="57">
-        <v>3.19</v>
+        <v>3.12</v>
       </c>
       <c r="V19" s="58">
         <f t="shared" si="3"/>
-        <v>2.8400997150997149</v>
+        <v>2.8350749659245795</v>
       </c>
       <c r="W19" s="87">
-        <v>0.1232</v>
+        <v>0.1231</v>
       </c>
       <c r="X19" s="75">
         <f>SUMIF(C:C,"=医药",J:J)/SUMIF(C:C,"=医药",M:M)*-1</f>
-        <v>28.265698152416856</v>
+        <v>28.215738515651225</v>
       </c>
       <c r="Y19" s="75">
         <f>SUMIF(C:C,"=医药",K:K)/SUMIF(C:C,"=医药",M:M)*-1</f>
-        <v>3.4840640303790487</v>
-      </c>
-      <c r="Z19" s="98">
+        <v>3.4754482498551846</v>
+      </c>
+      <c r="Z19" s="99">
         <f>(SUMIF(C:C,"=医药",M:M)*-1)/$Q$2</f>
         <v>6.1076224999999998E-2</v>
       </c>
@@ -27346,19 +27438,19 @@
       </c>
       <c r="H20" s="21">
         <f>F20*$T$16</f>
-        <v>25.346672876142616</v>
+        <v>25.289469618381261</v>
       </c>
       <c r="I20" s="21">
         <f>F20*$V$16</f>
-        <v>2.3107265086860465</v>
+        <v>2.3109342927141499</v>
       </c>
       <c r="J20" s="21">
         <f t="shared" si="0"/>
-        <v>200329.45681042326</v>
+        <v>199877.34628644577</v>
       </c>
       <c r="K20" s="21">
         <f t="shared" si="1"/>
-        <v>18263.011819520863</v>
+        <v>18264.6540572097</v>
       </c>
       <c r="L20" s="5" t="s">
         <v>24</v>
@@ -27377,34 +27469,34 @@
         <v>189</v>
       </c>
       <c r="R20" s="64">
-        <v>0.70230000000000004</v>
+        <v>0.68889999999999996</v>
       </c>
       <c r="S20" s="57">
-        <v>25.88</v>
+        <v>25.33</v>
       </c>
       <c r="T20" s="58">
         <f t="shared" si="2"/>
-        <v>36.850348853766192</v>
+        <v>36.768761794164611</v>
       </c>
       <c r="U20" s="57">
-        <v>3.19</v>
+        <v>3.12</v>
       </c>
       <c r="V20" s="58">
         <f t="shared" si="3"/>
-        <v>4.5422184251744264</v>
+        <v>4.5289592103353176</v>
       </c>
       <c r="W20" s="87">
-        <v>0.1232</v>
+        <v>0.1231</v>
       </c>
       <c r="X20" s="75">
         <f>SUMIF(C:C,"=医药",J:J)/SUMIF(C:C,"=医药",M:M)*-1</f>
-        <v>28.265698152416856</v>
+        <v>28.215738515651225</v>
       </c>
       <c r="Y20" s="75">
         <f>SUMIF(C:C,"=医药",K:K)/SUMIF(C:C,"=医药",M:M)*-1</f>
-        <v>3.4840640303790487</v>
-      </c>
-      <c r="Z20" s="99"/>
+        <v>3.4754482498551846</v>
+      </c>
+      <c r="Z20" s="100"/>
       <c r="AA20" s="2"/>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.2">
@@ -27431,19 +27523,19 @@
       </c>
       <c r="H21" s="21">
         <f>F21*$T$24</f>
-        <v>28.919245553056637</v>
+        <v>28.92031591988437</v>
       </c>
       <c r="I21" s="21">
         <f>F21*$V$24</f>
-        <v>2.481934164792476</v>
+        <v>2.4748048730125953</v>
       </c>
       <c r="J21" s="21">
         <f t="shared" si="0"/>
-        <v>115676.98221222655</v>
+        <v>115681.26367953749</v>
       </c>
       <c r="K21" s="21">
         <f t="shared" si="1"/>
-        <v>9927.7366591699047</v>
+        <v>9899.2194920503807</v>
       </c>
       <c r="L21" s="6" t="s">
         <v>16</v>
@@ -27462,32 +27554,32 @@
         <v>105</v>
       </c>
       <c r="R21" s="64">
-        <v>0.84119999999999995</v>
+        <v>0.82569999999999999</v>
       </c>
       <c r="S21" s="57">
-        <v>20.9</v>
+        <v>20.440000000000001</v>
       </c>
       <c r="T21" s="58">
         <f t="shared" si="2"/>
-        <v>24.845458868283405</v>
+        <v>24.754753542448832</v>
       </c>
       <c r="U21" s="57">
-        <v>2.67</v>
+        <v>2.61</v>
       </c>
       <c r="V21" s="58">
         <f t="shared" si="3"/>
-        <v>3.1740370898716121</v>
+        <v>3.1609543417706187</v>
       </c>
       <c r="W21" s="87">
         <v>0.12759999999999999</v>
       </c>
       <c r="X21" s="75">
         <f>SUMIF(C:C,"=养老",J:J)/SUMIF(C:C,"=养老",M:M)*-1</f>
-        <v>24.048996640000336</v>
+        <v>23.961199023228993</v>
       </c>
       <c r="Y21" s="75">
         <f>SUMIF(C:C,"=养老",K:K)/SUMIF(C:C,"=养老",M:M)*-1</f>
-        <v>3.0262463723943771</v>
+        <v>3.0137727881669214</v>
       </c>
       <c r="Z21" s="59">
         <f>(SUMIF(C:C,"=养老",M:M)*-1)/$Q$2</f>
@@ -27519,19 +27611,19 @@
       </c>
       <c r="H22" s="21">
         <f>F22*$T$16</f>
-        <v>24.788545682970152</v>
+        <v>24.73260202617697</v>
       </c>
       <c r="I22" s="21">
         <f t="shared" ref="I22:I23" si="4">F22*$V$16</f>
-        <v>2.2598449075076901</v>
+        <v>2.2600481161851369</v>
       </c>
       <c r="J22" s="21">
         <f t="shared" si="0"/>
-        <v>95802.027699172555</v>
+        <v>95585.818332707961</v>
       </c>
       <c r="K22" s="21">
         <f t="shared" si="1"/>
-        <v>8733.7808031884961</v>
+        <v>8734.566157988831</v>
       </c>
       <c r="L22" s="5" t="s">
         <v>24</v>
@@ -27550,32 +27642,32 @@
         <v>512880</v>
       </c>
       <c r="R22" s="64">
-        <v>0.70660000000000001</v>
+        <v>0.70499999999999996</v>
       </c>
       <c r="S22" s="57">
-        <v>19.18</v>
+        <v>19.12</v>
       </c>
       <c r="T22" s="58">
         <f t="shared" si="2"/>
-        <v>27.144070195301442</v>
+        <v>27.120567375886527</v>
       </c>
       <c r="U22" s="57">
         <v>1.17</v>
       </c>
       <c r="V22" s="58">
         <f t="shared" si="3"/>
-        <v>1.6558165864704215</v>
+        <v>1.6595744680851063</v>
       </c>
       <c r="W22" s="87">
         <v>6.0999999999999999E-2</v>
       </c>
       <c r="X22" s="75">
         <f>SUMIF(C:C,"=证券",J:J)/SUMIF(C:C,"=证券",M:M)*-1</f>
-        <v>21.630582658274033</v>
+        <v>21.611853717684099</v>
       </c>
       <c r="Y22" s="75">
         <f>SUMIF(C:C,"=证券",K:K)/SUMIF(C:C,"=证券",M:M)*-1</f>
-        <v>1.31948809750681</v>
+        <v>1.3224826804231375</v>
       </c>
       <c r="Z22" s="59">
         <f>(SUMIF(C:C,"=证券",M:M)*-1)/$Q$2</f>
@@ -27607,19 +27699,19 @@
       </c>
       <c r="H23" s="21">
         <f>F23*$T$16</f>
-        <v>25.304332192522637</v>
+        <v>25.247224490696798</v>
       </c>
       <c r="I23" s="21">
         <f t="shared" si="4"/>
-        <v>2.306866525148378</v>
+        <v>2.3070739620809144</v>
       </c>
       <c r="J23" s="21">
         <f t="shared" si="0"/>
-        <v>99830.398322618377</v>
+        <v>99605.097588452103</v>
       </c>
       <c r="K23" s="21">
         <f t="shared" si="1"/>
-        <v>9101.0267463501295</v>
+        <v>9101.8451244620028</v>
       </c>
       <c r="L23" s="5" t="s">
         <v>24</v>
@@ -27638,34 +27730,34 @@
         <v>512580</v>
       </c>
       <c r="R23" s="64">
-        <v>0.64270000000000005</v>
+        <v>0.63560000000000005</v>
       </c>
       <c r="S23" s="57">
-        <v>18.41</v>
+        <v>18.23</v>
       </c>
       <c r="T23" s="58">
         <f t="shared" si="2"/>
-        <v>28.644779835070793</v>
+        <v>28.681560730018877</v>
       </c>
       <c r="U23" s="57">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="V23" s="58">
         <f t="shared" si="3"/>
-        <v>2.4583787147969502</v>
+        <v>2.4543738200125862</v>
       </c>
       <c r="W23" s="87">
-        <v>8.5900000000000004E-2</v>
+        <v>8.5599999999999996E-2</v>
       </c>
       <c r="X23" s="75">
         <f>SUMIF(C:C,"=环保",J:J)/SUMIF(C:C,"=环保",M:M)*-1</f>
-        <v>24.732368316861187</v>
+        <v>24.752727715657713</v>
       </c>
       <c r="Y23" s="75">
         <f>SUMIF(C:C,"=环保",K:K)/SUMIF(C:C,"=环保",M:M)*-1</f>
-        <v>2.1226041249669025</v>
-      </c>
-      <c r="Z23" s="98">
+        <v>2.1181708851577632</v>
+      </c>
+      <c r="Z23" s="99">
         <f>(SUMIF(C:C,"=环保",M:M)*-1)/$Q$2</f>
         <v>6.0069037499999992E-2</v>
       </c>
@@ -27695,11 +27787,11 @@
       </c>
       <c r="H24" s="21">
         <f>F24*$T$13</f>
-        <v>11.501942501942503</v>
+        <v>11.337681443703413</v>
       </c>
       <c r="I24" s="21">
         <f>F24*$V$13</f>
-        <v>1.3609168609168611</v>
+        <v>1.3410160847391135</v>
       </c>
       <c r="J24" s="21">
         <f t="shared" si="0"/>
@@ -27726,34 +27818,34 @@
         <v>106</v>
       </c>
       <c r="R24" s="64">
-        <v>0.48909999999999998</v>
+        <v>0.48430000000000001</v>
       </c>
       <c r="S24" s="57">
-        <v>18.41</v>
+        <v>18.23</v>
       </c>
       <c r="T24" s="58">
         <f t="shared" si="2"/>
-        <v>37.640564301778781</v>
+        <v>37.641957464381584</v>
       </c>
       <c r="U24" s="57">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="V24" s="58">
         <f t="shared" si="3"/>
-        <v>3.2304232263340831</v>
+        <v>3.2211439190584348</v>
       </c>
       <c r="W24" s="87">
-        <v>8.5900000000000004E-2</v>
+        <v>8.5599999999999996E-2</v>
       </c>
       <c r="X24" s="75">
         <f>SUMIF(C:C,"=环保",J:J)/SUMIF(C:C,"=环保",M:M)*-1</f>
-        <v>24.732368316861187</v>
+        <v>24.752727715657713</v>
       </c>
       <c r="Y24" s="75">
         <f>SUMIF(C:C,"=环保",K:K)/SUMIF(C:C,"=环保",M:M)*-1</f>
-        <v>2.1226041249669025</v>
-      </c>
-      <c r="Z24" s="99"/>
+        <v>2.1181708851577632</v>
+      </c>
+      <c r="Z24" s="100"/>
       <c r="AA24" s="2"/>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.2">
@@ -27780,19 +27872,19 @@
       </c>
       <c r="H25" s="21">
         <f>F25*$T$25</f>
-        <v>33.323312791222008</v>
+        <v>33.307692307692307</v>
       </c>
       <c r="I25" s="21">
         <f>F25*$V$25</f>
-        <v>3.8478881707500379</v>
+        <v>3.8461538461538458</v>
       </c>
       <c r="J25" s="21">
         <f t="shared" si="0"/>
-        <v>133319.90981512101</v>
+        <v>133257.41538461539</v>
       </c>
       <c r="K25" s="21">
         <f t="shared" si="1"/>
-        <v>15394.630993536752</v>
+        <v>15387.692307692307</v>
       </c>
       <c r="L25" s="5" t="s">
         <v>24</v>
@@ -27811,32 +27903,32 @@
         <v>512980</v>
       </c>
       <c r="R25" s="64">
-        <v>0.6653</v>
+        <v>0.65</v>
       </c>
       <c r="S25" s="57">
-        <v>22.17</v>
+        <v>21.65</v>
       </c>
       <c r="T25" s="58">
         <f t="shared" si="2"/>
-        <v>33.323312791222008</v>
+        <v>33.307692307692307</v>
       </c>
       <c r="U25" s="57">
-        <v>2.56</v>
+        <v>2.5</v>
       </c>
       <c r="V25" s="58">
         <f t="shared" si="3"/>
-        <v>3.8478881707500379</v>
+        <v>3.8461538461538458</v>
       </c>
       <c r="W25" s="87">
-        <v>0.1157</v>
+        <v>0.11559999999999999</v>
       </c>
       <c r="X25" s="75">
         <f>SUMIF(C:C,"=传媒",J:J)/SUMIF(C:C,"=传媒",M:M)*-1</f>
-        <v>29.314413252421595</v>
+        <v>29.300671962284529</v>
       </c>
       <c r="Y25" s="75">
         <f>SUMIF(C:C,"=传媒",K:K)/SUMIF(C:C,"=传媒",M:M)*-1</f>
-        <v>3.3849750981596425</v>
+        <v>3.3834494182776593</v>
       </c>
       <c r="Z25" s="59">
         <f>(SUMIF(C:C,"=传媒",M:M)*-1)/$Q$2</f>
@@ -27868,19 +27960,19 @@
       </c>
       <c r="H26" s="21">
         <f>F26*$T$16</f>
-        <v>24.827037213533771</v>
+        <v>24.771006687708297</v>
       </c>
       <c r="I26" s="21">
         <f>F26*$V$16</f>
-        <v>2.263353983451025</v>
+        <v>2.2635575076698964</v>
       </c>
       <c r="J26" s="21">
         <f t="shared" si="0"/>
-        <v>96099.750835030107</v>
+        <v>95882.869556580641</v>
       </c>
       <c r="K26" s="21">
         <f t="shared" si="1"/>
-        <v>8760.9226985227233</v>
+        <v>8761.7104939634046</v>
       </c>
       <c r="L26" s="5" t="s">
         <v>24</v>
@@ -27899,21 +27991,21 @@
         <v>190</v>
       </c>
       <c r="R26" s="64">
-        <v>0.877</v>
+        <v>0.85199999999999998</v>
       </c>
       <c r="S26" s="57">
-        <v>9.93</v>
+        <v>9.66</v>
       </c>
       <c r="T26" s="58">
         <f t="shared" ref="T26:T34" si="5">S26/R26</f>
-        <v>11.322690992018243</v>
+        <v>11.338028169014086</v>
       </c>
       <c r="U26" s="57">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
       <c r="V26" s="58">
         <f t="shared" si="3"/>
-        <v>1.4139110604332954</v>
+        <v>1.42018779342723</v>
       </c>
       <c r="W26" s="87">
         <v>0.125</v>
@@ -27947,19 +28039,19 @@
       </c>
       <c r="H27" s="21">
         <f>F27*$T$24</f>
-        <v>26.299462277652832</v>
+        <v>26.30043568036341</v>
       </c>
       <c r="I27" s="21">
         <f>F27*$V$24</f>
-        <v>2.2570967082396236</v>
+        <v>2.2506132562461283</v>
       </c>
       <c r="J27" s="21">
         <f t="shared" si="0"/>
-        <v>105197.84911061134</v>
+        <v>105201.74272145364</v>
       </c>
       <c r="K27" s="21">
         <f t="shared" si="1"/>
-        <v>9028.3868329584948</v>
+        <v>9002.4530249845138</v>
       </c>
       <c r="L27" s="6" t="s">
         <v>16</v>
@@ -27978,24 +28070,24 @@
         <v>191</v>
       </c>
       <c r="R27" s="64">
-        <v>1.6791</v>
+        <v>1.6487000000000001</v>
       </c>
       <c r="S27" s="57">
-        <v>17.77</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="T27" s="58">
         <f t="shared" si="5"/>
-        <v>10.583050443690071</v>
+        <v>10.553769636683446</v>
       </c>
       <c r="U27" s="57">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
       <c r="V27" s="58">
         <f t="shared" si="3"/>
-        <v>0.96480257280686088</v>
+        <v>0.96439619093831508</v>
       </c>
       <c r="W27" s="87">
-        <v>9.1200000000000003E-2</v>
+        <v>9.1300000000000006E-2</v>
       </c>
       <c r="X27" s="61"/>
       <c r="Y27" s="61"/>
@@ -28026,19 +28118,19 @@
       </c>
       <c r="H28" s="21">
         <f>F28*$T$16</f>
-        <v>23.26043191959451</v>
+        <v>23.20793696338314</v>
       </c>
       <c r="I28" s="21">
         <f t="shared" ref="I28:I29" si="6">F28*$V$16</f>
-        <v>2.1205345925572936</v>
+        <v>2.1207252742401836</v>
       </c>
       <c r="J28" s="21">
         <f t="shared" si="0"/>
-        <v>182768.14599525629</v>
+        <v>182355.66845167414</v>
       </c>
       <c r="K28" s="21">
         <f t="shared" si="1"/>
-        <v>16662.036944981159</v>
+        <v>16663.535220584017</v>
       </c>
       <c r="L28" s="5" t="s">
         <v>24</v>
@@ -28057,24 +28149,24 @@
         <v>192</v>
       </c>
       <c r="R28" s="64">
-        <v>0.47899999999999998</v>
+        <v>0.47099999999999997</v>
       </c>
       <c r="S28" s="57">
-        <v>17.77</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="T28" s="58">
         <f t="shared" si="5"/>
-        <v>37.09812108559499</v>
+        <v>36.942675159235669</v>
       </c>
       <c r="U28" s="57">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
       <c r="V28" s="58">
         <f t="shared" si="3"/>
-        <v>3.3820459290187896</v>
+        <v>3.3757961783439492</v>
       </c>
       <c r="W28" s="87">
-        <v>9.1200000000000003E-2</v>
+        <v>9.1300000000000006E-2</v>
       </c>
       <c r="X28" s="61"/>
       <c r="Y28" s="61"/>
@@ -28105,19 +28197,19 @@
       </c>
       <c r="H29" s="21">
         <f>F29*$T$16</f>
-        <v>23.152655634016376</v>
+        <v>23.100403911095412</v>
       </c>
       <c r="I29" s="21">
         <f t="shared" si="6"/>
-        <v>2.1107091799159554</v>
+        <v>2.1108989780828566</v>
       </c>
       <c r="J29" s="21">
         <f t="shared" si="0"/>
-        <v>1156115.8197036781</v>
+        <v>1153506.6570905158</v>
       </c>
       <c r="K29" s="21">
         <f t="shared" si="1"/>
-        <v>105397.16533032968</v>
+        <v>105406.64280309885</v>
       </c>
       <c r="L29" s="5" t="s">
         <v>24</v>
@@ -28136,24 +28228,24 @@
         <v>161017</v>
       </c>
       <c r="R29" s="64">
-        <v>1.6970000000000001</v>
+        <v>1.6659999999999999</v>
       </c>
       <c r="S29" s="57">
-        <v>17.77</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="T29" s="58">
         <f t="shared" si="5"/>
-        <v>10.471420153211549</v>
+        <v>10.444177671068427</v>
       </c>
       <c r="U29" s="57">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
       <c r="V29" s="58">
         <f t="shared" si="3"/>
-        <v>0.95462581025338833</v>
+        <v>0.9543817527010805</v>
       </c>
       <c r="W29" s="87">
-        <v>9.1200000000000003E-2</v>
+        <v>9.1300000000000006E-2</v>
       </c>
       <c r="X29" s="61"/>
       <c r="Y29" s="61"/>
@@ -28184,19 +28276,19 @@
       </c>
       <c r="H30" s="21">
         <f>F30*$T$13</f>
-        <v>10.940077700077701</v>
+        <v>10.783840721851705</v>
       </c>
       <c r="I30" s="21">
         <f>F30*$V$13</f>
-        <v>1.2944366744366744</v>
+        <v>1.2755080423695566</v>
       </c>
       <c r="J30" s="21">
         <f t="shared" si="0"/>
-        <v>218801.55400155403</v>
+        <v>215676.8144370341</v>
       </c>
       <c r="K30" s="21">
         <f t="shared" si="1"/>
-        <v>25888.733488733487</v>
+        <v>25510.160847391133</v>
       </c>
       <c r="L30" s="7" t="s">
         <v>10</v>
@@ -28215,24 +28307,24 @@
         <v>193</v>
       </c>
       <c r="R30" s="64">
-        <v>0.76419999999999999</v>
+        <v>0.75139999999999996</v>
       </c>
       <c r="S30" s="57">
-        <v>17.77</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="T30" s="58">
         <f t="shared" si="5"/>
-        <v>23.253075111227428</v>
+        <v>23.156774021825925</v>
       </c>
       <c r="U30" s="57">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
       <c r="V30" s="58">
         <f t="shared" si="3"/>
-        <v>2.1198639099712118</v>
+        <v>2.1160500399254727</v>
       </c>
       <c r="W30" s="87">
-        <v>9.1200000000000003E-2</v>
+        <v>9.1300000000000006E-2</v>
       </c>
       <c r="X30" s="61"/>
       <c r="Y30" s="61"/>
@@ -28263,19 +28355,19 @@
       </c>
       <c r="H31" s="21">
         <f>F31*$T$17</f>
-        <v>29.527272727272731</v>
+        <v>29.480899733130009</v>
       </c>
       <c r="I31" s="21">
         <f>F31*$V$17</f>
-        <v>2.6618181818181821</v>
+        <v>2.6626000762485709</v>
       </c>
       <c r="J31" s="21">
         <f t="shared" si="0"/>
-        <v>591277.73090909095</v>
+        <v>590349.12097598182</v>
       </c>
       <c r="K31" s="21">
         <f t="shared" si="1"/>
-        <v>53302.376727272727</v>
+        <v>53318.034006862377</v>
       </c>
       <c r="L31" s="5" t="s">
         <v>24</v>
@@ -28294,21 +28386,21 @@
         <v>100038</v>
       </c>
       <c r="R31" s="64">
-        <v>1.641</v>
+        <v>1.6</v>
       </c>
       <c r="S31" s="57">
-        <v>11.18</v>
+        <v>10.88</v>
       </c>
       <c r="T31" s="58">
         <f t="shared" si="5"/>
-        <v>6.8129189518586228</v>
+        <v>6.8</v>
       </c>
       <c r="U31" s="57">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
       <c r="V31" s="58">
         <f t="shared" si="3"/>
-        <v>0.84704448507007912</v>
+        <v>0.84375</v>
       </c>
       <c r="W31" s="87">
         <v>0.1244</v>
@@ -28342,19 +28434,19 @@
       </c>
       <c r="H32" s="21">
         <f>F32*$T$17</f>
-        <v>28.918462980318655</v>
+        <v>28.87304613038506</v>
       </c>
       <c r="I32" s="21">
         <f>F32*$V$17</f>
-        <v>2.6069353327085287</v>
+        <v>2.6077011056042703</v>
       </c>
       <c r="J32" s="21">
         <f t="shared" si="0"/>
-        <v>290168.14672914718</v>
+        <v>289712.433602745</v>
       </c>
       <c r="K32" s="21">
         <f t="shared" si="1"/>
-        <v>26158.015197750705</v>
+        <v>26165.698970644306</v>
       </c>
       <c r="L32" s="5" t="s">
         <v>24</v>
@@ -28373,21 +28465,21 @@
         <v>194</v>
       </c>
       <c r="R32" s="64">
-        <v>1.089</v>
+        <v>1.0620000000000001</v>
       </c>
       <c r="S32" s="57">
-        <v>11.18</v>
+        <v>10.88</v>
       </c>
       <c r="T32" s="58">
         <f t="shared" si="5"/>
-        <v>10.266299357208448</v>
+        <v>10.24482109227872</v>
       </c>
       <c r="U32" s="57">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
       <c r="V32" s="58">
         <f t="shared" si="3"/>
-        <v>1.2764003673094582</v>
+        <v>1.271186440677966</v>
       </c>
       <c r="W32" s="87">
         <v>0.1244</v>
@@ -28446,24 +28538,24 @@
         <v>113</v>
       </c>
       <c r="R33" s="64">
-        <v>0.66420000000000001</v>
+        <v>0.64990000000000003</v>
       </c>
       <c r="S33" s="57">
-        <v>22.17</v>
+        <v>21.65</v>
       </c>
       <c r="T33" s="58">
         <f t="shared" si="5"/>
-        <v>33.378500451671187</v>
+        <v>33.312817356516383</v>
       </c>
       <c r="U33" s="57">
-        <v>2.56</v>
+        <v>2.5</v>
       </c>
       <c r="V33" s="58">
         <f t="shared" si="3"/>
-        <v>3.8542607648298706</v>
+        <v>3.8467456531774116</v>
       </c>
       <c r="W33" s="87">
-        <v>0.1157</v>
+        <v>0.11559999999999999</v>
       </c>
       <c r="X33" s="61"/>
       <c r="Y33" s="61"/>
@@ -28494,19 +28586,19 @@
       </c>
       <c r="H34" s="21">
         <f>F34*$T$24</f>
-        <v>25.86659578818238</v>
+        <v>25.867553169523024</v>
       </c>
       <c r="I34" s="21">
         <f>F34*$V$24</f>
-        <v>2.2199468411367822</v>
+        <v>2.2135701011769564</v>
       </c>
       <c r="J34" s="21">
         <f t="shared" si="0"/>
-        <v>103466.38315272953</v>
+        <v>103470.2126780921</v>
       </c>
       <c r="K34" s="21">
         <f t="shared" si="1"/>
-        <v>8879.7873645471282</v>
+        <v>8854.2804047078262</v>
       </c>
       <c r="L34" s="6" t="s">
         <v>16</v>
@@ -28525,30 +28617,30 @@
         <v>195</v>
       </c>
       <c r="R34" s="64">
-        <v>0.90820000000000001</v>
+        <v>0.89119999999999999</v>
       </c>
       <c r="S34" s="57">
-        <v>7.83</v>
+        <v>7.95</v>
       </c>
       <c r="T34" s="58">
         <f t="shared" si="5"/>
-        <v>8.6214490200396394</v>
+        <v>8.9205565529622977</v>
       </c>
       <c r="U34" s="57">
-        <v>1.0900000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="V34" s="58">
         <f t="shared" si="3"/>
-        <v>1.2001761726491962</v>
+        <v>1.2342908438061042</v>
       </c>
       <c r="W34" s="87"/>
       <c r="X34" s="75">
         <f>SUMIF(C:C,"=金融地产",J:J)/SUMIF(C:C,"=金融地产",M:M)*-1</f>
-        <v>7.8288504734639943</v>
+        <v>8.1004600538599636</v>
       </c>
       <c r="Y34" s="75">
         <f>SUMIF(C:C,"=金融地产",K:K)/SUMIF(C:C,"=金融地产",M:M)*-1</f>
-        <v>1.0898399765103135</v>
+        <v>1.1208183722321965</v>
       </c>
       <c r="Z34" s="59">
         <f>(SUMIF(C:C,"=金融地产",M:M)*-1)/$Q$2</f>
@@ -28580,19 +28672,19 @@
       </c>
       <c r="H35" s="21">
         <f>F35*$T$23</f>
-        <v>25.751657071728644</v>
+        <v>25.784723096286971</v>
       </c>
       <c r="I35" s="21">
         <f>F35*$V$23</f>
-        <v>2.2100824646024582</v>
+        <v>2.2064820641913152</v>
       </c>
       <c r="J35" s="21">
         <f t="shared" si="0"/>
-        <v>104199.18752590632</v>
+        <v>104332.98291173694</v>
       </c>
       <c r="K35" s="21">
         <f t="shared" si="1"/>
-        <v>8942.6787773455726</v>
+        <v>8928.1104411579599</v>
       </c>
       <c r="L35" s="5" t="s">
         <v>24</v>
@@ -28611,7 +28703,7 @@
         <v>196</v>
       </c>
       <c r="R35" s="65">
-        <v>1.115</v>
+        <v>1.1140000000000001</v>
       </c>
       <c r="S35" s="2"/>
       <c r="T35" s="2"/>
@@ -28675,21 +28767,21 @@
         <v>107</v>
       </c>
       <c r="R36" s="64">
-        <v>1.4267000000000001</v>
+        <v>1.3869</v>
       </c>
       <c r="S36" s="57">
-        <v>9.42</v>
+        <v>9.41</v>
       </c>
       <c r="T36" s="58">
         <f>S36/R36</f>
-        <v>6.6026494708067567</v>
+        <v>6.7849159997115871</v>
       </c>
       <c r="U36" s="57">
         <v>1.07</v>
       </c>
       <c r="V36" s="58">
         <f>U36/R36</f>
-        <v>0.74998247704492882</v>
+        <v>0.77150479486624846</v>
       </c>
       <c r="W36" s="58"/>
       <c r="X36" s="2"/>
@@ -28722,19 +28814,19 @@
       </c>
       <c r="H37" s="21">
         <f>F37*$T$25</f>
-        <v>31.523853900496018</v>
+        <v>31.509076923076922</v>
       </c>
       <c r="I37" s="21">
         <f>F37*$V$25</f>
-        <v>3.6401022095295357</v>
+        <v>3.638461538461538</v>
       </c>
       <c r="J37" s="21">
         <f t="shared" si="0"/>
-        <v>202827.31314264244</v>
+        <v>202732.23673999999</v>
       </c>
       <c r="K37" s="21">
         <f t="shared" si="1"/>
-        <v>23420.74522531189</v>
+        <v>23410.188999999998</v>
       </c>
       <c r="L37" s="5" t="s">
         <v>24</v>
@@ -28753,7 +28845,7 @@
         <v>197</v>
       </c>
       <c r="R37" s="64">
-        <v>1.0053000000000001</v>
+        <v>1.0066999999999999</v>
       </c>
       <c r="S37" s="2"/>
       <c r="T37" s="2"/>
@@ -28791,19 +28883,19 @@
       </c>
       <c r="H38" s="21">
         <f>F38*$T$23</f>
-        <v>26.295907888594989</v>
+        <v>26.329672750157329</v>
       </c>
       <c r="I38" s="21">
         <f>F38*$V$23</f>
-        <v>2.2567916601836004</v>
+        <v>2.2531151667715541</v>
       </c>
       <c r="J38" s="21">
         <f t="shared" si="0"/>
-        <v>504619.52421845339</v>
+        <v>505267.47326242918</v>
       </c>
       <c r="K38" s="21">
         <f t="shared" si="1"/>
-        <v>43307.922230589698</v>
+        <v>43237.370174952797</v>
       </c>
       <c r="L38" s="5" t="s">
         <v>24</v>
@@ -28822,7 +28914,7 @@
         <v>198</v>
       </c>
       <c r="R38" s="64">
-        <v>1.429</v>
+        <v>1.427</v>
       </c>
       <c r="S38" s="2"/>
       <c r="T38" s="2"/>
@@ -28885,7 +28977,7 @@
         <v>340001</v>
       </c>
       <c r="R39" s="64">
-        <v>3.6154999999999999</v>
+        <v>3.6072000000000002</v>
       </c>
       <c r="S39" s="2"/>
       <c r="T39" s="2"/>
@@ -28923,19 +29015,19 @@
       </c>
       <c r="H40" s="21">
         <f>F40*$T$22</f>
-        <v>24.131078403622983</v>
+        <v>24.110184397163124</v>
       </c>
       <c r="I40" s="21">
         <f>F40*$V$22</f>
-        <v>1.4720209453722048</v>
+        <v>1.4753617021276595</v>
       </c>
       <c r="J40" s="21">
         <f t="shared" si="0"/>
-        <v>308978.18885253323</v>
+        <v>308710.65865078015</v>
       </c>
       <c r="K40" s="21">
         <f t="shared" si="1"/>
-        <v>18847.99170789697</v>
+        <v>18890.767291914894</v>
       </c>
       <c r="L40" s="5" t="s">
         <v>24</v>
@@ -28954,7 +29046,7 @@
         <v>518880</v>
       </c>
       <c r="R40" s="64">
-        <v>1.0309999999999999</v>
+        <v>1.0370999999999999</v>
       </c>
       <c r="S40" s="2"/>
       <c r="T40" s="2"/>
@@ -28992,19 +29084,19 @@
       </c>
       <c r="H41" s="21">
         <f>F41*$T$25</f>
-        <v>31.523853900496018</v>
+        <v>31.509076923076922</v>
       </c>
       <c r="I41" s="21">
         <f>F41*$V$25</f>
-        <v>3.6401022095295357</v>
+        <v>3.638461538461538</v>
       </c>
       <c r="J41" s="21">
         <f t="shared" si="0"/>
-        <v>202827.31314264244</v>
+        <v>202732.23673999999</v>
       </c>
       <c r="K41" s="21">
         <f t="shared" si="1"/>
-        <v>23420.74522531189</v>
+        <v>23410.188999999998</v>
       </c>
       <c r="L41" s="5" t="s">
         <v>24</v>
@@ -29057,19 +29149,19 @@
       </c>
       <c r="H42" s="21">
         <f>F42*$T$16</f>
-        <v>23.110314950396393</v>
+        <v>23.058158783410949</v>
       </c>
       <c r="I42" s="21">
         <f>F42*$V$16</f>
-        <v>2.1068491963782869</v>
+        <v>2.1070386474496212</v>
       </c>
       <c r="J42" s="21">
         <f t="shared" si="0"/>
-        <v>152660.26967413246</v>
+        <v>152315.74063875337</v>
       </c>
       <c r="K42" s="21">
         <f t="shared" si="1"/>
-        <v>13917.255873499978</v>
+        <v>13918.507334230912</v>
       </c>
       <c r="L42" s="5" t="s">
         <v>24</v>
@@ -29173,19 +29265,19 @@
       </c>
       <c r="H44" s="21">
         <f>F44*$T$16</f>
-        <v>22.740796256985661</v>
+        <v>22.689474032710176</v>
       </c>
       <c r="I44" s="21">
         <f>F44*$V$16</f>
-        <v>2.0731620673222722</v>
+        <v>2.0733484891959302</v>
       </c>
       <c r="J44" s="21">
         <f t="shared" si="0"/>
-        <v>147817.44975003251</v>
+        <v>147483.85016001941</v>
       </c>
       <c r="K44" s="21">
         <f t="shared" si="1"/>
-        <v>13475.760753801502</v>
+        <v>13476.972514622466</v>
       </c>
       <c r="L44" s="5" t="s">
         <v>24</v>
@@ -29232,19 +29324,19 @@
       </c>
       <c r="H45" s="21">
         <f>F45*$T$34</f>
-        <v>8.1386478749174191</v>
+        <v>8.4210053859964091</v>
       </c>
       <c r="I45" s="21">
         <f>F45*$V$34</f>
-        <v>1.1329663069808411</v>
+        <v>1.1651705565529624</v>
       </c>
       <c r="J45" s="21">
         <f t="shared" si="0"/>
-        <v>52087.346399471484</v>
+        <v>53894.434470377018</v>
       </c>
       <c r="K45" s="21">
         <f t="shared" si="1"/>
-        <v>7250.9843646773834</v>
+        <v>7457.0915619389598</v>
       </c>
       <c r="L45" s="7" t="s">
         <v>10</v>
@@ -29299,19 +29391,19 @@
       </c>
       <c r="H46" s="21">
         <f>F46*$T$16</f>
-        <v>22.328936879954945</v>
+        <v>22.278544154324937</v>
       </c>
       <c r="I46" s="21">
         <f>F46*$V$16</f>
-        <v>2.0356149547285884</v>
+        <v>2.0357980003090028</v>
       </c>
       <c r="J46" s="21">
         <f t="shared" si="0"/>
-        <v>427535.05720229173</v>
+        <v>426570.18113359966</v>
       </c>
       <c r="K46" s="21">
         <f t="shared" si="1"/>
-        <v>38976.1841681324</v>
+        <v>38979.688965656518</v>
       </c>
       <c r="L46" s="5" t="s">
         <v>24</v>
@@ -29369,19 +29461,19 @@
       </c>
       <c r="H47" s="21">
         <f>F47*$T$15</f>
-        <v>12.21288194548562</v>
+        <v>12.212176485087502</v>
       </c>
       <c r="I47" s="21">
         <f>F47*$V$15</f>
-        <v>1.518417343848391</v>
+        <v>1.5152976337194972</v>
       </c>
       <c r="J47" s="21">
         <f t="shared" si="0"/>
-        <v>80100.750944675994</v>
+        <v>80096.124034508248</v>
       </c>
       <c r="K47" s="21">
         <f t="shared" si="1"/>
-        <v>9958.8590172718814</v>
+        <v>9938.3977432524043</v>
       </c>
       <c r="L47" s="5" t="s">
         <v>24</v>
@@ -29439,19 +29531,19 @@
       </c>
       <c r="H48" s="21">
         <f>F48*$T$16</f>
-        <v>21.266570636399084</v>
+        <v>21.218575496060211</v>
       </c>
       <c r="I48" s="21">
         <f t="shared" ref="I48:I49" si="7">F48*$V$16</f>
-        <v>1.9387644586925448</v>
+        <v>1.93893879532964</v>
       </c>
       <c r="J48" s="21">
         <f t="shared" si="0"/>
-        <v>270298.96345145785</v>
+        <v>269688.94329794514</v>
       </c>
       <c r="K48" s="21">
         <f t="shared" si="1"/>
-        <v>24641.773820560593</v>
+        <v>24643.989646191538</v>
       </c>
       <c r="L48" s="5" t="s">
         <v>24</v>
@@ -29509,19 +29601,19 @@
       </c>
       <c r="H49" s="21">
         <f>F49*$T$16</f>
-        <v>20.835465494086559</v>
+        <v>20.788443286909306</v>
       </c>
       <c r="I49" s="21">
         <f t="shared" si="7"/>
-        <v>1.8994628081271936</v>
+        <v>1.8996336107003333</v>
       </c>
       <c r="J49" s="21">
         <f t="shared" si="0"/>
-        <v>135365.93576853097</v>
+        <v>135060.43719072107</v>
       </c>
       <c r="K49" s="21">
         <f t="shared" si="1"/>
-        <v>12340.619918121563</v>
+        <v>12341.729605358994</v>
       </c>
       <c r="L49" s="5" t="s">
         <v>24</v>
@@ -29643,19 +29735,19 @@
       </c>
       <c r="H51" s="21">
         <f>F51*$T$22</f>
-        <v>20.87378998018681</v>
+        <v>20.855716312056739</v>
       </c>
       <c r="I51" s="21">
         <f>F51*$V$22</f>
-        <v>1.2733229549957541</v>
+        <v>1.2762127659574467</v>
       </c>
       <c r="J51" s="21">
         <f t="shared" si="0"/>
-        <v>133257.85775771298</v>
+        <v>133142.47582184398</v>
       </c>
       <c r="K51" s="21">
         <f t="shared" si="1"/>
-        <v>8128.8682782337937</v>
+        <v>8147.3167736170199</v>
       </c>
       <c r="L51" s="5" t="s">
         <v>24</v>
@@ -29713,19 +29805,19 @@
       </c>
       <c r="H52" s="21">
         <f>F52*$T$18</f>
-        <v>34.563185981680604</v>
+        <v>34.420755634830549</v>
       </c>
       <c r="I52" s="21">
         <f>F52*$V$18</f>
-        <v>4.1040860215053758</v>
+        <v>4.0943084157613097</v>
       </c>
       <c r="J52" s="21">
         <f t="shared" si="0"/>
-        <v>223295.11740278773</v>
+        <v>222374.94757126641</v>
       </c>
       <c r="K52" s="21">
         <f t="shared" si="1"/>
-        <v>26514.406701075266</v>
+        <v>26451.238576941782</v>
       </c>
       <c r="L52" s="5" t="s">
         <v>24</v>
@@ -29783,19 +29875,19 @@
       </c>
       <c r="H53" s="21">
         <f>F53*$T$15</f>
-        <v>11.559159195178266</v>
+        <v>11.558491496179442</v>
       </c>
       <c r="I53" s="21">
         <f>F53*$V$15</f>
-        <v>1.4371405439443461</v>
+        <v>1.4341878235149126</v>
       </c>
       <c r="J53" s="21">
         <f t="shared" si="0"/>
-        <v>71755.098986356417</v>
+        <v>71750.954151343365</v>
       </c>
       <c r="K53" s="21">
         <f t="shared" si="1"/>
-        <v>8921.2511262106818</v>
+        <v>8902.9217007641128</v>
       </c>
       <c r="L53" s="5" t="s">
         <v>24</v>
@@ -29853,19 +29945,19 @@
       </c>
       <c r="H54" s="21">
         <f>F54*$T$23</f>
-        <v>21.884611793994086</v>
+        <v>21.91271239773442</v>
       </c>
       <c r="I54" s="21">
         <f>F54*$V$23</f>
-        <v>1.8782013381048701</v>
+        <v>1.8751415984896158</v>
       </c>
       <c r="J54" s="21">
         <f t="shared" si="0"/>
-        <v>140474.69695223277</v>
+        <v>140655.07135556953</v>
       </c>
       <c r="K54" s="21">
         <f t="shared" si="1"/>
-        <v>12055.949005134589</v>
+        <v>12036.308903713025</v>
       </c>
       <c r="L54" s="5" t="s">
         <v>24</v>
@@ -29923,19 +30015,19 @@
       </c>
       <c r="H55" s="21">
         <f>F55*$T$34</f>
-        <v>7.3282316670336929</v>
+        <v>7.5824730700179526</v>
       </c>
       <c r="I55" s="21">
         <f>F55*$V$34</f>
-        <v>1.0201497467518168</v>
+        <v>1.0491472172351886</v>
       </c>
       <c r="J55" s="21">
         <f t="shared" ref="J55" si="11">H55*(-$M55)</f>
-        <v>46900.682669015638</v>
+        <v>48527.827648114893</v>
       </c>
       <c r="K55" s="21">
         <f t="shared" ref="K55" si="12">I55*(-$M55)</f>
-        <v>6528.9583792116273</v>
+        <v>6714.5421903052065</v>
       </c>
       <c r="L55" s="7" t="s">
         <v>10</v>
@@ -29993,19 +30085,19 @@
       </c>
       <c r="H56" s="21">
         <f>F56*$T$13</f>
-        <v>10.634716394716396</v>
+        <v>10.482840329540997</v>
       </c>
       <c r="I56" s="21">
         <f>F56*$V$13</f>
-        <v>1.2583061383061385</v>
+        <v>1.2399058454295804</v>
       </c>
       <c r="J56" s="21">
         <f t="shared" si="0"/>
-        <v>68062.184926184927</v>
+        <v>67090.178109062384</v>
       </c>
       <c r="K56" s="21">
         <f t="shared" si="1"/>
-        <v>8053.1592851592859</v>
+        <v>7935.3974107493141</v>
       </c>
       <c r="L56" s="7" t="s">
         <v>10</v>
@@ -30056,19 +30148,19 @@
       </c>
       <c r="H57" s="21">
         <f>F57*$T$21</f>
-        <v>24.838005230622922</v>
+        <v>24.747327116386099</v>
       </c>
       <c r="I57" s="21">
         <f>E57*$V$21</f>
-        <v>3.1730848787446506</v>
+        <v>3.1600060554680875</v>
       </c>
       <c r="J57" s="21">
         <f t="shared" si="0"/>
-        <v>158963.23347598669</v>
+        <v>158382.89354487104</v>
       </c>
       <c r="K57" s="21">
         <f t="shared" si="1"/>
-        <v>20307.743223965765</v>
+        <v>20224.03875499576</v>
       </c>
       <c r="L57" s="7" t="s">
         <v>10</v>
@@ -30120,19 +30212,19 @@
       </c>
       <c r="H58" s="21">
         <f>F58*$T$13</f>
-        <v>10.561429681429681</v>
+        <v>10.410600235386426</v>
       </c>
       <c r="I58" s="21">
         <f>F58*$V$13</f>
-        <v>1.2496348096348098</v>
+        <v>1.2313613181639858</v>
       </c>
       <c r="J58" s="21">
         <f t="shared" si="0"/>
-        <v>67593.14996114996</v>
+        <v>66627.841506473123</v>
       </c>
       <c r="K58" s="21">
         <f t="shared" si="1"/>
-        <v>7997.6627816627824</v>
+        <v>7880.7124362495088</v>
       </c>
       <c r="L58" s="7" t="s">
         <v>10</v>
@@ -30212,19 +30304,19 @@
       </c>
       <c r="H60" s="21">
         <f>F60*$T$14</f>
-        <v>9.1372849980717312</v>
+        <v>9.1608744038155816</v>
       </c>
       <c r="I60" s="21">
         <f>F60*$V$14</f>
-        <v>1.1410104126494409</v>
+        <v>1.1474801271860096</v>
       </c>
       <c r="J60" s="21">
         <f t="shared" si="0"/>
-        <v>58876.00451222522</v>
+        <v>59028.00261224166</v>
       </c>
       <c r="K60" s="21">
         <f t="shared" si="1"/>
-        <v>7352.0891838025454</v>
+        <v>7393.7767247217807</v>
       </c>
       <c r="L60" s="5" t="s">
         <v>24</v>
@@ -30304,19 +30396,19 @@
       </c>
       <c r="H62" s="21">
         <f>F62*$T$25</f>
-        <v>27.258469863219602</v>
+        <v>27.245692307692305</v>
       </c>
       <c r="I62" s="21">
         <f>F62*$V$25</f>
-        <v>3.1475725236735306</v>
+        <v>3.1461538461538456</v>
       </c>
       <c r="J62" s="21">
         <f t="shared" si="0"/>
-        <v>173954.83195671128</v>
+        <v>173873.28968615385</v>
       </c>
       <c r="K62" s="21">
         <f t="shared" si="1"/>
-        <v>20086.800622876897</v>
+        <v>20077.747076923075</v>
       </c>
       <c r="L62" s="5" t="s">
         <v>24</v>
@@ -30397,19 +30489,19 @@
       </c>
       <c r="H64" s="21">
         <f>F64*$T$17</f>
-        <v>24.808997188378633</v>
+        <v>24.770034311856655</v>
       </c>
       <c r="I64" s="21">
         <f>F64*$V$17</f>
-        <v>2.2364761012183694</v>
+        <v>2.2371330537552425</v>
       </c>
       <c r="J64" s="21">
         <f t="shared" si="0"/>
-        <v>80893.456682286793</v>
+        <v>80766.4123789554</v>
       </c>
       <c r="K64" s="21">
         <f t="shared" si="1"/>
-        <v>7292.3657994376763</v>
+        <v>7294.5078917270321</v>
       </c>
       <c r="L64" s="5" t="s">
         <v>24</v>
@@ -30447,19 +30539,19 @@
       </c>
       <c r="H65" s="21">
         <f>F65*$T$16</f>
-        <v>20.866258718537452</v>
+        <v>20.819167016134372</v>
       </c>
       <c r="I65" s="21">
         <f>F65*$V$16</f>
-        <v>1.9022700688818615</v>
+        <v>1.9024411238881409</v>
       </c>
       <c r="J65" s="21">
         <f t="shared" si="0"/>
-        <v>135766.31235216392</v>
+        <v>135459.91019047829</v>
       </c>
       <c r="K65" s="21">
         <f t="shared" si="1"/>
-        <v>12377.120203179831</v>
+        <v>12378.23317257819</v>
       </c>
       <c r="L65" s="5" t="s">
         <v>24</v>
@@ -30506,19 +30598,19 @@
       </c>
       <c r="H66" s="21">
         <f>F66*$T$17</f>
-        <v>23.553327085285851</v>
+        <v>23.516336256195199</v>
       </c>
       <c r="I66" s="21">
         <f>F66*$V$17</f>
-        <v>2.1232802249297094</v>
+        <v>2.1239039268013729</v>
       </c>
       <c r="J66" s="21">
         <f t="shared" si="0"/>
-        <v>75828.523351452677</v>
+        <v>75709.433596645074</v>
       </c>
       <c r="K66" s="21">
         <f t="shared" si="1"/>
-        <v>6835.7732873477034</v>
+        <v>6837.7812581014123</v>
       </c>
       <c r="L66" s="5" t="s">
         <v>24</v>
@@ -30533,16 +30625,16 @@
       <c r="P66" s="15" t="s">
         <v>215</v>
       </c>
-      <c r="Q66" s="97">
-        <v>3865.93</v>
+      <c r="Q66">
+        <v>3811.38</v>
       </c>
       <c r="R66" s="97">
         <f>Q66*X13/S13</f>
-        <v>3938.7014940346389</v>
+        <v>3921.2094405076455</v>
       </c>
       <c r="S66" s="18">
         <f>R66/Q66-1</f>
-        <v>1.8823800232968368E-2</v>
+        <v>2.8816187445923847E-2</v>
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.2">
@@ -30569,19 +30661,19 @@
       </c>
       <c r="H67" s="21">
         <f>F67*$T$16</f>
-        <v>19.800043321925227</v>
+        <v>19.75535789171651</v>
       </c>
       <c r="I67" s="21">
         <f>F67*$V$16</f>
-        <v>1.805068665251484</v>
+        <v>1.8052309797603019</v>
       </c>
       <c r="J67" s="21">
         <f t="shared" ref="J67:J82" si="15">H67*(-$M67)</f>
-        <v>122246.061470866</v>
+        <v>121970.17228419449</v>
       </c>
       <c r="K67" s="21">
         <f t="shared" ref="K67:K82" si="16">I67*(-$M67)</f>
-        <v>11144.54809132262</v>
+        <v>11145.550225969497</v>
       </c>
       <c r="L67" s="5" t="s">
         <v>24</v>
@@ -30596,16 +30688,16 @@
       <c r="P67" s="15" t="s">
         <v>7455</v>
       </c>
-      <c r="Q67" s="97">
-        <v>2511.85</v>
+      <c r="Q67">
+        <v>2464.81</v>
       </c>
       <c r="R67" s="97">
-        <f t="shared" ref="R67:R78" si="17">Q67*X14/S14</f>
-        <v>2311.3282298495947</v>
+        <f t="shared" ref="R67:R72" si="17">Q67*X14/S14</f>
+        <v>2337.4549523052465</v>
       </c>
       <c r="S67" s="18">
-        <f t="shared" ref="S67:S76" si="18">R67/Q67-1</f>
-        <v>-7.9830312379483348E-2</v>
+        <f t="shared" ref="S67:S77" si="18">R67/Q67-1</f>
+        <v>-5.1669316375198671E-2</v>
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.2">
@@ -30632,19 +30724,19 @@
       </c>
       <c r="H68" s="21">
         <f>F68*$T$15</f>
-        <v>11.183687666796605</v>
+        <v>11.183041656396352</v>
       </c>
       <c r="I68" s="21">
         <f>F68*$V$15</f>
-        <v>1.3904584845122792</v>
+        <v>1.3876016761153562</v>
       </c>
       <c r="J68" s="21">
         <f t="shared" si="15"/>
-        <v>70900.889190560425</v>
+        <v>70896.793697806264</v>
       </c>
       <c r="K68" s="21">
         <f t="shared" si="16"/>
-        <v>8815.0479405079604</v>
+        <v>8796.9367180182398</v>
       </c>
       <c r="L68" s="5" t="s">
         <v>24</v>
@@ -30659,16 +30751,16 @@
       <c r="P68" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="Q68" s="97">
-        <v>3233.63</v>
+      <c r="Q68">
+        <v>3183.24</v>
       </c>
       <c r="R68" s="97">
         <f t="shared" si="17"/>
-        <v>3349.407220308688</v>
+        <v>3386.6731282627193</v>
       </c>
       <c r="S68" s="18">
         <f t="shared" si="18"/>
-        <v>3.5804102605643706E-2</v>
+        <v>6.3907568471971876E-2</v>
       </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.2">
@@ -30695,19 +30787,19 @@
       </c>
       <c r="H69" s="21">
         <f>F69*$T$19</f>
-        <v>28.985968660968659</v>
+        <v>28.955147660154473</v>
       </c>
       <c r="I69" s="21">
         <f>F69*$V$19</f>
-        <v>3.5728454415954416</v>
+        <v>3.566524307133121</v>
       </c>
       <c r="J69" s="21">
         <f t="shared" si="15"/>
-        <v>186005.27977492876</v>
+        <v>185807.49894702405</v>
       </c>
       <c r="K69" s="21">
         <f t="shared" si="16"/>
-        <v>22927.235026353275</v>
+        <v>22886.671800817807</v>
       </c>
       <c r="L69" s="5" t="s">
         <v>24</v>
@@ -30722,16 +30814,16 @@
       <c r="P69" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="Q69" s="97">
-        <v>4305.4799999999996</v>
+      <c r="Q69">
+        <v>4253.5600000000004</v>
       </c>
       <c r="R69" s="97">
         <f t="shared" si="17"/>
-        <v>5398.41001961444</v>
-      </c>
-      <c r="S69" s="100">
+        <v>5434.4274461468822</v>
+      </c>
+      <c r="S69" s="98">
         <f t="shared" si="18"/>
-        <v>0.25384626559975665</v>
+        <v>0.27761861738094251</v>
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.2">
@@ -30779,16 +30871,16 @@
       <c r="P70" s="15" t="s">
         <v>218</v>
       </c>
-      <c r="Q70" s="97">
-        <v>4426.97</v>
+      <c r="Q70">
+        <v>4378.93</v>
       </c>
       <c r="R70" s="97">
         <f t="shared" si="17"/>
-        <v>6089.3621610157106</v>
-      </c>
-      <c r="S70" s="100">
+        <v>6125.4692715431838</v>
+      </c>
+      <c r="S70" s="98">
         <f t="shared" si="18"/>
-        <v>0.37551466601664574</v>
+        <v>0.3988506944717507</v>
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.2">
@@ -30815,19 +30907,19 @@
       </c>
       <c r="H71" s="21">
         <f>F71*$T$13</f>
-        <v>10.553286713286715</v>
+        <v>10.40257355825814</v>
       </c>
       <c r="I71" s="21">
         <f>F71*$V$13</f>
-        <v>1.2486713286713289</v>
+        <v>1.2304119262455866</v>
       </c>
       <c r="J71" s="21">
         <f t="shared" si="15"/>
-        <v>67541.034965034982</v>
+        <v>66576.470772852103</v>
       </c>
       <c r="K71" s="21">
         <f t="shared" si="16"/>
-        <v>7991.4965034965053</v>
+        <v>7874.6363279717543</v>
       </c>
       <c r="L71" s="7" t="s">
         <v>10</v>
@@ -30842,16 +30934,16 @@
       <c r="P71" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="Q71" s="97">
-        <v>1306.53</v>
+      <c r="Q71">
+        <v>1292.06</v>
       </c>
       <c r="R71" s="97">
         <f t="shared" si="17"/>
-        <v>1458.7464691215371</v>
-      </c>
-      <c r="S71" s="100">
+        <v>1468.4389184259931</v>
+      </c>
+      <c r="S71" s="98">
         <f t="shared" si="18"/>
-        <v>0.11650438116349182</v>
+        <v>0.1365098512654157</v>
       </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.2">
@@ -30899,16 +30991,16 @@
       <c r="P72" s="15" t="s">
         <v>219</v>
       </c>
-      <c r="Q72" s="97">
-        <v>8089.84</v>
+      <c r="Q72">
+        <v>8000.45</v>
       </c>
       <c r="R72" s="97">
         <f t="shared" si="17"/>
-        <v>8835.5863810412666</v>
-      </c>
-      <c r="S72" s="100">
+        <v>8911.9070354339456</v>
+      </c>
+      <c r="S72" s="98">
         <f t="shared" si="18"/>
-        <v>9.2183081623526064E-2</v>
+        <v>0.11392572110743093</v>
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.2">
@@ -30935,19 +31027,19 @@
       </c>
       <c r="H73" s="21">
         <f>F73*$T$21</f>
-        <v>22.301283880171184</v>
+        <v>22.21986677970207</v>
       </c>
       <c r="I73" s="21">
         <f>E73*$V$21</f>
-        <v>2.8490156918687588</v>
+        <v>2.8372726171733071</v>
       </c>
       <c r="J73" s="21">
         <f t="shared" si="15"/>
-        <v>142728.21683309559</v>
+        <v>142207.14739009325</v>
       </c>
       <c r="K73" s="21">
         <f t="shared" si="16"/>
-        <v>18233.700427960055</v>
+        <v>18158.544749909164</v>
       </c>
       <c r="L73" s="7" t="s">
         <v>10</v>
@@ -30962,16 +31054,16 @@
       <c r="P73" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="Q73" s="97">
-        <v>6344.51</v>
+      <c r="Q73">
+        <v>6263.1</v>
       </c>
       <c r="R73" s="97">
         <f>Q73*X21/S21</f>
-        <v>7300.4353910262462</v>
-      </c>
-      <c r="S73" s="100">
+        <v>7342.0443054004645</v>
+      </c>
+      <c r="S73" s="98">
         <f t="shared" si="18"/>
-        <v>0.15066969569379607</v>
+        <v>0.17227001092118344</v>
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.2">
@@ -30998,19 +31090,19 @@
       </c>
       <c r="H74" s="21">
         <f>F74*$T$20</f>
-        <v>28.798547629218277</v>
+        <v>28.734787342139644</v>
       </c>
       <c r="I74" s="21">
         <f>F74*$V$20</f>
-        <v>3.5497436992738143</v>
+        <v>3.5393816228770505</v>
       </c>
       <c r="J74" s="21">
         <f t="shared" si="15"/>
-        <v>184310.70482699698</v>
+        <v>183902.63898969372</v>
       </c>
       <c r="K74" s="21">
         <f t="shared" si="16"/>
-        <v>22718.359675352411</v>
+        <v>22652.042386413123</v>
       </c>
       <c r="L74" s="7" t="s">
         <v>10</v>
@@ -31025,16 +31117,16 @@
       <c r="P74" s="15" t="s">
         <v>7456</v>
       </c>
-      <c r="Q74" s="97">
-        <v>547.04</v>
+      <c r="Q74">
+        <v>536.29999999999995</v>
       </c>
       <c r="R74" s="97">
         <f>Q74*X22/S22</f>
-        <v>616.9339904787397</v>
-      </c>
-      <c r="S74" s="100">
+        <v>606.19441154780236</v>
+      </c>
+      <c r="S74" s="98">
         <f t="shared" si="18"/>
-        <v>0.12776760470667536</v>
+        <v>0.13032707728473314</v>
       </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.2">
@@ -31061,19 +31153,19 @@
       </c>
       <c r="H75" s="21">
         <f>F75*$T$21</f>
-        <v>24.838005230622922</v>
+        <v>24.747327116386099</v>
       </c>
       <c r="I75" s="21">
         <f>E75*$V$21</f>
-        <v>2.8464764621968621</v>
+        <v>2.8347438536998908</v>
       </c>
       <c r="J75" s="21">
         <f t="shared" si="15"/>
-        <v>158963.23347598669</v>
+        <v>158382.89354487104</v>
       </c>
       <c r="K75" s="21">
         <f t="shared" si="16"/>
-        <v>18217.449358059919</v>
+        <v>18142.360663679301</v>
       </c>
       <c r="L75" s="7" t="s">
         <v>10</v>
@@ -31088,16 +31180,16 @@
       <c r="P75" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="Q75" s="97">
-        <v>1053.28</v>
+      <c r="Q75">
+        <v>1041.43</v>
       </c>
       <c r="R75" s="97">
         <f>Q75*X23/S23</f>
-        <v>1414.9977675602147</v>
-      </c>
-      <c r="S75" s="100">
+        <v>1414.0555800832371</v>
+      </c>
+      <c r="S75" s="98">
         <f t="shared" si="18"/>
-        <v>0.34342033225753332</v>
+        <v>0.35780184946010496</v>
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.2">
@@ -31124,19 +31216,19 @@
       </c>
       <c r="H76" s="21">
         <f>F76*$T$25</f>
-        <v>24.392664963174511</v>
+        <v>24.381230769230768</v>
       </c>
       <c r="I76" s="21">
         <f>F76*$V$25</f>
-        <v>2.8166541409890278</v>
+        <v>2.8153846153846152</v>
       </c>
       <c r="J76" s="21">
         <f t="shared" si="15"/>
-        <v>155373.22623598378</v>
+        <v>155300.39419384615</v>
       </c>
       <c r="K76" s="21">
         <f t="shared" si="16"/>
-        <v>17941.157382233581</v>
+        <v>17933.070923076921</v>
       </c>
       <c r="L76" s="5" t="s">
         <v>24</v>
@@ -31151,16 +31243,16 @@
       <c r="P76" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="Q76" s="97">
-        <v>1115.33</v>
+      <c r="Q76">
+        <v>1102.1400000000001</v>
       </c>
       <c r="R76" s="97">
         <f>Q76*X25/S25</f>
-        <v>1474.7516704024977</v>
-      </c>
-      <c r="S76" s="100">
+        <v>1491.613976744216</v>
+      </c>
+      <c r="S76" s="98">
         <f t="shared" si="18"/>
-        <v>0.32225589771861052</v>
+        <v>0.35337976731106369</v>
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.2">
@@ -31187,19 +31279,19 @@
       </c>
       <c r="H77" s="21">
         <f>F77*$T$16</f>
-        <v>19.819289087207036</v>
+        <v>19.774560222482176</v>
       </c>
       <c r="I77" s="21">
         <f t="shared" ref="I77:I79" si="19">F77*$V$16</f>
-        <v>1.8068232032231515</v>
+        <v>1.8069856755026816</v>
       </c>
       <c r="J77" s="21">
         <f t="shared" si="15"/>
-        <v>122483.99933050296</v>
+        <v>122207.57315734874</v>
       </c>
       <c r="K77" s="21">
         <f t="shared" si="16"/>
-        <v>11166.239668847205</v>
+        <v>11167.243754033592</v>
       </c>
       <c r="L77" s="5" t="s">
         <v>24</v>
@@ -31212,12 +31304,19 @@
       </c>
       <c r="O77" s="4"/>
       <c r="P77" s="15" t="s">
-        <v>7457</v>
-      </c>
-      <c r="Q77" s="97">
-        <v>25749</v>
-      </c>
-      <c r="R77" s="97"/>
+        <v>7461</v>
+      </c>
+      <c r="Q77">
+        <v>4981.13</v>
+      </c>
+      <c r="R77" s="97">
+        <f>Q77*X34/S34</f>
+        <v>5075.401834979054</v>
+      </c>
+      <c r="S77" s="98">
+        <f t="shared" si="18"/>
+        <v>1.8925792938360164E-2</v>
+      </c>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
@@ -31243,19 +31342,19 @@
       </c>
       <c r="H78" s="21">
         <f>F78*$T$16</f>
-        <v>19.753853485248882</v>
+        <v>19.709272297878911</v>
       </c>
       <c r="I78" s="21">
         <f t="shared" si="19"/>
-        <v>1.800857774119482</v>
+        <v>1.8010197099785903</v>
       </c>
       <c r="J78" s="21">
         <f t="shared" si="15"/>
-        <v>10139.65299397825</v>
+        <v>10116.769470501244</v>
       </c>
       <c r="K78" s="21">
         <f t="shared" si="16"/>
-        <v>924.38029545553002</v>
+        <v>924.46341713201036</v>
       </c>
       <c r="L78" s="5" t="s">
         <v>24</v>
@@ -31268,10 +31367,10 @@
       </c>
       <c r="O78" s="4"/>
       <c r="P78" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q78" s="97">
-        <v>11524.34</v>
+        <v>7457</v>
+      </c>
+      <c r="Q78">
+        <v>25346.55</v>
       </c>
       <c r="R78" s="97"/>
     </row>
@@ -31299,19 +31398,19 @@
       </c>
       <c r="H79" s="21">
         <f>F79*$T$16</f>
-        <v>19.519055148810814</v>
+        <v>19.475003862537793</v>
       </c>
       <c r="I79" s="21">
         <f t="shared" si="19"/>
-        <v>1.7794524108651391</v>
+        <v>1.7796124219215572</v>
       </c>
       <c r="J79" s="21">
         <f t="shared" si="15"/>
-        <v>128701.23241030196</v>
+        <v>128410.77496810645</v>
       </c>
       <c r="K79" s="21">
         <f t="shared" si="16"/>
-        <v>11733.033005328598</v>
+        <v>11734.088057430417</v>
       </c>
       <c r="L79" s="5" t="s">
         <v>24</v>
@@ -31323,8 +31422,12 @@
         <v>1.32</v>
       </c>
       <c r="O79" s="4"/>
-      <c r="P79" s="15"/>
-      <c r="Q79" s="97"/>
+      <c r="P79" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q79">
+        <v>11274.28</v>
+      </c>
       <c r="R79" s="97"/>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.2">
@@ -31351,19 +31454,19 @@
       </c>
       <c r="H80" s="21">
         <f>F80*$T$15</f>
-        <v>11.254088578368167</v>
+        <v>11.253438501355683</v>
       </c>
       <c r="I80" s="21">
         <f>F80*$V$15</f>
-        <v>1.3992113706557918</v>
+        <v>1.3963365787527733</v>
       </c>
       <c r="J80" s="21">
         <f t="shared" si="15"/>
-        <v>71796.358412785994</v>
+        <v>71792.211194478688</v>
       </c>
       <c r="K80" s="21">
         <f t="shared" si="16"/>
-        <v>8926.3808760082757</v>
+        <v>8908.0409110796172</v>
       </c>
       <c r="L80" s="5" t="s">
         <v>24</v>
@@ -31379,7 +31482,7 @@
       <c r="Q80" s="97"/>
       <c r="R80" s="97"/>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
         <v>43354</v>
       </c>
@@ -31403,19 +31506,19 @@
       </c>
       <c r="H81" s="21">
         <f>F81*$T$17</f>
-        <v>22.259606373008435</v>
+        <v>22.224647350362183</v>
       </c>
       <c r="I81" s="21">
         <f>F81*$V$17</f>
-        <v>2.0066541705716965</v>
+        <v>2.0072436141822343</v>
       </c>
       <c r="J81" s="21">
         <f t="shared" si="15"/>
-        <v>70332.120084348644</v>
+        <v>70221.66250762486</v>
       </c>
       <c r="K81" s="21">
         <f t="shared" si="16"/>
-        <v>6340.2847169634497</v>
+        <v>6342.1471406786131</v>
       </c>
       <c r="L81" s="5" t="s">
         <v>24</v>
@@ -31431,7 +31534,7 @@
       <c r="Q81" s="97"/>
       <c r="R81" s="97"/>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
         <v>43357</v>
       </c>
@@ -31455,19 +31558,19 @@
       </c>
       <c r="H82" s="21">
         <f>F82*$T$16</f>
-        <v>19.149536455400078</v>
+        <v>19.106319111837021</v>
       </c>
       <c r="I82" s="21">
         <f>F82*$V$16</f>
-        <v>1.7457652818091236</v>
+        <v>1.7459222636678657</v>
       </c>
       <c r="J82" s="21">
         <f t="shared" si="15"/>
-        <v>123874.32992732748</v>
+        <v>123594.7660074602</v>
       </c>
       <c r="K82" s="21">
         <f t="shared" si="16"/>
-        <v>11292.98899731404</v>
+        <v>11294.004479992052</v>
       </c>
       <c r="L82" s="5" t="s">
         <v>24</v>
@@ -31483,7 +31586,7 @@
       <c r="Q82" s="97"/>
       <c r="R82" s="97"/>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
         <v>43371</v>
       </c>
@@ -31507,19 +31610,19 @@
       </c>
       <c r="H83" s="21">
         <f>F83*$T$31</f>
-        <v>11.670530164533821</v>
+        <v>11.648400000000001</v>
       </c>
       <c r="I83" s="21">
         <f>F83*$V$31</f>
-        <v>1.4509872029250457</v>
+        <v>1.4453437500000001</v>
       </c>
       <c r="J83" s="21">
         <f>H83*(-$M83)</f>
-        <v>74691.393053016451</v>
+        <v>74549.760000000009</v>
       </c>
       <c r="K83" s="21">
         <f t="shared" ref="K83:K86" si="20">I83*(-$M83)</f>
-        <v>9286.3180987202923</v>
+        <v>9250.2000000000007</v>
       </c>
       <c r="L83" s="7" t="s">
         <v>10</v>
@@ -31535,7 +31638,7 @@
       <c r="Q83" s="97"/>
       <c r="R83" s="97"/>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
         <v>43371</v>
       </c>
@@ -31581,7 +31684,7 @@
       <c r="Q84" s="97"/>
       <c r="R84" s="97"/>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
         <v>43371</v>
       </c>
@@ -31605,19 +31708,19 @@
       </c>
       <c r="H85" s="21">
         <f>F85*$T$21</f>
-        <v>22.641666666666666</v>
+        <v>22.55900690323362</v>
       </c>
       <c r="I85" s="21">
         <f>E85*$V$21</f>
-        <v>2.8925000000000001</v>
+        <v>2.880577691655565</v>
       </c>
       <c r="J85" s="21">
         <f t="shared" si="21"/>
-        <v>144906.66666666666</v>
+        <v>144377.64418069518</v>
       </c>
       <c r="K85" s="21">
         <f t="shared" si="20"/>
-        <v>18512</v>
+        <v>18435.697226595617</v>
       </c>
       <c r="L85" s="7" t="s">
         <v>10</v>
@@ -31633,7 +31736,7 @@
       <c r="Q85" s="97"/>
       <c r="R85" s="97"/>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
         <v>43371</v>
       </c>
@@ -31657,19 +31760,19 @@
       </c>
       <c r="H86" s="21">
         <f>F86*$T$34</f>
-        <v>8.0196718784408727</v>
+        <v>8.2979017055655291</v>
       </c>
       <c r="I86" s="21">
         <f>F86*$V$34</f>
-        <v>1.1164038757982824</v>
+        <v>1.1481373429084383</v>
       </c>
       <c r="J86" s="21">
         <f t="shared" si="21"/>
-        <v>51325.900022021582</v>
+        <v>53106.570915619384</v>
       </c>
       <c r="K86" s="21">
         <f t="shared" si="20"/>
-        <v>7144.9848051090075</v>
+        <v>7348.0789946140048</v>
       </c>
       <c r="L86" s="7" t="s">
         <v>10</v>
@@ -31685,7 +31788,7 @@
       <c r="Q86" s="97"/>
       <c r="R86" s="97"/>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
         <v>43371</v>
       </c>
@@ -31709,19 +31812,19 @@
       </c>
       <c r="H87" s="21">
         <f>F87*$T$18</f>
-        <v>31.431780167264037</v>
+        <v>31.30225393221988</v>
       </c>
       <c r="I87" s="21">
         <f>F87*$V$18</f>
-        <v>3.7322580645161287</v>
+        <v>3.7233663045240792</v>
       </c>
       <c r="J87" s="21">
         <f t="shared" ref="J87:J91" si="22">H87*(-$M87)</f>
-        <v>201414.84731182794</v>
+        <v>200584.843197665</v>
       </c>
       <c r="K87" s="21">
         <f t="shared" ref="K87:K91" si="23">I87*(-$M87)</f>
-        <v>23916.309677419355</v>
+        <v>23859.331279390299</v>
       </c>
       <c r="L87" s="5" t="s">
         <v>24</v>
@@ -31737,7 +31840,7 @@
       <c r="Q87" s="97"/>
       <c r="R87" s="97"/>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
         <v>43384</v>
       </c>
@@ -31761,19 +31864,19 @@
       </c>
       <c r="H88" s="21">
         <f>F88*$T$16</f>
-        <v>17.817729497898885</v>
+        <v>17.777517822852978</v>
       </c>
       <c r="I88" s="21">
         <f t="shared" ref="I88" si="24">F88*$V$16</f>
-        <v>1.6243512541697354</v>
+        <v>1.6244973182951858</v>
       </c>
       <c r="J88" s="21">
         <f t="shared" si="22"/>
-        <v>115492.74083243078</v>
+        <v>115232.09277595072</v>
       </c>
       <c r="K88" s="21">
         <f t="shared" si="23"/>
-        <v>10528.882394402806</v>
+        <v>10529.829167457565</v>
       </c>
       <c r="L88" s="5" t="s">
         <v>24</v>
@@ -31788,8 +31891,9 @@
       <c r="P88" s="15"/>
       <c r="Q88" s="97"/>
       <c r="R88" s="97"/>
-    </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="15"/>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
         <v>43384</v>
       </c>
@@ -31813,19 +31917,19 @@
       </c>
       <c r="H89" s="21">
         <f>F89*$T$20</f>
-        <v>25.758393848782568</v>
+        <v>25.701364494121062</v>
       </c>
       <c r="I89" s="21">
         <f>F89*$V$20</f>
-        <v>3.1750106791969239</v>
+        <v>3.165742488024387</v>
       </c>
       <c r="J89" s="21">
         <f t="shared" si="22"/>
-        <v>164853.72063220842</v>
+        <v>164488.7327623748</v>
       </c>
       <c r="K89" s="21">
         <f t="shared" si="23"/>
-        <v>20320.068346860313</v>
+        <v>20260.751923356078</v>
       </c>
       <c r="L89" s="7" t="s">
         <v>10</v>
@@ -31840,8 +31944,9 @@
       <c r="P89" s="15"/>
       <c r="Q89" s="15"/>
       <c r="R89" s="15"/>
-    </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="15"/>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A90" s="3">
         <v>43388</v>
       </c>
@@ -31865,19 +31970,19 @@
       </c>
       <c r="H90" s="21">
         <f>F90*$T$22</f>
-        <v>17.372204924992925</v>
+        <v>17.357163120567378</v>
       </c>
       <c r="I90" s="21">
         <f>F90*$V$22</f>
-        <v>1.0597226153410697</v>
+        <v>1.062127659574468</v>
       </c>
       <c r="J90" s="21">
         <f t="shared" si="22"/>
-        <v>110903.80879705632</v>
+        <v>110807.78221843972</v>
       </c>
       <c r="K90" s="21">
         <f t="shared" si="23"/>
-        <v>6765.2479818850816</v>
+        <v>6780.6017361702116</v>
       </c>
       <c r="L90" s="5" t="s">
         <v>24</v>
@@ -31892,8 +31997,9 @@
       <c r="P90" s="15"/>
       <c r="Q90" s="15"/>
       <c r="R90" s="15"/>
-    </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="15"/>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A91" s="3">
         <v>43388</v>
       </c>
@@ -31917,19 +32023,19 @@
       </c>
       <c r="H91" s="21">
         <f>F91*$T$24</f>
-        <v>17.9507851155183</v>
+        <v>17.951449514763578</v>
       </c>
       <c r="I91" s="21">
         <f>F91*$V$24</f>
-        <v>1.5405888366387241</v>
+        <v>1.5361635349989675</v>
       </c>
       <c r="J91" s="21">
         <f t="shared" si="22"/>
-        <v>114885.02473931713</v>
+        <v>114889.2768944869</v>
       </c>
       <c r="K91" s="21">
         <f t="shared" si="23"/>
-        <v>9859.768554487835</v>
+        <v>9831.4466239933918</v>
       </c>
       <c r="L91" s="7" t="s">
         <v>10</v>
@@ -31943,8 +32049,9 @@
       <c r="P91" s="15"/>
       <c r="Q91" s="15"/>
       <c r="R91" s="15"/>
-    </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="15"/>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A92" s="3">
         <v>43388</v>
       </c>
@@ -31968,19 +32075,19 @@
       </c>
       <c r="H92" s="21">
         <f>F92*$T$20</f>
-        <v>25.614677488252884</v>
+        <v>25.557966323123821</v>
       </c>
       <c r="I92" s="21">
         <f>F92*$V$20</f>
-        <v>3.1572960273387443</v>
+        <v>3.1480795471040794</v>
       </c>
       <c r="J92" s="21">
         <f t="shared" ref="J92" si="25">H92*(-$M92)</f>
-        <v>163933.93592481845</v>
+        <v>163570.98446799244</v>
       </c>
       <c r="K92" s="21">
         <f t="shared" ref="K92" si="26">I92*(-$M92)</f>
-        <v>20206.694574967962</v>
+        <v>20147.709101466109</v>
       </c>
       <c r="L92" s="7" t="s">
         <v>10</v>
@@ -31995,8 +32102,9 @@
       <c r="P92" s="15"/>
       <c r="Q92" s="15"/>
       <c r="R92" s="15"/>
-    </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="15"/>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A93" s="3"/>
       <c r="B93" s="71"/>
       <c r="C93" s="71"/>
@@ -32014,8 +32122,9 @@
       <c r="O93" s="4"/>
       <c r="Q93" s="15"/>
       <c r="R93" s="15"/>
-    </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="15"/>
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A94" s="3"/>
       <c r="B94" s="71"/>
       <c r="C94" s="71"/>
@@ -32033,8 +32142,9 @@
       <c r="O94" s="4"/>
       <c r="Q94" s="15"/>
       <c r="R94" s="15"/>
-    </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="15"/>
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A95" s="3"/>
       <c r="B95" s="71"/>
       <c r="C95" s="71"/>
@@ -32055,8 +32165,9 @@
       <c r="O95" s="4"/>
       <c r="Q95" s="15"/>
       <c r="R95" s="15"/>
-    </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="15"/>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A96" s="3"/>
       <c r="B96" s="71"/>
       <c r="C96" s="71"/>
@@ -32074,8 +32185,9 @@
       <c r="O96" s="4"/>
       <c r="Q96" s="15"/>
       <c r="R96" s="15"/>
-    </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="15"/>
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A97" s="3"/>
       <c r="B97" s="71"/>
       <c r="C97" s="71"/>
@@ -32096,8 +32208,9 @@
       <c r="O97" s="4"/>
       <c r="Q97" s="15"/>
       <c r="R97" s="15"/>
-    </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="15"/>
+    </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A98" s="3"/>
       <c r="B98" s="71"/>
       <c r="C98" s="71"/>
@@ -32118,8 +32231,9 @@
       <c r="O98" s="4"/>
       <c r="Q98" s="15"/>
       <c r="R98" s="15"/>
-    </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="15"/>
+    </row>
+    <row r="99" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A99" s="3"/>
       <c r="B99" s="71"/>
       <c r="C99" s="71"/>
@@ -32137,8 +32251,9 @@
       <c r="O99" s="4"/>
       <c r="Q99" s="15"/>
       <c r="R99" s="15"/>
-    </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="15"/>
+    </row>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A100" s="3"/>
       <c r="B100" s="71"/>
       <c r="C100" s="71"/>
@@ -32159,8 +32274,9 @@
       <c r="O100" s="4"/>
       <c r="Q100" s="15"/>
       <c r="R100" s="15"/>
-    </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="15"/>
+    </row>
+    <row r="101" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A101" s="3"/>
       <c r="B101" s="71"/>
       <c r="C101" s="71"/>
@@ -32180,8 +32296,9 @@
       <c r="N101" s="4"/>
       <c r="Q101" s="15"/>
       <c r="R101" s="15"/>
-    </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="15"/>
+    </row>
+    <row r="102" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A102" s="3">
         <v>43346</v>
       </c>
@@ -32201,14 +32318,15 @@
       </c>
       <c r="M102" s="1">
         <f>SUM(S4:S6)</f>
-        <v>511742.41000000003</v>
+        <v>502179.78</v>
       </c>
       <c r="N102" s="1"/>
       <c r="O102" s="4"/>
       <c r="Q102" s="15"/>
       <c r="R102" s="15"/>
-    </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S102" s="15"/>
+    </row>
+    <row r="103" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A103" s="3"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -32228,8 +32346,9 @@
       <c r="O103" s="4"/>
       <c r="Q103" s="15"/>
       <c r="R103" s="15"/>
-    </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S103" s="15"/>
+    </row>
+    <row r="104" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A104" s="3"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -32250,8 +32369,9 @@
       <c r="P104" s="15"/>
       <c r="Q104" s="15"/>
       <c r="R104" s="15"/>
-    </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S104" s="15"/>
+    </row>
+    <row r="105" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A105" s="3"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -32270,8 +32390,9 @@
       <c r="N105" s="4"/>
       <c r="P105" s="15"/>
       <c r="Q105" s="15"/>
-    </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S105" s="15"/>
+    </row>
+    <row r="106" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A106" s="3"/>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
@@ -32297,8 +32418,10 @@
       </c>
       <c r="P106" s="15"/>
       <c r="Q106" s="15"/>
-    </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S106" s="15"/>
+      <c r="T106" s="15"/>
+    </row>
+    <row r="107" spans="1:20" x14ac:dyDescent="0.2">
       <c r="J107" s="21">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -32315,8 +32438,10 @@
       </c>
       <c r="P107" s="15"/>
       <c r="Q107" s="15"/>
-    </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S107" s="15"/>
+      <c r="T107" s="15"/>
+    </row>
+    <row r="108" spans="1:20" x14ac:dyDescent="0.2">
       <c r="J108" s="21">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -32330,70 +32455,84 @@
       </c>
       <c r="P108" s="15"/>
       <c r="Q108" s="15"/>
-    </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S108" s="15"/>
+      <c r="T108" s="15"/>
+    </row>
+    <row r="109" spans="1:20" x14ac:dyDescent="0.2">
       <c r="P109" s="63"/>
       <c r="Q109" s="15"/>
-    </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S109" s="15"/>
+      <c r="T109" s="15"/>
+    </row>
+    <row r="110" spans="1:20" x14ac:dyDescent="0.2">
       <c r="P110" s="63"/>
-    </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S110" s="15"/>
+      <c r="T110" s="15"/>
+    </row>
+    <row r="111" spans="1:20" x14ac:dyDescent="0.2">
       <c r="P111" s="63"/>
-    </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S111" s="15"/>
+      <c r="T111" s="15"/>
+    </row>
+    <row r="112" spans="1:20" x14ac:dyDescent="0.2">
       <c r="P112" s="63"/>
-    </row>
-    <row r="113" spans="14:16" x14ac:dyDescent="0.2">
+      <c r="S112" s="15"/>
+      <c r="T112" s="15"/>
+    </row>
+    <row r="113" spans="14:20" x14ac:dyDescent="0.2">
       <c r="P113" s="63"/>
-    </row>
-    <row r="114" spans="14:16" x14ac:dyDescent="0.2">
+      <c r="S113" s="15"/>
+      <c r="T113" s="15"/>
+    </row>
+    <row r="114" spans="14:20" x14ac:dyDescent="0.2">
       <c r="P114" s="63"/>
-    </row>
-    <row r="115" spans="14:16" x14ac:dyDescent="0.2">
+      <c r="S114" s="15"/>
+    </row>
+    <row r="115" spans="14:20" x14ac:dyDescent="0.2">
       <c r="P115" s="63"/>
-    </row>
-    <row r="116" spans="14:16" x14ac:dyDescent="0.2">
+      <c r="S115" s="15"/>
+    </row>
+    <row r="116" spans="14:20" x14ac:dyDescent="0.2">
       <c r="P116" s="63"/>
     </row>
-    <row r="117" spans="14:16" x14ac:dyDescent="0.2">
+    <row r="117" spans="14:20" x14ac:dyDescent="0.2">
       <c r="P117" s="63"/>
     </row>
-    <row r="118" spans="14:16" x14ac:dyDescent="0.2">
+    <row r="118" spans="14:20" x14ac:dyDescent="0.2">
       <c r="P118" s="63"/>
     </row>
-    <row r="119" spans="14:16" x14ac:dyDescent="0.2">
+    <row r="119" spans="14:20" x14ac:dyDescent="0.2">
       <c r="P119" s="63"/>
     </row>
-    <row r="120" spans="14:16" x14ac:dyDescent="0.2">
+    <row r="120" spans="14:20" x14ac:dyDescent="0.2">
       <c r="P120" s="63"/>
     </row>
-    <row r="121" spans="14:16" x14ac:dyDescent="0.2">
+    <row r="121" spans="14:20" x14ac:dyDescent="0.2">
       <c r="P121" s="63"/>
     </row>
-    <row r="122" spans="14:16" x14ac:dyDescent="0.2">
+    <row r="122" spans="14:20" x14ac:dyDescent="0.2">
       <c r="P122" s="63"/>
     </row>
-    <row r="123" spans="14:16" x14ac:dyDescent="0.2">
+    <row r="123" spans="14:20" x14ac:dyDescent="0.2">
       <c r="P123" s="63"/>
     </row>
-    <row r="124" spans="14:16" x14ac:dyDescent="0.2">
+    <row r="124" spans="14:20" x14ac:dyDescent="0.2">
       <c r="P124" s="63"/>
     </row>
-    <row r="125" spans="14:16" x14ac:dyDescent="0.2">
+    <row r="125" spans="14:20" x14ac:dyDescent="0.2">
       <c r="P125" s="63"/>
     </row>
-    <row r="126" spans="14:16" x14ac:dyDescent="0.2">
+    <row r="126" spans="14:20" x14ac:dyDescent="0.2">
       <c r="N126">
         <f>SUMIF(C:C,"=医药",J:J)/SUMIF(C:C,"=医药",M:M)*-1</f>
-        <v>28.265698152416856</v>
+        <v>28.215738515651225</v>
       </c>
       <c r="P126" s="63"/>
     </row>
-    <row r="127" spans="14:16" x14ac:dyDescent="0.2">
+    <row r="127" spans="14:20" x14ac:dyDescent="0.2">
       <c r="P127" s="63"/>
     </row>
-    <row r="128" spans="14:16" x14ac:dyDescent="0.2">
+    <row r="128" spans="14:20" x14ac:dyDescent="0.2">
       <c r="P128" s="63"/>
     </row>
     <row r="129" spans="16:16" x14ac:dyDescent="0.2">
@@ -32746,7 +32885,7 @@
       </c>
       <c r="D3" s="21">
         <f>已投部分年化收益率!T13</f>
-        <v>4.0714840714840719</v>
+        <v>4.013338564142801</v>
       </c>
       <c r="E3" s="21">
         <f>AVERAGE($F3:AA3)</f>
@@ -32835,7 +32974,7 @@
     <row r="5" spans="2:19" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D5" s="31">
         <f>E3*D3</f>
-        <v>10.686967106967106</v>
+        <v>10.53434484111416</v>
       </c>
       <c r="R5" s="47"/>
     </row>
@@ -32894,7 +33033,7 @@
       </c>
       <c r="D8" s="37">
         <f>已投部分年化收益率!T27</f>
-        <v>10.583050443690071</v>
+        <v>10.553769636683446</v>
       </c>
       <c r="E8" s="37">
         <v>2.3376000000000001</v>
@@ -33008,7 +33147,7 @@
     <row r="11" spans="2:19" x14ac:dyDescent="0.2">
       <c r="D11" s="37">
         <f>已投部分年化收益率!T28</f>
-        <v>37.09812108559499</v>
+        <v>36.942675159235669</v>
       </c>
       <c r="E11" s="37">
         <v>0.58919999999999995</v>
@@ -33103,7 +33242,7 @@
       <c r="C14" s="39"/>
       <c r="D14" s="37">
         <f>已投部分年化收益率!T29</f>
-        <v>10.471420153211549</v>
+        <v>10.444177671068427</v>
       </c>
       <c r="E14" s="37">
         <v>1.9490000000000001</v>
@@ -33174,7 +33313,7 @@
       <c r="C17" s="39"/>
       <c r="D17" s="37">
         <f>已投部分年化收益率!T30</f>
-        <v>23.253075111227428</v>
+        <v>23.156774021825925</v>
       </c>
       <c r="E17" s="37">
         <v>0.7984</v>
@@ -33237,7 +33376,7 @@
       <c r="C20" s="42"/>
       <c r="D20" s="43">
         <f>(E8*D8*SUM(F9:Z9)+E11*D11*SUM(F12:AA12)+E14*D14*SUM(F15:AA15)+E17*D17*SUM(F18:Z18))/(SUM(F9:Z9)+SUM(F12:AA12)+SUM(F15:AA15)+SUM(F18:Z18))</f>
-        <v>22.823571110119829</v>
+        <v>22.747675907837962</v>
       </c>
       <c r="E20" s="44"/>
       <c r="F20" s="44"/>
@@ -33324,7 +33463,7 @@
       </c>
       <c r="D23" s="21">
         <f>已投部分年化收益率!T26</f>
-        <v>11.322690992018243</v>
+        <v>11.338028169014086</v>
       </c>
       <c r="E23" s="21">
         <f>0.7248</f>
@@ -33405,7 +33544,7 @@
     <row r="25" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D25" s="31">
         <f>E23*D23</f>
-        <v>8.2066864310148233</v>
+        <v>8.2178028169014095</v>
       </c>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.2">
@@ -33461,7 +33600,7 @@
       </c>
       <c r="D28" s="21">
         <f>已投部分年化收益率!T20</f>
-        <v>36.850348853766192</v>
+        <v>36.768761794164611</v>
       </c>
       <c r="E28">
         <v>0.78010000000000002</v>
@@ -33535,7 +33674,7 @@
     <row r="30" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D30" s="31">
         <f>E28*D28</f>
-        <v>28.746957140823007</v>
+        <v>28.683311075627813</v>
       </c>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.2">
@@ -33585,7 +33724,7 @@
       </c>
       <c r="D33" s="21">
         <f>已投部分年化收益率!T21</f>
-        <v>24.845458868283405</v>
+        <v>24.754753542448832</v>
       </c>
       <c r="E33">
         <v>0.9577</v>
@@ -33647,7 +33786,7 @@
     <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D35" s="31">
         <f>E33*D33</f>
-        <v>23.794495958155018</v>
+        <v>23.707627467603245</v>
       </c>
     </row>
     <row r="37" spans="2:17" x14ac:dyDescent="0.2">
@@ -33700,7 +33839,7 @@
       </c>
       <c r="D38" s="21">
         <f>已投部分年化收益率!T24</f>
-        <v>37.640564301778781</v>
+        <v>37.641957464381584</v>
       </c>
       <c r="E38">
         <v>0.67659999999999998</v>
@@ -33768,7 +33907,7 @@
     <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D40" s="31">
         <f>D38*E38</f>
-        <v>25.467605806583521</v>
+        <v>25.46854842040058</v>
       </c>
     </row>
     <row r="42" spans="2:17" x14ac:dyDescent="0.2">
@@ -33824,7 +33963,7 @@
       </c>
       <c r="D43" s="21">
         <f>已投部分年化收益率!T36</f>
-        <v>6.6026494708067567</v>
+        <v>6.7849159997115871</v>
       </c>
       <c r="E43">
         <v>1.0154000000000001</v>
@@ -33898,7 +34037,7 @@
     <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D45" s="31">
         <f>E43*D43</f>
-        <v>6.704330272657181</v>
+        <v>6.8894037061071458</v>
       </c>
     </row>
     <row r="47" spans="2:17" x14ac:dyDescent="0.2">
@@ -33946,7 +34085,7 @@
       </c>
       <c r="D48" s="48">
         <f>已投部分年化收益率!T31</f>
-        <v>6.8129189518586228</v>
+        <v>6.8</v>
       </c>
       <c r="E48">
         <v>1.6929000000000001</v>
@@ -34030,7 +34169,7 @@
       <c r="C51" s="39"/>
       <c r="D51" s="37">
         <f>已投部分年化收益率!T32</f>
-        <v>10.266299357208448</v>
+        <v>10.24482109227872</v>
       </c>
       <c r="E51" s="37">
         <v>0.97399999999999998</v>
@@ -34075,7 +34214,7 @@
       <c r="C53" s="42"/>
       <c r="D53" s="43">
         <f>(E48*D48*SUM(G49:AB49)+E51*D51*SUM(F52:AA52))/(SUM(G49:AB49)+SUM(F52:AA52))</f>
-        <v>11.226747509665376</v>
+        <v>11.205067148775894</v>
       </c>
       <c r="E53" s="44"/>
       <c r="F53" s="44"/>
@@ -34126,7 +34265,7 @@
       </c>
       <c r="D56" s="21">
         <f>已投部分年化收益率!T33</f>
-        <v>33.378500451671187</v>
+        <v>33.312817356516383</v>
       </c>
       <c r="E56">
         <v>0.87860000000000005</v>
@@ -34164,7 +34303,7 @@
     <row r="58" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D58" s="31">
         <f>E56*D56</f>
-        <v>29.326350496838305</v>
+        <v>29.268641329435297</v>
       </c>
     </row>
     <row r="60" spans="2:17" x14ac:dyDescent="0.2">
@@ -34200,7 +34339,7 @@
       </c>
       <c r="D61" s="21">
         <f>已投部分年化收益率!V34</f>
-        <v>1.2001761726491962</v>
+        <v>1.2342908438061042</v>
       </c>
       <c r="E61">
         <v>0.91320000000000001</v>
@@ -34232,7 +34371,7 @@
     <row r="63" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D63" s="31">
         <f>E61*D61</f>
-        <v>1.096000880863246</v>
+        <v>1.1271543985637344</v>
       </c>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.2">
@@ -34792,15 +34931,15 @@
       </c>
       <c r="H28" s="1">
         <f>已投部分年化收益率!X13</f>
-        <v>10.677273426441509</v>
+        <v>10.524789597571802</v>
       </c>
       <c r="I28" s="1">
         <f>ETF计划成本计算!D5</f>
-        <v>10.686967106967106</v>
+        <v>10.53434484111416</v>
       </c>
       <c r="J28" s="18">
         <f>已投部分年化收益率!S13/H28-1</f>
-        <v>-1.8476011483697263E-2</v>
+        <v>-2.8009072755222908E-2</v>
       </c>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.2">
@@ -34813,15 +34952,15 @@
       </c>
       <c r="H29" s="1">
         <f>已投部分年化收益率!X15</f>
-        <v>11.580289867131096</v>
+        <v>11.575314344975054</v>
       </c>
       <c r="I29" s="1">
         <f>ETF计划成本计算!D53</f>
-        <v>11.226747509665376</v>
+        <v>11.205067148775894</v>
       </c>
       <c r="J29" s="18">
         <f>已投部分年化收益率!S15/H29-1</f>
-        <v>-3.4566480781043185E-2</v>
+        <v>-6.0068722477234049E-2</v>
       </c>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.2">
@@ -34834,15 +34973,15 @@
       </c>
       <c r="H30" s="55">
         <f>已投部分年化收益率!X16</f>
-        <v>22.280848139707675</v>
+        <v>22.230563942428397</v>
       </c>
       <c r="I30" s="4">
         <f>ETF计划成本计算!D20</f>
-        <v>22.823571110119829</v>
+        <v>22.747675907837962</v>
       </c>
       <c r="J30" s="18">
         <f>已投部分年化收益率!S16/H30-1</f>
-        <v>-0.20245405881424661</v>
+        <v>-0.21729381022174477</v>
       </c>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.2">
@@ -34855,14 +34994,14 @@
       </c>
       <c r="H31" s="1">
         <f>已投部分年化收益率!X17</f>
-        <v>27.922947720137909</v>
+        <v>27.879094340821993</v>
       </c>
       <c r="I31" s="27" t="s">
         <v>115</v>
       </c>
       <c r="J31" s="18">
         <f>已投部分年化收益率!S17/H31-1</f>
-        <v>-0.27299939091460146</v>
+        <v>-0.28512742356850962</v>
       </c>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.2">
@@ -34875,12 +35014,12 @@
       </c>
       <c r="H32" s="1">
         <f>已投部分年化收益率!X18</f>
-        <v>33.003869507192817</v>
+        <v>32.867864898595826</v>
       </c>
       <c r="I32" s="27"/>
       <c r="J32" s="18">
         <f>已投部分年化收益率!S18/H32-1</f>
-        <v>-0.10434744648479066</v>
+        <v>-0.12011321425276045</v>
       </c>
     </row>
     <row r="33" spans="6:10" x14ac:dyDescent="0.2">
@@ -34893,15 +35032,15 @@
       </c>
       <c r="H33" s="1">
         <f>已投部分年化收益率!X19</f>
-        <v>28.265698152416856</v>
+        <v>28.215738515651225</v>
       </c>
       <c r="I33" s="1">
         <f>ETF计划成本计算!D30</f>
-        <v>28.746957140823007</v>
+        <v>28.683311075627813</v>
       </c>
       <c r="J33" s="18">
         <f>已投部分年化收益率!S19/H33-1</f>
-        <v>-8.4402590714458214E-2</v>
+        <v>-0.10227407352993834</v>
       </c>
     </row>
     <row r="34" spans="6:10" x14ac:dyDescent="0.2">
@@ -34914,15 +35053,15 @@
       </c>
       <c r="H34" s="1">
         <f>已投部分年化收益率!X21</f>
-        <v>24.048996640000336</v>
+        <v>23.961199023228993</v>
       </c>
       <c r="I34" s="1">
         <f>ETF计划成本计算!D35</f>
-        <v>23.794495958155018</v>
+        <v>23.707627467603245</v>
       </c>
       <c r="J34" s="18">
         <f>已投部分年化收益率!S21/H34-1</f>
-        <v>-0.13094087404722154</v>
+        <v>-0.14695420791820113</v>
       </c>
     </row>
     <row r="35" spans="6:10" x14ac:dyDescent="0.2">
@@ -34935,15 +35074,15 @@
       </c>
       <c r="H35" s="56">
         <f>已投部分年化收益率!X23</f>
-        <v>24.732368316861187</v>
+        <v>24.752727715657713</v>
       </c>
       <c r="I35" s="1">
         <f>ETF计划成本计算!D40</f>
-        <v>25.467605806583521</v>
+        <v>25.46854842040058</v>
       </c>
       <c r="J35" s="18">
         <f>已投部分年化收益率!S24/H35-1</f>
-        <v>-0.25563133444648478</v>
+        <v>-0.26351551193009171</v>
       </c>
     </row>
     <row r="36" spans="6:10" x14ac:dyDescent="0.2">
@@ -34956,15 +35095,15 @@
       </c>
       <c r="H36" s="1">
         <f>已投部分年化收益率!X25</f>
-        <v>29.314413252421595</v>
+        <v>29.300671962284529</v>
       </c>
       <c r="I36" s="1">
         <f>ETF计划成本计算!D58</f>
-        <v>29.326350496838305</v>
+        <v>29.268641329435297</v>
       </c>
       <c r="J36" s="18">
         <f>已投部分年化收益率!S25/H36-1</f>
-        <v>-0.24371674066617754</v>
+        <v>-0.26110909579590469</v>
       </c>
     </row>
     <row r="37" spans="6:10" x14ac:dyDescent="0.2">
@@ -34977,15 +35116,15 @@
       </c>
       <c r="H37" s="1">
         <f>已投部分年化收益率!Y34</f>
-        <v>1.0898399765103135</v>
+        <v>1.1208183722321965</v>
       </c>
       <c r="I37" s="1">
         <f>ETF计划成本计算!D63</f>
-        <v>1.096000880863246</v>
+        <v>1.1271543985637344</v>
       </c>
       <c r="J37" s="18">
         <f>已投部分年化收益率!U34/H37-1</f>
-        <v>1.4683209749644099E-4</v>
+        <v>-1.8574260333309001E-2</v>
       </c>
     </row>
     <row r="38" spans="6:10" x14ac:dyDescent="0.2">
@@ -34998,11 +35137,11 @@
       </c>
       <c r="H38" s="1">
         <f>已投部分年化收益率!Y22</f>
-        <v>1.31948809750681</v>
+        <v>1.3224826804231375</v>
       </c>
       <c r="J38" s="18">
         <f>已投部分年化收益率!U22/资产配置表!H38-1</f>
-        <v>-0.11329249410378894</v>
+        <v>-0.11530032315761574</v>
       </c>
     </row>
   </sheetData>
@@ -37354,7 +37493,7 @@
   <dimension ref="A1:Q66"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="G70" sqref="G70"/>
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -37416,18 +37555,18 @@
       </c>
       <c r="C2" s="21">
         <f>(($N$2+1)*((1+$K$2*$G$2))^C$1)</f>
-        <v>0.8006437833445379</v>
+        <v>0.79915751765486609</v>
       </c>
       <c r="D2" s="21">
         <f>(($N$2+1)*((1+$K$2*$G$2))^D$1)</f>
-        <v>0.95922056697969016</v>
+        <v>0.94712858261586397</v>
       </c>
       <c r="E2" s="21">
         <f>(($N$2+1)*((1+$K$2*$G$2))^E$1)</f>
-        <v>1.149205321089583</v>
+        <v>1.1224977957291109</v>
       </c>
       <c r="G2" s="88">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="I2" t="s">
         <v>215</v>
@@ -37442,26 +37581,26 @@
       </c>
       <c r="L2" s="1">
         <f>资产配置表!H28</f>
-        <v>10.677273426441509</v>
+        <v>10.524789597571802</v>
       </c>
       <c r="M2" s="1">
         <v>21.73</v>
       </c>
       <c r="N2" s="18">
         <f t="shared" ref="N2:N12" si="0">$M2*0.3/$L2-1</f>
-        <v>-0.38945087012044111</v>
+        <v>-0.38060519504313761</v>
       </c>
       <c r="O2" s="18">
         <f t="shared" ref="O2:O12" si="1">$M2*0.5/$L2-1</f>
-        <v>1.7581883132598231E-2</v>
+        <v>3.2324674928103869E-2</v>
       </c>
       <c r="P2" s="18">
         <f t="shared" ref="P2:P12" si="2">$M2*0.7/$L2-1</f>
-        <v>0.42461463638563735</v>
+        <v>0.44525454489934524</v>
       </c>
       <c r="Q2" s="18">
         <f t="shared" ref="Q2:Q12" si="3">$M2/$L2-1</f>
-        <v>1.0351637662651965</v>
+        <v>1.0646493498562077</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
@@ -37475,15 +37614,15 @@
       </c>
       <c r="C3" s="21">
         <f>(($O$2+1)*((1+$K$2*$G$2))^C$1)</f>
-        <v>1.3344063055742299</v>
+        <v>1.3319291960914432</v>
       </c>
       <c r="D3" s="21">
         <f>(($O$2+1)*((1+$K$2*$G$2))^D$1)</f>
-        <v>1.5987009449661505</v>
+        <v>1.5785476376931065</v>
       </c>
       <c r="E3" s="21">
         <f>(($O$2+1)*((1+$K$2*$G$2))^E$1)</f>
-        <v>1.9153422018159718</v>
+        <v>1.8708296595485181</v>
       </c>
       <c r="I3" t="s">
         <v>216</v>
@@ -37498,26 +37637,26 @@
       </c>
       <c r="L3" s="1">
         <f>资产配置表!H29</f>
-        <v>11.580289867131096</v>
+        <v>11.575314344975054</v>
       </c>
       <c r="M3" s="1">
         <v>19</v>
       </c>
       <c r="N3" s="18">
         <f t="shared" si="0"/>
-        <v>-0.50778434172199871</v>
+        <v>-0.50757276820958031</v>
       </c>
       <c r="O3" s="18">
         <f t="shared" si="1"/>
-        <v>-0.17964056953666463</v>
+        <v>-0.17928794701596729</v>
       </c>
       <c r="P3" s="18">
         <f t="shared" si="2"/>
-        <v>0.14850320264866945</v>
+        <v>0.14899687417764573</v>
       </c>
       <c r="Q3" s="18">
         <f t="shared" si="3"/>
-        <v>0.64071886092667074</v>
+        <v>0.64142410596806543</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
@@ -37527,15 +37666,15 @@
       </c>
       <c r="C4" s="21">
         <f>(($P$2+1)*((1+$K$2*$G$2))^C$1)</f>
-        <v>1.8681688278039217</v>
+        <v>1.8647008745280205</v>
       </c>
       <c r="D4" s="21">
         <f>(($P$2+1)*((1+$K$2*$G$2))^D$1)</f>
-        <v>2.2381813229526104</v>
+        <v>2.2099666927703487</v>
       </c>
       <c r="E4" s="21">
         <f>(($P$2+1)*((1+$K$2*$G$2))^E$1)</f>
-        <v>2.68147908254236</v>
+        <v>2.6191615233679251</v>
       </c>
       <c r="I4" t="s">
         <v>217</v>
@@ -37546,30 +37685,30 @@
       </c>
       <c r="K4" s="18">
         <f>已投部分年化收益率!W16</f>
-        <v>9.1200000000000003E-2</v>
+        <v>9.1300000000000006E-2</v>
       </c>
       <c r="L4" s="1">
         <f>资产配置表!H30</f>
-        <v>22.280848139707675</v>
+        <v>22.230563942428397</v>
       </c>
       <c r="M4" s="1">
         <v>83.24</v>
       </c>
       <c r="N4" s="18">
         <f t="shared" si="0"/>
-        <v>0.12078318757966411</v>
+        <v>0.12331833167486139</v>
       </c>
       <c r="O4" s="18">
         <f t="shared" si="1"/>
-        <v>0.86797197929944025</v>
+        <v>0.87219721945810247</v>
       </c>
       <c r="P4" s="18">
         <f t="shared" si="2"/>
-        <v>1.6151607710192164</v>
+        <v>1.6210761072413433</v>
       </c>
       <c r="Q4" s="18">
         <f t="shared" si="3"/>
-        <v>2.7359439585988805</v>
+        <v>2.7443944389162049</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
@@ -37583,30 +37722,30 @@
       </c>
       <c r="K5" s="18">
         <f>已投部分年化收益率!W17</f>
-        <v>9.0200000000000002E-2</v>
+        <v>9.01E-2</v>
       </c>
       <c r="L5" s="1">
         <f>资产配置表!H31</f>
-        <v>27.922947720137909</v>
+        <v>27.879094340821993</v>
       </c>
       <c r="M5" s="1">
         <v>144.82</v>
       </c>
       <c r="N5" s="18">
         <f t="shared" si="0"/>
-        <v>0.55592455479429659</v>
+        <v>0.55837199978136121</v>
       </c>
       <c r="O5" s="18">
         <f t="shared" si="1"/>
-        <v>1.5932075913238277</v>
+        <v>1.5972866663022685</v>
       </c>
       <c r="P5" s="18">
         <f t="shared" si="2"/>
-        <v>2.6304906278533591</v>
+        <v>2.6362013328231759</v>
       </c>
       <c r="Q5" s="18">
         <f t="shared" si="3"/>
-        <v>4.1864151826476554</v>
+        <v>4.1945733326045369</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
@@ -37619,15 +37758,15 @@
       </c>
       <c r="C6" s="21">
         <f>(($N$3+1)*((1+$K$3*$G$2))^C$1)</f>
-        <v>0.65428177879201044</v>
+        <v>0.64351712139761785</v>
       </c>
       <c r="D6" s="21">
         <f>(($N$3+1)*((1+$K$3*$G$2))^D$1)</f>
-        <v>0.79099018152645029</v>
+        <v>0.76919916200529626</v>
       </c>
       <c r="E6" s="21">
         <f>(($N$3+1)*((1+$K$3*$G$2))^E$1)</f>
-        <v>0.95626301625945098</v>
+        <v>0.91942751972883263</v>
       </c>
       <c r="I6" t="s">
         <v>178</v>
@@ -37642,26 +37781,26 @@
       </c>
       <c r="L6" s="1">
         <f>资产配置表!H32</f>
-        <v>33.003869507192817</v>
+        <v>32.867864898595826</v>
       </c>
       <c r="M6" s="1">
         <v>137.86000000000001</v>
       </c>
       <c r="N6" s="18">
         <f t="shared" si="0"/>
-        <v>0.25312578850751111</v>
+        <v>0.25831112326882222</v>
       </c>
       <c r="O6" s="18">
         <f t="shared" si="1"/>
-        <v>1.088542980845852</v>
+        <v>1.0971852054480369</v>
       </c>
       <c r="P6" s="18">
         <f t="shared" si="2"/>
-        <v>1.9239601731841929</v>
+        <v>1.9360592876272515</v>
       </c>
       <c r="Q6" s="18">
         <f t="shared" si="3"/>
-        <v>3.177085961691704</v>
+        <v>3.1943704108960738</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
@@ -37675,15 +37814,15 @@
       </c>
       <c r="C7" s="21">
         <f>(($O$3+1)*((1+$K$3*$G$2))^C$1)</f>
-        <v>1.0904696313200173</v>
+        <v>1.0725285356626963</v>
       </c>
       <c r="D7" s="21">
         <f>(($O$3+1)*((1+$K$2*$G$2))^D$1)</f>
-        <v>1.288849004127492</v>
+        <v>1.2549666824097097</v>
       </c>
       <c r="E7" s="21">
         <f>(($O$3+1)*((1+$K$3*$G$2))^E$1)</f>
-        <v>1.5937716937657516</v>
+        <v>1.5323791995480542</v>
       </c>
       <c r="I7" t="s">
         <v>219</v>
@@ -37694,30 +37833,30 @@
       </c>
       <c r="K7" s="18">
         <f>已投部分年化收益率!W19</f>
-        <v>0.1232</v>
+        <v>0.1231</v>
       </c>
       <c r="L7" s="1">
         <f>资产配置表!H33</f>
-        <v>28.265698152416856</v>
+        <v>28.215738515651225</v>
       </c>
       <c r="M7" s="1">
         <v>74.42</v>
       </c>
       <c r="N7" s="18">
         <f t="shared" si="0"/>
-        <v>-0.21013803092314498</v>
+        <v>-0.20873947752188715</v>
       </c>
       <c r="O7" s="18">
         <f t="shared" si="1"/>
-        <v>0.31643661512809174</v>
+        <v>0.31876753746352149</v>
       </c>
       <c r="P7" s="18">
         <f t="shared" si="2"/>
-        <v>0.84301126117932834</v>
+        <v>0.84627455244892991</v>
       </c>
       <c r="Q7" s="18">
         <f t="shared" si="3"/>
-        <v>1.6328732302561835</v>
+        <v>1.637535074927043</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
@@ -37727,15 +37866,15 @@
       </c>
       <c r="C8" s="21">
         <f>(($P$3+1)*((1+$K$3*$G$2))^C$1)</f>
-        <v>1.5266574838480242</v>
+        <v>1.5015399499277748</v>
       </c>
       <c r="D8" s="21">
         <f>(($P$3+1)*((1+$K$3*$G$2))^D$1)</f>
-        <v>1.8456437568950503</v>
+        <v>1.7947980446790242</v>
       </c>
       <c r="E8" s="21">
         <f>(($P$3+1)*((1+$K$3*$G$2))^E$1)</f>
-        <v>2.2312803712720521</v>
+        <v>2.1453308793672758</v>
       </c>
       <c r="I8" t="s">
         <v>220</v>
@@ -37750,26 +37889,26 @@
       </c>
       <c r="L8" s="1">
         <f>资产配置表!H34</f>
-        <v>24.048996640000336</v>
+        <v>23.961199023228993</v>
       </c>
       <c r="M8" s="1">
         <v>52.47</v>
       </c>
       <c r="N8" s="18">
         <f t="shared" si="0"/>
-        <v>-0.34546125829556518</v>
+        <v>-0.34306292499219204</v>
       </c>
       <c r="O8" s="18">
         <f t="shared" si="1"/>
-        <v>9.0897902840724631E-2</v>
+        <v>9.4895125013013226E-2</v>
       </c>
       <c r="P8" s="18">
         <f t="shared" si="2"/>
-        <v>0.52725706397701444</v>
+        <v>0.53285317501821861</v>
       </c>
       <c r="Q8" s="18">
         <f t="shared" si="3"/>
-        <v>1.1817958056814493</v>
+        <v>1.1897902500260265</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
@@ -37783,30 +37922,30 @@
       </c>
       <c r="K9" s="18">
         <f>已投部分年化收益率!W23</f>
-        <v>8.5900000000000004E-2</v>
+        <v>8.5599999999999996E-2</v>
       </c>
       <c r="L9" s="1">
         <f>资产配置表!H35</f>
-        <v>24.732368316861187</v>
+        <v>24.752727715657713</v>
       </c>
       <c r="M9" s="1">
         <v>71.13</v>
       </c>
       <c r="N9" s="18">
         <f t="shared" si="0"/>
-        <v>-0.13720353317509726</v>
+        <v>-0.13791319303764282</v>
       </c>
       <c r="O9" s="18">
         <f t="shared" si="1"/>
-        <v>0.43799411137483779</v>
+        <v>0.43681134493726193</v>
       </c>
       <c r="P9" s="18">
         <f t="shared" si="2"/>
-        <v>1.013191755924773</v>
+        <v>1.0115358829121668</v>
       </c>
       <c r="Q9" s="18">
         <f t="shared" si="3"/>
-        <v>1.8759882227496756</v>
+        <v>1.8736226898745239</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
@@ -37819,15 +37958,15 @@
       </c>
       <c r="C10" s="21">
         <f>(($N$4+1)*((1+$K$4*$G$2))^C$1)</f>
-        <v>1.3844338291427503</v>
+        <v>1.3702377921176769</v>
       </c>
       <c r="D10" s="21">
         <f>(($N$4+1)*((1+$K$4*$G$2))^D$1)</f>
-        <v>1.5938199784882938</v>
+        <v>1.5643166638202175</v>
       </c>
       <c r="E10" s="21">
         <f>(($N$4+1)*((1+$K$4*$G$2))^E$1)</f>
-        <v>1.834874351056107</v>
+        <v>1.7858846389893315</v>
       </c>
       <c r="I10" t="s">
         <v>222</v>
@@ -37838,30 +37977,30 @@
       </c>
       <c r="K10" s="18">
         <f>已投部分年化收益率!W33</f>
-        <v>0.1157</v>
+        <v>0.11559999999999999</v>
       </c>
       <c r="L10" s="1">
         <f>资产配置表!H36</f>
-        <v>29.314413252421595</v>
+        <v>29.300671962284529</v>
       </c>
       <c r="M10" s="1">
         <v>121.16</v>
       </c>
       <c r="N10" s="18">
         <f t="shared" si="0"/>
-        <v>0.2399361258577255</v>
+        <v>0.24051762521988262</v>
       </c>
       <c r="O10" s="18">
         <f t="shared" si="1"/>
-        <v>1.0665602097628759</v>
+        <v>1.0675293753664707</v>
       </c>
       <c r="P10" s="18">
         <f t="shared" si="2"/>
-        <v>1.8931842936680261</v>
+        <v>1.8945411255130593</v>
       </c>
       <c r="Q10" s="18">
         <f t="shared" si="3"/>
-        <v>3.1331204195257518</v>
+        <v>3.1350587507329415</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
@@ -37875,15 +38014,15 @@
       </c>
       <c r="C11" s="21">
         <f>(($O$4+1)*((1+$K$4*$G$2))^C$1)</f>
-        <v>2.307389715237917</v>
+        <v>2.2837296535294618</v>
       </c>
       <c r="D11" s="21">
         <f>(($O$4+1)*((1+$K$4*$G$2))^D$1)</f>
-        <v>2.6563666308138232</v>
+        <v>2.6071944397003626</v>
       </c>
       <c r="E11" s="21">
         <f>(($O$4+1)*((1+$K$4*$G$2))^E$1)</f>
-        <v>3.0581239184268454</v>
+        <v>2.9764743983155526</v>
       </c>
       <c r="I11" t="s">
         <v>223</v>
@@ -37898,26 +38037,26 @@
       </c>
       <c r="L11" s="1">
         <f>资产配置表!H37</f>
-        <v>1.0898399765103135</v>
+        <v>1.1208183722321965</v>
       </c>
       <c r="M11" s="1">
         <v>3.5</v>
       </c>
       <c r="N11" s="18">
         <f t="shared" si="0"/>
-        <v>-3.6555803942778575E-2</v>
+        <v>-6.318452122724949E-2</v>
       </c>
       <c r="O11" s="18">
         <f t="shared" si="1"/>
-        <v>0.6057403267620356</v>
+        <v>0.56135913128791737</v>
       </c>
       <c r="P11" s="18">
         <f t="shared" si="2"/>
-        <v>1.2480364574668497</v>
+        <v>1.1859027838030842</v>
       </c>
       <c r="Q11" s="18">
         <f t="shared" si="3"/>
-        <v>2.2114806535240712</v>
+        <v>2.1227182625758347</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
@@ -37927,15 +38066,15 @@
       </c>
       <c r="C12" s="21">
         <f>(($P$4+1)*((1+$K$4*$G$2))^C$1)</f>
-        <v>3.230345601333084</v>
+        <v>3.1972215149412464</v>
       </c>
       <c r="D12" s="21">
         <f>(($P$4+1)*((1+$K$4*$G$2))^D$1)</f>
-        <v>3.7189132831393525</v>
+        <v>3.6500722155805074</v>
       </c>
       <c r="E12" s="21">
         <f>(($P$4+1)*((1+$K$4*$G$2))^E$1)</f>
-        <v>4.2813734857975838</v>
+        <v>4.1670641576417733</v>
       </c>
       <c r="I12" t="s">
         <v>239</v>
@@ -37950,26 +38089,26 @@
       </c>
       <c r="L12" s="1">
         <f>资产配置表!H38</f>
-        <v>1.31948809750681</v>
+        <v>1.3224826804231375</v>
       </c>
       <c r="M12">
         <v>5.04</v>
       </c>
       <c r="N12" s="18">
         <f t="shared" si="0"/>
-        <v>0.14589893069664206</v>
+        <v>0.14330419776554293</v>
       </c>
       <c r="O12" s="18">
         <f t="shared" si="1"/>
-        <v>0.90983155116106995</v>
+        <v>0.90550699627590481</v>
       </c>
       <c r="P12" s="18">
         <f t="shared" si="2"/>
-        <v>1.6737641716254976</v>
+        <v>1.667709794786266</v>
       </c>
       <c r="Q12" s="18">
         <f t="shared" si="3"/>
-        <v>2.8196631023221399</v>
+        <v>2.8110139925518096</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
@@ -37995,15 +38134,15 @@
       </c>
       <c r="C14" s="21">
         <f>(($N$5+1)*((1+$K$5*$G$2))^C$1)</f>
-        <v>1.9176411320689895</v>
+        <v>1.8961221943452262</v>
       </c>
       <c r="D14" s="21">
         <f>(($N$5+1)*((1+$K$5*$G$2))^D$1)</f>
-        <v>2.2043803834211277</v>
+        <v>2.1610415245618735</v>
       </c>
       <c r="E14" s="21">
         <f>(($N$5+1)*((1+$K$5*$G$2))^E$1)</f>
-        <v>2.5339949136202922</v>
+        <v>2.4629744247539911</v>
       </c>
       <c r="I14" t="s">
         <v>282</v>
@@ -38026,15 +38165,15 @@
       </c>
       <c r="C15" s="21">
         <f>(($O$5+1)*((1+$K$5*$G$2))^C$1)</f>
-        <v>3.196068553448316</v>
+        <v>3.1602036572420431</v>
       </c>
       <c r="D15" s="21">
         <f>(($O$5+1)*((1+$K$5*$G$2))^D$1)</f>
-        <v>3.67396730570188</v>
+        <v>3.6017358742697891</v>
       </c>
       <c r="E15" s="21">
         <f>(($O$5+1)*((1+$K$5*$G$2))^E$1)</f>
-        <v>4.2233248560338206</v>
+        <v>4.1049573745899846</v>
       </c>
       <c r="I15" t="s">
         <v>283</v>
@@ -38052,15 +38191,15 @@
       </c>
       <c r="C16" s="21">
         <f>(($P$5+1)*((1+$K$5*$G$2))^C$1)</f>
-        <v>4.4744959748276427</v>
+        <v>4.4242851201388609</v>
       </c>
       <c r="D16" s="21">
         <f>(($P$5+1)*((1+$K$5*$G$2))^D$1)</f>
-        <v>5.1435542279826318</v>
+        <v>5.0424302239777044</v>
       </c>
       <c r="E16" s="21">
         <f>(($P$5+1)*((1+$K$5*$G$2))^E$1)</f>
-        <v>5.912654798447349</v>
+        <v>5.7469403244259789</v>
       </c>
       <c r="I16" t="s">
         <v>233</v>
@@ -38084,15 +38223,15 @@
       </c>
       <c r="C18" s="21">
         <f>(($N$6+1)*((1+$K$6*$G$2))^C$1)</f>
-        <v>1.6458103874524257</v>
+        <v>1.6258520718736751</v>
       </c>
       <c r="D18" s="21">
         <f>(($N$6+1)*((1+$K$6*$G$2))^D$1)</f>
-        <v>1.9738003424846369</v>
+        <v>1.928751858237415</v>
       </c>
       <c r="E18" s="21">
         <f>(($N$6+1)*((1+$K$6*$G$2))^E$1)</f>
-        <v>2.3671546988003715</v>
+        <v>2.2880825353115664</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
@@ -38106,15 +38245,15 @@
       </c>
       <c r="C19" s="21">
         <f>(($O$6+1)*((1+$K$6*$G$2))^C$1)</f>
-        <v>2.7430173124207098</v>
+        <v>2.7097534531227918</v>
       </c>
       <c r="D19" s="21">
         <f>(($O$6+1)*((1+$K$6*$G$2))^D$1)</f>
-        <v>3.2896672374743949</v>
+        <v>3.2145864303956917</v>
       </c>
       <c r="E19" s="21">
         <f>(($O$6+1)*((1+$K$6*$G$2))^E$1)</f>
-        <v>3.945257831333953</v>
+        <v>3.8134708921859439</v>
       </c>
       <c r="I19" t="s">
         <v>227</v>
@@ -38127,15 +38266,15 @@
       </c>
       <c r="C20" s="21">
         <f>(($P$6+1)*((1+$K$6*$G$2))^C$1)</f>
-        <v>3.8402242373889934</v>
+        <v>3.7936548343719081</v>
       </c>
       <c r="D20" s="21">
         <f>(($P$6+1)*((1+$K$6*$G$2))^D$1)</f>
-        <v>4.605534132464153</v>
+        <v>4.5004210025539679</v>
       </c>
       <c r="E20" s="21">
         <f>(($P$6+1)*((1+$K$6*$G$2))^E$1)</f>
-        <v>5.5233609638675345</v>
+        <v>5.3388592490603211</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
@@ -38151,15 +38290,15 @@
       </c>
       <c r="C22" s="21">
         <f>(($N$7+1)*((1+$K$7*$G$2))^C$1)</f>
-        <v>1.0471829169286913</v>
+        <v>1.0312764937131111</v>
       </c>
       <c r="D22" s="21">
         <f>(($N$7+1)*((1+$K$7*$G$2))^D$1)</f>
-        <v>1.263776025441383</v>
+        <v>1.2304922017829281</v>
       </c>
       <c r="E22" s="21">
         <f>(($N$7+1)*((1+$K$7*$G$2))^E$1)</f>
-        <v>1.5251679689014417</v>
+        <v>1.4681911862424422</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
@@ -38173,15 +38312,15 @@
       </c>
       <c r="C23" s="21">
         <f>(($O$7+1)*((1+$K$7*$G$2))^C$1)</f>
-        <v>1.7453048615478188</v>
+        <v>1.7187941561885185</v>
       </c>
       <c r="D23" s="21">
         <f>(($O$7+1)*((1+$K$7*$G$2))^D$1)</f>
-        <v>2.1062933757356386</v>
+        <v>2.0508203363048803</v>
       </c>
       <c r="E23" s="21">
         <f>(($O$7+1)*((1+$K$7*$G$2))^E$1)</f>
-        <v>2.5419466148357364</v>
+        <v>2.4469853104040702</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
@@ -38191,15 +38330,15 @@
       </c>
       <c r="C24" s="21">
         <f>(($P$7+1)*((1+$K$7*$G$2))^C$1)</f>
-        <v>2.4434268061669462</v>
+        <v>2.4063118186639256</v>
       </c>
       <c r="D24" s="21">
         <f>(($P$7+1)*((1+$K$7*$G$2))^D$1)</f>
-        <v>2.9488107260298939</v>
+        <v>2.8711484708268324</v>
       </c>
       <c r="E24" s="21">
         <f>(($P$7+1)*((1+$K$7*$G$2))^E$1)</f>
-        <v>3.5587252607700304</v>
+        <v>3.425779434565698</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
@@ -38215,15 +38354,15 @@
       </c>
       <c r="C26" s="21">
         <f>(($N$8+1)*((1+$K$8*$G$2))^C$1)</f>
-        <v>0.87614244534226426</v>
+        <v>0.864169148130005</v>
       </c>
       <c r="D26" s="21">
         <f>(($N$8+1)*((1+$K$8*$G$2))^D$1)</f>
-        <v>1.0641453772367016</v>
+        <v>1.0374856075835448</v>
       </c>
       <c r="E26" s="21">
         <f>(($N$8+1)*((1+$K$8*$G$2))^E$1)</f>
-        <v>1.2924900396212038</v>
+        <v>1.2455621544372326</v>
       </c>
       <c r="L26" t="s">
         <v>7436</v>
@@ -38240,15 +38379,15 @@
       </c>
       <c r="C27" s="21">
         <f>(($O$8+1)*((1+$K$8*$G$2))^C$1)</f>
-        <v>1.4602374089037737</v>
+        <v>1.4402819135500082</v>
       </c>
       <c r="D27" s="21">
         <f>(($O$8+1)*((1+$K$8*$G$2))^D$1)</f>
-        <v>1.7735756287278357</v>
+        <v>1.7291426793059077</v>
       </c>
       <c r="E27" s="21">
         <f>(($O$8+1)*((1+$K$8*$G$2))^E$1)</f>
-        <v>2.1541500660353394</v>
+        <v>2.0759369240620544</v>
       </c>
       <c r="L27" t="s">
         <v>7428</v>
@@ -38267,15 +38406,15 @@
       </c>
       <c r="C28" s="21">
         <f>(($P$8+1)*((1+$K$8*$G$2))^C$1)</f>
-        <v>2.0443323724652829</v>
+        <v>2.0163946789700118</v>
       </c>
       <c r="D28" s="21">
         <f>(($P$8+1)*((1+$K$8*$G$2))^D$1)</f>
-        <v>2.4830058802189701</v>
+        <v>2.4207997510282708</v>
       </c>
       <c r="E28" s="21">
         <f>(($P$8+1)*((1+$K$8*$G$2))^E$1)</f>
-        <v>3.0158100924494753</v>
+        <v>2.9063116936868765</v>
       </c>
       <c r="L28" t="s">
         <v>7431</v>
@@ -38308,15 +38447,15 @@
       </c>
       <c r="C30" s="21">
         <f>(($N$9+1)*((1+$K$9*$G$2))^C$1)</f>
-        <v>1.0531740957820686</v>
+        <v>1.0390124765606366</v>
       </c>
       <c r="D30" s="21">
         <f>(($N$9+1)*((1+$K$9*$G$2))^D$1)</f>
-        <v>1.2028958932981622</v>
+        <v>1.1767041139349137</v>
       </c>
       <c r="E30" s="21">
         <f>(($N$9+1)*((1+$K$9*$G$2))^E$1)</f>
-        <v>1.3739025066307751</v>
+        <v>1.3326428729083153</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
@@ -38330,15 +38469,15 @@
       </c>
       <c r="C31" s="21">
         <f>(($O$9+1)*((1+$K$9*$G$2))^C$1)</f>
-        <v>1.7552901596367807</v>
+        <v>1.7316874609343944</v>
       </c>
       <c r="D31" s="21">
         <f>(($O$9+1)*((1+$K$9*$G$2))^D$1)</f>
-        <v>2.00482648883027</v>
+        <v>1.9611735232248562</v>
       </c>
       <c r="E31" s="21">
         <f>(($O$9+1)*((1+$K$9*$G$2))^E$1)</f>
-        <v>2.2898375110512914</v>
+        <v>2.2210714548471922</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
@@ -38348,15 +38487,15 @@
       </c>
       <c r="C32" s="21">
         <f>(($P$9+1)*((1+$K$9*$G$2))^C$1)</f>
-        <v>2.4574062234914931</v>
+        <v>2.424362445308152</v>
       </c>
       <c r="D32" s="21">
         <f>(($P$9+1)*((1+$K$9*$G$2))^D$1)</f>
-        <v>2.8067570843623781</v>
+        <v>2.7456429325147989</v>
       </c>
       <c r="E32" s="21">
         <f>(($P$9+1)*((1+$K$9*$G$2))^E$1)</f>
-        <v>3.205772515471808</v>
+        <v>3.109500036786069</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
@@ -38369,15 +38508,15 @@
       </c>
       <c r="C34" s="21">
         <f>(($N$10+1)*((1+$K$10*$G$2))^C$1)</f>
-        <v>1.6170937651980106</v>
+        <v>1.5919592262890019</v>
       </c>
       <c r="D34" s="21">
         <f>(($N$10+1)*((1+$K$10*$G$2))^D$1)</f>
-        <v>1.9303043771022728</v>
+        <v>1.8799715385160143</v>
       </c>
       <c r="E34" s="21">
         <f>(($N$10+1)*((1+$K$10*$G$2))^E$1)</f>
-        <v>2.3041799235457088</v>
+        <v>2.2200901425528468</v>
       </c>
       <c r="L34" t="s">
         <v>7439</v>
@@ -38400,15 +38539,15 @@
       </c>
       <c r="C35" s="21">
         <f>(($O$10+1)*((1+$K$10*$G$2))^C$1)</f>
-        <v>2.6951562753300178</v>
+        <v>2.6532653771483359</v>
       </c>
       <c r="D35" s="21">
         <f>(($O$10+1)*((1+$K$10*$G$2))^D$1)</f>
-        <v>3.2171739618371213</v>
+        <v>3.1332858975266897</v>
       </c>
       <c r="E35" s="21">
         <f>(($O$10+1)*((1+$K$10*$G$2))^E$1)</f>
-        <v>3.8402998725761814</v>
+        <v>3.7001502375880779</v>
       </c>
       <c r="L35" t="s">
         <v>7440</v>
@@ -38427,15 +38566,15 @@
       </c>
       <c r="C36" s="21">
         <f>(($P$10+1)*((1+$K$10*$G$2))^C$1)</f>
-        <v>3.7732187854620247</v>
+        <v>3.7145715280076708</v>
       </c>
       <c r="D36" s="21">
         <f>(($P$10+1)*((1+$K$10*$G$2))^D$1)</f>
-        <v>4.5040435465719701</v>
+        <v>4.3866002565373661</v>
       </c>
       <c r="E36" s="21">
         <f>(($P$10+1)*((1+$K$10*$G$2))^E$1)</f>
-        <v>5.3764198216066532</v>
+        <v>5.1802103326233091</v>
       </c>
       <c r="L36" t="s">
         <v>7441</v>
@@ -38457,15 +38596,15 @@
       </c>
       <c r="C38" s="21">
         <f>(($N$11+1)*((1+$K$11*$G$2))^C$1)</f>
-        <v>1.2823442249521622</v>
+        <v>1.2257679337274683</v>
       </c>
       <c r="D38" s="21">
         <f>(($N$11+1)*((1+$K$11*$G$2))^D$1)</f>
-        <v>1.5516365121921163</v>
+        <v>1.4663727722813951</v>
       </c>
       <c r="E38" s="21">
         <f>(($N$11+1)*((1+$K$11*$G$2))^E$1)</f>
-        <v>1.8774801797524612</v>
+        <v>1.7542057090280361</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
@@ -38479,15 +38618,15 @@
       </c>
       <c r="C39" s="21">
         <f>(($O$11+1)*((1+$K$11*$G$2))^C$1)</f>
-        <v>2.1372403749202702</v>
+        <v>2.0429465562124469</v>
       </c>
       <c r="D39" s="21">
         <f>(($O$11+1)*((1+$K$11*$G$2))^D$1)</f>
-        <v>2.5860608536535268</v>
+        <v>2.4439546204689915</v>
       </c>
       <c r="E39" s="21">
         <f>(($O$11+1)*((1+$K$11*$G$2))^E$1)</f>
-        <v>3.1291336329207682</v>
+        <v>2.9236761817133932</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
@@ -38497,15 +38636,15 @@
       </c>
       <c r="C40" s="21">
         <f>(($P$11+1)*((1+$K$11*$G$2))^C$1)</f>
-        <v>2.992136524888378</v>
+        <v>2.8601251786974253</v>
       </c>
       <c r="D40" s="21">
         <f>(($P$11+1)*((1+$K$11*$G$2))^D$1)</f>
-        <v>3.6204851951149375</v>
+        <v>3.4215364686565879</v>
       </c>
       <c r="E40" s="21">
         <f>(($P$11+1)*((1+$K$11*$G$2))^E$1)</f>
-        <v>4.3807870860890752</v>
+        <v>4.0931466543987503</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
@@ -38518,15 +38657,15 @@
       </c>
       <c r="C42" s="21">
         <f>(($N$12+1)*((1+$K$12*$G$2))^C$1)</f>
-        <v>1.3219783726092014</v>
+        <v>1.3075112004129368</v>
       </c>
       <c r="D42" s="21">
         <f>(($N$12+1)*((1+$K$12*$G$2))^D$1)</f>
-        <v>1.4541516739515254</v>
+        <v>1.4298851779126347</v>
       </c>
       <c r="E42" s="21">
         <f>(($N$12+1)*((1+$K$12*$G$2))^E$1)</f>
-        <v>1.5995398522916096</v>
+        <v>1.5637125107368353</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
@@ -38540,15 +38679,15 @@
       </c>
       <c r="C43" s="21">
         <f>(($O$12+1)*((1+$K$12*$G$2))^C$1)</f>
-        <v>2.2032972876820023</v>
+        <v>2.179185334021561</v>
       </c>
       <c r="D43" s="21">
         <f>(($O$12+1)*((1+$K$12*$G$2))^D$1)</f>
-        <v>2.4235861232525422</v>
+        <v>2.3831419631877244</v>
       </c>
       <c r="E43" s="21">
         <f>(($O$12+1)*((1+$K$12*$G$2))^E$1)</f>
-        <v>2.6658997538193487</v>
+        <v>2.6061875178947251</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
@@ -38558,15 +38697,15 @@
       </c>
       <c r="C44" s="21">
         <f>(($P$12+1)*((1+$K$12*$G$2))^C$1)</f>
-        <v>3.0846162027548027</v>
+        <v>3.0508594676301848</v>
       </c>
       <c r="D44" s="21">
         <f>(($P$12+1)*((1+$K$12*$G$2))^D$1)</f>
-        <v>3.3930205725535587</v>
+        <v>3.3363987484628135</v>
       </c>
       <c r="E44" s="21">
         <f>(($P$12+1)*((1+$K$12*$G$2))^E$1)</f>
-        <v>3.7322596553470881</v>
+        <v>3.6486625250526141</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
@@ -38818,15 +38957,15 @@
       </c>
       <c r="C64" s="92">
         <f>(C2*$A$3+C6*$A$7+C10*$A$11+C14*$A$15+C18*$A$19+C22*$A$23+C26*$A$27+C30*$A$31+C34*$A$35+C38*$A$39+C42*$A$43+C46*$A$47+C50*$A$51+C54*$A$55+C58*$A$59)^(1/$C$1)-1</f>
-        <v>6.1915523438816011E-2</v>
+        <v>5.8871467471229177E-2</v>
       </c>
       <c r="D64" s="92">
         <f>(D2*$A$3+D6*$A$7+D10*$A$11+D14*$A$15+D18*$A$19+D22*$A$23+D26*$A$27+D30*$A$31+D34*$A$35+D38*$A$39+D42*$A$43+D46*$A$47+D50*$A$51+D54*$A$55+D58*$A$59)^(1/$D$1)-1</f>
-        <v>6.3411461649025558E-2</v>
+        <v>6.0150189054451353E-2</v>
       </c>
       <c r="E64" s="92">
         <f>(E2*$A$3+E6*$A$7+E10*$A$11+E14*$A$15+E18*$A$19+E22*$A$23+E26*$A$27+E30*$A$31+E34*$A$35+E38*$A$39+E42*$A$43+E46*$A$47+E50*$A$51+E54*$A$55+E58*$A$59)^(1/$E$1)-1</f>
-        <v>6.4191750765626221E-2</v>
+        <v>6.077468562546029E-2</v>
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.2">
@@ -38835,15 +38974,15 @@
       </c>
       <c r="C65" s="91">
         <f>(C3*$A$3+C7*$A$7+C11*$A$11+C15*$A$15+C19*$A$19+C23*$A$23+C27*$A$27+C31*$A$31+C35*$A$35+C39*$A$39+C43*$A$43+C47*$A$47+C51*$A$51+C55*$A$55+C59*$A$59)^(1/$C$1)-1</f>
-        <v>0.20189353834341639</v>
+        <v>0.19793133932971929</v>
       </c>
       <c r="D65" s="93">
         <f>(D3*$A$3+D7*$A$7+D11*$A$11+D15*$A$15+D19*$A$19+D23*$A$23+D27*$A$27+D31*$A$31+D35*$A$35+D39*$A$39+D43*$A$43+D47*$A$47+D51*$A$51+D55*$A$55+D59*$A$59)^(1/$D$1)-1</f>
-        <v>0.14727799485111448</v>
+        <v>0.14327383154989271</v>
       </c>
       <c r="E65" s="92">
         <f>(E3*$A$3+E7*$A$7+E11*$A$11+E15*$A$15+E19*$A$19+E23*$A$23+E27*$A$27+E31*$A$31+E35*$A$35+E39*$A$39+E43*$A$43+E47*$A$47+E51*$A$51+E55*$A$55+E59*$A$59)^(1/$E$1)-1</f>
-        <v>0.12498944125543887</v>
+        <v>0.12090362874093219</v>
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.2">
@@ -38852,15 +38991,15 @@
       </c>
       <c r="C66" s="91">
         <f>(C4*$A$3+C8*$A$7+C12*$A$11+C16*$A$15+C20*$A$19+C24*$A$23+C28*$A$27+C32*$A$31+C36*$A$35+C40*$A$39+C44*$A$43+C48*$A$47+C52*$A$51+C56*$A$55+C60*$A$59)^(1/$C$1)-1</f>
-        <v>0.31518707141890867</v>
+        <v>0.3105534584938916</v>
       </c>
       <c r="D66" s="91">
         <f>(D4*$A$3+D8*$A$7+D12*$A$11+D16*$A$15+D20*$A$19+D24*$A$23+D28*$A$27+D32*$A$31+D36*$A$35+D40*$A$39+D44*$A$43+D48*$A$47+D52*$A$51+D56*$A$55+D60*$A$59)^(1/$D$1)-1</f>
-        <v>0.21223457097246157</v>
+        <v>0.20772233418380703</v>
       </c>
       <c r="E66" s="91">
         <f>(E4*$A$3+E8*$A$7+E12*$A$11+E16*$A$15+E20*$A$19+E24*$A$23+E28*$A$27+E32*$A$31+E36*$A$35+E40*$A$39+E44*$A$43+E48*$A$47+E52*$A$51+E56*$A$55+E60*$A$59)^(1/$E$1)-1</f>
-        <v>0.1707838385779048</v>
+        <v>0.16627859632063946</v>
       </c>
     </row>
   </sheetData>

--- a/Portfolio/ETF计划 XIRR 已投入收益率计算.xlsx
+++ b/Portfolio/ETF计划 XIRR 已投入收益率计算.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="21600" windowHeight="13740" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="21600" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="已投部分年化收益率" sheetId="1" r:id="rId1"/>
@@ -224,7 +224,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15390" uniqueCount="7462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15391" uniqueCount="7463">
   <si>
     <t>日期</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -23172,11 +23172,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>全指金融</t>
-    <rPh sb="0" eb="1">
-      <t>quan'zhi'j'r</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>上证指数</t>
+  </si>
+  <si>
+    <t>创业板指</t>
   </si>
 </sst>
 </file>
@@ -23786,7 +23785,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -24081,7 +24080,10 @@
     <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -24090,8 +24092,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="103">
@@ -24477,6 +24482,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -24516,6 +24522,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="2"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -24861,6 +24868,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -24890,6 +24898,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -25151,6 +25160,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -25232,6 +25242,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -25379,6 +25390,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -25408,6 +25420,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -25593,6 +25606,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -26054,10 +26068,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA136"/>
+  <dimension ref="A1:AD138"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="T82" sqref="T82:W127"/>
+    <sheetView tabSelected="1" topLeftCell="K52" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="P85" sqref="P85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -26076,10 +26090,12 @@
     <col min="14" max="14" width="7.875" customWidth="1"/>
     <col min="15" max="15" width="10.5" customWidth="1"/>
     <col min="16" max="17" width="11.5" customWidth="1"/>
-    <col min="18" max="18" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.625" bestFit="1" customWidth="1"/>
     <col min="19" max="22" width="11.5" customWidth="1"/>
-    <col min="23" max="23" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="26" max="30" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
@@ -27406,7 +27422,7 @@
         <f>SUMIF(C:C,"=医药",K:K)/SUMIF(C:C,"=医药",M:M)*-1</f>
         <v>3.4754482498551846</v>
       </c>
-      <c r="Z19" s="99">
+      <c r="Z19" s="100">
         <f>(SUMIF(C:C,"=医药",M:M)*-1)/$Q$2</f>
         <v>6.1076224999999998E-2</v>
       </c>
@@ -27494,7 +27510,7 @@
         <f>SUMIF(C:C,"=医药",K:K)/SUMIF(C:C,"=医药",M:M)*-1</f>
         <v>3.4754482498551846</v>
       </c>
-      <c r="Z20" s="100"/>
+      <c r="Z20" s="101"/>
       <c r="AA20" s="2"/>
     </row>
     <row r="21" spans="1:27">
@@ -27755,7 +27771,7 @@
         <f>SUMIF(C:C,"=环保",K:K)/SUMIF(C:C,"=环保",M:M)*-1</f>
         <v>2.1181708851577632</v>
       </c>
-      <c r="Z23" s="99">
+      <c r="Z23" s="100">
         <f>(SUMIF(C:C,"=环保",M:M)*-1)/$Q$2</f>
         <v>6.0069037499999992E-2</v>
       </c>
@@ -27843,7 +27859,7 @@
         <f>SUMIF(C:C,"=环保",K:K)/SUMIF(C:C,"=环保",M:M)*-1</f>
         <v>2.1181708851577632</v>
       </c>
-      <c r="Z24" s="100"/>
+      <c r="Z24" s="101"/>
       <c r="AA24" s="2"/>
     </row>
     <row r="25" spans="1:27">
@@ -30620,17 +30636,17 @@
         <v>0.64</v>
       </c>
       <c r="O66" s="4"/>
-      <c r="P66" s="15" t="s">
+      <c r="P66" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="Q66">
+      <c r="Q66" s="98">
         <v>3811.38</v>
       </c>
-      <c r="R66" s="97">
+      <c r="R66" s="102">
         <f>Q66*X13/S13</f>
         <v>3921.2094405076455</v>
       </c>
-      <c r="S66" s="18">
+      <c r="S66" s="60">
         <f>R66/Q66-1</f>
         <v>2.8816187445923847E-2</v>
       </c>
@@ -30683,20 +30699,12 @@
         <v>1.23</v>
       </c>
       <c r="O67" s="4"/>
-      <c r="P67" s="15" t="s">
-        <v>7455</v>
-      </c>
-      <c r="Q67">
-        <v>2464.81</v>
-      </c>
-      <c r="R67" s="97">
-        <f t="shared" ref="R67:R72" si="17">Q67*X14/S14</f>
-        <v>2337.4549523052465</v>
-      </c>
-      <c r="S67" s="18">
-        <f t="shared" ref="S67:S77" si="18">R67/Q67-1</f>
-        <v>-5.1669316375198671E-2</v>
-      </c>
+      <c r="P67" s="98" t="s">
+        <v>7461</v>
+      </c>
+      <c r="Q67" s="98"/>
+      <c r="R67" s="102"/>
+      <c r="S67" s="60"/>
     </row>
     <row r="68" spans="1:19">
       <c r="A68" s="3">
@@ -30746,19 +30754,19 @@
         <v>1.27</v>
       </c>
       <c r="O68" s="4"/>
-      <c r="P68" s="15" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q68">
-        <v>3183.24</v>
-      </c>
-      <c r="R68" s="97">
-        <f t="shared" si="17"/>
-        <v>3386.6731282627193</v>
-      </c>
-      <c r="S68" s="18">
-        <f t="shared" si="18"/>
-        <v>6.3907568471971876E-2</v>
+      <c r="P68" s="3" t="s">
+        <v>7455</v>
+      </c>
+      <c r="Q68" s="98">
+        <v>2464.81</v>
+      </c>
+      <c r="R68" s="102">
+        <f>Q68*X14/S14</f>
+        <v>2337.4549523052465</v>
+      </c>
+      <c r="S68" s="60">
+        <f t="shared" ref="S68:S78" si="17">R68/Q68-1</f>
+        <v>-5.1669316375198671E-2</v>
       </c>
     </row>
     <row r="69" spans="1:19">
@@ -30809,19 +30817,19 @@
         <v>1.28</v>
       </c>
       <c r="O69" s="4"/>
-      <c r="P69" s="15" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q69">
-        <v>4253.5600000000004</v>
-      </c>
-      <c r="R69" s="97">
+      <c r="P69" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q69" s="98">
+        <v>3183.24</v>
+      </c>
+      <c r="R69" s="102">
+        <f>Q69*X15/S15</f>
+        <v>3386.6731282627193</v>
+      </c>
+      <c r="S69" s="60">
         <f t="shared" si="17"/>
-        <v>5434.4274461468822</v>
-      </c>
-      <c r="S69" s="98">
-        <f t="shared" si="18"/>
-        <v>0.27761861738094251</v>
+        <v>6.3907568471971876E-2</v>
       </c>
     </row>
     <row r="70" spans="1:19">
@@ -30866,19 +30874,19 @@
         <v>2.12</v>
       </c>
       <c r="O70" s="4"/>
-      <c r="P70" s="15" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q70">
-        <v>4378.93</v>
-      </c>
-      <c r="R70" s="97">
+      <c r="P70" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q70" s="98">
+        <v>4253.5600000000004</v>
+      </c>
+      <c r="R70" s="102">
+        <f>Q70*X16/S16</f>
+        <v>5434.4274461468822</v>
+      </c>
+      <c r="S70" s="103">
         <f t="shared" si="17"/>
-        <v>6125.4692715431838</v>
-      </c>
-      <c r="S70" s="98">
-        <f t="shared" si="18"/>
-        <v>0.3988506944717507</v>
+        <v>0.27761861738094251</v>
       </c>
     </row>
     <row r="71" spans="1:19">
@@ -30929,19 +30937,19 @@
         <v>9.59</v>
       </c>
       <c r="O71" s="4"/>
-      <c r="P71" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q71">
-        <v>1292.06</v>
-      </c>
-      <c r="R71" s="97">
+      <c r="P71" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q71" s="98">
+        <v>4378.93</v>
+      </c>
+      <c r="R71" s="102">
+        <f>Q71*X17/S17</f>
+        <v>6125.4692715431838</v>
+      </c>
+      <c r="S71" s="103">
         <f t="shared" si="17"/>
-        <v>1468.4389184259931</v>
-      </c>
-      <c r="S71" s="98">
-        <f t="shared" si="18"/>
-        <v>0.1365098512654157</v>
+        <v>0.3988506944717507</v>
       </c>
     </row>
     <row r="72" spans="1:19">
@@ -30986,19 +30994,19 @@
         <v>0</v>
       </c>
       <c r="O72" s="4"/>
-      <c r="P72" s="15" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q72">
-        <v>8000.45</v>
-      </c>
-      <c r="R72" s="97">
-        <f t="shared" si="17"/>
-        <v>8911.9070354339456</v>
-      </c>
-      <c r="S72" s="98">
-        <f t="shared" si="18"/>
-        <v>0.11392572110743093</v>
+      <c r="P72" s="98" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q72" s="98">
+        <v>4981.13</v>
+      </c>
+      <c r="R72" s="102">
+        <f>Q72*X34/S34</f>
+        <v>5075.401834979054</v>
+      </c>
+      <c r="S72" s="103">
+        <f>R72/Q72-1</f>
+        <v>1.8925792938360164E-2</v>
       </c>
     </row>
     <row r="73" spans="1:19">
@@ -31049,19 +31057,19 @@
         <v>7.67</v>
       </c>
       <c r="O73" s="4"/>
-      <c r="P73" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q73">
-        <v>6263.1</v>
-      </c>
-      <c r="R73" s="97">
-        <f>Q73*X21/S21</f>
-        <v>7342.0443054004645</v>
-      </c>
-      <c r="S73" s="98">
-        <f t="shared" si="18"/>
-        <v>0.17227001092118344</v>
+      <c r="P73" s="3" t="s">
+        <v>7456</v>
+      </c>
+      <c r="Q73" s="98">
+        <v>536.29999999999995</v>
+      </c>
+      <c r="R73" s="102">
+        <f>Q73*X22/S22</f>
+        <v>606.19441154780236</v>
+      </c>
+      <c r="S73" s="103">
+        <f>R73/Q73-1</f>
+        <v>0.13032707728473314</v>
       </c>
     </row>
     <row r="74" spans="1:19">
@@ -31112,19 +31120,19 @@
         <v>7.67</v>
       </c>
       <c r="O74" s="4"/>
-      <c r="P74" s="15" t="s">
-        <v>7456</v>
-      </c>
-      <c r="Q74">
-        <v>536.29999999999995</v>
-      </c>
-      <c r="R74" s="97">
-        <f>Q74*X22/S22</f>
-        <v>606.19441154780236</v>
-      </c>
-      <c r="S74" s="98">
-        <f t="shared" si="18"/>
-        <v>0.13032707728473314</v>
+      <c r="P74" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q74" s="98">
+        <v>1102.1400000000001</v>
+      </c>
+      <c r="R74" s="102">
+        <f>Q74*X25/S25</f>
+        <v>1491.613976744216</v>
+      </c>
+      <c r="S74" s="103">
+        <f>R74/Q74-1</f>
+        <v>0.35337976731106369</v>
       </c>
     </row>
     <row r="75" spans="1:19">
@@ -31175,19 +31183,19 @@
         <v>7.67</v>
       </c>
       <c r="O75" s="4"/>
-      <c r="P75" s="15" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q75">
-        <v>1041.43</v>
-      </c>
-      <c r="R75" s="97">
-        <f>Q75*X23/S23</f>
-        <v>1414.0555800832371</v>
-      </c>
-      <c r="S75" s="98">
-        <f t="shared" si="18"/>
-        <v>0.35780184946010496</v>
+      <c r="P75" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q75" s="98">
+        <v>8000.45</v>
+      </c>
+      <c r="R75" s="102">
+        <f>Q75*X19/S19</f>
+        <v>8911.9070354339456</v>
+      </c>
+      <c r="S75" s="103">
+        <f>R75/Q75-1</f>
+        <v>0.11392572110743093</v>
       </c>
     </row>
     <row r="76" spans="1:19">
@@ -31238,19 +31246,19 @@
         <v>1.27</v>
       </c>
       <c r="O76" s="4"/>
-      <c r="P76" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q76">
-        <v>1102.1400000000001</v>
-      </c>
-      <c r="R76" s="97">
-        <f>Q76*X25/S25</f>
-        <v>1491.613976744216</v>
-      </c>
-      <c r="S76" s="98">
-        <f t="shared" si="18"/>
-        <v>0.35337976731106369</v>
+      <c r="P76" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q76" s="98">
+        <v>6263.1</v>
+      </c>
+      <c r="R76" s="102">
+        <f>Q76*X21/S21</f>
+        <v>7342.0443054004645</v>
+      </c>
+      <c r="S76" s="103">
+        <f>R76/Q76-1</f>
+        <v>0.17227001092118344</v>
       </c>
     </row>
     <row r="77" spans="1:19">
@@ -31280,7 +31288,7 @@
         <v>19.774560222482176</v>
       </c>
       <c r="I77" s="21">
-        <f t="shared" ref="I77:I79" si="19">F77*$V$16</f>
+        <f t="shared" ref="I77:I79" si="18">F77*$V$16</f>
         <v>1.8069856755026816</v>
       </c>
       <c r="J77" s="21">
@@ -31301,19 +31309,19 @@
         <v>1.24</v>
       </c>
       <c r="O77" s="4"/>
-      <c r="P77" s="15" t="s">
-        <v>7461</v>
-      </c>
-      <c r="Q77">
-        <v>4981.13</v>
-      </c>
-      <c r="R77" s="97">
-        <f>Q77*X34/S34</f>
-        <v>5075.401834979054</v>
-      </c>
-      <c r="S77" s="98">
-        <f t="shared" si="18"/>
-        <v>1.8925792938360164E-2</v>
+      <c r="P77" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q77" s="98">
+        <v>1041.43</v>
+      </c>
+      <c r="R77" s="102">
+        <f>Q77*X23/S23</f>
+        <v>1414.0555800832371</v>
+      </c>
+      <c r="S77" s="103">
+        <f>R77/Q77-1</f>
+        <v>0.35780184946010496</v>
       </c>
     </row>
     <row r="78" spans="1:19">
@@ -31343,7 +31351,7 @@
         <v>19.709272297878911</v>
       </c>
       <c r="I78" s="21">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>1.8010197099785903</v>
       </c>
       <c r="J78" s="21">
@@ -31364,13 +31372,20 @@
         <v>0.1</v>
       </c>
       <c r="O78" s="4"/>
-      <c r="P78" s="15" t="s">
-        <v>7457</v>
-      </c>
-      <c r="Q78">
-        <v>25346.55</v>
-      </c>
-      <c r="R78" s="97"/>
+      <c r="P78" s="98" t="s">
+        <v>7462</v>
+      </c>
+      <c r="Q78" s="98">
+        <v>1292.06</v>
+      </c>
+      <c r="R78" s="102">
+        <f>Q78*X18/S18</f>
+        <v>1468.4389184259931</v>
+      </c>
+      <c r="S78" s="103">
+        <f t="shared" si="17"/>
+        <v>0.1365098512654157</v>
+      </c>
     </row>
     <row r="79" spans="1:19">
       <c r="A79" s="3">
@@ -31399,7 +31414,7 @@
         <v>19.475003862537793</v>
       </c>
       <c r="I79" s="21">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>1.7796124219215572</v>
       </c>
       <c r="J79" s="21">
@@ -31420,13 +31435,14 @@
         <v>1.32</v>
       </c>
       <c r="O79" s="4"/>
-      <c r="P79" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q79">
-        <v>11274.28</v>
-      </c>
-      <c r="R79" s="97"/>
+      <c r="P79" s="3" t="s">
+        <v>7457</v>
+      </c>
+      <c r="Q79" s="98">
+        <v>25346.55</v>
+      </c>
+      <c r="R79" s="98"/>
+      <c r="S79" s="98"/>
     </row>
     <row r="80" spans="1:19">
       <c r="A80" s="3">
@@ -31476,11 +31492,16 @@
         <v>1.28</v>
       </c>
       <c r="O80" s="4"/>
-      <c r="P80" s="15"/>
-      <c r="Q80" s="97"/>
-      <c r="R80" s="97"/>
-    </row>
-    <row r="81" spans="1:19">
+      <c r="P80" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q80" s="98">
+        <v>11274.28</v>
+      </c>
+      <c r="R80" s="102"/>
+      <c r="S80" s="98"/>
+    </row>
+    <row r="81" spans="1:30">
       <c r="A81" s="3">
         <v>43354</v>
       </c>
@@ -31528,11 +31549,11 @@
         <v>0.63</v>
       </c>
       <c r="O81" s="4"/>
-      <c r="P81" s="15"/>
-      <c r="Q81" s="97"/>
-      <c r="R81" s="97"/>
-    </row>
-    <row r="82" spans="1:19">
+      <c r="Q81" s="98"/>
+      <c r="R81" s="102"/>
+      <c r="S81" s="98"/>
+    </row>
+    <row r="82" spans="1:30">
       <c r="A82" s="3">
         <v>43357</v>
       </c>
@@ -31584,7 +31605,7 @@
       <c r="Q82" s="97"/>
       <c r="R82" s="97"/>
     </row>
-    <row r="83" spans="1:19">
+    <row r="83" spans="1:30">
       <c r="A83" s="3">
         <v>43371</v>
       </c>
@@ -31619,7 +31640,7 @@
         <v>74549.760000000009</v>
       </c>
       <c r="K83" s="21">
-        <f t="shared" ref="K83:K86" si="20">I83*(-$M83)</f>
+        <f t="shared" ref="K83:K86" si="19">I83*(-$M83)</f>
         <v>9250.2000000000007</v>
       </c>
       <c r="L83" s="7" t="s">
@@ -31636,7 +31657,7 @@
       <c r="Q83" s="97"/>
       <c r="R83" s="97"/>
     </row>
-    <row r="84" spans="1:19">
+    <row r="84" spans="1:30">
       <c r="A84" s="3">
         <v>43371</v>
       </c>
@@ -31661,11 +31682,11 @@
       <c r="H84" s="21"/>
       <c r="I84" s="21"/>
       <c r="J84" s="21">
-        <f t="shared" ref="J84:J86" si="21">H84*(-$M84)</f>
+        <f t="shared" ref="J84:J86" si="20">H84*(-$M84)</f>
         <v>0</v>
       </c>
       <c r="K84" s="21">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="L84" s="7" t="s">
@@ -31678,11 +31699,11 @@
         <v>6.39</v>
       </c>
       <c r="O84" s="4"/>
-      <c r="P84" s="15"/>
+      <c r="P84" s="98"/>
       <c r="Q84" s="97"/>
       <c r="R84" s="97"/>
     </row>
-    <row r="85" spans="1:19">
+    <row r="85" spans="1:30">
       <c r="A85" s="3">
         <v>43371</v>
       </c>
@@ -31713,11 +31734,11 @@
         <v>2.880577691655565</v>
       </c>
       <c r="J85" s="21">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>144377.64418069518</v>
       </c>
       <c r="K85" s="21">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>18435.697226595617</v>
       </c>
       <c r="L85" s="7" t="s">
@@ -31730,11 +31751,23 @@
         <v>7.67</v>
       </c>
       <c r="O85" s="4"/>
-      <c r="P85" s="15"/>
+      <c r="P85" s="98"/>
       <c r="Q85" s="97"/>
       <c r="R85" s="97"/>
-    </row>
-    <row r="86" spans="1:19">
+      <c r="S85" s="97"/>
+      <c r="T85" s="97"/>
+      <c r="U85" s="97"/>
+      <c r="V85" s="97"/>
+      <c r="W85" s="97"/>
+      <c r="X85" s="97"/>
+      <c r="Y85" s="97"/>
+      <c r="Z85" s="97"/>
+      <c r="AA85" s="97"/>
+      <c r="AB85" s="97"/>
+      <c r="AC85" s="97"/>
+      <c r="AD85" s="97"/>
+    </row>
+    <row r="86" spans="1:30">
       <c r="A86" s="3">
         <v>43371</v>
       </c>
@@ -31765,11 +31798,11 @@
         <v>1.1481373429084383</v>
       </c>
       <c r="J86" s="21">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>53106.570915619384</v>
       </c>
       <c r="K86" s="21">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>7348.0789946140048</v>
       </c>
       <c r="L86" s="7" t="s">
@@ -31782,11 +31815,11 @@
         <v>7.67</v>
       </c>
       <c r="O86" s="4"/>
-      <c r="P86" s="15"/>
+      <c r="P86" s="98"/>
       <c r="Q86" s="97"/>
       <c r="R86" s="97"/>
     </row>
-    <row r="87" spans="1:19">
+    <row r="87" spans="1:30">
       <c r="A87" s="3">
         <v>43371</v>
       </c>
@@ -31817,11 +31850,11 @@
         <v>3.7233663045240792</v>
       </c>
       <c r="J87" s="21">
-        <f t="shared" ref="J87:J91" si="22">H87*(-$M87)</f>
+        <f t="shared" ref="J87:J91" si="21">H87*(-$M87)</f>
         <v>200584.843197665</v>
       </c>
       <c r="K87" s="21">
-        <f t="shared" ref="K87:K91" si="23">I87*(-$M87)</f>
+        <f t="shared" ref="K87:K91" si="22">I87*(-$M87)</f>
         <v>23859.331279390299</v>
       </c>
       <c r="L87" s="5" t="s">
@@ -31834,11 +31867,11 @@
         <v>1.28</v>
       </c>
       <c r="O87" s="4"/>
-      <c r="P87" s="15"/>
+      <c r="P87" s="98"/>
       <c r="Q87" s="97"/>
       <c r="R87" s="97"/>
     </row>
-    <row r="88" spans="1:19">
+    <row r="88" spans="1:30">
       <c r="A88" s="3">
         <v>43384</v>
       </c>
@@ -31865,15 +31898,15 @@
         <v>17.777517822852978</v>
       </c>
       <c r="I88" s="21">
-        <f t="shared" ref="I88" si="24">F88*$V$16</f>
+        <f t="shared" ref="I88" si="23">F88*$V$16</f>
         <v>1.6244973182951858</v>
       </c>
       <c r="J88" s="21">
+        <f t="shared" si="21"/>
+        <v>115232.09277595072</v>
+      </c>
+      <c r="K88" s="21">
         <f t="shared" si="22"/>
-        <v>115232.09277595072</v>
-      </c>
-      <c r="K88" s="21">
-        <f t="shared" si="23"/>
         <v>10529.829167457565</v>
       </c>
       <c r="L88" s="5" t="s">
@@ -31886,12 +31919,11 @@
         <v>1.3</v>
       </c>
       <c r="O88" s="4"/>
-      <c r="P88" s="15"/>
+      <c r="P88" s="98"/>
       <c r="Q88" s="97"/>
       <c r="R88" s="97"/>
-      <c r="S88" s="15"/>
-    </row>
-    <row r="89" spans="1:19">
+    </row>
+    <row r="89" spans="1:30">
       <c r="A89" s="3">
         <v>43384</v>
       </c>
@@ -31922,11 +31954,11 @@
         <v>3.165742488024387</v>
       </c>
       <c r="J89" s="21">
+        <f t="shared" si="21"/>
+        <v>164488.7327623748</v>
+      </c>
+      <c r="K89" s="21">
         <f t="shared" si="22"/>
-        <v>164488.7327623748</v>
-      </c>
-      <c r="K89" s="21">
-        <f t="shared" si="23"/>
         <v>20260.751923356078</v>
       </c>
       <c r="L89" s="7" t="s">
@@ -31939,12 +31971,11 @@
         <v>7.67</v>
       </c>
       <c r="O89" s="4"/>
-      <c r="P89" s="15"/>
-      <c r="Q89" s="15"/>
-      <c r="R89" s="15"/>
-      <c r="S89" s="15"/>
-    </row>
-    <row r="90" spans="1:19">
+      <c r="P89" s="98"/>
+      <c r="Q89" s="97"/>
+      <c r="R89" s="97"/>
+    </row>
+    <row r="90" spans="1:30">
       <c r="A90" s="3">
         <v>43388</v>
       </c>
@@ -31975,11 +32006,11 @@
         <v>1.062127659574468</v>
       </c>
       <c r="J90" s="21">
+        <f t="shared" si="21"/>
+        <v>110807.78221843972</v>
+      </c>
+      <c r="K90" s="21">
         <f t="shared" si="22"/>
-        <v>110807.78221843972</v>
-      </c>
-      <c r="K90" s="21">
-        <f t="shared" si="23"/>
         <v>6780.6017361702116</v>
       </c>
       <c r="L90" s="5" t="s">
@@ -31992,12 +32023,12 @@
         <v>1.28</v>
       </c>
       <c r="O90" s="4"/>
-      <c r="P90" s="15"/>
-      <c r="Q90" s="15"/>
-      <c r="R90" s="15"/>
+      <c r="P90" s="98"/>
+      <c r="Q90" s="97"/>
+      <c r="R90" s="97"/>
       <c r="S90" s="15"/>
     </row>
-    <row r="91" spans="1:19">
+    <row r="91" spans="1:30">
       <c r="A91" s="3">
         <v>43388</v>
       </c>
@@ -32028,11 +32059,11 @@
         <v>1.5361635349989675</v>
       </c>
       <c r="J91" s="21">
+        <f t="shared" si="21"/>
+        <v>114889.2768944869</v>
+      </c>
+      <c r="K91" s="21">
         <f t="shared" si="22"/>
-        <v>114889.2768944869</v>
-      </c>
-      <c r="K91" s="21">
-        <f t="shared" si="23"/>
         <v>9831.4466239933918</v>
       </c>
       <c r="L91" s="7" t="s">
@@ -32044,12 +32075,12 @@
       <c r="N91" s="4">
         <v>7.67</v>
       </c>
-      <c r="P91" s="15"/>
+      <c r="P91" s="98"/>
       <c r="Q91" s="15"/>
       <c r="R91" s="15"/>
       <c r="S91" s="15"/>
     </row>
-    <row r="92" spans="1:19">
+    <row r="92" spans="1:30">
       <c r="A92" s="3">
         <v>43388</v>
       </c>
@@ -32080,11 +32111,11 @@
         <v>3.1480795471040794</v>
       </c>
       <c r="J92" s="21">
-        <f t="shared" ref="J92" si="25">H92*(-$M92)</f>
+        <f t="shared" ref="J92" si="24">H92*(-$M92)</f>
         <v>163570.98446799244</v>
       </c>
       <c r="K92" s="21">
-        <f t="shared" ref="K92" si="26">I92*(-$M92)</f>
+        <f t="shared" ref="K92" si="25">I92*(-$M92)</f>
         <v>20147.709101466109</v>
       </c>
       <c r="L92" s="7" t="s">
@@ -32097,12 +32128,12 @@
         <v>7.67</v>
       </c>
       <c r="O92" s="4"/>
-      <c r="P92" s="15"/>
+      <c r="P92" s="98"/>
       <c r="Q92" s="15"/>
       <c r="R92" s="15"/>
       <c r="S92" s="15"/>
     </row>
-    <row r="93" spans="1:19">
+    <row r="93" spans="1:30">
       <c r="A93" s="3"/>
       <c r="B93" s="71"/>
       <c r="C93" s="71"/>
@@ -32118,11 +32149,12 @@
       <c r="M93" s="1"/>
       <c r="N93" s="4"/>
       <c r="O93" s="4"/>
+      <c r="P93" s="98"/>
       <c r="Q93" s="15"/>
       <c r="R93" s="15"/>
       <c r="S93" s="15"/>
     </row>
-    <row r="94" spans="1:19">
+    <row r="94" spans="1:30">
       <c r="A94" s="3"/>
       <c r="B94" s="71"/>
       <c r="C94" s="71"/>
@@ -32138,11 +32170,12 @@
       <c r="M94" s="1"/>
       <c r="N94" s="4"/>
       <c r="O94" s="4"/>
+      <c r="P94" s="98"/>
       <c r="Q94" s="15"/>
       <c r="R94" s="15"/>
       <c r="S94" s="15"/>
     </row>
-    <row r="95" spans="1:19">
+    <row r="95" spans="1:30">
       <c r="A95" s="3"/>
       <c r="B95" s="71"/>
       <c r="C95" s="71"/>
@@ -32153,7 +32186,7 @@
       <c r="H95" s="21"/>
       <c r="I95" s="21"/>
       <c r="J95" s="21">
-        <f t="shared" ref="J95" si="27">H95*(-M95)</f>
+        <f t="shared" ref="J95" si="26">H95*(-M95)</f>
         <v>0</v>
       </c>
       <c r="K95" s="21"/>
@@ -32161,11 +32194,12 @@
       <c r="M95" s="1"/>
       <c r="N95" s="4"/>
       <c r="O95" s="4"/>
+      <c r="P95" s="98"/>
       <c r="Q95" s="15"/>
       <c r="R95" s="15"/>
       <c r="S95" s="15"/>
     </row>
-    <row r="96" spans="1:19">
+    <row r="96" spans="1:30">
       <c r="A96" s="3"/>
       <c r="B96" s="71"/>
       <c r="C96" s="71"/>
@@ -32181,6 +32215,7 @@
       <c r="M96" s="1"/>
       <c r="N96" s="4"/>
       <c r="O96" s="4"/>
+      <c r="P96" s="98"/>
       <c r="Q96" s="15"/>
       <c r="R96" s="15"/>
       <c r="S96" s="15"/>
@@ -32196,7 +32231,7 @@
       <c r="H97" s="21"/>
       <c r="I97" s="21"/>
       <c r="J97" s="21">
-        <f t="shared" ref="J97" si="28">H97*(-M97)</f>
+        <f t="shared" ref="J97" si="27">H97*(-M97)</f>
         <v>0</v>
       </c>
       <c r="K97" s="21"/>
@@ -32219,7 +32254,7 @@
       <c r="H98" s="21"/>
       <c r="I98" s="21"/>
       <c r="J98" s="21">
-        <f t="shared" ref="J98:J108" si="29">H98*(-M98)</f>
+        <f t="shared" ref="J98:J108" si="28">H98*(-M98)</f>
         <v>0</v>
       </c>
       <c r="K98" s="21"/>
@@ -32262,7 +32297,7 @@
       <c r="H100" s="21"/>
       <c r="I100" s="21"/>
       <c r="J100" s="21">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="K100" s="21"/>
@@ -32285,7 +32320,7 @@
       <c r="H101" s="21"/>
       <c r="I101" s="21"/>
       <c r="J101" s="21">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="K101" s="21"/>
@@ -32307,7 +32342,7 @@
       <c r="H102" s="3"/>
       <c r="I102" s="3"/>
       <c r="J102" s="21">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="K102" s="21"/>
@@ -32335,7 +32370,7 @@
       <c r="H103" s="3"/>
       <c r="I103" s="3"/>
       <c r="J103" s="21">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="K103" s="21"/>
@@ -32357,14 +32392,13 @@
       <c r="H104" s="3"/>
       <c r="I104" s="3"/>
       <c r="J104" s="21">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="K104" s="21"/>
       <c r="M104" s="1"/>
       <c r="N104" s="4"/>
       <c r="O104" s="4"/>
-      <c r="P104" s="15"/>
       <c r="Q104" s="15"/>
       <c r="R104" s="15"/>
       <c r="S104" s="15"/>
@@ -32380,14 +32414,14 @@
       <c r="H105" s="3"/>
       <c r="I105" s="3"/>
       <c r="J105" s="21">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="K105" s="21"/>
       <c r="M105" s="1"/>
       <c r="N105" s="4"/>
-      <c r="P105" s="15"/>
       <c r="Q105" s="15"/>
+      <c r="R105" s="15"/>
       <c r="S105" s="15"/>
     </row>
     <row r="106" spans="1:20">
@@ -32399,7 +32433,7 @@
       <c r="H106" s="3"/>
       <c r="I106" s="3"/>
       <c r="J106" s="21">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="K106" s="21"/>
@@ -32416,12 +32450,13 @@
       </c>
       <c r="P106" s="15"/>
       <c r="Q106" s="15"/>
+      <c r="R106" s="15"/>
       <c r="S106" s="15"/>
       <c r="T106" s="15"/>
     </row>
     <row r="107" spans="1:20">
       <c r="J107" s="21">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="K107" s="21"/>
@@ -32441,7 +32476,7 @@
     </row>
     <row r="108" spans="1:20">
       <c r="J108" s="21">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="K108" s="21"/>
@@ -32457,18 +32492,20 @@
       <c r="T108" s="15"/>
     </row>
     <row r="109" spans="1:20">
-      <c r="P109" s="63"/>
+      <c r="P109" s="15"/>
       <c r="Q109" s="15"/>
       <c r="S109" s="15"/>
       <c r="T109" s="15"/>
     </row>
     <row r="110" spans="1:20">
-      <c r="P110" s="63"/>
+      <c r="P110" s="15"/>
+      <c r="Q110" s="15"/>
       <c r="S110" s="15"/>
       <c r="T110" s="15"/>
     </row>
     <row r="111" spans="1:20">
       <c r="P111" s="63"/>
+      <c r="Q111" s="15"/>
       <c r="S111" s="15"/>
       <c r="T111" s="15"/>
     </row>
@@ -32492,9 +32529,11 @@
     </row>
     <row r="116" spans="14:20">
       <c r="P116" s="63"/>
+      <c r="S116" s="15"/>
     </row>
     <row r="117" spans="14:20">
       <c r="P117" s="63"/>
+      <c r="S117" s="15"/>
     </row>
     <row r="118" spans="14:20">
       <c r="P118" s="63"/>
@@ -32556,6 +32595,12 @@
     </row>
     <row r="136" spans="16:16">
       <c r="P136" s="63"/>
+    </row>
+    <row r="137" spans="16:16">
+      <c r="P137" s="63"/>
+    </row>
+    <row r="138" spans="16:16">
+      <c r="P138" s="63"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:W108"/>
@@ -32808,7 +32853,7 @@
   <dimension ref="B1:S74"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="I68" sqref="I68"/>
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -32820,7 +32865,7 @@
     <col min="9" max="18" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="15">
+    <row r="1" spans="2:19">
       <c r="R1" s="15"/>
     </row>
     <row r="2" spans="2:19">
@@ -32969,14 +33014,14 @@
       </c>
       <c r="S4" s="15"/>
     </row>
-    <row r="5" spans="2:19" s="29" customFormat="1" ht="15">
+    <row r="5" spans="2:19" s="29" customFormat="1">
       <c r="D5" s="31">
         <f>E3*D3</f>
         <v>10.53434484111416</v>
       </c>
       <c r="R5" s="47"/>
     </row>
-    <row r="6" spans="2:19" s="29" customFormat="1" ht="15">
+    <row r="6" spans="2:19" s="29" customFormat="1">
       <c r="D6" s="31"/>
       <c r="R6" s="47"/>
     </row>
@@ -33025,7 +33070,7 @@
       </c>
       <c r="P7" s="35"/>
     </row>
-    <row r="8" spans="2:19" ht="15">
+    <row r="8" spans="2:19">
       <c r="C8" s="36" t="s">
         <v>92</v>
       </c>
@@ -33068,7 +33113,7 @@
       </c>
       <c r="P8" s="38"/>
     </row>
-    <row r="9" spans="2:19" ht="15">
+    <row r="9" spans="2:19">
       <c r="C9" s="39"/>
       <c r="D9" s="37"/>
       <c r="E9" s="37"/>
@@ -33142,7 +33187,7 @@
       <c r="O10" s="37"/>
       <c r="P10" s="38"/>
     </row>
-    <row r="11" spans="2:19" ht="15">
+    <row r="11" spans="2:19">
       <c r="D11" s="37">
         <f>已投部分年化收益率!T28</f>
         <v>36.942675159235669</v>
@@ -33178,7 +33223,7 @@
       <c r="O11" s="37"/>
       <c r="P11" s="38"/>
     </row>
-    <row r="12" spans="2:19" ht="15">
+    <row r="12" spans="2:19">
       <c r="C12" s="39"/>
       <c r="D12" s="37"/>
       <c r="E12" s="37"/>
@@ -33236,7 +33281,7 @@
       <c r="O13" s="37"/>
       <c r="P13" s="38"/>
     </row>
-    <row r="14" spans="2:19" ht="15">
+    <row r="14" spans="2:19">
       <c r="C14" s="39"/>
       <c r="D14" s="37">
         <f>已投部分年化收益率!T29</f>
@@ -33261,7 +33306,7 @@
       <c r="O14" s="37"/>
       <c r="P14" s="38"/>
     </row>
-    <row r="15" spans="2:19" ht="15">
+    <row r="15" spans="2:19">
       <c r="C15" s="39"/>
       <c r="D15" s="37"/>
       <c r="E15" s="37"/>
@@ -33307,7 +33352,7 @@
       <c r="O16" s="37"/>
       <c r="P16" s="38"/>
     </row>
-    <row r="17" spans="2:16" ht="15">
+    <row r="17" spans="2:16">
       <c r="C17" s="39"/>
       <c r="D17" s="37">
         <f>已投部分年化收益率!T30</f>
@@ -33332,7 +33377,7 @@
       <c r="O17" s="37"/>
       <c r="P17" s="38"/>
     </row>
-    <row r="18" spans="2:16" ht="15">
+    <row r="18" spans="2:16">
       <c r="C18" s="39"/>
       <c r="D18" s="37"/>
       <c r="E18" s="37"/>
@@ -33370,7 +33415,7 @@
       <c r="O19" s="37"/>
       <c r="P19" s="38"/>
     </row>
-    <row r="20" spans="2:16" ht="15">
+    <row r="20" spans="2:16">
       <c r="C20" s="42"/>
       <c r="D20" s="43">
         <f>(E8*D8*SUM(F9:Z9)+E11*D11*SUM(F12:AA12)+E14*D14*SUM(F15:AA15)+E17*D17*SUM(F18:Z18))/(SUM(F9:Z9)+SUM(F12:AA12)+SUM(F15:AA15)+SUM(F18:Z18))</f>
@@ -33389,7 +33434,7 @@
       <c r="O20" s="44"/>
       <c r="P20" s="45"/>
     </row>
-    <row r="21" spans="2:16" ht="15">
+    <row r="21" spans="2:16">
       <c r="C21" s="37"/>
       <c r="D21" s="41"/>
       <c r="E21" s="37"/>
@@ -33539,7 +33584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:16" ht="15">
+    <row r="25" spans="2:16">
       <c r="D25" s="31">
         <f>E23*D23</f>
         <v>8.2178028169014095</v>
@@ -33669,7 +33714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:16" ht="15">
+    <row r="30" spans="2:16">
       <c r="D30" s="31">
         <f>E28*D28</f>
         <v>28.683311075627813</v>
@@ -33781,7 +33826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:17" ht="15">
+    <row r="35" spans="2:17">
       <c r="D35" s="31">
         <f>E33*D33</f>
         <v>23.707627467603245</v>
@@ -33902,7 +33947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:17" ht="15">
+    <row r="40" spans="2:17">
       <c r="D40" s="31">
         <f>D38*E38</f>
         <v>25.46854842040058</v>
@@ -34032,7 +34077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:17" ht="15">
+    <row r="45" spans="2:17">
       <c r="D45" s="31">
         <f>E43*D43</f>
         <v>6.8894037061071458</v>
@@ -34111,7 +34156,7 @@
       <c r="P48" s="37"/>
       <c r="Q48" s="38"/>
     </row>
-    <row r="49" spans="2:17" ht="15">
+    <row r="49" spans="2:17">
       <c r="C49" s="39"/>
       <c r="D49" s="37"/>
       <c r="E49" s="37"/>
@@ -34163,7 +34208,7 @@
       <c r="P50" s="37"/>
       <c r="Q50" s="38"/>
     </row>
-    <row r="51" spans="2:17" ht="15">
+    <row r="51" spans="2:17">
       <c r="C51" s="39"/>
       <c r="D51" s="37">
         <f>已投部分年化收益率!T32</f>
@@ -34208,7 +34253,7 @@
       <c r="P52" s="37"/>
       <c r="Q52" s="38"/>
     </row>
-    <row r="53" spans="2:17" ht="15">
+    <row r="53" spans="2:17">
       <c r="C53" s="42"/>
       <c r="D53" s="43">
         <f>(E48*D48*SUM(G49:AB49)+E51*D51*SUM(F52:AA52))/(SUM(G49:AB49)+SUM(F52:AA52))</f>
@@ -34554,7 +34599,7 @@
       </c>
       <c r="M5" s="3"/>
     </row>
-    <row r="6" spans="1:18" ht="15">
+    <row r="6" spans="1:18">
       <c r="A6" s="25"/>
       <c r="B6" s="2" t="s">
         <v>18</v>
@@ -34570,7 +34615,7 @@
       <c r="E6" s="50"/>
       <c r="M6" s="3"/>
     </row>
-    <row r="7" spans="1:18" ht="15">
+    <row r="7" spans="1:18">
       <c r="A7" s="25"/>
       <c r="B7" s="2" t="s">
         <v>19</v>
@@ -35152,10 +35197,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AB49"/>
+  <dimension ref="A2:AB47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47:Q47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -35165,12 +35210,14 @@
     <col min="3" max="7" width="9.125" customWidth="1"/>
     <col min="8" max="9" width="9.5" customWidth="1"/>
     <col min="10" max="11" width="9.125" customWidth="1"/>
-    <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" ht="15">
+    <row r="2" spans="1:12">
       <c r="A2" s="90"/>
       <c r="B2" s="90" t="str">
         <f>组合权益类行业占比!K1</f>
@@ -35213,7 +35260,7 @@
         <v>公用事业</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15">
+    <row r="3" spans="1:12">
       <c r="A3" s="90" t="str">
         <f>组合权益类行业占比!J2</f>
         <v>中证红利</v>
@@ -35259,7 +35306,7 @@
         <v>0.16010000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15">
+    <row r="4" spans="1:12">
       <c r="A4" s="94" t="str">
         <f>组合权益类行业占比!J3</f>
         <v>上证指数</v>
@@ -35305,7 +35352,7 @@
         <v>4.3900000000000002E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15">
+    <row r="5" spans="1:12">
       <c r="A5" s="90" t="str">
         <f>组合权益类行业占比!J4</f>
         <v>上证50</v>
@@ -35351,7 +35398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15">
+    <row r="6" spans="1:12">
       <c r="A6" s="90" t="str">
         <f>组合权益类行业占比!J5</f>
         <v>沪深300</v>
@@ -35397,7 +35444,7 @@
         <v>2.8300000000000002E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15">
+    <row r="7" spans="1:12">
       <c r="A7" s="90" t="str">
         <f>组合权益类行业占比!J6</f>
         <v>中证500</v>
@@ -35443,7 +35490,7 @@
         <v>3.1300000000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15">
+    <row r="8" spans="1:12">
       <c r="A8" s="90" t="str">
         <f>组合权益类行业占比!J7</f>
         <v>中证1000</v>
@@ -35489,7 +35536,7 @@
         <v>2.2700000000000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15">
+    <row r="9" spans="1:12">
       <c r="A9" s="90" t="str">
         <f>组合权益类行业占比!J8</f>
         <v>金融地产</v>
@@ -35535,7 +35582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15">
+    <row r="10" spans="1:12">
       <c r="A10" s="90" t="str">
         <f>组合权益类行业占比!J9</f>
         <v>证券公司</v>
@@ -35581,7 +35628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15">
+    <row r="11" spans="1:12">
       <c r="A11" s="90" t="str">
         <f>组合权益类行业占比!J10</f>
         <v>中证传媒</v>
@@ -35627,7 +35674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15">
+    <row r="12" spans="1:12">
       <c r="A12" s="90" t="str">
         <f>组合权益类行业占比!J11</f>
         <v>全指医药</v>
@@ -35673,7 +35720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15">
+    <row r="13" spans="1:12">
       <c r="A13" s="90" t="str">
         <f>组合权益类行业占比!J12</f>
         <v>养老产业</v>
@@ -35719,7 +35766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15">
+    <row r="14" spans="1:12">
       <c r="A14" s="90" t="str">
         <f>组合权益类行业占比!J13</f>
         <v>中证环保</v>
@@ -35765,7 +35812,7 @@
         <v>0.13019999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15">
+    <row r="15" spans="1:12">
       <c r="A15" s="90" t="str">
         <f>组合权益类行业占比!J14</f>
         <v>创业板指</v>
@@ -35811,7 +35858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15">
+    <row r="16" spans="1:12">
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
       <c r="E16" s="18"/>
@@ -35909,7 +35956,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="15">
+    <row r="18" spans="1:28">
       <c r="A18" s="3">
         <v>38544</v>
       </c>
@@ -35995,7 +36042,7 @@
         <v>1.33</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="15">
+    <row r="19" spans="1:28">
       <c r="A19" s="3">
         <v>39748</v>
       </c>
@@ -36081,7 +36128,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="20" spans="1:28" ht="15">
+    <row r="20" spans="1:28">
       <c r="A20" s="3">
         <v>41240</v>
       </c>
@@ -36448,10 +36495,10 @@
         <f>SUM(B26:K26)-1</f>
         <v>-3.8678910999453753E-2</v>
       </c>
-      <c r="M26" s="101">
+      <c r="M26" s="99">
         <v>3766.12</v>
       </c>
-      <c r="N26" s="101">
+      <c r="N26" s="99">
         <f>M26*(1+L26)</f>
         <v>3620.4505797067372</v>
       </c>
@@ -36512,10 +36559,10 @@
         <f>SUM(B27:K27)-1</f>
         <v>-5.6589441002760532E-2</v>
       </c>
-      <c r="M27" s="101">
+      <c r="M27" s="99">
         <v>2563.31</v>
       </c>
-      <c r="N27" s="101">
+      <c r="N27" s="99">
         <f>M27*(1+L27)</f>
         <v>2418.2537199832141</v>
       </c>
@@ -36528,7 +36575,7 @@
         <v>7.5985706284914037E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:28" ht="15">
+    <row r="28" spans="1:28">
       <c r="A28" s="90" t="str">
         <f>组合权益类行业占比!J4</f>
         <v>上证50</v>
@@ -36577,10 +36624,10 @@
         <f t="shared" ref="L28:L38" si="17">SUM(B28:K28)-1</f>
         <v>-2.8536565083738474E-2</v>
       </c>
-      <c r="M28" s="101">
+      <c r="M28" s="99">
         <v>2445.71</v>
       </c>
-      <c r="N28" s="101">
+      <c r="N28" s="99">
         <f t="shared" ref="N28:N38" si="18">M28*(1+L28)</f>
         <v>2375.9178374090502</v>
       </c>
@@ -36593,7 +36640,7 @@
         <v>7.824518660310727E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:28" ht="15">
+    <row r="29" spans="1:28">
       <c r="A29" s="90" t="str">
         <f>组合权益类行业占比!J5</f>
         <v>沪深300</v>
@@ -36642,10 +36689,10 @@
         <f t="shared" si="17"/>
         <v>-5.7687994760169503E-2</v>
       </c>
-      <c r="M29" s="101">
+      <c r="M29" s="99">
         <v>3141.3</v>
       </c>
-      <c r="N29" s="101">
+      <c r="N29" s="99">
         <f t="shared" si="18"/>
         <v>2960.0847020598799</v>
       </c>
@@ -36658,7 +36705,7 @@
         <v>3.7557729592843918E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:28" ht="15">
+    <row r="30" spans="1:28">
       <c r="A30" s="90" t="str">
         <f>组合权益类行业占比!J6</f>
         <v>中证500</v>
@@ -36707,10 +36754,10 @@
         <f t="shared" si="17"/>
         <v>-0.11641849605157761</v>
       </c>
-      <c r="M30" s="101">
+      <c r="M30" s="99">
         <v>4151.7299999999996</v>
       </c>
-      <c r="N30" s="101">
+      <c r="N30" s="99">
         <f t="shared" si="18"/>
         <v>3668.3918373877832</v>
       </c>
@@ -36723,7 +36770,7 @@
         <v>0.19360232750872358</v>
       </c>
     </row>
-    <row r="31" spans="1:28" ht="15">
+    <row r="31" spans="1:28">
       <c r="A31" s="90" t="str">
         <f>组合权益类行业占比!J7</f>
         <v>中证1000</v>
@@ -36772,10 +36819,10 @@
         <f t="shared" si="17"/>
         <v>-0.12165046751327313</v>
       </c>
-      <c r="M31" s="101">
+      <c r="M31" s="99">
         <v>4270.1499999999996</v>
       </c>
-      <c r="N31" s="101">
+      <c r="N31" s="99">
         <f t="shared" si="18"/>
         <v>3750.6842561481963</v>
       </c>
@@ -36788,7 +36835,7 @@
         <v>4.3586481582387877E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:28" ht="15">
+    <row r="32" spans="1:28">
       <c r="A32" s="90" t="str">
         <f>组合权益类行业占比!J8</f>
         <v>金融地产</v>
@@ -36837,10 +36884,10 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="M32" s="101">
+      <c r="M32" s="99">
         <v>5059.3599999999997</v>
       </c>
-      <c r="N32" s="101">
+      <c r="N32" s="99">
         <f t="shared" si="18"/>
         <v>5059.3599999999997</v>
       </c>
@@ -36853,7 +36900,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="15">
+    <row r="33" spans="1:17">
       <c r="A33" s="90" t="str">
         <f>组合权益类行业占比!J9</f>
         <v>证券公司</v>
@@ -36902,10 +36949,10 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="M33" s="101">
+      <c r="M33" s="99">
         <v>551.29</v>
       </c>
-      <c r="N33" s="101">
+      <c r="N33" s="99">
         <f t="shared" si="18"/>
         <v>551.29</v>
       </c>
@@ -36918,7 +36965,7 @@
         <v>3.1965149999999998E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="15">
+    <row r="34" spans="1:17">
       <c r="A34" s="90" t="str">
         <f>组合权益类行业占比!J10</f>
         <v>中证传媒</v>
@@ -36967,10 +37014,10 @@
         <f t="shared" si="17"/>
         <v>-0.17074805592798326</v>
       </c>
-      <c r="M34" s="101">
+      <c r="M34" s="99">
         <v>1074.96</v>
       </c>
-      <c r="N34" s="101">
+      <c r="N34" s="99">
         <f t="shared" si="18"/>
         <v>891.41266979965519</v>
       </c>
@@ -36983,7 +37030,7 @@
         <v>3.070339529569335E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="15">
+    <row r="35" spans="1:17">
       <c r="A35" s="90" t="str">
         <f>组合权益类行业占比!J11</f>
         <v>全指医药</v>
@@ -37032,10 +37079,10 @@
         <f t="shared" si="17"/>
         <v>-7.5221238938053103E-2</v>
       </c>
-      <c r="M35" s="101">
+      <c r="M35" s="99">
         <v>7702.38</v>
       </c>
-      <c r="N35" s="101">
+      <c r="N35" s="99">
         <f t="shared" si="18"/>
         <v>7122.9974336283185</v>
       </c>
@@ -37048,7 +37095,7 @@
         <v>5.6481995685840704E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="15">
+    <row r="36" spans="1:17">
       <c r="A36" s="90" t="str">
         <f>组合权益类行业占比!J12</f>
         <v>养老产业</v>
@@ -37097,10 +37144,10 @@
         <f t="shared" si="17"/>
         <v>-7.9270714511448959E-2</v>
       </c>
-      <c r="M36" s="101">
+      <c r="M36" s="99">
         <v>6092.76</v>
       </c>
-      <c r="N36" s="101">
+      <c r="N36" s="99">
         <f t="shared" si="18"/>
         <v>5609.7825614532248</v>
       </c>
@@ -37113,7 +37160,7 @@
         <v>5.225138695147527E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="15">
+    <row r="37" spans="1:17">
       <c r="A37" s="90" t="str">
         <f>组合权益类行业占比!J13</f>
         <v>中证环保</v>
@@ -37162,10 +37209,10 @@
         <f t="shared" si="17"/>
         <v>-7.2749520994029315E-2</v>
       </c>
-      <c r="M37" s="101">
+      <c r="M37" s="99">
         <v>1017.27</v>
       </c>
-      <c r="N37" s="101">
+      <c r="N37" s="99">
         <f t="shared" si="18"/>
         <v>943.26409477840377</v>
       </c>
@@ -37178,7 +37225,7 @@
         <v>5.5699043795302605E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="15">
+    <row r="38" spans="1:17">
       <c r="A38" s="90" t="str">
         <f>组合权益类行业占比!J14</f>
         <v>创业板指</v>
@@ -37227,10 +37274,10 @@
         <f t="shared" si="17"/>
         <v>-0.15638610162953959</v>
       </c>
-      <c r="M38" s="101">
+      <c r="M38" s="99">
         <v>1249.94</v>
       </c>
-      <c r="N38" s="101">
+      <c r="N38" s="99">
         <f t="shared" si="18"/>
         <v>1054.4667561291733</v>
       </c>
@@ -37243,7 +37290,7 @@
         <v>1.3570046268801607E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="15">
+    <row r="39" spans="1:17">
       <c r="O39" s="89">
         <f>1-SUM(O26:O38)</f>
         <v>0.32942878750000004</v>
@@ -37253,7 +37300,7 @@
         <v>0.32942878750000004</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="15">
+    <row r="40" spans="1:17">
       <c r="O40" s="89">
         <f>SUM(O26:O39)</f>
         <v>1</v>
@@ -37263,15 +37310,21 @@
         <v>0.94089124561200332</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="15"/>
-    <row r="42" spans="1:16" ht="15"/>
-    <row r="43" spans="1:16" ht="15"/>
-    <row r="44" spans="1:16" ht="15"/>
-    <row r="45" spans="1:16" ht="15"/>
-    <row r="46" spans="1:16" ht="15"/>
-    <row r="47" spans="1:16" ht="15"/>
-    <row r="48" spans="1:16" ht="15"/>
-    <row r="49" ht="15"/>
+    <row r="47" spans="1:17">
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="B3:K3 B5:K14">
@@ -38052,7 +38105,7 @@
       </c>
       <c r="N12" s="18">
         <f t="shared" si="0"/>
-        <v>0.14330419776554293</v>
+        <v>0.14330419776554271</v>
       </c>
       <c r="O12" s="18">
         <f t="shared" si="1"/>
@@ -38166,7 +38219,7 @@
       </c>
       <c r="K16" s="19"/>
     </row>
-    <row r="17" spans="1:14" ht="15">
+    <row r="17" spans="1:14">
       <c r="B17" s="1"/>
     </row>
     <row r="18" spans="1:14">
@@ -38215,7 +38268,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="15">
+    <row r="20" spans="1:14">
       <c r="B20" s="1">
         <f>M6*0.7</f>
         <v>96.50200000000001</v>
@@ -38233,7 +38286,7 @@
         <v>5.3388592490603211</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="15">
+    <row r="21" spans="1:14">
       <c r="B21" s="1"/>
     </row>
     <row r="22" spans="1:14">
@@ -38257,7 +38310,7 @@
         <v>1.4681911862424422</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="15">
+    <row r="23" spans="1:14">
       <c r="A23" s="19">
         <f>J7</f>
         <v>6.1076224999999998E-2</v>
@@ -38279,7 +38332,7 @@
         <v>2.4469853104040702</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="15">
+    <row r="24" spans="1:14">
       <c r="B24" s="1">
         <f>M7*0.7</f>
         <v>52.094000000000001</v>
@@ -38297,7 +38350,7 @@
         <v>3.425779434565698</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="15">
+    <row r="25" spans="1:14">
       <c r="B25" s="1"/>
     </row>
     <row r="26" spans="1:14">
@@ -38324,7 +38377,7 @@
         <v>7436</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="15">
+    <row r="27" spans="1:14">
       <c r="A27" s="19">
         <f>J8</f>
         <v>5.6750000000000002E-2</v>
@@ -38355,7 +38408,7 @@
         <v>7430</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="15">
+    <row r="28" spans="1:14">
       <c r="B28" s="1">
         <f>M8*0.7</f>
         <v>36.728999999999999</v>
@@ -38382,7 +38435,7 @@
         <v>7433</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="15">
+    <row r="29" spans="1:14">
       <c r="L29" t="s">
         <v>7434</v>
       </c>
@@ -38414,7 +38467,7 @@
         <v>1.3326428729083153</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="15">
+    <row r="31" spans="1:14">
       <c r="A31" s="19">
         <f>J9</f>
         <v>6.0069037499999992E-2</v>
@@ -38436,7 +38489,7 @@
         <v>2.2210714548471922</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="15">
+    <row r="32" spans="1:14">
       <c r="B32" s="1">
         <f>M9*0.7</f>
         <v>49.790999999999997</v>
@@ -38484,7 +38537,7 @@
         <v>7439</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="15">
+    <row r="35" spans="1:14">
       <c r="A35" s="19">
         <f>J10</f>
         <v>3.70254125E-2</v>
@@ -38515,7 +38568,7 @@
         <v>7440</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="15">
+    <row r="36" spans="1:14">
       <c r="B36" s="1">
         <f>M10*0.7</f>
         <v>84.811999999999998</v>
@@ -38563,7 +38616,7 @@
         <v>1.7542057090280361</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="15">
+    <row r="39" spans="1:14">
       <c r="A39" s="19">
         <f>J11</f>
         <v>2.4E-2</v>
@@ -38585,7 +38638,7 @@
         <v>2.9236761817133932</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="15">
+    <row r="40" spans="1:14">
       <c r="B40" s="1">
         <f>M11*0.7</f>
         <v>2.4499999999999997</v>
@@ -38613,18 +38666,18 @@
       </c>
       <c r="C42" s="21">
         <f>(($N$12+1)*((1+$K$12*$G$2))^C$1)</f>
-        <v>1.3075112004129368</v>
+        <v>1.3075112004129366</v>
       </c>
       <c r="D42" s="21">
         <f>(($N$12+1)*((1+$K$12*$G$2))^D$1)</f>
-        <v>1.4298851779126347</v>
+        <v>1.4298851779126345</v>
       </c>
       <c r="E42" s="21">
         <f>(($N$12+1)*((1+$K$12*$G$2))^E$1)</f>
-        <v>1.5637125107368353</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" ht="15">
+        <v>1.5637125107368348</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
       <c r="A43" s="19">
         <f>J12</f>
         <v>3.1965149999999998E-2</v>
@@ -38646,7 +38699,7 @@
         <v>2.6061875178947251</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="15">
+    <row r="44" spans="1:14">
       <c r="B44" s="1">
         <f>M12*0.7</f>
         <v>3.5279999999999996</v>
@@ -38664,7 +38717,7 @@
         <v>3.6486625250526141</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="15">
+    <row r="45" spans="1:14">
       <c r="B45" s="1"/>
       <c r="C45" s="21"/>
       <c r="D45" s="21"/>
@@ -38690,7 +38743,7 @@
         <v>1.3283</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="15">
+    <row r="47" spans="1:14">
       <c r="A47" s="19">
         <f>J13</f>
         <v>1.225E-2</v>
@@ -38711,7 +38764,7 @@
         <v>1.3283</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="15">
+    <row r="48" spans="1:14">
       <c r="B48">
         <v>1.0468999999999999</v>
       </c>
@@ -38745,7 +38798,7 @@
         <v>1.1369</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="15">
+    <row r="51" spans="1:5">
       <c r="A51" s="19">
         <f>J14</f>
         <v>2.4E-2</v>
@@ -38763,7 +38816,7 @@
         <v>1.1369</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="15">
+    <row r="52" spans="1:5">
       <c r="B52">
         <v>1.1369</v>
       </c>
@@ -38797,7 +38850,7 @@
         <v>1.4550000000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="15">
+    <row r="55" spans="1:5">
       <c r="A55" s="19">
         <f>J15</f>
         <v>2.3474862499999999E-2</v>
@@ -38818,7 +38871,7 @@
         <v>1.4550000000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="15">
+    <row r="56" spans="1:5">
       <c r="B56">
         <v>1.0649999999999999</v>
       </c>
@@ -39797,7 +39850,7 @@
         <v>8.0399999999999999E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="15">
+    <row r="17" spans="1:22">
       <c r="A17" s="80" t="s">
         <v>44</v>
       </c>
@@ -39806,7 +39859,7 @@
         <v>6.0299999999999999E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:22" ht="15">
+    <row r="18" spans="1:22">
       <c r="A18" s="80" t="s">
         <v>40</v>
       </c>
@@ -39815,7 +39868,7 @@
         <v>4.02E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="15">
+    <row r="19" spans="1:22">
       <c r="A19" s="80" t="s">
         <v>18</v>
       </c>
@@ -39824,7 +39877,7 @@
         <v>0.15410000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:22" ht="15">
+    <row r="20" spans="1:22">
       <c r="A20" s="80" t="s">
         <v>19</v>
       </c>
@@ -39949,83 +40002,83 @@
       <c r="K27" s="18"/>
       <c r="N27" s="18"/>
     </row>
-    <row r="28" spans="1:22" ht="15">
+    <row r="28" spans="1:22">
       <c r="K28" s="18"/>
       <c r="N28" s="18"/>
     </row>
-    <row r="29" spans="1:22" ht="15">
+    <row r="29" spans="1:22">
       <c r="K29" s="18"/>
       <c r="N29" s="18"/>
     </row>
-    <row r="30" spans="1:22" ht="15">
+    <row r="30" spans="1:22">
       <c r="K30" s="18"/>
       <c r="N30" s="18"/>
     </row>
-    <row r="31" spans="1:22" ht="15">
+    <row r="31" spans="1:22">
       <c r="K31" s="18"/>
       <c r="N31" s="18"/>
     </row>
-    <row r="32" spans="1:22" ht="15">
+    <row r="32" spans="1:22">
       <c r="K32" s="18"/>
       <c r="N32" s="18"/>
     </row>
-    <row r="33" spans="11:14" ht="15">
+    <row r="33" spans="11:14">
       <c r="K33" s="18"/>
       <c r="N33" s="18"/>
     </row>
-    <row r="34" spans="11:14" ht="15">
+    <row r="34" spans="11:14">
       <c r="K34" s="18"/>
       <c r="N34" s="18"/>
     </row>
-    <row r="35" spans="11:14" ht="15">
+    <row r="35" spans="11:14">
       <c r="K35" s="18"/>
       <c r="N35" s="18"/>
     </row>
-    <row r="36" spans="11:14" ht="15">
+    <row r="36" spans="11:14">
       <c r="K36" s="18"/>
       <c r="N36" s="18"/>
     </row>
-    <row r="37" spans="11:14" ht="15">
+    <row r="37" spans="11:14">
       <c r="K37" s="18"/>
       <c r="N37" s="18"/>
     </row>
-    <row r="38" spans="11:14" ht="15">
+    <row r="38" spans="11:14">
       <c r="K38" s="18"/>
       <c r="N38" s="18"/>
     </row>
-    <row r="39" spans="11:14" ht="15">
+    <row r="39" spans="11:14">
       <c r="K39" s="18"/>
       <c r="N39" s="18"/>
     </row>
-    <row r="40" spans="11:14" ht="15">
+    <row r="40" spans="11:14">
       <c r="K40" s="18"/>
       <c r="N40" s="18"/>
     </row>
-    <row r="41" spans="11:14" ht="15">
+    <row r="41" spans="11:14">
       <c r="K41" s="18"/>
       <c r="N41" s="18"/>
     </row>
-    <row r="42" spans="11:14" ht="15">
+    <row r="42" spans="11:14">
       <c r="K42" s="18"/>
       <c r="N42" s="18"/>
     </row>
-    <row r="43" spans="11:14" ht="15">
+    <row r="43" spans="11:14">
       <c r="K43" s="18"/>
       <c r="N43" s="18"/>
     </row>
-    <row r="44" spans="11:14" ht="15">
+    <row r="44" spans="11:14">
       <c r="K44" s="18"/>
       <c r="N44" s="18"/>
     </row>
-    <row r="45" spans="11:14" ht="15">
+    <row r="45" spans="11:14">
       <c r="K45" s="18"/>
       <c r="N45" s="18"/>
     </row>
-    <row r="46" spans="11:14" ht="15">
+    <row r="46" spans="11:14">
       <c r="K46" s="18"/>
       <c r="N46" s="18"/>
     </row>
-    <row r="47" spans="11:14" ht="15">
+    <row r="47" spans="11:14">
       <c r="K47" s="18"/>
       <c r="N47" s="18"/>
     </row>

--- a/Portfolio/ETF计划 XIRR 已投入收益率计算.xlsx
+++ b/Portfolio/ETF计划 XIRR 已投入收益率计算.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="21600" windowHeight="13740"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="21600" windowHeight="13740" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="已投部分年化收益率" sheetId="1" r:id="rId1"/>
@@ -138,6 +138,20 @@
         </r>
       </text>
     </comment>
+    <comment ref="T88" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <charset val="128"/>
+          </rPr>
+          <t>单位、累计净值不同</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -224,7 +238,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15439" uniqueCount="7476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15541" uniqueCount="7482">
   <si>
     <t>日期</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -23269,6 +23283,24 @@
     <t>003765</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>2018-11-02</t>
+  </si>
+  <si>
+    <t>全指金融</t>
+  </si>
+  <si>
+    <t>全指消费</t>
+  </si>
+  <si>
+    <t>HSI</t>
+  </si>
+  <si>
+    <t>GDAXI_U</t>
+  </si>
+  <si>
+    <t>广发创业板场外</t>
+  </si>
 </sst>
 </file>
 
@@ -23282,7 +23314,7 @@
     <numFmt numFmtId="180" formatCode="0.00_ "/>
     <numFmt numFmtId="181" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -23400,6 +23432,13 @@
       <color indexed="81"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="11">
@@ -24478,9 +24517,6 @@
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -24500,6 +24536,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -24704,27 +24743,7 @@
     <cellStyle name="已访问的超链接" xfId="196" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="198" builtinId="9" hidden="1"/>
   </cellStyles>
-  <dxfs count="58">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="54">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -25385,31 +25404,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>10.36193626133454</c:v>
+                  <c:v>10.529610466280637</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.536463478335202</c:v>
+                  <c:v>11.264039473536005</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22.627504244054737</c:v>
+                  <c:v>23.143833381245198</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>27.822537267324179</c:v>
+                  <c:v>27.850928085705149</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31.084335611636959</c:v>
+                  <c:v>31.203990960651826</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>29.334793714838217</c:v>
+                  <c:v>29.443598214563757</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>23.452498558068552</c:v>
+                  <c:v>23.599774851738808</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>25.983136758016428</c:v>
+                  <c:v>26.099457852375178</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>28.553373259232707</c:v>
+                  <c:v>28.590147584446218</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -25802,6 +25821,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -25951,6 +25971,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -25980,6 +26001,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -26171,6 +26193,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -26634,8 +26657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="J79" sqref="J79"/>
+    <sheetView topLeftCell="H49" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="S83" sqref="S83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -26760,14 +26783,14 @@
       </c>
       <c r="S2" s="18">
         <f>(SUM(S4:S7) - SUM(Q4:Q7))/$Q$2</f>
-        <v>-9.4913044744791703E-2</v>
+        <v>-6.1160957244791786E-2</v>
       </c>
       <c r="T2" s="18" t="s">
         <v>213</v>
       </c>
       <c r="U2" s="18">
         <f>(SUM(S4:S6) - SUM(Q4:Q6))/SUM(Q4:Q6)</f>
-        <v>-0.1436835675810163</v>
+        <v>-0.10051947806141805</v>
       </c>
     </row>
     <row r="3" spans="1:27">
@@ -26794,19 +26817,19 @@
       </c>
       <c r="H3" s="21">
         <f>$F3*$T$20</f>
-        <v>29.849932675044883</v>
+        <v>30.013342149220485</v>
       </c>
       <c r="I3" s="21">
         <f>$F3*$V$20</f>
-        <v>3.4374775583482942</v>
+        <v>3.4484340200445431</v>
       </c>
       <c r="J3" s="21">
         <f t="shared" ref="J3:J66" si="0">H3*(-$M3)</f>
-        <v>220889.50179533212</v>
+        <v>222098.73190423159</v>
       </c>
       <c r="K3" s="21">
         <f t="shared" ref="K3:K66" si="1">I3*(-$M3)</f>
-        <v>25437.333931777375</v>
+        <v>25518.411748329618</v>
       </c>
       <c r="L3" s="7" t="s">
         <v>10</v>
@@ -26859,19 +26882,19 @@
       </c>
       <c r="H4" s="21">
         <f>F4*$T$13</f>
-        <v>9.8854574132492115</v>
+        <v>10.045421359223299</v>
       </c>
       <c r="I4" s="21">
         <f>F4*$V$13</f>
-        <v>1.1497003154574132</v>
+        <v>1.1613203883495145</v>
       </c>
       <c r="J4" s="21">
         <f t="shared" si="0"/>
-        <v>39146.411356466881</v>
+        <v>39779.868582524265</v>
       </c>
       <c r="K4" s="21">
         <f t="shared" si="1"/>
-        <v>4552.8132492113564</v>
+        <v>4598.8287378640771</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>10</v>
@@ -26891,15 +26914,15 @@
         <v>244182.29</v>
       </c>
       <c r="R4" s="52">
-        <v>-12690.14</v>
+        <v>-2662.95</v>
       </c>
       <c r="S4" s="69">
         <f>Q4+R4</f>
-        <v>231492.15000000002</v>
+        <v>241519.34</v>
       </c>
       <c r="T4" s="26">
         <f>S4/Q4-1</f>
-        <v>-5.1969944257628131E-2</v>
+        <v>-1.0905582055111385E-2</v>
       </c>
     </row>
     <row r="5" spans="1:27">
@@ -26926,19 +26949,19 @@
       </c>
       <c r="H5" s="21">
         <f>E5*$T$21</f>
-        <v>23.745744680851065</v>
+        <v>23.894862492685782</v>
       </c>
       <c r="I5" s="21">
         <f>E5*$V$21</f>
-        <v>2.9130023640661937</v>
+        <v>2.9307138677589228</v>
       </c>
       <c r="J5" s="21">
         <f t="shared" si="0"/>
-        <v>94033.148936170212</v>
+        <v>94623.655471035701</v>
       </c>
       <c r="K5" s="21">
         <f t="shared" si="1"/>
-        <v>11535.489361702128</v>
+        <v>11605.626916325335</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>10</v>
@@ -26958,15 +26981,15 @@
         <v>12000</v>
       </c>
       <c r="R5" s="52">
-        <v>-3993.8</v>
+        <v>-3598.92</v>
       </c>
       <c r="S5" s="69">
         <f>Q5+R5</f>
-        <v>8006.2</v>
+        <v>8401.08</v>
       </c>
       <c r="T5" s="26">
         <f>S5/Q5-1</f>
-        <v>-0.33281666666666665</v>
+        <v>-0.29991000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:27">
@@ -27019,16 +27042,16 @@
         <v>369376.37</v>
       </c>
       <c r="R6" s="52">
-        <f>-73198.56</f>
-        <v>-73198.559999999998</v>
+        <f>-56618.96</f>
+        <v>-56618.96</v>
       </c>
       <c r="S6" s="69">
         <f>Q6+R6</f>
-        <v>296177.81</v>
+        <v>312757.40999999997</v>
       </c>
       <c r="T6" s="26">
         <f>S6/Q6-1</f>
-        <v>-0.19816795535675436</v>
+        <v>-0.15328257191980099</v>
       </c>
       <c r="W6" s="72"/>
     </row>
@@ -27056,19 +27079,19 @@
       </c>
       <c r="H7" s="21">
         <f>F7*$T$20</f>
-        <v>31.140947037701977</v>
+        <v>31.311423997772827</v>
       </c>
       <c r="I7" s="21">
         <f>F7*$V$20</f>
-        <v>3.5861490125673248</v>
+        <v>3.5975793429844098</v>
       </c>
       <c r="J7" s="21">
         <f t="shared" si="0"/>
-        <v>123318.15026929983</v>
+        <v>123993.23903118039</v>
       </c>
       <c r="K7" s="21">
         <f t="shared" si="1"/>
-        <v>14201.150089766606</v>
+        <v>14246.414198218263</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>10</v>
@@ -27124,19 +27147,19 @@
       </c>
       <c r="H8" s="21">
         <f>F8*$T$21</f>
-        <v>24.691119820828668</v>
+        <v>24.846174370977181</v>
       </c>
       <c r="I8" s="21">
         <f>E8*$V$21</f>
-        <v>3.0289759860644518</v>
+        <v>3.0473926272674077</v>
       </c>
       <c r="J8" s="21">
         <f t="shared" si="0"/>
-        <v>97776.834490481531</v>
+        <v>98390.850509069642</v>
       </c>
       <c r="K8" s="21">
         <f t="shared" si="1"/>
-        <v>11994.744904815228</v>
+        <v>12067.674803978935</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>10</v>
@@ -27219,19 +27242,19 @@
       </c>
       <c r="H10" s="21">
         <f>F10*$T$21</f>
-        <v>24.582228443449047</v>
+        <v>24.736599180807488</v>
       </c>
       <c r="I10" s="21">
         <f>E10*$V$21</f>
-        <v>3.015617767823815</v>
+        <v>3.0339531889994142</v>
       </c>
       <c r="J10" s="21">
         <f t="shared" si="0"/>
-        <v>97345.62463605823</v>
+        <v>97956.932755997652</v>
       </c>
       <c r="K10" s="21">
         <f t="shared" si="1"/>
-        <v>11941.846360582307</v>
+        <v>12014.454628437681</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>10</v>
@@ -27268,19 +27291,19 @@
       </c>
       <c r="H11" s="21">
         <f>F11*$T$19</f>
-        <v>30.861229469732525</v>
+        <v>30.890055632823366</v>
       </c>
       <c r="I11" s="21">
         <f>F11*$V$19</f>
-        <v>3.5539371187236046</v>
+        <v>3.5491655076495126</v>
       </c>
       <c r="J11" s="21">
         <f t="shared" si="0"/>
-        <v>123247.4060103238</v>
+        <v>123362.52617524339</v>
       </c>
       <c r="K11" s="21">
         <f t="shared" si="1"/>
-        <v>14193.003277334587</v>
+        <v>14173.947371349093</v>
       </c>
       <c r="L11" s="5" t="s">
         <v>24</v>
@@ -27298,7 +27321,7 @@
         <v>55</v>
       </c>
       <c r="S11" s="15">
-        <v>43397</v>
+        <v>43407</v>
       </c>
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
@@ -27329,19 +27352,19 @@
       </c>
       <c r="H12" s="21">
         <f>F12*$T$16</f>
-        <v>25.526143061260939</v>
+        <v>26.106394759087063</v>
       </c>
       <c r="I12" s="21">
         <f>F12*$V$16</f>
-        <v>2.2416726201107342</v>
+        <v>2.2314327979712592</v>
       </c>
       <c r="J12" s="21">
         <f t="shared" si="0"/>
-        <v>99234.923242096804</v>
+        <v>101490.69813753168</v>
       </c>
       <c r="K12" s="21">
         <f t="shared" si="1"/>
-        <v>8714.6816444900887</v>
+        <v>8674.8735167371069</v>
       </c>
       <c r="L12" s="5" t="s">
         <v>24</v>
@@ -27412,19 +27435,19 @@
       </c>
       <c r="H13" s="21">
         <f>F13*$T$19</f>
-        <v>30.885190051618959</v>
+        <v>30.914038595271204</v>
       </c>
       <c r="I13" s="21">
         <f>F13*$V$19</f>
-        <v>3.556696386672924</v>
+        <v>3.5519210709318489</v>
       </c>
       <c r="J13" s="21">
         <f t="shared" si="0"/>
-        <v>123438.83907930549</v>
+        <v>123554.13805372042</v>
       </c>
       <c r="K13" s="21">
         <f t="shared" si="1"/>
-        <v>14215.048448615675</v>
+        <v>14195.962944193319</v>
       </c>
       <c r="L13" s="5" t="s">
         <v>24</v>
@@ -27443,32 +27466,32 @@
         <v>100032</v>
       </c>
       <c r="R13" s="64">
-        <v>2.536</v>
+        <v>2.5750000000000002</v>
       </c>
       <c r="S13" s="57">
-        <v>10.06</v>
+        <v>10.38</v>
       </c>
       <c r="T13" s="58">
         <f t="shared" ref="T13:T25" si="2">S13/R13</f>
-        <v>3.966876971608833</v>
+        <v>4.0310679611650482</v>
       </c>
       <c r="U13" s="57">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="V13" s="58">
         <f>U13/R13</f>
-        <v>0.46135646687697157</v>
+        <v>0.46601941747572811</v>
       </c>
       <c r="W13" s="87">
-        <v>0.1166</v>
+        <v>0.1153</v>
       </c>
       <c r="X13" s="75">
         <f>SUMIF(C:C,"=红利",J:J)/SUMIF(C:C,"=红利",M:M)*-1</f>
-        <v>10.36193626133454</v>
+        <v>10.529610466280637</v>
       </c>
       <c r="Y13" s="75">
         <f>SUMIF(C:C,"=红利",K:K)/SUMIF(C:C,"=红利",M:M)*-1</f>
-        <v>1.205115847491194</v>
+        <v>1.2172960076625015</v>
       </c>
       <c r="Z13" s="59">
         <f>(SUMIF(C:C,"=红利",M:M)*-1)/$Q$2</f>
@@ -27500,19 +27523,19 @@
       </c>
       <c r="H14" s="21">
         <f>F14*$T$16</f>
-        <v>23.949968744418648</v>
+        <v>24.494391377852917</v>
       </c>
       <c r="I14" s="21">
         <f>F14*$V$16</f>
-        <v>2.1032550455438477</v>
+        <v>2.0936475063398139</v>
       </c>
       <c r="J14" s="21">
         <f t="shared" si="0"/>
-        <v>87340.746017145924</v>
+        <v>89326.146476754016</v>
       </c>
       <c r="K14" s="21">
         <f t="shared" si="1"/>
-        <v>7670.1505000893039</v>
+        <v>7635.1137261200338</v>
       </c>
       <c r="L14" s="5" t="s">
         <v>24</v>
@@ -27531,32 +27554,32 @@
         <v>510050</v>
       </c>
       <c r="R14" s="64">
-        <v>2.464</v>
+        <v>2.593</v>
       </c>
       <c r="S14" s="57">
-        <v>9.57</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="T14" s="58">
         <f t="shared" si="2"/>
-        <v>3.8839285714285716</v>
+        <v>3.740840725028924</v>
       </c>
       <c r="U14" s="57">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="V14" s="58">
         <f t="shared" ref="V14:V37" si="3">U14/R14</f>
-        <v>0.47889610389610388</v>
+        <v>0.45892788276128038</v>
       </c>
       <c r="W14" s="87">
-        <v>0.12280000000000001</v>
+        <v>0.12230000000000001</v>
       </c>
       <c r="X14" s="75">
         <f>SUMIF(C:C,"=50ETF",J:J)/SUMIF(C:C,"=50ETF",M:M)*-1</f>
-        <v>9.2670535714285727</v>
+        <v>8.9256459699190138</v>
       </c>
       <c r="Y14" s="75">
         <f>SUMIF(C:C,"=50ETF",K:K)/SUMIF(C:C,"=50ETF",M:M)*-1</f>
-        <v>1.142646103896104</v>
+        <v>1.0950019282684151</v>
       </c>
       <c r="Z14" s="59">
         <f>(SUMIF(C:C,"=50ETF",M:M)*-1)/$Q$2</f>
@@ -27588,19 +27611,19 @@
       </c>
       <c r="H15" s="21">
         <f>F15*$T$21</f>
-        <v>24.64657334826428</v>
+        <v>24.801348156816854</v>
       </c>
       <c r="I15" s="21">
         <f>E15*$V$21</f>
-        <v>3.023511260420555</v>
+        <v>3.0418946752486828</v>
       </c>
       <c r="J15" s="21">
         <f t="shared" si="0"/>
-        <v>195200.86091825311</v>
+        <v>196426.67740198949</v>
       </c>
       <c r="K15" s="21">
         <f t="shared" si="1"/>
-        <v>23946.209182530794</v>
+        <v>24091.805827969569</v>
       </c>
       <c r="L15" s="7" t="s">
         <v>10</v>
@@ -27619,32 +27642,32 @@
         <v>510300</v>
       </c>
       <c r="R15" s="64">
-        <v>3.1697000000000002</v>
+        <v>3.3540999999999999</v>
       </c>
       <c r="S15" s="57">
-        <v>10.74</v>
+        <v>11.07</v>
       </c>
       <c r="T15" s="58">
         <f t="shared" si="2"/>
-        <v>3.3883332807521214</v>
+        <v>3.3004382695805137</v>
       </c>
       <c r="U15" s="57">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="V15" s="58">
         <f t="shared" si="3"/>
-        <v>0.41013345111524752</v>
+        <v>0.39951104618228439</v>
       </c>
       <c r="W15" s="87">
-        <v>0.1215</v>
+        <v>0.1206</v>
       </c>
       <c r="X15" s="75">
         <f>SUMIF(C:C,"=300ETF",J:J)/SUMIF(C:C,"=300ETF",M:M)*-1</f>
-        <v>11.536463478335202</v>
+        <v>11.264039473536005</v>
       </c>
       <c r="Y15" s="75">
         <f>SUMIF(C:C,"=300ETF",K:K)/SUMIF(C:C,"=300ETF",M:M)*-1</f>
-        <v>1.3964061938394567</v>
+        <v>1.3634880663539517</v>
       </c>
       <c r="Z15" s="59">
         <f>(SUMIF(C:C,"=300ETF",M:M)*-1)/$Q$2</f>
@@ -27676,19 +27699,19 @@
       </c>
       <c r="H16" s="21">
         <f>F16*$T$19</f>
-        <v>30.094490849366498</v>
+        <v>30.122600834492349</v>
       </c>
       <c r="I16" s="21">
         <f>F16*$V$19</f>
-        <v>3.4656405443453782</v>
+        <v>3.4609874826147422</v>
       </c>
       <c r="J16" s="21">
         <f t="shared" si="0"/>
-        <v>117175.90957109339</v>
+        <v>117285.35860917941</v>
       </c>
       <c r="K16" s="21">
         <f t="shared" si="1"/>
-        <v>13493.818023463164</v>
+        <v>13475.70086230876</v>
       </c>
       <c r="L16" s="5" t="s">
         <v>24</v>
@@ -27707,32 +27730,32 @@
         <v>510500</v>
       </c>
       <c r="R16" s="64">
-        <v>4.4791999999999996</v>
+        <v>4.7320000000000002</v>
       </c>
       <c r="S16" s="57">
-        <v>17.649999999999999</v>
+        <v>19.07</v>
       </c>
       <c r="T16" s="58">
         <f t="shared" si="2"/>
-        <v>3.9404357921057334</v>
+        <v>4.0300084530853759</v>
       </c>
       <c r="U16" s="57">
-        <v>1.55</v>
+        <v>1.63</v>
       </c>
       <c r="V16" s="58">
         <f t="shared" si="3"/>
-        <v>0.34604393641721742</v>
+        <v>0.34446322907861365</v>
       </c>
       <c r="W16" s="87">
-        <v>8.7599999999999997E-2</v>
+        <v>8.5500000000000007E-2</v>
       </c>
       <c r="X16" s="75">
         <f>SUMIF(C:C,"=500ETF",J:J)/SUMIF(C:C,"=500ETF",M:M)*-1</f>
-        <v>22.627504244054737</v>
+        <v>23.143833381245198</v>
       </c>
       <c r="Y16" s="75">
         <f>SUMIF(C:C,"=500ETF",K:K)/SUMIF(C:C,"=500ETF",M:M)*-1</f>
-        <v>1.987117936446734</v>
+        <v>1.9782091458536792</v>
       </c>
       <c r="Z16" s="59">
         <f>(SUMIF(C:C,"=500ETF",M:M)*-1)/$Q$2</f>
@@ -27789,32 +27812,32 @@
         <v>512100</v>
       </c>
       <c r="R17" s="64">
-        <v>0.51959999999999995</v>
+        <v>0.54700000000000004</v>
       </c>
       <c r="S17" s="57">
-        <v>19.7</v>
+        <v>20.76</v>
       </c>
       <c r="T17" s="58">
         <f t="shared" si="2"/>
-        <v>37.913779830638958</v>
+        <v>37.952468007312618</v>
       </c>
       <c r="U17" s="57">
-        <v>1.76</v>
+        <v>1.84</v>
       </c>
       <c r="V17" s="58">
         <f t="shared" si="3"/>
-        <v>3.387220939183988</v>
+        <v>3.363802559414991</v>
       </c>
       <c r="W17" s="87">
-        <v>8.9099999999999999E-2</v>
+        <v>8.8800000000000004E-2</v>
       </c>
       <c r="X17" s="75">
         <f>SUMIF(C:C,"=1000ETF",J:J)/SUMIF(C:C,"=1000ETF",M:M)*-1</f>
-        <v>27.822537267324179</v>
+        <v>27.850928085705149</v>
       </c>
       <c r="Y17" s="75">
         <f>SUMIF(C:C,"=1000ETF",K:K)/SUMIF(C:C,"=1000ETF",M:M)*-1</f>
-        <v>2.4856683040858156</v>
+        <v>2.4684830287908222</v>
       </c>
       <c r="Z17" s="59">
         <f>(SUMIF(C:C,"=1000ETF",M:M)*-1)/$Q$2</f>
@@ -27846,19 +27869,19 @@
       </c>
       <c r="H18" s="21">
         <f>F18*$T$13</f>
-        <v>10.071900630914827</v>
+        <v>10.234881553398058</v>
       </c>
       <c r="I18" s="21">
         <f>F18*$V$13</f>
-        <v>1.1713840694006308</v>
+        <v>1.1832233009708737</v>
       </c>
       <c r="J18" s="21">
         <f t="shared" si="0"/>
-        <v>39884.726498422715</v>
+        <v>40530.130951456311</v>
       </c>
       <c r="K18" s="21">
         <f t="shared" si="1"/>
-        <v>4638.6809148264983</v>
+        <v>4685.5642718446597</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>10</v>
@@ -27877,32 +27900,32 @@
         <v>159915</v>
       </c>
       <c r="R18" s="64">
-        <v>1.2033</v>
+        <v>1.2868999999999999</v>
       </c>
       <c r="S18" s="57">
-        <v>28</v>
+        <v>30.01</v>
       </c>
       <c r="T18" s="58">
         <f t="shared" si="2"/>
-        <v>23.269342641070388</v>
+        <v>23.319605252933407</v>
       </c>
       <c r="U18" s="57">
-        <v>3.26</v>
+        <v>3.49</v>
       </c>
       <c r="V18" s="58">
         <f t="shared" si="3"/>
-        <v>2.7092163217817666</v>
+        <v>2.711943429947937</v>
       </c>
       <c r="W18" s="87">
         <v>0.1163</v>
       </c>
       <c r="X18" s="75">
         <f>SUMIF(C:C,"=创业板",J:J)/SUMIF(C:C,"=创业板",M:M)*-1</f>
-        <v>31.084335611636959</v>
+        <v>31.203990960651826</v>
       </c>
       <c r="Y18" s="75">
         <f>SUMIF(C:C,"=创业板",K:K)/SUMIF(C:C,"=创业板",M:M)*-1</f>
-        <v>3.6191047890691603</v>
+        <v>3.6288546635346504</v>
       </c>
       <c r="Z18" s="59">
         <f>(SUMIF(C:C,"=创业板",M:M)*-1)/$Q$2</f>
@@ -27959,34 +27982,34 @@
         <v>159938</v>
       </c>
       <c r="R19" s="64">
-        <v>1.0654999999999999</v>
+        <v>1.1504000000000001</v>
       </c>
       <c r="S19" s="57">
-        <v>25.53</v>
+        <v>27.59</v>
       </c>
       <c r="T19" s="58">
         <f t="shared" si="2"/>
-        <v>23.960581886438295</v>
+        <v>23.982962447844226</v>
       </c>
       <c r="U19" s="57">
-        <v>2.94</v>
+        <v>3.17</v>
       </c>
       <c r="V19" s="58">
         <f t="shared" si="3"/>
-        <v>2.7592679493195686</v>
+        <v>2.7555632823365781</v>
       </c>
       <c r="W19" s="87">
-        <v>0.1153</v>
+        <v>0.1149</v>
       </c>
       <c r="X19" s="75">
         <f>SUMIF(C:C,"=医药",J:J)/SUMIF(C:C,"=医药",M:M)*-1</f>
-        <v>29.334793714838217</v>
+        <v>29.443598214563757</v>
       </c>
       <c r="Y19" s="75">
         <f>SUMIF(C:C,"=医药",K:K)/SUMIF(C:C,"=医药",M:M)*-1</f>
-        <v>3.378154857877961</v>
-      </c>
-      <c r="Z19" s="110">
+        <v>3.3829723211369012</v>
+      </c>
+      <c r="Z19" s="109">
         <f>(SUMIF(C:C,"=医药",M:M)*-1)/$Q$2</f>
         <v>6.1076224999999998E-2</v>
       </c>
@@ -28016,19 +28039,19 @@
       </c>
       <c r="H20" s="21">
         <f>F20*$T$16</f>
-        <v>25.947769691016255</v>
+        <v>26.537605663567199</v>
       </c>
       <c r="I20" s="21">
         <f>F20*$V$16</f>
-        <v>2.2786993213073767</v>
+        <v>2.268290363482671</v>
       </c>
       <c r="J20" s="21">
         <f t="shared" si="0"/>
-        <v>205080.27357452226</v>
+        <v>209742.08937045644</v>
       </c>
       <c r="K20" s="21">
         <f t="shared" si="1"/>
-        <v>18009.882381898555</v>
+        <v>17927.61435101437</v>
       </c>
       <c r="L20" s="5" t="s">
         <v>24</v>
@@ -28047,34 +28070,34 @@
         <v>189</v>
       </c>
       <c r="R20" s="64">
-        <v>0.66839999999999999</v>
+        <v>0.71840000000000004</v>
       </c>
       <c r="S20" s="57">
-        <v>25.53</v>
+        <v>27.59</v>
       </c>
       <c r="T20" s="58">
         <f t="shared" si="2"/>
-        <v>38.195691202872531</v>
+        <v>38.404788418708236</v>
       </c>
       <c r="U20" s="57">
-        <v>2.94</v>
+        <v>3.17</v>
       </c>
       <c r="V20" s="58">
         <f t="shared" si="3"/>
-        <v>4.3985637342908435</v>
+        <v>4.4125835189309575</v>
       </c>
       <c r="W20" s="87">
-        <v>0.1153</v>
+        <v>0.1149</v>
       </c>
       <c r="X20" s="75">
         <f>SUMIF(C:C,"=医药",J:J)/SUMIF(C:C,"=医药",M:M)*-1</f>
-        <v>29.334793714838217</v>
+        <v>29.443598214563757</v>
       </c>
       <c r="Y20" s="75">
         <f>SUMIF(C:C,"=医药",K:K)/SUMIF(C:C,"=医药",M:M)*-1</f>
-        <v>3.378154857877961</v>
-      </c>
-      <c r="Z20" s="111"/>
+        <v>3.3829723211369012</v>
+      </c>
+      <c r="Z20" s="110"/>
       <c r="AA20" s="2"/>
     </row>
     <row r="21" spans="1:27">
@@ -28101,19 +28124,19 @@
       </c>
       <c r="H21" s="21">
         <f>F21*$T$24</f>
-        <v>30.394815047021943</v>
+        <v>30.588163712407887</v>
       </c>
       <c r="I21" s="21">
         <f>F21*$V$24</f>
-        <v>2.4405768025078372</v>
+        <v>2.4635789683330014</v>
       </c>
       <c r="J21" s="21">
         <f t="shared" si="0"/>
-        <v>121579.26018808778</v>
+        <v>122352.65484963155</v>
       </c>
       <c r="K21" s="21">
         <f t="shared" si="1"/>
-        <v>9762.3072100313493</v>
+        <v>9854.3158733320051</v>
       </c>
       <c r="L21" s="6" t="s">
         <v>16</v>
@@ -28132,32 +28155,32 @@
         <v>105</v>
       </c>
       <c r="R21" s="64">
-        <v>0.80369999999999997</v>
+        <v>0.85450000000000004</v>
       </c>
       <c r="S21" s="57">
-        <v>19.89</v>
+        <v>21.28</v>
       </c>
       <c r="T21" s="58">
         <f t="shared" si="2"/>
-        <v>24.748040313549833</v>
+        <v>24.903452311293155</v>
       </c>
       <c r="U21" s="57">
-        <v>2.44</v>
+        <v>2.61</v>
       </c>
       <c r="V21" s="58">
         <f t="shared" si="3"/>
-        <v>3.0359586910538758</v>
+        <v>3.0544177881802219</v>
       </c>
       <c r="W21" s="87">
-        <v>0.1227</v>
+        <v>0.1226</v>
       </c>
       <c r="X21" s="75">
         <f>SUMIF(C:C,"=养老",J:J)/SUMIF(C:C,"=养老",M:M)*-1</f>
-        <v>23.452498558068552</v>
+        <v>23.599774851738808</v>
       </c>
       <c r="Y21" s="75">
         <f>SUMIF(C:C,"=养老",K:K)/SUMIF(C:C,"=养老",M:M)*-1</f>
-        <v>2.8384307788831866</v>
+        <v>2.8556888758356278</v>
       </c>
       <c r="Z21" s="59">
         <f>(SUMIF(C:C,"=养老",M:M)*-1)/$Q$2</f>
@@ -28189,19 +28212,19 @@
       </c>
       <c r="H22" s="21">
         <f>F22*$T$16</f>
-        <v>25.376406501160925</v>
+        <v>25.953254437869823</v>
       </c>
       <c r="I22" s="21">
         <f t="shared" ref="I22:I23" si="4">F22*$V$16</f>
-        <v>2.2285229505268802</v>
+        <v>2.218343195266272</v>
       </c>
       <c r="J22" s="21">
         <f t="shared" si="0"/>
-        <v>98073.974553491717</v>
+        <v>100303.35915384616</v>
       </c>
       <c r="K22" s="21">
         <f t="shared" si="1"/>
-        <v>8612.7286435077713</v>
+        <v>8573.3862307692307</v>
       </c>
       <c r="L22" s="5" t="s">
         <v>24</v>
@@ -28220,32 +28243,32 @@
         <v>512880</v>
       </c>
       <c r="R22" s="64">
-        <v>0.75900000000000001</v>
+        <v>0.77810000000000001</v>
       </c>
       <c r="S22" s="57">
-        <v>22.21</v>
+        <v>24.46</v>
       </c>
       <c r="T22" s="58">
         <f t="shared" si="2"/>
-        <v>29.262187088274047</v>
+        <v>31.435548130060404</v>
       </c>
       <c r="U22" s="57">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="V22" s="58">
         <f t="shared" si="3"/>
-        <v>1.6205533596837944</v>
+        <v>1.6064773165402904</v>
       </c>
       <c r="W22" s="87">
-        <v>5.5500000000000001E-2</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="X22" s="75">
         <f>SUMIF(C:C,"=证券",J:J)/SUMIF(C:C,"=证券",M:M)*-1</f>
-        <v>23.318468896545742</v>
+        <v>25.050378124689789</v>
       </c>
       <c r="Y22" s="75">
         <f>SUMIF(C:C,"=证券",K:K)/SUMIF(C:C,"=证券",M:M)*-1</f>
-        <v>1.2913875165579136</v>
+        <v>1.2801705910000913</v>
       </c>
       <c r="Z22" s="59">
         <f>(SUMIF(C:C,"=证券",M:M)*-1)/$Q$2</f>
@@ -28277,19 +28300,19 @@
       </c>
       <c r="H23" s="21">
         <f>F23*$T$16</f>
-        <v>25.904424897303091</v>
+        <v>26.493275570583261</v>
       </c>
       <c r="I23" s="21">
         <f t="shared" si="4"/>
-        <v>2.2748928380067874</v>
+        <v>2.2645012679628063</v>
       </c>
       <c r="J23" s="21">
         <f t="shared" si="0"/>
-        <v>102197.87806059119</v>
+        <v>104521.00584830937</v>
       </c>
       <c r="K23" s="21">
         <f t="shared" si="1"/>
-        <v>8974.8844755759983</v>
+        <v>8933.8877573541831</v>
       </c>
       <c r="L23" s="5" t="s">
         <v>24</v>
@@ -28308,34 +28331,34 @@
         <v>512580</v>
       </c>
       <c r="R23" s="64">
-        <v>0.62919999999999998</v>
+        <v>0.66220000000000001</v>
       </c>
       <c r="S23" s="57">
-        <v>18.93</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="T23" s="58">
         <f t="shared" si="2"/>
-        <v>30.085823267641452</v>
+        <v>30.187254605859255</v>
       </c>
       <c r="U23" s="57">
-        <v>1.52</v>
+        <v>1.61</v>
       </c>
       <c r="V23" s="58">
         <f t="shared" si="3"/>
-        <v>2.4157660521296886</v>
+        <v>2.4312896405919662</v>
       </c>
       <c r="W23" s="87">
         <v>8.0399999999999999E-2</v>
       </c>
       <c r="X23" s="75">
         <f>SUMIF(C:C,"=环保",J:J)/SUMIF(C:C,"=环保",M:M)*-1</f>
-        <v>25.983136758016428</v>
+        <v>26.099457852375178</v>
       </c>
       <c r="Y23" s="75">
         <f>SUMIF(C:C,"=环保",K:K)/SUMIF(C:C,"=环保",M:M)*-1</f>
-        <v>2.0863374470250911</v>
-      </c>
-      <c r="Z23" s="110">
+        <v>2.1020573858091067</v>
+      </c>
+      <c r="Z23" s="109">
         <f>(SUMIF(C:C,"=环保",M:M)*-1)/$Q$2</f>
         <v>6.0069037499999992E-2</v>
       </c>
@@ -28365,11 +28388,11 @@
       </c>
       <c r="H24" s="21">
         <f>F24*$T$13</f>
-        <v>11.206427444794954</v>
+        <v>11.387766990291261</v>
       </c>
       <c r="I24" s="21">
         <f>F24*$V$13</f>
-        <v>1.3033320189274449</v>
+        <v>1.3165048543689319</v>
       </c>
       <c r="J24" s="21">
         <f t="shared" si="0"/>
@@ -28396,34 +28419,34 @@
         <v>106</v>
       </c>
       <c r="R24" s="64">
-        <v>0.47849999999999998</v>
+        <v>0.50209999999999999</v>
       </c>
       <c r="S24" s="57">
-        <v>18.93</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="T24" s="58">
         <f t="shared" si="2"/>
-        <v>39.561128526645767</v>
+        <v>39.812786297550289</v>
       </c>
       <c r="U24" s="57">
-        <v>1.52</v>
+        <v>1.61</v>
       </c>
       <c r="V24" s="58">
         <f t="shared" si="3"/>
-        <v>3.1765935214211076</v>
+        <v>3.2065325632344157</v>
       </c>
       <c r="W24" s="87">
         <v>8.0399999999999999E-2</v>
       </c>
       <c r="X24" s="75">
         <f>SUMIF(C:C,"=环保",J:J)/SUMIF(C:C,"=环保",M:M)*-1</f>
-        <v>25.983136758016428</v>
+        <v>26.099457852375178</v>
       </c>
       <c r="Y24" s="75">
         <f>SUMIF(C:C,"=环保",K:K)/SUMIF(C:C,"=环保",M:M)*-1</f>
-        <v>2.0863374470250911</v>
-      </c>
-      <c r="Z24" s="111"/>
+        <v>2.1020573858091067</v>
+      </c>
+      <c r="Z24" s="110"/>
       <c r="AA24" s="2"/>
     </row>
     <row r="25" spans="1:27">
@@ -28450,19 +28473,19 @@
       </c>
       <c r="H25" s="21">
         <f>F25*$T$25</f>
-        <v>32.458196593217686</v>
+        <v>32.5</v>
       </c>
       <c r="I25" s="21">
         <f>F25*$V$25</f>
-        <v>3.7037037037037037</v>
+        <v>3.6988304093567246</v>
       </c>
       <c r="J25" s="21">
         <f t="shared" si="0"/>
-        <v>129858.75293014532</v>
+        <v>130026</v>
       </c>
       <c r="K25" s="21">
         <f t="shared" si="1"/>
-        <v>14817.777777777779</v>
+        <v>14798.280701754384</v>
       </c>
       <c r="L25" s="5" t="s">
         <v>24</v>
@@ -28481,32 +28504,32 @@
         <v>512980</v>
       </c>
       <c r="R25" s="64">
-        <v>0.63990000000000002</v>
+        <v>0.68400000000000005</v>
       </c>
       <c r="S25" s="57">
-        <v>20.77</v>
+        <v>22.23</v>
       </c>
       <c r="T25" s="58">
         <f t="shared" si="2"/>
-        <v>32.458196593217686</v>
+        <v>32.5</v>
       </c>
       <c r="U25" s="57">
-        <v>2.37</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="V25" s="58">
         <f t="shared" si="3"/>
-        <v>3.7037037037037037</v>
+        <v>3.6988304093567246</v>
       </c>
       <c r="W25" s="87">
-        <v>0.1143</v>
+        <v>0.1138</v>
       </c>
       <c r="X25" s="75">
         <f>SUMIF(C:C,"=传媒",J:J)/SUMIF(C:C,"=传媒",M:M)*-1</f>
-        <v>28.553373259232707</v>
+        <v>28.590147584446218</v>
       </c>
       <c r="Y25" s="75">
         <f>SUMIF(C:C,"=传媒",K:K)/SUMIF(C:C,"=传媒",M:M)*-1</f>
-        <v>3.2581364768599688</v>
+        <v>3.2538494551798895</v>
       </c>
       <c r="Z25" s="59">
         <f>(SUMIF(C:C,"=传媒",M:M)*-1)/$Q$2</f>
@@ -28538,19 +28561,19 @@
       </c>
       <c r="H26" s="21">
         <f>F26*$T$16</f>
-        <v>25.415810859081979</v>
+        <v>25.993554522400675</v>
       </c>
       <c r="I26" s="21">
         <f>F26*$V$16</f>
-        <v>2.2319833898910524</v>
+        <v>2.2217878275570579</v>
       </c>
       <c r="J26" s="21">
         <f t="shared" si="0"/>
-        <v>98378.758199008749</v>
+        <v>100615.07103867286</v>
       </c>
       <c r="K26" s="21">
         <f t="shared" si="1"/>
-        <v>8639.4943460885879</v>
+        <v>8600.0296692730335</v>
       </c>
       <c r="L26" s="5" t="s">
         <v>24</v>
@@ -28569,24 +28592,24 @@
         <v>190</v>
       </c>
       <c r="R26" s="64">
-        <v>0.83599999999999997</v>
+        <v>0.877</v>
       </c>
       <c r="S26" s="57">
-        <v>9.57</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="T26" s="58">
         <f t="shared" ref="T26:T37" si="5">S26/R26</f>
-        <v>11.447368421052632</v>
+        <v>11.060433295324971</v>
       </c>
       <c r="U26" s="57">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="V26" s="58">
         <f t="shared" si="3"/>
-        <v>1.4114832535885167</v>
+        <v>1.3568985176738881</v>
       </c>
       <c r="W26" s="87">
-        <v>0.12280000000000001</v>
+        <v>0.12230000000000001</v>
       </c>
       <c r="X26" s="61"/>
       <c r="Y26" s="61"/>
@@ -28617,19 +28640,19 @@
       </c>
       <c r="H27" s="21">
         <f>F27*$T$24</f>
-        <v>27.641360501567398</v>
+        <v>27.817193786098386</v>
       </c>
       <c r="I27" s="21">
         <f>F27*$V$24</f>
-        <v>2.2194858934169277</v>
+        <v>2.240404301931886</v>
       </c>
       <c r="J27" s="21">
         <f t="shared" si="0"/>
-        <v>110565.44200626959</v>
+        <v>111268.77514439354</v>
       </c>
       <c r="K27" s="21">
         <f t="shared" si="1"/>
-        <v>8877.9435736677115</v>
+        <v>8961.6172077275442</v>
       </c>
       <c r="L27" s="6" t="s">
         <v>16</v>
@@ -28648,24 +28671,24 @@
         <v>191</v>
       </c>
       <c r="R27" s="64">
-        <v>1.6234</v>
+        <v>1.7101</v>
       </c>
       <c r="S27" s="57">
-        <v>17.649999999999999</v>
+        <v>19.07</v>
       </c>
       <c r="T27" s="58">
         <f t="shared" si="5"/>
-        <v>10.872243439694468</v>
+        <v>11.151394655283317</v>
       </c>
       <c r="U27" s="57">
-        <v>1.55</v>
+        <v>1.63</v>
       </c>
       <c r="V27" s="58">
         <f t="shared" si="3"/>
-        <v>0.95478625107798454</v>
+        <v>0.95316063388105954</v>
       </c>
       <c r="W27" s="87">
-        <v>8.7599999999999997E-2</v>
+        <v>8.5500000000000007E-2</v>
       </c>
       <c r="X27" s="61"/>
       <c r="Y27" s="61"/>
@@ -28696,19 +28719,19 @@
       </c>
       <c r="H28" s="21">
         <f>F28*$T$16</f>
-        <v>23.812053491694947</v>
+        <v>24.353341081994927</v>
       </c>
       <c r="I28" s="21">
         <f t="shared" ref="I28:I29" si="6">F28*$V$16</f>
-        <v>2.0911435077692451</v>
+        <v>2.0815912933220622</v>
       </c>
       <c r="J28" s="21">
         <f t="shared" si="0"/>
-        <v>187102.49594938831</v>
+        <v>191355.64695154267</v>
       </c>
       <c r="K28" s="21">
         <f t="shared" si="1"/>
-        <v>16431.097377991609</v>
+        <v>16356.041139539304</v>
       </c>
       <c r="L28" s="5" t="s">
         <v>24</v>
@@ -28727,24 +28750,24 @@
         <v>192</v>
       </c>
       <c r="R28" s="64">
-        <v>0.46600000000000003</v>
+        <v>0.49</v>
       </c>
       <c r="S28" s="57">
-        <v>17.649999999999999</v>
+        <v>19.07</v>
       </c>
       <c r="T28" s="58">
         <f t="shared" si="5"/>
-        <v>37.875536480686691</v>
+        <v>38.91836734693878</v>
       </c>
       <c r="U28" s="57">
-        <v>1.55</v>
+        <v>1.63</v>
       </c>
       <c r="V28" s="58">
         <f t="shared" si="3"/>
-        <v>3.3261802575107295</v>
+        <v>3.3265306122448979</v>
       </c>
       <c r="W28" s="87">
-        <v>8.7599999999999997E-2</v>
+        <v>8.5500000000000007E-2</v>
       </c>
       <c r="X28" s="61"/>
       <c r="Y28" s="61"/>
@@ -28775,19 +28798,19 @@
       </c>
       <c r="H29" s="21">
         <f>F29*$T$16</f>
-        <v>23.701721289515984</v>
+        <v>24.240500845308535</v>
       </c>
       <c r="I29" s="21">
         <f t="shared" si="6"/>
-        <v>2.0814542775495628</v>
+        <v>2.071946322907861</v>
       </c>
       <c r="J29" s="21">
         <f t="shared" si="0"/>
-        <v>1183533.1276969102</v>
+        <v>1210436.8046500422</v>
       </c>
       <c r="K29" s="21">
         <f t="shared" si="1"/>
-        <v>103936.3369932131</v>
+        <v>103461.56222231613</v>
       </c>
       <c r="L29" s="5" t="s">
         <v>24</v>
@@ -28806,24 +28829,24 @@
         <v>161017</v>
       </c>
       <c r="R29" s="64">
-        <v>1.6359999999999999</v>
+        <v>1.7230000000000001</v>
       </c>
       <c r="S29" s="57">
-        <v>17.649999999999999</v>
+        <v>19.07</v>
       </c>
       <c r="T29" s="58">
         <f t="shared" si="5"/>
-        <v>10.788508557457213</v>
+        <v>11.067904817179338</v>
       </c>
       <c r="U29" s="57">
-        <v>1.55</v>
+        <v>1.63</v>
       </c>
       <c r="V29" s="58">
         <f t="shared" si="3"/>
-        <v>0.94743276283618594</v>
+        <v>0.9460243760882181</v>
       </c>
       <c r="W29" s="87">
-        <v>8.7599999999999997E-2</v>
+        <v>8.5500000000000007E-2</v>
       </c>
       <c r="X29" s="61"/>
       <c r="Y29" s="61"/>
@@ -28854,19 +28877,19 @@
       </c>
       <c r="H30" s="21">
         <f>F30*$T$13</f>
-        <v>10.658998422712934</v>
+        <v>10.831479611650483</v>
       </c>
       <c r="I30" s="21">
         <f>F30*$V$13</f>
-        <v>1.2396648264984225</v>
+        <v>1.2521941747572813</v>
       </c>
       <c r="J30" s="21">
         <f t="shared" si="0"/>
-        <v>213179.96845425866</v>
+        <v>216629.59223300967</v>
       </c>
       <c r="K30" s="21">
         <f t="shared" si="1"/>
-        <v>24793.296529968451</v>
+        <v>25043.883495145627</v>
       </c>
       <c r="L30" s="7" t="s">
         <v>10</v>
@@ -28885,24 +28908,24 @@
         <v>193</v>
       </c>
       <c r="R30" s="64">
-        <v>0.74329999999999996</v>
+        <v>0.78139999999999998</v>
       </c>
       <c r="S30" s="57">
-        <v>17.649999999999999</v>
+        <v>19.07</v>
       </c>
       <c r="T30" s="58">
         <f t="shared" si="5"/>
-        <v>23.745459437642943</v>
+        <v>24.40491425646276</v>
       </c>
       <c r="U30" s="57">
-        <v>1.55</v>
+        <v>1.63</v>
       </c>
       <c r="V30" s="58">
         <f t="shared" si="3"/>
-        <v>2.0852953047221852</v>
+        <v>2.0859994880982851</v>
       </c>
       <c r="W30" s="87">
-        <v>8.7599999999999997E-2</v>
+        <v>8.5500000000000007E-2</v>
       </c>
       <c r="X30" s="61"/>
       <c r="Y30" s="61"/>
@@ -28933,19 +28956,19 @@
       </c>
       <c r="H31" s="21">
         <f>F31*$T$17</f>
-        <v>29.421093148575832</v>
+        <v>29.451115173674591</v>
       </c>
       <c r="I31" s="21">
         <f>F31*$V$17</f>
-        <v>2.628483448806775</v>
+        <v>2.6103107861060328</v>
       </c>
       <c r="J31" s="21">
         <f t="shared" si="0"/>
-        <v>589151.50608160126</v>
+        <v>589752.69112979888</v>
       </c>
       <c r="K31" s="21">
         <f t="shared" si="1"/>
-        <v>52634.855365665906</v>
+        <v>52270.951429616085</v>
       </c>
       <c r="L31" s="5" t="s">
         <v>24</v>
@@ -28964,24 +28987,24 @@
         <v>100038</v>
       </c>
       <c r="R31" s="64">
-        <v>1.5649999999999999</v>
+        <v>1.6439999999999999</v>
       </c>
       <c r="S31" s="57">
-        <v>10.74</v>
+        <v>11.07</v>
       </c>
       <c r="T31" s="58">
         <f t="shared" si="5"/>
-        <v>6.86261980830671</v>
+        <v>6.733576642335767</v>
       </c>
       <c r="U31" s="57">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="V31" s="58">
         <f t="shared" si="3"/>
-        <v>0.83067092651757191</v>
+        <v>0.8150851581508517</v>
       </c>
       <c r="W31" s="87">
-        <v>0.1215</v>
+        <v>0.1206</v>
       </c>
       <c r="X31" s="61"/>
       <c r="Y31" s="61"/>
@@ -29012,19 +29035,19 @@
       </c>
       <c r="H32" s="21">
         <f>F32*$T$17</f>
-        <v>28.814472671285607</v>
+        <v>28.843875685557588</v>
       </c>
       <c r="I32" s="21">
         <f>F32*$V$17</f>
-        <v>2.5742879137798309</v>
+        <v>2.5564899451553931</v>
       </c>
       <c r="J32" s="21">
         <f t="shared" si="0"/>
-        <v>289124.70692840649</v>
+        <v>289419.73706764169</v>
       </c>
       <c r="K32" s="21">
         <f t="shared" si="1"/>
-        <v>25830.430669745961</v>
+        <v>25651.845674588665</v>
       </c>
       <c r="L32" s="5" t="s">
         <v>24</v>
@@ -29043,24 +29066,24 @@
         <v>194</v>
       </c>
       <c r="R32" s="64">
-        <v>1.0389999999999999</v>
+        <v>1.095</v>
       </c>
       <c r="S32" s="57">
-        <v>10.74</v>
+        <v>11.07</v>
       </c>
       <c r="T32" s="58">
         <f t="shared" si="5"/>
-        <v>10.336862367661213</v>
+        <v>10.109589041095891</v>
       </c>
       <c r="U32" s="57">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="V32" s="58">
         <f t="shared" si="3"/>
-        <v>1.2512030798845044</v>
+        <v>1.2237442922374431</v>
       </c>
       <c r="W32" s="87">
-        <v>0.1215</v>
+        <v>0.1206</v>
       </c>
       <c r="X32" s="61"/>
       <c r="Y32" s="61"/>
@@ -29116,24 +29139,24 @@
         <v>113</v>
       </c>
       <c r="R33" s="64">
-        <v>0.64090000000000003</v>
+        <v>0.68269999999999997</v>
       </c>
       <c r="S33" s="57">
-        <v>20.77</v>
+        <v>22.23</v>
       </c>
       <c r="T33" s="58">
         <f t="shared" si="5"/>
-        <v>32.407551880168512</v>
+        <v>32.561886626629558</v>
       </c>
       <c r="U33" s="57">
-        <v>2.37</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="V33" s="58">
         <f t="shared" si="3"/>
-        <v>3.697924793259479</v>
+        <v>3.7058737366339534</v>
       </c>
       <c r="W33" s="87">
-        <v>0.1143</v>
+        <v>0.1138</v>
       </c>
       <c r="X33" s="61"/>
       <c r="Y33" s="61"/>
@@ -29164,19 +29187,19 @@
       </c>
       <c r="H34" s="21">
         <f>F34*$T$24</f>
-        <v>27.186407523510972</v>
+        <v>27.359346743676561</v>
       </c>
       <c r="I34" s="21">
         <f>F34*$V$24</f>
-        <v>2.1829550679205854</v>
+        <v>2.2035291774546906</v>
       </c>
       <c r="J34" s="21">
         <f t="shared" si="0"/>
-        <v>108745.6300940439</v>
+        <v>109437.38697470624</v>
       </c>
       <c r="K34" s="21">
         <f t="shared" si="1"/>
-        <v>8731.8202716823416</v>
+        <v>8814.1167098187616</v>
       </c>
       <c r="L34" s="6" t="s">
         <v>16</v>
@@ -29195,32 +29218,32 @@
         <v>110022</v>
       </c>
       <c r="R34" s="64">
-        <v>1.7130000000000001</v>
+        <v>1.8660000000000001</v>
       </c>
       <c r="S34" s="57">
-        <v>20.6</v>
+        <v>23.06</v>
       </c>
       <c r="T34" s="58">
         <f t="shared" si="5"/>
-        <v>12.025685931115003</v>
+        <v>12.357984994640942</v>
       </c>
       <c r="U34" s="57">
-        <v>3.81</v>
+        <v>4.22</v>
       </c>
       <c r="V34" s="58">
         <f t="shared" si="3"/>
-        <v>2.2241681260945709</v>
+        <v>2.2615219721329045</v>
       </c>
       <c r="W34" s="100">
-        <v>0.18490000000000001</v>
+        <v>0.18290000000000001</v>
       </c>
       <c r="X34" s="75">
         <f>SUMIF(C:C,"=消费",J:J)/SUMIF(C:C,"=消费",M:M)*-1</f>
-        <v>20.6</v>
+        <v>21.169228295819934</v>
       </c>
       <c r="Y34" s="75">
         <f>SUMIF(C:C,"=消费",K:K)/SUMIF(C:C,"=消费",M:M)*-1</f>
-        <v>3.81</v>
+        <v>3.8739871382636655</v>
       </c>
       <c r="Z34" s="100">
         <f>(SUMIF(C:C,"=消费",M:M)*-1)/$Q$2</f>
@@ -29252,19 +29275,19 @@
       </c>
       <c r="H35" s="21">
         <f>F35*$T$23</f>
-        <v>27.047155117609666</v>
+        <v>27.138341890667473</v>
       </c>
       <c r="I35" s="21">
         <f>F35*$V$23</f>
-        <v>2.17177368086459</v>
+        <v>2.1857293868921777</v>
       </c>
       <c r="J35" s="21">
         <f t="shared" si="0"/>
-        <v>109441.17422393517</v>
+        <v>109810.1441756267</v>
       </c>
       <c r="K35" s="21">
         <f t="shared" si="1"/>
-        <v>8787.6695626191995</v>
+        <v>8844.1386754756877</v>
       </c>
       <c r="L35" s="5" t="s">
         <v>24</v>
@@ -29283,23 +29306,23 @@
         <v>110026</v>
       </c>
       <c r="R35" s="64">
-        <v>1.3342000000000001</v>
+        <v>1.4189000000000001</v>
       </c>
       <c r="S35" s="57">
         <f>S18</f>
-        <v>28</v>
+        <v>30.01</v>
       </c>
       <c r="T35" s="58">
         <f>S35/R35</f>
-        <v>20.986358866736619</v>
+        <v>21.150186764394956</v>
       </c>
       <c r="U35" s="57">
         <f>U18</f>
-        <v>3.26</v>
+        <v>3.49</v>
       </c>
       <c r="V35" s="58">
         <f>U35/R35</f>
-        <v>2.4434117823414776</v>
+        <v>2.4596518429769541</v>
       </c>
       <c r="W35" s="100">
         <f>W18</f>
@@ -29359,23 +29382,23 @@
         <v>7475</v>
       </c>
       <c r="R36" s="64">
-        <v>0.73219999999999996</v>
+        <v>0.77859999999999996</v>
       </c>
       <c r="S36" s="57">
         <f>S18</f>
-        <v>28</v>
+        <v>30.01</v>
       </c>
       <c r="T36" s="58">
         <f>S36/R36</f>
-        <v>38.24091778202677</v>
+        <v>38.543539686617009</v>
       </c>
       <c r="U36" s="57">
         <f>U18</f>
-        <v>3.26</v>
+        <v>3.49</v>
       </c>
       <c r="V36" s="58">
         <f>U36/R36</f>
-        <v>4.4523354274788307</v>
+        <v>4.4824043154379662</v>
       </c>
       <c r="W36" s="100">
         <f>W18</f>
@@ -29409,19 +29432,19 @@
       </c>
       <c r="H37" s="21">
         <f>F37*$T$25</f>
-        <v>30.705453977183929</v>
+        <v>30.744999999999997</v>
       </c>
       <c r="I37" s="21">
         <f>F37*$V$25</f>
-        <v>3.5037037037037035</v>
+        <v>3.4990935672514611</v>
       </c>
       <c r="J37" s="21">
         <f t="shared" si="0"/>
-        <v>197561.65438005934</v>
+        <v>197816.09704999998</v>
       </c>
       <c r="K37" s="21">
         <f t="shared" si="1"/>
-        <v>22543.144962962964</v>
+        <v>22513.482930116956</v>
       </c>
       <c r="L37" s="5" t="s">
         <v>24</v>
@@ -29440,30 +29463,30 @@
         <v>195</v>
       </c>
       <c r="R37" s="64">
-        <v>0.91479999999999995</v>
+        <v>0.9385</v>
       </c>
       <c r="S37" s="57">
         <v>8.14</v>
       </c>
       <c r="T37" s="58">
         <f t="shared" si="5"/>
-        <v>8.8981198076082215</v>
+        <v>8.6734150239744281</v>
       </c>
       <c r="U37" s="57">
         <v>1.08</v>
       </c>
       <c r="V37" s="58">
         <f t="shared" si="3"/>
-        <v>1.180585920419764</v>
+        <v>1.1507725093233885</v>
       </c>
       <c r="W37" s="87"/>
       <c r="X37" s="75">
         <f>SUMIF(C:C,"=金融地产",J:J)/SUMIF(C:C,"=金融地产",M:M)*-1</f>
-        <v>8.0800859932954392</v>
+        <v>7.8760390694370459</v>
       </c>
       <c r="Y37" s="75">
         <f>SUMIF(C:C,"=金融地产",K:K)/SUMIF(C:C,"=金融地产",M:M)*-1</f>
-        <v>1.0720507214691737</v>
+        <v>1.044978156632925</v>
       </c>
       <c r="Z37" s="59">
         <f>(SUMIF(C:C,"=金融地产",M:M)*-1)/$Q$2</f>
@@ -29494,19 +29517,19 @@
       </c>
       <c r="H38" s="21">
         <f>F38*$T$23</f>
-        <v>27.618785759694855</v>
+        <v>27.711899728178796</v>
       </c>
       <c r="I38" s="21">
         <f>F38*$V$23</f>
-        <v>2.2176732358550542</v>
+        <v>2.2319238900634248</v>
       </c>
       <c r="J38" s="21">
         <f t="shared" si="0"/>
-        <v>530005.60347997467</v>
+        <v>531792.4642597402</v>
       </c>
       <c r="K38" s="21">
         <f t="shared" si="1"/>
-        <v>42557.238102987925</v>
+        <v>42830.708727272729</v>
       </c>
       <c r="L38" s="5" t="s">
         <v>24</v>
@@ -29525,7 +29548,7 @@
         <v>196</v>
       </c>
       <c r="R38" s="65">
-        <v>1.089</v>
+        <v>1.099</v>
       </c>
       <c r="S38" s="2"/>
       <c r="T38" s="2"/>
@@ -29588,21 +29611,21 @@
         <v>107</v>
       </c>
       <c r="R39" s="64">
-        <v>1.3507</v>
+        <v>1.4474</v>
       </c>
       <c r="S39" s="57">
         <v>9.18</v>
       </c>
       <c r="T39" s="58">
         <f>S39/R39</f>
-        <v>6.7964759013844667</v>
+        <v>6.3424070747547328</v>
       </c>
       <c r="U39" s="57">
         <v>1.04</v>
       </c>
       <c r="V39" s="58">
         <f>U39/R39</f>
-        <v>0.76997112608277196</v>
+        <v>0.71852977753212655</v>
       </c>
       <c r="W39" s="58"/>
       <c r="X39" s="2"/>
@@ -29635,19 +29658,19 @@
       </c>
       <c r="H40" s="21">
         <f>F40*$T$22</f>
-        <v>26.014084321475629</v>
+        <v>27.946202287623699</v>
       </c>
       <c r="I40" s="21">
         <f>F40*$V$22</f>
-        <v>1.4406719367588934</v>
+        <v>1.4281583344043181</v>
       </c>
       <c r="J40" s="21">
         <f t="shared" si="0"/>
-        <v>333088.49790566537</v>
+        <v>357827.64548309986</v>
       </c>
       <c r="K40" s="21">
         <f t="shared" si="1"/>
-        <v>18446.593985770753</v>
+        <v>18286.367819046394</v>
       </c>
       <c r="L40" s="5" t="s">
         <v>24</v>
@@ -29666,7 +29689,7 @@
         <v>197</v>
       </c>
       <c r="R40" s="64">
-        <v>1.0124</v>
+        <v>1.0106999999999999</v>
       </c>
       <c r="S40" s="2"/>
       <c r="T40" s="2"/>
@@ -29704,19 +29727,19 @@
       </c>
       <c r="H41" s="21">
         <f>F41*$T$25</f>
-        <v>30.705453977183929</v>
+        <v>30.744999999999997</v>
       </c>
       <c r="I41" s="21">
         <f>F41*$V$25</f>
-        <v>3.5037037037037035</v>
+        <v>3.4990935672514611</v>
       </c>
       <c r="J41" s="21">
         <f t="shared" si="0"/>
-        <v>197561.65438005934</v>
+        <v>197816.09704999998</v>
       </c>
       <c r="K41" s="21">
         <f t="shared" si="1"/>
-        <v>22543.144962962964</v>
+        <v>22513.482930116956</v>
       </c>
       <c r="L41" s="5" t="s">
         <v>24</v>
@@ -29735,7 +29758,7 @@
         <v>198</v>
       </c>
       <c r="R41" s="64">
-        <v>1.4219999999999999</v>
+        <v>1.4179999999999999</v>
       </c>
       <c r="S41" s="2"/>
       <c r="T41" s="2"/>
@@ -29773,19 +29796,19 @@
       </c>
       <c r="H42" s="21">
         <f>F42*$T$16</f>
-        <v>23.65837649580282</v>
+        <v>24.196170752324594</v>
       </c>
       <c r="I42" s="21">
         <f>F42*$V$16</f>
-        <v>2.0776477942489731</v>
+        <v>2.0681572273879962</v>
       </c>
       <c r="J42" s="21">
         <f t="shared" si="0"/>
-        <v>156280.6107858546</v>
+        <v>159833.12906204563</v>
       </c>
       <c r="K42" s="21">
         <f t="shared" si="1"/>
-        <v>13724.359587426326</v>
+        <v>13661.667560101436</v>
       </c>
       <c r="L42" s="5" t="s">
         <v>24</v>
@@ -29804,7 +29827,7 @@
         <v>340001</v>
       </c>
       <c r="R42" s="64">
-        <v>3.6057999999999999</v>
+        <v>3.6301000000000001</v>
       </c>
       <c r="S42" s="2"/>
       <c r="T42" s="2"/>
@@ -29867,7 +29890,7 @@
         <v>518880</v>
       </c>
       <c r="R43" s="64">
-        <v>1.0348999999999999</v>
+        <v>1.0294000000000001</v>
       </c>
       <c r="S43" s="2"/>
       <c r="T43" s="2"/>
@@ -29905,19 +29928,19 @@
       </c>
       <c r="H44" s="21">
         <f>F44*$T$16</f>
-        <v>23.280094659760675</v>
+        <v>23.809289940828403</v>
       </c>
       <c r="I44" s="21">
         <f>F44*$V$16</f>
-        <v>2.0444275763529207</v>
+        <v>2.0350887573964496</v>
       </c>
       <c r="J44" s="21">
         <f t="shared" si="0"/>
-        <v>151322.94329791036</v>
+        <v>154762.76554437872</v>
       </c>
       <c r="K44" s="21">
         <f t="shared" si="1"/>
-        <v>13288.98368905162</v>
+        <v>13228.280431952662</v>
       </c>
       <c r="L44" s="5" t="s">
         <v>24</v>
@@ -29970,19 +29993,19 @@
       </c>
       <c r="H45" s="21">
         <f>F45*$T$37</f>
-        <v>8.399825098382161</v>
+        <v>8.1877037826318588</v>
       </c>
       <c r="I45" s="21">
         <f>F45*$V$37</f>
-        <v>1.1144731088762572</v>
+        <v>1.0863292488012786</v>
       </c>
       <c r="J45" s="21">
         <f t="shared" si="0"/>
-        <v>53758.880629645828</v>
+        <v>52401.304208843896</v>
       </c>
       <c r="K45" s="21">
         <f t="shared" si="1"/>
-        <v>7132.627896808046</v>
+        <v>6952.507192328183</v>
       </c>
       <c r="L45" s="7" t="s">
         <v>10</v>
@@ -30035,19 +30058,19 @@
       </c>
       <c r="H46" s="21">
         <f>F46*$T$16</f>
-        <v>22.858468030005358</v>
+        <v>23.378079036348268</v>
       </c>
       <c r="I46" s="21">
         <f>F46*$V$16</f>
-        <v>2.0074008751562782</v>
+        <v>1.9982311918850379</v>
       </c>
       <c r="J46" s="21">
         <f t="shared" si="0"/>
-        <v>437674.05897135654</v>
+        <v>447623.11845923506</v>
       </c>
       <c r="K46" s="21">
         <f t="shared" si="1"/>
-        <v>38435.965518731027</v>
+        <v>38260.39240107777</v>
       </c>
       <c r="L46" s="5" t="s">
         <v>24</v>
@@ -30092,19 +30115,19 @@
       </c>
       <c r="H47" s="21">
         <f>F47*$T$15</f>
-        <v>12.343698141779978</v>
+        <v>12.023496616081811</v>
       </c>
       <c r="I47" s="21">
         <f>F47*$V$15</f>
-        <v>1.4941161624128467</v>
+        <v>1.4554187412420621</v>
       </c>
       <c r="J47" s="21">
         <f t="shared" si="0"/>
-        <v>80958.736439473752</v>
+        <v>78858.627490861938</v>
       </c>
       <c r="K47" s="21">
         <f t="shared" si="1"/>
-        <v>9799.4746155787616</v>
+        <v>9545.6694523717251</v>
       </c>
       <c r="L47" s="5" t="s">
         <v>24</v>
@@ -30151,19 +30174,19 @@
       </c>
       <c r="H48" s="21">
         <f>F48*$T$16</f>
-        <v>21.770907751384179</v>
+        <v>22.265796703296704</v>
       </c>
       <c r="I48" s="21">
         <f t="shared" ref="I48:I49" si="7">F48*$V$16</f>
-        <v>1.9118927487051265</v>
+        <v>1.9031593406593406</v>
       </c>
       <c r="J48" s="21">
         <f t="shared" si="0"/>
-        <v>276709.10835640301</v>
+        <v>282999.16673076927</v>
       </c>
       <c r="K48" s="21">
         <f t="shared" si="1"/>
-        <v>24300.233311752108</v>
+        <v>24189.231346153847</v>
       </c>
       <c r="L48" s="5" t="s">
         <v>24</v>
@@ -30218,19 +30241,19 @@
       </c>
       <c r="H49" s="21">
         <f>F49*$T$16</f>
-        <v>21.329578942668334</v>
+        <v>21.814435756551141</v>
       </c>
       <c r="I49" s="21">
         <f t="shared" si="7"/>
-        <v>1.8731358278263981</v>
+        <v>1.8645794590025357</v>
       </c>
       <c r="J49" s="21">
         <f t="shared" si="0"/>
-        <v>138576.14143262189</v>
+        <v>141726.20766673711</v>
       </c>
       <c r="K49" s="21">
         <f t="shared" si="1"/>
-        <v>12169.576159805325</v>
+        <v>12113.986287193573</v>
       </c>
       <c r="L49" s="5" t="s">
         <v>24</v>
@@ -30352,19 +30375,19 @@
       </c>
       <c r="H51" s="21">
         <f>F51*$T$22</f>
-        <v>22.502621870882741</v>
+        <v>24.17393651201645</v>
       </c>
       <c r="I51" s="21">
         <f>F51*$V$22</f>
-        <v>1.2462055335968381</v>
+        <v>1.2353810564194834</v>
       </c>
       <c r="J51" s="21">
         <f t="shared" si="0"/>
-        <v>143656.28797127798</v>
+        <v>154325.92721398277</v>
       </c>
       <c r="K51" s="21">
         <f t="shared" si="1"/>
-        <v>7955.7512023715417</v>
+        <v>7886.6479565608533</v>
       </c>
       <c r="L51" s="5" t="s">
         <v>24</v>
@@ -30422,19 +30445,19 @@
       </c>
       <c r="H52" s="21">
         <f>F52*$T$18</f>
-        <v>34.159394997091326</v>
+        <v>34.233180511306237</v>
       </c>
       <c r="I52" s="21">
         <f>F52*$V$18</f>
-        <v>3.9771295603756331</v>
+        <v>3.9811329551635715</v>
       </c>
       <c r="J52" s="21">
         <f t="shared" si="0"/>
-        <v>220686.42978475854</v>
+        <v>221163.12036148884</v>
       </c>
       <c r="K52" s="21">
         <f t="shared" si="1"/>
-        <v>25694.205753511174</v>
+        <v>25720.0696455047</v>
       </c>
       <c r="L52" s="5" t="s">
         <v>24</v>
@@ -30492,19 +30515,19 @@
       </c>
       <c r="H53" s="21">
         <f>F53*$T$15</f>
-        <v>11.682973152033314</v>
+        <v>11.379911153513611</v>
       </c>
       <c r="I53" s="21">
         <f>F53*$V$15</f>
-        <v>1.4141401394453734</v>
+        <v>1.3775140872365166</v>
       </c>
       <c r="J53" s="21">
         <f t="shared" si="0"/>
-        <v>72523.691457488094</v>
+        <v>70642.391672997241</v>
       </c>
       <c r="K53" s="21">
         <f t="shared" si="1"/>
-        <v>8778.4728952266778</v>
+        <v>8551.1115484928905</v>
       </c>
       <c r="L53" s="5" t="s">
         <v>24</v>
@@ -30562,19 +30585,19 @@
       </c>
       <c r="H54" s="21">
         <f>F54*$T$23</f>
-        <v>22.985568976478071</v>
+        <v>23.063062518876471</v>
       </c>
       <c r="I54" s="21">
         <f>F54*$V$23</f>
-        <v>1.8456452638270822</v>
+        <v>1.8575052854122622</v>
       </c>
       <c r="J54" s="21">
         <f t="shared" si="0"/>
-        <v>147541.60899173556</v>
+        <v>148039.0307411658</v>
       </c>
       <c r="K54" s="21">
         <f t="shared" si="1"/>
-        <v>11846.975471074382</v>
+        <v>11923.103526427061</v>
       </c>
       <c r="L54" s="5" t="s">
         <v>24</v>
@@ -30632,19 +30655,19 @@
       </c>
       <c r="H55" s="21">
         <f>F55*$T$37</f>
-        <v>7.5634018364669879</v>
+        <v>7.3724027703782635</v>
       </c>
       <c r="I55" s="21">
         <f>F55*$V$37</f>
-        <v>1.0034980323567992</v>
+        <v>0.9781566329248802</v>
       </c>
       <c r="J55" s="21">
         <f t="shared" ref="J55" si="11">H55*(-$M55)</f>
-        <v>48405.771753388726</v>
+        <v>47183.377730420885</v>
       </c>
       <c r="K55" s="21">
         <f t="shared" ref="K55" si="12">I55*(-$M55)</f>
-        <v>6422.3874070835154</v>
+        <v>6260.2024507192336</v>
       </c>
       <c r="L55" s="7" t="s">
         <v>10</v>
@@ -30702,19 +30725,19 @@
       </c>
       <c r="H56" s="21">
         <f>F56*$T$13</f>
-        <v>10.361482649842273</v>
+        <v>10.529149514563107</v>
       </c>
       <c r="I56" s="21">
         <f>F56*$V$13</f>
-        <v>1.2050630914826499</v>
+        <v>1.2172427184466019</v>
       </c>
       <c r="J56" s="21">
         <f t="shared" si="0"/>
-        <v>66313.488958990551</v>
+        <v>67386.556893203888</v>
       </c>
       <c r="K56" s="21">
         <f t="shared" si="1"/>
-        <v>7712.4037854889593</v>
+        <v>7790.3533980582524</v>
       </c>
       <c r="L56" s="7" t="s">
         <v>10</v>
@@ -30772,19 +30795,19 @@
       </c>
       <c r="H57" s="21">
         <f>F57*$T$21</f>
-        <v>24.740615901455769</v>
+        <v>24.895981275599766</v>
       </c>
       <c r="I57" s="21">
         <f>E57*$V$21</f>
-        <v>3.0350479034465598</v>
+        <v>3.053501462843768</v>
       </c>
       <c r="J57" s="21">
         <f t="shared" si="0"/>
-        <v>158339.94176931691</v>
+        <v>159334.2801638385</v>
       </c>
       <c r="K57" s="21">
         <f t="shared" si="1"/>
-        <v>19424.306582057983</v>
+        <v>19542.409362200116</v>
       </c>
       <c r="L57" s="7" t="s">
         <v>10</v>
@@ -30842,19 +30865,19 @@
       </c>
       <c r="H58" s="21">
         <f>F58*$T$13</f>
-        <v>10.290078864353312</v>
+        <v>10.456590291262135</v>
       </c>
       <c r="I58" s="21">
         <f>F58*$V$13</f>
-        <v>1.1967586750788641</v>
+        <v>1.2088543689320386</v>
       </c>
       <c r="J58" s="21">
         <f t="shared" si="0"/>
-        <v>65856.504731861191</v>
+        <v>66922.177864077661</v>
       </c>
       <c r="K58" s="21">
         <f t="shared" si="1"/>
-        <v>7659.2555205047302</v>
+        <v>7736.667961165047</v>
       </c>
       <c r="L58" s="7" t="s">
         <v>10</v>
@@ -30969,19 +30992,19 @@
       </c>
       <c r="H60" s="21">
         <f>F60*$T$14</f>
-        <v>9.2670535714285727</v>
+        <v>8.9256459699190138</v>
       </c>
       <c r="I60" s="21">
         <f>F60*$V$14</f>
-        <v>1.142646103896104</v>
+        <v>1.0950019282684151</v>
       </c>
       <c r="J60" s="21">
         <f t="shared" si="0"/>
-        <v>59712.167016964289</v>
+        <v>57512.310550713468</v>
       </c>
       <c r="K60" s="21">
         <f t="shared" si="1"/>
-        <v>7362.6287439935068</v>
+        <v>7055.6339747782504</v>
       </c>
       <c r="L60" s="5" t="s">
         <v>24</v>
@@ -31076,19 +31099,19 @@
       </c>
       <c r="H62" s="21">
         <f>F62*$T$25</f>
-        <v>26.550804813252064</v>
+        <v>26.584999999999997</v>
       </c>
       <c r="I62" s="21">
         <f>F62*$V$25</f>
-        <v>3.0296296296296297</v>
+        <v>3.0256432748538007</v>
       </c>
       <c r="J62" s="21">
         <f t="shared" si="0"/>
-        <v>169438.74006063445</v>
+        <v>169656.96279999998</v>
       </c>
       <c r="K62" s="21">
         <f t="shared" si="1"/>
-        <v>19334.126814814816</v>
+        <v>19308.687174269005</v>
       </c>
       <c r="L62" s="5" t="s">
         <v>24</v>
@@ -31168,19 +31191,19 @@
       </c>
       <c r="H64" s="21">
         <f>F64*$T$17</f>
-        <v>24.719784449576601</v>
+        <v>24.745009140767827</v>
       </c>
       <c r="I64" s="21">
         <f>F64*$V$17</f>
-        <v>2.2084680523479601</v>
+        <v>2.1931992687385744</v>
       </c>
       <c r="J64" s="21">
         <f t="shared" si="0"/>
-        <v>80602.565165511944</v>
+        <v>80684.814054844624</v>
       </c>
       <c r="K64" s="21">
         <f t="shared" si="1"/>
-        <v>7201.0413548883762</v>
+        <v>7151.2551956124325</v>
       </c>
       <c r="L64" s="5" t="s">
         <v>24</v>
@@ -31217,19 +31240,19 @@
       </c>
       <c r="H65" s="21">
         <f>F65*$T$16</f>
-        <v>21.361102429005182</v>
+        <v>21.846675824175826</v>
       </c>
       <c r="I65" s="21">
         <f>F65*$V$16</f>
-        <v>1.8759041793177358</v>
+        <v>1.8673351648351646</v>
       </c>
       <c r="J65" s="21">
         <f t="shared" si="0"/>
-        <v>138986.01295432221</v>
+        <v>142145.39625000002</v>
       </c>
       <c r="K65" s="21">
         <f t="shared" si="1"/>
-        <v>12205.570542730848</v>
+        <v>12149.816249999998</v>
       </c>
       <c r="L65" s="5" t="s">
         <v>24</v>
@@ -31266,19 +31289,19 @@
       </c>
       <c r="H66" s="21">
         <f>F66*$T$17</f>
-        <v>23.468629715165516</v>
+        <v>23.49257769652651</v>
       </c>
       <c r="I66" s="21">
         <f>F66*$V$17</f>
-        <v>2.0966897613548885</v>
+        <v>2.0821937842778793</v>
       </c>
       <c r="J66" s="21">
         <f t="shared" si="0"/>
-        <v>75555.845250192477</v>
+        <v>75632.944339305308</v>
       </c>
       <c r="K66" s="21">
         <f t="shared" si="1"/>
-        <v>6750.1668852963821</v>
+        <v>6703.4979568555755</v>
       </c>
       <c r="L66" s="5" t="s">
         <v>24</v>
@@ -31316,19 +31339,19 @@
       </c>
       <c r="H67" s="21">
         <f>F67*$T$16</f>
-        <v>20.269601714591893</v>
+        <v>20.730363482671173</v>
       </c>
       <c r="I67" s="21">
         <f>F67*$V$16</f>
-        <v>1.7800500089301665</v>
+        <v>1.7719188503803887</v>
       </c>
       <c r="J67" s="21">
         <f t="shared" ref="J67:J82" si="15">H67*(-$M67)</f>
-        <v>125145.12907394177</v>
+        <v>127989.88605291629</v>
       </c>
       <c r="K67" s="21">
         <f t="shared" ref="K67:K82" si="16">I67*(-$M67)</f>
-        <v>10990.082156635115</v>
+        <v>10939.880139814031</v>
       </c>
       <c r="L67" s="5" t="s">
         <v>24</v>
@@ -31366,19 +31389,19 @@
       </c>
       <c r="H68" s="21">
         <f>F68*$T$15</f>
-        <v>11.303479824589076</v>
+        <v>11.010262067320593</v>
       </c>
       <c r="I68" s="21">
         <f>F68*$V$15</f>
-        <v>1.3682051929204657</v>
+        <v>1.3327688500641006</v>
       </c>
       <c r="J68" s="21">
         <f t="shared" si="15"/>
-        <v>71660.33193955262</v>
+        <v>69801.42812033034</v>
       </c>
       <c r="K68" s="21">
         <f t="shared" si="16"/>
-        <v>8673.969415402089</v>
+        <v>8449.3146956858764</v>
       </c>
       <c r="L68" s="5" t="s">
         <v>24</v>
@@ -31425,19 +31448,19 @@
       </c>
       <c r="H69" s="21">
         <f>F69*$T$19</f>
-        <v>30.142412013139374</v>
+        <v>30.170566759388038</v>
       </c>
       <c r="I69" s="21">
         <f>F69*$V$19</f>
-        <v>3.4711590802440173</v>
+        <v>3.4664986091794154</v>
       </c>
       <c r="J69" s="21">
         <f t="shared" si="15"/>
-        <v>193426.26928127641</v>
+        <v>193606.94054033377</v>
       </c>
       <c r="K69" s="21">
         <f t="shared" si="16"/>
-        <v>22274.705510652278</v>
+        <v>22244.798894993044</v>
       </c>
       <c r="L69" s="5" t="s">
         <v>24</v>
@@ -31453,15 +31476,15 @@
         <v>215</v>
       </c>
       <c r="Q69" s="98">
-        <v>3765.16</v>
+        <v>3916.03</v>
       </c>
       <c r="R69" s="102">
         <f>Q69*X13/S13</f>
-        <v>3878.1657985811485</v>
-      </c>
-      <c r="S69" s="60">
+        <v>3972.4730707388212</v>
+      </c>
+      <c r="S69" s="103">
         <f>R69/Q69-1</f>
-        <v>3.0013544864268438E-2</v>
+        <v>1.4413339718751139E-2</v>
       </c>
     </row>
     <row r="70" spans="1:19">
@@ -31510,7 +31533,7 @@
         <v>7461</v>
       </c>
       <c r="Q70" s="98">
-        <v>2568.0500000000002</v>
+        <v>2676.48</v>
       </c>
       <c r="R70" s="102"/>
       <c r="S70" s="60"/>
@@ -31539,19 +31562,19 @@
       </c>
       <c r="H71" s="21">
         <f>F71*$T$13</f>
-        <v>10.282145110410095</v>
+        <v>10.448528155339805</v>
       </c>
       <c r="I71" s="21">
         <f>F71*$V$13</f>
-        <v>1.1958359621451105</v>
+        <v>1.2079223300970874</v>
       </c>
       <c r="J71" s="21">
         <f t="shared" si="15"/>
-        <v>65805.728706624606</v>
+        <v>66870.580194174749</v>
       </c>
       <c r="K71" s="21">
         <f t="shared" si="16"/>
-        <v>7653.350157728707</v>
+        <v>7730.7029126213592</v>
       </c>
       <c r="L71" s="7" t="s">
         <v>10</v>
@@ -31567,15 +31590,15 @@
         <v>7455</v>
       </c>
       <c r="Q71" s="98">
-        <v>2415.65</v>
+        <v>2542.77</v>
       </c>
       <c r="R71" s="102">
         <f>Q71*X14/S14</f>
-        <v>2339.1805600649354</v>
+        <v>2339.7798765908219</v>
       </c>
       <c r="S71" s="60">
         <f t="shared" ref="S71:S82" si="17">R71/Q71-1</f>
-        <v>-3.1655844155843993E-2</v>
+        <v>-7.9830312379483015E-2</v>
       </c>
     </row>
     <row r="72" spans="1:19">
@@ -31624,15 +31647,15 @@
         <v>216</v>
       </c>
       <c r="Q72" s="98">
-        <v>3110.26</v>
+        <v>3290.25</v>
       </c>
       <c r="R72" s="102">
         <f>Q72*X15/S15</f>
-        <v>3340.9125603470065</v>
-      </c>
-      <c r="S72" s="60">
+        <v>3347.9228435232017</v>
+      </c>
+      <c r="S72" s="103">
         <f t="shared" si="17"/>
-        <v>7.4158610645735923E-2</v>
+        <v>1.7528407726829842E-2</v>
       </c>
     </row>
     <row r="73" spans="1:19">
@@ -31659,19 +31682,19 @@
       </c>
       <c r="H73" s="21">
         <f>F73*$T$21</f>
-        <v>22.213840985442328</v>
+        <v>22.353338794616736</v>
       </c>
       <c r="I73" s="21">
         <f>E73*$V$21</f>
-        <v>2.7250765210899588</v>
+        <v>2.7416454066705671</v>
       </c>
       <c r="J73" s="21">
         <f t="shared" si="15"/>
-        <v>142168.58230683091</v>
+        <v>143061.3682855471</v>
       </c>
       <c r="K73" s="21">
         <f t="shared" si="16"/>
-        <v>17440.489734975738</v>
+        <v>17546.53060269163</v>
       </c>
       <c r="L73" s="7" t="s">
         <v>10</v>
@@ -31687,15 +31710,15 @@
         <v>217</v>
       </c>
       <c r="Q73" s="98">
-        <v>4204.54</v>
+        <v>4437.95</v>
       </c>
       <c r="R73" s="102">
         <f>Q73*X16/S16</f>
-        <v>5390.2689345211284</v>
+        <v>5386.0081465284284</v>
       </c>
       <c r="S73" s="103">
         <f t="shared" si="17"/>
-        <v>0.28201157190111847</v>
+        <v>0.21362524285501827</v>
       </c>
     </row>
     <row r="74" spans="1:19">
@@ -31722,19 +31745,19 @@
       </c>
       <c r="H74" s="21">
         <f>F74*$T$20</f>
-        <v>29.849932675044883</v>
+        <v>30.013342149220485</v>
       </c>
       <c r="I74" s="21">
         <f>F74*$V$20</f>
-        <v>3.4374775583482942</v>
+        <v>3.4484340200445431</v>
       </c>
       <c r="J74" s="21">
         <f t="shared" si="15"/>
-        <v>191039.56912028725</v>
+        <v>192085.3897550111</v>
       </c>
       <c r="K74" s="21">
         <f t="shared" si="16"/>
-        <v>21999.856373429084</v>
+        <v>22069.977728285077</v>
       </c>
       <c r="L74" s="7" t="s">
         <v>10</v>
@@ -31750,15 +31773,15 @@
         <v>218</v>
       </c>
       <c r="Q74" s="98">
-        <v>4336.6499999999996</v>
+        <v>4564.18</v>
       </c>
       <c r="R74" s="102">
         <f>Q74*X17/S17</f>
-        <v>6124.7008243828122</v>
+        <v>6123.152646927444</v>
       </c>
       <c r="S74" s="103">
         <f t="shared" si="17"/>
-        <v>0.41231153641239504</v>
+        <v>0.34156686347327314</v>
       </c>
     </row>
     <row r="75" spans="1:19">
@@ -31785,19 +31808,19 @@
       </c>
       <c r="H75" s="21">
         <f>F75*$T$21</f>
-        <v>24.740615901455769</v>
+        <v>24.895981275599766</v>
       </c>
       <c r="I75" s="21">
         <f>E75*$V$21</f>
-        <v>2.7226477541371161</v>
+        <v>2.7392018724400233</v>
       </c>
       <c r="J75" s="21">
         <f t="shared" si="15"/>
-        <v>158339.94176931691</v>
+        <v>159334.2801638385</v>
       </c>
       <c r="K75" s="21">
         <f t="shared" si="16"/>
-        <v>17424.945626477544</v>
+        <v>17530.891983616148</v>
       </c>
       <c r="L75" s="7" t="s">
         <v>10</v>
@@ -31813,15 +31836,15 @@
         <v>223</v>
       </c>
       <c r="Q75" s="98">
-        <v>5120.6400000000003</v>
+        <v>5262.06</v>
       </c>
       <c r="R75" s="102">
         <f>Q75*X37/S37</f>
-        <v>5082.949820725843</v>
-      </c>
-      <c r="S75" s="103">
+        <v>5091.4238508257868</v>
+      </c>
+      <c r="S75" s="111">
         <f t="shared" ref="S75:S80" si="18">R75/Q75-1</f>
-        <v>-7.3604430840983337E-3</v>
+        <v>-3.2427632747291657E-2</v>
       </c>
     </row>
     <row r="76" spans="1:19">
@@ -31848,19 +31871,19 @@
       </c>
       <c r="H76" s="21">
         <f>F76*$T$25</f>
-        <v>23.759399906235345</v>
+        <v>23.79</v>
       </c>
       <c r="I76" s="21">
         <f>F76*$V$25</f>
-        <v>2.7111111111111112</v>
+        <v>2.7075438596491224</v>
       </c>
       <c r="J76" s="21">
         <f t="shared" si="15"/>
-        <v>151339.53680075009</v>
+        <v>151534.44930000001</v>
       </c>
       <c r="K76" s="21">
         <f t="shared" si="16"/>
-        <v>17268.883111111114</v>
+        <v>17246.160896491227</v>
       </c>
       <c r="L76" s="5" t="s">
         <v>24</v>
@@ -31876,15 +31899,15 @@
         <v>7456</v>
       </c>
       <c r="Q76" s="98">
-        <v>577.76</v>
+        <v>592.24</v>
       </c>
       <c r="R76" s="102">
         <f>Q76*X22/S22</f>
-        <v>606.59516387520341</v>
+        <v>606.53458465111532</v>
       </c>
       <c r="S76" s="103">
         <f t="shared" si="18"/>
-        <v>4.9908550047084388E-2</v>
+        <v>2.4136472800073028E-2</v>
       </c>
     </row>
     <row r="77" spans="1:19">
@@ -31911,19 +31934,19 @@
       </c>
       <c r="H77" s="21">
         <f>F77*$T$16</f>
-        <v>20.289303893552422</v>
+        <v>20.750513524936601</v>
       </c>
       <c r="I77" s="21">
         <f t="shared" ref="I77:I79" si="19">F77*$V$16</f>
-        <v>1.7817802286122526</v>
+        <v>1.7736411665257816</v>
       </c>
       <c r="J77" s="21">
         <f t="shared" si="15"/>
-        <v>125388.70963430971</v>
+        <v>128239.00360464919</v>
       </c>
       <c r="K77" s="21">
         <f t="shared" si="16"/>
-        <v>11011.473084032865</v>
+        <v>10961.173354775992</v>
       </c>
       <c r="L77" s="5" t="s">
         <v>24</v>
@@ -31939,15 +31962,15 @@
         <v>222</v>
       </c>
       <c r="Q77" s="98">
-        <v>1085.1400000000001</v>
+        <v>1160.33</v>
       </c>
       <c r="R77" s="102">
         <f>Q77*X25/S25</f>
-        <v>1491.7865892404325</v>
+        <v>1492.3079598137867</v>
       </c>
       <c r="S77" s="103">
         <f t="shared" si="18"/>
-        <v>0.37474112947677929</v>
+        <v>0.28610650402367166</v>
       </c>
     </row>
     <row r="78" spans="1:19">
@@ -31974,19 +31997,19 @@
       </c>
       <c r="H78" s="21">
         <f>F78*$T$16</f>
-        <v>20.222316485086623</v>
+        <v>20.682003381234146</v>
       </c>
       <c r="I78" s="21">
         <f t="shared" si="19"/>
-        <v>1.7758974816931596</v>
+        <v>1.7677852916314452</v>
       </c>
       <c r="J78" s="21">
         <f t="shared" si="15"/>
-        <v>10380.115051794963</v>
+        <v>10616.072335587487</v>
       </c>
       <c r="K78" s="21">
         <f t="shared" si="16"/>
-        <v>911.5681773530988</v>
+        <v>907.40419019442072</v>
       </c>
       <c r="L78" s="5" t="s">
         <v>24</v>
@@ -32002,15 +32025,15 @@
         <v>219</v>
       </c>
       <c r="Q78" s="98">
-        <v>7744.46</v>
+        <v>8364.33</v>
       </c>
       <c r="R78" s="102">
         <f>Q78*X19/S19</f>
-        <v>8898.634411782843</v>
+        <v>8926.2766166735073</v>
       </c>
       <c r="S78" s="103">
         <f t="shared" si="18"/>
-        <v>0.14903226458434071</v>
+        <v>6.7183697519527241E-2</v>
       </c>
     </row>
     <row r="79" spans="1:19">
@@ -32037,19 +32060,19 @@
       </c>
       <c r="H79" s="21">
         <f>F79*$T$16</f>
-        <v>19.981949901768171</v>
+        <v>20.436172865595939</v>
       </c>
       <c r="I79" s="21">
         <f t="shared" si="19"/>
-        <v>1.7547888015717095</v>
+        <v>1.7467730346576498</v>
       </c>
       <c r="J79" s="21">
         <f t="shared" si="15"/>
-        <v>131753.38451129664</v>
+        <v>134748.35813005071</v>
       </c>
       <c r="K79" s="21">
         <f t="shared" si="16"/>
-        <v>11570.410537819254</v>
+        <v>11517.557616779373</v>
       </c>
       <c r="L79" s="5" t="s">
         <v>24</v>
@@ -32065,15 +32088,15 @@
         <v>220</v>
       </c>
       <c r="Q79" s="98">
-        <v>6077.96</v>
+        <v>6521.11</v>
       </c>
       <c r="R79" s="102">
         <f>Q79*X21/S21</f>
-        <v>7166.5836166917206</v>
+        <v>7231.9890875668443</v>
       </c>
       <c r="S79" s="103">
         <f t="shared" si="18"/>
-        <v>0.17911003308539719</v>
+        <v>0.10901197611554547</v>
       </c>
     </row>
     <row r="80" spans="1:19">
@@ -32100,19 +32123,19 @@
       </c>
       <c r="H80" s="21">
         <f>F80*$T$15</f>
-        <v>11.374634823484872</v>
+        <v>11.079571270981786</v>
       </c>
       <c r="I80" s="21">
         <f>F80*$V$15</f>
-        <v>1.3768179953938859</v>
+        <v>1.3411585820339287</v>
       </c>
       <c r="J80" s="21">
         <f t="shared" si="15"/>
-        <v>72565.392827207615</v>
+        <v>70683.011288929978</v>
       </c>
       <c r="K80" s="21">
         <f t="shared" si="16"/>
-        <v>8783.5205470549263</v>
+        <v>8556.0284667720098</v>
       </c>
       <c r="L80" s="5" t="s">
         <v>24</v>
@@ -32128,15 +32151,15 @@
         <v>221</v>
       </c>
       <c r="Q80" s="98">
-        <v>1030.23</v>
+        <v>1088.1400000000001</v>
       </c>
       <c r="R80" s="102">
         <f>Q80*X23/S23</f>
-        <v>1414.0838342425391</v>
+        <v>1420.7035551517524</v>
       </c>
       <c r="S80" s="103">
         <f t="shared" si="18"/>
-        <v>0.37259042567440193</v>
+        <v>0.30562570547149481</v>
       </c>
     </row>
     <row r="81" spans="1:30">
@@ -32163,19 +32186,19 @@
       </c>
       <c r="H81" s="21">
         <f>F81*$T$17</f>
-        <v>22.179561200923789</v>
+        <v>22.202193784277881</v>
       </c>
       <c r="I81" s="21">
         <f>F81*$V$17</f>
-        <v>1.9815242494226328</v>
+        <v>1.9678244972577696</v>
       </c>
       <c r="J81" s="21">
         <f t="shared" si="15"/>
-        <v>70079.20695727483</v>
+        <v>70150.717546617918</v>
       </c>
       <c r="K81" s="21">
         <f t="shared" si="16"/>
-        <v>6260.8834642032334</v>
+        <v>6217.5973162705668</v>
       </c>
       <c r="L81" s="5" t="s">
         <v>24</v>
@@ -32189,7 +32212,7 @@
       <c r="O81" s="4"/>
       <c r="P81" s="3"/>
       <c r="Q81" s="101">
-        <v>1259.95</v>
+        <v>1348.28</v>
       </c>
       <c r="R81" s="102"/>
       <c r="S81" s="103"/>
@@ -32218,19 +32241,19 @@
       </c>
       <c r="H82" s="21">
         <f>F82*$T$16</f>
-        <v>19.603668065726023</v>
+        <v>20.049292054099745</v>
       </c>
       <c r="I82" s="21">
         <f>F82*$V$16</f>
-        <v>1.7215685836756565</v>
+        <v>1.7137045646661029</v>
       </c>
       <c r="J82" s="21">
         <f t="shared" si="15"/>
-        <v>126812.01194688784</v>
+        <v>129694.65994663989</v>
       </c>
       <c r="K82" s="21">
         <f t="shared" si="16"/>
-        <v>11136.46563839525</v>
+        <v>11085.59495086644</v>
       </c>
       <c r="L82" s="5" t="s">
         <v>24</v>
@@ -32246,15 +32269,15 @@
         <v>7462</v>
       </c>
       <c r="Q82" s="98">
-        <v>8122.75</v>
+        <v>8859.93</v>
       </c>
       <c r="R82" s="102">
         <f>Q82*X18/S18</f>
-        <v>9017.5102531937191</v>
+        <v>9212.4350427193585</v>
       </c>
       <c r="S82" s="103">
         <f t="shared" si="17"/>
-        <v>0.1101548432727486</v>
+        <v>3.9786436542879944E-2</v>
       </c>
     </row>
     <row r="83" spans="1:30">
@@ -32281,19 +32304,19 @@
       </c>
       <c r="H83" s="21">
         <f>F83*$T$31</f>
-        <v>11.755667731629394</v>
+        <v>11.53461678832117</v>
       </c>
       <c r="I83" s="21">
         <f>F83*$V$31</f>
-        <v>1.4229392971246007</v>
+        <v>1.396240875912409</v>
       </c>
       <c r="J83" s="21">
         <f>H83*(-$M83)</f>
-        <v>75236.273482428121</v>
+        <v>73821.547445255492</v>
       </c>
       <c r="K83" s="21">
         <f t="shared" ref="K83:K86" si="20">I83*(-$M83)</f>
-        <v>9106.8115015974436</v>
+        <v>8935.9416058394181</v>
       </c>
       <c r="L83" s="7" t="s">
         <v>10</v>
@@ -32309,7 +32332,7 @@
         <v>7457</v>
       </c>
       <c r="Q83" s="98">
-        <v>24585.53</v>
+        <v>26486.35</v>
       </c>
       <c r="R83" s="98"/>
       <c r="S83" s="98"/>
@@ -32360,7 +32383,7 @@
         <v>184</v>
       </c>
       <c r="Q84" s="98">
-        <v>11287.39</v>
+        <v>11518.99</v>
       </c>
       <c r="R84" s="102"/>
       <c r="S84" s="98"/>
@@ -32389,19 +32412,19 @@
       </c>
       <c r="H85" s="21">
         <f>F85*$T$21</f>
-        <v>22.552889137737964</v>
+        <v>22.69451609128145</v>
       </c>
       <c r="I85" s="21">
         <f>E85*$V$21</f>
-        <v>2.766669155157397</v>
+        <v>2.7834909303686364</v>
       </c>
       <c r="J85" s="21">
         <f t="shared" si="21"/>
-        <v>144338.49048152298</v>
+        <v>145244.90298420127</v>
       </c>
       <c r="K85" s="21">
         <f t="shared" si="20"/>
-        <v>17706.682593007339</v>
+        <v>17814.341954359272</v>
       </c>
       <c r="L85" s="7" t="s">
         <v>10</v>
@@ -32445,19 +32468,19 @@
       </c>
       <c r="H86" s="21">
         <f>F86*$T$37</f>
-        <v>8.2770310450371678</v>
+        <v>8.0680106553010127</v>
       </c>
       <c r="I86" s="21">
         <f>F86*$V$37</f>
-        <v>1.0981810231744644</v>
+        <v>1.070448588172616</v>
       </c>
       <c r="J86" s="21">
         <f t="shared" si="21"/>
-        <v>52972.998688237873</v>
+        <v>51635.26819392648</v>
       </c>
       <c r="K86" s="21">
         <f t="shared" si="20"/>
-        <v>7028.3585483165725</v>
+        <v>6850.8709643047423</v>
       </c>
       <c r="L86" s="7" t="s">
         <v>10</v>
@@ -32497,19 +32520,19 @@
       </c>
       <c r="H87" s="21">
         <f>F87*$T$18</f>
-        <v>31.064572425828967</v>
+        <v>31.131673012666099</v>
       </c>
       <c r="I87" s="21">
         <f>F87*$V$18</f>
-        <v>3.6168037895786584</v>
+        <v>3.6204444789804957</v>
       </c>
       <c r="J87" s="21">
         <f t="shared" ref="J87:J91" si="22">H87*(-$M87)</f>
-        <v>199061.78010471203</v>
+        <v>199491.76066516436</v>
       </c>
       <c r="K87" s="21">
         <f t="shared" ref="K87:K91" si="23">I87*(-$M87)</f>
-        <v>23176.478683620044</v>
+        <v>23199.808221307016</v>
       </c>
       <c r="L87" s="5" t="s">
         <v>24</v>
@@ -32549,19 +32572,19 @@
       </c>
       <c r="H88" s="21">
         <f>F88*$T$16</f>
-        <v>18.240277281657438</v>
+        <v>18.654909129332204</v>
       </c>
       <c r="I88" s="21">
         <f t="shared" ref="I88" si="24">F88*$V$16</f>
-        <v>1.6018373816752993</v>
+        <v>1.5945202874049025</v>
       </c>
       <c r="J88" s="21">
         <f t="shared" si="22"/>
-        <v>118231.65331197534</v>
+        <v>120919.2554854184</v>
       </c>
       <c r="K88" s="21">
         <f t="shared" si="23"/>
-        <v>10382.949724281121</v>
+        <v>10335.521050929838</v>
       </c>
       <c r="L88" s="5" t="s">
         <v>24</v>
@@ -32573,10 +32596,21 @@
         <v>1.3</v>
       </c>
       <c r="O88" s="4"/>
-      <c r="P88" s="98"/>
-      <c r="Q88" s="97"/>
-      <c r="R88" s="97"/>
-      <c r="T88" s="97"/>
+      <c r="P88" s="3">
+        <v>43406</v>
+      </c>
+      <c r="Q88" s="97" t="s">
+        <v>175</v>
+      </c>
+      <c r="R88" s="97">
+        <v>100032</v>
+      </c>
+      <c r="S88">
+        <v>2.5750000000000002</v>
+      </c>
+      <c r="T88" s="25" t="s">
+        <v>175</v>
+      </c>
       <c r="U88" s="97"/>
       <c r="V88" s="97"/>
       <c r="W88" s="97"/>
@@ -32608,19 +32642,19 @@
       </c>
       <c r="H89" s="21">
         <f>F89*$T$20</f>
-        <v>26.698788150807896</v>
+        <v>26.844947104677054</v>
       </c>
       <c r="I89" s="21">
         <f>F89*$V$20</f>
-        <v>3.0745960502692995</v>
+        <v>3.0843958797327389</v>
       </c>
       <c r="J89" s="21">
         <f t="shared" si="22"/>
-        <v>170872.24416517053</v>
+        <v>171807.66146993314</v>
       </c>
       <c r="K89" s="21">
         <f t="shared" si="23"/>
-        <v>19677.414721723515</v>
+        <v>19740.133630289529</v>
       </c>
       <c r="L89" s="7" t="s">
         <v>10</v>
@@ -32632,10 +32666,21 @@
         <v>7.67</v>
       </c>
       <c r="O89" s="4"/>
-      <c r="P89" s="98"/>
-      <c r="Q89" s="97"/>
-      <c r="R89" s="97"/>
-      <c r="S89" s="97"/>
+      <c r="P89" s="3">
+        <v>43406</v>
+      </c>
+      <c r="Q89" s="97" t="s">
+        <v>176</v>
+      </c>
+      <c r="R89" s="97">
+        <v>510050</v>
+      </c>
+      <c r="S89">
+        <v>2.593</v>
+      </c>
+      <c r="T89" s="25" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="90" spans="1:30">
       <c r="A90" s="3">
@@ -32661,19 +32706,19 @@
       </c>
       <c r="H90" s="21">
         <f>F90*$T$22</f>
-        <v>18.727799736495392</v>
+        <v>20.118750803238658</v>
       </c>
       <c r="I90" s="21">
         <f>F90*$V$22</f>
-        <v>1.0371541501976285</v>
+        <v>1.0281454825857859</v>
       </c>
       <c r="J90" s="21">
         <f t="shared" si="22"/>
-        <v>119557.89896179184</v>
+        <v>128437.70275285952</v>
       </c>
       <c r="K90" s="21">
         <f t="shared" si="23"/>
-        <v>6621.1713517786557</v>
+        <v>6563.660197918005</v>
       </c>
       <c r="L90" s="5" t="s">
         <v>24</v>
@@ -32685,9 +32730,21 @@
         <v>1.28</v>
       </c>
       <c r="O90" s="4"/>
-      <c r="P90" s="98"/>
-      <c r="Q90" s="97"/>
-      <c r="R90" s="97"/>
+      <c r="P90" s="3">
+        <v>43406</v>
+      </c>
+      <c r="Q90" s="97" t="s">
+        <v>177</v>
+      </c>
+      <c r="R90" s="97">
+        <v>510300</v>
+      </c>
+      <c r="S90">
+        <v>3.3540999999999999</v>
+      </c>
+      <c r="T90" s="25" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="91" spans="1:30">
       <c r="A91" s="3">
@@ -32713,19 +32770,19 @@
       </c>
       <c r="H91" s="21">
         <f>F91*$T$24</f>
-        <v>18.866702194357366</v>
+        <v>18.986717785301732</v>
       </c>
       <c r="I91" s="21">
         <f>F91*$V$24</f>
-        <v>1.5149174503657261</v>
+        <v>1.5291953794064927</v>
       </c>
       <c r="J91" s="21">
         <f t="shared" si="22"/>
-        <v>120746.89404388714</v>
+        <v>121514.99382593109</v>
       </c>
       <c r="K91" s="21">
         <f t="shared" si="23"/>
-        <v>9695.471682340647</v>
+        <v>9786.8504282015529</v>
       </c>
       <c r="L91" s="7" t="s">
         <v>10</v>
@@ -32736,9 +32793,21 @@
       <c r="N91" s="4">
         <v>7.67</v>
       </c>
-      <c r="P91" s="98"/>
-      <c r="Q91" s="97"/>
-      <c r="R91" s="97"/>
+      <c r="P91" s="3">
+        <v>43406</v>
+      </c>
+      <c r="Q91" s="97" t="s">
+        <v>18</v>
+      </c>
+      <c r="R91" s="97">
+        <v>510500</v>
+      </c>
+      <c r="S91">
+        <v>4.7320000000000002</v>
+      </c>
+      <c r="T91" s="25" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="92" spans="1:30">
       <c r="A92" s="3">
@@ -32764,19 +32833,19 @@
       </c>
       <c r="H92" s="21">
         <f>F92*$T$20</f>
-        <v>26.549824955116698</v>
+        <v>26.695168429844095</v>
       </c>
       <c r="I92" s="21">
         <f>F92*$V$20</f>
-        <v>3.0574416517055654</v>
+        <v>3.0671868040089088</v>
       </c>
       <c r="J92" s="21">
         <f t="shared" ref="J92:J93" si="25">H92*(-$M92)</f>
-        <v>169918.87971274686</v>
+        <v>170849.0779510022</v>
       </c>
       <c r="K92" s="21">
         <f t="shared" ref="K92:K94" si="26">I92*(-$M92)</f>
-        <v>19567.626570915618</v>
+        <v>19629.995545657017</v>
       </c>
       <c r="L92" s="7" t="s">
         <v>10</v>
@@ -32788,47 +32857,59 @@
         <v>7.67</v>
       </c>
       <c r="O92" s="4"/>
-      <c r="P92" s="98"/>
-      <c r="Q92" s="97"/>
-      <c r="R92" s="97"/>
+      <c r="P92" s="3">
+        <v>43406</v>
+      </c>
+      <c r="Q92" s="97" t="s">
+        <v>19</v>
+      </c>
+      <c r="R92" s="97">
+        <v>512100</v>
+      </c>
+      <c r="S92">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="T92" s="25" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="93" spans="1:30">
-      <c r="A93" s="105">
+      <c r="A93" s="104">
         <v>43403</v>
       </c>
-      <c r="B93" s="105" t="s">
+      <c r="B93" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="C93" s="105" t="s">
+      <c r="C93" s="104" t="s">
         <v>130</v>
       </c>
-      <c r="D93" s="105" t="s">
+      <c r="D93" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="E93" s="106">
+      <c r="E93" s="105">
         <v>0.95799999999999996</v>
       </c>
-      <c r="F93" s="106">
+      <c r="F93" s="105">
         <v>2.536</v>
       </c>
-      <c r="G93" s="107">
+      <c r="G93" s="106">
         <v>6670.57</v>
       </c>
       <c r="H93" s="21">
         <f>F93*$T$13</f>
-        <v>10.06</v>
+        <v>10.222788349514563</v>
       </c>
       <c r="I93" s="21">
         <f>F93*$V$13</f>
-        <v>1.17</v>
+        <v>1.1818252427184466</v>
       </c>
       <c r="J93" s="21">
         <f t="shared" si="25"/>
-        <v>64384</v>
+        <v>65425.8454368932</v>
       </c>
       <c r="K93" s="21">
         <f t="shared" si="26"/>
-        <v>7488</v>
+        <v>7563.681553398058</v>
       </c>
       <c r="L93" s="7" t="s">
         <v>10</v>
@@ -32840,47 +32921,59 @@
         <v>9.59</v>
       </c>
       <c r="O93" s="4"/>
-      <c r="P93" s="98"/>
-      <c r="Q93" s="97"/>
-      <c r="R93" s="97"/>
+      <c r="P93" s="3">
+        <v>43406</v>
+      </c>
+      <c r="Q93" s="97" t="s">
+        <v>178</v>
+      </c>
+      <c r="R93" s="97">
+        <v>159915</v>
+      </c>
+      <c r="S93">
+        <v>1.2868999999999999</v>
+      </c>
+      <c r="T93" s="25" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="94" spans="1:30">
-      <c r="A94" s="105">
+      <c r="A94" s="3">
         <v>43403</v>
       </c>
-      <c r="B94" s="108" t="s">
+      <c r="B94" s="107" t="s">
         <v>214</v>
       </c>
-      <c r="C94" s="108" t="s">
+      <c r="C94" s="107" t="s">
         <v>158</v>
       </c>
-      <c r="D94" s="105" t="s">
+      <c r="D94" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="E94" s="106">
+      <c r="E94" s="105">
         <v>1.5649999999999999</v>
       </c>
-      <c r="F94" s="106">
+      <c r="F94" s="105">
         <v>1.5649999999999999</v>
       </c>
-      <c r="G94" s="107">
+      <c r="G94" s="106">
         <v>4084.56</v>
       </c>
       <c r="H94" s="21">
         <f>F94*$T$31</f>
-        <v>10.74</v>
+        <v>10.538047445255476</v>
       </c>
       <c r="I94" s="21">
         <f>F94*$V$31</f>
-        <v>1.3</v>
+        <v>1.2756082725060829</v>
       </c>
       <c r="J94" s="21">
         <f>H94*(-$M94)</f>
-        <v>68736</v>
+        <v>67443.503649635051</v>
       </c>
       <c r="K94" s="21">
         <f t="shared" si="26"/>
-        <v>8320</v>
+        <v>8163.8929440389302</v>
       </c>
       <c r="L94" s="7" t="s">
         <v>10</v>
@@ -32892,13 +32985,24 @@
         <v>7.67</v>
       </c>
       <c r="O94" s="4"/>
-      <c r="P94" s="98"/>
-      <c r="Q94" s="97"/>
-      <c r="R94" s="97"/>
-      <c r="S94" s="15"/>
+      <c r="P94" s="3">
+        <v>43406</v>
+      </c>
+      <c r="Q94" s="97" t="s">
+        <v>179</v>
+      </c>
+      <c r="R94" s="97">
+        <v>159938</v>
+      </c>
+      <c r="S94">
+        <v>1.1504000000000001</v>
+      </c>
+      <c r="T94" s="25" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="95" spans="1:30">
-      <c r="A95" s="104">
+      <c r="A95" s="3">
         <v>43403</v>
       </c>
       <c r="B95" s="101" t="s">
@@ -32921,19 +33025,19 @@
       </c>
       <c r="H95" s="21">
         <f>F95*$T$29</f>
-        <v>17.649999999999999</v>
+        <v>18.107092280905395</v>
       </c>
       <c r="I95" s="21">
         <f>F95*$V$29</f>
-        <v>1.55</v>
+        <v>1.5476958792803248</v>
       </c>
       <c r="J95" s="21">
         <f>H95*(-$M95)</f>
-        <v>112959.99999999999</v>
+        <v>115885.39059779453</v>
       </c>
       <c r="K95" s="21">
         <f t="shared" ref="K95:K100" si="27">I95*(-$M95)</f>
-        <v>9920</v>
+        <v>9905.2536273940786</v>
       </c>
       <c r="L95" s="7" t="s">
         <v>10</v>
@@ -32945,13 +33049,24 @@
         <v>9.59</v>
       </c>
       <c r="O95" s="4"/>
-      <c r="P95" s="98"/>
-      <c r="Q95" s="15"/>
-      <c r="R95" s="15"/>
-      <c r="S95" s="15"/>
+      <c r="P95" s="3">
+        <v>43406</v>
+      </c>
+      <c r="Q95" s="97" t="s">
+        <v>180</v>
+      </c>
+      <c r="R95" s="97">
+        <v>1180</v>
+      </c>
+      <c r="S95">
+        <v>0.71840000000000004</v>
+      </c>
+      <c r="T95" s="25" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="96" spans="1:30">
-      <c r="A96" s="104">
+      <c r="A96" s="3">
         <v>43403</v>
       </c>
       <c r="B96" s="101" t="s">
@@ -32974,19 +33089,19 @@
       </c>
       <c r="H96" s="21">
         <f>F96*$T$34</f>
-        <v>20.6</v>
+        <v>21.169228295819934</v>
       </c>
       <c r="I96" s="21">
         <f>F96*$V$34</f>
-        <v>3.81</v>
+        <v>3.8739871382636655</v>
       </c>
       <c r="J96" s="21">
         <f>H96*(-$M96)</f>
-        <v>131840</v>
+        <v>135483.06109324758</v>
       </c>
       <c r="K96" s="21">
         <f t="shared" si="27"/>
-        <v>24384</v>
+        <v>24793.517684887458</v>
       </c>
       <c r="L96" s="7" t="s">
         <v>10</v>
@@ -32998,13 +33113,24 @@
         <v>9.59</v>
       </c>
       <c r="O96" s="4"/>
-      <c r="P96" s="98"/>
-      <c r="Q96" s="15"/>
-      <c r="R96" s="15"/>
-      <c r="S96" s="15"/>
+      <c r="P96" s="3">
+        <v>43406</v>
+      </c>
+      <c r="Q96" s="97" t="s">
+        <v>181</v>
+      </c>
+      <c r="R96" s="97">
+        <v>968</v>
+      </c>
+      <c r="S96">
+        <v>0.85450000000000004</v>
+      </c>
+      <c r="T96" s="25" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="97" spans="1:20">
-      <c r="A97" s="104">
+      <c r="A97" s="3">
         <v>43403</v>
       </c>
       <c r="B97" s="101" t="s">
@@ -33027,19 +33153,19 @@
       </c>
       <c r="H97" s="21">
         <f>F97*T35</f>
-        <v>28</v>
+        <v>28.218579181055752</v>
       </c>
       <c r="I97" s="21">
         <f>F97*V35</f>
-        <v>3.2599999999999993</v>
+        <v>3.2816674888998523</v>
       </c>
       <c r="J97" s="21">
         <f t="shared" ref="J97" si="28">H97*(-M97)</f>
-        <v>179200</v>
+        <v>180598.90675875681</v>
       </c>
       <c r="K97" s="21">
         <f t="shared" si="27"/>
-        <v>20863.999999999996</v>
+        <v>21002.671928959055</v>
       </c>
       <c r="L97" s="7" t="s">
         <v>10</v>
@@ -33051,13 +33177,24 @@
         <v>7.67</v>
       </c>
       <c r="O97" s="4"/>
-      <c r="P97" s="98"/>
-      <c r="Q97" s="15"/>
-      <c r="R97" s="15"/>
-      <c r="S97" s="15"/>
+      <c r="P97" s="3">
+        <v>43406</v>
+      </c>
+      <c r="Q97" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="R97" s="97">
+        <v>512880</v>
+      </c>
+      <c r="S97">
+        <v>0.77810000000000001</v>
+      </c>
+      <c r="T97" s="25" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="98" spans="1:20">
-      <c r="A98" s="104">
+      <c r="A98" s="3">
         <v>43403</v>
       </c>
       <c r="B98" s="101" t="s">
@@ -33098,13 +33235,24 @@
         <v>6.39</v>
       </c>
       <c r="O98" s="4"/>
-      <c r="P98" s="98"/>
-      <c r="Q98" s="15"/>
-      <c r="R98" s="15"/>
-      <c r="S98" s="15"/>
+      <c r="P98" s="3">
+        <v>43406</v>
+      </c>
+      <c r="Q98" s="97" t="s">
+        <v>20</v>
+      </c>
+      <c r="R98" s="97">
+        <v>512580</v>
+      </c>
+      <c r="S98">
+        <v>0.66220000000000001</v>
+      </c>
+      <c r="T98" s="25" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="99" spans="1:20">
-      <c r="A99" s="104">
+      <c r="A99" s="3">
         <v>43403</v>
       </c>
       <c r="B99" s="3" t="s">
@@ -33127,19 +33275,19 @@
       </c>
       <c r="H99" s="21">
         <f>F99*$T$21</f>
-        <v>19.89</v>
+        <v>20.014904622586307</v>
       </c>
       <c r="I99" s="21">
         <f>E99*$V$21</f>
-        <v>2.44</v>
+        <v>2.4548355763604444</v>
       </c>
       <c r="J99" s="21">
         <f t="shared" si="29"/>
-        <v>127296</v>
+        <v>128095.38958455237</v>
       </c>
       <c r="K99" s="21">
         <f t="shared" si="27"/>
-        <v>15616</v>
+        <v>15710.947688706843</v>
       </c>
       <c r="L99" s="7" t="s">
         <v>10</v>
@@ -33151,13 +33299,24 @@
         <v>7.67</v>
       </c>
       <c r="O99" s="4"/>
-      <c r="P99" s="98"/>
-      <c r="Q99" s="15"/>
-      <c r="R99" s="15"/>
-      <c r="S99" s="15"/>
+      <c r="P99" s="3">
+        <v>43406</v>
+      </c>
+      <c r="Q99" s="97" t="s">
+        <v>182</v>
+      </c>
+      <c r="R99" s="97">
+        <v>1064</v>
+      </c>
+      <c r="S99">
+        <v>0.50209999999999999</v>
+      </c>
+      <c r="T99" s="25" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="100" spans="1:20">
-      <c r="A100" s="104">
+      <c r="A100" s="3">
         <v>43403</v>
       </c>
       <c r="B100" s="3" t="s">
@@ -33198,10 +33357,21 @@
         <v>0</v>
       </c>
       <c r="O100" s="4"/>
-      <c r="P100" s="98"/>
-      <c r="Q100" s="15"/>
-      <c r="R100" s="15"/>
-      <c r="S100" s="15"/>
+      <c r="P100" s="3">
+        <v>43406</v>
+      </c>
+      <c r="Q100" s="97" t="s">
+        <v>23</v>
+      </c>
+      <c r="R100" s="97">
+        <v>512980</v>
+      </c>
+      <c r="S100">
+        <v>0.68400000000000005</v>
+      </c>
+      <c r="T100" s="25" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="101" spans="1:20">
       <c r="A101" s="3"/>
@@ -33218,9 +33388,21 @@
       <c r="L101" s="5"/>
       <c r="M101" s="1"/>
       <c r="N101" s="4"/>
-      <c r="Q101" s="15"/>
-      <c r="R101" s="15"/>
-      <c r="S101" s="15"/>
+      <c r="P101" s="3">
+        <v>43406</v>
+      </c>
+      <c r="Q101" s="97" t="s">
+        <v>174</v>
+      </c>
+      <c r="R101" s="97">
+        <v>1051</v>
+      </c>
+      <c r="S101">
+        <v>0.877</v>
+      </c>
+      <c r="T101" s="66" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="102" spans="1:20">
       <c r="A102" s="3"/>
@@ -33238,9 +33420,21 @@
       <c r="M102" s="1"/>
       <c r="N102" s="4"/>
       <c r="O102" s="4"/>
-      <c r="Q102" s="15"/>
-      <c r="R102" s="15"/>
-      <c r="S102" s="15"/>
+      <c r="P102" s="3">
+        <v>43406</v>
+      </c>
+      <c r="Q102" s="97" t="s">
+        <v>167</v>
+      </c>
+      <c r="R102" s="97">
+        <v>478</v>
+      </c>
+      <c r="S102">
+        <v>1.7101</v>
+      </c>
+      <c r="T102" s="66" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="103" spans="1:20">
       <c r="A103" s="3"/>
@@ -33261,9 +33455,21 @@
       <c r="M103" s="1"/>
       <c r="N103" s="4"/>
       <c r="O103" s="4"/>
-      <c r="Q103" s="15"/>
-      <c r="R103" s="15"/>
-      <c r="S103" s="15"/>
+      <c r="P103" s="3">
+        <v>43406</v>
+      </c>
+      <c r="Q103" s="97" t="s">
+        <v>168</v>
+      </c>
+      <c r="R103" s="97">
+        <v>1052</v>
+      </c>
+      <c r="S103">
+        <v>0.49</v>
+      </c>
+      <c r="T103" s="66" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="104" spans="1:20">
       <c r="A104" s="3"/>
@@ -33281,9 +33487,21 @@
       <c r="M104" s="1"/>
       <c r="N104" s="4"/>
       <c r="O104" s="4"/>
-      <c r="Q104" s="15"/>
-      <c r="R104" s="15"/>
-      <c r="S104" s="15"/>
+      <c r="P104" s="3">
+        <v>43406</v>
+      </c>
+      <c r="Q104" s="97" t="s">
+        <v>169</v>
+      </c>
+      <c r="R104" s="97">
+        <v>161017</v>
+      </c>
+      <c r="S104">
+        <v>1.7230000000000001</v>
+      </c>
+      <c r="T104" s="66" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="105" spans="1:20">
       <c r="A105" s="3"/>
@@ -33303,9 +33521,21 @@
       <c r="L105" s="5"/>
       <c r="M105" s="1"/>
       <c r="N105" s="4"/>
-      <c r="Q105" s="15"/>
-      <c r="R105" s="15"/>
-      <c r="S105" s="15"/>
+      <c r="P105" s="3">
+        <v>43406</v>
+      </c>
+      <c r="Q105" s="97" t="s">
+        <v>170</v>
+      </c>
+      <c r="R105" s="97">
+        <v>2903</v>
+      </c>
+      <c r="S105">
+        <v>0.78139999999999998</v>
+      </c>
+      <c r="T105" s="66" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="106" spans="1:20">
       <c r="A106" s="3"/>
@@ -33328,9 +33558,21 @@
       <c r="O106" t="s">
         <v>27</v>
       </c>
-      <c r="Q106" s="15"/>
-      <c r="R106" s="15"/>
-      <c r="S106" s="15"/>
+      <c r="P106" s="3">
+        <v>43406</v>
+      </c>
+      <c r="Q106" s="97" t="s">
+        <v>171</v>
+      </c>
+      <c r="R106" s="97">
+        <v>100038</v>
+      </c>
+      <c r="S106">
+        <v>1.6439999999999999</v>
+      </c>
+      <c r="T106" s="66" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="107" spans="1:20">
       <c r="A107" s="3"/>
@@ -33350,9 +33592,21 @@
       <c r="O107" t="s">
         <v>28</v>
       </c>
-      <c r="Q107" s="15"/>
-      <c r="R107" s="15"/>
-      <c r="S107" s="15"/>
+      <c r="P107" s="3">
+        <v>43406</v>
+      </c>
+      <c r="Q107" s="97" t="s">
+        <v>172</v>
+      </c>
+      <c r="R107" s="97">
+        <v>51</v>
+      </c>
+      <c r="S107">
+        <v>1.095</v>
+      </c>
+      <c r="T107" s="66" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="108" spans="1:20">
       <c r="A108" s="3"/>
@@ -33372,9 +33626,21 @@
       <c r="L108" s="5"/>
       <c r="M108" s="1"/>
       <c r="N108" s="4"/>
-      <c r="Q108" s="15"/>
-      <c r="R108" s="15"/>
-      <c r="S108" s="15"/>
+      <c r="P108" s="3">
+        <v>43406</v>
+      </c>
+      <c r="Q108" s="97" t="s">
+        <v>173</v>
+      </c>
+      <c r="R108" s="97">
+        <v>4752</v>
+      </c>
+      <c r="S108">
+        <v>0.68269999999999997</v>
+      </c>
+      <c r="T108" s="66" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="109" spans="1:20">
       <c r="A109" s="3"/>
@@ -33394,10 +33660,21 @@
       <c r="L109" s="5"/>
       <c r="M109" s="1"/>
       <c r="N109" s="4"/>
-      <c r="Q109" s="15"/>
-      <c r="R109" s="15"/>
-      <c r="S109" s="15"/>
-      <c r="T109" s="15"/>
+      <c r="P109" s="3">
+        <v>43406</v>
+      </c>
+      <c r="Q109" s="97" t="s">
+        <v>7463</v>
+      </c>
+      <c r="R109" s="97">
+        <v>110022</v>
+      </c>
+      <c r="S109">
+        <v>1.8660000000000001</v>
+      </c>
+      <c r="T109" s="66" t="s">
+        <v>7463</v>
+      </c>
     </row>
     <row r="110" spans="1:20">
       <c r="A110" s="3">
@@ -33419,14 +33696,24 @@
       </c>
       <c r="M110" s="1">
         <f>SUM(S4:S6)</f>
-        <v>535676.16000000003</v>
+        <v>562677.82999999996</v>
       </c>
       <c r="N110" s="1"/>
-      <c r="P110" s="15"/>
-      <c r="Q110" s="15"/>
-      <c r="R110" s="15"/>
-      <c r="S110" s="15"/>
-      <c r="T110" s="15"/>
+      <c r="P110" s="3">
+        <v>43406</v>
+      </c>
+      <c r="Q110" s="97" t="s">
+        <v>7464</v>
+      </c>
+      <c r="R110" s="97">
+        <v>110026</v>
+      </c>
+      <c r="S110">
+        <v>1.4189000000000001</v>
+      </c>
+      <c r="T110" s="66" t="s">
+        <v>7464</v>
+      </c>
     </row>
     <row r="111" spans="1:20">
       <c r="A111" s="3"/>
@@ -33445,11 +33732,21 @@
       <c r="K111" s="21"/>
       <c r="M111" s="1"/>
       <c r="N111" s="4"/>
-      <c r="P111" s="15"/>
-      <c r="Q111" s="15"/>
-      <c r="R111" s="15"/>
-      <c r="S111" s="15"/>
-      <c r="T111" s="15"/>
+      <c r="P111" s="3">
+        <v>43406</v>
+      </c>
+      <c r="Q111" s="97" t="s">
+        <v>7481</v>
+      </c>
+      <c r="R111" s="97">
+        <v>3765</v>
+      </c>
+      <c r="S111">
+        <v>0.77859999999999996</v>
+      </c>
+      <c r="T111" s="66" t="s">
+        <v>7474</v>
+      </c>
     </row>
     <row r="112" spans="1:20">
       <c r="A112" s="3"/>
@@ -33468,11 +33765,21 @@
       <c r="K112" s="21"/>
       <c r="M112" s="1"/>
       <c r="N112" s="4"/>
-      <c r="P112" s="15"/>
-      <c r="Q112" s="15"/>
-      <c r="R112" s="15"/>
-      <c r="S112" s="15"/>
-      <c r="T112" s="15"/>
+      <c r="P112" s="3">
+        <v>43406</v>
+      </c>
+      <c r="Q112" s="97" t="s">
+        <v>183</v>
+      </c>
+      <c r="R112" s="97">
+        <v>1469</v>
+      </c>
+      <c r="S112">
+        <v>0.9385</v>
+      </c>
+      <c r="T112" s="25" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="113" spans="1:20">
       <c r="A113" s="3"/>
@@ -33491,11 +33798,21 @@
       <c r="K113" s="21"/>
       <c r="M113" s="1"/>
       <c r="N113" s="4"/>
-      <c r="P113" s="15"/>
-      <c r="Q113" s="15"/>
-      <c r="R113" s="15"/>
-      <c r="S113" s="15"/>
-      <c r="T113" s="15"/>
+      <c r="P113" s="3">
+        <v>43405</v>
+      </c>
+      <c r="Q113" s="97" t="s">
+        <v>184</v>
+      </c>
+      <c r="R113" s="97">
+        <v>614</v>
+      </c>
+      <c r="S113">
+        <v>1.099</v>
+      </c>
+      <c r="T113" s="25" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="114" spans="1:20">
       <c r="A114" s="3"/>
@@ -33518,11 +33835,21 @@
         <v>2.9802322387695314E-9</v>
       </c>
       <c r="N114" s="12"/>
-      <c r="P114" s="15"/>
-      <c r="Q114" s="15"/>
-      <c r="R114" s="15"/>
-      <c r="S114" s="15"/>
-      <c r="T114" s="15"/>
+      <c r="P114" s="3">
+        <v>43406</v>
+      </c>
+      <c r="Q114" s="97" t="s">
+        <v>185</v>
+      </c>
+      <c r="R114" s="97">
+        <v>71</v>
+      </c>
+      <c r="S114">
+        <v>1.4474</v>
+      </c>
+      <c r="T114" s="25" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="115" spans="1:20">
       <c r="J115" s="21">
@@ -33536,11 +33863,21 @@
       <c r="M115" s="16">
         <v>0.15763732790946963</v>
       </c>
-      <c r="P115" s="63"/>
-      <c r="Q115" s="15"/>
-      <c r="R115" s="15"/>
-      <c r="S115" s="15"/>
-      <c r="T115" s="15"/>
+      <c r="P115" s="3">
+        <v>43406</v>
+      </c>
+      <c r="Q115" s="97" t="s">
+        <v>186</v>
+      </c>
+      <c r="R115" s="97">
+        <v>3376</v>
+      </c>
+      <c r="S115">
+        <v>1.0106999999999999</v>
+      </c>
+      <c r="T115" s="25" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="116" spans="1:20">
       <c r="J116" s="21">
@@ -33554,126 +33891,531 @@
       <c r="M116" s="16">
         <v>4.7603145241737366E-2</v>
       </c>
-      <c r="P116" s="63"/>
-      <c r="R116" s="15"/>
-      <c r="S116" s="15"/>
-      <c r="T116" s="15"/>
+      <c r="P116" s="3">
+        <v>43405</v>
+      </c>
+      <c r="Q116" s="97" t="s">
+        <v>187</v>
+      </c>
+      <c r="R116" s="97">
+        <v>1061</v>
+      </c>
+      <c r="S116">
+        <v>1.4179999999999999</v>
+      </c>
+      <c r="T116" s="25" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="117" spans="1:20">
-      <c r="P117" s="63"/>
-      <c r="R117" s="15"/>
-      <c r="S117" s="15"/>
+      <c r="P117" s="3">
+        <v>43406</v>
+      </c>
+      <c r="Q117" s="97" t="s">
+        <v>188</v>
+      </c>
+      <c r="R117" s="97">
+        <v>340001</v>
+      </c>
+      <c r="S117">
+        <v>3.6301000000000001</v>
+      </c>
+      <c r="T117" s="25" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="118" spans="1:20">
-      <c r="P118" s="63"/>
-      <c r="R118" s="15"/>
-      <c r="S118" s="15"/>
+      <c r="P118" s="63" t="s">
+        <v>7476</v>
+      </c>
+      <c r="Q118" t="s">
+        <v>21</v>
+      </c>
+      <c r="R118">
+        <v>518880</v>
+      </c>
+      <c r="S118">
+        <v>1.0294000000000001</v>
+      </c>
+      <c r="T118" s="25" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="119" spans="1:20">
-      <c r="P119" s="63"/>
-      <c r="R119" s="15"/>
-      <c r="S119" s="15"/>
+      <c r="P119" s="63" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q119">
+        <v>10.38</v>
+      </c>
+      <c r="R119">
+        <v>1.2</v>
+      </c>
+      <c r="S119">
+        <v>0.1153</v>
+      </c>
     </row>
     <row r="120" spans="1:20">
-      <c r="P120" s="63"/>
-      <c r="R120" s="15"/>
-      <c r="S120" s="15"/>
+      <c r="P120" s="63" t="s">
+        <v>7455</v>
+      </c>
+      <c r="Q120">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="R120">
+        <v>1.19</v>
+      </c>
+      <c r="S120">
+        <v>0.12230000000000001</v>
+      </c>
     </row>
     <row r="121" spans="1:20">
-      <c r="P121" s="63"/>
-      <c r="R121" s="15"/>
-      <c r="S121" s="15"/>
+      <c r="P121" s="63" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q121">
+        <v>11.07</v>
+      </c>
+      <c r="R121">
+        <v>1.34</v>
+      </c>
+      <c r="S121">
+        <v>0.1206</v>
+      </c>
     </row>
     <row r="122" spans="1:20">
-      <c r="P122" s="63"/>
-      <c r="R122" s="15"/>
+      <c r="P122" s="63" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q122">
+        <v>19.07</v>
+      </c>
+      <c r="R122">
+        <v>1.63</v>
+      </c>
+      <c r="S122">
+        <v>8.5500000000000007E-2</v>
+      </c>
     </row>
     <row r="123" spans="1:20">
-      <c r="P123" s="63"/>
+      <c r="P123" s="63" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q123">
+        <v>20.76</v>
+      </c>
+      <c r="R123">
+        <v>1.84</v>
+      </c>
+      <c r="S123">
+        <v>8.8800000000000004E-2</v>
+      </c>
     </row>
     <row r="124" spans="1:20">
-      <c r="P124" s="63"/>
+      <c r="P124" s="63" t="s">
+        <v>7462</v>
+      </c>
+      <c r="Q124">
+        <v>30.01</v>
+      </c>
+      <c r="R124">
+        <v>3.49</v>
+      </c>
+      <c r="S124">
+        <v>0.1163</v>
+      </c>
     </row>
     <row r="125" spans="1:20">
-      <c r="P125" s="63"/>
+      <c r="P125" s="63" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q125">
+        <v>27.59</v>
+      </c>
+      <c r="R125">
+        <v>3.17</v>
+      </c>
+      <c r="S125">
+        <v>0.1149</v>
+      </c>
     </row>
     <row r="126" spans="1:20">
-      <c r="P126" s="63"/>
+      <c r="P126" s="63" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q126">
+        <v>27.59</v>
+      </c>
+      <c r="R126">
+        <v>3.17</v>
+      </c>
+      <c r="S126">
+        <v>0.1149</v>
+      </c>
     </row>
     <row r="127" spans="1:20">
-      <c r="P127" s="63"/>
+      <c r="P127" s="63" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q127">
+        <v>21.28</v>
+      </c>
+      <c r="R127">
+        <v>2.61</v>
+      </c>
+      <c r="S127">
+        <v>0.1226</v>
+      </c>
     </row>
     <row r="128" spans="1:20">
-      <c r="P128" s="63"/>
-    </row>
-    <row r="129" spans="14:16">
-      <c r="P129" s="63"/>
-    </row>
-    <row r="130" spans="14:16">
-      <c r="P130" s="63"/>
-    </row>
-    <row r="131" spans="14:16">
-      <c r="P131" s="63"/>
-    </row>
-    <row r="132" spans="14:16">
-      <c r="P132" s="63"/>
-    </row>
-    <row r="133" spans="14:16">
-      <c r="P133" s="63"/>
-    </row>
-    <row r="134" spans="14:16">
+      <c r="P128" s="63" t="s">
+        <v>7456</v>
+      </c>
+      <c r="Q128">
+        <v>24.46</v>
+      </c>
+      <c r="R128">
+        <v>1.25</v>
+      </c>
+      <c r="S128">
+        <v>5.0999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="14:19">
+      <c r="P129" s="63" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q129">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="R129">
+        <v>1.61</v>
+      </c>
+      <c r="S129">
+        <v>8.0399999999999999E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="14:19">
+      <c r="P130" s="63" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q130">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="R130">
+        <v>1.61</v>
+      </c>
+      <c r="S130">
+        <v>8.0399999999999999E-2</v>
+      </c>
+    </row>
+    <row r="131" spans="14:19">
+      <c r="P131" s="63" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q131">
+        <v>22.23</v>
+      </c>
+      <c r="R131">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="S131">
+        <v>0.1138</v>
+      </c>
+    </row>
+    <row r="132" spans="14:19">
+      <c r="P132" s="63" t="s">
+        <v>7455</v>
+      </c>
+      <c r="Q132">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="R132">
+        <v>1.19</v>
+      </c>
+      <c r="S132">
+        <v>0.12230000000000001</v>
+      </c>
+    </row>
+    <row r="133" spans="14:19">
+      <c r="P133" s="63" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q133">
+        <v>19.07</v>
+      </c>
+      <c r="R133">
+        <v>1.63</v>
+      </c>
+      <c r="S133">
+        <v>8.5500000000000007E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="14:19">
       <c r="N134">
         <f>SUMIF(C:C,"=医药",J:J)/SUMIF(C:C,"=医药",M:M)*-1</f>
-        <v>29.334793714838217</v>
-      </c>
-      <c r="P134" s="63"/>
-    </row>
-    <row r="135" spans="14:16">
-      <c r="P135" s="63"/>
-    </row>
-    <row r="136" spans="14:16">
-      <c r="P136" s="63"/>
-    </row>
-    <row r="137" spans="14:16">
-      <c r="P137" s="63"/>
-    </row>
-    <row r="138" spans="14:16">
-      <c r="P138" s="63"/>
-    </row>
-    <row r="139" spans="14:16">
-      <c r="P139" s="63"/>
-    </row>
-    <row r="140" spans="14:16">
-      <c r="P140" s="63"/>
-    </row>
-    <row r="141" spans="14:16">
-      <c r="P141" s="63"/>
-    </row>
-    <row r="142" spans="14:16">
-      <c r="P142" s="63"/>
-    </row>
-    <row r="149" spans="18:18">
-      <c r="R149" s="15"/>
-    </row>
-    <row r="150" spans="18:18">
-      <c r="R150" s="15"/>
-    </row>
-    <row r="151" spans="18:18">
-      <c r="R151" s="15"/>
-    </row>
-    <row r="152" spans="18:18">
-      <c r="R152" s="15"/>
-    </row>
-    <row r="153" spans="18:18">
-      <c r="R153" s="15"/>
-    </row>
-    <row r="154" spans="18:18">
-      <c r="R154" s="15"/>
-    </row>
-    <row r="155" spans="18:18">
-      <c r="R155" s="15"/>
-    </row>
-    <row r="156" spans="18:18">
+        <v>29.443598214563757</v>
+      </c>
+      <c r="P134" s="63" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q134">
+        <v>19.07</v>
+      </c>
+      <c r="R134">
+        <v>1.63</v>
+      </c>
+      <c r="S134">
+        <v>8.5500000000000007E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="14:19">
+      <c r="P135" s="63" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q135">
+        <v>19.07</v>
+      </c>
+      <c r="R135">
+        <v>1.63</v>
+      </c>
+      <c r="S135">
+        <v>8.5500000000000007E-2</v>
+      </c>
+    </row>
+    <row r="136" spans="14:19">
+      <c r="P136" s="63" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q136">
+        <v>19.07</v>
+      </c>
+      <c r="R136">
+        <v>1.63</v>
+      </c>
+      <c r="S136">
+        <v>8.5500000000000007E-2</v>
+      </c>
+    </row>
+    <row r="137" spans="14:19">
+      <c r="P137" s="63" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q137">
+        <v>11.07</v>
+      </c>
+      <c r="R137">
+        <v>1.34</v>
+      </c>
+      <c r="S137">
+        <v>0.1206</v>
+      </c>
+    </row>
+    <row r="138" spans="14:19">
+      <c r="P138" s="63" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q138">
+        <v>11.07</v>
+      </c>
+      <c r="R138">
+        <v>1.34</v>
+      </c>
+      <c r="S138">
+        <v>0.1206</v>
+      </c>
+    </row>
+    <row r="139" spans="14:19">
+      <c r="P139" s="63" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q139">
+        <v>22.23</v>
+      </c>
+      <c r="R139">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="S139">
+        <v>0.1138</v>
+      </c>
+    </row>
+    <row r="140" spans="14:19">
+      <c r="P140" s="63" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q140">
+        <v>922</v>
+      </c>
+      <c r="R140">
+        <v>3916.03</v>
+      </c>
+    </row>
+    <row r="141" spans="14:19">
+      <c r="P141" s="63" t="s">
+        <v>7461</v>
+      </c>
+      <c r="Q141">
+        <v>1</v>
+      </c>
+      <c r="R141">
+        <v>2676.48</v>
+      </c>
+    </row>
+    <row r="142" spans="14:19">
+      <c r="P142" s="63" t="s">
+        <v>7455</v>
+      </c>
+      <c r="Q142">
+        <v>16</v>
+      </c>
+      <c r="R142">
+        <v>2542.77</v>
+      </c>
+    </row>
+    <row r="143" spans="14:19">
+      <c r="P143" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q143">
+        <v>300</v>
+      </c>
+      <c r="R143">
+        <v>3290.25</v>
+      </c>
+    </row>
+    <row r="144" spans="14:19">
+      <c r="P144" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q144">
+        <v>905</v>
+      </c>
+      <c r="R144">
+        <v>4437.95</v>
+      </c>
+    </row>
+    <row r="145" spans="16:18">
+      <c r="P145" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q145">
+        <v>852</v>
+      </c>
+      <c r="R145">
+        <v>4564.18</v>
+      </c>
+    </row>
+    <row r="146" spans="16:18">
+      <c r="P146" t="s">
+        <v>7477</v>
+      </c>
+      <c r="Q146">
+        <v>992</v>
+      </c>
+      <c r="R146">
+        <v>5262.06</v>
+      </c>
+    </row>
+    <row r="147" spans="16:18">
+      <c r="P147" t="s">
+        <v>7456</v>
+      </c>
+      <c r="Q147">
+        <v>399975</v>
+      </c>
+      <c r="R147">
+        <v>592.24</v>
+      </c>
+    </row>
+    <row r="148" spans="16:18">
+      <c r="P148" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q148">
+        <v>399971</v>
+      </c>
+      <c r="R148">
+        <v>1160.33</v>
+      </c>
+    </row>
+    <row r="149" spans="16:18">
+      <c r="P149" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q149">
+        <v>991</v>
+      </c>
+      <c r="R149" s="15">
+        <v>8364.33</v>
+      </c>
+    </row>
+    <row r="150" spans="16:18">
+      <c r="P150" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q150">
+        <v>399812</v>
+      </c>
+      <c r="R150" s="15">
+        <v>6521.11</v>
+      </c>
+    </row>
+    <row r="151" spans="16:18">
+      <c r="P151" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q151">
+        <v>827</v>
+      </c>
+      <c r="R151" s="15">
+        <v>1088.1400000000001</v>
+      </c>
+    </row>
+    <row r="152" spans="16:18">
+      <c r="P152" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q152">
+        <v>399006</v>
+      </c>
+      <c r="R152" s="15">
+        <v>1348.28</v>
+      </c>
+    </row>
+    <row r="153" spans="16:18">
+      <c r="P153" t="s">
+        <v>7478</v>
+      </c>
+      <c r="Q153">
+        <v>990</v>
+      </c>
+      <c r="R153" s="15">
+        <v>8859.93</v>
+      </c>
+    </row>
+    <row r="154" spans="16:18">
+      <c r="P154" t="s">
+        <v>7457</v>
+      </c>
+      <c r="Q154" t="s">
+        <v>7479</v>
+      </c>
+      <c r="R154" s="15">
+        <v>26486.35</v>
+      </c>
+    </row>
+    <row r="155" spans="16:18">
+      <c r="P155" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q155" t="s">
+        <v>7480</v>
+      </c>
+      <c r="R155" s="15">
+        <v>11518.99</v>
+      </c>
+    </row>
+    <row r="156" spans="16:18">
       <c r="R156" s="15"/>
     </row>
   </sheetData>
@@ -33687,272 +34429,272 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="N2:N16 N26:N42 N19:N24">
-    <cfRule type="cellIs" dxfId="57" priority="74" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="53" priority="74" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N43:N47 N110:N112">
-    <cfRule type="cellIs" dxfId="56" priority="73" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="52" priority="73" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N48">
-    <cfRule type="cellIs" dxfId="55" priority="71" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="51" priority="71" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N49">
-    <cfRule type="cellIs" dxfId="54" priority="70" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="50" priority="70" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N50">
-    <cfRule type="cellIs" dxfId="53" priority="69" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="49" priority="69" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N52">
-    <cfRule type="cellIs" dxfId="52" priority="68" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="48" priority="68" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N53">
-    <cfRule type="cellIs" dxfId="51" priority="67" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="47" priority="67" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N54 N60 N77">
-    <cfRule type="cellIs" dxfId="50" priority="66" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="46" priority="66" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N51">
-    <cfRule type="cellIs" dxfId="49" priority="65" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="45" priority="65" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N25">
-    <cfRule type="cellIs" dxfId="48" priority="63" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="44" priority="63" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N55">
-    <cfRule type="cellIs" dxfId="47" priority="61" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="43" priority="61" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N56">
-    <cfRule type="cellIs" dxfId="46" priority="60" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="42" priority="60" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N57">
-    <cfRule type="cellIs" dxfId="45" priority="58" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="41" priority="58" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N58">
-    <cfRule type="cellIs" dxfId="44" priority="57" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="40" priority="57" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N59">
-    <cfRule type="cellIs" dxfId="43" priority="56" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="39" priority="56" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N70">
-    <cfRule type="cellIs" dxfId="42" priority="55" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="38" priority="55" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N61">
-    <cfRule type="cellIs" dxfId="41" priority="53" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="37" priority="53" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N62:N63 N69">
-    <cfRule type="cellIs" dxfId="40" priority="52" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="36" priority="52" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N66">
-    <cfRule type="cellIs" dxfId="39" priority="48" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="35" priority="48" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N65">
-    <cfRule type="cellIs" dxfId="38" priority="49" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="34" priority="49" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N64">
-    <cfRule type="cellIs" dxfId="37" priority="50" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="33" priority="50" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N68">
-    <cfRule type="cellIs" dxfId="36" priority="46" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="32" priority="46" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N67">
-    <cfRule type="cellIs" dxfId="35" priority="47" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="31" priority="47" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N17:N18">
-    <cfRule type="cellIs" dxfId="34" priority="45" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="30" priority="45" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N76">
-    <cfRule type="cellIs" dxfId="33" priority="44" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="29" priority="44" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N71">
-    <cfRule type="cellIs" dxfId="32" priority="43" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="28" priority="43" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N73">
-    <cfRule type="cellIs" dxfId="31" priority="42" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="27" priority="42" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N75">
-    <cfRule type="cellIs" dxfId="30" priority="41" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="26" priority="41" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N72">
-    <cfRule type="cellIs" dxfId="29" priority="38" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="25" priority="38" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N78">
-    <cfRule type="cellIs" dxfId="28" priority="37" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="24" priority="37" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N79">
-    <cfRule type="cellIs" dxfId="27" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="23" priority="36" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N80">
-    <cfRule type="cellIs" dxfId="26" priority="35" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="22" priority="35" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N81">
-    <cfRule type="cellIs" dxfId="25" priority="34" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="21" priority="34" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N101:N109">
-    <cfRule type="cellIs" dxfId="24" priority="29" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="29" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N82">
-    <cfRule type="cellIs" dxfId="23" priority="28" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="28" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N83">
-    <cfRule type="cellIs" dxfId="22" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="18" priority="27" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N84">
-    <cfRule type="cellIs" dxfId="21" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="26" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N85">
-    <cfRule type="cellIs" dxfId="20" priority="25" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="25" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N86">
-    <cfRule type="cellIs" dxfId="19" priority="23" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="23" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N87">
-    <cfRule type="cellIs" dxfId="18" priority="22" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="22" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N74">
-    <cfRule type="cellIs" dxfId="17" priority="19" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="19" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N89">
-    <cfRule type="cellIs" dxfId="16" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="18" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N88">
-    <cfRule type="cellIs" dxfId="15" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="17" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N90">
-    <cfRule type="cellIs" dxfId="14" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="16" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N92">
-    <cfRule type="cellIs" dxfId="13" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="13" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N91">
-    <cfRule type="cellIs" dxfId="12" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="14" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N93">
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="11" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N94">
-    <cfRule type="cellIs" dxfId="10" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="10" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N95">
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="8" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N96">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N97">
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N98">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N99">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N100">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33967,7 +34709,7 @@
   <dimension ref="B1:S74"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="I89" sqref="I89"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -33979,7 +34721,7 @@
     <col min="9" max="18" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="15">
+    <row r="1" spans="2:19">
       <c r="R1" s="15"/>
     </row>
     <row r="2" spans="2:19">
@@ -34042,7 +34784,7 @@
       </c>
       <c r="D3" s="21">
         <f>已投部分年化收益率!T13</f>
-        <v>3.966876971608833</v>
+        <v>4.0310679611650482</v>
       </c>
       <c r="E3" s="21">
         <f>AVERAGE($F3:AA3)</f>
@@ -34128,14 +34870,14 @@
       </c>
       <c r="S4" s="15"/>
     </row>
-    <row r="5" spans="2:19" s="29" customFormat="1" ht="15">
+    <row r="5" spans="2:19" s="29" customFormat="1">
       <c r="D5" s="31">
         <f>E3*D3</f>
-        <v>10.412390904311252</v>
+        <v>10.580881553398056</v>
       </c>
       <c r="R5" s="47"/>
     </row>
-    <row r="6" spans="2:19" s="29" customFormat="1" ht="15">
+    <row r="6" spans="2:19" s="29" customFormat="1">
       <c r="D6" s="31"/>
       <c r="R6" s="47"/>
     </row>
@@ -34184,13 +34926,13 @@
       </c>
       <c r="P7" s="35"/>
     </row>
-    <row r="8" spans="2:19" ht="15">
+    <row r="8" spans="2:19">
       <c r="C8" s="36" t="s">
         <v>92</v>
       </c>
       <c r="D8" s="37">
         <f>已投部分年化收益率!T27</f>
-        <v>10.872243439694468</v>
+        <v>11.151394655283317</v>
       </c>
       <c r="E8" s="37">
         <v>2.3376000000000001</v>
@@ -34227,7 +34969,7 @@
       </c>
       <c r="P8" s="38"/>
     </row>
-    <row r="9" spans="2:19" ht="15">
+    <row r="9" spans="2:19">
       <c r="C9" s="39"/>
       <c r="D9" s="37"/>
       <c r="E9" s="37"/>
@@ -34301,10 +35043,10 @@
       <c r="O10" s="37"/>
       <c r="P10" s="38"/>
     </row>
-    <row r="11" spans="2:19" ht="15">
+    <row r="11" spans="2:19">
       <c r="D11" s="37">
         <f>已投部分年化收益率!T28</f>
-        <v>37.875536480686691</v>
+        <v>38.91836734693878</v>
       </c>
       <c r="E11" s="37">
         <v>0.58919999999999995</v>
@@ -34337,7 +35079,7 @@
       <c r="O11" s="37"/>
       <c r="P11" s="38"/>
     </row>
-    <row r="12" spans="2:19" ht="15">
+    <row r="12" spans="2:19">
       <c r="C12" s="39"/>
       <c r="D12" s="37"/>
       <c r="E12" s="37"/>
@@ -34397,11 +35139,11 @@
       <c r="O13" s="37"/>
       <c r="P13" s="38"/>
     </row>
-    <row r="14" spans="2:19" ht="15">
+    <row r="14" spans="2:19">
       <c r="C14" s="39"/>
       <c r="D14" s="37">
         <f>已投部分年化收益率!T29</f>
-        <v>10.788508557457213</v>
+        <v>11.067904817179338</v>
       </c>
       <c r="E14" s="37">
         <v>1.8087</v>
@@ -34424,7 +35166,7 @@
       <c r="O14" s="37"/>
       <c r="P14" s="38"/>
     </row>
-    <row r="15" spans="2:19" ht="15">
+    <row r="15" spans="2:19">
       <c r="C15" s="39"/>
       <c r="D15" s="37"/>
       <c r="E15" s="37"/>
@@ -34472,11 +35214,11 @@
       <c r="O16" s="37"/>
       <c r="P16" s="38"/>
     </row>
-    <row r="17" spans="2:16" ht="15">
+    <row r="17" spans="2:16">
       <c r="C17" s="39"/>
       <c r="D17" s="37">
         <f>已投部分年化收益率!T30</f>
-        <v>23.745459437642943</v>
+        <v>24.40491425646276</v>
       </c>
       <c r="E17" s="37">
         <v>0.7984</v>
@@ -34497,7 +35239,7 @@
       <c r="O17" s="37"/>
       <c r="P17" s="38"/>
     </row>
-    <row r="18" spans="2:16" ht="15">
+    <row r="18" spans="2:16">
       <c r="C18" s="39"/>
       <c r="D18" s="37"/>
       <c r="E18" s="37"/>
@@ -34535,11 +35277,11 @@
       <c r="O19" s="37"/>
       <c r="P19" s="38"/>
     </row>
-    <row r="20" spans="2:16" ht="15">
+    <row r="20" spans="2:16">
       <c r="C20" s="42"/>
       <c r="D20" s="43">
         <f>(E8*D8*SUM(F9:Z9)+E11*D11*SUM(F12:AA12)+E14*D14*SUM(F15:AA15)+E17*D17*SUM(F18:Z18))/(SUM(F9:Z9)+SUM(F12:AA12)+SUM(F15:AA15)+SUM(F18:Z18))</f>
-        <v>23.106288482497465</v>
+        <v>23.71722680616001</v>
       </c>
       <c r="E20" s="44"/>
       <c r="F20" s="44"/>
@@ -34554,7 +35296,7 @@
       <c r="O20" s="44"/>
       <c r="P20" s="45"/>
     </row>
-    <row r="21" spans="2:16" ht="15">
+    <row r="21" spans="2:16">
       <c r="C21" s="37"/>
       <c r="D21" s="41"/>
       <c r="E21" s="37"/>
@@ -34626,7 +35368,7 @@
       </c>
       <c r="D23" s="21">
         <f>已投部分年化收益率!T26</f>
-        <v>11.447368421052632</v>
+        <v>11.060433295324971</v>
       </c>
       <c r="E23" s="21">
         <f>0.7248</f>
@@ -34704,10 +35446,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:16" ht="15">
+    <row r="25" spans="2:16">
       <c r="D25" s="31">
         <f>E23*D23</f>
-        <v>8.2970526315789481</v>
+        <v>8.0166020524515389</v>
       </c>
     </row>
     <row r="27" spans="2:16">
@@ -34763,7 +35505,7 @@
       </c>
       <c r="D28" s="21">
         <f>已投部分年化收益率!T20</f>
-        <v>38.195691202872531</v>
+        <v>38.404788418708236</v>
       </c>
       <c r="E28">
         <v>0.78010000000000002</v>
@@ -34834,10 +35576,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:16" ht="15">
+    <row r="30" spans="2:16">
       <c r="D30" s="31">
         <f>E28*D28</f>
-        <v>29.796458707360863</v>
+        <v>29.959575445434297</v>
       </c>
     </row>
     <row r="32" spans="2:16">
@@ -34890,7 +35632,7 @@
       </c>
       <c r="D33" s="21">
         <f>已投部分年化收益率!T21</f>
-        <v>24.748040313549833</v>
+        <v>24.903452311293155</v>
       </c>
       <c r="E33">
         <v>0.93979999999999997</v>
@@ -34955,10 +35697,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:17" ht="15">
+    <row r="35" spans="2:17">
       <c r="D35" s="31">
         <f>E33*D33</f>
-        <v>23.258208286674133</v>
+        <v>23.404264482153305</v>
       </c>
     </row>
     <row r="37" spans="2:17">
@@ -35011,7 +35753,7 @@
       </c>
       <c r="D38" s="21">
         <f>已投部分年化收益率!T24</f>
-        <v>39.561128526645767</v>
+        <v>39.812786297550289</v>
       </c>
       <c r="E38">
         <v>0.67659999999999998</v>
@@ -35076,10 +35818,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:17" ht="15">
+    <row r="40" spans="2:17">
       <c r="D40" s="31">
         <f>D38*E38</f>
-        <v>26.767059561128526</v>
+        <v>26.937331208922526</v>
       </c>
     </row>
     <row r="42" spans="2:17">
@@ -35135,7 +35877,7 @@
       </c>
       <c r="D43" s="21">
         <f>已投部分年化收益率!T39</f>
-        <v>6.7964759013844667</v>
+        <v>6.3424070747547328</v>
       </c>
       <c r="E43">
         <v>1.0154000000000001</v>
@@ -35209,7 +35951,7 @@
     <row r="45" spans="2:17">
       <c r="D45" s="31">
         <f>E43*D43</f>
-        <v>6.901141630265788</v>
+        <v>6.4400801437059565</v>
       </c>
     </row>
     <row r="47" spans="2:17">
@@ -35259,7 +36001,7 @@
       </c>
       <c r="D48" s="48">
         <f>已投部分年化收益率!T31</f>
-        <v>6.86261980830671</v>
+        <v>6.733576642335767</v>
       </c>
       <c r="E48">
         <v>1.6705000000000001</v>
@@ -35347,7 +36089,7 @@
       <c r="C51" s="39"/>
       <c r="D51" s="37">
         <f>已投部分年化收益率!T32</f>
-        <v>10.336862367661213</v>
+        <v>10.109589041095891</v>
       </c>
       <c r="E51" s="37">
         <v>0.97399999999999998</v>
@@ -35392,7 +36134,7 @@
       <c r="C53" s="42"/>
       <c r="D53" s="43">
         <f>(E48*D48*SUM(F49:AB49)+E51*D51*SUM(F52:AA52))/(SUM(F49:AB49)+SUM(F52:AA52))</f>
-        <v>11.264591754965741</v>
+        <v>11.048196916022684</v>
       </c>
       <c r="E53" s="44"/>
       <c r="F53" s="44"/>
@@ -35443,7 +36185,7 @@
       </c>
       <c r="D56" s="21">
         <f>已投部分年化收益率!T33</f>
-        <v>32.407551880168512</v>
+        <v>32.561886626629558</v>
       </c>
       <c r="E56">
         <v>0.87860000000000005</v>
@@ -35481,7 +36223,7 @@
     <row r="58" spans="2:17">
       <c r="D58" s="31">
         <f>E56*D56</f>
-        <v>28.473275081916057</v>
+        <v>28.608873590156733</v>
       </c>
     </row>
     <row r="60" spans="2:17">
@@ -35517,7 +36259,7 @@
       </c>
       <c r="D61" s="21">
         <f>已投部分年化收益率!V37</f>
-        <v>1.180585920419764</v>
+        <v>1.1507725093233885</v>
       </c>
       <c r="E61">
         <v>0.91320000000000001</v>
@@ -35549,7 +36291,7 @@
     <row r="63" spans="2:17">
       <c r="D63" s="31">
         <f>E61*D61</f>
-        <v>1.0781110625273285</v>
+        <v>1.0508854555141183</v>
       </c>
     </row>
     <row r="65" spans="2:11">
@@ -35577,7 +36319,7 @@
       <c r="K65" s="34"/>
     </row>
     <row r="66" spans="2:11">
-      <c r="B66" s="109" t="s">
+      <c r="B66" s="108" t="s">
         <v>41</v>
       </c>
       <c r="C66" s="36" t="s">
@@ -35585,7 +36327,7 @@
       </c>
       <c r="D66" s="48">
         <f>已投部分年化收益率!T35</f>
-        <v>20.986358866736619</v>
+        <v>21.150186764394956</v>
       </c>
       <c r="E66">
         <v>1.5638000000000001</v>
@@ -35641,7 +36383,7 @@
       <c r="C69" s="39"/>
       <c r="D69" s="48">
         <f>已投部分年化收益率!T36</f>
-        <v>38.24091778202677</v>
+        <v>38.543539686617009</v>
       </c>
       <c r="E69" s="37">
         <v>0.88029999999999997</v>
@@ -35678,7 +36420,7 @@
       <c r="C71" s="42"/>
       <c r="D71" s="43">
         <f>(E66*D66*SUM(F67:AB67)+E69*D69*SUM(F70:AA70))/(SUM(F67:AB67)+SUM(F70:AA70))</f>
-        <v>33.240973959660451</v>
+        <v>33.502270024144892</v>
       </c>
       <c r="E71" s="44"/>
       <c r="F71" s="44"/>
@@ -35716,8 +36458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AB39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -35839,7 +36581,7 @@
       </c>
       <c r="M5" s="3"/>
     </row>
-    <row r="6" spans="1:18" ht="15">
+    <row r="6" spans="1:18">
       <c r="A6" s="25"/>
       <c r="B6" s="2" t="s">
         <v>18</v>
@@ -35855,7 +36597,7 @@
       <c r="E6" s="50"/>
       <c r="M6" s="3"/>
     </row>
-    <row r="7" spans="1:18" ht="15">
+    <row r="7" spans="1:18">
       <c r="A7" s="25"/>
       <c r="B7" s="2" t="s">
         <v>19</v>
@@ -36226,15 +36968,15 @@
       </c>
       <c r="H28" s="1">
         <f>已投部分年化收益率!X13</f>
-        <v>10.36193626133454</v>
+        <v>10.529610466280637</v>
       </c>
       <c r="I28" s="1">
         <f>ETF计划成本计算!D5</f>
-        <v>10.412390904311252</v>
+        <v>10.580881553398056</v>
       </c>
       <c r="J28" s="18">
         <f>已投部分年化收益率!S13/H28-1</f>
-        <v>-2.9138980757989374E-2</v>
+        <v>-1.4208547102453561E-2</v>
       </c>
     </row>
     <row r="29" spans="1:28">
@@ -36247,15 +36989,15 @@
       </c>
       <c r="H29" s="1">
         <f>已投部分年化收益率!X15</f>
-        <v>11.536463478335202</v>
+        <v>11.264039473536005</v>
       </c>
       <c r="I29" s="1">
         <f>ETF计划成本计算!D53</f>
-        <v>11.264591754965741</v>
+        <v>11.048196916022684</v>
       </c>
       <c r="J29" s="18">
         <f>已投部分年化收益率!S15/H29-1</f>
-        <v>-6.9038789905668474E-2</v>
+        <v>-1.7226455393012929E-2</v>
       </c>
     </row>
     <row r="30" spans="1:28">
@@ -36268,15 +37010,15 @@
       </c>
       <c r="H30" s="55">
         <f>已投部分年化收益率!X16</f>
-        <v>22.627504244054737</v>
+        <v>23.143833381245198</v>
       </c>
       <c r="I30" s="4">
         <f>ETF计划成本计算!D20</f>
-        <v>23.106288482497465</v>
+        <v>23.71722680616001</v>
       </c>
       <c r="J30" s="18">
         <f>已投部分年化收益率!S16/H30-1</f>
-        <v>-0.21997583959629807</v>
+        <v>-0.17602241228311222</v>
       </c>
     </row>
     <row r="31" spans="1:28">
@@ -36289,14 +37031,14 @@
       </c>
       <c r="H31" s="1">
         <f>已投部分年化收益率!X17</f>
-        <v>27.822537267324179</v>
+        <v>27.850928085705149</v>
       </c>
       <c r="I31" s="27" t="s">
         <v>115</v>
       </c>
       <c r="J31" s="18">
         <f>已投部分年化收益率!S17/H31-1</f>
-        <v>-0.29194092505946934</v>
+        <v>-0.25460293688901015</v>
       </c>
     </row>
     <row r="32" spans="1:28">
@@ -36309,15 +37051,15 @@
       </c>
       <c r="H32" s="1">
         <f>已投部分年化收益率!X18</f>
-        <v>31.084335611636959</v>
+        <v>31.203990960651826</v>
       </c>
       <c r="I32" s="4">
         <f>ETF计划成本计算!D71</f>
-        <v>33.240973959660451</v>
+        <v>33.502270024144892</v>
       </c>
       <c r="J32" s="18">
         <f>已投部分年化收益率!S18/H32-1</f>
-        <v>-9.9224755843978385E-2</v>
+        <v>-3.8264046485510295E-2</v>
       </c>
     </row>
     <row r="33" spans="6:10">
@@ -36330,15 +37072,15 @@
       </c>
       <c r="H33" s="1">
         <f>已投部分年化收益率!X19</f>
-        <v>29.334793714838217</v>
+        <v>29.443598214563757</v>
       </c>
       <c r="I33" s="1">
         <f>ETF计划成本计算!D30</f>
-        <v>29.796458707360863</v>
+        <v>29.959575445434297</v>
       </c>
       <c r="J33" s="18">
         <f>已投部分年化收益率!S19/H33-1</f>
-        <v>-0.12970241931217885</v>
+        <v>-6.2954201489100137E-2</v>
       </c>
     </row>
     <row r="34" spans="6:10">
@@ -36351,15 +37093,15 @@
       </c>
       <c r="H34" s="1">
         <f>已投部分年化收益率!X21</f>
-        <v>23.452498558068552</v>
+        <v>23.599774851738808</v>
       </c>
       <c r="I34" s="1">
         <f>ETF计划成本计算!D35</f>
-        <v>23.258208286674133</v>
+        <v>23.404264482153305</v>
       </c>
       <c r="J34" s="18">
         <f>已投部分年化收益率!S21/H34-1</f>
-        <v>-0.15190273007576482</v>
+        <v>-9.8296482331393431E-2</v>
       </c>
     </row>
     <row r="35" spans="6:10">
@@ -36372,15 +37114,15 @@
       </c>
       <c r="H35" s="56">
         <f>已投部分年化收益率!X23</f>
-        <v>25.983136758016428</v>
+        <v>26.099457852375178</v>
       </c>
       <c r="I35" s="1">
         <f>ETF计划成本计算!D40</f>
-        <v>26.767059561128526</v>
+        <v>26.937331208922526</v>
       </c>
       <c r="J35" s="18">
         <f>已投部分年化收益率!S24/H35-1</f>
-        <v>-0.27145054978169114</v>
+        <v>-0.23408370729122974</v>
       </c>
     </row>
     <row r="36" spans="6:10">
@@ -36393,15 +37135,15 @@
       </c>
       <c r="H36" s="1">
         <f>已投部分年化收益率!X25</f>
-        <v>28.553373259232707</v>
+        <v>28.590147584446218</v>
       </c>
       <c r="I36" s="1">
         <f>ETF计划成本计算!D58</f>
-        <v>28.473275081916057</v>
+        <v>28.608873590156733</v>
       </c>
       <c r="J36" s="18">
         <f>已投部分年化收益率!S25/H36-1</f>
-        <v>-0.27259032369199887</v>
+        <v>-0.22245941772984423</v>
       </c>
     </row>
     <row r="37" spans="6:10">
@@ -36414,15 +37156,15 @@
       </c>
       <c r="H37" s="1">
         <f>已投部分年化收益率!Y37</f>
-        <v>1.0720507214691737</v>
+        <v>1.044978156632925</v>
       </c>
       <c r="I37" s="1">
         <f>ETF计划成本计算!D63</f>
-        <v>1.0781110625273285</v>
+        <v>1.0508854555141183</v>
       </c>
       <c r="J37" s="18">
         <f>已投部分年化收益率!U37/H37-1</f>
-        <v>7.4150209235739339E-3</v>
+        <v>3.3514426253578922E-2</v>
       </c>
     </row>
     <row r="38" spans="6:10">
@@ -36435,11 +37177,11 @@
       </c>
       <c r="H38" s="1">
         <f>已投部分年化收益率!Y22</f>
-        <v>1.2913875165579136</v>
+        <v>1.2801705910000913</v>
       </c>
       <c r="J38" s="18">
         <f>已投部分年化收益率!U22/资产配置表!H38-1</f>
-        <v>-4.7536092590965251E-2</v>
+        <v>-2.3567633260909049E-2</v>
       </c>
     </row>
     <row r="39" spans="6:10">
@@ -36452,11 +37194,11 @@
       </c>
       <c r="H39" s="1">
         <f>已投部分年化收益率!X34</f>
-        <v>20.6</v>
+        <v>21.169228295819934</v>
       </c>
       <c r="J39" s="18">
         <f>已投部分年化收益率!S34/资产配置表!H39-1</f>
-        <v>0</v>
+        <v>8.9316987740805542E-2</v>
       </c>
     </row>
   </sheetData>
@@ -36471,8 +37213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AB47"/>
   <sheetViews>
-    <sheetView topLeftCell="R16" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47:Q47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -36489,7 +37231,7 @@
     <col min="17" max="17" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" ht="15">
+    <row r="2" spans="1:12">
       <c r="A2" s="90"/>
       <c r="B2" s="90" t="str">
         <f>组合权益类行业占比!K1</f>
@@ -36532,7 +37274,7 @@
         <v>公用事业</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15">
+    <row r="3" spans="1:12">
       <c r="A3" s="90" t="str">
         <f>组合权益类行业占比!J2</f>
         <v>中证红利</v>
@@ -36578,7 +37320,7 @@
         <v>0.16010000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15">
+    <row r="4" spans="1:12">
       <c r="A4" s="94" t="str">
         <f>组合权益类行业占比!J3</f>
         <v>上证指数</v>
@@ -36624,7 +37366,7 @@
         <v>4.3900000000000002E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15">
+    <row r="5" spans="1:12">
       <c r="A5" s="90" t="str">
         <f>组合权益类行业占比!J4</f>
         <v>上证50</v>
@@ -36670,7 +37412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15">
+    <row r="6" spans="1:12">
       <c r="A6" s="90" t="str">
         <f>组合权益类行业占比!J5</f>
         <v>沪深300</v>
@@ -36716,7 +37458,7 @@
         <v>2.8300000000000002E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15">
+    <row r="7" spans="1:12">
       <c r="A7" s="90" t="str">
         <f>组合权益类行业占比!J6</f>
         <v>中证500</v>
@@ -36762,7 +37504,7 @@
         <v>3.1300000000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15">
+    <row r="8" spans="1:12">
       <c r="A8" s="90" t="str">
         <f>组合权益类行业占比!J7</f>
         <v>中证1000</v>
@@ -36808,7 +37550,7 @@
         <v>2.2700000000000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15">
+    <row r="9" spans="1:12">
       <c r="A9" s="90" t="str">
         <f>组合权益类行业占比!J8</f>
         <v>金融地产</v>
@@ -36854,7 +37596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15">
+    <row r="10" spans="1:12">
       <c r="A10" s="90" t="str">
         <f>组合权益类行业占比!J9</f>
         <v>证券公司</v>
@@ -36900,7 +37642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15">
+    <row r="11" spans="1:12">
       <c r="A11" s="90" t="str">
         <f>组合权益类行业占比!J10</f>
         <v>中证传媒</v>
@@ -36946,7 +37688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15">
+    <row r="12" spans="1:12">
       <c r="A12" s="90" t="str">
         <f>组合权益类行业占比!J11</f>
         <v>全指医药</v>
@@ -36992,7 +37734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15">
+    <row r="13" spans="1:12">
       <c r="A13" s="90" t="str">
         <f>组合权益类行业占比!J12</f>
         <v>养老产业</v>
@@ -37038,7 +37780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15">
+    <row r="14" spans="1:12">
       <c r="A14" s="90" t="str">
         <f>组合权益类行业占比!J13</f>
         <v>中证环保</v>
@@ -37084,7 +37826,7 @@
         <v>0.13019999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15">
+    <row r="15" spans="1:12">
       <c r="A15" s="90" t="str">
         <f>组合权益类行业占比!J14</f>
         <v>创业板指</v>
@@ -37130,7 +37872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15">
+    <row r="16" spans="1:12">
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
       <c r="E16" s="18"/>
@@ -37228,7 +37970,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="15">
+    <row r="18" spans="1:28">
       <c r="A18" s="3">
         <v>38544</v>
       </c>
@@ -37314,7 +38056,7 @@
         <v>1.33</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="15">
+    <row r="19" spans="1:28">
       <c r="A19" s="3">
         <v>39748</v>
       </c>
@@ -37400,7 +38142,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="20" spans="1:28" ht="15">
+    <row r="20" spans="1:28">
       <c r="A20" s="3">
         <v>41240</v>
       </c>
@@ -37486,90 +38228,90 @@
         <v>1.76</v>
       </c>
     </row>
-    <row r="21" spans="1:28" s="90" customFormat="1" ht="15">
+    <row r="21" spans="1:28" s="90" customFormat="1">
       <c r="A21" s="14">
-        <v>43397</v>
+        <v>43405</v>
       </c>
       <c r="B21" s="95">
         <v>75</v>
       </c>
       <c r="C21" s="95">
-        <v>15.87</v>
+        <v>15.24</v>
       </c>
       <c r="D21" s="95">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="E21" s="95">
         <v>565</v>
       </c>
       <c r="F21" s="95">
-        <v>18.43</v>
+        <v>17.989999999999998</v>
       </c>
       <c r="G21" s="95">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="H21" s="95">
         <v>962</v>
       </c>
       <c r="I21" s="95">
-        <v>22.24</v>
+        <v>22.55</v>
       </c>
       <c r="J21" s="95">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="K21" s="95">
         <v>595</v>
       </c>
       <c r="L21" s="95">
-        <v>18.87</v>
+        <v>19.04</v>
       </c>
       <c r="M21" s="95">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="N21" s="95">
         <v>222</v>
       </c>
       <c r="O21" s="95">
-        <v>25.63</v>
+        <v>25.02</v>
       </c>
       <c r="P21" s="95">
-        <v>2.0299999999999998</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="Q21" s="95">
         <v>292</v>
       </c>
       <c r="R21" s="95">
-        <v>23.7</v>
+        <v>24.58</v>
       </c>
       <c r="S21" s="95">
-        <v>2.2599999999999998</v>
+        <v>2.27</v>
       </c>
       <c r="T21" s="95">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="U21" s="95">
-        <v>11.45</v>
+        <v>11.76</v>
       </c>
       <c r="V21" s="95">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="W21" s="95">
         <v>589</v>
       </c>
       <c r="X21" s="95">
-        <v>30.16</v>
+        <v>30.54</v>
       </c>
       <c r="Y21" s="95">
-        <v>2.27</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="Z21" s="95">
         <v>108</v>
       </c>
       <c r="AA21" s="95">
-        <v>20.329999999999998</v>
+        <v>20.09</v>
       </c>
       <c r="AB21" s="95">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="22" spans="1:28">
@@ -37579,7 +38321,7 @@
       <c r="B22" s="90"/>
       <c r="C22" s="60">
         <f>IF(C19/C21-1&gt;0,0,C19/C21-1)</f>
-        <v>-0.32955261499684929</v>
+        <v>-0.30183727034120733</v>
       </c>
       <c r="D22" s="60">
         <f>IF(D19/D21-1&gt;0,0,D19/D21-1)</f>
@@ -37588,47 +38330,47 @@
       <c r="E22" s="90"/>
       <c r="F22" s="60">
         <f>IF(F19/F21-1&gt;0,0,F19/F21-1)</f>
-        <v>-0.46771568095496474</v>
+        <v>-0.45469705391884374</v>
       </c>
       <c r="G22" s="60">
         <f>IF(G19/G21-1&gt;0,0,G19/G21-1)</f>
-        <v>-0.23428571428571421</v>
+        <v>-0.23863636363636365</v>
       </c>
       <c r="H22" s="90"/>
       <c r="I22" s="60">
         <f t="shared" ref="I22:J22" si="0">IF(I19/I21-1&gt;0,0,I19/I21-1)</f>
-        <v>-0.30935251798561147</v>
+        <v>-0.3188470066518847</v>
       </c>
       <c r="J22" s="60">
         <f t="shared" si="0"/>
-        <v>-4.6242774566474076E-2</v>
+        <v>-5.1724137931034475E-2</v>
       </c>
       <c r="K22" s="90"/>
       <c r="L22" s="60">
         <f t="shared" ref="L22:M22" si="1">IF(L19/L21-1&gt;0,0,L19/L21-1)</f>
-        <v>-0.3184949655537892</v>
+        <v>-0.32457983193277307</v>
       </c>
       <c r="M22" s="60">
         <f t="shared" si="1"/>
-        <v>-4.3478260869565299E-2</v>
+        <v>-4.9382716049382713E-2</v>
       </c>
       <c r="N22" s="90"/>
       <c r="O22" s="60">
         <f t="shared" ref="O22:P22" si="2">IF(O19/O21-1&gt;0,0,O19/O21-1)</f>
-        <v>-7.8813889972688234E-2</v>
+        <v>-5.6354916067146266E-2</v>
       </c>
       <c r="P22" s="60">
         <f t="shared" si="2"/>
-        <v>-3.9408866995073843E-2</v>
+        <v>-2.9850746268656581E-2</v>
       </c>
       <c r="Q22" s="90"/>
       <c r="R22" s="60">
         <f t="shared" ref="R22:S22" si="3">IF(R19/R21-1&gt;0,0,R19/R21-1)</f>
-        <v>-0.18185654008438812</v>
+        <v>-0.21114727420667201</v>
       </c>
       <c r="S22" s="60">
         <f t="shared" si="3"/>
-        <v>-7.5221238938053103E-2</v>
+        <v>-7.9295154185022088E-2</v>
       </c>
       <c r="T22" s="90"/>
       <c r="U22" s="60">
@@ -37642,11 +38384,11 @@
       <c r="W22" s="90"/>
       <c r="X22" s="60">
         <f t="shared" ref="X22:Y22" si="5">IF(X19/X21-1&gt;0,0,X19/X21-1)</f>
-        <v>-0.5862068965517242</v>
+        <v>-0.59135559921414538</v>
       </c>
       <c r="Y22" s="60">
         <f t="shared" si="5"/>
-        <v>-0.31277533039647576</v>
+        <v>-0.32173913043478253</v>
       </c>
       <c r="Z22" s="90"/>
       <c r="AA22" s="60">
@@ -37729,23 +38471,23 @@
       </c>
       <c r="C26" s="58">
         <f>(1+$G$22)*C3</f>
-        <v>3.5912000000000006E-2</v>
+        <v>3.570795454545455E-2</v>
       </c>
       <c r="D26" s="58">
         <f>(1+$J$22)*D3</f>
-        <v>0.17291618497109823</v>
+        <v>0.17192241379310344</v>
       </c>
       <c r="E26" s="58">
         <f>(1+$M$22)*E3</f>
-        <v>0.17590434782608694</v>
+        <v>0.17481851851851854</v>
       </c>
       <c r="F26" s="58">
         <f>(1+$P$22)*F3</f>
-        <v>7.5310344827586209E-2</v>
+        <v>7.6059701492537324E-2</v>
       </c>
       <c r="G26" s="58">
         <f>(1+$S$22)*G3</f>
-        <v>4.2539823008849557E-3</v>
+        <v>4.2352422907488982E-3</v>
       </c>
       <c r="H26" s="58">
         <f>(1+$V$22)*H3</f>
@@ -37753,7 +38495,7 @@
       </c>
       <c r="I26" s="58">
         <f>(1+$Y$22)*I3</f>
-        <v>1.7524229074889867E-2</v>
+        <v>1.7295652173913045E-2</v>
       </c>
       <c r="J26" s="58">
         <f t="shared" ref="J26:J27" si="7">(1+$D$22)*J3</f>
@@ -37765,14 +38507,14 @@
       </c>
       <c r="L26" s="60">
         <f>SUM(B26:K26)-1</f>
-        <v>-3.8678910999453753E-2</v>
+        <v>-4.0460517185724187E-2</v>
       </c>
       <c r="M26" s="99">
         <v>3766.12</v>
       </c>
       <c r="N26" s="99">
         <f>M26*(1+L26)</f>
-        <v>3620.4505797067372</v>
+        <v>3613.7408370165003</v>
       </c>
       <c r="O26" s="89">
         <f>资产配置表!C3</f>
@@ -37780,7 +38522,7 @@
       </c>
       <c r="P26" s="60">
         <f>O26*(1+L26)</f>
-        <v>6.4312380854136542E-2</v>
+        <v>6.419319140027506E-2</v>
       </c>
     </row>
     <row r="27" spans="1:28" ht="12.75" customHeight="1">
@@ -37793,23 +38535,23 @@
       </c>
       <c r="C27" s="58">
         <f>(1+$G$22)*C4</f>
-        <v>6.7918857142857156E-2</v>
+        <v>6.7532954545454549E-2</v>
       </c>
       <c r="D27" s="58">
         <f>(1+$J$22)*D4</f>
-        <v>0.14954913294797686</v>
+        <v>0.14868965517241378</v>
       </c>
       <c r="E27" s="58">
         <f>(1+$M$22)*E4</f>
-        <v>8.5991304347826078E-2</v>
+        <v>8.5460493827160491E-2</v>
       </c>
       <c r="F27" s="58">
         <f>(1+$P$22)*F4</f>
-        <v>7.1660098522167495E-2</v>
+        <v>7.2373134328358221E-2</v>
       </c>
       <c r="G27" s="58">
         <f>(1+$S$22)*G4</f>
-        <v>4.3094690265486728E-2</v>
+        <v>4.2904845814977971E-2</v>
       </c>
       <c r="H27" s="58">
         <f>(1+$V$22)*H4</f>
@@ -37817,7 +38559,7 @@
       </c>
       <c r="I27" s="58">
         <f>(1+$Y$22)*I4</f>
-        <v>3.9996475770925112E-2</v>
+        <v>3.9474782608695656E-2</v>
       </c>
       <c r="J27" s="58">
         <f t="shared" si="7"/>
@@ -37829,14 +38571,14 @@
       </c>
       <c r="L27" s="60">
         <f>SUM(B27:K27)-1</f>
-        <v>-5.6589441002760532E-2</v>
+        <v>-5.8364133702939136E-2</v>
       </c>
       <c r="M27" s="99">
         <v>2563.31</v>
       </c>
       <c r="N27" s="99">
         <f>M27*(1+L27)</f>
-        <v>2418.2537199832141</v>
+        <v>2413.7046324379189</v>
       </c>
       <c r="O27" s="96">
         <f>资产配置表!C4</f>
@@ -37844,10 +38586,10 @@
       </c>
       <c r="P27" s="60">
         <f>O27*(1+L27)</f>
-        <v>7.5985706284914037E-3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:28" ht="15">
+        <v>7.5842766101580613E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28">
       <c r="A28" s="90" t="str">
         <f>组合权益类行业占比!J4</f>
         <v>上证50</v>
@@ -37858,23 +38600,23 @@
       </c>
       <c r="C28" s="58">
         <f t="shared" ref="C28:C38" si="9">(1+$G$22)*C5</f>
-        <v>4.272685714285715E-2</v>
+        <v>4.2484090909090909E-2</v>
       </c>
       <c r="D28" s="58">
         <f t="shared" ref="D28:D38" si="10">(1+$J$22)*D5</f>
-        <v>8.1641618497109825E-2</v>
+        <v>8.1172413793103457E-2</v>
       </c>
       <c r="E28" s="58">
         <f t="shared" ref="E28:E38" si="11">(1+$M$22)*E5</f>
-        <v>3.5869565217391298E-2</v>
+        <v>3.5648148148148144E-2</v>
       </c>
       <c r="F28" s="58">
         <f t="shared" ref="F28:F38" si="12">(1+$P$22)*F5</f>
-        <v>0.10633743842364533</v>
+        <v>0.10739552238805972</v>
       </c>
       <c r="G28" s="58">
         <f t="shared" ref="G28:G38" si="13">(1+$S$22)*G5</f>
-        <v>2.7465929203539824E-2</v>
+        <v>2.7344933920704844E-2</v>
       </c>
       <c r="H28" s="58">
         <f t="shared" ref="H28:H38" si="14">(1+$V$22)*H5</f>
@@ -37882,7 +38624,7 @@
       </c>
       <c r="I28" s="58">
         <f t="shared" ref="I28:I38" si="15">(1+$Y$22)*I5</f>
-        <v>7.4220264317180623E-3</v>
+        <v>7.3252173913043494E-3</v>
       </c>
       <c r="J28" s="58">
         <f>(1)*J5</f>
@@ -37894,14 +38636,14 @@
       </c>
       <c r="L28" s="60">
         <f t="shared" ref="L28:L38" si="17">SUM(B28:K28)-1</f>
-        <v>-2.8536565083738474E-2</v>
+        <v>-2.8629673449588555E-2</v>
       </c>
       <c r="M28" s="99">
         <v>2445.71</v>
       </c>
       <c r="N28" s="99">
         <f t="shared" ref="N28:N38" si="18">M28*(1+L28)</f>
-        <v>2375.9178374090502</v>
+        <v>2375.6901213476067</v>
       </c>
       <c r="O28" s="89">
         <f>资产配置表!C4</f>
@@ -37909,10 +38651,10 @@
       </c>
       <c r="P28" s="60">
         <f t="shared" ref="P28:P38" si="19">O28*(1+L28)</f>
-        <v>7.824518660310727E-3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:28" ht="15">
+        <v>7.8237687317803881E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28">
       <c r="A29" s="90" t="str">
         <f>组合权益类行业占比!J5</f>
         <v>沪深300</v>
@@ -37923,23 +38665,23 @@
       </c>
       <c r="C29" s="58">
         <f t="shared" si="9"/>
-        <v>5.6586285714285714E-2</v>
+        <v>5.6264772727272719E-2</v>
       </c>
       <c r="D29" s="58">
         <f t="shared" si="10"/>
-        <v>0.11826589595375721</v>
+        <v>0.11758620689655172</v>
       </c>
       <c r="E29" s="58">
         <f t="shared" si="11"/>
-        <v>0.1076086956521739</v>
+        <v>0.10694444444444445</v>
       </c>
       <c r="F29" s="58">
         <f t="shared" si="12"/>
-        <v>8.7221674876847302E-2</v>
+        <v>8.808955223880599E-2</v>
       </c>
       <c r="G29" s="58">
         <f t="shared" si="13"/>
-        <v>5.91858407079646E-2</v>
+        <v>5.8925110132158585E-2</v>
       </c>
       <c r="H29" s="58">
         <f t="shared" si="14"/>
@@ -37947,7 +38689,7 @@
       </c>
       <c r="I29" s="58">
         <f t="shared" si="15"/>
-        <v>4.7143612334801771E-2</v>
+        <v>4.6528695652173921E-2</v>
       </c>
       <c r="J29" s="58">
         <f t="shared" ref="J29:J38" si="20">(1)*J6</f>
@@ -37959,14 +38701,14 @@
       </c>
       <c r="L29" s="60">
         <f t="shared" si="17"/>
-        <v>-5.7687994760169503E-2</v>
+        <v>-5.9361217908592723E-2</v>
       </c>
       <c r="M29" s="99">
         <v>3141.3</v>
       </c>
       <c r="N29" s="99">
         <f t="shared" si="18"/>
-        <v>2960.0847020598799</v>
+        <v>2954.828606183738</v>
       </c>
       <c r="O29" s="89">
         <f>资产配置表!C5</f>
@@ -37974,10 +38716,10 @@
       </c>
       <c r="P29" s="60">
         <f t="shared" si="19"/>
-        <v>4.5096225634762566E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:28" ht="15">
+        <v>4.5016150194548472E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28">
       <c r="A30" s="90" t="str">
         <f>组合权益类行业占比!J6</f>
         <v>中证500</v>
@@ -37988,23 +38730,23 @@
       </c>
       <c r="C30" s="58">
         <f t="shared" si="9"/>
-        <v>0.12320342857142857</v>
+        <v>0.12250340909090908</v>
       </c>
       <c r="D30" s="58">
         <f t="shared" si="10"/>
-        <v>0.20658381502890172</v>
+        <v>0.20539655172413795</v>
       </c>
       <c r="E30" s="58">
         <f t="shared" si="11"/>
-        <v>0.11229565217391303</v>
+        <v>0.11160246913580248</v>
       </c>
       <c r="F30" s="58">
         <f t="shared" si="12"/>
-        <v>6.5896551724137942E-2</v>
+        <v>6.6552238805970165E-2</v>
       </c>
       <c r="G30" s="58">
         <f t="shared" si="13"/>
-        <v>0.10736681415929203</v>
+        <v>0.10689383259911893</v>
       </c>
       <c r="H30" s="58">
         <f t="shared" si="14"/>
@@ -38012,7 +38754,7 @@
       </c>
       <c r="I30" s="58">
         <f t="shared" si="15"/>
-        <v>0.1148352422907489</v>
+        <v>0.11333739130434783</v>
       </c>
       <c r="J30" s="58">
         <f t="shared" si="20"/>
@@ -38024,14 +38766,14 @@
       </c>
       <c r="L30" s="60">
         <f t="shared" si="17"/>
-        <v>-0.11641849605157761</v>
+        <v>-0.12031410733971359</v>
       </c>
       <c r="M30" s="99">
         <v>4151.7299999999996</v>
       </c>
       <c r="N30" s="99">
         <f t="shared" si="18"/>
-        <v>3668.3918373877832</v>
+        <v>3652.2183111344907</v>
       </c>
       <c r="O30" s="89">
         <f>资产配置表!C6</f>
@@ -38039,10 +38781,10 @@
       </c>
       <c r="P30" s="60">
         <f t="shared" si="19"/>
-        <v>0.20067097954031096</v>
-      </c>
-    </row>
-    <row r="31" spans="1:28" ht="15">
+        <v>0.19978624380330737</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28">
       <c r="A31" s="90" t="str">
         <f>组合权益类行业占比!J7</f>
         <v>中证1000</v>
@@ -38053,23 +38795,23 @@
       </c>
       <c r="C31" s="58">
         <f t="shared" si="9"/>
-        <v>0.12856342857142858</v>
+        <v>0.12783295454545454</v>
       </c>
       <c r="D31" s="58">
         <f t="shared" si="10"/>
-        <v>0.22508670520231214</v>
+        <v>0.22379310344827588</v>
       </c>
       <c r="E31" s="58">
         <f t="shared" si="11"/>
-        <v>0.12224347826086955</v>
+        <v>0.12148888888888888</v>
       </c>
       <c r="F31" s="58">
         <f t="shared" si="12"/>
-        <v>5.0431034482758624E-2</v>
+        <v>5.0932835820895528E-2</v>
       </c>
       <c r="G31" s="58">
         <f t="shared" si="13"/>
-        <v>9.7749115044247784E-2</v>
+        <v>9.7318502202643167E-2</v>
       </c>
       <c r="H31" s="58">
         <f t="shared" si="14"/>
@@ -38077,7 +38819,7 @@
       </c>
       <c r="I31" s="58">
         <f t="shared" si="15"/>
-        <v>0.12287577092511012</v>
+        <v>0.12127304347826087</v>
       </c>
       <c r="J31" s="58">
         <f t="shared" si="20"/>
@@ -38089,14 +38831,14 @@
       </c>
       <c r="L31" s="60">
         <f t="shared" si="17"/>
-        <v>-0.12165046751327313</v>
+        <v>-0.12596067161558111</v>
       </c>
       <c r="M31" s="99">
         <v>4270.1499999999996</v>
       </c>
       <c r="N31" s="99">
         <f t="shared" si="18"/>
-        <v>3750.6842561481963</v>
+        <v>3732.2790381007262</v>
       </c>
       <c r="O31" s="89">
         <f>资产配置表!C7</f>
@@ -38104,10 +38846,10 @@
       </c>
       <c r="P31" s="60">
         <f t="shared" si="19"/>
-        <v>4.3586481582387877E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:28" ht="15">
+        <v>4.3372595623810878E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28">
       <c r="A32" s="90" t="str">
         <f>组合权益类行业占比!J8</f>
         <v>金融地产</v>
@@ -38172,7 +38914,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="15">
+    <row r="33" spans="1:17">
       <c r="A33" s="90" t="str">
         <f>组合权益类行业占比!J9</f>
         <v>证券公司</v>
@@ -38237,7 +38979,7 @@
         <v>3.1965149999999998E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="15">
+    <row r="34" spans="1:17">
       <c r="A34" s="90" t="str">
         <f>组合权益类行业占比!J10</f>
         <v>中证传媒</v>
@@ -38256,7 +38998,7 @@
       </c>
       <c r="E34" s="58">
         <f t="shared" si="11"/>
-        <v>0.50446956521739128</v>
+        <v>0.50135555555555555</v>
       </c>
       <c r="F34" s="58">
         <f t="shared" si="12"/>
@@ -38272,7 +39014,7 @@
       </c>
       <c r="I34" s="58">
         <f t="shared" si="15"/>
-        <v>0.32478237885462552</v>
+        <v>0.32054608695652176</v>
       </c>
       <c r="J34" s="58">
         <f t="shared" si="20"/>
@@ -38284,14 +39026,14 @@
       </c>
       <c r="L34" s="60">
         <f t="shared" si="17"/>
-        <v>-0.17074805592798326</v>
+        <v>-0.17809835748792269</v>
       </c>
       <c r="M34" s="99">
         <v>1074.96</v>
       </c>
       <c r="N34" s="99">
         <f t="shared" si="18"/>
-        <v>891.41266979965519</v>
+        <v>883.51138963478263</v>
       </c>
       <c r="O34" s="89">
         <f>资产配置表!C14</f>
@@ -38299,10 +39041,10 @@
       </c>
       <c r="P34" s="60">
         <f t="shared" si="19"/>
-        <v>3.070339529569335E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" ht="15">
+        <v>3.0431247348437197E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
       <c r="A35" s="90" t="str">
         <f>组合权益类行业占比!J11</f>
         <v>全指医药</v>
@@ -38329,7 +39071,7 @@
       </c>
       <c r="G35" s="58">
         <f t="shared" si="13"/>
-        <v>0.9247787610619469</v>
+        <v>0.92070484581497791</v>
       </c>
       <c r="H35" s="58">
         <f t="shared" si="14"/>
@@ -38349,14 +39091,14 @@
       </c>
       <c r="L35" s="60">
         <f t="shared" si="17"/>
-        <v>-7.5221238938053103E-2</v>
+        <v>-7.9295154185022088E-2</v>
       </c>
       <c r="M35" s="99">
         <v>7702.38</v>
       </c>
       <c r="N35" s="99">
         <f t="shared" si="18"/>
-        <v>7122.9974336283185</v>
+        <v>7091.6185903083697</v>
       </c>
       <c r="O35" s="89">
         <f>资产配置表!C10</f>
@@ -38364,10 +39106,10 @@
       </c>
       <c r="P35" s="60">
         <f t="shared" si="19"/>
-        <v>5.6481995685840704E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" ht="15">
+        <v>5.62331763215859E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
       <c r="A36" s="90" t="str">
         <f>组合权益类行业占比!J12</f>
         <v>养老产业</v>
@@ -38386,15 +39128,15 @@
       </c>
       <c r="E36" s="58">
         <f t="shared" si="11"/>
-        <v>0.32273043478260871</v>
+        <v>0.32073827160493829</v>
       </c>
       <c r="F36" s="58">
         <f t="shared" si="12"/>
-        <v>8.0881773399014784E-2</v>
+        <v>8.1686567164179116E-2</v>
       </c>
       <c r="G36" s="58">
         <f t="shared" si="13"/>
-        <v>0.35927654867256636</v>
+        <v>0.35769383259911891</v>
       </c>
       <c r="H36" s="58">
         <f t="shared" si="14"/>
@@ -38402,7 +39144,7 @@
       </c>
       <c r="I36" s="58">
         <f t="shared" si="15"/>
-        <v>7.0440528634361232E-2</v>
+        <v>6.9521739130434787E-2</v>
       </c>
       <c r="J36" s="58">
         <f t="shared" si="20"/>
@@ -38414,14 +39156,14 @@
       </c>
       <c r="L36" s="60">
         <f t="shared" si="17"/>
-        <v>-7.9270714511448959E-2</v>
+        <v>-8.2959589501328868E-2</v>
       </c>
       <c r="M36" s="99">
         <v>6092.76</v>
       </c>
       <c r="N36" s="99">
         <f t="shared" si="18"/>
-        <v>5609.7825614532248</v>
+        <v>5587.3071314698836</v>
       </c>
       <c r="O36" s="89">
         <f>资产配置表!C13</f>
@@ -38429,10 +39171,10 @@
       </c>
       <c r="P36" s="60">
         <f t="shared" si="19"/>
-        <v>5.9617221235383683E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" ht="15">
+        <v>5.9378366579788955E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
       <c r="A37" s="90" t="str">
         <f>组合权益类行业占比!J13</f>
         <v>中证环保</v>
@@ -38443,15 +39185,15 @@
       </c>
       <c r="C37" s="58">
         <f t="shared" si="9"/>
-        <v>4.4488000000000007E-2</v>
+        <v>4.4235227272727273E-2</v>
       </c>
       <c r="D37" s="58">
         <f t="shared" si="10"/>
-        <v>0.64569364161849707</v>
+        <v>0.64198275862068965</v>
       </c>
       <c r="E37" s="58">
         <f t="shared" si="11"/>
-        <v>5.0791304347826076E-2</v>
+        <v>5.0477777777777774E-2</v>
       </c>
       <c r="F37" s="58">
         <f t="shared" si="12"/>
@@ -38467,7 +39209,7 @@
       </c>
       <c r="I37" s="58">
         <f t="shared" si="15"/>
-        <v>5.6077533039647583E-2</v>
+        <v>5.5346086956521746E-2</v>
       </c>
       <c r="J37" s="58">
         <f t="shared" si="20"/>
@@ -38479,14 +39221,14 @@
       </c>
       <c r="L37" s="60">
         <f t="shared" si="17"/>
-        <v>-7.2749520994029315E-2</v>
+        <v>-7.7758149372283536E-2</v>
       </c>
       <c r="M37" s="99">
         <v>1017.27</v>
       </c>
       <c r="N37" s="99">
         <f t="shared" si="18"/>
-        <v>943.26409477840377</v>
+        <v>938.16896738805713</v>
       </c>
       <c r="O37" s="89">
         <f>资产配置表!C15</f>
@@ -38494,10 +39236,10 @@
       </c>
       <c r="P37" s="60">
         <f t="shared" si="19"/>
-        <v>5.5699043795302605E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" ht="15">
+        <v>5.5398180309425692E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
       <c r="A38" s="90" t="str">
         <f>组合权益类行业占比!J14</f>
         <v>创业板指</v>
@@ -38508,23 +39250,23 @@
       </c>
       <c r="C38" s="58">
         <f t="shared" si="9"/>
-        <v>2.7489142857142861E-2</v>
+        <v>2.7332954545454546E-2</v>
       </c>
       <c r="D38" s="58">
         <f t="shared" si="10"/>
-        <v>0.17997398843930634</v>
+        <v>0.17893965517241381</v>
       </c>
       <c r="E38" s="58">
         <f t="shared" si="11"/>
-        <v>5.7678260869565214E-2</v>
+        <v>5.7322222222222219E-2</v>
       </c>
       <c r="F38" s="58">
         <f t="shared" si="12"/>
-        <v>9.4041871921182268E-2</v>
+        <v>9.4977611940298523E-2</v>
       </c>
       <c r="G38" s="58">
         <f t="shared" si="13"/>
-        <v>0.17145398230088496</v>
+        <v>0.17069867841409692</v>
       </c>
       <c r="H38" s="58">
         <f t="shared" si="14"/>
@@ -38532,7 +39274,7 @@
       </c>
       <c r="I38" s="58">
         <f t="shared" si="15"/>
-        <v>0.26107665198237889</v>
+        <v>0.25767130434782615</v>
       </c>
       <c r="J38" s="58">
         <f t="shared" si="20"/>
@@ -38544,14 +39286,14 @@
       </c>
       <c r="L38" s="60">
         <f t="shared" si="17"/>
-        <v>-0.15638610162953959</v>
+        <v>-0.16115757335768788</v>
       </c>
       <c r="M38" s="99">
         <v>1249.94</v>
       </c>
       <c r="N38" s="99">
         <f t="shared" si="18"/>
-        <v>1054.4667561291733</v>
+        <v>1048.5027027572917</v>
       </c>
       <c r="O38" s="89">
         <f>资产配置表!C8</f>
@@ -38559,10 +39301,10 @@
       </c>
       <c r="P38" s="60">
         <f t="shared" si="19"/>
-        <v>2.0318957455765289E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" ht="15">
+        <v>2.0204033636666403E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
       <c r="O39" s="89">
         <f>1-SUM(O26:O38)</f>
         <v>0.28942878750000001</v>
@@ -38572,17 +39314,17 @@
         <v>0.28942878750000001</v>
       </c>
     </row>
-    <row r="40" spans="1:17" ht="15">
+    <row r="40" spans="1:17">
       <c r="O40" s="89">
         <f>SUM(O26:O39)</f>
         <v>1</v>
       </c>
       <c r="P40" s="89">
         <f>SUM(P26:P39)</f>
-        <v>0.93730370786838568</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" ht="15">
+        <v>0.93481516805978437</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
@@ -38773,7 +39515,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q66"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
@@ -38836,15 +39578,15 @@
       </c>
       <c r="C2" s="21">
         <f>(($N$2+1)*((1+$K$2*$G$2))^C$1)</f>
-        <v>0.80903620551986988</v>
+        <v>0.7940135039335261</v>
       </c>
       <c r="D2" s="21">
         <f>(($N$2+1)*((1+$K$2*$G$2))^D$1)</f>
-        <v>0.95672374426959872</v>
+        <v>0.93727571336649007</v>
       </c>
       <c r="E2" s="21">
         <f>(($N$2+1)*((1+$K$2*$G$2))^E$1)</f>
-        <v>1.1313712743684627</v>
+        <v>1.1063864260678979</v>
       </c>
       <c r="G2" s="88">
         <v>0.75</v>
@@ -38858,30 +39600,30 @@
       </c>
       <c r="K2" s="18">
         <f>已投部分年化收益率!W13</f>
-        <v>0.1166</v>
+        <v>0.1153</v>
       </c>
       <c r="L2" s="1">
         <f>资产配置表!H28</f>
-        <v>10.36193626133454</v>
+        <v>10.529610466280637</v>
       </c>
       <c r="M2" s="1">
         <v>21.73</v>
       </c>
       <c r="N2" s="18">
         <f t="shared" ref="N2:N12" si="0">$M2*0.3/$L2-1</f>
-        <v>-0.37087047868402911</v>
+        <v>-0.38088877828139645</v>
       </c>
       <c r="O2" s="18">
         <f t="shared" ref="O2:O12" si="1">$M2*0.5/$L2-1</f>
-        <v>4.8549202193284735E-2</v>
+        <v>3.1852036197672629E-2</v>
       </c>
       <c r="P2" s="18">
         <f t="shared" ref="P2:P12" si="2">$M2*0.7/$L2-1</f>
-        <v>0.46796888307059858</v>
+        <v>0.44459285067674137</v>
       </c>
       <c r="Q2" s="18">
         <f t="shared" ref="Q2:Q12" si="3">$M2/$L2-1</f>
-        <v>1.0970984043865695</v>
+        <v>1.0637040723953453</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -38895,15 +39637,15 @@
       </c>
       <c r="C3" s="21">
         <f>(($O$2+1)*((1+$K$2*$G$2))^C$1)</f>
-        <v>1.3483936758664496</v>
+        <v>1.3233558398892102</v>
       </c>
       <c r="D3" s="21">
         <f>(($O$2+1)*((1+$K$2*$G$2))^D$1)</f>
-        <v>1.5945395737826644</v>
+        <v>1.5621261889441502</v>
       </c>
       <c r="E3" s="21">
         <f>(($O$2+1)*((1+$K$2*$G$2))^E$1)</f>
-        <v>1.8856187906141046</v>
+        <v>1.8439773767798302</v>
       </c>
       <c r="I3" t="s">
         <v>216</v>
@@ -38914,30 +39656,30 @@
       </c>
       <c r="K3" s="18">
         <f>已投部分年化收益率!W15</f>
-        <v>0.1215</v>
+        <v>0.1206</v>
       </c>
       <c r="L3" s="1">
         <f>资产配置表!H29</f>
-        <v>11.536463478335202</v>
+        <v>11.264039473536005</v>
       </c>
       <c r="M3" s="1">
         <v>19</v>
       </c>
       <c r="N3" s="18">
         <f t="shared" si="0"/>
-        <v>-0.50591444157004761</v>
+        <v>-0.49396484153027764</v>
       </c>
       <c r="O3" s="18">
         <f t="shared" si="1"/>
-        <v>-0.17652406928341258</v>
+        <v>-0.15660806921712944</v>
       </c>
       <c r="P3" s="18">
         <f t="shared" si="2"/>
-        <v>0.15286630300322224</v>
+        <v>0.18074870309601865</v>
       </c>
       <c r="Q3" s="18">
         <f t="shared" si="3"/>
-        <v>0.64695186143317485</v>
+        <v>0.68678386156574112</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -38947,15 +39689,15 @@
       </c>
       <c r="C4" s="21">
         <f>(($P$2+1)*((1+$K$2*$G$2))^C$1)</f>
-        <v>1.8877511462130294</v>
+        <v>1.8526981758448939</v>
       </c>
       <c r="D4" s="21">
         <f>(($P$2+1)*((1+$K$2*$G$2))^D$1)</f>
-        <v>2.2323554032957302</v>
+        <v>2.1869766645218096</v>
       </c>
       <c r="E4" s="21">
         <f>(($P$2+1)*((1+$K$2*$G$2))^E$1)</f>
-        <v>2.6398663068597461</v>
+        <v>2.5815683274917616</v>
       </c>
       <c r="I4" t="s">
         <v>217</v>
@@ -38966,30 +39708,30 @@
       </c>
       <c r="K4" s="18">
         <f>已投部分年化收益率!W16</f>
-        <v>8.7599999999999997E-2</v>
+        <v>8.5500000000000007E-2</v>
       </c>
       <c r="L4" s="1">
         <f>资产配置表!H30</f>
-        <v>22.627504244054737</v>
+        <v>23.143833381245198</v>
       </c>
       <c r="M4" s="1">
         <v>83.24</v>
       </c>
       <c r="N4" s="18">
         <f t="shared" si="0"/>
-        <v>0.10361265346182691</v>
+        <v>7.8991521786372365E-2</v>
       </c>
       <c r="O4" s="18">
         <f t="shared" si="1"/>
-        <v>0.83935442243637826</v>
+        <v>0.7983192029772872</v>
       </c>
       <c r="P4" s="18">
         <f t="shared" si="2"/>
-        <v>1.5750961914109292</v>
+        <v>1.5176468841682018</v>
       </c>
       <c r="Q4" s="18">
         <f t="shared" si="3"/>
-        <v>2.6787088448727565</v>
+        <v>2.5966384059545744</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -39003,30 +39745,30 @@
       </c>
       <c r="K5" s="18">
         <f>已投部分年化收益率!W17</f>
-        <v>8.9099999999999999E-2</v>
+        <v>8.8800000000000004E-2</v>
       </c>
       <c r="L5" s="1">
         <f>资产配置表!H31</f>
-        <v>27.822537267324179</v>
+        <v>27.850928085705149</v>
       </c>
       <c r="M5" s="1">
         <v>144.82</v>
       </c>
       <c r="N5" s="18">
         <f t="shared" si="0"/>
-        <v>0.56153982588153784</v>
+        <v>0.55994801560308582</v>
       </c>
       <c r="O5" s="18">
         <f t="shared" si="1"/>
-        <v>1.6025663764692299</v>
+        <v>1.5999133593384762</v>
       </c>
       <c r="P5" s="18">
         <f t="shared" si="2"/>
-        <v>2.6435929270569218</v>
+        <v>2.6398787030738671</v>
       </c>
       <c r="Q5" s="18">
         <f t="shared" si="3"/>
-        <v>4.2051327529384599</v>
+        <v>4.1998267186769525</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -39039,15 +39781,15 @@
       </c>
       <c r="C6" s="21">
         <f>(($N$3+1)*((1+$K$3*$G$2))^C$1)</f>
-        <v>0.64183837497128049</v>
+        <v>0.65614218786972967</v>
       </c>
       <c r="D6" s="21">
         <f>(($N$3+1)*((1+$K$3*$G$2))^D$1)</f>
-        <v>0.76414309424468863</v>
+        <v>0.78020634176311898</v>
       </c>
       <c r="E6" s="21">
         <f>(($N$3+1)*((1+$K$3*$G$2))^E$1)</f>
-        <v>0.90975343832935318</v>
+        <v>0.92772869506181554</v>
       </c>
       <c r="I6" t="s">
         <v>178</v>
@@ -39062,26 +39804,26 @@
       </c>
       <c r="L6" s="1">
         <f>资产配置表!H32</f>
-        <v>31.084335611636959</v>
+        <v>31.203990960651826</v>
       </c>
       <c r="M6" s="1">
         <v>137.86000000000001</v>
       </c>
       <c r="N6" s="18">
         <f t="shared" si="0"/>
-        <v>0.3305093767073124</v>
+        <v>0.32540738305405759</v>
       </c>
       <c r="O6" s="18">
         <f t="shared" si="1"/>
-        <v>1.2175156278455206</v>
+        <v>1.2090123050900958</v>
       </c>
       <c r="P6" s="18">
         <f t="shared" si="2"/>
-        <v>2.104521878983729</v>
+        <v>2.0926172271261345</v>
       </c>
       <c r="Q6" s="18">
         <f t="shared" si="3"/>
-        <v>3.4350312556910412</v>
+        <v>3.4180246101801917</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -39095,15 +39837,15 @@
       </c>
       <c r="C7" s="21">
         <f>(($O$3+1)*((1+$K$3*$G$2))^C$1)</f>
-        <v>1.0697306249521343</v>
+        <v>1.093570313116216</v>
       </c>
       <c r="D7" s="21">
         <f>(($O$3+1)*((1+$K$2*$G$2))^D$1)</f>
-        <v>1.2522683311746643</v>
+        <v>1.2768154506676794</v>
       </c>
       <c r="E7" s="21">
         <f>(($O$3+1)*((1+$K$3*$G$2))^E$1)</f>
-        <v>1.5162557305489222</v>
+        <v>1.5462144917696925</v>
       </c>
       <c r="I7" t="s">
         <v>219</v>
@@ -39114,30 +39856,30 @@
       </c>
       <c r="K7" s="18">
         <f>已投部分年化收益率!W19</f>
-        <v>0.1153</v>
+        <v>0.1149</v>
       </c>
       <c r="L7" s="1">
         <f>资产配置表!H33</f>
-        <v>29.334793714838217</v>
+        <v>29.443598214563757</v>
       </c>
       <c r="M7" s="1">
         <v>74.42</v>
       </c>
       <c r="N7" s="18">
         <f t="shared" si="0"/>
-        <v>-0.23892425435032139</v>
+        <v>-0.24173669816765675</v>
       </c>
       <c r="O7" s="18">
         <f t="shared" si="1"/>
-        <v>0.26845957608279769</v>
+        <v>0.26377216972057216</v>
       </c>
       <c r="P7" s="18">
         <f t="shared" si="2"/>
-        <v>0.77584340651591677</v>
+        <v>0.76928103760880084</v>
       </c>
       <c r="Q7" s="18">
         <f t="shared" si="3"/>
-        <v>1.5369191521655954</v>
+        <v>1.5275443394411443</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -39147,15 +39889,15 @@
       </c>
       <c r="C8" s="21">
         <f>(($P$3+1)*((1+$K$3*$G$2))^C$1)</f>
-        <v>1.4976228749329878</v>
+        <v>1.5309984383627024</v>
       </c>
       <c r="D8" s="21">
         <f>(($P$3+1)*((1+$K$3*$G$2))^D$1)</f>
-        <v>1.7830005532376068</v>
+        <v>1.820481464113944</v>
       </c>
       <c r="E8" s="21">
         <f>(($P$3+1)*((1+$K$3*$G$2))^E$1)</f>
-        <v>2.1227580227684908</v>
+        <v>2.1647002884775692</v>
       </c>
       <c r="I8" t="s">
         <v>220</v>
@@ -39166,30 +39908,30 @@
       </c>
       <c r="K8" s="18">
         <f>已投部分年化收益率!W21</f>
-        <v>0.1227</v>
+        <v>0.1226</v>
       </c>
       <c r="L8" s="1">
         <f>资产配置表!H34</f>
-        <v>23.452498558068552</v>
+        <v>23.599774851738808</v>
       </c>
       <c r="M8" s="1">
         <v>52.47</v>
       </c>
       <c r="N8" s="18">
         <f t="shared" si="0"/>
-        <v>-0.32881351805543568</v>
+        <v>-0.33300211129598045</v>
       </c>
       <c r="O8" s="18">
         <f t="shared" si="1"/>
-        <v>0.11864413657427386</v>
+        <v>0.11166314784003251</v>
       </c>
       <c r="P8" s="18">
         <f t="shared" si="2"/>
-        <v>0.56610179120398341</v>
+        <v>0.55632840697604546</v>
       </c>
       <c r="Q8" s="18">
         <f t="shared" si="3"/>
-        <v>1.2372882731485477</v>
+        <v>1.223326295680065</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -39207,26 +39949,26 @@
       </c>
       <c r="L9" s="1">
         <f>资产配置表!H35</f>
-        <v>25.983136758016428</v>
+        <v>26.099457852375178</v>
       </c>
       <c r="M9" s="1">
         <v>71.13</v>
       </c>
       <c r="N9" s="18">
         <f t="shared" si="0"/>
-        <v>-0.17873657061761805</v>
+        <v>-0.18239680989932727</v>
       </c>
       <c r="O9" s="18">
         <f t="shared" si="1"/>
-        <v>0.36877238230396991</v>
+        <v>0.36267198350112118</v>
       </c>
       <c r="P9" s="18">
         <f t="shared" si="2"/>
-        <v>0.91628133522555788</v>
+        <v>0.90774077690156973</v>
       </c>
       <c r="Q9" s="18">
         <f t="shared" si="3"/>
-        <v>1.7375447646079398</v>
+        <v>1.7253439670022424</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -39239,15 +39981,15 @@
       </c>
       <c r="C10" s="21">
         <f>(($N$4+1)*((1+$K$4*$G$2))^C$1)</f>
-        <v>1.3357388836637309</v>
+        <v>1.3001575175040565</v>
       </c>
       <c r="D10" s="21">
         <f>(($N$4+1)*((1+$K$4*$G$2))^D$1)</f>
-        <v>1.517020676511091</v>
+        <v>1.4722489871508899</v>
       </c>
       <c r="E10" s="21">
         <f>(($N$4+1)*((1+$K$4*$G$2))^E$1)</f>
-        <v>1.7229053979846023</v>
+        <v>1.6671188305920461</v>
       </c>
       <c r="I10" t="s">
         <v>222</v>
@@ -39258,30 +40000,30 @@
       </c>
       <c r="K10" s="18">
         <f>已投部分年化收益率!W33</f>
-        <v>0.1143</v>
+        <v>0.1138</v>
       </c>
       <c r="L10" s="1">
         <f>资产配置表!H36</f>
-        <v>28.553373259232707</v>
+        <v>28.590147584446218</v>
       </c>
       <c r="M10" s="1">
         <v>121.16</v>
       </c>
       <c r="N10" s="18">
         <f t="shared" si="0"/>
-        <v>0.2729844446048737</v>
+        <v>0.27134705732593889</v>
       </c>
       <c r="O10" s="18">
         <f t="shared" si="1"/>
-        <v>1.1216407410081226</v>
+        <v>1.1189117622098981</v>
       </c>
       <c r="P10" s="18">
         <f t="shared" si="2"/>
-        <v>1.9702970374113717</v>
+        <v>1.9664764670938575</v>
       </c>
       <c r="Q10" s="18">
         <f t="shared" si="3"/>
-        <v>3.2432814820162452</v>
+        <v>3.2378235244197962</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -39295,15 +40037,15 @@
       </c>
       <c r="C11" s="21">
         <f>(($O$4+1)*((1+$K$4*$G$2))^C$1)</f>
-        <v>2.2262314727728847</v>
+        <v>2.166929195840094</v>
       </c>
       <c r="D11" s="21">
         <f>(($O$4+1)*((1+$K$4*$G$2))^D$1)</f>
-        <v>2.5283677941851517</v>
+        <v>2.4537483119181496</v>
       </c>
       <c r="E11" s="21">
         <f>(($O$4+1)*((1+$K$4*$G$2))^E$1)</f>
-        <v>2.8715089966410039</v>
+        <v>2.7785313843200767</v>
       </c>
       <c r="I11" t="s">
         <v>223</v>
@@ -39314,30 +40056,30 @@
       </c>
       <c r="K11" s="18">
         <f>已投部分年化收益率!W14</f>
-        <v>0.12280000000000001</v>
+        <v>0.12230000000000001</v>
       </c>
       <c r="L11" s="1">
         <f>资产配置表!H37</f>
-        <v>1.0720507214691737</v>
+        <v>1.044978156632925</v>
       </c>
       <c r="M11" s="1">
         <v>3.5</v>
       </c>
       <c r="N11" s="18">
         <f t="shared" si="0"/>
-        <v>-2.0568729657636564E-2</v>
+        <v>4.8056921909795935E-3</v>
       </c>
       <c r="O11" s="18">
         <f t="shared" si="1"/>
-        <v>0.63238545057060569</v>
+        <v>0.67467615365163236</v>
       </c>
       <c r="P11" s="18">
         <f t="shared" si="2"/>
-        <v>1.2853396307988478</v>
+        <v>1.3445466151122853</v>
       </c>
       <c r="Q11" s="18">
         <f t="shared" si="3"/>
-        <v>2.2647709011412114</v>
+        <v>2.3493523073032647</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -39347,15 +40089,15 @@
       </c>
       <c r="C12" s="21">
         <f>(($P$4+1)*((1+$K$4*$G$2))^C$1)</f>
-        <v>3.1167240618820382</v>
+        <v>3.0337008741761315</v>
       </c>
       <c r="D12" s="21">
         <f>(($P$4+1)*((1+$K$4*$G$2))^D$1)</f>
-        <v>3.5397149118592117</v>
+        <v>3.4352476366854092</v>
       </c>
       <c r="E12" s="21">
         <f>(($P$4+1)*((1+$K$4*$G$2))^E$1)</f>
-        <v>4.0201125952974053</v>
+        <v>3.8899439380481073</v>
       </c>
       <c r="I12" t="s">
         <v>239</v>
@@ -39366,30 +40108,30 @@
       </c>
       <c r="K12" s="18">
         <f>已投部分年化收益率!W22</f>
-        <v>5.5500000000000001E-2</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="L12" s="1">
         <f>资产配置表!H38</f>
-        <v>1.2913875165579136</v>
+        <v>1.2801705910000913</v>
       </c>
       <c r="M12">
         <v>5.04</v>
       </c>
       <c r="N12" s="18">
         <f t="shared" si="0"/>
-        <v>0.17083368130281351</v>
+        <v>0.18109259080760443</v>
       </c>
       <c r="O12" s="18">
         <f t="shared" si="1"/>
-        <v>0.95138946883802245</v>
+        <v>0.96848765134600745</v>
       </c>
       <c r="P12" s="18">
         <f t="shared" si="2"/>
-        <v>1.7319452563732312</v>
+        <v>1.7558827118844098</v>
       </c>
       <c r="Q12" s="18">
         <f t="shared" si="3"/>
-        <v>2.9027789376760449</v>
+        <v>2.9369753026920149</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -39415,15 +40157,15 @@
       </c>
       <c r="C14" s="21">
         <f>(($N$5+1)*((1+$K$5*$G$2))^C$1)</f>
-        <v>1.8959750513365965</v>
+        <v>1.8928441797659854</v>
       </c>
       <c r="D14" s="21">
         <f>(($N$5+1)*((1+$K$5*$G$2))^D$1)</f>
-        <v>2.1578387464024642</v>
+        <v>2.1533668484408173</v>
       </c>
       <c r="E14" s="21">
         <f>(($N$5+1)*((1+$K$5*$G$2))^E$1)</f>
-        <v>2.4558698977569624</v>
+        <v>2.4497467005114042</v>
       </c>
       <c r="I14" t="s">
         <v>282</v>
@@ -39446,15 +40188,15 @@
       </c>
       <c r="C15" s="21">
         <f>(($O$5+1)*((1+$K$5*$G$2))^C$1)</f>
-        <v>3.1599584188943277</v>
+        <v>3.1547402996099754</v>
       </c>
       <c r="D15" s="21">
         <f>(($O$5+1)*((1+$K$5*$G$2))^D$1)</f>
-        <v>3.596397910670774</v>
+        <v>3.5889447474013618</v>
       </c>
       <c r="E15" s="21">
         <f>(($O$5+1)*((1+$K$5*$G$2))^E$1)</f>
-        <v>4.0931164962616045</v>
+        <v>4.0829111675190068</v>
       </c>
       <c r="I15" t="s">
         <v>283</v>
@@ -39472,15 +40214,15 @@
       </c>
       <c r="C16" s="21">
         <f>(($P$5+1)*((1+$K$5*$G$2))^C$1)</f>
-        <v>4.4239417864520583</v>
+        <v>4.4166364194539662</v>
       </c>
       <c r="D16" s="21">
         <f>(($P$5+1)*((1+$K$5*$G$2))^D$1)</f>
-        <v>5.0349570749390837</v>
+        <v>5.0245226463619073</v>
       </c>
       <c r="E16" s="21">
         <f>(($P$5+1)*((1+$K$5*$G$2))^E$1)</f>
-        <v>5.7303630947662461</v>
+        <v>5.7160756345266099</v>
       </c>
       <c r="I16" t="s">
         <v>233</v>
@@ -39491,7 +40233,7 @@
       </c>
       <c r="K16" s="19"/>
     </row>
-    <row r="17" spans="1:14" ht="15">
+    <row r="17" spans="1:14">
       <c r="B17" s="1"/>
     </row>
     <row r="18" spans="1:14">
@@ -39504,15 +40246,15 @@
       </c>
       <c r="C18" s="21">
         <f>(($N$6+1)*((1+$K$6*$G$2))^C$1)</f>
-        <v>1.7099217243551232</v>
+        <v>1.7033648297266824</v>
       </c>
       <c r="D18" s="21">
         <f>(($N$6+1)*((1+$K$6*$G$2))^D$1)</f>
-        <v>2.0212269967008147</v>
+        <v>2.0134763656346322</v>
       </c>
       <c r="E18" s="21">
         <f>(($N$6+1)*((1+$K$6*$G$2))^E$1)</f>
-        <v>2.3892079467748384</v>
+        <v>2.3800462497630384</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -39526,39 +40268,39 @@
       </c>
       <c r="C19" s="21">
         <f>(($O$6+1)*((1+$K$6*$G$2))^C$1)</f>
-        <v>2.8498695405918721</v>
+        <v>2.8389413828778038</v>
       </c>
       <c r="D19" s="21">
         <f>(($O$6+1)*((1+$K$6*$G$2))^D$1)</f>
-        <v>3.3687116611680246</v>
+        <v>3.3557939427243868</v>
       </c>
       <c r="E19" s="21">
         <f>(($O$6+1)*((1+$K$6*$G$2))^E$1)</f>
-        <v>3.9820132446247301</v>
+        <v>3.9667437496050635</v>
       </c>
       <c r="I19" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="15">
+    <row r="20" spans="1:14">
       <c r="B20" s="1">
         <f>M6*0.7</f>
         <v>96.50200000000001</v>
       </c>
       <c r="C20" s="21">
         <f>(($P$6+1)*((1+$K$6*$G$2))^C$1)</f>
-        <v>3.9898173568286213</v>
+        <v>3.974517936028926</v>
       </c>
       <c r="D20" s="21">
         <f>(($P$6+1)*((1+$K$6*$G$2))^D$1)</f>
-        <v>4.7161963256352344</v>
+        <v>4.6981115198141419</v>
       </c>
       <c r="E20" s="21">
         <f>(($P$6+1)*((1+$K$6*$G$2))^E$1)</f>
-        <v>5.5748185424746231</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="15">
+        <v>5.5534412494470899</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="B21" s="1"/>
     </row>
     <row r="22" spans="1:14">
@@ -39571,18 +40313,18 @@
       </c>
       <c r="C22" s="21">
         <f>(($N$7+1)*((1+$K$7*$G$2))^C$1)</f>
-        <v>0.97608377681254321</v>
+        <v>0.97167145709977865</v>
       </c>
       <c r="D22" s="21">
         <f>(($N$7+1)*((1+$K$7*$G$2))^D$1)</f>
-        <v>1.1521965478990459</v>
+        <v>1.1463547918959323</v>
       </c>
       <c r="E22" s="21">
         <f>(($N$7+1)*((1+$K$7*$G$2))^E$1)</f>
-        <v>1.360084980948757</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="15">
+        <v>1.3524420207064101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="19">
         <f>J7</f>
         <v>6.1076224999999998E-2</v>
@@ -39593,36 +40335,36 @@
       </c>
       <c r="C23" s="21">
         <f>(($O$7+1)*((1+$K$7*$G$2))^C$1)</f>
-        <v>1.6268062946875721</v>
+        <v>1.619452428499631</v>
       </c>
       <c r="D23" s="21">
         <f>(($O$7+1)*((1+$K$7*$G$2))^D$1)</f>
-        <v>1.9203275798317432</v>
+        <v>1.9105913198265541</v>
       </c>
       <c r="E23" s="21">
         <f>(($O$7+1)*((1+$K$7*$G$2))^E$1)</f>
-        <v>2.2668083015812615</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="15">
+        <v>2.2540700345106832</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="B24" s="1">
         <f>M7*0.7</f>
         <v>52.094000000000001</v>
       </c>
       <c r="C24" s="21">
         <f>(($P$7+1)*((1+$K$7*$G$2))^C$1)</f>
-        <v>2.277528812562601</v>
+        <v>2.2672333998994834</v>
       </c>
       <c r="D24" s="21">
         <f>(($P$7+1)*((1+$K$7*$G$2))^D$1)</f>
-        <v>2.6884586117644407</v>
+        <v>2.6748278477571752</v>
       </c>
       <c r="E24" s="21">
         <f>(($P$7+1)*((1+$K$7*$G$2))^E$1)</f>
-        <v>3.1735316222137659</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="15">
+        <v>3.1556980483149566</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="B25" s="1"/>
     </row>
     <row r="26" spans="1:14">
@@ -39635,21 +40377,21 @@
       </c>
       <c r="C26" s="21">
         <f>(($N$8+1)*((1+$K$8*$G$2))^C$1)</f>
-        <v>0.87405939177309322</v>
+        <v>0.86842579944533649</v>
       </c>
       <c r="D26" s="21">
         <f>(($N$8+1)*((1+$K$8*$G$2))^D$1)</f>
-        <v>1.0423320827403877</v>
+        <v>1.0354716725835489</v>
       </c>
       <c r="E26" s="21">
         <f>(($N$8+1)*((1+$K$8*$G$2))^E$1)</f>
-        <v>1.2430003966961092</v>
+        <v>1.2346496216577019</v>
       </c>
       <c r="L26" t="s">
         <v>7436</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="15">
+    <row r="27" spans="1:14">
       <c r="A27" s="19">
         <f>J8</f>
         <v>6.4750000000000002E-2</v>
@@ -39660,15 +40402,15 @@
       </c>
       <c r="C27" s="21">
         <f>(($O$8+1)*((1+$K$8*$G$2))^C$1)</f>
-        <v>1.4567656529551554</v>
+        <v>1.447376332408894</v>
       </c>
       <c r="D27" s="21">
         <f>(($O$8+1)*((1+$K$8*$G$2))^D$1)</f>
-        <v>1.7372201379006462</v>
+        <v>1.7257861209725811</v>
       </c>
       <c r="E27" s="21">
         <f>(($O$8+1)*((1+$K$8*$G$2))^E$1)</f>
-        <v>2.0716673278268485</v>
+        <v>2.0577493694295028</v>
       </c>
       <c r="L27" t="s">
         <v>7428</v>
@@ -39680,22 +40422,22 @@
         <v>7430</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="15">
+    <row r="28" spans="1:14">
       <c r="B28" s="1">
         <f>M8*0.7</f>
         <v>36.728999999999999</v>
       </c>
       <c r="C28" s="21">
         <f>(($P$8+1)*((1+$K$8*$G$2))^C$1)</f>
-        <v>2.0394719141372177</v>
+        <v>2.0263268653724515</v>
       </c>
       <c r="D28" s="21">
         <f>(($P$8+1)*((1+$K$8*$G$2))^D$1)</f>
-        <v>2.432108193060905</v>
+        <v>2.4161005693616135</v>
       </c>
       <c r="E28" s="21">
         <f>(($P$8+1)*((1+$K$8*$G$2))^E$1)</f>
-        <v>2.9003342589575882</v>
+        <v>2.8808491172013042</v>
       </c>
       <c r="L28" t="s">
         <v>7431</v>
@@ -39707,7 +40449,7 @@
         <v>7433</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="15">
+    <row r="29" spans="1:14">
       <c r="L29" t="s">
         <v>7434</v>
       </c>
@@ -39728,18 +40470,18 @@
       </c>
       <c r="C30" s="21">
         <f>(($N$9+1)*((1+$K$9*$G$2))^C$1)</f>
-        <v>0.97896861410738334</v>
+        <v>0.97460550813100866</v>
       </c>
       <c r="D30" s="21">
         <f>(($N$9+1)*((1+$K$9*$G$2))^D$1)</f>
-        <v>1.1005918469568037</v>
+        <v>1.0956866857536685</v>
       </c>
       <c r="E30" s="21">
         <f>(($N$9+1)*((1+$K$9*$G$2))^E$1)</f>
-        <v>1.2373250747085955</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" ht="15">
+        <v>1.2318105154567631</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31" s="19">
         <f>J9</f>
         <v>6.0069037499999992E-2</v>
@@ -39750,33 +40492,33 @@
       </c>
       <c r="C31" s="21">
         <f>(($O$9+1)*((1+$K$9*$G$2))^C$1)</f>
-        <v>1.6316143568456389</v>
+        <v>1.6243425135516811</v>
       </c>
       <c r="D31" s="21">
         <f>(($O$9+1)*((1+$K$9*$G$2))^D$1)</f>
-        <v>1.8343197449280062</v>
+        <v>1.8261444762561141</v>
       </c>
       <c r="E31" s="21">
         <f>(($O$9+1)*((1+$K$9*$G$2))^E$1)</f>
-        <v>2.0622084578476594</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" ht="15">
+        <v>2.0530175257612719</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="B32" s="1">
         <f>M9*0.7</f>
         <v>49.790999999999997</v>
       </c>
       <c r="C32" s="21">
         <f>(($P$9+1)*((1+$K$9*$G$2))^C$1)</f>
-        <v>2.2842600995838946</v>
+        <v>2.2740795189723535</v>
       </c>
       <c r="D32" s="21">
         <f>(($P$9+1)*((1+$K$9*$G$2))^D$1)</f>
-        <v>2.5680476428992085</v>
+        <v>2.5566022667585599</v>
       </c>
       <c r="E32" s="21">
         <f>(($P$9+1)*((1+$K$9*$G$2))^E$1)</f>
-        <v>2.8870918409867228</v>
+        <v>2.874224536065781</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -39789,15 +40531,15 @@
       </c>
       <c r="C34" s="21">
         <f>(($N$10+1)*((1+$K$10*$G$2))^C$1)</f>
-        <v>1.6292307971544373</v>
+        <v>1.6254497720279684</v>
       </c>
       <c r="D34" s="21">
         <f>(($N$10+1)*((1+$K$10*$G$2))^D$1)</f>
-        <v>1.9205352688961934</v>
+        <v>1.9147548360950777</v>
       </c>
       <c r="E34" s="21">
         <f>(($N$10+1)*((1+$K$10*$G$2))^E$1)</f>
-        <v>2.263924623519463</v>
+        <v>2.2555517527775097</v>
       </c>
       <c r="L34" t="s">
         <v>7439</v>
@@ -39809,7 +40551,7 @@
         <v>7439</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="15">
+    <row r="35" spans="1:14">
       <c r="A35" s="19">
         <f>J10</f>
         <v>3.70254125E-2</v>
@@ -39820,15 +40562,15 @@
       </c>
       <c r="C35" s="21">
         <f>(($O$10+1)*((1+$K$10*$G$2))^C$1)</f>
-        <v>2.715384661924062</v>
+        <v>2.7090829533799474</v>
       </c>
       <c r="D35" s="21">
         <f>(($O$10+1)*((1+$K$10*$G$2))^D$1)</f>
-        <v>3.2008921148269889</v>
+        <v>3.191258060158463</v>
       </c>
       <c r="E35" s="21">
         <f>(($O$10+1)*((1+$K$10*$G$2))^E$1)</f>
-        <v>3.7732077058657714</v>
+        <v>3.7592529212958494</v>
       </c>
       <c r="L35" t="s">
         <v>7440</v>
@@ -39840,22 +40582,22 @@
         <v>7440</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="15">
+    <row r="36" spans="1:14">
       <c r="B36" s="1">
         <f>M10*0.7</f>
         <v>84.811999999999998</v>
       </c>
       <c r="C36" s="21">
         <f>(($P$10+1)*((1+$K$10*$G$2))^C$1)</f>
-        <v>3.8015385266936867</v>
+        <v>3.7927161347319265</v>
       </c>
       <c r="D36" s="21">
         <f>(($P$10+1)*((1+$K$10*$G$2))^D$1)</f>
-        <v>4.4812489607577843</v>
+        <v>4.4677612842218482</v>
       </c>
       <c r="E36" s="21">
         <f>(($P$10+1)*((1+$K$10*$G$2))^E$1)</f>
-        <v>5.2824907882120797</v>
+        <v>5.2629540898141896</v>
       </c>
       <c r="L36" t="s">
         <v>7441</v>
@@ -39877,18 +40619,18 @@
       </c>
       <c r="C38" s="21">
         <f>(($N$11+1)*((1+$K$11*$G$2))^C$1)</f>
-        <v>1.2757371041966847</v>
+        <v>1.3074402578665263</v>
       </c>
       <c r="D38" s="21">
         <f>(($N$11+1)*((1+$K$11*$G$2))^D$1)</f>
-        <v>1.5215492039597234</v>
+        <v>1.5582902899128444</v>
       </c>
       <c r="E38" s="21">
         <f>(($N$11+1)*((1+$K$11*$G$2))^E$1)</f>
-        <v>1.8147249715122649</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" ht="15">
+        <v>1.8572692809682119</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
       <c r="A39" s="19">
         <f>J11</f>
         <v>2.4E-2</v>
@@ -39899,33 +40641,33 @@
       </c>
       <c r="C39" s="21">
         <f>(($O$11+1)*((1+$K$11*$G$2))^C$1)</f>
-        <v>2.1262285069944746</v>
+        <v>2.1790670964442098</v>
       </c>
       <c r="D39" s="21">
         <f>(($O$11+1)*((1+$K$11*$G$2))^D$1)</f>
-        <v>2.5359153399328722</v>
+        <v>2.5971504831880736</v>
       </c>
       <c r="E39" s="21">
         <f>(($O$11+1)*((1+$K$11*$G$2))^E$1)</f>
-        <v>3.024541619187108</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" ht="15">
+        <v>3.0954488016136859</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
       <c r="B40" s="1">
         <f>M11*0.7</f>
         <v>2.4499999999999997</v>
       </c>
       <c r="C40" s="21">
         <f>(($P$11+1)*((1+$K$11*$G$2))^C$1)</f>
-        <v>2.9767199097922643</v>
+        <v>3.050693935021894</v>
       </c>
       <c r="D40" s="21">
         <f>(($P$11+1)*((1+$K$11*$G$2))^D$1)</f>
-        <v>3.5502814759060208</v>
+        <v>3.6360106764633029</v>
       </c>
       <c r="E40" s="21">
         <f>(($P$11+1)*((1+$K$11*$G$2))^E$1)</f>
-        <v>4.2343582668619506</v>
+        <v>4.3336283222591607</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -39938,15 +40680,15 @@
       </c>
       <c r="C42" s="21">
         <f>(($N$12+1)*((1+$K$12*$G$2))^C$1)</f>
-        <v>1.323211881149839</v>
+        <v>1.32187309890835</v>
       </c>
       <c r="D42" s="21">
         <f>(($N$12+1)*((1+$K$12*$G$2))^D$1)</f>
-        <v>1.4356619209163259</v>
+        <v>1.4249303739356103</v>
       </c>
       <c r="E42" s="21">
         <f>(($N$12+1)*((1+$K$12*$G$2))^E$1)</f>
-        <v>1.5576682620005553</v>
+        <v>1.5360223097369003</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -39960,15 +40702,15 @@
       </c>
       <c r="C43" s="21">
         <f>(($O$12+1)*((1+$K$12*$G$2))^C$1)</f>
-        <v>2.2053531352497315</v>
+        <v>2.2031218315139167</v>
       </c>
       <c r="D43" s="21">
         <f>(($O$12+1)*((1+$K$12*$G$2))^D$1)</f>
-        <v>2.3927698681938767</v>
+        <v>2.3748839565593505</v>
       </c>
       <c r="E43" s="21">
         <f>(($O$12+1)*((1+$K$12*$G$2))^E$1)</f>
-        <v>2.5961137700009256</v>
+        <v>2.5600371828948338</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -39978,15 +40720,15 @@
       </c>
       <c r="C44" s="21">
         <f>(($P$12+1)*((1+$K$12*$G$2))^C$1)</f>
-        <v>3.0874943893496236</v>
+        <v>3.0843705641194825</v>
       </c>
       <c r="D44" s="21">
         <f>(($P$12+1)*((1+$K$12*$G$2))^D$1)</f>
-        <v>3.349877815471427</v>
+        <v>3.3248375391830902</v>
       </c>
       <c r="E44" s="21">
         <f>(($P$12+1)*((1+$K$12*$G$2))^E$1)</f>
-        <v>3.6345592780012952</v>
+        <v>3.5840520560527667</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -40238,15 +40980,15 @@
       </c>
       <c r="C64" s="92">
         <f>(C2*$A$3+C6*$A$7+C10*$A$11+C14*$A$15+C18*$A$19+C22*$A$23+C26*$A$27+C30*$A$31+C34*$A$35+C38*$A$39+C42*$A$43+C46*$A$47+C50*$A$51+C54*$A$55+C58*$A$59)^(1/$C$1)-1</f>
-        <v>5.5478254298656937E-2</v>
+        <v>5.276852916531749E-2</v>
       </c>
       <c r="D64" s="92">
         <f>(D2*$A$3+D6*$A$7+D10*$A$11+D14*$A$15+D18*$A$19+D22*$A$23+D26*$A$27+D30*$A$31+D34*$A$35+D38*$A$39+D42*$A$43+D46*$A$47+D50*$A$51+D54*$A$55+D58*$A$59)^(1/$D$1)-1</f>
-        <v>5.7939742420783258E-2</v>
+        <v>5.603618915439168E-2</v>
       </c>
       <c r="E64" s="92">
         <f>(E2*$A$3+E6*$A$7+E10*$A$11+E14*$A$15+E18*$A$19+E22*$A$23+E26*$A$27+E30*$A$31+E34*$A$35+E38*$A$39+E42*$A$43+E46*$A$47+E50*$A$51+E54*$A$55+E58*$A$59)^(1/$E$1)-1</f>
-        <v>5.9096909491112237E-2</v>
+        <v>5.7538763041593999E-2</v>
       </c>
     </row>
     <row r="65" spans="2:5">
@@ -40255,15 +40997,15 @@
       </c>
       <c r="C65" s="91">
         <f>(C3*$A$3+C7*$A$7+C11*$A$11+C15*$A$15+C19*$A$19+C23*$A$23+C27*$A$27+C31*$A$31+C35*$A$35+C39*$A$39+C43*$A$43+C47*$A$47+C51*$A$51+C55*$A$55+C59*$A$59)^(1/$C$1)-1</f>
-        <v>0.20053726145887563</v>
+        <v>0.19704529814531924</v>
       </c>
       <c r="D65" s="93">
         <f>(D3*$A$3+D7*$A$7+D11*$A$11+D15*$A$15+D19*$A$19+D23*$A$23+D27*$A$27+D31*$A$31+D35*$A$35+D39*$A$39+D43*$A$43+D47*$A$47+D51*$A$51+D55*$A$55+D59*$A$59)^(1/$D$1)-1</f>
-        <v>0.14443470345956921</v>
+        <v>0.14210431374215093</v>
       </c>
       <c r="E65" s="92">
         <f>(E3*$A$3+E7*$A$7+E11*$A$11+E15*$A$15+E19*$A$19+E23*$A$23+E27*$A$27+E31*$A$31+E35*$A$35+E39*$A$39+E43*$A$43+E47*$A$47+E51*$A$51+E55*$A$55+E59*$A$59)^(1/$E$1)-1</f>
-        <v>0.1214889874302425</v>
+        <v>0.11964598749390865</v>
       </c>
     </row>
     <row r="66" spans="2:5">
@@ -40272,15 +41014,15 @@
       </c>
       <c r="C66" s="91">
         <f>(C4*$A$3+C8*$A$7+C12*$A$11+C16*$A$15+C20*$A$19+C24*$A$23+C28*$A$27+C32*$A$31+C36*$A$35+C40*$A$39+C44*$A$43+C48*$A$47+C52*$A$51+C56*$A$55+C60*$A$59)^(1/$C$1)-1</f>
-        <v>0.31709281207236062</v>
+        <v>0.31303031884550969</v>
       </c>
       <c r="D66" s="91">
         <f>(D4*$A$3+D8*$A$7+D12*$A$11+D16*$A$15+D20*$A$19+D24*$A$23+D28*$A$27+D32*$A$31+D36*$A$35+D40*$A$39+D44*$A$43+D48*$A$47+D52*$A$51+D56*$A$55+D60*$A$59)^(1/$D$1)-1</f>
-        <v>0.21087020526419264</v>
+        <v>0.20828026257098697</v>
       </c>
       <c r="E66" s="91">
         <f>(E4*$A$3+E8*$A$7+E12*$A$11+E16*$A$15+E20*$A$19+E24*$A$23+E28*$A$27+E32*$A$31+E36*$A$35+E40*$A$39+E44*$A$43+E48*$A$47+E52*$A$51+E56*$A$55+E60*$A$59)^(1/$E$1)-1</f>
-        <v>0.16813915179362482</v>
+        <v>0.16611813961098432</v>
       </c>
     </row>
   </sheetData>
@@ -41122,7 +41864,7 @@
         <v>8.0399999999999999E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="15">
+    <row r="17" spans="1:22">
       <c r="A17" s="80" t="s">
         <v>44</v>
       </c>
@@ -41131,7 +41873,7 @@
         <v>6.0299999999999999E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:22" ht="15">
+    <row r="18" spans="1:22">
       <c r="A18" s="80" t="s">
         <v>40</v>
       </c>
@@ -41140,7 +41882,7 @@
         <v>4.6900000000000004E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="15">
+    <row r="19" spans="1:22">
       <c r="A19" s="80" t="s">
         <v>18</v>
       </c>
@@ -41149,7 +41891,7 @@
         <v>0.1608</v>
       </c>
     </row>
-    <row r="20" spans="1:22" ht="15">
+    <row r="20" spans="1:22">
       <c r="A20" s="80" t="s">
         <v>19</v>
       </c>
@@ -41274,35 +42016,35 @@
       <c r="K27" s="18"/>
       <c r="N27" s="18"/>
     </row>
-    <row r="28" spans="1:22" ht="15">
+    <row r="28" spans="1:22">
       <c r="K28" s="18"/>
       <c r="N28" s="18"/>
     </row>
-    <row r="29" spans="1:22" ht="15">
+    <row r="29" spans="1:22">
       <c r="K29" s="18"/>
       <c r="N29" s="18"/>
     </row>
-    <row r="30" spans="1:22" ht="15">
+    <row r="30" spans="1:22">
       <c r="K30" s="18"/>
       <c r="N30" s="18"/>
     </row>
-    <row r="31" spans="1:22" ht="15">
+    <row r="31" spans="1:22">
       <c r="K31" s="18"/>
       <c r="N31" s="18"/>
     </row>
-    <row r="32" spans="1:22" ht="15">
+    <row r="32" spans="1:22">
       <c r="K32" s="18"/>
       <c r="N32" s="18"/>
     </row>
-    <row r="33" spans="11:14" ht="15">
+    <row r="33" spans="11:14">
       <c r="K33" s="18"/>
       <c r="N33" s="18"/>
     </row>
-    <row r="34" spans="11:14" ht="15">
+    <row r="34" spans="11:14">
       <c r="K34" s="18"/>
       <c r="N34" s="18"/>
     </row>
-    <row r="35" spans="11:14" ht="15">
+    <row r="35" spans="11:14">
       <c r="K35" s="18"/>
       <c r="N35" s="18"/>
     </row>

--- a/Portfolio/ETF计划 XIRR 已投入收益率计算.xlsx
+++ b/Portfolio/ETF计划 XIRR 已投入收益率计算.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="21600" windowHeight="13740" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="21600" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="已投部分年化收益率" sheetId="1" r:id="rId1"/>
@@ -238,7 +238,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15541" uniqueCount="7482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15441" uniqueCount="7478">
   <si>
     <t>日期</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -23284,22 +23284,12 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>2018-11-02</t>
-  </si>
-  <si>
-    <t>全指金融</t>
-  </si>
-  <si>
     <t>全指消费</t>
-  </si>
-  <si>
-    <t>HSI</t>
-  </si>
-  <si>
-    <t>GDAXI_U</t>
-  </si>
-  <si>
-    <t>广发创业板场外</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>全指消费</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -24204,7 +24194,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -24532,13 +24522,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -26657,8 +26650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD156"/>
   <sheetViews>
-    <sheetView topLeftCell="H49" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="S83" sqref="S83"/>
+    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="E101" sqref="A101:XFD101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -26783,7 +26776,7 @@
       </c>
       <c r="S2" s="18">
         <f>(SUM(S4:S7) - SUM(Q4:Q7))/$Q$2</f>
-        <v>-6.1160957244791786E-2</v>
+        <v>-6.0305017588541669E-2</v>
       </c>
       <c r="T2" s="18" t="s">
         <v>213</v>
@@ -27112,15 +27105,15 @@
       </c>
       <c r="R7" s="11">
         <f>W60</f>
-        <v>13952.064204166669</v>
+        <v>14636.815929166669</v>
       </c>
       <c r="S7" s="11">
         <f>Q7+R7</f>
-        <v>188393.40420416664</v>
+        <v>189078.15592916665</v>
       </c>
       <c r="T7" s="26">
         <f>S7/Q7-1</f>
-        <v>7.9981409247181112E-2</v>
+        <v>8.3906807464140476E-2</v>
       </c>
     </row>
     <row r="8" spans="1:27">
@@ -28009,7 +28002,7 @@
         <f>SUMIF(C:C,"=医药",K:K)/SUMIF(C:C,"=医药",M:M)*-1</f>
         <v>3.3829723211369012</v>
       </c>
-      <c r="Z19" s="109">
+      <c r="Z19" s="111">
         <f>(SUMIF(C:C,"=医药",M:M)*-1)/$Q$2</f>
         <v>6.1076224999999998E-2</v>
       </c>
@@ -28097,7 +28090,7 @@
         <f>SUMIF(C:C,"=医药",K:K)/SUMIF(C:C,"=医药",M:M)*-1</f>
         <v>3.3829723211369012</v>
       </c>
-      <c r="Z20" s="110"/>
+      <c r="Z20" s="112"/>
       <c r="AA20" s="2"/>
     </row>
     <row r="21" spans="1:27">
@@ -28358,7 +28351,7 @@
         <f>SUMIF(C:C,"=环保",K:K)/SUMIF(C:C,"=环保",M:M)*-1</f>
         <v>2.1020573858091067</v>
       </c>
-      <c r="Z23" s="109">
+      <c r="Z23" s="111">
         <f>(SUMIF(C:C,"=环保",M:M)*-1)/$Q$2</f>
         <v>6.0069037499999992E-2</v>
       </c>
@@ -28446,7 +28439,7 @@
         <f>SUMIF(C:C,"=环保",K:K)/SUMIF(C:C,"=环保",M:M)*-1</f>
         <v>2.1020573858091067</v>
       </c>
-      <c r="Z24" s="110"/>
+      <c r="Z24" s="112"/>
       <c r="AA24" s="2"/>
     </row>
     <row r="25" spans="1:27">
@@ -30957,11 +30950,20 @@
         <v>43405</v>
       </c>
       <c r="Q59" s="50">
-        <v>0</v>
-      </c>
-      <c r="R59" s="50"/>
-      <c r="S59" s="50"/>
-      <c r="T59" s="50"/>
+        <v>70013.06</v>
+      </c>
+      <c r="R59" s="61">
+        <f t="shared" ref="R59:R60" si="15">R58+Q59</f>
+        <v>635241.04</v>
+      </c>
+      <c r="S59" s="61">
+        <f t="shared" ref="S59:S60" si="16">S58-Q59</f>
+        <v>164758.96000000002</v>
+      </c>
+      <c r="T59" s="61">
+        <f t="shared" ref="T59:T60" si="17">(S58*$U$49)/12</f>
+        <v>684.75172500000008</v>
+      </c>
       <c r="U59" s="2"/>
       <c r="V59" s="74"/>
       <c r="W59" s="2" t="s">
@@ -31022,14 +31024,14 @@
       <c r="Q60" s="50">
         <v>0</v>
       </c>
-      <c r="R60" s="50"/>
-      <c r="S60" s="50"/>
-      <c r="T60" s="50"/>
+      <c r="R60" s="61"/>
+      <c r="S60" s="61"/>
+      <c r="T60" s="61"/>
       <c r="U60" s="2"/>
       <c r="V60" s="74"/>
       <c r="W60" s="61">
         <f>SUM(T49:T60)</f>
-        <v>13952.064204166669</v>
+        <v>14636.815929166669</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -31346,11 +31348,11 @@
         <v>1.7719188503803887</v>
       </c>
       <c r="J67" s="21">
-        <f t="shared" ref="J67:J82" si="15">H67*(-$M67)</f>
+        <f t="shared" ref="J67:J82" si="18">H67*(-$M67)</f>
         <v>127989.88605291629</v>
       </c>
       <c r="K67" s="21">
-        <f t="shared" ref="K67:K82" si="16">I67*(-$M67)</f>
+        <f t="shared" ref="K67:K82" si="19">I67*(-$M67)</f>
         <v>10939.880139814031</v>
       </c>
       <c r="L67" s="5" t="s">
@@ -31396,11 +31398,11 @@
         <v>1.3327688500641006</v>
       </c>
       <c r="J68" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>69801.42812033034</v>
       </c>
       <c r="K68" s="21">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>8449.3146956858764</v>
       </c>
       <c r="L68" s="5" t="s">
@@ -31455,11 +31457,11 @@
         <v>3.4664986091794154</v>
       </c>
       <c r="J69" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>193606.94054033377</v>
       </c>
       <c r="K69" s="21">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>22244.798894993044</v>
       </c>
       <c r="L69" s="5" t="s">
@@ -31512,11 +31514,11 @@
       <c r="H70" s="21"/>
       <c r="I70" s="21"/>
       <c r="J70" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K70" s="21">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="L70" s="7" t="s">
@@ -31569,11 +31571,11 @@
         <v>1.2079223300970874</v>
       </c>
       <c r="J71" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>66870.580194174749</v>
       </c>
       <c r="K71" s="21">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>7730.7029126213592</v>
       </c>
       <c r="L71" s="7" t="s">
@@ -31597,7 +31599,7 @@
         <v>2339.7798765908219</v>
       </c>
       <c r="S71" s="60">
-        <f t="shared" ref="S71:S82" si="17">R71/Q71-1</f>
+        <f t="shared" ref="S71:S82" si="20">R71/Q71-1</f>
         <v>-7.9830312379483015E-2</v>
       </c>
     </row>
@@ -31626,11 +31628,11 @@
       <c r="H72" s="21"/>
       <c r="I72" s="21"/>
       <c r="J72" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K72" s="21">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="L72" s="7" t="s">
@@ -31654,7 +31656,7 @@
         <v>3347.9228435232017</v>
       </c>
       <c r="S72" s="103">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.7528407726829842E-2</v>
       </c>
     </row>
@@ -31689,11 +31691,11 @@
         <v>2.7416454066705671</v>
       </c>
       <c r="J73" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>143061.3682855471</v>
       </c>
       <c r="K73" s="21">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>17546.53060269163</v>
       </c>
       <c r="L73" s="7" t="s">
@@ -31717,7 +31719,7 @@
         <v>5386.0081465284284</v>
       </c>
       <c r="S73" s="103">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0.21362524285501827</v>
       </c>
     </row>
@@ -31752,11 +31754,11 @@
         <v>3.4484340200445431</v>
       </c>
       <c r="J74" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>192085.3897550111</v>
       </c>
       <c r="K74" s="21">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>22069.977728285077</v>
       </c>
       <c r="L74" s="7" t="s">
@@ -31780,7 +31782,7 @@
         <v>6123.152646927444</v>
       </c>
       <c r="S74" s="103">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0.34156686347327314</v>
       </c>
     </row>
@@ -31815,11 +31817,11 @@
         <v>2.7392018724400233</v>
       </c>
       <c r="J75" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>159334.2801638385</v>
       </c>
       <c r="K75" s="21">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>17530.891983616148</v>
       </c>
       <c r="L75" s="7" t="s">
@@ -31842,8 +31844,8 @@
         <f>Q75*X37/S37</f>
         <v>5091.4238508257868</v>
       </c>
-      <c r="S75" s="111">
-        <f t="shared" ref="S75:S80" si="18">R75/Q75-1</f>
+      <c r="S75" s="110">
+        <f t="shared" ref="S75:S80" si="21">R75/Q75-1</f>
         <v>-3.2427632747291657E-2</v>
       </c>
     </row>
@@ -31878,11 +31880,11 @@
         <v>2.7075438596491224</v>
       </c>
       <c r="J76" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>151534.44930000001</v>
       </c>
       <c r="K76" s="21">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>17246.160896491227</v>
       </c>
       <c r="L76" s="5" t="s">
@@ -31906,7 +31908,7 @@
         <v>606.53458465111532</v>
       </c>
       <c r="S76" s="103">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>2.4136472800073028E-2</v>
       </c>
     </row>
@@ -31937,15 +31939,15 @@
         <v>20.750513524936601</v>
       </c>
       <c r="I77" s="21">
-        <f t="shared" ref="I77:I79" si="19">F77*$V$16</f>
+        <f t="shared" ref="I77:I79" si="22">F77*$V$16</f>
         <v>1.7736411665257816</v>
       </c>
       <c r="J77" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>128239.00360464919</v>
       </c>
       <c r="K77" s="21">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>10961.173354775992</v>
       </c>
       <c r="L77" s="5" t="s">
@@ -31969,7 +31971,7 @@
         <v>1492.3079598137867</v>
       </c>
       <c r="S77" s="103">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.28610650402367166</v>
       </c>
     </row>
@@ -32000,15 +32002,15 @@
         <v>20.682003381234146</v>
       </c>
       <c r="I78" s="21">
+        <f t="shared" si="22"/>
+        <v>1.7677852916314452</v>
+      </c>
+      <c r="J78" s="21">
+        <f t="shared" si="18"/>
+        <v>10616.072335587487</v>
+      </c>
+      <c r="K78" s="21">
         <f t="shared" si="19"/>
-        <v>1.7677852916314452</v>
-      </c>
-      <c r="J78" s="21">
-        <f t="shared" si="15"/>
-        <v>10616.072335587487</v>
-      </c>
-      <c r="K78" s="21">
-        <f t="shared" si="16"/>
         <v>907.40419019442072</v>
       </c>
       <c r="L78" s="5" t="s">
@@ -32032,7 +32034,7 @@
         <v>8926.2766166735073</v>
       </c>
       <c r="S78" s="103">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>6.7183697519527241E-2</v>
       </c>
     </row>
@@ -32063,15 +32065,15 @@
         <v>20.436172865595939</v>
       </c>
       <c r="I79" s="21">
+        <f t="shared" si="22"/>
+        <v>1.7467730346576498</v>
+      </c>
+      <c r="J79" s="21">
+        <f t="shared" si="18"/>
+        <v>134748.35813005071</v>
+      </c>
+      <c r="K79" s="21">
         <f t="shared" si="19"/>
-        <v>1.7467730346576498</v>
-      </c>
-      <c r="J79" s="21">
-        <f t="shared" si="15"/>
-        <v>134748.35813005071</v>
-      </c>
-      <c r="K79" s="21">
-        <f t="shared" si="16"/>
         <v>11517.557616779373</v>
       </c>
       <c r="L79" s="5" t="s">
@@ -32095,7 +32097,7 @@
         <v>7231.9890875668443</v>
       </c>
       <c r="S79" s="103">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.10901197611554547</v>
       </c>
     </row>
@@ -32130,11 +32132,11 @@
         <v>1.3411585820339287</v>
       </c>
       <c r="J80" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>70683.011288929978</v>
       </c>
       <c r="K80" s="21">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>8556.0284667720098</v>
       </c>
       <c r="L80" s="5" t="s">
@@ -32158,7 +32160,7 @@
         <v>1420.7035551517524</v>
       </c>
       <c r="S80" s="103">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.30562570547149481</v>
       </c>
     </row>
@@ -32193,11 +32195,11 @@
         <v>1.9678244972577696</v>
       </c>
       <c r="J81" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>70150.717546617918</v>
       </c>
       <c r="K81" s="21">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>6217.5973162705668</v>
       </c>
       <c r="L81" s="5" t="s">
@@ -32210,11 +32212,16 @@
         <v>0.63</v>
       </c>
       <c r="O81" s="4"/>
-      <c r="P81" s="3"/>
+      <c r="P81" s="98" t="s">
+        <v>7462</v>
+      </c>
       <c r="Q81" s="101">
         <v>1348.28</v>
       </c>
-      <c r="R81" s="102"/>
+      <c r="R81" s="102">
+        <f>Q81*X18/S18</f>
+        <v>1401.923256662034</v>
+      </c>
       <c r="S81" s="103"/>
     </row>
     <row r="82" spans="1:30">
@@ -32248,11 +32255,11 @@
         <v>1.7137045646661029</v>
       </c>
       <c r="J82" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>129694.65994663989</v>
       </c>
       <c r="K82" s="21">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>11085.59495086644</v>
       </c>
       <c r="L82" s="5" t="s">
@@ -32265,19 +32272,19 @@
         <v>1.29</v>
       </c>
       <c r="O82" s="4"/>
-      <c r="P82" s="98" t="s">
-        <v>7462</v>
+      <c r="P82" s="3" t="s">
+        <v>7476</v>
       </c>
       <c r="Q82" s="98">
         <v>8859.93</v>
       </c>
       <c r="R82" s="102">
-        <f>Q82*X18/S18</f>
-        <v>9212.4350427193585</v>
-      </c>
-      <c r="S82" s="103">
-        <f t="shared" si="17"/>
-        <v>3.9786436542879944E-2</v>
+        <f>Q82*X34/S34</f>
+        <v>8133.4727170418018</v>
+      </c>
+      <c r="S82" s="110">
+        <f t="shared" si="20"/>
+        <v>-8.1993569131832644E-2</v>
       </c>
     </row>
     <row r="83" spans="1:30">
@@ -32315,7 +32322,7 @@
         <v>73821.547445255492</v>
       </c>
       <c r="K83" s="21">
-        <f t="shared" ref="K83:K86" si="20">I83*(-$M83)</f>
+        <f t="shared" ref="K83:K86" si="23">I83*(-$M83)</f>
         <v>8935.9416058394181</v>
       </c>
       <c r="L83" s="7" t="s">
@@ -32362,11 +32369,11 @@
       <c r="H84" s="21"/>
       <c r="I84" s="21"/>
       <c r="J84" s="21">
-        <f t="shared" ref="J84:J86" si="21">H84*(-$M84)</f>
+        <f t="shared" ref="J84:J86" si="24">H84*(-$M84)</f>
         <v>0</v>
       </c>
       <c r="K84" s="21">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L84" s="7" t="s">
@@ -32419,11 +32426,11 @@
         <v>2.7834909303686364</v>
       </c>
       <c r="J85" s="21">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>145244.90298420127</v>
       </c>
       <c r="K85" s="21">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>17814.341954359272</v>
       </c>
       <c r="L85" s="7" t="s">
@@ -32475,11 +32482,11 @@
         <v>1.070448588172616</v>
       </c>
       <c r="J86" s="21">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>51635.26819392648</v>
       </c>
       <c r="K86" s="21">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>6850.8709643047423</v>
       </c>
       <c r="L86" s="7" t="s">
@@ -32527,11 +32534,11 @@
         <v>3.6204444789804957</v>
       </c>
       <c r="J87" s="21">
-        <f t="shared" ref="J87:J91" si="22">H87*(-$M87)</f>
+        <f t="shared" ref="J87:J91" si="25">H87*(-$M87)</f>
         <v>199491.76066516436</v>
       </c>
       <c r="K87" s="21">
-        <f t="shared" ref="K87:K91" si="23">I87*(-$M87)</f>
+        <f t="shared" ref="K87:K91" si="26">I87*(-$M87)</f>
         <v>23199.808221307016</v>
       </c>
       <c r="L87" s="5" t="s">
@@ -32575,15 +32582,15 @@
         <v>18.654909129332204</v>
       </c>
       <c r="I88" s="21">
-        <f t="shared" ref="I88" si="24">F88*$V$16</f>
+        <f t="shared" ref="I88" si="27">F88*$V$16</f>
         <v>1.5945202874049025</v>
       </c>
       <c r="J88" s="21">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>120919.2554854184</v>
       </c>
       <c r="K88" s="21">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>10335.521050929838</v>
       </c>
       <c r="L88" s="5" t="s">
@@ -32596,21 +32603,10 @@
         <v>1.3</v>
       </c>
       <c r="O88" s="4"/>
-      <c r="P88" s="3">
-        <v>43406</v>
-      </c>
-      <c r="Q88" s="97" t="s">
-        <v>175</v>
-      </c>
-      <c r="R88" s="97">
-        <v>100032</v>
-      </c>
-      <c r="S88">
-        <v>2.5750000000000002</v>
-      </c>
-      <c r="T88" s="25" t="s">
-        <v>175</v>
-      </c>
+      <c r="P88" s="3"/>
+      <c r="Q88" s="97"/>
+      <c r="R88" s="97"/>
+      <c r="T88" s="25"/>
       <c r="U88" s="97"/>
       <c r="V88" s="97"/>
       <c r="W88" s="97"/>
@@ -32649,11 +32645,11 @@
         <v>3.0843958797327389</v>
       </c>
       <c r="J89" s="21">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>171807.66146993314</v>
       </c>
       <c r="K89" s="21">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>19740.133630289529</v>
       </c>
       <c r="L89" s="7" t="s">
@@ -32666,21 +32662,10 @@
         <v>7.67</v>
       </c>
       <c r="O89" s="4"/>
-      <c r="P89" s="3">
-        <v>43406</v>
-      </c>
-      <c r="Q89" s="97" t="s">
-        <v>176</v>
-      </c>
-      <c r="R89" s="97">
-        <v>510050</v>
-      </c>
-      <c r="S89">
-        <v>2.593</v>
-      </c>
-      <c r="T89" s="25" t="s">
-        <v>176</v>
-      </c>
+      <c r="P89" s="3"/>
+      <c r="Q89" s="97"/>
+      <c r="R89" s="97"/>
+      <c r="T89" s="25"/>
     </row>
     <row r="90" spans="1:30">
       <c r="A90" s="3">
@@ -32713,11 +32698,11 @@
         <v>1.0281454825857859</v>
       </c>
       <c r="J90" s="21">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>128437.70275285952</v>
       </c>
       <c r="K90" s="21">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>6563.660197918005</v>
       </c>
       <c r="L90" s="5" t="s">
@@ -32730,21 +32715,10 @@
         <v>1.28</v>
       </c>
       <c r="O90" s="4"/>
-      <c r="P90" s="3">
-        <v>43406</v>
-      </c>
-      <c r="Q90" s="97" t="s">
-        <v>177</v>
-      </c>
-      <c r="R90" s="97">
-        <v>510300</v>
-      </c>
-      <c r="S90">
-        <v>3.3540999999999999</v>
-      </c>
-      <c r="T90" s="25" t="s">
-        <v>177</v>
-      </c>
+      <c r="P90" s="3"/>
+      <c r="Q90" s="97"/>
+      <c r="R90" s="97"/>
+      <c r="T90" s="25"/>
     </row>
     <row r="91" spans="1:30">
       <c r="A91" s="3">
@@ -32777,11 +32751,11 @@
         <v>1.5291953794064927</v>
       </c>
       <c r="J91" s="21">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>121514.99382593109</v>
       </c>
       <c r="K91" s="21">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>9786.8504282015529</v>
       </c>
       <c r="L91" s="7" t="s">
@@ -32793,21 +32767,10 @@
       <c r="N91" s="4">
         <v>7.67</v>
       </c>
-      <c r="P91" s="3">
-        <v>43406</v>
-      </c>
-      <c r="Q91" s="97" t="s">
-        <v>18</v>
-      </c>
-      <c r="R91" s="97">
-        <v>510500</v>
-      </c>
-      <c r="S91">
-        <v>4.7320000000000002</v>
-      </c>
-      <c r="T91" s="25" t="s">
-        <v>18</v>
-      </c>
+      <c r="P91" s="3"/>
+      <c r="Q91" s="97"/>
+      <c r="R91" s="97"/>
+      <c r="T91" s="25"/>
     </row>
     <row r="92" spans="1:30">
       <c r="A92" s="3">
@@ -32840,11 +32803,11 @@
         <v>3.0671868040089088</v>
       </c>
       <c r="J92" s="21">
-        <f t="shared" ref="J92:J93" si="25">H92*(-$M92)</f>
+        <f t="shared" ref="J92:J93" si="28">H92*(-$M92)</f>
         <v>170849.0779510022</v>
       </c>
       <c r="K92" s="21">
-        <f t="shared" ref="K92:K94" si="26">I92*(-$M92)</f>
+        <f t="shared" ref="K92:K94" si="29">I92*(-$M92)</f>
         <v>19629.995545657017</v>
       </c>
       <c r="L92" s="7" t="s">
@@ -32857,21 +32820,10 @@
         <v>7.67</v>
       </c>
       <c r="O92" s="4"/>
-      <c r="P92" s="3">
-        <v>43406</v>
-      </c>
-      <c r="Q92" s="97" t="s">
-        <v>19</v>
-      </c>
-      <c r="R92" s="97">
-        <v>512100</v>
-      </c>
-      <c r="S92">
-        <v>0.54700000000000004</v>
-      </c>
-      <c r="T92" s="25" t="s">
-        <v>19</v>
-      </c>
+      <c r="P92" s="3"/>
+      <c r="Q92" s="97"/>
+      <c r="R92" s="97"/>
+      <c r="T92" s="25"/>
     </row>
     <row r="93" spans="1:30">
       <c r="A93" s="104">
@@ -32904,11 +32856,11 @@
         <v>1.1818252427184466</v>
       </c>
       <c r="J93" s="21">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>65425.8454368932</v>
       </c>
       <c r="K93" s="21">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>7563.681553398058</v>
       </c>
       <c r="L93" s="7" t="s">
@@ -32921,21 +32873,10 @@
         <v>9.59</v>
       </c>
       <c r="O93" s="4"/>
-      <c r="P93" s="3">
-        <v>43406</v>
-      </c>
-      <c r="Q93" s="97" t="s">
-        <v>178</v>
-      </c>
-      <c r="R93" s="97">
-        <v>159915</v>
-      </c>
-      <c r="S93">
-        <v>1.2868999999999999</v>
-      </c>
-      <c r="T93" s="25" t="s">
-        <v>178</v>
-      </c>
+      <c r="P93" s="3"/>
+      <c r="Q93" s="97"/>
+      <c r="R93" s="97"/>
+      <c r="T93" s="25"/>
     </row>
     <row r="94" spans="1:30">
       <c r="A94" s="3">
@@ -32972,7 +32913,7 @@
         <v>67443.503649635051</v>
       </c>
       <c r="K94" s="21">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>8163.8929440389302</v>
       </c>
       <c r="L94" s="7" t="s">
@@ -32985,21 +32926,10 @@
         <v>7.67</v>
       </c>
       <c r="O94" s="4"/>
-      <c r="P94" s="3">
-        <v>43406</v>
-      </c>
-      <c r="Q94" s="97" t="s">
-        <v>179</v>
-      </c>
-      <c r="R94" s="97">
-        <v>159938</v>
-      </c>
-      <c r="S94">
-        <v>1.1504000000000001</v>
-      </c>
-      <c r="T94" s="25" t="s">
-        <v>179</v>
-      </c>
+      <c r="P94" s="3"/>
+      <c r="Q94" s="97"/>
+      <c r="R94" s="97"/>
+      <c r="T94" s="25"/>
     </row>
     <row r="95" spans="1:30">
       <c r="A95" s="3">
@@ -33036,7 +32966,7 @@
         <v>115885.39059779453</v>
       </c>
       <c r="K95" s="21">
-        <f t="shared" ref="K95:K100" si="27">I95*(-$M95)</f>
+        <f t="shared" ref="K95:K101" si="30">I95*(-$M95)</f>
         <v>9905.2536273940786</v>
       </c>
       <c r="L95" s="7" t="s">
@@ -33049,21 +32979,10 @@
         <v>9.59</v>
       </c>
       <c r="O95" s="4"/>
-      <c r="P95" s="3">
-        <v>43406</v>
-      </c>
-      <c r="Q95" s="97" t="s">
-        <v>180</v>
-      </c>
-      <c r="R95" s="97">
-        <v>1180</v>
-      </c>
-      <c r="S95">
-        <v>0.71840000000000004</v>
-      </c>
-      <c r="T95" s="25" t="s">
-        <v>180</v>
-      </c>
+      <c r="P95" s="3"/>
+      <c r="Q95" s="97"/>
+      <c r="R95" s="97"/>
+      <c r="T95" s="25"/>
     </row>
     <row r="96" spans="1:30">
       <c r="A96" s="3">
@@ -33100,7 +33019,7 @@
         <v>135483.06109324758</v>
       </c>
       <c r="K96" s="21">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>24793.517684887458</v>
       </c>
       <c r="L96" s="7" t="s">
@@ -33113,21 +33032,10 @@
         <v>9.59</v>
       </c>
       <c r="O96" s="4"/>
-      <c r="P96" s="3">
-        <v>43406</v>
-      </c>
-      <c r="Q96" s="97" t="s">
-        <v>181</v>
-      </c>
-      <c r="R96" s="97">
-        <v>968</v>
-      </c>
-      <c r="S96">
-        <v>0.85450000000000004</v>
-      </c>
-      <c r="T96" s="25" t="s">
-        <v>181</v>
-      </c>
+      <c r="P96" s="3"/>
+      <c r="Q96" s="97"/>
+      <c r="R96" s="97"/>
+      <c r="T96" s="25"/>
     </row>
     <row r="97" spans="1:20">
       <c r="A97" s="3">
@@ -33160,11 +33068,11 @@
         <v>3.2816674888998523</v>
       </c>
       <c r="J97" s="21">
-        <f t="shared" ref="J97" si="28">H97*(-M97)</f>
+        <f t="shared" ref="J97" si="31">H97*(-M97)</f>
         <v>180598.90675875681</v>
       </c>
       <c r="K97" s="21">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>21002.671928959055</v>
       </c>
       <c r="L97" s="7" t="s">
@@ -33177,21 +33085,10 @@
         <v>7.67</v>
       </c>
       <c r="O97" s="4"/>
-      <c r="P97" s="3">
-        <v>43406</v>
-      </c>
-      <c r="Q97" s="97" t="s">
-        <v>22</v>
-      </c>
-      <c r="R97" s="97">
-        <v>512880</v>
-      </c>
-      <c r="S97">
-        <v>0.77810000000000001</v>
-      </c>
-      <c r="T97" s="25" t="s">
-        <v>22</v>
-      </c>
+      <c r="P97" s="3"/>
+      <c r="Q97" s="97"/>
+      <c r="R97" s="97"/>
+      <c r="T97" s="25"/>
     </row>
     <row r="98" spans="1:20">
       <c r="A98" s="3">
@@ -33218,11 +33115,11 @@
       <c r="H98" s="21"/>
       <c r="I98" s="21"/>
       <c r="J98" s="21">
-        <f t="shared" ref="J98:J100" si="29">H98*(-$M98)</f>
+        <f t="shared" ref="J98:J101" si="32">H98*(-$M98)</f>
         <v>0</v>
       </c>
       <c r="K98" s="21">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="L98" s="7" t="s">
@@ -33235,21 +33132,10 @@
         <v>6.39</v>
       </c>
       <c r="O98" s="4"/>
-      <c r="P98" s="3">
-        <v>43406</v>
-      </c>
-      <c r="Q98" s="97" t="s">
-        <v>20</v>
-      </c>
-      <c r="R98" s="97">
-        <v>512580</v>
-      </c>
-      <c r="S98">
-        <v>0.66220000000000001</v>
-      </c>
-      <c r="T98" s="25" t="s">
-        <v>20</v>
-      </c>
+      <c r="P98" s="3"/>
+      <c r="Q98" s="97"/>
+      <c r="R98" s="97"/>
+      <c r="T98" s="25"/>
     </row>
     <row r="99" spans="1:20">
       <c r="A99" s="3">
@@ -33282,11 +33168,11 @@
         <v>2.4548355763604444</v>
       </c>
       <c r="J99" s="21">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>128095.38958455237</v>
       </c>
       <c r="K99" s="21">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>15710.947688706843</v>
       </c>
       <c r="L99" s="7" t="s">
@@ -33299,21 +33185,10 @@
         <v>7.67</v>
       </c>
       <c r="O99" s="4"/>
-      <c r="P99" s="3">
-        <v>43406</v>
-      </c>
-      <c r="Q99" s="97" t="s">
-        <v>182</v>
-      </c>
-      <c r="R99" s="97">
-        <v>1064</v>
-      </c>
-      <c r="S99">
-        <v>0.50209999999999999</v>
-      </c>
-      <c r="T99" s="25" t="s">
-        <v>182</v>
-      </c>
+      <c r="P99" s="3"/>
+      <c r="Q99" s="97"/>
+      <c r="R99" s="97"/>
+      <c r="T99" s="25"/>
     </row>
     <row r="100" spans="1:20">
       <c r="A100" s="3">
@@ -33340,11 +33215,11 @@
       <c r="H100" s="21"/>
       <c r="I100" s="21"/>
       <c r="J100" s="21">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="K100" s="21">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="L100" s="7" t="s">
@@ -33357,26 +33232,15 @@
         <v>0</v>
       </c>
       <c r="O100" s="4"/>
-      <c r="P100" s="3">
-        <v>43406</v>
-      </c>
-      <c r="Q100" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="R100" s="97">
-        <v>512980</v>
-      </c>
-      <c r="S100">
-        <v>0.68400000000000005</v>
-      </c>
-      <c r="T100" s="25" t="s">
-        <v>23</v>
-      </c>
+      <c r="P100" s="3"/>
+      <c r="Q100" s="97"/>
+      <c r="R100" s="97"/>
+      <c r="T100" s="25"/>
     </row>
     <row r="101" spans="1:20">
       <c r="A101" s="3"/>
-      <c r="B101" s="71"/>
-      <c r="C101" s="71"/>
+      <c r="B101" s="109"/>
+      <c r="C101" s="109"/>
       <c r="D101" s="3"/>
       <c r="E101" s="21"/>
       <c r="F101" s="21"/>
@@ -33388,21 +33252,10 @@
       <c r="L101" s="5"/>
       <c r="M101" s="1"/>
       <c r="N101" s="4"/>
-      <c r="P101" s="3">
-        <v>43406</v>
-      </c>
-      <c r="Q101" s="97" t="s">
-        <v>174</v>
-      </c>
-      <c r="R101" s="97">
-        <v>1051</v>
-      </c>
-      <c r="S101">
-        <v>0.877</v>
-      </c>
-      <c r="T101" s="66" t="s">
-        <v>174</v>
-      </c>
+      <c r="P101" s="3"/>
+      <c r="Q101" s="97"/>
+      <c r="R101" s="97"/>
+      <c r="T101" s="66"/>
     </row>
     <row r="102" spans="1:20">
       <c r="A102" s="3"/>
@@ -33420,21 +33273,10 @@
       <c r="M102" s="1"/>
       <c r="N102" s="4"/>
       <c r="O102" s="4"/>
-      <c r="P102" s="3">
-        <v>43406</v>
-      </c>
-      <c r="Q102" s="97" t="s">
-        <v>167</v>
-      </c>
-      <c r="R102" s="97">
-        <v>478</v>
-      </c>
-      <c r="S102">
-        <v>1.7101</v>
-      </c>
-      <c r="T102" s="66" t="s">
-        <v>167</v>
-      </c>
+      <c r="P102" s="3"/>
+      <c r="Q102" s="97"/>
+      <c r="R102" s="97"/>
+      <c r="T102" s="66"/>
     </row>
     <row r="103" spans="1:20">
       <c r="A103" s="3"/>
@@ -33447,7 +33289,7 @@
       <c r="H103" s="21"/>
       <c r="I103" s="21"/>
       <c r="J103" s="21">
-        <f t="shared" ref="J103" si="30">H103*(-M103)</f>
+        <f t="shared" ref="J103" si="33">H103*(-M103)</f>
         <v>0</v>
       </c>
       <c r="K103" s="21"/>
@@ -33455,21 +33297,10 @@
       <c r="M103" s="1"/>
       <c r="N103" s="4"/>
       <c r="O103" s="4"/>
-      <c r="P103" s="3">
-        <v>43406</v>
-      </c>
-      <c r="Q103" s="97" t="s">
-        <v>168</v>
-      </c>
-      <c r="R103" s="97">
-        <v>1052</v>
-      </c>
-      <c r="S103">
-        <v>0.49</v>
-      </c>
-      <c r="T103" s="66" t="s">
-        <v>168</v>
-      </c>
+      <c r="P103" s="3"/>
+      <c r="Q103" s="97"/>
+      <c r="R103" s="97"/>
+      <c r="T103" s="66"/>
     </row>
     <row r="104" spans="1:20">
       <c r="A104" s="3"/>
@@ -33487,21 +33318,10 @@
       <c r="M104" s="1"/>
       <c r="N104" s="4"/>
       <c r="O104" s="4"/>
-      <c r="P104" s="3">
-        <v>43406</v>
-      </c>
-      <c r="Q104" s="97" t="s">
-        <v>169</v>
-      </c>
-      <c r="R104" s="97">
-        <v>161017</v>
-      </c>
-      <c r="S104">
-        <v>1.7230000000000001</v>
-      </c>
-      <c r="T104" s="66" t="s">
-        <v>169</v>
-      </c>
+      <c r="P104" s="3"/>
+      <c r="Q104" s="97"/>
+      <c r="R104" s="97"/>
+      <c r="T104" s="66"/>
     </row>
     <row r="105" spans="1:20">
       <c r="A105" s="3"/>
@@ -33514,28 +33334,17 @@
       <c r="H105" s="21"/>
       <c r="I105" s="21"/>
       <c r="J105" s="21">
-        <f t="shared" ref="J105" si="31">H105*(-M105)</f>
+        <f t="shared" ref="J105" si="34">H105*(-M105)</f>
         <v>0</v>
       </c>
       <c r="K105" s="21"/>
       <c r="L105" s="5"/>
       <c r="M105" s="1"/>
       <c r="N105" s="4"/>
-      <c r="P105" s="3">
-        <v>43406</v>
-      </c>
-      <c r="Q105" s="97" t="s">
-        <v>170</v>
-      </c>
-      <c r="R105" s="97">
-        <v>2903</v>
-      </c>
-      <c r="S105">
-        <v>0.78139999999999998</v>
-      </c>
-      <c r="T105" s="66" t="s">
-        <v>170</v>
-      </c>
+      <c r="P105" s="3"/>
+      <c r="Q105" s="97"/>
+      <c r="R105" s="97"/>
+      <c r="T105" s="66"/>
     </row>
     <row r="106" spans="1:20">
       <c r="A106" s="3"/>
@@ -33548,7 +33357,7 @@
       <c r="H106" s="21"/>
       <c r="I106" s="21"/>
       <c r="J106" s="21">
-        <f t="shared" ref="J106:J116" si="32">H106*(-M106)</f>
+        <f t="shared" ref="J106:J116" si="35">H106*(-M106)</f>
         <v>0</v>
       </c>
       <c r="K106" s="21"/>
@@ -33558,21 +33367,10 @@
       <c r="O106" t="s">
         <v>27</v>
       </c>
-      <c r="P106" s="3">
-        <v>43406</v>
-      </c>
-      <c r="Q106" s="97" t="s">
-        <v>171</v>
-      </c>
-      <c r="R106" s="97">
-        <v>100038</v>
-      </c>
-      <c r="S106">
-        <v>1.6439999999999999</v>
-      </c>
-      <c r="T106" s="66" t="s">
-        <v>171</v>
-      </c>
+      <c r="P106" s="3"/>
+      <c r="Q106" s="97"/>
+      <c r="R106" s="97"/>
+      <c r="T106" s="66"/>
     </row>
     <row r="107" spans="1:20">
       <c r="A107" s="3"/>
@@ -33592,21 +33390,10 @@
       <c r="O107" t="s">
         <v>28</v>
       </c>
-      <c r="P107" s="3">
-        <v>43406</v>
-      </c>
-      <c r="Q107" s="97" t="s">
-        <v>172</v>
-      </c>
-      <c r="R107" s="97">
-        <v>51</v>
-      </c>
-      <c r="S107">
-        <v>1.095</v>
-      </c>
-      <c r="T107" s="66" t="s">
-        <v>172</v>
-      </c>
+      <c r="P107" s="3"/>
+      <c r="Q107" s="97"/>
+      <c r="R107" s="97"/>
+      <c r="T107" s="66"/>
     </row>
     <row r="108" spans="1:20">
       <c r="A108" s="3"/>
@@ -33619,28 +33406,17 @@
       <c r="H108" s="21"/>
       <c r="I108" s="21"/>
       <c r="J108" s="21">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="K108" s="21"/>
       <c r="L108" s="5"/>
       <c r="M108" s="1"/>
       <c r="N108" s="4"/>
-      <c r="P108" s="3">
-        <v>43406</v>
-      </c>
-      <c r="Q108" s="97" t="s">
-        <v>173</v>
-      </c>
-      <c r="R108" s="97">
-        <v>4752</v>
-      </c>
-      <c r="S108">
-        <v>0.68269999999999997</v>
-      </c>
-      <c r="T108" s="66" t="s">
-        <v>173</v>
-      </c>
+      <c r="P108" s="3"/>
+      <c r="Q108" s="97"/>
+      <c r="R108" s="97"/>
+      <c r="T108" s="66"/>
     </row>
     <row r="109" spans="1:20">
       <c r="A109" s="3"/>
@@ -33653,28 +33429,17 @@
       <c r="H109" s="21"/>
       <c r="I109" s="21"/>
       <c r="J109" s="21">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="K109" s="21"/>
       <c r="L109" s="5"/>
       <c r="M109" s="1"/>
       <c r="N109" s="4"/>
-      <c r="P109" s="3">
-        <v>43406</v>
-      </c>
-      <c r="Q109" s="97" t="s">
-        <v>7463</v>
-      </c>
-      <c r="R109" s="97">
-        <v>110022</v>
-      </c>
-      <c r="S109">
-        <v>1.8660000000000001</v>
-      </c>
-      <c r="T109" s="66" t="s">
-        <v>7463</v>
-      </c>
+      <c r="P109" s="3"/>
+      <c r="Q109" s="97"/>
+      <c r="R109" s="97"/>
+      <c r="T109" s="66"/>
     </row>
     <row r="110" spans="1:20">
       <c r="A110" s="3">
@@ -33687,7 +33452,7 @@
       <c r="H110" s="3"/>
       <c r="I110" s="3"/>
       <c r="J110" s="21">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="K110" s="21"/>
@@ -33699,21 +33464,10 @@
         <v>562677.82999999996</v>
       </c>
       <c r="N110" s="1"/>
-      <c r="P110" s="3">
-        <v>43406</v>
-      </c>
-      <c r="Q110" s="97" t="s">
-        <v>7464</v>
-      </c>
-      <c r="R110" s="97">
-        <v>110026</v>
-      </c>
-      <c r="S110">
-        <v>1.4189000000000001</v>
-      </c>
-      <c r="T110" s="66" t="s">
-        <v>7464</v>
-      </c>
+      <c r="P110" s="3"/>
+      <c r="Q110" s="97"/>
+      <c r="R110" s="97"/>
+      <c r="T110" s="66"/>
     </row>
     <row r="111" spans="1:20">
       <c r="A111" s="3"/>
@@ -33726,27 +33480,16 @@
       <c r="H111" s="3"/>
       <c r="I111" s="3"/>
       <c r="J111" s="21">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="K111" s="21"/>
       <c r="M111" s="1"/>
       <c r="N111" s="4"/>
-      <c r="P111" s="3">
-        <v>43406</v>
-      </c>
-      <c r="Q111" s="97" t="s">
-        <v>7481</v>
-      </c>
-      <c r="R111" s="97">
-        <v>3765</v>
-      </c>
-      <c r="S111">
-        <v>0.77859999999999996</v>
-      </c>
-      <c r="T111" s="66" t="s">
-        <v>7474</v>
-      </c>
+      <c r="P111" s="3"/>
+      <c r="Q111" s="97"/>
+      <c r="R111" s="97"/>
+      <c r="T111" s="66"/>
     </row>
     <row r="112" spans="1:20">
       <c r="A112" s="3"/>
@@ -33759,27 +33502,16 @@
       <c r="H112" s="3"/>
       <c r="I112" s="3"/>
       <c r="J112" s="21">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="K112" s="21"/>
       <c r="M112" s="1"/>
       <c r="N112" s="4"/>
-      <c r="P112" s="3">
-        <v>43406</v>
-      </c>
-      <c r="Q112" s="97" t="s">
-        <v>183</v>
-      </c>
-      <c r="R112" s="97">
-        <v>1469</v>
-      </c>
-      <c r="S112">
-        <v>0.9385</v>
-      </c>
-      <c r="T112" s="25" t="s">
-        <v>183</v>
-      </c>
+      <c r="P112" s="3"/>
+      <c r="Q112" s="97"/>
+      <c r="R112" s="97"/>
+      <c r="T112" s="25"/>
     </row>
     <row r="113" spans="1:20">
       <c r="A113" s="3"/>
@@ -33792,27 +33524,16 @@
       <c r="H113" s="3"/>
       <c r="I113" s="3"/>
       <c r="J113" s="21">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="K113" s="21"/>
       <c r="M113" s="1"/>
       <c r="N113" s="4"/>
-      <c r="P113" s="3">
-        <v>43405</v>
-      </c>
-      <c r="Q113" s="97" t="s">
-        <v>184</v>
-      </c>
-      <c r="R113" s="97">
-        <v>614</v>
-      </c>
-      <c r="S113">
-        <v>1.099</v>
-      </c>
-      <c r="T113" s="25" t="s">
-        <v>184</v>
-      </c>
+      <c r="P113" s="3"/>
+      <c r="Q113" s="97"/>
+      <c r="R113" s="97"/>
+      <c r="T113" s="25"/>
     </row>
     <row r="114" spans="1:20">
       <c r="A114" s="3"/>
@@ -33823,7 +33544,7 @@
       <c r="H114" s="3"/>
       <c r="I114" s="3"/>
       <c r="J114" s="21">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="K114" s="21"/>
@@ -33835,25 +33556,14 @@
         <v>2.9802322387695314E-9</v>
       </c>
       <c r="N114" s="12"/>
-      <c r="P114" s="3">
-        <v>43406</v>
-      </c>
-      <c r="Q114" s="97" t="s">
-        <v>185</v>
-      </c>
-      <c r="R114" s="97">
-        <v>71</v>
-      </c>
-      <c r="S114">
-        <v>1.4474</v>
-      </c>
-      <c r="T114" s="25" t="s">
-        <v>185</v>
-      </c>
+      <c r="P114" s="3"/>
+      <c r="Q114" s="97"/>
+      <c r="R114" s="97"/>
+      <c r="T114" s="25"/>
     </row>
     <row r="115" spans="1:20">
       <c r="J115" s="21">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="K115" s="21"/>
@@ -33863,25 +33573,14 @@
       <c r="M115" s="16">
         <v>0.15763732790946963</v>
       </c>
-      <c r="P115" s="3">
-        <v>43406</v>
-      </c>
-      <c r="Q115" s="97" t="s">
-        <v>186</v>
-      </c>
-      <c r="R115" s="97">
-        <v>3376</v>
-      </c>
-      <c r="S115">
-        <v>1.0106999999999999</v>
-      </c>
-      <c r="T115" s="25" t="s">
-        <v>186</v>
-      </c>
+      <c r="P115" s="3"/>
+      <c r="Q115" s="97"/>
+      <c r="R115" s="97"/>
+      <c r="T115" s="25"/>
     </row>
     <row r="116" spans="1:20">
       <c r="J116" s="21">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="K116" s="21"/>
@@ -33891,531 +33590,119 @@
       <c r="M116" s="16">
         <v>4.7603145241737366E-2</v>
       </c>
-      <c r="P116" s="3">
-        <v>43405</v>
-      </c>
-      <c r="Q116" s="97" t="s">
-        <v>187</v>
-      </c>
-      <c r="R116" s="97">
-        <v>1061</v>
-      </c>
-      <c r="S116">
-        <v>1.4179999999999999</v>
-      </c>
-      <c r="T116" s="25" t="s">
-        <v>187</v>
-      </c>
+      <c r="P116" s="3"/>
+      <c r="Q116" s="97"/>
+      <c r="R116" s="97"/>
+      <c r="T116" s="25"/>
     </row>
     <row r="117" spans="1:20">
-      <c r="P117" s="3">
-        <v>43406</v>
-      </c>
-      <c r="Q117" s="97" t="s">
-        <v>188</v>
-      </c>
-      <c r="R117" s="97">
-        <v>340001</v>
-      </c>
-      <c r="S117">
-        <v>3.6301000000000001</v>
-      </c>
-      <c r="T117" s="25" t="s">
-        <v>188</v>
-      </c>
+      <c r="P117" s="3"/>
+      <c r="Q117" s="97"/>
+      <c r="R117" s="97"/>
+      <c r="T117" s="25"/>
     </row>
     <row r="118" spans="1:20">
-      <c r="P118" s="63" t="s">
-        <v>7476</v>
-      </c>
-      <c r="Q118" t="s">
-        <v>21</v>
-      </c>
-      <c r="R118">
-        <v>518880</v>
-      </c>
-      <c r="S118">
-        <v>1.0294000000000001</v>
-      </c>
-      <c r="T118" s="25" t="s">
-        <v>21</v>
-      </c>
+      <c r="P118" s="63"/>
+      <c r="T118" s="25"/>
     </row>
     <row r="119" spans="1:20">
-      <c r="P119" s="63" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q119">
-        <v>10.38</v>
-      </c>
-      <c r="R119">
-        <v>1.2</v>
-      </c>
-      <c r="S119">
-        <v>0.1153</v>
-      </c>
+      <c r="P119" s="63"/>
     </row>
     <row r="120" spans="1:20">
-      <c r="P120" s="63" t="s">
-        <v>7455</v>
-      </c>
-      <c r="Q120">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="R120">
-        <v>1.19</v>
-      </c>
-      <c r="S120">
-        <v>0.12230000000000001</v>
-      </c>
+      <c r="P120" s="63"/>
     </row>
     <row r="121" spans="1:20">
-      <c r="P121" s="63" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q121">
-        <v>11.07</v>
-      </c>
-      <c r="R121">
-        <v>1.34</v>
-      </c>
-      <c r="S121">
-        <v>0.1206</v>
-      </c>
+      <c r="P121" s="63"/>
     </row>
     <row r="122" spans="1:20">
-      <c r="P122" s="63" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q122">
-        <v>19.07</v>
-      </c>
-      <c r="R122">
-        <v>1.63</v>
-      </c>
-      <c r="S122">
-        <v>8.5500000000000007E-2</v>
-      </c>
+      <c r="P122" s="63"/>
     </row>
     <row r="123" spans="1:20">
-      <c r="P123" s="63" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q123">
-        <v>20.76</v>
-      </c>
-      <c r="R123">
-        <v>1.84</v>
-      </c>
-      <c r="S123">
-        <v>8.8800000000000004E-2</v>
-      </c>
+      <c r="P123" s="63"/>
     </row>
     <row r="124" spans="1:20">
-      <c r="P124" s="63" t="s">
-        <v>7462</v>
-      </c>
-      <c r="Q124">
-        <v>30.01</v>
-      </c>
-      <c r="R124">
-        <v>3.49</v>
-      </c>
-      <c r="S124">
-        <v>0.1163</v>
-      </c>
+      <c r="P124" s="63"/>
     </row>
     <row r="125" spans="1:20">
-      <c r="P125" s="63" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q125">
-        <v>27.59</v>
-      </c>
-      <c r="R125">
-        <v>3.17</v>
-      </c>
-      <c r="S125">
-        <v>0.1149</v>
-      </c>
+      <c r="P125" s="63"/>
     </row>
     <row r="126" spans="1:20">
-      <c r="P126" s="63" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q126">
-        <v>27.59</v>
-      </c>
-      <c r="R126">
-        <v>3.17</v>
-      </c>
-      <c r="S126">
-        <v>0.1149</v>
-      </c>
+      <c r="P126" s="63"/>
     </row>
     <row r="127" spans="1:20">
-      <c r="P127" s="63" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q127">
-        <v>21.28</v>
-      </c>
-      <c r="R127">
-        <v>2.61</v>
-      </c>
-      <c r="S127">
-        <v>0.1226</v>
-      </c>
+      <c r="P127" s="63"/>
     </row>
     <row r="128" spans="1:20">
-      <c r="P128" s="63" t="s">
-        <v>7456</v>
-      </c>
-      <c r="Q128">
-        <v>24.46</v>
-      </c>
-      <c r="R128">
-        <v>1.25</v>
-      </c>
-      <c r="S128">
-        <v>5.0999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="129" spans="14:19">
-      <c r="P129" s="63" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q129">
-        <v>19.989999999999998</v>
-      </c>
-      <c r="R129">
-        <v>1.61</v>
-      </c>
-      <c r="S129">
-        <v>8.0399999999999999E-2</v>
-      </c>
-    </row>
-    <row r="130" spans="14:19">
-      <c r="P130" s="63" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q130">
-        <v>19.989999999999998</v>
-      </c>
-      <c r="R130">
-        <v>1.61</v>
-      </c>
-      <c r="S130">
-        <v>8.0399999999999999E-2</v>
-      </c>
-    </row>
-    <row r="131" spans="14:19">
-      <c r="P131" s="63" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q131">
-        <v>22.23</v>
-      </c>
-      <c r="R131">
-        <v>2.5299999999999998</v>
-      </c>
-      <c r="S131">
-        <v>0.1138</v>
-      </c>
-    </row>
-    <row r="132" spans="14:19">
-      <c r="P132" s="63" t="s">
-        <v>7455</v>
-      </c>
-      <c r="Q132">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="R132">
-        <v>1.19</v>
-      </c>
-      <c r="S132">
-        <v>0.12230000000000001</v>
-      </c>
-    </row>
-    <row r="133" spans="14:19">
-      <c r="P133" s="63" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q133">
-        <v>19.07</v>
-      </c>
-      <c r="R133">
-        <v>1.63</v>
-      </c>
-      <c r="S133">
-        <v>8.5500000000000007E-2</v>
-      </c>
-    </row>
-    <row r="134" spans="14:19">
+      <c r="P128" s="63"/>
+    </row>
+    <row r="129" spans="14:16">
+      <c r="P129" s="63"/>
+    </row>
+    <row r="130" spans="14:16">
+      <c r="P130" s="63"/>
+    </row>
+    <row r="131" spans="14:16">
+      <c r="P131" s="63"/>
+    </row>
+    <row r="132" spans="14:16">
+      <c r="P132" s="63"/>
+    </row>
+    <row r="133" spans="14:16">
+      <c r="P133" s="63"/>
+    </row>
+    <row r="134" spans="14:16">
       <c r="N134">
         <f>SUMIF(C:C,"=医药",J:J)/SUMIF(C:C,"=医药",M:M)*-1</f>
         <v>29.443598214563757</v>
       </c>
-      <c r="P134" s="63" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q134">
-        <v>19.07</v>
-      </c>
-      <c r="R134">
-        <v>1.63</v>
-      </c>
-      <c r="S134">
-        <v>8.5500000000000007E-2</v>
-      </c>
-    </row>
-    <row r="135" spans="14:19">
-      <c r="P135" s="63" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q135">
-        <v>19.07</v>
-      </c>
-      <c r="R135">
-        <v>1.63</v>
-      </c>
-      <c r="S135">
-        <v>8.5500000000000007E-2</v>
-      </c>
-    </row>
-    <row r="136" spans="14:19">
-      <c r="P136" s="63" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q136">
-        <v>19.07</v>
-      </c>
-      <c r="R136">
-        <v>1.63</v>
-      </c>
-      <c r="S136">
-        <v>8.5500000000000007E-2</v>
-      </c>
-    </row>
-    <row r="137" spans="14:19">
-      <c r="P137" s="63" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q137">
-        <v>11.07</v>
-      </c>
-      <c r="R137">
-        <v>1.34</v>
-      </c>
-      <c r="S137">
-        <v>0.1206</v>
-      </c>
-    </row>
-    <row r="138" spans="14:19">
-      <c r="P138" s="63" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q138">
-        <v>11.07</v>
-      </c>
-      <c r="R138">
-        <v>1.34</v>
-      </c>
-      <c r="S138">
-        <v>0.1206</v>
-      </c>
-    </row>
-    <row r="139" spans="14:19">
-      <c r="P139" s="63" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q139">
-        <v>22.23</v>
-      </c>
-      <c r="R139">
-        <v>2.5299999999999998</v>
-      </c>
-      <c r="S139">
-        <v>0.1138</v>
-      </c>
-    </row>
-    <row r="140" spans="14:19">
-      <c r="P140" s="63" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q140">
-        <v>922</v>
-      </c>
-      <c r="R140">
-        <v>3916.03</v>
-      </c>
-    </row>
-    <row r="141" spans="14:19">
-      <c r="P141" s="63" t="s">
-        <v>7461</v>
-      </c>
-      <c r="Q141">
-        <v>1</v>
-      </c>
-      <c r="R141">
-        <v>2676.48</v>
-      </c>
-    </row>
-    <row r="142" spans="14:19">
-      <c r="P142" s="63" t="s">
-        <v>7455</v>
-      </c>
-      <c r="Q142">
-        <v>16</v>
-      </c>
-      <c r="R142">
-        <v>2542.77</v>
-      </c>
-    </row>
-    <row r="143" spans="14:19">
-      <c r="P143" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q143">
-        <v>300</v>
-      </c>
-      <c r="R143">
-        <v>3290.25</v>
-      </c>
-    </row>
-    <row r="144" spans="14:19">
-      <c r="P144" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q144">
-        <v>905</v>
-      </c>
-      <c r="R144">
-        <v>4437.95</v>
-      </c>
-    </row>
-    <row r="145" spans="16:18">
-      <c r="P145" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q145">
-        <v>852</v>
-      </c>
-      <c r="R145">
-        <v>4564.18</v>
-      </c>
-    </row>
-    <row r="146" spans="16:18">
-      <c r="P146" t="s">
-        <v>7477</v>
-      </c>
-      <c r="Q146">
-        <v>992</v>
-      </c>
-      <c r="R146">
-        <v>5262.06</v>
-      </c>
-    </row>
-    <row r="147" spans="16:18">
-      <c r="P147" t="s">
-        <v>7456</v>
-      </c>
-      <c r="Q147">
-        <v>399975</v>
-      </c>
-      <c r="R147">
-        <v>592.24</v>
-      </c>
-    </row>
-    <row r="148" spans="16:18">
-      <c r="P148" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q148">
-        <v>399971</v>
-      </c>
-      <c r="R148">
-        <v>1160.33</v>
-      </c>
-    </row>
-    <row r="149" spans="16:18">
-      <c r="P149" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q149">
-        <v>991</v>
-      </c>
-      <c r="R149" s="15">
-        <v>8364.33</v>
-      </c>
-    </row>
-    <row r="150" spans="16:18">
-      <c r="P150" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q150">
-        <v>399812</v>
-      </c>
-      <c r="R150" s="15">
-        <v>6521.11</v>
-      </c>
-    </row>
-    <row r="151" spans="16:18">
-      <c r="P151" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q151">
-        <v>827</v>
-      </c>
-      <c r="R151" s="15">
-        <v>1088.1400000000001</v>
-      </c>
-    </row>
-    <row r="152" spans="16:18">
-      <c r="P152" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q152">
-        <v>399006</v>
-      </c>
-      <c r="R152" s="15">
-        <v>1348.28</v>
-      </c>
-    </row>
-    <row r="153" spans="16:18">
-      <c r="P153" t="s">
-        <v>7478</v>
-      </c>
-      <c r="Q153">
-        <v>990</v>
-      </c>
-      <c r="R153" s="15">
-        <v>8859.93</v>
-      </c>
-    </row>
-    <row r="154" spans="16:18">
-      <c r="P154" t="s">
-        <v>7457</v>
-      </c>
-      <c r="Q154" t="s">
-        <v>7479</v>
-      </c>
-      <c r="R154" s="15">
-        <v>26486.35</v>
-      </c>
-    </row>
-    <row r="155" spans="16:18">
-      <c r="P155" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q155" t="s">
-        <v>7480</v>
-      </c>
-      <c r="R155" s="15">
-        <v>11518.99</v>
-      </c>
-    </row>
-    <row r="156" spans="16:18">
+      <c r="P134" s="63"/>
+    </row>
+    <row r="135" spans="14:16">
+      <c r="P135" s="63"/>
+    </row>
+    <row r="136" spans="14:16">
+      <c r="P136" s="63"/>
+    </row>
+    <row r="137" spans="14:16">
+      <c r="P137" s="63"/>
+    </row>
+    <row r="138" spans="14:16">
+      <c r="P138" s="63"/>
+    </row>
+    <row r="139" spans="14:16">
+      <c r="P139" s="63"/>
+    </row>
+    <row r="140" spans="14:16">
+      <c r="P140" s="63"/>
+    </row>
+    <row r="141" spans="14:16">
+      <c r="P141" s="63"/>
+    </row>
+    <row r="142" spans="14:16">
+      <c r="P142" s="63"/>
+    </row>
+    <row r="149" spans="18:18">
+      <c r="R149" s="15"/>
+    </row>
+    <row r="150" spans="18:18">
+      <c r="R150" s="15"/>
+    </row>
+    <row r="151" spans="18:18">
+      <c r="R151" s="15"/>
+    </row>
+    <row r="152" spans="18:18">
+      <c r="R152" s="15"/>
+    </row>
+    <row r="153" spans="18:18">
+      <c r="R153" s="15"/>
+    </row>
+    <row r="154" spans="18:18">
+      <c r="R154" s="15"/>
+    </row>
+    <row r="155" spans="18:18">
+      <c r="R155" s="15"/>
+    </row>
+    <row r="156" spans="18:18">
       <c r="R156" s="15"/>
     </row>
   </sheetData>
@@ -36458,8 +35745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AB39"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -37213,8 +36500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AB47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:XFD21"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -38510,11 +37797,12 @@
         <v>-4.0460517185724187E-2</v>
       </c>
       <c r="M26" s="99">
-        <v>3766.12</v>
+        <f>已投部分年化收益率!Q69</f>
+        <v>3916.03</v>
       </c>
       <c r="N26" s="99">
         <f>M26*(1+L26)</f>
-        <v>3613.7408370165003</v>
+        <v>3757.5854008851888</v>
       </c>
       <c r="O26" s="89">
         <f>资产配置表!C3</f>
@@ -38574,11 +37862,12 @@
         <v>-5.8364133702939136E-2</v>
       </c>
       <c r="M27" s="99">
-        <v>2563.31</v>
+        <f>已投部分年化收益率!Q70</f>
+        <v>2676.48</v>
       </c>
       <c r="N27" s="99">
         <f>M27*(1+L27)</f>
-        <v>2413.7046324379189</v>
+        <v>2520.2695634267575</v>
       </c>
       <c r="O27" s="96">
         <f>资产配置表!C4</f>
@@ -38639,11 +37928,12 @@
         <v>-2.8629673449588555E-2</v>
       </c>
       <c r="M28" s="99">
-        <v>2445.71</v>
+        <f>已投部分年化收益率!Q71</f>
+        <v>2542.77</v>
       </c>
       <c r="N28" s="99">
         <f t="shared" ref="N28:N38" si="18">M28*(1+L28)</f>
-        <v>2375.6901213476067</v>
+        <v>2469.9713252425895</v>
       </c>
       <c r="O28" s="89">
         <f>资产配置表!C4</f>
@@ -38704,11 +37994,12 @@
         <v>-5.9361217908592723E-2</v>
       </c>
       <c r="M29" s="99">
-        <v>3141.3</v>
+        <f>已投部分年化收益率!Q72</f>
+        <v>3290.25</v>
       </c>
       <c r="N29" s="99">
         <f t="shared" si="18"/>
-        <v>2954.828606183738</v>
+        <v>3094.9367527762529</v>
       </c>
       <c r="O29" s="89">
         <f>资产配置表!C5</f>
@@ -38769,11 +38060,12 @@
         <v>-0.12031410733971359</v>
       </c>
       <c r="M30" s="99">
-        <v>4151.7299999999996</v>
+        <f>已投部分年化收益率!Q73</f>
+        <v>4437.95</v>
       </c>
       <c r="N30" s="99">
         <f t="shared" si="18"/>
-        <v>3652.2183111344907</v>
+        <v>3904.0020073317178</v>
       </c>
       <c r="O30" s="89">
         <f>资产配置表!C6</f>
@@ -38834,11 +38126,12 @@
         <v>-0.12596067161558111</v>
       </c>
       <c r="M31" s="99">
-        <v>4270.1499999999996</v>
+        <f>已投部分年化收益率!Q74</f>
+        <v>4564.18</v>
       </c>
       <c r="N31" s="99">
         <f t="shared" si="18"/>
-        <v>3732.2790381007262</v>
+        <v>3989.2728218255975</v>
       </c>
       <c r="O31" s="89">
         <f>资产配置表!C7</f>
@@ -38899,11 +38192,12 @@
         <v>0</v>
       </c>
       <c r="M32" s="99">
-        <v>5059.3599999999997</v>
+        <f>已投部分年化收益率!Q75</f>
+        <v>5262.06</v>
       </c>
       <c r="N32" s="99">
         <f t="shared" si="18"/>
-        <v>5059.3599999999997</v>
+        <v>5262.06</v>
       </c>
       <c r="O32" s="89">
         <f>资产配置表!C12</f>
@@ -38964,11 +38258,12 @@
         <v>0</v>
       </c>
       <c r="M33" s="99">
-        <v>551.29</v>
+        <f>已投部分年化收益率!Q76</f>
+        <v>592.24</v>
       </c>
       <c r="N33" s="99">
         <f t="shared" si="18"/>
-        <v>551.29</v>
+        <v>592.24</v>
       </c>
       <c r="O33" s="89">
         <f>资产配置表!C11</f>
@@ -39029,11 +38324,12 @@
         <v>-0.17809835748792269</v>
       </c>
       <c r="M34" s="99">
-        <v>1074.96</v>
+        <f>已投部分年化收益率!Q77</f>
+        <v>1160.33</v>
       </c>
       <c r="N34" s="99">
         <f t="shared" si="18"/>
-        <v>883.51138963478263</v>
+        <v>953.67713285603861</v>
       </c>
       <c r="O34" s="89">
         <f>资产配置表!C14</f>
@@ -39094,11 +38390,12 @@
         <v>-7.9295154185022088E-2</v>
       </c>
       <c r="M35" s="99">
-        <v>7702.38</v>
+        <f>已投部分年化收益率!Q78</f>
+        <v>8364.33</v>
       </c>
       <c r="N35" s="99">
         <f t="shared" si="18"/>
-        <v>7091.6185903083697</v>
+        <v>7701.0791629955938</v>
       </c>
       <c r="O35" s="89">
         <f>资产配置表!C10</f>
@@ -39159,11 +38456,12 @@
         <v>-8.2959589501328868E-2</v>
       </c>
       <c r="M36" s="99">
-        <v>6092.76</v>
+        <f>已投部分年化收益率!Q79</f>
+        <v>6521.11</v>
       </c>
       <c r="N36" s="99">
         <f t="shared" si="18"/>
-        <v>5587.3071314698836</v>
+        <v>5980.1213913069887</v>
       </c>
       <c r="O36" s="89">
         <f>资产配置表!C13</f>
@@ -39224,11 +38522,12 @@
         <v>-7.7758149372283536E-2</v>
       </c>
       <c r="M37" s="99">
-        <v>1017.27</v>
+        <f>已投部分年化收益率!Q80</f>
+        <v>1088.1400000000001</v>
       </c>
       <c r="N37" s="99">
         <f t="shared" si="18"/>
-        <v>938.16896738805713</v>
+        <v>1003.5282473420435</v>
       </c>
       <c r="O37" s="89">
         <f>资产配置表!C15</f>
@@ -39289,11 +38588,12 @@
         <v>-0.16115757335768788</v>
       </c>
       <c r="M38" s="99">
-        <v>1249.94</v>
+        <f>已投部分年化收益率!Q81</f>
+        <v>1348.28</v>
       </c>
       <c r="N38" s="99">
         <f t="shared" si="18"/>
-        <v>1048.5027027572917</v>
+        <v>1130.9944669932966</v>
       </c>
       <c r="O38" s="89">
         <f>资产配置表!C8</f>
@@ -39305,6 +38605,13 @@
       </c>
     </row>
     <row r="39" spans="1:17">
+      <c r="A39" s="109" t="s">
+        <v>7477</v>
+      </c>
+      <c r="M39" s="99">
+        <f>已投部分年化收益率!Q82</f>
+        <v>8859.93</v>
+      </c>
       <c r="O39" s="89">
         <f>1-SUM(O26:O38)</f>
         <v>0.28942878750000001</v>
